--- a/QALD9-Plus-data-preparation/qald9_test_results_split.xlsx
+++ b/QALD9-Plus-data-preparation/qald9_test_results_split.xlsx
@@ -474,7 +474,7 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>['http://www.wikidata.org/entity/Q718', 'http://www.wikidata.org/entity/Q1293', 'http://www.wikidata.org/entity/Q1871', 'http://www.wikidata.org/entity/Q11411', 'http://www.wikidata.org/entity/Q12263', 'http://www.wikidata.org/entity/Q12541', 'http://www.wikidata.org/entity/Q17243', 'http://www.wikidata.org/entity/Q17245', 'http://www.wikidata.org/entity/Q17247', 'http://www.wikidata.org/entity/Q17250', 'http://www.wikidata.org/entity/Q17254', 'http://www.wikidata.org/entity/Q17256', 'http://www.wikidata.org/entity/Q17258', 'http://www.wikidata.org/entity/Q17259', 'http://www.wikidata.org/entity/Q17263', 'http://www.wikidata.org/entity/Q17271', 'http://www.wikidata.org/entity/Q17286', 'http://www.wikidata.org/entity/Q32510', 'http://www.wikidata.org/entity/Q64507', 'http://www.wikidata.org/entity/Q74547', 'http://www.wikidata.org/entity/Q113370', 'http://www.wikidata.org/entity/Q140656', 'http://www.wikidata.org/entity/Q143045', 'http://www.wikidata.org/entity/Q148348', 'http://www.wikidata.org/entity/Q166165', 'http://www.wikidata.org/entity/Q176493', 'http://www.wikidata.org/entity/Q179649', 'http://www.wikidata.org/entity/Q180138', 'http://www.wikidata.org/entity/Q187794', 'http://www.wikidata.org/entity/Q201274', 'http://www.wikidata.org/entity/Q201493', 'http://www.wikidata.org/entity/Q205906', 'http://www.wikidata.org/entity/Q206230', 'http://www.wikidata.org/entity/Q209669', 'http://www.wikidata.org/entity/Q219801', 'http://www.wikidata.org/entity/Q220282', 'http://www.wikidata.org/entity/Q220469', 'http://www.wikidata.org/entity/Q223056', 'http://www.wikidata.org/entity/Q228308', 'http://www.wikidata.org/entity/Q229398', 'http://www.wikidata.org/entity/Q241538', 'http://www.wikidata.org/entity/Q267042', 'http://www.wikidata.org/entity/Q268563', 'http://www.wikidata.org/entity/Q269155', 'http://www.wikidata.org/entity/Q284357', 'http://www.wikidata.org/entity/Q291330', 'http://www.wikidata.org/entity/Q295205', 'http://www.wikidata.org/entity/Q300631', 'http://www.wikidata.org/entity/Q319100', 'http://www.wikidata.org/entity/Q333677', 'http://www.wikidata.org/entity/Q342547', 'http://www.wikidata.org/entity/Q344377', 'http://www.wikidata.org/entity/Q350935', 'http://www.wikidata.org/entity/Q352255', 'http://www.wikidata.org/entity/Q353757', 'http://www.wikidata.org/entity/Q358609', 'http://www.wikidata.org/entity/Q364742', 'http://www.wikidata.org/entity/Q364893', 'http://www.wikidata.org/entity/Q368848', 'http://www.wikidata.org/entity/Q372134', 'http://www.wikidata.org/entity/Q373777', 'http://www.wikidata.org/entity/Q378234', 'http://www.wikidata.org/entity/Q387466', 'http://www.wikidata.org/entity/Q389078', 'http://www.wikidata.org/entity/Q390444', 'http://www.wikidata.org/entity/Q391802', 'http://www.wikidata.org/entity/Q396644', 'http://www.wikidata.org/entity/Q431840', 'http://www.wikidata.org/entity/Q451694', 'http://www.wikidata.org/entity/Q456463', 'http://www.wikidata.org/entity/Q462993', 'http://www.wikidata.org/entity/Q466152', 'http://www.wikidata.org/entity/Q473986', 'http://www.wikidata.org/entity/Q481568', 'http://www.wikidata.org/entity/Q517952', 'http://www.wikidata.org/entity/Q519071', 'http://www.wikidata.org/entity/Q527125', 'http://www.wikidata.org/entity/Q540081', 'http://www.wikidata.org/entity/Q545129', 'http://www.wikidata.org/entity/Q565449', 'http://www.wikidata.org/entity/Q567247', 'http://www.wikidata.org/entity/Q570292', 'http://www.wikidata.org/entity/Q574711', 'http://www.wikidata.org/entity/Q575620', 'http://www.wikidata.org/entity/Q581533', 'http://www.wikidata.org/entity/Q582169', 'http://www.wikidata.org/entity/Q583009', 'http://www.wikidata.org/entity/Q587364', 'http://www.wikidata.org/entity/Q589985', 'http://www.wikidata.org/entity/Q591813', 'http://www.wikidata.org/entity/Q593466', 'http://www.wikidata.org/entity/Q597760', 'http://www.wikidata.org/entity/Q601529', 'http://www.wikidata.org/entity/Q611991', 'http://www.wikidata.org/entity/Q614897', 'http://www.wikidata.org/entity/Q621875', 'http://www.wikidata.org/entity/Q622939', 'http://www.wikidata.org/entity/Q626402', 'http://www.wikidata.org/entity/Q634445', 'http://www.wikidata.org/entity/Q634477', 'http://www.wikidata.org/entity/Q641916', 'http://www.wikidata.org/entity/Q643053', 'http://www.wikidata.org/entity/Q643841', 'http://www.wikidata.org/entity/Q646550', 'http://www.wikidata.org/entity/Q652361', 'http://www.wikidata.org/entity/Q655454', 'http://www.wikidata.org/entity/Q657144', 'http://www.wikidata.org/entity/Q662457', 'http://www.wikidata.org/entity/Q670945', 'http://www.wikidata.org/entity/Q676519', 'http://www.wikidata.org/entity/Q680491', 'http://www.wikidata.org/entity/Q692128', 'http://www.wikidata.org/entity/Q692570', 'http://www.wikidata.org/entity/Q697302', 'http://www.wikidata.org/entity/Q735544', 'http://www.wikidata.org/entity/Q739182', 'http://www.wikidata.org/entity/Q750693', 'http://www.wikidata.org/entity/Q753747', 'http://www.wikidata.org/entity/Q758055', 'http://www.wikidata.org/entity/Q766669', 'http://www.wikidata.org/entity/Q781244', 'http://www.wikidata.org/entity/Q783451', 'http://www.wikidata.org/entity/Q787302', 'http://www.wikidata.org/entity/Q792553', 'http://www.wikidata.org/entity/Q797621', 'http://www.wikidata.org/entity/Q799903', 'http://www.wikidata.org/entity/Q807050', 'http://www.wikidata.org/entity/Q811019', 'http://www.wikidata.org/entity/Q811305', 'http://www.wikidata.org/entity/Q811846', 'http://www.wikidata.org/entity/Q829265', 'http://www.wikidata.org/entity/Q831656', 'http://www.wikidata.org/entity/Q834876', 'http://www.wikidata.org/entity/Q857949', 'http://www.wikidata.org/entity/Q858557', 'http://www.wikidata.org/entity/Q862692', 'http://www.wikidata.org/entity/Q880104', 'http://www.wikidata.org/entity/Q885781', 'http://www.wikidata.org/entity/Q893043', 'http://www.wikidata.org/entity/Q894043', 'http://www.wikidata.org/entity/Q903415', 'http://www.wikidata.org/entity/Q903935', 'http://www.wikidata.org/entity/Q913720', 'http://www.wikidata.org/entity/Q925541', 'http://www.wikidata.org/entity/Q932940', 'http://www.wikidata.org/entity/Q933844', 'http://www.wikidata.org/entity/Q937315', 'http://www.wikidata.org/entity/Q953491', 'http://www.wikidata.org/entity/Q959189', 'http://www.wikidata.org/entity/Q966029', 'http://www.wikidata.org/entity/Q968853', 'http://www.wikidata.org/entity/Q969785', 'http://www.wikidata.org/entity/Q972726', 'http://www.wikidata.org/entity/Q977163', 'http://www.wikidata.org/entity/Q989473', 'http://www.wikidata.org/entity/Q1025411', 'http://www.wikidata.org/entity/Q1025620', 'http://www.wikidata.org/entity/Q1030283', 'http://www.wikidata.org/entity/Q1034057', 'http://www.wikidata.org/entity/Q1034689', 'http://www.wikidata.org/entity/Q1035253', 'http://www.wikidata.org/entity/Q1035267', 'http://www.wikidata.org/entity/Q1045090', 'http://www.wikidata.org/entity/Q1045757', 'http://www.wikidata.org/entity/Q1045956', 'http://www.wikidata.org/entity/Q1055920', 'http://www.wikidata.org/entity/Q1057836', 'http://www.wikidata.org/entity/Q1057853', 'http://www.wikidata.org/entity/Q1059507', 'http://www.wikidata.org/entity/Q1061250', 'http://www.wikidata.org/entity/Q1062545', 'http://www.wikidata.org/entity/Q1073784', 'http://www.wikidata.org/entity/Q1082969', 'http://www.wikidata.org/entity/Q1083528', 'http://www.wikidata.org/entity/Q1094512', 'http://www.wikidata.org/entity/Q1099570', 'http://www.wikidata.org/entity/Q1111617', 'http://www.wikidata.org/entity/Q1111761', 'http://www.wikidata.org/entity/Q1112246', 'http://www.wikidata.org/entity/Q1115156', 'http://www.wikidata.org/entity/Q1126593', 'http://www.wikidata.org/entity/Q1128406', 'http://www.wikidata.org/entity/Q1128427', 'http://www.wikidata.org/entity/Q1136123', 'http://www.wikidata.org/entity/Q1138894', 'http://www.wikidata.org/entity/Q1139103', 'http://www.wikidata.org/entity/Q1142198', 'http://www.wikidata.org/entity/Q1144394', 'http://www.wikidata.org/entity/Q1154370', 'http://www.wikidata.org/entity/Q1156448', 'http://www.wikidata.org/entity/Q1166176', 'http://www.wikidata.org/entity/Q1170917', 'http://www.wikidata.org/entity/Q1171393', 'http://www.wikidata.org/entity/Q1179755', 'http://www.wikidata.org/entity/Q1192929', 'http://www.wikidata.org/entity/Q1194258', 'http://www.wikidata.org/entity/Q1198600', 'http://www.wikidata.org/entity/Q1199807', 'http://www.wikidata.org/entity/Q1200534', 'http://www.wikidata.org/entity/Q1206354', 'http://www.wikidata.org/entity/Q1211247', 'http://www.wikidata.org/entity/Q1212825', 'http://www.wikidata.org/entity/Q1214320', 'http://www.wikidata.org/entity/Q1216797', 'http://www.wikidata.org/entity/Q1219090', 'http://www.wikidata.org/entity/Q1220410', 'http://www.wikidata.org/entity/Q1224674', 'http://www.wikidata.org/entity/Q1238788', 'http://www.wikidata.org/entity/Q1241195', 'http://www.wikidata.org/entity/Q1254280', 'http://www.wikidata.org/entity/Q1254831', 'http://www.wikidata.org/entity/Q1261342', 'http://www.wikidata.org/entity/Q1261635', 'http://www.wikidata.org/entity/Q1265734', 'http://www.wikidata.org/entity/Q1266404', 'http://www.wikidata.org/entity/Q1266886', 'http://www.wikidata.org/entity/Q1272695', 'http://www.wikidata.org/entity/Q1297658', 'http://www.wikidata.org/entity/Q1305677', 'http://www.wikidata.org/entity/Q1307125', 'http://www.wikidata.org/entity/Q1319327', 'http://www.wikidata.org/entity/Q1319521', 'http://www.wikidata.org/entity/Q1324206', 'http://www.wikidata.org/entity/Q1324536', 'http://www.wikidata.org/entity/Q1328502', 'http://www.wikidata.org/entity/Q1328529', 'http://www.wikidata.org/entity/Q1339281', 'http://www.wikidata.org/entity/Q1343187', 'http://www.wikidata.org/entity/Q1344436', 'http://www.wikidata.org/entity/Q1346928', 'http://www.wikidata.org/entity/Q1350364', 'http://www.wikidata.org/entity/Q1367474', 'http://www.wikidata.org/entity/Q1370030', 'http://www.wikidata.org/entity/Q1374184', 'http://www.wikidata.org/entity/Q1376220', 'http://www.wikidata.org/entity/Q1377685', 'http://www.wikidata.org/entity/Q1393717', 'http://www.wikidata.org/entity/Q1395568', 'http://www.wikidata.org/entity/Q1395834', 'http://www.wikidata.org/entity/Q1396294', 'http://www.wikidata.org/entity/Q1396737', 'http://www.wikidata.org/entity/Q1397903', 'http://www.wikidata.org/entity/Q1398467', 'http://www.wikidata.org/entity/Q1402985', 'http://www.wikidata.org/entity/Q1410849', 'http://www.wikidata.org/entity/Q1411087', 'http://www.wikidata.org/entity/Q1414302', 'http://www.wikidata.org/entity/Q1416698', 'http://www.wikidata.org/entity/Q1418350', 'http://www.wikidata.org/entity/Q1419354', 'http://www.wikidata.org/entity/Q1420716', 'http://www.wikidata.org/entity/Q1422190', 'http://www.wikidata.org/entity/Q1426591', 'http://www.wikidata.org/entity/Q1426935', 'http://www.wikidata.org/entity/Q1431363', 'http://www.wikidata.org/entity/Q1433046', 'http://www.wikidata.org/entity/Q1437815', 'http://www.wikidata.org/entity/Q1439418', 'http://www.wikidata.org/entity/Q1456644', 'http://www.wikidata.org/entity/Q1464572', 'http://www.wikidata.org/entity/Q1464861', 'http://www.wikidata.org/entity/Q1465897', 'http://www.wikidata.org/entity/Q1468245', 'http://www.wikidata.org/entity/Q1469388', 'http://www.wikidata.org/entity/Q1474394', 'http://www.wikidata.org/entity/Q1476306', 'http://www.wikidata.org/entity/Q1502489', 'http://www.wikidata.org/entity/Q1506762', 'http://www.wikidata.org/entity/Q1511387', 'http://www.wikidata.org/entity/Q1518661', 'http://www.wikidata.org/entity/Q1533322', 'http://www.wikidata.org/entity/Q1533410', 'http://www.wikidata.org/entity/Q1546909', 'http://www.wikidata.org/entity/Q1548611', 'http://www.wikidata.org/entity/Q1550933', 'http://www.wikidata.org/entity/Q1553628', 'http://www.wikidata.org/entity/Q1554083', 'http://www.wikidata.org/entity/Q1571026', 'http://www.wikidata.org/entity/Q1582933', 'http://www.wikidata.org/entity/Q1585000', 'http://www.wikidata.org/entity/Q1593053', 'http://www.wikidata.org/entity/Q1609062', 'http://www.wikidata.org/entity/Q1610488', 'http://www.wikidata.org/entity/Q1615469', 'http://www.wikidata.org/entity/Q1619004', 'http://www.wikidata.org/entity/Q1625825', 'http://www.wikidata.org/entity/Q1628689', 'http://www.wikidata.org/entity/Q1630513', 'http://www.wikidata.org/entity/Q1630813', 'http://www.wikidata.org/entity/Q1634851', 'http://www.wikidata.org/entity/Q1637382', 'http://www.wikidata.org/entity/Q1637395', 'http://www.wikidata.org/entity/Q1646571', 'http://www.wikidata.org/entity/Q1656863', 'http://www.wikidata.org/entity/Q1657101', 'http://www.wikidata.org/entity/Q1658543', 'http://www.wikidata.org/entity/Q1658898', 'http://www.wikidata.org/entity/Q1660280', 'http://www.wikidata.org/entity/Q1660399', 'http://www.wikidata.org/entity/Q1665651', 'http://www.wikidata.org/entity/Q1679858', 'http://www.wikidata.org/entity/Q1684168', 'http://www.wikidata.org/entity/Q1697299', 'http://www.wikidata.org/entity/Q1700280', 'http://www.wikidata.org/entity/Q1700560', 'http://www.wikidata.org/entity/Q1704181', 'http://www.wikidata.org/entity/Q1710069', 'http://www.wikidata.org/entity/Q1714791', 'http://www.wikidata.org/entity/Q1718703', 'http://www.wikidata.org/entity/Q1719421', 'http://www.wikidata.org/entity/Q1721235', 'http://www.wikidata.org/entity/Q1721871', 'http://www.wikidata.org/entity/Q1725276', 'http://www.wikidata.org/entity/Q1729086', 'http://www.wikidata.org/entity/Q1734010', 'http://www.wikidata.org/entity/Q1735561', 'http://www.wikidata.org/entity/Q1739284', 'http://www.wikidata.org/entity/Q1740320', 'http://www.wikidata.org/entity/Q1740550', 'http://www.wikidata.org/entity/Q1741359', 'http://www.wikidata.org/entity/Q1741998', 'http://www.wikidata.org/entity/Q1742108', 'http://www.wikidata.org/entity/Q1742125', 'http://www.wikidata.org/entity/Q1749762', 'http://www.wikidata.org/entity/Q1752732', 'http://www.wikidata.org/entity/Q1755280', 'http://www.wikidata.org/entity/Q1770670', 'http://www.wikidata.org/entity/Q1772754', 'http://www.wikidata.org/entity/Q1774838', 'http://www.wikidata.org/entity/Q1777758', 'http://www.wikidata.org/entity/Q1785416', 'http://www.wikidata.org/entity/Q1786673', 'http://www.wikidata.org/entity/Q1792503', 'http://www.wikidata.org/entity/Q1809927', 'http://www.wikidata.org/entity/Q1821129', 'http://www.wikidata.org/entity/Q1831083', 'http://www.wikidata.org/entity/Q1852249', 'http://www.wikidata.org/entity/Q1856878', 'http://www.wikidata.org/entity/Q1864356', 'http://www.wikidata.org/entity/Q1869731', 'http://www.wikidata.org/entity/Q1879955', 'http://www.wikidata.org/entity/Q1881098', 'http://www.wikidata.org/entity/Q1883635', 'http://www.wikidata.org/entity/Q1888673', 'http://www.wikidata.org/entity/Q1897687', 'http://www.wikidata.org/entity/Q1914113', 'http://www.wikidata.org/entity/Q1925687', 'http://www.wikidata.org/entity/Q1925782', 'http://www.wikidata.org/entity/Q1926133', 'http://www.wikidata.org/entity/Q1929001', 'http://www.wikidata.org/entity/Q1934596', 'http://www.wikidata.org/entity/Q1939284', 'http://www.wikidata.org/entity/Q1940604', 'http://www.wikidata.org/entity/Q1948763', 'http://www.wikidata.org/entity/Q1958254', 'http://www.wikidata.org/entity/Q1958754', 'http://www.wikidata.org/entity/Q1970025', 'http://www.wikidata.org/entity/Q1972339', 'http://www.wikidata.org/entity/Q1973302', 'http://www.wikidata.org/entity/Q1982380', 'http://www.wikidata.org/entity/Q1993164', 'http://www.wikidata.org/entity/Q2004095', 'http://www.wikidata.org/entity/Q2005208', 'http://www.wikidata.org/entity/Q2007571', 'http://www.wikidata.org/entity/Q2012925', 'http://www.wikidata.org/entity/Q2016072', 'http://www.wikidata.org/entity/Q2030795', 'http://www.wikidata.org/entity/Q2035086', 'http://www.wikidata.org/entity/Q2041780', 'http://www.wikidata.org/entity/Q2048407', 'http://www.wikidata.org/entity/Q2049486', 'http://www.wikidata.org/entity/Q2067556', 'http://www.wikidata.org/entity/Q2082171', 'http://www.wikidata.org/entity/Q2083824', 'http://www.wikidata.org/entity/Q2098102', 'http://www.wikidata.org/entity/Q2101088', 'http://www.wikidata.org/entity/Q2114151', 'http://www.wikidata.org/entity/Q2133573', 'http://www.wikidata.org/entity/Q2134363', 'http://www.wikidata.org/entity/Q2140139', 'http://www.wikidata.org/entity/Q2145313', 'http://www.wikidata.org/entity/Q2153832', 'http://www.wikidata.org/entity/Q2180601', 'http://www.wikidata.org/entity/Q2187101', 'http://www.wikidata.org/entity/Q2191320', 'http://www.wikidata.org/entity/Q2207604', 'http://www.wikidata.org/entity/Q2213828', 'http://www.wikidata.org/entity/Q2215371', 'http://www.wikidata.org/entity/Q2219088', 'http://www.wikidata.org/entity/Q2222877', 'http://www.wikidata.org/entity/Q2248125', 'http://www.wikidata.org/entity/Q2249510', 'http://www.wikidata.org/entity/Q2249549', 'http://www.wikidata.org/entity/Q2265424', 'http://www.wikidata.org/entity/Q2268423', 'http://www.wikidata.org/entity/Q2269267', 'http://www.wikidata.org/entity/Q2279754', 'http://www.wikidata.org/entity/Q2279759', 'http://www.wikidata.org/entity/Q2294435', 'http://www.wikidata.org/entity/Q2303559', 'http://www.wikidata.org/entity/Q2310966', 'http://www.wikidata.org/entity/Q2332182', 'http://www.wikidata.org/entity/Q2364432', 'http://www.wikidata.org/entity/Q2366504', 'http://www.wikidata.org/entity/Q2389288', 'http://www.wikidata.org/entity/Q2392153', 'http://www.wikidata.org/entity/Q2397927', 'http://www.wikidata.org/entity/Q2401738', 'http://www.wikidata.org/entity/Q2403021', 'http://www.wikidata.org/entity/Q2407200', 'http://www.wikidata.org/entity/Q2415269', 'http://www.wikidata.org/entity/Q2429925', 'http://www.wikidata.org/entity/Q2434060', 'http://www.wikidata.org/entity/Q2436817', 'http://www.wikidata.org/entity/Q2438248', 'http://www.wikidata.org/entity/Q2441678', 'http://www.wikidata.org/entity/Q2452586', 'http://www.wikidata.org/entity/Q2453755', 'http://www.wikidata.org/entity/Q2453812', 'http://www.wikidata.org/entity/Q2456008', 'http://www.wikidata.org/entity/Q2469797', 'http://www.wikidata.org/entity/Q2500833', 'http://www.wikidata.org/entity/Q2502021', 'http://www.wikidata.org/entity/Q2502250', 'http://www.wikidata.org/entity/Q2502458', 'http://www.wikidata.org/entity/Q2513097', 'http://www.wikidata.org/entity/Q2517772', 'http://www.wikidata.org/entity/Q2524015', 'http://www.wikidata.org/entity/Q2526032', 'http://www.wikidata.org/entity/Q2528960', 'http://www.wikidata.org/entity/Q2533421', 'http://www.wikidata.org/entity/Q2538557', 'http://www.wikidata.org/entity/Q2548921', 'http://www.wikidata.org/entity/Q2552832', 'http://www.wikidata.org/entity/Q2559940', 'http://www.wikidata.org/entity/Q2568118', 'http://www.wikidata.org/entity/Q2577711', 'http://www.wikidata.org/entity/Q2588913', 'http://www.wikidata.org/entity/Q2595970', 'http://www.wikidata.org/entity/Q2599050', 'http://www.wikidata.org/entity/Q2601508', 'http://www.wikidata.org/entity/Q2602325', 'http://www.wikidata.org/entity/Q2610927', 'http://www.wikidata.org/entity/Q2626471', 'http://www.wikidata.org/entity/Q2626490', 'http://www.wikidata.org/entity/Q2626507', 'http://www.wikidata.org/entity/Q2637055', 'http://www.wikidata.org/entity/Q2665597', 'http://www.wikidata.org/entity/Q2697993', 'http://www.wikidata.org/entity/Q2806458', 'http://www.wikidata.org/entity/Q2826112', 'http://www.wikidata.org/entity/Q2827928', 'http://www.wikidata.org/entity/Q2842091', 'http://www.wikidata.org/entity/Q2844529', 'http://www.wikidata.org/entity/Q2845117', 'http://www.wikidata.org/entity/Q2859612', 'http://www.wikidata.org/entity/Q2860692', 'http://www.wikidata.org/entity/Q2864500', 'http://www.wikidata.org/entity/Q2868430', 'http://www.wikidata.org/entity/Q2868467', 'http://www.wikidata.org/entity/Q2868648', 'http://www.wikidata.org/entity/Q2873156', 'http://www.wikidata.org/entity/Q2875219', 'http://www.wikidata.org/entity/Q2882381', 'http://www.wikidata.org/entity/Q2884761', 'http://www.wikidata.org/entity/Q2891792', 'http://www.wikidata.org/entity/Q2895069', 'http://www.wikidata.org/entity/Q2904276', 'http://www.wikidata.org/entity/Q2911968', 'http://www.wikidata.org/entity/Q2922114', 'http://www.wikidata.org/entity/Q2926286', 'http://www.wikidata.org/entity/Q2927456', 'http://www.wikidata.org/entity/Q2927657', 'http://www.wikidata.org/entity/Q2934734', 'http://www.wikidata.org/entity/Q2936493', 'http://www.wikidata.org/entity/Q2937902', 'http://www.wikidata.org/entity/Q2940088', 'http://www.wikidata.org/entity/Q2940423', 'http://www.wikidata.org/entity/Q2941003', 'http://www.wikidata.org/entity/Q2941232', 'http://www.wikidata.org/entity/Q2941350', 'http://www.wikidata.org/entity/Q2941795', 'http://www.wikidata.org/entity/Q2962836', 'http://www.wikidata.org/entity/Q2964589', 'http://www.wikidata.org/entity/Q2966712', 'http://www.wikidata.org/entity/Q2978626', 'http://www.wikidata.org/entity/Q2984230', 'http://www.wikidata.org/entity/Q2984440', 'http://www.wikidata.org/entity/Q2995742', 'http://www.wikidata.org/entity/Q2998251', 'http://www.wikidata.org/entity/Q3003725', 'http://www.wikidata.org/entity/Q3006377', 'http://www.wikidata.org/entity/Q3020334', 'http://www.wikidata.org/entity/Q3024806', 'http://www.wikidata.org/entity/Q3025777', 'http://www.wikidata.org/entity/Q3026045', 'http://www.wikidata.org/entity/Q3026052', 'http://www.wikidata.org/entity/Q3026071', 'http://www.wikidata.org/entity/Q3028287', 'http://www.wikidata.org/entity/Q3032761', 'http://www.wikidata.org/entity/Q3035575', 'http://www.wikidata.org/entity/Q3040337', 'http://www.wikidata.org/entity/Q3041665', 'http://www.wikidata.org/entity/Q3042830', 'http://www.wikidata.org/entity/Q3043166', 'http://www.wikidata.org/entity/Q3046451', 'http://www.wikidata.org/entity/Q3053976', 'http://www.wikidata.org/entity/Q3060699', 'http://www.wikidata.org/entity/Q3061638', 'http://www.wikidata.org/entity/Q3062667', 'http://www.wikidata.org/entity/Q3062744', 'http://www.wikidata.org/entity/Q3064587', 'http://www.wikidata.org/entity/Q3066619', 'http://www.wikidata.org/entity/Q3072612', 'http://www.wikidata.org/entity/Q3073076', 'http://www.wikidata.org/entity/Q3073745', 'http://www.wikidata.org/entity/Q3073749', 'http://www.wikidata.org/entity/Q3080317', 'http://www.wikidata.org/entity/Q3082881', 'http://www.wikidata.org/entity/Q3087330', 'http://www.wikidata.org/entity/Q3090773', 'http://www.wikidata.org/entity/Q3095133', 'http://www.wikidata.org/entity/Q3098661', 'http://www.wikidata.org/entity/Q3100090', 'http://www.wikidata.org/entity/Q3108421', 'http://www.wikidata.org/entity/Q3111674', 'http://www.wikidata.org/entity/Q3118794', 'http://www.wikidata.org/entity/Q3129806', 'http://www.wikidata.org/entity/Q3143300', 'http://www.wikidata.org/entity/Q3148583', 'http://www.wikidata.org/entity/Q3149696', 'http://www.wikidata.org/entity/Q3160379', 'http://www.wikidata.org/entity/Q3162110', 'http://www.wikidata.org/entity/Q3162747', 'http://www.wikidata.org/entity/Q3177930', 'http://www.wikidata.org/entity/Q3177931', 'http://www.wikidata.org/entity/Q3177933', 'http://www.wikidata.org/entity/Q3189918', 'http://www.wikidata.org/entity/Q3192315', 'http://www.wikidata.org/entity/Q3194370', 'http://www.wikidata.org/entity/Q3195259', 'http://www.wikidata.org/entity/Q3196083', 'http://www.wikidata.org/entity/Q3199012', 'http://www.wikidata.org/entity/Q3202933', 'http://www.wikidata.org/entity/Q3204548', 'http://www.wikidata.org/entity/Q3204605', 'http://www.wikidata.org/entity/Q3207755', 'http://www.wikidata.org/entity/Q3207897', 'http://www.wikidata.org/entity/Q3208378', 'http://www.wikidata.org/entity/Q3209686', 'http://www.wikidata.org/entity/Q3209764', 'http://www.wikidata.org/entity/Q3213440', 'http://www.wikidata.org/entity/Q3221358', 'http://www.wikidata.org/entity/Q3221527', 'http://www.wikidata.org/entity/Q3221575', 'http://www.wikidata.org/entity/Q3223606', 'http://www.wikidata.org/entity/Q3223608', 'http://www.wikidata.org/entity/Q3224178', 'http://www.wikidata.org/entity/Q3227051', 'http://www.wikidata.org/entity/Q3228056', 'http://www.wikidata.org/entity/Q3230965', 'http://www.wikidata.org/entity/Q3232178', 'http://www.wikidata.org/entity/Q3233939', 'http://www.wikidata.org/entity/Q3234069', 'http://www.wikidata.org/entity/Q3234697', 'http://www.wikidata.org/entity/Q3241665', 'http://www.wikidata.org/entity/Q3257117', 'http://www.wikidata.org/entity/Q3274312', 'http://www.wikidata.org/entity/Q3277583', 'http://www.wikidata.org/entity/Q3277759', 'http://www.wikidata.org/entity/Q3278021', 'http://www.wikidata.org/entity/Q3278277', 'http://www.wikidata.org/entity/Q3280628', 'http://www.wikidata.org/entity/Q3284711', 'http://www.wikidata.org/entity/Q3285119', 'http://www.wikidata.org/entity/Q3285137', 'http://www.wikidata.org/entity/Q3285710', 'http://www.wikidata.org/entity/Q3287191', 'http://www.wikidata.org/entity/Q3307815', 'http://www.wikidata.org/entity/Q3310074', 'http://www.wikidata.org/entity/Q3316706', 'http://www.wikidata.org/entity/Q3321226', 'http://www.wikidata.org/entity/Q3321227', 'http://www.wikidata.org/entity/Q3321230', 'http://www.wikidata.org/entity/Q3324194', 'http://www.wikidata.org/entity/Q3331785', 'http://www.wikidata.org/entity/Q3332685', 'http://www.wikidata.org/entity/Q3338697', 'http://www.wikidata.org/entity/Q3345466', 'http://www.wikidata.org/entity/Q3348175', 'http://www.wikidata.org/entity/Q3348997', 'http://www.wikidata.org/entity/Q3349859', 'http://www.wikidata.org/entity/Q3362038', 'http://www.wikidata.org/entity/Q3368625', 'http://www.wikidata.org/entity/Q3377509', 'http://www.wikidata.org/entity/Q3381489', 'http://www.wikidata.org/entity/Q3381544', 'http://www.wikidata.org/entity/Q3391373', 'http://www.wikidata.org/entity/Q3395940', 'http://www.wikidata.org/entity/Q3397813', 'http://www.wikidata.org/entity/Q3400300', 'http://www.wikidata.org/entity/Q3408000', 'http://www.wikidata.org/entity/Q3410789', 'http://www.wikidata.org/entity/Q3418042', 'http://www.wikidata.org/entity/Q3432672', 'http://www.wikidata.org/entity/Q3435537', 'http://www.wikidata.org/entity/Q3446503', 'http://www.wikidata.org/entity/Q3460677', 'http://www.wikidata.org/entity/Q3471556', 'http://www.wikidata.org/entity/Q3474469', 'http://www.wikidata.org/entity/Q3476482', 'http://www.wikidata.org/entity/Q3481127', 'http://www.wikidata.org/entity/Q3481651', 'http://www.wikidata.org/entity/Q3483893', 'http://www.wikidata.org/entity/Q3484679', 'http://www.wikidata.org/entity/Q3486435', 'http://www.wikidata.org/entity/Q3486639', 'http://www.wikidata.org/entity/Q3486850', 'http://www.wikidata.org/entity/Q3492462', 'http://www.wikidata.org/entity/Q3493698', 'http://www.wikidata.org/entity/Q3494188', 'http://www.wikidata.org/entity/Q3494408', 'http://www.wikidata.org/entity/Q3497053', 'http://www.wikidata.org/entity/Q3497062', 'http://www.wikidata.org/entity/Q3497129', 'http://www.wikidata.org/entity/Q3504188', 'http://www.wikidata.org/entity/Q3506883', 'http://www.wikidata.org/entity/Q3517103', 'http://www.wikidata.org/entity/Q3521217', 'http://www.wikidata.org/entity/Q3528399', 'http://www.wikidata.org/entity/Q3529231', 'http://www.wikidata.org/entity/Q3529380', 'http://www.wikidata.org/entity/Q3530187', 'http://www.wikidata.org/entity/Q3532546', 'http://www.wikidata.org/entity/Q3532599', 'http://www.wikidata.org/entity/Q3539509', 'http://www.wikidata.org/entity/Q3539739', 'http://www.wikidata.org/entity/Q3541350', 'http://www.wikidata.org/entity/Q3542535', 'http://www.wikidata.org/entity/Q3549175', 'http://www.wikidata.org/entity/Q3551911', 'http://www.wikidata.org/entity/Q3556188', 'http://www.wikidata.org/entity/Q3560824', 'http://www.wikidata.org/entity/Q3561499', 'http://www.wikidata.org/entity/Q3563101', 'http://www.wikidata.org/entity/Q3569827', 'http://www.wikidata.org/entity/Q3570365', 'http://www.wikidata.org/entity/Q3575501', 'http://www.wikidata.org/entity/Q3577425', 'http://www.wikidata.org/entity/Q3602522', 'http://www.wikidata.org/entity/Q3604233', 'http://www.wikidata.org/entity/Q3609625', 'http://www.wikidata.org/entity/Q3620522', 'http://www.wikidata.org/entity/Q3631287', 'http://www.wikidata.org/entity/Q3631385', 'http://www.wikidata.org/entity/Q3636683', 'http://www.wikidata.org/entity/Q3662977', 'http://www.wikidata.org/entity/Q3667323', 'http://www.wikidata.org/entity/Q3667588', 'http://www.wikidata.org/entity/Q3694576', 'http://www.wikidata.org/entity/Q3696414', 'http://www.wikidata.org/entity/Q3701206', 'http://www.wikidata.org/entity/Q3704183', 'http://www.wikidata.org/entity/Q3707076', 'http://www.wikidata.org/entity/Q3764885', 'http://www.wikidata.org/entity/Q3768560', 'http://www.wikidata.org/entity/Q3786897', 'http://www.wikidata.org/entity/Q3803278', 'http://www.wikidata.org/entity/Q3813995', 'http://www.wikidata.org/entity/Q3814760', 'http://www.wikidata.org/entity/Q3815110', 'http://www.wikidata.org/entity/Q3815553', 'http://www.wikidata.org/entity/Q3819500', 'http://www.wikidata.org/entity/Q3827461', 'http://www.wikidata.org/entity/Q3837458', 'http://www.wikidata.org/entity/Q3840568', 'http://www.wikidata.org/entity/Q3843202', 'http://www.wikidata.org/entity/Q3844234', 'http://www.wikidata.org/entity/Q3854831', 'http://www.wikidata.org/entity/Q3874210', 'http://www.wikidata.org/entity/Q3880640', 'http://www.wikidata.org/entity/Q3886945', 'http://www.wikidata.org/entity/Q3890237', 'http://www.wikidata.org/entity/Q3893033', 'http://www.wikidata.org/entity/Q3897642', 'http://www.wikidata.org/entity/Q3918986', 'http://www.wikidata.org/entity/Q3919002', 'http://www.wikidata.org/entity/Q3932151', 'http://www.wikidata.org/entity/Q3936964', 'http://www.wikidata.org/entity/Q3942731', 'http://www.wikidata.org/entity/Q3951582', 'http://www.wikidata.org/entity/Q3959191', 'http://www.wikidata.org/entity/Q3960242', 'http://www.wikidata.org/entity/Q3961437', 'http://www.wikidata.org/entity/Q3965799', 'http://www.wikidata.org/entity/Q3965812', 'http://www.wikidata.org/entity/Q3966833', 'http://www.wikidata.org/entity/Q3967447', 'http://www.wikidata.org/entity/Q3968296', 'http://www.wikidata.org/entity/Q3968414', 'http://www.wikidata.org/entity/Q3977666', 'http://www.wikidata.org/entity/Q3979300', 'http://www.wikidata.org/entity/Q3980878', 'http://www.wikidata.org/entity/Q4006983', 'http://www.wikidata.org/entity/Q4018172', 'http://www.wikidata.org/entity/Q4018190', 'http://www.wikidata.org/entity/Q4020971', 'http://www.wikidata.org/entity/Q4035382', 'http://www.wikidata.org/entity/Q4050029', 'http://www.wikidata.org/entity/Q4052951', 'http://www.wikidata.org/entity/Q4154149', 'http://www.wikidata.org/entity/Q4157232', 'http://www.wikidata.org/entity/Q4177597', 'http://www.wikidata.org/entity/Q4184740', 'http://www.wikidata.org/entity/Q4212091', 'http://www.wikidata.org/entity/Q4355918', 'http://www.wikidata.org/entity/Q4400684', 'http://www.wikidata.org/entity/Q4442868', 'http://www.wikidata.org/entity/Q4459110', 'http://www.wikidata.org/entity/Q4462948', 'http://www.wikidata.org/entity/Q4545492', 'http://www.wikidata.org/entity/Q4553148', 'http://www.wikidata.org/entity/Q4554288', 'http://www.wikidata.org/entity/Q4559794', 'http://www.wikidata.org/entity/Q4569879', 'http://www.wikidata.org/entity/Q4631211', 'http://www.wikidata.org/entity/Q4634529', 'http://www.wikidata.org/entity/Q4656713', 'http://www.wikidata.org/entity/Q4660797', 'http://www.wikidata.org/entity/Q4668588', 'http://www.wikidata.org/entity/Q4672257', 'http://www.wikidata.org/entity/Q4673330', 'http://www.wikidata.org/entity/Q4673651', 'http://www.wikidata.org/entity/Q4676379', 'http://www.wikidata.org/entity/Q4676463', 'http://www.wikidata.org/entity/Q4685865', 'http://www.wikidata.org/entity/Q4686107', 'http://www.wikidata.org/entity/Q4686147', 'http://www.wikidata.org/entity/Q4686314', 'http://www.wikidata.org/entity/Q4688103', 'http://www.wikidata.org/entity/Q4688395', 'http://www.wikidata.org/entity/Q4690114', 'http://www.wikidata.org/entity/Q4691896', 'http://www.wikidata.org/entity/Q4691903', 'http://www.wikidata.org/entity/Q4691914', 'http://www.wikidata.org/entity/Q4692235', 'http://www.wikidata.org/entity/Q4693335', 'http://www.wikidata.org/entity/Q4697738', 'http://www.wikidata.org/entity/Q4697754', 'http://www.wikidata.org/entity/Q4697873', 'http://www.wikidata.org/entity/Q4705481', 'http://www.wikidata.org/entity/Q4720514', 'http://www.wikidata.org/entity/Q4729664', 'http://www.wikidata.org/entity/Q4731366', 'http://www.wikidata.org/entity/Q4734993', 'http://www.wikidata.org/entity/Q4741997', 'http://www.wikidata.org/entity/Q4744424', 'http://www.wikidata.org/entity/Q4750671', 'http://www.wikidata.org/entity/Q4750856', 'http://www.wikidata.org/entity/Q4753595', 'http://www.wikidata.org/entity/Q4759447', 'http://www.wikidata.org/entity/Q4777383', 'http://www.wikidata.org/entity/Q4778462', 'http://www.wikidata.org/entity/Q4780069', 'http://www.wikidata.org/entity/Q4781364', 'http://www.wikidata.org/entity/Q4782769', 'http:/</t>
+          <t>['http://www.wikidata.org/entity/Q718', 'http://www.wikidata.org/entity/Q1293', 'http://www.wikidata.org/entity/Q1871', 'http://www.wikidata.org/entity/Q11411', 'http://www.wikidata.org/entity/Q12263', 'http://www.wikidata.org/entity/Q12541', 'http://www.wikidata.org/entity/Q17243', 'http://www.wikidata.org/entity/Q17245', 'http://www.wikidata.org/entity/Q17247', 'http://www.wikidata.org/entity/Q17250', 'http://www.wikidata.org/entity/Q17254', 'http://www.wikidata.org/entity/Q17256', 'http://www.wikidata.org/entity/Q17258', 'http://www.wikidata.org/entity/Q17259', 'http://www.wikidata.org/entity/Q17263', 'http://www.wikidata.org/entity/Q17271', 'http://www.wikidata.org/entity/Q17286', 'http://www.wikidata.org/entity/Q32510', 'http://www.wikidata.org/entity/Q64507', 'http://www.wikidata.org/entity/Q74547', 'http://www.wikidata.org/entity/Q113370', 'http://www.wikidata.org/entity/Q140656', 'http://www.wikidata.org/entity/Q143045', 'http://www.wikidata.org/entity/Q148348', 'http://www.wikidata.org/entity/Q166165', 'http://www.wikidata.org/entity/Q176493', 'http://www.wikidata.org/entity/Q179649', 'http://www.wikidata.org/entity/Q180138', 'http://www.wikidata.org/entity/Q187794', 'http://www.wikidata.org/entity/Q201274', 'http://www.wikidata.org/entity/Q201493', 'http://www.wikidata.org/entity/Q205906', 'http://www.wikidata.org/entity/Q206230', 'http://www.wikidata.org/entity/Q209669', 'http://www.wikidata.org/entity/Q219801', 'http://www.wikidata.org/entity/Q220282', 'http://www.wikidata.org/entity/Q220469', 'http://www.wikidata.org/entity/Q223056', 'http://www.wikidata.org/entity/Q228308', 'http://www.wikidata.org/entity/Q229398', 'http://www.wikidata.org/entity/Q241538', 'http://www.wikidata.org/entity/Q267042', 'http://www.wikidata.org/entity/Q268563', 'http://www.wikidata.org/entity/Q269155', 'http://www.wikidata.org/entity/Q284357', 'http://www.wikidata.org/entity/Q291330', 'http://www.wikidata.org/entity/Q295205', 'http://www.wikidata.org/entity/Q300631', 'http://www.wikidata.org/entity/Q319100', 'http://www.wikidata.org/entity/Q333677', 'http://www.wikidata.org/entity/Q342547', 'http://www.wikidata.org/entity/Q344377', 'http://www.wikidata.org/entity/Q350935', 'http://www.wikidata.org/entity/Q352255', 'http://www.wikidata.org/entity/Q353757', 'http://www.wikidata.org/entity/Q358609', 'http://www.wikidata.org/entity/Q364742', 'http://www.wikidata.org/entity/Q364893', 'http://www.wikidata.org/entity/Q368848', 'http://www.wikidata.org/entity/Q372134', 'http://www.wikidata.org/entity/Q373777', 'http://www.wikidata.org/entity/Q378234', 'http://www.wikidata.org/entity/Q387466', 'http://www.wikidata.org/entity/Q389078', 'http://www.wikidata.org/entity/Q390444', 'http://www.wikidata.org/entity/Q391802', 'http://www.wikidata.org/entity/Q396644', 'http://www.wikidata.org/entity/Q431840', 'http://www.wikidata.org/entity/Q451694', 'http://www.wikidata.org/entity/Q456463', 'http://www.wikidata.org/entity/Q462993', 'http://www.wikidata.org/entity/Q466152', 'http://www.wikidata.org/entity/Q473986', 'http://www.wikidata.org/entity/Q481568', 'http://www.wikidata.org/entity/Q517952', 'http://www.wikidata.org/entity/Q519071', 'http://www.wikidata.org/entity/Q527125', 'http://www.wikidata.org/entity/Q540081', 'http://www.wikidata.org/entity/Q545129', 'http://www.wikidata.org/entity/Q565449', 'http://www.wikidata.org/entity/Q567247', 'http://www.wikidata.org/entity/Q570292', 'http://www.wikidata.org/entity/Q574711', 'http://www.wikidata.org/entity/Q575620', 'http://www.wikidata.org/entity/Q581533', 'http://www.wikidata.org/entity/Q582169', 'http://www.wikidata.org/entity/Q587364', 'http://www.wikidata.org/entity/Q589985', 'http://www.wikidata.org/entity/Q591813', 'http://www.wikidata.org/entity/Q593466', 'http://www.wikidata.org/entity/Q597760', 'http://www.wikidata.org/entity/Q601529', 'http://www.wikidata.org/entity/Q611991', 'http://www.wikidata.org/entity/Q614897', 'http://www.wikidata.org/entity/Q621875', 'http://www.wikidata.org/entity/Q622939', 'http://www.wikidata.org/entity/Q626402', 'http://www.wikidata.org/entity/Q634445', 'http://www.wikidata.org/entity/Q634477', 'http://www.wikidata.org/entity/Q641916', 'http://www.wikidata.org/entity/Q643053', 'http://www.wikidata.org/entity/Q643841', 'http://www.wikidata.org/entity/Q646550', 'http://www.wikidata.org/entity/Q652361', 'http://www.wikidata.org/entity/Q655454', 'http://www.wikidata.org/entity/Q657144', 'http://www.wikidata.org/entity/Q662457', 'http://www.wikidata.org/entity/Q670945', 'http://www.wikidata.org/entity/Q676519', 'http://www.wikidata.org/entity/Q680491', 'http://www.wikidata.org/entity/Q692128', 'http://www.wikidata.org/entity/Q692570', 'http://www.wikidata.org/entity/Q697302', 'http://www.wikidata.org/entity/Q735544', 'http://www.wikidata.org/entity/Q739182', 'http://www.wikidata.org/entity/Q750693', 'http://www.wikidata.org/entity/Q753747', 'http://www.wikidata.org/entity/Q758055', 'http://www.wikidata.org/entity/Q766669', 'http://www.wikidata.org/entity/Q781244', 'http://www.wikidata.org/entity/Q783451', 'http://www.wikidata.org/entity/Q787302', 'http://www.wikidata.org/entity/Q792553', 'http://www.wikidata.org/entity/Q797621', 'http://www.wikidata.org/entity/Q799903', 'http://www.wikidata.org/entity/Q807050', 'http://www.wikidata.org/entity/Q811019', 'http://www.wikidata.org/entity/Q811305', 'http://www.wikidata.org/entity/Q811846', 'http://www.wikidata.org/entity/Q829265', 'http://www.wikidata.org/entity/Q831656', 'http://www.wikidata.org/entity/Q834876', 'http://www.wikidata.org/entity/Q857949', 'http://www.wikidata.org/entity/Q858557', 'http://www.wikidata.org/entity/Q862692', 'http://www.wikidata.org/entity/Q880104', 'http://www.wikidata.org/entity/Q885781', 'http://www.wikidata.org/entity/Q893043', 'http://www.wikidata.org/entity/Q894043', 'http://www.wikidata.org/entity/Q903415', 'http://www.wikidata.org/entity/Q903935', 'http://www.wikidata.org/entity/Q913720', 'http://www.wikidata.org/entity/Q925541', 'http://www.wikidata.org/entity/Q932940', 'http://www.wikidata.org/entity/Q933844', 'http://www.wikidata.org/entity/Q937315', 'http://www.wikidata.org/entity/Q953491', 'http://www.wikidata.org/entity/Q959189', 'http://www.wikidata.org/entity/Q966029', 'http://www.wikidata.org/entity/Q968853', 'http://www.wikidata.org/entity/Q969785', 'http://www.wikidata.org/entity/Q972726', 'http://www.wikidata.org/entity/Q977163', 'http://www.wikidata.org/entity/Q989473', 'http://www.wikidata.org/entity/Q1025411', 'http://www.wikidata.org/entity/Q1025620', 'http://www.wikidata.org/entity/Q1030283', 'http://www.wikidata.org/entity/Q1034057', 'http://www.wikidata.org/entity/Q1034689', 'http://www.wikidata.org/entity/Q1035253', 'http://www.wikidata.org/entity/Q1035267', 'http://www.wikidata.org/entity/Q1045090', 'http://www.wikidata.org/entity/Q1045757', 'http://www.wikidata.org/entity/Q1045956', 'http://www.wikidata.org/entity/Q1055920', 'http://www.wikidata.org/entity/Q1057836', 'http://www.wikidata.org/entity/Q1057853', 'http://www.wikidata.org/entity/Q1059507', 'http://www.wikidata.org/entity/Q1061250', 'http://www.wikidata.org/entity/Q1062545', 'http://www.wikidata.org/entity/Q1073784', 'http://www.wikidata.org/entity/Q1082969', 'http://www.wikidata.org/entity/Q1083528', 'http://www.wikidata.org/entity/Q1094512', 'http://www.wikidata.org/entity/Q1099570', 'http://www.wikidata.org/entity/Q1111617', 'http://www.wikidata.org/entity/Q1111761', 'http://www.wikidata.org/entity/Q1112246', 'http://www.wikidata.org/entity/Q1115156', 'http://www.wikidata.org/entity/Q1126593', 'http://www.wikidata.org/entity/Q1128406', 'http://www.wikidata.org/entity/Q1128427', 'http://www.wikidata.org/entity/Q1136123', 'http://www.wikidata.org/entity/Q1138894', 'http://www.wikidata.org/entity/Q1139103', 'http://www.wikidata.org/entity/Q1142198', 'http://www.wikidata.org/entity/Q1144394', 'http://www.wikidata.org/entity/Q1154370', 'http://www.wikidata.org/entity/Q1156448', 'http://www.wikidata.org/entity/Q1166176', 'http://www.wikidata.org/entity/Q1170917', 'http://www.wikidata.org/entity/Q1171393', 'http://www.wikidata.org/entity/Q1179755', 'http://www.wikidata.org/entity/Q1192929', 'http://www.wikidata.org/entity/Q1194258', 'http://www.wikidata.org/entity/Q1198600', 'http://www.wikidata.org/entity/Q1199807', 'http://www.wikidata.org/entity/Q1200534', 'http://www.wikidata.org/entity/Q1206354', 'http://www.wikidata.org/entity/Q1211247', 'http://www.wikidata.org/entity/Q1212825', 'http://www.wikidata.org/entity/Q1214320', 'http://www.wikidata.org/entity/Q1216797', 'http://www.wikidata.org/entity/Q1219090', 'http://www.wikidata.org/entity/Q1220410', 'http://www.wikidata.org/entity/Q1224674', 'http://www.wikidata.org/entity/Q1238788', 'http://www.wikidata.org/entity/Q1241195', 'http://www.wikidata.org/entity/Q1254280', 'http://www.wikidata.org/entity/Q1254831', 'http://www.wikidata.org/entity/Q1261342', 'http://www.wikidata.org/entity/Q1261635', 'http://www.wikidata.org/entity/Q1265734', 'http://www.wikidata.org/entity/Q1266404', 'http://www.wikidata.org/entity/Q1266886', 'http://www.wikidata.org/entity/Q1272695', 'http://www.wikidata.org/entity/Q1297658', 'http://www.wikidata.org/entity/Q1305677', 'http://www.wikidata.org/entity/Q1307125', 'http://www.wikidata.org/entity/Q1319327', 'http://www.wikidata.org/entity/Q1319521', 'http://www.wikidata.org/entity/Q1324206', 'http://www.wikidata.org/entity/Q1324536', 'http://www.wikidata.org/entity/Q1328502', 'http://www.wikidata.org/entity/Q1328529', 'http://www.wikidata.org/entity/Q1339281', 'http://www.wikidata.org/entity/Q1343187', 'http://www.wikidata.org/entity/Q1344436', 'http://www.wikidata.org/entity/Q1346928', 'http://www.wikidata.org/entity/Q1350364', 'http://www.wikidata.org/entity/Q1367474', 'http://www.wikidata.org/entity/Q1370030', 'http://www.wikidata.org/entity/Q1374184', 'http://www.wikidata.org/entity/Q1376220', 'http://www.wikidata.org/entity/Q1377685', 'http://www.wikidata.org/entity/Q1393717', 'http://www.wikidata.org/entity/Q1395568', 'http://www.wikidata.org/entity/Q1395834', 'http://www.wikidata.org/entity/Q1396294', 'http://www.wikidata.org/entity/Q1396737', 'http://www.wikidata.org/entity/Q1397903', 'http://www.wikidata.org/entity/Q1398467', 'http://www.wikidata.org/entity/Q1402985', 'http://www.wikidata.org/entity/Q1410849', 'http://www.wikidata.org/entity/Q1411087', 'http://www.wikidata.org/entity/Q1414302', 'http://www.wikidata.org/entity/Q1416698', 'http://www.wikidata.org/entity/Q1418350', 'http://www.wikidata.org/entity/Q1419354', 'http://www.wikidata.org/entity/Q1420716', 'http://www.wikidata.org/entity/Q1422190', 'http://www.wikidata.org/entity/Q1426591', 'http://www.wikidata.org/entity/Q1426935', 'http://www.wikidata.org/entity/Q1431363', 'http://www.wikidata.org/entity/Q1433046', 'http://www.wikidata.org/entity/Q1437815', 'http://www.wikidata.org/entity/Q1439418', 'http://www.wikidata.org/entity/Q1456644', 'http://www.wikidata.org/entity/Q1464572', 'http://www.wikidata.org/entity/Q1464861', 'http://www.wikidata.org/entity/Q1465897', 'http://www.wikidata.org/entity/Q1468245', 'http://www.wikidata.org/entity/Q1469388', 'http://www.wikidata.org/entity/Q1474394', 'http://www.wikidata.org/entity/Q1476306', 'http://www.wikidata.org/entity/Q1502489', 'http://www.wikidata.org/entity/Q1506762', 'http://www.wikidata.org/entity/Q1511387', 'http://www.wikidata.org/entity/Q1518661', 'http://www.wikidata.org/entity/Q1533322', 'http://www.wikidata.org/entity/Q1533410', 'http://www.wikidata.org/entity/Q1546909', 'http://www.wikidata.org/entity/Q1548611', 'http://www.wikidata.org/entity/Q1550933', 'http://www.wikidata.org/entity/Q1553628', 'http://www.wikidata.org/entity/Q1554083', 'http://www.wikidata.org/entity/Q1571026', 'http://www.wikidata.org/entity/Q1582933', 'http://www.wikidata.org/entity/Q1585000', 'http://www.wikidata.org/entity/Q1593053', 'http://www.wikidata.org/entity/Q1609062', 'http://www.wikidata.org/entity/Q1610488', 'http://www.wikidata.org/entity/Q1615469', 'http://www.wikidata.org/entity/Q1619004', 'http://www.wikidata.org/entity/Q1625825', 'http://www.wikidata.org/entity/Q1628689', 'http://www.wikidata.org/entity/Q1630513', 'http://www.wikidata.org/entity/Q1630813', 'http://www.wikidata.org/entity/Q1634851', 'http://www.wikidata.org/entity/Q1637382', 'http://www.wikidata.org/entity/Q1637395', 'http://www.wikidata.org/entity/Q1646571', 'http://www.wikidata.org/entity/Q1656863', 'http://www.wikidata.org/entity/Q1657101', 'http://www.wikidata.org/entity/Q1658543', 'http://www.wikidata.org/entity/Q1658898', 'http://www.wikidata.org/entity/Q1660280', 'http://www.wikidata.org/entity/Q1660399', 'http://www.wikidata.org/entity/Q1665651', 'http://www.wikidata.org/entity/Q1679858', 'http://www.wikidata.org/entity/Q1684168', 'http://www.wikidata.org/entity/Q1697299', 'http://www.wikidata.org/entity/Q1700280', 'http://www.wikidata.org/entity/Q1700560', 'http://www.wikidata.org/entity/Q1704181', 'http://www.wikidata.org/entity/Q1710069', 'http://www.wikidata.org/entity/Q1714791', 'http://www.wikidata.org/entity/Q1718703', 'http://www.wikidata.org/entity/Q1719421', 'http://www.wikidata.org/entity/Q1721235', 'http://www.wikidata.org/entity/Q1721871', 'http://www.wikidata.org/entity/Q1725276', 'http://www.wikidata.org/entity/Q1729086', 'http://www.wikidata.org/entity/Q1734010', 'http://www.wikidata.org/entity/Q1735561', 'http://www.wikidata.org/entity/Q1739284', 'http://www.wikidata.org/entity/Q1740320', 'http://www.wikidata.org/entity/Q1740550', 'http://www.wikidata.org/entity/Q1741359', 'http://www.wikidata.org/entity/Q1741998', 'http://www.wikidata.org/entity/Q1742108', 'http://www.wikidata.org/entity/Q1742125', 'http://www.wikidata.org/entity/Q1749762', 'http://www.wikidata.org/entity/Q1752732', 'http://www.wikidata.org/entity/Q1755280', 'http://www.wikidata.org/entity/Q1770670', 'http://www.wikidata.org/entity/Q1772754', 'http://www.wikidata.org/entity/Q1774838', 'http://www.wikidata.org/entity/Q1777758', 'http://www.wikidata.org/entity/Q1785416', 'http://www.wikidata.org/entity/Q1786673', 'http://www.wikidata.org/entity/Q1792503', 'http://www.wikidata.org/entity/Q1809927', 'http://www.wikidata.org/entity/Q1821129', 'http://www.wikidata.org/entity/Q1831083', 'http://www.wikidata.org/entity/Q1852249', 'http://www.wikidata.org/entity/Q1856878', 'http://www.wikidata.org/entity/Q1864356', 'http://www.wikidata.org/entity/Q1869731', 'http://www.wikidata.org/entity/Q1879955', 'http://www.wikidata.org/entity/Q1881098', 'http://www.wikidata.org/entity/Q1883635', 'http://www.wikidata.org/entity/Q1888673', 'http://www.wikidata.org/entity/Q1897687', 'http://www.wikidata.org/entity/Q1914113', 'http://www.wikidata.org/entity/Q1925687', 'http://www.wikidata.org/entity/Q1925782', 'http://www.wikidata.org/entity/Q1926133', 'http://www.wikidata.org/entity/Q1929001', 'http://www.wikidata.org/entity/Q1934596', 'http://www.wikidata.org/entity/Q1939284', 'http://www.wikidata.org/entity/Q1940604', 'http://www.wikidata.org/entity/Q1948763', 'http://www.wikidata.org/entity/Q1958254', 'http://www.wikidata.org/entity/Q1958754', 'http://www.wikidata.org/entity/Q1970025', 'http://www.wikidata.org/entity/Q1972339', 'http://www.wikidata.org/entity/Q1973302', 'http://www.wikidata.org/entity/Q1982380', 'http://www.wikidata.org/entity/Q1993164', 'http://www.wikidata.org/entity/Q2004095', 'http://www.wikidata.org/entity/Q2005208', 'http://www.wikidata.org/entity/Q2007571', 'http://www.wikidata.org/entity/Q2012925', 'http://www.wikidata.org/entity/Q2016072', 'http://www.wikidata.org/entity/Q2030795', 'http://www.wikidata.org/entity/Q2035086', 'http://www.wikidata.org/entity/Q2041780', 'http://www.wikidata.org/entity/Q2048407', 'http://www.wikidata.org/entity/Q2049486', 'http://www.wikidata.org/entity/Q2067556', 'http://www.wikidata.org/entity/Q2082171', 'http://www.wikidata.org/entity/Q2083824', 'http://www.wikidata.org/entity/Q2098102', 'http://www.wikidata.org/entity/Q2101088', 'http://www.wikidata.org/entity/Q2114151', 'http://www.wikidata.org/entity/Q2133573', 'http://www.wikidata.org/entity/Q2134363', 'http://www.wikidata.org/entity/Q2140139', 'http://www.wikidata.org/entity/Q2145313', 'http://www.wikidata.org/entity/Q2153832', 'http://www.wikidata.org/entity/Q2180601', 'http://www.wikidata.org/entity/Q2187101', 'http://www.wikidata.org/entity/Q2191320', 'http://www.wikidata.org/entity/Q2207604', 'http://www.wikidata.org/entity/Q2213828', 'http://www.wikidata.org/entity/Q2215371', 'http://www.wikidata.org/entity/Q2219088', 'http://www.wikidata.org/entity/Q2222877', 'http://www.wikidata.org/entity/Q2248125', 'http://www.wikidata.org/entity/Q2249510', 'http://www.wikidata.org/entity/Q2249549', 'http://www.wikidata.org/entity/Q2265424', 'http://www.wikidata.org/entity/Q2268423', 'http://www.wikidata.org/entity/Q2269267', 'http://www.wikidata.org/entity/Q2279754', 'http://www.wikidata.org/entity/Q2279759', 'http://www.wikidata.org/entity/Q2294435', 'http://www.wikidata.org/entity/Q2303559', 'http://www.wikidata.org/entity/Q2310966', 'http://www.wikidata.org/entity/Q2332182', 'http://www.wikidata.org/entity/Q2364432', 'http://www.wikidata.org/entity/Q2366504', 'http://www.wikidata.org/entity/Q2389288', 'http://www.wikidata.org/entity/Q2392153', 'http://www.wikidata.org/entity/Q2397927', 'http://www.wikidata.org/entity/Q2401738', 'http://www.wikidata.org/entity/Q2403021', 'http://www.wikidata.org/entity/Q2407200', 'http://www.wikidata.org/entity/Q2415269', 'http://www.wikidata.org/entity/Q2429925', 'http://www.wikidata.org/entity/Q2434060', 'http://www.wikidata.org/entity/Q2436817', 'http://www.wikidata.org/entity/Q2438248', 'http://www.wikidata.org/entity/Q2441678', 'http://www.wikidata.org/entity/Q2452586', 'http://www.wikidata.org/entity/Q2453755', 'http://www.wikidata.org/entity/Q2453812', 'http://www.wikidata.org/entity/Q2456008', 'http://www.wikidata.org/entity/Q2469797', 'http://www.wikidata.org/entity/Q2500833', 'http://www.wikidata.org/entity/Q2502021', 'http://www.wikidata.org/entity/Q2502250', 'http://www.wikidata.org/entity/Q2502458', 'http://www.wikidata.org/entity/Q2513097', 'http://www.wikidata.org/entity/Q2517772', 'http://www.wikidata.org/entity/Q2524015', 'http://www.wikidata.org/entity/Q2526032', 'http://www.wikidata.org/entity/Q2528960', 'http://www.wikidata.org/entity/Q2533421', 'http://www.wikidata.org/entity/Q2538557', 'http://www.wikidata.org/entity/Q2548921', 'http://www.wikidata.org/entity/Q2552832', 'http://www.wikidata.org/entity/Q2559940', 'http://www.wikidata.org/entity/Q2568118', 'http://www.wikidata.org/entity/Q2577711', 'http://www.wikidata.org/entity/Q2588913', 'http://www.wikidata.org/entity/Q2595970', 'http://www.wikidata.org/entity/Q2599050', 'http://www.wikidata.org/entity/Q2601508', 'http://www.wikidata.org/entity/Q2602325', 'http://www.wikidata.org/entity/Q2610927', 'http://www.wikidata.org/entity/Q2626471', 'http://www.wikidata.org/entity/Q2626490', 'http://www.wikidata.org/entity/Q2626507', 'http://www.wikidata.org/entity/Q2637055', 'http://www.wikidata.org/entity/Q2665597', 'http://www.wikidata.org/entity/Q2697993', 'http://www.wikidata.org/entity/Q2806458', 'http://www.wikidata.org/entity/Q2826112', 'http://www.wikidata.org/entity/Q2827928', 'http://www.wikidata.org/entity/Q2842091', 'http://www.wikidata.org/entity/Q2844529', 'http://www.wikidata.org/entity/Q2845117', 'http://www.wikidata.org/entity/Q2859612', 'http://www.wikidata.org/entity/Q2860692', 'http://www.wikidata.org/entity/Q2864500', 'http://www.wikidata.org/entity/Q2868430', 'http://www.wikidata.org/entity/Q2868467', 'http://www.wikidata.org/entity/Q2868648', 'http://www.wikidata.org/entity/Q2873156', 'http://www.wikidata.org/entity/Q2875219', 'http://www.wikidata.org/entity/Q2882381', 'http://www.wikidata.org/entity/Q2884761', 'http://www.wikidata.org/entity/Q2891792', 'http://www.wikidata.org/entity/Q2895069', 'http://www.wikidata.org/entity/Q2904276', 'http://www.wikidata.org/entity/Q2911968', 'http://www.wikidata.org/entity/Q2922114', 'http://www.wikidata.org/entity/Q2926286', 'http://www.wikidata.org/entity/Q2927456', 'http://www.wikidata.org/entity/Q2927657', 'http://www.wikidata.org/entity/Q2934734', 'http://www.wikidata.org/entity/Q2936493', 'http://www.wikidata.org/entity/Q2937902', 'http://www.wikidata.org/entity/Q2940088', 'http://www.wikidata.org/entity/Q2940423', 'http://www.wikidata.org/entity/Q2941003', 'http://www.wikidata.org/entity/Q2941232', 'http://www.wikidata.org/entity/Q2941350', 'http://www.wikidata.org/entity/Q2941795', 'http://www.wikidata.org/entity/Q2962836', 'http://www.wikidata.org/entity/Q2964589', 'http://www.wikidata.org/entity/Q2966712', 'http://www.wikidata.org/entity/Q2978626', 'http://www.wikidata.org/entity/Q2984230', 'http://www.wikidata.org/entity/Q2984440', 'http://www.wikidata.org/entity/Q2995742', 'http://www.wikidata.org/entity/Q2998251', 'http://www.wikidata.org/entity/Q3003725', 'http://www.wikidata.org/entity/Q3006377', 'http://www.wikidata.org/entity/Q3020334', 'http://www.wikidata.org/entity/Q3024806', 'http://www.wikidata.org/entity/Q3025777', 'http://www.wikidata.org/entity/Q3026045', 'http://www.wikidata.org/entity/Q3026052', 'http://www.wikidata.org/entity/Q3026071', 'http://www.wikidata.org/entity/Q3028287', 'http://www.wikidata.org/entity/Q3032761', 'http://www.wikidata.org/entity/Q3035575', 'http://www.wikidata.org/entity/Q3040337', 'http://www.wikidata.org/entity/Q3041665', 'http://www.wikidata.org/entity/Q3042830', 'http://www.wikidata.org/entity/Q3043166', 'http://www.wikidata.org/entity/Q3046451', 'http://www.wikidata.org/entity/Q3053976', 'http://www.wikidata.org/entity/Q3060699', 'http://www.wikidata.org/entity/Q3061638', 'http://www.wikidata.org/entity/Q3062667', 'http://www.wikidata.org/entity/Q3062744', 'http://www.wikidata.org/entity/Q3064587', 'http://www.wikidata.org/entity/Q3066619', 'http://www.wikidata.org/entity/Q3072612', 'http://www.wikidata.org/entity/Q3073076', 'http://www.wikidata.org/entity/Q3073745', 'http://www.wikidata.org/entity/Q3073749', 'http://www.wikidata.org/entity/Q3080317', 'http://www.wikidata.org/entity/Q3082881', 'http://www.wikidata.org/entity/Q3087330', 'http://www.wikidata.org/entity/Q3090773', 'http://www.wikidata.org/entity/Q3095133', 'http://www.wikidata.org/entity/Q3098661', 'http://www.wikidata.org/entity/Q3100090', 'http://www.wikidata.org/entity/Q3108421', 'http://www.wikidata.org/entity/Q3111674', 'http://www.wikidata.org/entity/Q3118794', 'http://www.wikidata.org/entity/Q3129806', 'http://www.wikidata.org/entity/Q3143300', 'http://www.wikidata.org/entity/Q3148583', 'http://www.wikidata.org/entity/Q3149696', 'http://www.wikidata.org/entity/Q3160379', 'http://www.wikidata.org/entity/Q3162110', 'http://www.wikidata.org/entity/Q3162747', 'http://www.wikidata.org/entity/Q3177930', 'http://www.wikidata.org/entity/Q3177931', 'http://www.wikidata.org/entity/Q3177933', 'http://www.wikidata.org/entity/Q3189918', 'http://www.wikidata.org/entity/Q3192315', 'http://www.wikidata.org/entity/Q3194370', 'http://www.wikidata.org/entity/Q3195259', 'http://www.wikidata.org/entity/Q3196083', 'http://www.wikidata.org/entity/Q3199012', 'http://www.wikidata.org/entity/Q3202933', 'http://www.wikidata.org/entity/Q3204548', 'http://www.wikidata.org/entity/Q3204605', 'http://www.wikidata.org/entity/Q3207755', 'http://www.wikidata.org/entity/Q3207897', 'http://www.wikidata.org/entity/Q3208378', 'http://www.wikidata.org/entity/Q3209686', 'http://www.wikidata.org/entity/Q3209764', 'http://www.wikidata.org/entity/Q3213440', 'http://www.wikidata.org/entity/Q3221358', 'http://www.wikidata.org/entity/Q3221527', 'http://www.wikidata.org/entity/Q3221575', 'http://www.wikidata.org/entity/Q3223606', 'http://www.wikidata.org/entity/Q3223608', 'http://www.wikidata.org/entity/Q3224178', 'http://www.wikidata.org/entity/Q3227051', 'http://www.wikidata.org/entity/Q3228056', 'http://www.wikidata.org/entity/Q3230965', 'http://www.wikidata.org/entity/Q3232178', 'http://www.wikidata.org/entity/Q3233939', 'http://www.wikidata.org/entity/Q3234069', 'http://www.wikidata.org/entity/Q3234697', 'http://www.wikidata.org/entity/Q3241665', 'http://www.wikidata.org/entity/Q3257117', 'http://www.wikidata.org/entity/Q3274312', 'http://www.wikidata.org/entity/Q3277583', 'http://www.wikidata.org/entity/Q3277759', 'http://www.wikidata.org/entity/Q3278021', 'http://www.wikidata.org/entity/Q3278277', 'http://www.wikidata.org/entity/Q3280628', 'http://www.wikidata.org/entity/Q3284711', 'http://www.wikidata.org/entity/Q3285119', 'http://www.wikidata.org/entity/Q3285137', 'http://www.wikidata.org/entity/Q3285710', 'http://www.wikidata.org/entity/Q3287191', 'http://www.wikidata.org/entity/Q3304665', 'http://www.wikidata.org/entity/Q3307815', 'http://www.wikidata.org/entity/Q3310074', 'http://www.wikidata.org/entity/Q3316706', 'http://www.wikidata.org/entity/Q3321226', 'http://www.wikidata.org/entity/Q3321227', 'http://www.wikidata.org/entity/Q3321230', 'http://www.wikidata.org/entity/Q3324194', 'http://www.wikidata.org/entity/Q3331785', 'http://www.wikidata.org/entity/Q3332685', 'http://www.wikidata.org/entity/Q3338697', 'http://www.wikidata.org/entity/Q3345466', 'http://www.wikidata.org/entity/Q3348175', 'http://www.wikidata.org/entity/Q3348997', 'http://www.wikidata.org/entity/Q3349859', 'http://www.wikidata.org/entity/Q3362038', 'http://www.wikidata.org/entity/Q3368625', 'http://www.wikidata.org/entity/Q3377509', 'http://www.wikidata.org/entity/Q3381489', 'http://www.wikidata.org/entity/Q3381544', 'http://www.wikidata.org/entity/Q3391373', 'http://www.wikidata.org/entity/Q3395940', 'http://www.wikidata.org/entity/Q3397813', 'http://www.wikidata.org/entity/Q3400300', 'http://www.wikidata.org/entity/Q3408000', 'http://www.wikidata.org/entity/Q3410789', 'http://www.wikidata.org/entity/Q3418042', 'http://www.wikidata.org/entity/Q3432672', 'http://www.wikidata.org/entity/Q3435537', 'http://www.wikidata.org/entity/Q3446503', 'http://www.wikidata.org/entity/Q3460677', 'http://www.wikidata.org/entity/Q3471556', 'http://www.wikidata.org/entity/Q3474469', 'http://www.wikidata.org/entity/Q3476482', 'http://www.wikidata.org/entity/Q3481127', 'http://www.wikidata.org/entity/Q3481651', 'http://www.wikidata.org/entity/Q3483893', 'http://www.wikidata.org/entity/Q3484679', 'http://www.wikidata.org/entity/Q3486435', 'http://www.wikidata.org/entity/Q3486639', 'http://www.wikidata.org/entity/Q3486850', 'http://www.wikidata.org/entity/Q3492462', 'http://www.wikidata.org/entity/Q3493698', 'http://www.wikidata.org/entity/Q3494188', 'http://www.wikidata.org/entity/Q3494408', 'http://www.wikidata.org/entity/Q3497053', 'http://www.wikidata.org/entity/Q3497062', 'http://www.wikidata.org/entity/Q3497129', 'http://www.wikidata.org/entity/Q3504188', 'http://www.wikidata.org/entity/Q3506883', 'http://www.wikidata.org/entity/Q3517103', 'http://www.wikidata.org/entity/Q3521217', 'http://www.wikidata.org/entity/Q3528399', 'http://www.wikidata.org/entity/Q3529231', 'http://www.wikidata.org/entity/Q3529380', 'http://www.wikidata.org/entity/Q3530187', 'http://www.wikidata.org/entity/Q3532546', 'http://www.wikidata.org/entity/Q3532599', 'http://www.wikidata.org/entity/Q3539509', 'http://www.wikidata.org/entity/Q3539739', 'http://www.wikidata.org/entity/Q3541350', 'http://www.wikidata.org/entity/Q3542535', 'http://www.wikidata.org/entity/Q3549175', 'http://www.wikidata.org/entity/Q3551911', 'http://www.wikidata.org/entity/Q3556188', 'http://www.wikidata.org/entity/Q3560824', 'http://www.wikidata.org/entity/Q3561499', 'http://www.wikidata.org/entity/Q3563101', 'http://www.wikidata.org/entity/Q3569827', 'http://www.wikidata.org/entity/Q3570365', 'http://www.wikidata.org/entity/Q3575501', 'http://www.wikidata.org/entity/Q3577425', 'http://www.wikidata.org/entity/Q3602522', 'http://www.wikidata.org/entity/Q3604233', 'http://www.wikidata.org/entity/Q3609625', 'http://www.wikidata.org/entity/Q3620522', 'http://www.wikidata.org/entity/Q3631287', 'http://www.wikidata.org/entity/Q3631385', 'http://www.wikidata.org/entity/Q3636683', 'http://www.wikidata.org/entity/Q3656653', 'http://www.wikidata.org/entity/Q3662977', 'http://www.wikidata.org/entity/Q3667323', 'http://www.wikidata.org/entity/Q3667588', 'http://www.wikidata.org/entity/Q3694576', 'http://www.wikidata.org/entity/Q3696414', 'http://www.wikidata.org/entity/Q3701206', 'http://www.wikidata.org/entity/Q3704183', 'http://www.wikidata.org/entity/Q3707076', 'http://www.wikidata.org/entity/Q3764885', 'http://www.wikidata.org/entity/Q3768560', 'http://www.wikidata.org/entity/Q3786897', 'http://www.wikidata.org/entity/Q3803278', 'http://www.wikidata.org/entity/Q3813995', 'http://www.wikidata.org/entity/Q3814760', 'http://www.wikidata.org/entity/Q3815110', 'http://www.wikidata.org/entity/Q3815553', 'http://www.wikidata.org/entity/Q3819500', 'http://www.wikidata.org/entity/Q3827461', 'http://www.wikidata.org/entity/Q3837458', 'http://www.wikidata.org/entity/Q3840568', 'http://www.wikidata.org/entity/Q3843202', 'http://www.wikidata.org/entity/Q3844234', 'http://www.wikidata.org/entity/Q3854831', 'http://www.wikidata.org/entity/Q3874210', 'http://www.wikidata.org/entity/Q3880640', 'http://www.wikidata.org/entity/Q3886945', 'http://www.wikidata.org/entity/Q3890237', 'http://www.wikidata.org/entity/Q3893033', 'http://www.wikidata.org/entity/Q3897642', 'http://www.wikidata.org/entity/Q3918986', 'http://www.wikidata.org/entity/Q3919002', 'http://www.wikidata.org/entity/Q3932151', 'http://www.wikidata.org/entity/Q3936964', 'http://www.wikidata.org/entity/Q3942731', 'http://www.wikidata.org/entity/Q3951582', 'http://www.wikidata.org/entity/Q3959191', 'http://www.wikidata.org/entity/Q3960242', 'http://www.wikidata.org/entity/Q3961437', 'http://www.wikidata.org/entity/Q3965799', 'http://www.wikidata.org/entity/Q3965812', 'http://www.wikidata.org/entity/Q3966833', 'http://www.wikidata.org/entity/Q3967447', 'http://www.wikidata.org/entity/Q3968296', 'http://www.wikidata.org/entity/Q3968414', 'http://www.wikidata.org/entity/Q3977666', 'http://www.wikidata.org/entity/Q3979300', 'http://www.wikidata.org/entity/Q3980878', 'http://www.wikidata.org/entity/Q4006983', 'http://www.wikidata.org/entity/Q4018172', 'http://www.wikidata.org/entity/Q4018190', 'http://www.wikidata.org/entity/Q4020971', 'http://www.wikidata.org/entity/Q4035382', 'http://www.wikidata.org/entity/Q4050029', 'http://www.wikidata.org/entity/Q4052951', 'http://www.wikidata.org/entity/Q4154149', 'http://www.wikidata.org/entity/Q4157232', 'http://www.wikidata.org/entity/Q4177597', 'http://www.wikidata.org/entity/Q4184740', 'http://www.wikidata.org/entity/Q4212091', 'http://www.wikidata.org/entity/Q4355918', 'http://www.wikidata.org/entity/Q4400684', 'http://www.wikidata.org/entity/Q4442868', 'http://www.wikidata.org/entity/Q4459110', 'http://www.wikidata.org/entity/Q4462948', 'http://www.wikidata.org/entity/Q4545492', 'http://www.wikidata.org/entity/Q4553148', 'http://www.wikidata.org/entity/Q4554288', 'http://www.wikidata.org/entity/Q4559794', 'http://www.wikidata.org/entity/Q4569879', 'http://www.wikidata.org/entity/Q4631211', 'http://www.wikidata.org/entity/Q4634529', 'http://www.wikidata.org/entity/Q4656713', 'http://www.wikidata.org/entity/Q4660797', 'http://www.wikidata.org/entity/Q4668588', 'http://www.wikidata.org/entity/Q4672257', 'http://www.wikidata.org/entity/Q4673330', 'http://www.wikidata.org/entity/Q4673651', 'http://www.wikidata.org/entity/Q4676379', 'http://www.wikidata.org/entity/Q4676463', 'http://www.wikidata.org/entity/Q4685865', 'http://www.wikidata.org/entity/Q4686107', 'http://www.wikidata.org/entity/Q4686147', 'http://www.wikidata.org/entity/Q4686314', 'http://www.wikidata.org/entity/Q4688103', 'http://www.wikidata.org/entity/Q4688395', 'http://www.wikidata.org/entity/Q4690114', 'http://www.wikidata.org/entity/Q4691896', 'http://www.wikidata.org/entity/Q4691903', 'http://www.wikidata.org/entity/Q4691914', 'http://www.wikidata.org/entity/Q4692235', 'http://www.wikidata.org/entity/Q4693335', 'http://www.wikidata.org/entity/Q4697738', 'http://www.wikidata.org/entity/Q4697754', 'http://www.wikidata.org/entity/Q4697873', 'http://www.wikidata.org/entity/Q4705481', 'http://www.wikidata.org/entity/Q4720514', 'http://www.wikidata.org/entity/Q4729664', 'http://www.wikidata.org/entity/Q4731366', 'http://www.wikidata.org/entity/Q4734993', 'http://www.wikidata.org/entity/Q4741997', 'http://www.wikidata.org/entity/Q4744424', 'http://www.wikidata.org/entity/Q4750671', 'http://www.wikidata.org/entity/Q4750856', 'http://www.wikidata.org/entity/Q4753595', 'http://www.wikidata.org/entity/Q4759447', 'http://www.wikidata.org/entity/Q4777383', 'http://www.wikidata.org/entity/Q4778462', 'http://www.wikidata.org/entity/Q4780069', 'http://www.wikidata.org/entity/Q4781364', 'http:</t>
         </is>
       </c>
     </row>
@@ -518,7 +518,7 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>['http://www.wikidata.org/entity/Q301', 'http://www.wikidata.org/entity/Q92781', 'http://www.wikidata.org/entity/Q94329', 'http://www.wikidata.org/entity/Q160478', 'http://www.wikidata.org/entity/Q165319', 'http://www.wikidata.org/entity/Q202404', 'http://www.wikidata.org/entity/Q214622', 'http://www.wikidata.org/entity/Q289307', 'http://www.wikidata.org/entity/Q310712', 'http://www.wikidata.org/entity/Q330232', 'http://www.wikidata.org/entity/Q330897', 'http://www.wikidata.org/entity/Q343292', 'http://www.wikidata.org/entity/Q353059', 'http://www.wikidata.org/entity/Q368044', 'http://www.wikidata.org/entity/Q382090', 'http://www.wikidata.org/entity/Q438440', 'http://www.wikidata.org/entity/Q440558', 'http://www.wikidata.org/entity/Q463405', 'http://www.wikidata.org/entity/Q535221', 'http://www.wikidata.org/entity/Q537976', 'http://www.wikidata.org/entity/Q541682', 'http://www.wikidata.org/entity/Q657600', 'http://www.wikidata.org/entity/Q704707', 'http://www.wikidata.org/entity/Q718276', 'http://www.wikidata.org/entity/Q719110', 'http://www.wikidata.org/entity/Q748140', 'http://www.wikidata.org/entity/Q767151', 'http://www.wikidata.org/entity/Q821985', 'http://www.wikidata.org/entity/Q969675', 'http://www.wikidata.org/entity/Q1115126', 'http://www.wikidata.org/entity/Q1147661', 'http://www.wikidata.org/entity/Q1329371', 'http://www.wikidata.org/entity/Q1349114', 'http://www.wikidata.org/entity/Q1439570', 'http://www.wikidata.org/entity/Q1509428', 'http://www.wikidata.org/entity/Q1581009', 'http://www.wikidata.org/entity/Q1601376', 'http://www.wikidata.org/entity/Q1755825', 'http://www.wikidata.org/entity/Q1917293', 'http://www.wikidata.org/entity/Q1987990', 'http://www.wikidata.org/entity/Q1991236', 'http://www.wikidata.org/entity/Q2078267', 'http://www.wikidata.org/entity/Q2261557', 'http://www.wikidata.org/entity/Q2359693', 'http://www.wikidata.org/entity/Q2460964', 'http://www.wikidata.org/entity/Q2615465', 'http://www.wikidata.org/entity/Q2912337', 'http://www.wikidata.org/entity/Q3057494', 'http://www.wikidata.org/entity/Q3136115', 'http://www.wikidata.org/entity/Q3229712', 'http://www.wikidata.org/entity/Q3296541', 'http://www.wikidata.org/entity/Q3314731', 'http://www.wikidata.org/entity/Q3341850', 'http://www.wikidata.org/entity/Q3556566', 'http://www.wikidata.org/entity/Q3558422', 'http://www.wikidata.org/entity/Q3562201', 'http://www.wikidata.org/entity/Q3564132', 'http://www.wikidata.org/entity/Q3565521', 'http://www.wikidata.org/entity/Q3566247', 'http://www.wikidata.org/entity/Q3699388', 'http://www.wikidata.org/entity/Q3731188', 'http://www.wikidata.org/entity/Q3776568', 'http://www.wikidata.org/entity/Q3839783', 'http://www.wikidata.org/entity/Q3876538', 'http://www.wikidata.org/entity/Q3935791', 'http://www.wikidata.org/entity/Q4065802', 'http://www.wikidata.org/entity/Q4104376', 'http://www.wikidata.org/entity/Q4172824', 'http://www.wikidata.org/entity/Q4172835', 'http://www.wikidata.org/entity/Q4308314', 'http://www.wikidata.org/entity/Q4675877', 'http://www.wikidata.org/entity/Q4751927', 'http://www.wikidata.org/entity/Q4762991', 'http://www.wikidata.org/entity/Q4763003', 'http://www.wikidata.org/entity/Q4789952', 'http://www.wikidata.org/entity/Q4796489', 'http://www.wikidata.org/entity/Q5113522', 'http://www.wikidata.org/entity/Q5277663', 'http://www.wikidata.org/entity/Q5546866', 'http://www.wikidata.org/entity/Q5548437', 'http://www.wikidata.org/entity/Q5802175', 'http://www.wikidata.org/entity/Q6001459', 'http://www.wikidata.org/entity/Q6038194', 'http://www.wikidata.org/entity/Q6038808', 'http://www.wikidata.org/entity/Q6081551', 'http://www.wikidata.org/entity/Q6084720', 'http://www.wikidata.org/entity/Q6155960', 'http://www.wikidata.org/entity/Q6467637', 'http://www.wikidata.org/entity/Q6517023', 'http://www.wikidata.org/entity/Q6751216', 'http://www.wikidata.org/entity/Q6751217', 'http://www.wikidata.org/entity/Q6751225', 'http://www.wikidata.org/entity/Q6761479', 'http://www.wikidata.org/entity/Q6761597', 'http://www.wikidata.org/entity/Q6795819', 'http://www.wikidata.org/entity/Q6835691', 'http://www.wikidata.org/entity/Q6863224', 'http://www.wikidata.org/entity/Q7067631', 'http://www.wikidata.org/entity/Q7312347', 'http://www.wikidata.org/entity/Q7363221', 'http://www.wikidata.org/entity/Q7781871', 'http://www.wikidata.org/entity/Q7925550', 'http://www.wikidata.org/entity/Q9033451', 'http://www.wikidata.org/entity/Q9340768', 'http://www.wikidata.org/entity/Q10533007', 'http://www.wikidata.org/entity/Q11102047', 'http://www.wikidata.org/entity/Q11931920', 'http://www.wikidata.org/entity/Q12873118', 'http://www.wikidata.org/entity/Q12873662', 'http://www.wikidata.org/entity/Q12873744', 'http://www.wikidata.org/entity/Q12874350', 'http://www.wikidata.org/entity/Q12875108', 'http://www.wikidata.org/entity/Q12875311', 'http://www.wikidata.org/entity/Q12875336', 'http://www.wikidata.org/entity/Q12878284', 'http://www.wikidata.org/entity/Q12878447', 'http://www.wikidata.org/entity/Q12880672', 'http://www.wikidata.org/entity/Q12880675', 'http://www.wikidata.org/entity/Q12880677', 'http://www.wikidata.org/entity/Q12881079', 'http://www.wikidata.org/entity/Q12885766', 'http://www.wikidata.org/entity/Q13411107', 'http://www.wikidata.org/entity/Q14153584', 'http://www.wikidata.org/entity/Q14229034', 'http://www.wikidata.org/entity/Q14500317', 'http://www.wikidata.org/entity/Q14625005', 'http://www.wikidata.org/entity/Q15002185', 'http://www.wikidata.org/entity/Q15274548', 'http://www.wikidata.org/entity/Q15433778', 'http://www.wikidata.org/entity/Q15651684', 'http://www.wikidata.org/entity/Q15707552', 'http://www.wikidata.org/entity/Q15983065', 'http://www.wikidata.org/entity/Q15994196', 'http://www.wikidata.org/entity/Q16199868', 'http://www.wikidata.org/entity/Q16235535', 'http://www.wikidata.org/entity/Q16327244', 'http://www.wikidata.org/entity/Q16327733', 'http://www.wikidata.org/entity/Q16328616', 'http://www.wikidata.org/entity/Q16328851', 'http://www.wikidata.org/entity/Q16328867', 'http://www.wikidata.org/entity/Q16329078', 'http://www.wikidata.org/entity/Q16329346', 'http://www.wikidata.org/entity/Q16330120', 'http://www.wikidata.org/entity/Q16330682', 'http://www.wikidata.org/entity/Q16331916', 'http://www.wikidata.org/entity/Q16332287', 'http://www.wikidata.org/entity/Q16332578', 'http://www.wikidata.org/entity/Q16332651', 'http://www.wikidata.org/entity/Q16512450', 'http://www.wikidata.org/entity/Q16512492', 'http://www.wikidata.org/entity/Q16644246', 'http://www.wikidata.org/entity/Q16711496', 'http://www.wikidata.org/entity/Q16711498', 'http://www.wikidata.org/entity/Q16853551', 'http://www.wikidata.org/entity/Q16874283', 'http://www.wikidata.org/entity/Q16937833', 'http://www.wikidata.org/entity/Q17000036', 'http://www.wikidata.org/entity/Q17315716', 'http://www.wikidata.org/entity/Q17350265', 'http://www.wikidata.org/entity/Q17420765', 'http://www.wikidata.org/entity/Q17420770', 'http://www.wikidata.org/entity/Q18234229', 'http://www.wikidata.org/entity/Q18335504', 'http://www.wikidata.org/entity/Q18340746', 'http://www.wikidata.org/entity/Q18340750', 'http://www.wikidata.org/entity/Q18392960', 'http://www.wikidata.org/entity/Q18397296', 'http://www.wikidata.org/entity/Q18599700', 'http://www.wikidata.org/entity/Q18599759', 'http://www.wikidata.org/entity/Q19612083', 'http://www.wikidata.org/entity/Q19672743', 'http://www.wikidata.org/entity/Q19758235', 'http://www.wikidata.org/entity/Q19862442', 'http://www.wikidata.org/entity/Q19886218', 'http://www.wikidata.org/entity/Q19939295', 'http://www.wikidata.org/entity/Q19941936', 'http://www.wikidata.org/entity/Q19953561', 'http://www.wikidata.org/entity/Q20011734', 'http://www.wikidata.org/entity/Q20090771', 'http://www.wikidata.org/entity/Q20641089', 'http://www.wikidata.org/entity/Q20648370', 'http://www.wikidata.org/entity/Q20745244', 'http://www.wikidata.org/entity/Q20897762', 'http://www.wikidata.org/entity/Q20986533', 'http://www.wikidata.org/entity/Q21027277', 'http://www.wikidata.org/entity/Q21031023', 'http://www.wikidata.org/entity/Q21066359', 'http://www.wikidata.org/entity/Q21067158', 'http://www.wikidata.org/entity/Q21114808', 'http://www.wikidata.org/entity/Q21207862', 'http://www.wikidata.org/entity/Q21295004', 'http://www.wikidata.org/entity/Q21620727', 'http://www.wikidata.org/entity/Q21620925', 'http://www.wikidata.org/entity/Q21621189', 'http://www.wikidata.org/entity/Q21996798', 'http://www.wikidata.org/entity/Q22812105', 'http://www.wikidata.org/entity/Q22958899', 'http://www.wikidata.org/entity/Q23001049', 'http://www.wikidata.org/entity/Q23677559', 'http://www.wikidata.org/entity/Q23726787', 'http://www.wikidata.org/entity/Q23928168', 'http://www.wikidata.org/entity/Q23928180', 'http://www.wikidata.org/entity/Q24006617', 'http://www.wikidata.org/entity/Q24045397', 'http://www.wikidata.org/entity/Q25909395', 'http://www.wikidata.org/entity/Q26703027', 'http://www.wikidata.org/entity/Q26829002', 'http://www.wikidata.org/entity/Q27975949', 'http://www.wikidata.org/entity/Q28106080', 'http://www.wikidata.org/entity/Q28745301', 'http://www.wikidata.org/entity/Q29346418', 'http://www.wikidata.org/entity/Q30887619', 'http://www.wikidata.org/entity/Q38127864', 'http://www.wikidata.org/entity/Q40203914', 'http://www.wikidata.org/entity/Q41660974', 'http://www.wikidata.org/entity/Q48232422', 'http://www.wikidata.org/entity/Q48976256', 'http://www.wikidata.org/entity/Q52498604', 'http://www.wikidata.org/entity/Q52573880', 'http://www.wikidata.org/entity/Q53864990', 'http://www.wikidata.org/entity/Q54803547', 'http://www.wikidata.org/entity/Q55078491', 'http://www.wikidata.org/entity/Q55351080', 'http://www.wikidata.org/entity/Q56021315', 'http://www.wikidata.org/entity/Q56628168', 'http://www.wikidata.org/entity/Q56852961', 'http://www.wikidata.org/entity/Q58198309', 'http://www.wikidata.org/entity/Q58503135', 'http://www.wikidata.org/entity/Q58755716', 'http://www.wikidata.org/entity/Q59512002', 'http://www.wikidata.org/entity/Q59614661', 'http://www.wikidata.org/entity/Q60286852', 'http://www.wikidata.org/entity/Q60582822', 'http://www.wikidata.org/entity/Q60583087', 'http://www.wikidata.org/entity/Q60677632', 'http://www.wikidata.org/entity/Q62591624', 'http://www.wikidata.org/entity/Q62603850', 'http://www.wikidata.org/entity/Q63254170', 'http://www.wikidata.org/entity/Q63982897', 'http://www.wikidata.org/entity/Q64615787', 'http://www.wikidata.org/entity/Q65273468', 'http://www.wikidata.org/entity/Q65926208', 'http://www.wikidata.org/entity/Q65961421', 'http://www.wikidata.org/entity/Q68867937', 'http://www.wikidata.org/entity/Q70843750', 'http://www.wikidata.org/entity/Q71013124', 'http://www.wikidata.org/entity/Q77038923', 'http://www.wikidata.org/entity/Q77846610', 'http://www.wikidata.org/entity/Q81217357', 'http://www.wikidata.org/entity/Q81678162', 'http://www.wikidata.org/entity/Q82291289', 'http://www.wikidata.org/entity/Q84048201', 'http://www.wikidata.org/entity/Q87652519', 'http://www.wikidata.org/entity/Q88314564', 'http://www.wikidata.org/entity/Q88360684', 'http://www.wikidata.org/entity/Q88361390', 'http://www.wikidata.org/entity/Q88380768', 'http://www.wikidata.org/entity/Q88383715', 'http://www.wikidata.org/entity/Q88488624', 'http://www.wikidata.org/entity/Q88657263', 'http://www.wikidata.org/entity/Q88710225', 'http://www.wikidata.org/entity/Q88710463', 'http://www.wikidata.org/entity/Q88796507', 'http://www.wikidata.org/entity/Q89259891', 'http://www.wikidata.org/entity/Q90157181', 'http://www.wikidata.org/entity/Q91442809', 'http://www.wikidata.org/entity/Q93233224', 'http://www.wikidata.org/entity/Q93737213', 'http://www.wikidata.org/entity/Q93785423', 'http://www.wikidata.org/entity/Q95203707', 'http://www.wikidata.org/entity/Q95309443', 'http://www.wikidata.org/entity/Q95329588', 'http://www.wikidata.org/entity/Q95349620', 'http://www.wikidata.org/entity/Q96176197', 'http://www.wikidata.org/entity/Q96395743', 'http://www.wikidata.org/entity/Q97486765', 'http://www.wikidata.org/entity/Q98216546', 'http://www.wikidata.org/entity/Q98792917', 'http://www.wikidata.org/entity/Q98831182', 'http://www.wikidata.org/entity/Q98836152', 'http://www.wikidata.org/entity/Q99167687', 'http://www.wikidata.org/entity/Q100331972', 'http://www.wikidata.org/entity/Q100394144', 'http://www.wikidata.org/entity/Q101218635', 'http://www.wikidata.org/entity/Q102256598', 'http://www.wikidata.org/entity/Q102390777', 'http://www.wikidata.org/entity/Q104483225', 'http://www.wikidata.org/entity/Q105389038', 'http://www.wikidata.org/entity/Q106157237', 'http://www.wikidata.org/entity/Q106243894', 'http://www.wikidata.org/entity/Q106363582', 'http://www.wikidata.org/entity/Q106798081', 'http://www.wikidata.org/entity/Q107310844', 'http://www.wikidata.org/entity/Q107344844', 'http://www.wikidata.org/entity/Q107369220', 'http://www.wikidata.org/entity/Q107750113', 'http://www.wikidata.org/entity/Q108108930', 'http://www.wikidata.org/entity/Q108142616', 'http://www.wikidata.org/entity/Q108143520', 'http://www.wikidata.org/entity/Q108305316', 'http://www.wikidata.org/entity/Q108419496', 'http://www.wikidata.org/entity/Q108420335', 'http://www.wikidata.org/entity/Q108528226', 'http://www.wikidata.org/entity/Q108801572', 'http://www.wikidata.org/entity/Q110024583', 'http://www.wikidata.org/entity/Q110257591', 'http://www.wikidata.org/entity/Q110438288', 'http://www.wikidata.org/entity/Q111279614', 'http://www.wikidata.org/entity/Q111378638', 'http://www.wikidata.org/entity/Q112460780', 'http://www.wikidata.org/entity/Q113045473', 'http://www.wikidata.org/entity/Q113074033', 'http://www.wikidata.org/entity/Q113184346', 'http://www.wikidata.org/entity/Q113232042', 'http://www.wikidata.org/entity/Q113737899', 'http://www.wikidata.org/entity/Q113749117', 'http://www.wikidata.org/entity/Q113772754', 'http://www.wikidata.org/entity/Q113807740', 'http://www.wikidata.org/entity/Q113834191', 'http://www.wikidata.org/entity/Q113843326', 'http://www.wikidata.org/entity/Q114089100', 'http://www.wikidata.org/entity/Q114235854', 'http://www.wikidata.org/entity/Q114616578', 'http://www.wikidata.org/entity/Q115110628', 'http://www.wikidata.org/entity/Q115180838', 'http://www.wikidata.org/entity/Q115864917', 'http://www.wikidata.org/entity/Q116759188', 'http://www.wikidata.org/entity/Q116765917', 'http://www.wikidata.org/entity/Q117198007', 'http://www.wikidata.org/entity/Q118487290', 'http://www.wikidata.org/entity/Q118762757', 'http://www.wikidata.org/entity/Q120961856', 'http://www.wikidata.org/entity/Q121300453', 'http://www.wikidata.org/entity/Q121378646', 'http://www.wikidata.org/entity/Q122228916', 'http://www.wikidata.org/entity/Q123117223', 'http://www.wikidata.org/entity/Q123183318', 'http://www.wikidata.org/entity/Q123189154', 'http://www.wikidata.org/entity/Q123196316', 'http://www.wikidata.org/entity/Q123247882', 'http://www.wikidata.org/entity/Q123281296', 'http://www.wikidata.org/entity/Q123282585', 'http://www.wikidata.org/entity/Q123403159', 'http://www.wikidata.org/entity/Q125352819', 'http://www.wikidata.org/entity/Q126363974', 'http://www.wikidata.org/entity/Q128183151', 'http://www.wikidata.org/entity/Q128693220', 'http://www.wikidata.org/entity/Q130305674', 'http://www.wikidata.org/entity/Q130632515', 'http://www.wikidata.org/entity/Q130632553', 'http://www.wikidata.org/entity/Q130718161', 'http://www.wikidata.org/entity/Q130726218', 'http://www.wikidata.org/entity/Q130865835']</t>
+          <t>['http://www.wikidata.org/entity/Q301', 'http://www.wikidata.org/entity/Q92781', 'http://www.wikidata.org/entity/Q94329', 'http://www.wikidata.org/entity/Q160478', 'http://www.wikidata.org/entity/Q165319', 'http://www.wikidata.org/entity/Q202404', 'http://www.wikidata.org/entity/Q214622', 'http://www.wikidata.org/entity/Q289307', 'http://www.wikidata.org/entity/Q310712', 'http://www.wikidata.org/entity/Q330232', 'http://www.wikidata.org/entity/Q330897', 'http://www.wikidata.org/entity/Q343292', 'http://www.wikidata.org/entity/Q353059', 'http://www.wikidata.org/entity/Q368044', 'http://www.wikidata.org/entity/Q382090', 'http://www.wikidata.org/entity/Q438440', 'http://www.wikidata.org/entity/Q440558', 'http://www.wikidata.org/entity/Q463405', 'http://www.wikidata.org/entity/Q535221', 'http://www.wikidata.org/entity/Q537976', 'http://www.wikidata.org/entity/Q541682', 'http://www.wikidata.org/entity/Q657600', 'http://www.wikidata.org/entity/Q704707', 'http://www.wikidata.org/entity/Q718276', 'http://www.wikidata.org/entity/Q719110', 'http://www.wikidata.org/entity/Q748140', 'http://www.wikidata.org/entity/Q767151', 'http://www.wikidata.org/entity/Q821985', 'http://www.wikidata.org/entity/Q969675', 'http://www.wikidata.org/entity/Q1115126', 'http://www.wikidata.org/entity/Q1147661', 'http://www.wikidata.org/entity/Q1329371', 'http://www.wikidata.org/entity/Q1349114', 'http://www.wikidata.org/entity/Q1439570', 'http://www.wikidata.org/entity/Q1509428', 'http://www.wikidata.org/entity/Q1581009', 'http://www.wikidata.org/entity/Q1601376', 'http://www.wikidata.org/entity/Q1755825', 'http://www.wikidata.org/entity/Q1917293', 'http://www.wikidata.org/entity/Q1987990', 'http://www.wikidata.org/entity/Q1991236', 'http://www.wikidata.org/entity/Q2078267', 'http://www.wikidata.org/entity/Q2261557', 'http://www.wikidata.org/entity/Q2359693', 'http://www.wikidata.org/entity/Q2460964', 'http://www.wikidata.org/entity/Q2615465', 'http://www.wikidata.org/entity/Q2912337', 'http://www.wikidata.org/entity/Q3057494', 'http://www.wikidata.org/entity/Q3136115', 'http://www.wikidata.org/entity/Q3229712', 'http://www.wikidata.org/entity/Q3296541', 'http://www.wikidata.org/entity/Q3314731', 'http://www.wikidata.org/entity/Q3341850', 'http://www.wikidata.org/entity/Q3556566', 'http://www.wikidata.org/entity/Q3558422', 'http://www.wikidata.org/entity/Q3562201', 'http://www.wikidata.org/entity/Q3564132', 'http://www.wikidata.org/entity/Q3565521', 'http://www.wikidata.org/entity/Q3566247', 'http://www.wikidata.org/entity/Q3699388', 'http://www.wikidata.org/entity/Q3731188', 'http://www.wikidata.org/entity/Q3776568', 'http://www.wikidata.org/entity/Q3839783', 'http://www.wikidata.org/entity/Q3876538', 'http://www.wikidata.org/entity/Q3935791', 'http://www.wikidata.org/entity/Q4065802', 'http://www.wikidata.org/entity/Q4104376', 'http://www.wikidata.org/entity/Q4172824', 'http://www.wikidata.org/entity/Q4172835', 'http://www.wikidata.org/entity/Q4308314', 'http://www.wikidata.org/entity/Q4675877', 'http://www.wikidata.org/entity/Q4751927', 'http://www.wikidata.org/entity/Q4762991', 'http://www.wikidata.org/entity/Q4763003', 'http://www.wikidata.org/entity/Q4789952', 'http://www.wikidata.org/entity/Q4796489', 'http://www.wikidata.org/entity/Q5113522', 'http://www.wikidata.org/entity/Q5277663', 'http://www.wikidata.org/entity/Q5546866', 'http://www.wikidata.org/entity/Q5548437', 'http://www.wikidata.org/entity/Q5802175', 'http://www.wikidata.org/entity/Q6001459', 'http://www.wikidata.org/entity/Q6038194', 'http://www.wikidata.org/entity/Q6038808', 'http://www.wikidata.org/entity/Q6081551', 'http://www.wikidata.org/entity/Q6084720', 'http://www.wikidata.org/entity/Q6155960', 'http://www.wikidata.org/entity/Q6467637', 'http://www.wikidata.org/entity/Q6517023', 'http://www.wikidata.org/entity/Q6751216', 'http://www.wikidata.org/entity/Q6751217', 'http://www.wikidata.org/entity/Q6751225', 'http://www.wikidata.org/entity/Q6761479', 'http://www.wikidata.org/entity/Q6761597', 'http://www.wikidata.org/entity/Q6795819', 'http://www.wikidata.org/entity/Q6835691', 'http://www.wikidata.org/entity/Q6863224', 'http://www.wikidata.org/entity/Q7067631', 'http://www.wikidata.org/entity/Q7312347', 'http://www.wikidata.org/entity/Q7363221', 'http://www.wikidata.org/entity/Q7781871', 'http://www.wikidata.org/entity/Q7925550', 'http://www.wikidata.org/entity/Q9033451', 'http://www.wikidata.org/entity/Q9340768', 'http://www.wikidata.org/entity/Q10533007', 'http://www.wikidata.org/entity/Q11102047', 'http://www.wikidata.org/entity/Q11931920', 'http://www.wikidata.org/entity/Q12873118', 'http://www.wikidata.org/entity/Q12873662', 'http://www.wikidata.org/entity/Q12873744', 'http://www.wikidata.org/entity/Q12874350', 'http://www.wikidata.org/entity/Q12875108', 'http://www.wikidata.org/entity/Q12875311', 'http://www.wikidata.org/entity/Q12875336', 'http://www.wikidata.org/entity/Q12878284', 'http://www.wikidata.org/entity/Q12878447', 'http://www.wikidata.org/entity/Q12880672', 'http://www.wikidata.org/entity/Q12880675', 'http://www.wikidata.org/entity/Q12880677', 'http://www.wikidata.org/entity/Q12881079', 'http://www.wikidata.org/entity/Q12885766', 'http://www.wikidata.org/entity/Q13411107', 'http://www.wikidata.org/entity/Q14153584', 'http://www.wikidata.org/entity/Q14229034', 'http://www.wikidata.org/entity/Q14500317', 'http://www.wikidata.org/entity/Q14625005', 'http://www.wikidata.org/entity/Q15002185', 'http://www.wikidata.org/entity/Q15274548', 'http://www.wikidata.org/entity/Q15433778', 'http://www.wikidata.org/entity/Q15651684', 'http://www.wikidata.org/entity/Q15707552', 'http://www.wikidata.org/entity/Q15983065', 'http://www.wikidata.org/entity/Q15994196', 'http://www.wikidata.org/entity/Q16199868', 'http://www.wikidata.org/entity/Q16235535', 'http://www.wikidata.org/entity/Q16327244', 'http://www.wikidata.org/entity/Q16327733', 'http://www.wikidata.org/entity/Q16328616', 'http://www.wikidata.org/entity/Q16328851', 'http://www.wikidata.org/entity/Q16328867', 'http://www.wikidata.org/entity/Q16329078', 'http://www.wikidata.org/entity/Q16329346', 'http://www.wikidata.org/entity/Q16330120', 'http://www.wikidata.org/entity/Q16330682', 'http://www.wikidata.org/entity/Q16331916', 'http://www.wikidata.org/entity/Q16332287', 'http://www.wikidata.org/entity/Q16332578', 'http://www.wikidata.org/entity/Q16332651', 'http://www.wikidata.org/entity/Q16512450', 'http://www.wikidata.org/entity/Q16512492', 'http://www.wikidata.org/entity/Q16644246', 'http://www.wikidata.org/entity/Q16711496', 'http://www.wikidata.org/entity/Q16711498', 'http://www.wikidata.org/entity/Q16853551', 'http://www.wikidata.org/entity/Q16874283', 'http://www.wikidata.org/entity/Q16937833', 'http://www.wikidata.org/entity/Q17000036', 'http://www.wikidata.org/entity/Q17315716', 'http://www.wikidata.org/entity/Q17350265', 'http://www.wikidata.org/entity/Q17420765', 'http://www.wikidata.org/entity/Q17420770', 'http://www.wikidata.org/entity/Q18234229', 'http://www.wikidata.org/entity/Q18335504', 'http://www.wikidata.org/entity/Q18340746', 'http://www.wikidata.org/entity/Q18340750', 'http://www.wikidata.org/entity/Q18392960', 'http://www.wikidata.org/entity/Q18397296', 'http://www.wikidata.org/entity/Q18599700', 'http://www.wikidata.org/entity/Q18599759', 'http://www.wikidata.org/entity/Q19612083', 'http://www.wikidata.org/entity/Q19672743', 'http://www.wikidata.org/entity/Q19758235', 'http://www.wikidata.org/entity/Q19862442', 'http://www.wikidata.org/entity/Q19886218', 'http://www.wikidata.org/entity/Q19939295', 'http://www.wikidata.org/entity/Q19941936', 'http://www.wikidata.org/entity/Q19953561', 'http://www.wikidata.org/entity/Q20011734', 'http://www.wikidata.org/entity/Q20090771', 'http://www.wikidata.org/entity/Q20641089', 'http://www.wikidata.org/entity/Q20648370', 'http://www.wikidata.org/entity/Q20745244', 'http://www.wikidata.org/entity/Q20897762', 'http://www.wikidata.org/entity/Q20986533', 'http://www.wikidata.org/entity/Q21027277', 'http://www.wikidata.org/entity/Q21031023', 'http://www.wikidata.org/entity/Q21066359', 'http://www.wikidata.org/entity/Q21067158', 'http://www.wikidata.org/entity/Q21114808', 'http://www.wikidata.org/entity/Q21207862', 'http://www.wikidata.org/entity/Q21295004', 'http://www.wikidata.org/entity/Q21620727', 'http://www.wikidata.org/entity/Q21620925', 'http://www.wikidata.org/entity/Q21621189', 'http://www.wikidata.org/entity/Q21996798', 'http://www.wikidata.org/entity/Q22812105', 'http://www.wikidata.org/entity/Q22958899', 'http://www.wikidata.org/entity/Q23001049', 'http://www.wikidata.org/entity/Q23677559', 'http://www.wikidata.org/entity/Q23726787', 'http://www.wikidata.org/entity/Q23928168', 'http://www.wikidata.org/entity/Q23928180', 'http://www.wikidata.org/entity/Q24006617', 'http://www.wikidata.org/entity/Q24045397', 'http://www.wikidata.org/entity/Q25909395', 'http://www.wikidata.org/entity/Q26703027', 'http://www.wikidata.org/entity/Q26829002', 'http://www.wikidata.org/entity/Q27975949', 'http://www.wikidata.org/entity/Q28106080', 'http://www.wikidata.org/entity/Q28745301', 'http://www.wikidata.org/entity/Q29346418', 'http://www.wikidata.org/entity/Q30887619', 'http://www.wikidata.org/entity/Q38127864', 'http://www.wikidata.org/entity/Q40203914', 'http://www.wikidata.org/entity/Q41660974', 'http://www.wikidata.org/entity/Q48232422', 'http://www.wikidata.org/entity/Q48976256', 'http://www.wikidata.org/entity/Q52498604', 'http://www.wikidata.org/entity/Q52573880', 'http://www.wikidata.org/entity/Q53864990', 'http://www.wikidata.org/entity/Q54803547', 'http://www.wikidata.org/entity/Q55078491', 'http://www.wikidata.org/entity/Q55351080', 'http://www.wikidata.org/entity/Q56021315', 'http://www.wikidata.org/entity/Q56628168', 'http://www.wikidata.org/entity/Q56852961', 'http://www.wikidata.org/entity/Q58198309', 'http://www.wikidata.org/entity/Q58503135', 'http://www.wikidata.org/entity/Q58755716', 'http://www.wikidata.org/entity/Q59512002', 'http://www.wikidata.org/entity/Q59614661', 'http://www.wikidata.org/entity/Q60286852', 'http://www.wikidata.org/entity/Q60582822', 'http://www.wikidata.org/entity/Q60583087', 'http://www.wikidata.org/entity/Q60677632', 'http://www.wikidata.org/entity/Q62591624', 'http://www.wikidata.org/entity/Q62603850', 'http://www.wikidata.org/entity/Q63254170', 'http://www.wikidata.org/entity/Q63982897', 'http://www.wikidata.org/entity/Q64615787', 'http://www.wikidata.org/entity/Q65273468', 'http://www.wikidata.org/entity/Q65926208', 'http://www.wikidata.org/entity/Q65961421', 'http://www.wikidata.org/entity/Q68867937', 'http://www.wikidata.org/entity/Q70843750', 'http://www.wikidata.org/entity/Q71013124', 'http://www.wikidata.org/entity/Q77038923', 'http://www.wikidata.org/entity/Q77846610', 'http://www.wikidata.org/entity/Q81217357', 'http://www.wikidata.org/entity/Q81678162', 'http://www.wikidata.org/entity/Q82291289', 'http://www.wikidata.org/entity/Q84048201', 'http://www.wikidata.org/entity/Q87652519', 'http://www.wikidata.org/entity/Q88314564', 'http://www.wikidata.org/entity/Q88360684', 'http://www.wikidata.org/entity/Q88361390', 'http://www.wikidata.org/entity/Q88380768', 'http://www.wikidata.org/entity/Q88383715', 'http://www.wikidata.org/entity/Q88488624', 'http://www.wikidata.org/entity/Q88657263', 'http://www.wikidata.org/entity/Q88710225', 'http://www.wikidata.org/entity/Q88710463', 'http://www.wikidata.org/entity/Q88796507', 'http://www.wikidata.org/entity/Q89259891', 'http://www.wikidata.org/entity/Q89514526', 'http://www.wikidata.org/entity/Q90157181', 'http://www.wikidata.org/entity/Q91442809', 'http://www.wikidata.org/entity/Q93233224', 'http://www.wikidata.org/entity/Q93737213', 'http://www.wikidata.org/entity/Q93785423', 'http://www.wikidata.org/entity/Q95203707', 'http://www.wikidata.org/entity/Q95309443', 'http://www.wikidata.org/entity/Q95329588', 'http://www.wikidata.org/entity/Q95349620', 'http://www.wikidata.org/entity/Q96176197', 'http://www.wikidata.org/entity/Q96395743', 'http://www.wikidata.org/entity/Q97486765', 'http://www.wikidata.org/entity/Q98216546', 'http://www.wikidata.org/entity/Q98792917', 'http://www.wikidata.org/entity/Q98831182', 'http://www.wikidata.org/entity/Q98836152', 'http://www.wikidata.org/entity/Q99167687', 'http://www.wikidata.org/entity/Q100331972', 'http://www.wikidata.org/entity/Q100394144', 'http://www.wikidata.org/entity/Q101218635', 'http://www.wikidata.org/entity/Q102256598', 'http://www.wikidata.org/entity/Q102390777', 'http://www.wikidata.org/entity/Q104483225', 'http://www.wikidata.org/entity/Q105389038', 'http://www.wikidata.org/entity/Q106157237', 'http://www.wikidata.org/entity/Q106243894', 'http://www.wikidata.org/entity/Q106363582', 'http://www.wikidata.org/entity/Q106798081', 'http://www.wikidata.org/entity/Q107310844', 'http://www.wikidata.org/entity/Q107344844', 'http://www.wikidata.org/entity/Q107369220', 'http://www.wikidata.org/entity/Q107750113', 'http://www.wikidata.org/entity/Q108108930', 'http://www.wikidata.org/entity/Q108142616', 'http://www.wikidata.org/entity/Q108143520', 'http://www.wikidata.org/entity/Q108305316', 'http://www.wikidata.org/entity/Q108419496', 'http://www.wikidata.org/entity/Q108420335', 'http://www.wikidata.org/entity/Q108528226', 'http://www.wikidata.org/entity/Q108801572', 'http://www.wikidata.org/entity/Q110024583', 'http://www.wikidata.org/entity/Q110257591', 'http://www.wikidata.org/entity/Q110438288', 'http://www.wikidata.org/entity/Q111279614', 'http://www.wikidata.org/entity/Q111378638', 'http://www.wikidata.org/entity/Q112460780', 'http://www.wikidata.org/entity/Q113045473', 'http://www.wikidata.org/entity/Q113074033', 'http://www.wikidata.org/entity/Q113184346', 'http://www.wikidata.org/entity/Q113232042', 'http://www.wikidata.org/entity/Q113737899', 'http://www.wikidata.org/entity/Q113749117', 'http://www.wikidata.org/entity/Q113772754', 'http://www.wikidata.org/entity/Q113807740', 'http://www.wikidata.org/entity/Q113834191', 'http://www.wikidata.org/entity/Q113843326', 'http://www.wikidata.org/entity/Q114089100', 'http://www.wikidata.org/entity/Q114235854', 'http://www.wikidata.org/entity/Q114616578', 'http://www.wikidata.org/entity/Q115110628', 'http://www.wikidata.org/entity/Q115180838', 'http://www.wikidata.org/entity/Q115864917', 'http://www.wikidata.org/entity/Q116759188', 'http://www.wikidata.org/entity/Q116765917', 'http://www.wikidata.org/entity/Q117198007', 'http://www.wikidata.org/entity/Q118487290', 'http://www.wikidata.org/entity/Q118762757', 'http://www.wikidata.org/entity/Q120961856', 'http://www.wikidata.org/entity/Q121300453', 'http://www.wikidata.org/entity/Q121378646', 'http://www.wikidata.org/entity/Q122228916', 'http://www.wikidata.org/entity/Q123117223', 'http://www.wikidata.org/entity/Q123183318', 'http://www.wikidata.org/entity/Q123189154', 'http://www.wikidata.org/entity/Q123196316', 'http://www.wikidata.org/entity/Q123247882', 'http://www.wikidata.org/entity/Q123281296', 'http://www.wikidata.org/entity/Q123282585', 'http://www.wikidata.org/entity/Q123403159', 'http://www.wikidata.org/entity/Q125352819', 'http://www.wikidata.org/entity/Q126363974', 'http://www.wikidata.org/entity/Q128183151', 'http://www.wikidata.org/entity/Q128693220', 'http://www.wikidata.org/entity/Q130305674', 'http://www.wikidata.org/entity/Q130632515', 'http://www.wikidata.org/entity/Q130632553', 'http://www.wikidata.org/entity/Q130718161', 'http://www.wikidata.org/entity/Q130726218', 'http://www.wikidata.org/entity/Q130865835', 'http://www.wikidata.org/entity/Q132531326']</t>
         </is>
       </c>
     </row>
@@ -628,7 +628,7 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>['http://www.wikidata.org/entity/Q110154', 'http://www.wikidata.org/entity/Q116281', 'http://www.wikidata.org/entity/Q152773', 'http://www.wikidata.org/entity/Q190523', 'http://www.wikidata.org/entity/Q230038', 'http://www.wikidata.org/entity/Q231576', 'http://www.wikidata.org/entity/Q234114', 'http://www.wikidata.org/entity/Q238168', 'http://www.wikidata.org/entity/Q254038', 'http://www.wikidata.org/entity/Q266391', 'http://www.wikidata.org/entity/Q272214', 'http://www.wikidata.org/entity/Q311699', 'http://www.wikidata.org/entity/Q313789', 'http://www.wikidata.org/entity/Q318412', 'http://www.wikidata.org/entity/Q346595', 'http://www.wikidata.org/entity/Q348445', 'http://www.wikidata.org/entity/Q356846', 'http://www.wikidata.org/entity/Q363271', 'http://www.wikidata.org/entity/Q366012', 'http://www.wikidata.org/entity/Q376176', 'http://www.wikidata.org/entity/Q378538', 'http://www.wikidata.org/entity/Q442025', 'http://www.wikidata.org/entity/Q444217', 'http://www.wikidata.org/entity/Q461794', 'http://www.wikidata.org/entity/Q504028', 'http://www.wikidata.org/entity/Q550778', 'http://www.wikidata.org/entity/Q552103', 'http://www.wikidata.org/entity/Q1209826', 'http://www.wikidata.org/entity/Q1320797', 'http://www.wikidata.org/entity/Q1338682', 'http://www.wikidata.org/entity/Q1396278', 'http://www.wikidata.org/entity/Q1720634', 'http://www.wikidata.org/entity/Q2263306', 'http://www.wikidata.org/entity/Q2439878', 'http://www.wikidata.org/entity/Q2451563', 'http://www.wikidata.org/entity/Q2667506', 'http://www.wikidata.org/entity/Q2805350', 'http://www.wikidata.org/entity/Q2933924', 'http://www.wikidata.org/entity/Q2965115', 'http://www.wikidata.org/entity/Q3177047', 'http://www.wikidata.org/entity/Q3300864', 'http://www.wikidata.org/entity/Q3441429', 'http://www.wikidata.org/entity/Q3559413', 'http://www.wikidata.org/entity/Q3852420', 'http://www.wikidata.org/entity/Q3877584', 'http://www.wikidata.org/entity/Q5115837', 'http://www.wikidata.org/entity/Q5213941', 'http://www.wikidata.org/entity/Q5407123', 'http://www.wikidata.org/entity/Q6066272', 'http://www.wikidata.org/entity/Q6308308', 'http://www.wikidata.org/entity/Q6811353', 'http://www.wikidata.org/entity/Q18211660', 'http://www.wikidata.org/entity/Q42329064', 'http://www.wikidata.org/entity/Q16296', 'http://www.wikidata.org/entity/Q16297', 'http://www.wikidata.org/entity/Q16345', 'http://www.wikidata.org/entity/Q16349', 'http://www.wikidata.org/entity/Q23466']</t>
+          <t>['http://www.wikidata.org/entity/Q110154', 'http://www.wikidata.org/entity/Q116281', 'http://www.wikidata.org/entity/Q152773', 'http://www.wikidata.org/entity/Q190523', 'http://www.wikidata.org/entity/Q230038', 'http://www.wikidata.org/entity/Q231576', 'http://www.wikidata.org/entity/Q234114', 'http://www.wikidata.org/entity/Q238168', 'http://www.wikidata.org/entity/Q254038', 'http://www.wikidata.org/entity/Q266391', 'http://www.wikidata.org/entity/Q272214', 'http://www.wikidata.org/entity/Q311699', 'http://www.wikidata.org/entity/Q313789', 'http://www.wikidata.org/entity/Q318412', 'http://www.wikidata.org/entity/Q346595', 'http://www.wikidata.org/entity/Q348445', 'http://www.wikidata.org/entity/Q356846', 'http://www.wikidata.org/entity/Q363271', 'http://www.wikidata.org/entity/Q366012', 'http://www.wikidata.org/entity/Q376176', 'http://www.wikidata.org/entity/Q378538', 'http://www.wikidata.org/entity/Q442025', 'http://www.wikidata.org/entity/Q444217', 'http://www.wikidata.org/entity/Q461794', 'http://www.wikidata.org/entity/Q504028', 'http://www.wikidata.org/entity/Q550778', 'http://www.wikidata.org/entity/Q552103', 'http://www.wikidata.org/entity/Q1209826', 'http://www.wikidata.org/entity/Q1320797', 'http://www.wikidata.org/entity/Q1338682', 'http://www.wikidata.org/entity/Q1396278', 'http://www.wikidata.org/entity/Q1720634', 'http://www.wikidata.org/entity/Q2263306', 'http://www.wikidata.org/entity/Q2439878', 'http://www.wikidata.org/entity/Q2451563', 'http://www.wikidata.org/entity/Q2667506', 'http://www.wikidata.org/entity/Q2805350', 'http://www.wikidata.org/entity/Q2933924', 'http://www.wikidata.org/entity/Q2965115', 'http://www.wikidata.org/entity/Q3177047', 'http://www.wikidata.org/entity/Q3300864', 'http://www.wikidata.org/entity/Q3441429', 'http://www.wikidata.org/entity/Q3559413', 'http://www.wikidata.org/entity/Q3852420', 'http://www.wikidata.org/entity/Q3877584', 'http://www.wikidata.org/entity/Q5213941', 'http://www.wikidata.org/entity/Q5407123', 'http://www.wikidata.org/entity/Q6066272', 'http://www.wikidata.org/entity/Q6308308', 'http://www.wikidata.org/entity/Q6811353', 'http://www.wikidata.org/entity/Q18211660', 'http://www.wikidata.org/entity/Q42329064', 'http://www.wikidata.org/entity/Q16296', 'http://www.wikidata.org/entity/Q16297', 'http://www.wikidata.org/entity/Q16345', 'http://www.wikidata.org/entity/Q16349', 'http://www.wikidata.org/entity/Q23466']</t>
         </is>
       </c>
     </row>
@@ -672,7 +672,7 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>['http://www.wikidata.org/entity/Q24910', 'http://www.wikidata.org/entity/Q24911', 'http://www.wikidata.org/entity/Q32303', 'http://www.wikidata.org/entity/Q20493713', 'http://www.wikidata.org/entity/Q20494430', 'http://www.wikidata.org/entity/Q20494889', 'http://www.wikidata.org/entity/Q20495158', 'http://www.wikidata.org/entity/Q20653258', 'http://www.wikidata.org/entity/Q20727879', 'http://www.wikidata.org/entity/Q61061048', 'http://www.wikidata.org/entity/Q165525', 'http://www.wikidata.org/entity/Q165699', 'http://www.wikidata.org/entity/Q194649', 'http://www.wikidata.org/entity/Q195920', 'http://www.wikidata.org/entity/Q195959', 'http://www.wikidata.org/entity/Q196103', 'http://www.wikidata.org/entity/Q205687', 'http://www.wikidata.org/entity/Q221887', 'http://www.wikidata.org/entity/Q224618', 'http://www.wikidata.org/entity/Q230608', 'http://www.wikidata.org/entity/Q254687', 'http://www.wikidata.org/entity/Q255181', 'http://www.wikidata.org/entity/Q151730', 'http://www.wikidata.org/entity/Q110365', 'http://www.wikidata.org/entity/Q117378', 'http://www.wikidata.org/entity/Q127011', 'http://www.wikidata.org/entity/Q63930921', 'http://www.wikidata.org/entity/Q63959157', 'http://www.wikidata.org/entity/Q64787782', 'http://www.wikidata.org/entity/Q64819690', 'http://www.wikidata.org/entity/Q65374542', 'http://www.wikidata.org/entity/Q65375718', 'http://www.wikidata.org/entity/Q65613232', 'http://www.wikidata.org/entity/Q65619940', 'http://www.wikidata.org/entity/Q65622059', 'http://www.wikidata.org/entity/Q65622086', 'http://www.wikidata.org/entity/Q65665494', 'http://www.wikidata.org/entity/Q108301630', 'http://www.wikidata.org/entity/Q111255011', 'http://www.wikidata.org/entity/Q59721', 'http://www.wikidata.org/entity/Q62513', 'http://www.wikidata.org/entity/Q276343', 'http://www.wikidata.org/entity/Q279255', 'http://www.wikidata.org/entity/Q4037757', 'http://www.wikidata.org/entity/Q12314322', 'http://www.wikidata.org/entity/Q12320999', 'http://www.wikidata.org/entity/Q87997688', 'http://www.wikidata.org/entity/Q100929104', 'http://www.wikidata.org/entity/Q286619', 'http://www.wikidata.org/entity/Q300442', 'http://www.wikidata.org/entity/Q304394', 'http://www.wikidata.org/entity/Q312394', 'http://www.wikidata.org/entity/Q316761', 'http://www.wikidata.org/entity/Q110626835', 'http://www.wikidata.org/entity/Q327681', 'http://www.wikidata.org/entity/Q342637', 'http://www.wikidata.org/entity/Q108437454', 'http://www.wikidata.org/entity/Q352000', 'http://www.wikidata.org/entity/Q370707', 'http://www.wikidata.org/entity/Q372477', 'http://www.wikidata.org/entity/Q374373', 'http://www.wikidata.org/entity/Q387727', 'http://www.wikidata.org/entity/Q391263', 'http://www.wikidata.org/entity/Q392684', 'http://www.wikidata.org/entity/Q392960', 'http://www.wikidata.org/entity/Q401539', 'http://www.wikidata.org/entity/Q10671524', 'http://www.wikidata.org/entity/Q130342318', 'http://www.wikidata.org/entity/Q469708', 'http://www.wikidata.org/entity/Q475788', 'http://www.wikidata.org/entity/Q477307', 'http://www.wikidata.org/entity/Q33531490', 'http://www.wikidata.org/entity/Q33532062', 'http://www.wikidata.org/entity/Q33534121', 'http://www.wikidata.org/entity/Q33536679', 'http://www.wikidata.org/entity/Q33542677', 'http://www.wikidata.org/entity/Q33577599', 'http://www.wikidata.org/entity/Q431948', 'http://www.wikidata.org/entity/Q435189', 'http://www.wikidata.org/entity/Q441444', 'http://www.wikidata.org/entity/Q459997', 'http://www.wikidata.org/entity/Q460620', 'http://www.wikidata.org/entity/Q461645', 'http://www.wikidata.org/entity/Q462350', 'http://www.wikidata.org/entity/Q464440', 'http://www.wikidata.org/entity/Q20494380', 'http://www.wikidata.org/entity/Q20728902', 'http://www.wikidata.org/entity/Q20729174', 'http://www.wikidata.org/entity/Q20729586', 'http://www.wikidata.org/entity/Q20729676', 'http://www.wikidata.org/entity/Q20755929', 'http://www.wikidata.org/entity/Q20757057', 'http://www.wikidata.org/entity/Q20757452', 'http://www.wikidata.org/entity/Q20757460', 'http://www.wikidata.org/entity/Q492340', 'http://www.wikidata.org/entity/Q497260', 'http://www.wikidata.org/entity/Q498789', 'http://www.wikidata.org/entity/Q507285', 'http://www.wikidata.org/entity/Q569281', 'http://www.wikidata.org/entity/Q574713', 'http://www.wikidata.org/entity/Q574998', 'http://www.wikidata.org/entity/Q589953', 'http://www.wikidata.org/entity/Q598804', 'http://www.wikidata.org/entity/Q598865', 'http://www.wikidata.org/entity/Q75771369', 'http://www.wikidata.org/entity/Q640854', 'http://www.wikidata.org/entity/Q643268', 'http://www.wikidata.org/entity/Q643847', 'http://www.wikidata.org/entity/Q657986', 'http://www.wikidata.org/entity/Q666017', 'http://www.wikidata.org/entity/Q671754', 'http://www.wikidata.org/entity/Q682574', 'http://www.wikidata.org/entity/Q682695', 'http://www.wikidata.org/entity/Q690385', 'http://www.wikidata.org/entity/Q119175149', 'http://www.wikidata.org/entity/Q615237', 'http://www.wikidata.org/entity/Q625341', 'http://www.wikidata.org/entity/Q625345', 'http://www.wikidata.org/entity/Q625514', 'http://www.wikidata.org/entity/Q626954', 'http://www.wikidata.org/entity/Q626964', 'http://www.wikidata.org/entity/Q626968', 'http://www.wikidata.org/entity/Q626973', 'http://www.wikidata.org/entity/Q639154', 'http://www.wikidata.org/entity/Q111309453', 'http://www.wikidata.org/entity/Q538412', 'http://www.wikidata.org/entity/Q538516', 'http://www.wikidata.org/entity/Q64811467', 'http://www.wikidata.org/entity/Q64811483', 'http://www.wikidata.org/entity/Q64812647', 'http://www.wikidata.org/entity/Q69121620', 'http://www.wikidata.org/entity/Q72283487', 'http://www.wikidata.org/entity/Q72283821', 'http://www.wikidata.org/entity/Q762898', 'http://www.wikidata.org/entity/Q764783', 'http://www.wikidata.org/entity/Q766096', 'http://www.wikidata.org/entity/Q775356', 'http://www.wikidata.org/entity/Q781684', 'http://www.wikidata.org/entity/Q784369', 'http://www.wikidata.org/entity/Q790282', 'http://www.wikidata.org/entity/Q797679', 'http://www.wikidata.org/entity/Q805127', 'http://www.wikidata.org/entity/Q808700', 'http://www.wikidata.org/entity/Q813913', 'http://www.wikidata.org/entity/Q827199', 'http://www.wikidata.org/entity/Q827277', 'http://www.wikidata.org/entity/Q690651', 'http://www.wikidata.org/entity/Q734819', 'http://www.wikidata.org/entity/Q756444', 'http://www.wikidata.org/entity/Q759230', 'http://www.wikidata.org/entity/Q841958', 'http://www.wikidata.org/entity/Q882945', 'http://www.wikidata.org/entity/Q885169', 'http://www.wikidata.org/entity/Q897561', 'http://www.wikidata.org/entity/Q912049', 'http://www.wikidata.org/entity/Q933674', 'http://www.wikidata.org/entity/Q941126', 'http://www.wikidata.org/entity/Q954182', 'http://www.wikidata.org/entity/Q1218226', 'http://www.wikidata.org/entity/Q975962', 'http://www.wikidata.org/entity/Q990857', 'http://www.wikidata.org/entity/Q992227', 'http://www.wikidata.org/entity/Q1016657', 'http://www.wikidata.org/entity/Q1018491', 'http://www.wikidata.org/entity/Q1029748', 'http://www.wikidata.org/entity/Q1052389', 'http://www.wikidata.org/entity/Q1058095', 'http://www.wikidata.org/entity/Q1058578', 'http://www.wikidata.org/entity/Q1073856', 'http://www.wikidata.org/entity/Q1090737', 'http://www.wikidata.org/entity/Q1103638', 'http://www.wikidata.org/entity/Q1106764', 'http://www.wikidata.org/entity/Q1126097', 'http://www.wikidata.org/entity/Q1127630', 'http://www.wikidata.org/entity/Q1134037', 'http://www.wikidata.org/entity/Q1141731', 'http://www.wikidata.org/entity/Q1142950', 'http://www.wikidata.org/entity/Q1165090', 'http://www.wikidata.org/entity/Q1167202', 'http://www.wikidata.org/entity/Q1179100', 'http://www.wikidata.org/entity/Q1180628', 'http://www.wikidata.org/entity/Q1192010', 'http://www.wikidata.org/entity/Q1193228', 'http://www.wikidata.org/entity/Q1193235', 'http://www.wikidata.org/entity/Q1193606', 'http://www.wikidata.org/entity/Q1212397', 'http://www.wikidata.org/entity/Q1215271', 'http://www.wikidata.org/entity/Q1215282', 'http://www.wikidata.org/entity/Q1215281', 'http://www.wikidata.org/entity/Q1215294', 'http://www.wikidata.org/entity/Q1216829', 'http://www.wikidata.org/entity/Q1219667', 'http://www.wikidata.org/entity/Q1226345', 'http://www.wikidata.org/entity/Q1242222', 'http://www.wikidata.org/entity/Q1245864', 'http://www.wikidata.org/entity/Q1249231', 'http://www.wikidata.org/entity/Q1253821', 'http://www.wikidata.org/entity/Q1284216', 'http://www.wikidata.org/entity/Q1304619', 'http://www.wikidata.org/entity/Q1306297', 'http://www.wikidata.org/entity/Q1319856', 'http://www.wikidata.org/entity/Q1321282', 'http://www.wikidata.org/entity/Q1326419', 'http://www.wikidata.org/entity/Q1327845', 'http://www.wikidata.org/entity/Q1328286', 'http://www.wikidata.org/entity/Q1332491', 'http://www.wikidata.org/entity/Q1338487', 'http://www.wikidata.org/entity/Q1339911', 'http://www.wikidata.org/entity/Q1341116', 'http://www.wikidata.org/entity/Q1342038', 'http://www.wikidata.org/entity/Q1346495', 'http://www.wikidata.org/entity/Q1358956', 'http://www.wikidata.org/entity/Q1377566', 'http://www.wikidata.org/entity/Q1382421', 'http://www.wikidata.org/entity/Q1384034', 'http://www.wikidata.org/entity/Q1403033', 'http://www.wikidata.org/entity/Q1403042', 'http://www.wikidata.org/entity/Q1403047', 'http://www.wikidata.org/entity/Q1407094', 'http://www.wikidata.org/entity/Q1416607', 'http://www.wikidata.org/entity/Q1423329', 'http://www.wikidata.org/entity/Q1428455', 'http://www.wikidata.org/entity/Q1430594', 'http://www.wikidata.org/entity/Q1438966', 'http://www.wikidata.org/entity/Q1442230', 'http://www.wikidata.org/entity/Q1446749', 'http://www.wikidata.org/entity/Q1456651', 'http://www.wikidata.org/entity/Q1462630', 'http://www.wikidata.org/entity/Q1482548', 'http://www.wikidata.org/entity/Q1507766', 'http://www.wikidata.org/entity/Q1521948', 'http://www.wikidata.org/entity/Q1534667', 'http://www.wikidata.org/entity/Q1538599', 'http://www.wikidata.org/entity/Q1554218', 'http://www.wikidata.org/entity/Q1581514', 'http://www.wikidata.org/entity/Q1585018', 'http://www.wikidata.org/entity/Q1621638', 'http://www.wikidata.org/entity/Q1630226', 'http://www.wikidata.org/entity/Q1632262', 'http://www.wikidata.org/entity/Q1664445', 'http://www.wikidata.org/entity/Q1665143', 'http://www.wikidata.org/entity/Q1670867', 'http://www.wikidata.org/entity/Q1671510', 'http://www.wikidata.org/entity/Q1722219', 'http://www.wikidata.org/entity/Q1742410', 'http://www.wikidata.org/entity/Q1754532', 'http://www.wikidata.org/entity/Q1754559', 'http://www.wikidata.org/entity/Q1755197', 'http://www.wikidata.org/entity/Q1757020', 'http://www.wikidata.org/entity/Q1757030', 'http://www.wikidata.org/entity/Q1757810', 'http://www.wikidata.org/entity/Q1758363', 'http://www.wikidata.org/entity/Q1758519', 'http://www.wikidata.org/entity/Q1758576', 'http://www.wikidata.org/entity/Q1758883', 'http://www.wikidata.org/entity/Q1759042', 'http://www.wikidata.org/entity/Q1759123', 'http://www.wikidata.org/entity/Q1759619', 'http://www.wikidata.org/entity/Q1760129', 'http://www.wikidata.org/entity/Q1760354', 'http://www.wikidata.org/entity/Q1760358', 'http://www.wikidata.org/entity/Q1760364', 'http://www.wikidata.org/entity/Q1760391', 'http://www.wikidata.org/entity/Q1760823', 'http://www.wikidata.org/entity/Q1761295', 'http://www.wikidata.org/entity/Q1762512', 'http://www.wikidata.org/entity/Q1762519', 'http://www.wikidata.org/entity/Q1762537', 'http://www.wikidata.org/entity/Q1762695', 'http://www.wikidata.org/entity/Q1762798', 'http://www.wikidata.org/entity/Q1763585', 'http://www.wikidata.org/entity/Q1763879', 'http://www.wikidata.org/entity/Q1766342', 'http://www.wikidata.org/entity/Q1766498', 'http://www.wikidata.org/entity/Q1767018', 'http://www.wikidata.org/entity/Q1767235', 'http://www.wikidata.org/entity/Q1767472', 'http://www.wikidata.org/entity/Q1767675', 'http://www.wikidata.org/entity/Q1768770', 'http://www.wikidata.org/entity/Q1772262', 'http://www.wikidata.org/entity/Q1783771', 'http://www.wikidata.org/entity/Q1792217', 'http://www.wikidata.org/entity/Q1812183', 'http://www.wikidata.org/entity/Q1825174', 'http://www.wikidata.org/entity/Q1889303', 'http://www.wikidata.org/entity/Q1915512', 'http://www.wikidata.org/entity/Q1933953', 'http://www.wikidata.org/entity/Q2241055', 'http://www.wikidata.org/entity/Q2260825', 'http://www.wikidata.org/entity/Q2277610', 'http://www.wikidata.org/entity/Q2293735', 'http://www.wikidata.org/entity/Q2294677', 'http://www.wikidata.org/entity/Q2299929', 'http://www.wikidata.org/entity/Q2330111', 'http://www.wikidata.org/entity/Q2331220', 'http://www.wikidata.org/entity/Q2352630', 'http://www.wikidata.org/entity/Q2062163', 'http://www.wikidata.org/entity/Q2096145', 'http://www.wikidata.org/entity/Q2097072', 'http://www.wikidata.org/entity/Q2143831', 'http://www.wikidata.org/entity/Q2146491', 'http://www.wikidata.org/entity/Q2152819', 'http://www.wikidata.org/entity/Q2198202', 'http://www.wikidata.org/entity/Q1977126', 'http://www.wikidata.org/entity/Q1977130', 'http://www.wikidata.org/entity/Q2017132', 'http://www.wikidata.org/entity/Q2378130', 'http://www.wikidata.org/entity/Q2394751', 'http://www.wikidata.org/entity/Q2411663', 'http://www.wikidata.org/entity/Q2434685', 'http://www.wikidata.org/entity/Q2438579', 'http://www.wikidata.org/entity/Q2457086', 'http://www.wikidata.org/entity/Q2466081', 'http://www.wikidata.org/entity/Q2550198', 'http://www.wikidata.org/entity/Q2595780', 'http://www.wikidata.org/entity/Q2608065', 'http://www.wikidata.org/entity/Q2617594', 'http://www.wikidata.org/entity/Q2632905', 'http://www.wikidata.org/entity/Q2646419', 'http://www.wikidata.org/entity/Q2656723', 'http://www.wikidata.org/entity/Q2679094', 'http://www.wikidata.org/entity/Q2735941', 'http://www.wikidata.org/entity/Q2779388', 'http://www.wikidata.org/entity/Q2947409', 'http://www.wikidata.org/entity/Q2900465', 'http://www.wikidata.org/entity/Q2904867', 'http://www.wikidata.org/entity/Q3061415', 'http://www.wikidata.org/entity/Q3078014', 'http://www.wikidata.org/entity/Q3099418', 'http://www.wikidata.org/entity/Q3148900', 'http://www.wikidata.org/entity/Q3190021', 'http://www.wikidata.org/entity/Q3204055', 'http://www.wikidata.org/entity/Q3220633', 'http://www.wikidata.org/entity/Q3235886', 'http://www.wikidata.org/entity/Q3264250', 'http://www.wikidata.org/entity/Q3226056', 'http://www.wikidata.org/entity/Q3228255', 'http://www.wikidata.org/entity/Q3284962', 'http://www.wikidata.org/entity/Q3286160', 'http://www.wikidata.org/entity/Q3317884', 'http://www.wikidata.org/entity/Q3346699', 'http://www.wikidata.org/entity/Q3363736', 'http://www.wikidata.org/entity/Q3422806', 'http://www.wikidata.org/entity/Q3574023', 'http://www.wikidata.org/entity/Q3574048', 'http://www.wikidata.org/entity/Q3558697', 'http://www.wikidata.org/entity/Q3567719', 'http://www.wikidata.org/entity/Q3467601', 'http://www.wikidata.org/entity/Q3480785', 'http://www.wikidata.org/entity/Q3481120', 'http://www.wikidata.org/entity/Q3482183', 'http://www.wikidata.org/entity/Q3488989', 'http://www.wikidata.org/entity/Q3521078', 'http://www.wikidata.org/entity/Q3601168', 'http://www.wikidata.org/entity/Q3606410', 'http://www.wikidata.org/entity/Q3648129', 'http://www.wikidata.org/entity/Q3703151', 'http://www.wikidata.org/entity/Q3705408', 'http://www.wikidata.org/entity/Q3713583', 'http://www.wikidata.org/entity/Q3715598', 'http://www.wikidata.org/entity/Q3844402', 'http://www.wikidata.org/entity/Q3743976', 'http://www.wikidata.org/entity/Q3764502', 'http://www.wikidata.org/entity/Q3790803', 'http://www.wikidata.org/entity/Q3899472', 'http://www.wikidata.org/entity/Q4069758', 'http://www.wikidata.org/entity/Q3828459', 'http://www.wikidata.org/entity/Q3828502', 'http://www.wikidata.org/entity/Q3838066', 'http://www.wikidata.org/entity/Q4159361', 'http://www.wikidata.org/entity/Q3954703', 'http://www.wikidata.org/entity/Q3962834', 'http://www.wikidata.org/entity/Q3983079', 'http://www.wikidata.org/entity/Q4190050', 'http://www.wikidata.org/entity/Q4110387', 'http://www.wikidata.org/entity/Q4127657', 'http://www.wikidata.org/entity/Q4658858', 'http://www.wikidata.org/entity/Q4659909', 'http://www.wikidata.org/entity/Q4249907', 'http://www.wikidata.org/entity/Q4310546', 'http://www.wikidata.org/entity/Q4458809', 'http://www.wikidata.org/entity/Q4342029', 'http://www.wikidata.org/entity/Q4351048', 'http://www.wikidata.org/entity/Q4353276', 'http://www.wikidata.org/entity/Q4373469', 'http://www.wikidata.org/entity/Q4379574', 'http://www.wikidata.org/entity/Q4384269', 'http://www.wikidata.org/entity/Q4400517', 'http://www.wikidata.org/entity/Q4405533', 'http://www.wikidata.org/entity/Q4660480', 'http://www.wikidata.org/entity/Q4680017', 'http://www.wikidata.org/entity/Q4688778', 'http://www.wikidata.org/entity/Q4689045', 'http://www.wikidata.org/entity/Q4689080', 'http://www.wikidata.org/entity/Q4690397', 'http://www.wikidata.org/entity/Q4708388', 'http://www.wikidata.org/entity/Q4729965', 'http://www.wikidata.org/entity/Q4532203', 'http://www.wikidata.org/entity/Q4546076', 'http://www.wikidata.org/entity/Q4595704', 'http://www.wikidata.org/entity/Q4634316', 'http://www.wikidata.org/entity/Q4641194', 'http://www.wikidata.org/entity/Q4656890', 'http://www.wikidata.org/entity/Q4657248', 'http://www.wikidata.org/entity/Q4657304', 'http://www.wikidata.org/entity/Q4657764', 'http://www.wikidata.org/entity/Q4879441', 'http://www.wikidata.org/entity/Q4897135', 'http://www.wikidata.org/entity/Q4920010', 'http://www.wikidata.org/entity/Q4802517', 'http://www.wikidata.org/entity/Q4841368', 'http://www.wikidata.org/entity/Q4851332', 'http://www.wikidata.org/entity/Q4875485', 'http://www.wikidata.org/entity/Q4877920', 'http://www.wikidata.org/entity/Q4735932', 'http://www.wikidata.org/entity/Q4747994', 'http://www.wikidata.org/entity/Q4761803', 'http://www.wikidata.org/entity/Q4764803', 'http://www.wikidata.org/entity/Q4766080', 'http://www.wikidata.org/entity/Q4781100', 'http://www.wikidata.org/entity/Q5040873', 'http://www.wikidata.org/entity/Q5069906', 'http://www.wikidata.org/entity/Q5074698', 'http://www.wikidata.org/entity/Q5237834', 'http://www.wikidata.org/entity/Q5237853', 'http://www.wikidata.org/entity/Q5244776', 'http://www.wikidata.org/entity/Q5244890', 'http://www.wikidata.org/entity/Q5244924', 'http://www.wikidata.org/entity/Q5244987', 'http://www.wikidata.org/entity/Q5247107', 'http://www.wikidata.org/entity/Q5256499', 'http://www.wikidata.org/entity/Q5256519', 'http://www.wikidata.org/entity/Q5256530', 'http://www.wikidata.org/entity/Q5261254', 'http://www.wikidata.org/entity/Q5261256', 'http://www.wikidata.org/entity/Q5261274', 'http://www.wikidata.org/entity/Q5261273', 'http://www.wikidata.org/entity/Q5265490', 'http://www.wikidata.org/entity/Q5265510', 'http://www.wikidata.org/entity/Q5265515', 'http://www.wikidata.org/entity/Q5265516', 'http://www.wikidata.org/entity/Q5265522', 'http://www.wikidata.org/entity/Q5265530', 'http://www.wikidata.org/entity/Q5265536', 'http://www.wikidata.org/entity/Q5265537', 'http://www.wikidata.org/entity/Q5265540', 'http://www.wikidata.org/entity/Q5265546', 'http://www.wikidata.org/entity/Q5280723', 'http://www.wikidata.org/entity/Q5293247', 'http://www.wikidata.org/entity/Q5298999', 'http://www.wikidata.org/entity/Q5306590', 'http://www.wikidata.org/entity/Q5308347', 'http://www.wikidata.org/entity/Q5312207', 'http://www.wikidata.org/entity/Q4930930', 'http://www.wikidata.org/entity/Q4944251', 'http://www.wikidata.org/entity/Q4944465', 'http://www.wikidata.org/entity/Q4946136', 'http://www.wikidata.org/entity/Q4952641', 'http://www.wikidata.org/entity/Q4980796', 'http://www.wikidata.org/entity/Q4981907', 'http://www.wikidata.org/entity/Q4984184', 'http://www.wikidata.org/entity/Q4992391', 'http://www.wikidata.org/entity/Q4993093', 'http://www.wikidata.org/entity/Q4993450', 'http://www.wikidata.org/entity/Q4993462', 'http://www.wikidata.org/entity/Q4993546', 'http://www.wikidata.org/entity/Q5121931', 'http://www.wikidata.org/entity/Q5133706', 'http://www.wikidata.org/entity/Q5183230', 'http://www.wikidata.org/entity/Q5332657', 'http://www.wikidata.org/entity/Q5350585', 'http://www.wikidata.org/entity/Q5366221', 'http://www.wikidata.org/entity/Q5374104', 'http://www.wikidata.org/entity/Q5375063', 'http://www.wikidata.org/entity/Q5375061', 'http://www.wikidata.org/entity/Q5375091', 'http://www.wikidata.org/entity/Q5375096', 'http://www.wikidata.org/entity/Q5375105', 'http://www.wikidata.org/entity/Q5375108', 'http://www.wikidata.org/entity/Q5378093', 'http://www.wikidata.org/entity/Q5406229', 'http://www.wikidata.org/entity/Q5504538', 'http://www.wikidata.org/entity/Q5505092', 'http://www.wikidata.org/entity/Q5505093', 'http://www.wikidata.org/entity/Q5506653', 'http://www.wikidata.org/entity/Q5506760', 'http://www.wikidata.org/entity/Q5506761', 'http://www.wikidata.org/entity/Q5507608', 'http://www.wikidata.org/entity/Q5508698', 'http://www.wikidata.org/entity/Q5511498', 'http://www.wikidata.org/entity/Q5511501', 'http://www.wikidata.org/entity/Q5646559', 'http://www.wikidata.org/entity/Q5646560', 'http://www.wikidata.org/entity/Q5650872', 'http://www.wikidata.org/entity/Q5707103', 'http://www.wikidata.org/entity/Q5713520', 'http://www.wikidata.org/entity/Q5526506', 'http://www.wikidata.org/entity/Q5526696', 'http://www.wikidata.org/entity/Q5557206', 'http://www.wikidata.org/entity/Q5559974', 'http://www.wikidata.org/entity/Q5564690', 'http://www.wikidata.org/entity/Q5564688', 'http://www.wikidata.org/entity/Q5564692', 'http://www.wikidata.org/entity/Q5565578', 'http://www.wikidata.org/entity/Q5565768', 'http://www.wikidata.org/entity/Q5577876', 'http://www.wikidata.org/entity/Q5615010', 'http://www.wikidata.org/entity/Q5428649', 'http://www.wikidata.org/entity/Q5431909', 'http://www.wikidata.org/entity/Q5432970', 'http://www.wikidata.org/entity/Q5432968', 'http://www.wikidata.org/entity/Q5434662', 'http://www.wikidata.org/entity/Q5434663', 'http://www.wikidata.org/entity/Q5435451', 'http://www.wikidata.org/entity/Q5437674', 'http://www.wikidata.org/entity/Q5437675', 'http://www.wikidata.org/entity/Q5437672', 'http://www.wikidata.org/entity/Q5437673', 'http://www.wikidata.org/entity/Q5437678', 'http://www.wikidata.org/entity/Q5437676', 'http://www.wikidata.org/entity/Q5439352', 'http://www.wikidata.org/entity/Q5446806', 'http://www.wikidata.org/entity/Q5456922', 'http://www.wikidata.org/entity/Q5459588', 'http://www.wikidata.org/entity/Q5463335', 'http://www.wikidata.org/entity/Q5463762', 'http://www.wikidata.org/entity/Q5463967', 'http://www.wikidata.org/entity/Q5468643', 'http://www.wikidata.org/entity/Q5733369', 'http://www.wikidata.org/entity/Q5880151', 'http://www.wikidata.org/entity/Q5911826', 'http://www.wikidata.org/entity/Q5923302', 'http://www.wikidata.org/entity/Q5949420', 'http://www.wikidata.org/entity/Q5951637', 'http://www.wikidata.org/entity/Q6090410', 'http://www.wikidata.org/entity/Q5951739', 'http://www.wikidata.org/entity/Q5978051', 'http://www.wikidata.org/entity/Q5980128', 'http://www.wikidata.org/entity/Q5980167', 'http://www.wikidata.org/entity/Q5980176', 'http://www.wikidata.org/entity/Q6010145', 'http://www.wikidata.org/entity/Q6176411', 'http://www.wikidata.org/entity/Q6176409', 'http://www.wikidata.org/entity/Q6180437', 'http://www.wikidata.org/entity/Q6180564', 'http://www.wikidata.org/entity/Q6189124', 'http://www.wikidata.org/entity/Q6316687', 'http://www.wikidata.org/entity/Q6321278', 'http://www.wikidata.org/entity/Q6321276', 'http://www.wikidata.org/entity/Q6359179', 'http://www.wikidata.org/entity/Q6377759', 'http://www.wikidata.org/entity/Q6416864', 'http://www.wikidata.org/entity/Q6417179', 'http://www.wikidata.org/entity/Q6421028', 'http://www.wikidata.org/entity/Q6428653', 'http://www.wikidata.org/entity/Q6429109', 'http://www.wikidata.org/entity/Q6438945', 'http://www.wikidata.org/entity/Q6439191', 'http://www.wikidata.org/entity/Q6439614', 'http://www.wikidata.org/entity/Q6449761', 'http://www.wikidata.org/entity/Q6453650', 'http://www.wikidata.org/entity/Q6454064', 'http://www.wikidata.org/entity/Q6484741', 'http://www.wikidata.org/entity/Q6494339', 'http://www.wikidata.org/entity/Q6510612', 'http://www.wikidata.org/entity/Q6522561', 'http://www.wikidata.org/entity/Q6533558', 'http://www.wikidata.org/entity/Q6545282', 'http://www.wikidata.org/entity/Q6549022', 'http://www.wikidata.org/entity/Q6558742', 'http://www.wikidata.org/entity/Q6690806', 'http://www.wikidata.org/entity/Q6691437', 'http://www.wikidata.org/entity/Q6697924', 'http://www.wikidata.org/entity/Q6707852', 'http://www.wikidata.org/entity/Q6730943', 'http://www.wikidata.org/entity/Q6738395', 'http://www.wikidata.org/entity/Q6794726', 'http://www.wikidata.org/entity/Q6803029', 'http://www.wikidata.org/entity/Q6803061', 'http://www.wikidata.org/entity/Q6803097', 'http://www.wikidata.org/entity/Q6813500', 'http://www.wikidata.org/entity/Q6844051', 'http://www.wikidata.org/entity/Q6859857', 'http://www.wikidata.org/entity/Q6862535', 'http://www.wikidata.org/entity/Q6862626', 'http://www.wikidata.org/entity/Q6862628', 'http://www.wikidata.org/entity/Q6863541', 'http://www.wikidata.org/entity/Q6876153', 'http://www.wikidata.org/entity/Q6898216', 'http://www.wikidata.org/entity/Q6915597', 'http://www.wikidata.org/entity/Q6916929', 'http://www.wikidata.org/entity/Q7131094', 'http://www.wikidata.org/entity/Q7131155', 'http://www.wikidata.org/entity/Q7131582', 'http://www.wikidata.org/entity/Q7134392', 'http://www.wikidata.org/entity/Q7141514', 'http://www.wikidata.org/entity/Q7142616', 'http://www.wikidata.org/entity/Q7166628', 'http://www.wikidata.org/entity/Q7172516', 'http://www.wikidata.org/entity/Q7174808', 'http://www.wikidata.org/entity/Q7178153', 'http://www.wikidata.org/entity/Q7178156', 'http://www.wikidata.org/entity/Q6946130', 'http://www.wikidata.org/entity/Q6946398', 'http://www.wikidata.org/entity/Q7021126', 'http://www.wikidata.org/entity/Q7044670', 'http://www.wikidata.org/entity/Q7044909', 'http://www.wikidata.org/entity/Q7050648', 'http://www.wikidata.org/entity/Q7061192', 'http://www.wikidata.org/entity/Q7061216', 'http://www.wikidata.org/entity/Q7071411', 'http://www.wikidata.org/entity/Q7077529', 'http://www.wikidata.org/entity/Q7080403', 'http://www.wikidata.org/entity/Q7093979', 'http://www.wikidata.org/entity/Q7109339', 'http://www.wikidata.org/entity/Q7124845', 'http://www.wikidata.org/entity/Q7193264', 'http://www.wikidata.org/entity/Q7207446', 'http://www.wikidata.org/entity/Q7207449', 'http://www.wikidata.org/entity/Q7237554', 'http://www.wikidata.org/entity/Q7237584', 'http://www.wikidata.org/entity/Q7253808', 'http://www.wikidata.org/entity/Q7264619', 'http://www.wikidata.org/entity/Q7302187', 'http://www.wikidata.org/entity/Q7310661', 'http://www.wikidata.org/entity/Q7311933', 'http://www.wikidata.org/entity/Q7355094', 'http://www.wikidata.org/entity/Q7367087', 'http://www.wikidata.org/entity/Q7388676', 'http://www.wikidata.org/entity/Q7432365', 'http://www.wikidata.org/entity/Q7447350', 'http://www.wikidata.org/entity/Q7513772', 'http://www.wikidata.org/entity/Q7531003', 'http://www.wikidata.org/entity/Q7533813', 'http://www.wikidata.org/entity/Q7537721', 'http://www.wikidata.org/entity/Q7538003', 'http://www.wikidata.org/entity/Q7548871', 'http://www.wikidata.org/entity/Q7557211', 'http://www.wikidata.org/entity/Q7557213', 'http://www.wikidata.org/entity/Q7559086', 'http://www.wikidata.org/entity/Q7562386', 'http://www.wikidata.org/entity/Q7569055', 'http://www.wikidata.org/entity/Q7620404', 'http://www.wikidata.org/entity/Q7626069', 'http://www.wikidata.org/entity/Q7629826', 'http://www.wikidata.org/entity/Q7630147', 'http://www.wikidata.org/entity/Q7630149', 'http://www.wikidata.org/entity/Q7633628', 'http://www.wikidata.org/entity/Q7637494', 'http://www.wikidata.org/entity/Q7641650', 'http://www.wikidata.org/entity/Q7641668', 'http://www.wikidata.org/entity/Q7648742', 'http://www.wikidata.org/entity/Q7652696', 'http://www.wikidata.org/entity/Q7659115', 'http://www.wikidata.org/entity/Q7663925', 'http://www.wikidata.org/entity/Q7666474', 'http://www.wikidata.org/entity/Q7666498', 'http://www.wikidata.org/entity/Q7675110', 'http://www.wikidata.org/entity/Q7689489', 'http://www.wikidata.org/entity/Q7691871', 'http://www.wikidata.org/entity/Q7693982', 'http://www.wikidata.org/entity/Q7710953', 'http://www.wikidata.org/entity/Q7711327', 'http://www.wikidata.org/entity/Q7712287', 'http://www.wikidata.org/entity/Q7720677', 'http://www.wikidata.org/entity/Q7721570', 'http://www.wikidata.org/entity/Q7723495', 'http://www.wikidata.org/entity/Q7728995', 'http://www.wikidata.org/entity/Q7730749', 'http://www.wikidata.org/entity/Q7731622', 'http://www.wikidata.org/entity/Q7736551', 'http://www.wikidata.org/entity/Q7736553', 'http://www.wikidata.org/entity/Q7738228', 'http://www.wikidata.org/entity/Q7739324', 'http://www.wikidata.org/entity/Q7739449', 'http://www.wikidata.org/entity/Q7742251', 'http://www.wikidata.org/entity/Q7742443', 'http://www.wikidata.org/entity/Q7744177', 'http://www.wikidata.org/entity/Q7749971', 'http://www.wikidata.org/entity/Q7751728', 'http://www.wikidata.org/entity/Q7751899', 'http://www.wikidata.org/entity/Q7751970', 'http://www.wikidata.org/entity/Q7757575', 'http://www.wikidata.org/entity/Q7759878', 'http://www.wikidata.org/entity/Q7760236', 'http://www.wikidata.org/entity/Q7760659', 'http://www.wikidata.org/entity/Q7861430', 'http://www.wikidata.org/entity/Q7876819', 'http://www.wikidata.org/entity/Q7764380', 'http://www.wikidata.org/entity/Q7766820', 'http://www.wikidata.org/entity/Q7772494', 'http://www.wikidata.org/entity/Q7772614', 'http://www.wikidata.org/entity/Q7783947', 'http://www.wikidata.org/entity/Q7810812', 'http://www.wikidata.org/entity/Q7820268', 'http://www.wikidata.org/entity/Q7828792', 'http://www.wikidata.org/entity/Q7836533', 'http://www.wikidata.org/entity/Q7846282', 'http://www.wikidata.org/entity/Q7917885', 'http://www.wikidata.org/entity/Q7918738', 'http://www.wikidata.org/entity/Q7920630', 'http://www.wikidata.org/entity/Q7924336', 'http://www.wikidata.org/entity/Q7924340', 'http://www.wikidata.org/entity/Q7930139', 'http://www.wikidata.org/entity/Q8285920', 'http://www.wikidata.org/entity/Q8328979', 'http://www.wikidata.org/entity/Q8329935', 'http://www.wikidata.org/entity/Q8774107', 'http://www.wikidata.org/entity/Q8775182', 'http://www.wikidata.org/entity/Q9005000', 'http://www.wikidata.org/entity/Q7977677', 'http://www.wikidata.org/entity/Q7977831', 'http://www.wikidata.org/entity/Q7979390', 'http://www.wikidata.org/entity/Q7993301', 'http://www.wikidata.org/entity/Q7993638', 'http://www.wikidata.org/entity/Q8034463', 'http://www.wikidata.org/entity/Q8058892', 'http://www.wikidata.org/entity/Q9197880', 'http://www.wikidata.org/entity/Q9199854', 'http://www.wikidata.org/entity/Q9348948', 'http://www.wikidata.org/entity/Q9362623', 'http://www.wikidata.org/entity/Q10399295', 'http://www.wikidata.org/entity/Q10424655', 'http://www.wikidata.org/entity/Q10427794', 'http://www.wikidata.org/entity/Q10438507', 'http://www.wikidata.org/entity/Q10470137', 'http://www.wikidata.org/entity/Q10478647', 'http://www.wikidata.org/entity/Q10483278', 'http://www.wikidata.org/entity/Q10483276', 'http://www.wikidata.org/entity/Q10497055', 'http://www.wikidata.org/entity/Q10498919', 'http://www.wikidata.org/entity/Q10521846', 'http://www.wikidata.org/entity/Q10539208', 'http://www.wikidata.org/entity/Q10540694', 'http://www.wikidata.org/entity/Q10545976', 'http://www.wikidata.org/entity/Q10546459', 'http://www.wikidata.org/entity/Q10550108', 'http://www.wikidata.org/entity/Q10551144', 'http://www.wikidata.org/entity/Q10551800', 'http://www.wikidata.org/entity/Q10552257', 'http://www.wikidata.org/entity/Q10568431', 'http://www.wikidata.org/entity/Q10576347', 'http://www.wikidata.org/entity/Q10263747', 'http://www.wikidata.org/entity/Q10265027', 'http://www.wikidata.org/entity/Q10581740', 'http://www.wikidata.org/entity/Q10611490', 'http://www.wikidata.org/entity/Q10623223', 'http://www.wikidata.org/entity/Q10636269', 'http://www.wikidata.org/entity/Q10639468', 'http://www.wikidata.org/entity/Q10657971', 'http://www.wikidata.org/entity/Q10658192', 'http://www.wikidata.org/entity/Q10668100', 'http://www.wikidata.org/entity/Q10680375', 'http://www.wikidata.org/entity/Q10684386', 'http://www.wikidata.org/entity/Q10706553', 'http://www.wikidata.org/entity/Q10709353', 'http://www.wikidata.org/entity/Q10712726', 'http://www.wikidata.org/entity/Q10713122', 'http://www.wikidata.org/entity/Q10766854', 'http://www.wikidata.org/entity/Q11394785', 'http://www.wikidata.org/entity/Q10860196', 'http://www.wikidata.org/entity/Q10862359', 'http://www.</t>
+          <t>['http://www.wikidata.org/entity/Q24910', 'http://www.wikidata.org/entity/Q24911', 'http://www.wikidata.org/entity/Q59721', 'http://www.wikidata.org/entity/Q62513', 'http://www.wikidata.org/entity/Q32303', 'http://www.wikidata.org/entity/Q194649', 'http://www.wikidata.org/entity/Q195920', 'http://www.wikidata.org/entity/Q195959', 'http://www.wikidata.org/entity/Q196103', 'http://www.wikidata.org/entity/Q61061048', 'http://www.wikidata.org/entity/Q165525', 'http://www.wikidata.org/entity/Q165699', 'http://www.wikidata.org/entity/Q111255011', 'http://www.wikidata.org/entity/Q110365', 'http://www.wikidata.org/entity/Q117378', 'http://www.wikidata.org/entity/Q127011', 'http://www.wikidata.org/entity/Q151730', 'http://www.wikidata.org/entity/Q20493713', 'http://www.wikidata.org/entity/Q20494430', 'http://www.wikidata.org/entity/Q20494889', 'http://www.wikidata.org/entity/Q20495158', 'http://www.wikidata.org/entity/Q20653258', 'http://www.wikidata.org/entity/Q20727879', 'http://www.wikidata.org/entity/Q63930921', 'http://www.wikidata.org/entity/Q63959157', 'http://www.wikidata.org/entity/Q64787782', 'http://www.wikidata.org/entity/Q64819690', 'http://www.wikidata.org/entity/Q65374542', 'http://www.wikidata.org/entity/Q65375718', 'http://www.wikidata.org/entity/Q65613232', 'http://www.wikidata.org/entity/Q65619940', 'http://www.wikidata.org/entity/Q65622059', 'http://www.wikidata.org/entity/Q65622086', 'http://www.wikidata.org/entity/Q65665494', 'http://www.wikidata.org/entity/Q108301630', 'http://www.wikidata.org/entity/Q205687', 'http://www.wikidata.org/entity/Q221887', 'http://www.wikidata.org/entity/Q224618', 'http://www.wikidata.org/entity/Q230608', 'http://www.wikidata.org/entity/Q254687', 'http://www.wikidata.org/entity/Q255181', 'http://www.wikidata.org/entity/Q276343', 'http://www.wikidata.org/entity/Q279255', 'http://www.wikidata.org/entity/Q286619', 'http://www.wikidata.org/entity/Q300442', 'http://www.wikidata.org/entity/Q304394', 'http://www.wikidata.org/entity/Q312394', 'http://www.wikidata.org/entity/Q316761', 'http://www.wikidata.org/entity/Q108437454', 'http://www.wikidata.org/entity/Q131857051', 'http://www.wikidata.org/entity/Q327681', 'http://www.wikidata.org/entity/Q342637', 'http://www.wikidata.org/entity/Q352000', 'http://www.wikidata.org/entity/Q370707', 'http://www.wikidata.org/entity/Q372477', 'http://www.wikidata.org/entity/Q374373', 'http://www.wikidata.org/entity/Q4037757', 'http://www.wikidata.org/entity/Q387727', 'http://www.wikidata.org/entity/Q391263', 'http://www.wikidata.org/entity/Q392684', 'http://www.wikidata.org/entity/Q392960', 'http://www.wikidata.org/entity/Q401539', 'http://www.wikidata.org/entity/Q431948', 'http://www.wikidata.org/entity/Q435189', 'http://www.wikidata.org/entity/Q441444', 'http://www.wikidata.org/entity/Q459997', 'http://www.wikidata.org/entity/Q460620', 'http://www.wikidata.org/entity/Q461645', 'http://www.wikidata.org/entity/Q462350', 'http://www.wikidata.org/entity/Q464440', 'http://www.wikidata.org/entity/Q469708', 'http://www.wikidata.org/entity/Q475788', 'http://www.wikidata.org/entity/Q477307', 'http://www.wikidata.org/entity/Q10671524', 'http://www.wikidata.org/entity/Q492340', 'http://www.wikidata.org/entity/Q497260', 'http://www.wikidata.org/entity/Q498789', 'http://www.wikidata.org/entity/Q507285', 'http://www.wikidata.org/entity/Q20494380', 'http://www.wikidata.org/entity/Q20728902', 'http://www.wikidata.org/entity/Q20729174', 'http://www.wikidata.org/entity/Q20729586', 'http://www.wikidata.org/entity/Q20729676', 'http://www.wikidata.org/entity/Q20755929', 'http://www.wikidata.org/entity/Q20757057', 'http://www.wikidata.org/entity/Q20757452', 'http://www.wikidata.org/entity/Q20757460', 'http://www.wikidata.org/entity/Q569281', 'http://www.wikidata.org/entity/Q64811467', 'http://www.wikidata.org/entity/Q64811483', 'http://www.wikidata.org/entity/Q64812647', 'http://www.wikidata.org/entity/Q69121620', 'http://www.wikidata.org/entity/Q538412', 'http://www.wikidata.org/entity/Q538516', 'http://www.wikidata.org/entity/Q33531490', 'http://www.wikidata.org/entity/Q33532062', 'http://www.wikidata.org/entity/Q33534121', 'http://www.wikidata.org/entity/Q33536679', 'http://www.wikidata.org/entity/Q33542677', 'http://www.wikidata.org/entity/Q33577599', 'http://www.wikidata.org/entity/Q615237', 'http://www.wikidata.org/entity/Q625341', 'http://www.wikidata.org/entity/Q625345', 'http://www.wikidata.org/entity/Q625514', 'http://www.wikidata.org/entity/Q626954', 'http://www.wikidata.org/entity/Q626964', 'http://www.wikidata.org/entity/Q626968', 'http://www.wikidata.org/entity/Q626973', 'http://www.wikidata.org/entity/Q119175149', 'http://www.wikidata.org/entity/Q574713', 'http://www.wikidata.org/entity/Q574998', 'http://www.wikidata.org/entity/Q589953', 'http://www.wikidata.org/entity/Q598804', 'http://www.wikidata.org/entity/Q598865', 'http://www.wikidata.org/entity/Q72283487', 'http://www.wikidata.org/entity/Q72283821', 'http://www.wikidata.org/entity/Q75771369', 'http://www.wikidata.org/entity/Q111309453', 'http://www.wikidata.org/entity/Q690651', 'http://www.wikidata.org/entity/Q734819', 'http://www.wikidata.org/entity/Q756444', 'http://www.wikidata.org/entity/Q759230', 'http://www.wikidata.org/entity/Q639154', 'http://www.wikidata.org/entity/Q640854', 'http://www.wikidata.org/entity/Q643268', 'http://www.wikidata.org/entity/Q643847', 'http://www.wikidata.org/entity/Q657986', 'http://www.wikidata.org/entity/Q666017', 'http://www.wikidata.org/entity/Q671754', 'http://www.wikidata.org/entity/Q682574', 'http://www.wikidata.org/entity/Q682695', 'http://www.wikidata.org/entity/Q690385', 'http://www.wikidata.org/entity/Q762898', 'http://www.wikidata.org/entity/Q764783', 'http://www.wikidata.org/entity/Q766096', 'http://www.wikidata.org/entity/Q775356', 'http://www.wikidata.org/entity/Q781684', 'http://www.wikidata.org/entity/Q784369', 'http://www.wikidata.org/entity/Q790282', 'http://www.wikidata.org/entity/Q797679', 'http://www.wikidata.org/entity/Q805127', 'http://www.wikidata.org/entity/Q808700', 'http://www.wikidata.org/entity/Q813913', 'http://www.wikidata.org/entity/Q827199', 'http://www.wikidata.org/entity/Q827277', 'http://www.wikidata.org/entity/Q841958', 'http://www.wikidata.org/entity/Q882945', 'http://www.wikidata.org/entity/Q885169', 'http://www.wikidata.org/entity/Q897561', 'http://www.wikidata.org/entity/Q912049', 'http://www.wikidata.org/entity/Q933674', 'http://www.wikidata.org/entity/Q941126', 'http://www.wikidata.org/entity/Q954182', 'http://www.wikidata.org/entity/Q975962', 'http://www.wikidata.org/entity/Q1218226', 'http://www.wikidata.org/entity/Q990857', 'http://www.wikidata.org/entity/Q992227', 'http://www.wikidata.org/entity/Q1016657', 'http://www.wikidata.org/entity/Q1018491', 'http://www.wikidata.org/entity/Q1029748', 'http://www.wikidata.org/entity/Q1052389', 'http://www.wikidata.org/entity/Q1058095', 'http://www.wikidata.org/entity/Q1058578', 'http://www.wikidata.org/entity/Q1073856', 'http://www.wikidata.org/entity/Q1090737', 'http://www.wikidata.org/entity/Q1103638', 'http://www.wikidata.org/entity/Q1106764', 'http://www.wikidata.org/entity/Q1126097', 'http://www.wikidata.org/entity/Q1127630', 'http://www.wikidata.org/entity/Q1134037', 'http://www.wikidata.org/entity/Q1141731', 'http://www.wikidata.org/entity/Q1142950', 'http://www.wikidata.org/entity/Q1165090', 'http://www.wikidata.org/entity/Q1167202', 'http://www.wikidata.org/entity/Q1179100', 'http://www.wikidata.org/entity/Q1180628', 'http://www.wikidata.org/entity/Q1192010', 'http://www.wikidata.org/entity/Q1193228', 'http://www.wikidata.org/entity/Q1193235', 'http://www.wikidata.org/entity/Q1193606', 'http://www.wikidata.org/entity/Q1403033', 'http://www.wikidata.org/entity/Q1403042', 'http://www.wikidata.org/entity/Q1403047', 'http://www.wikidata.org/entity/Q1407094', 'http://www.wikidata.org/entity/Q1416607', 'http://www.wikidata.org/entity/Q1423329', 'http://www.wikidata.org/entity/Q1428455', 'http://www.wikidata.org/entity/Q1430594', 'http://www.wikidata.org/entity/Q1438966', 'http://www.wikidata.org/entity/Q1442230', 'http://www.wikidata.org/entity/Q1446749', 'http://www.wikidata.org/entity/Q1456651', 'http://www.wikidata.org/entity/Q1462630', 'http://www.wikidata.org/entity/Q1212397', 'http://www.wikidata.org/entity/Q1215271', 'http://www.wikidata.org/entity/Q1215282', 'http://www.wikidata.org/entity/Q1215281', 'http://www.wikidata.org/entity/Q1215294', 'http://www.wikidata.org/entity/Q1216829', 'http://www.wikidata.org/entity/Q1219667', 'http://www.wikidata.org/entity/Q1226345', 'http://www.wikidata.org/entity/Q1242222', 'http://www.wikidata.org/entity/Q1245864', 'http://www.wikidata.org/entity/Q1249231', 'http://www.wikidata.org/entity/Q1253821', 'http://www.wikidata.org/entity/Q1284216', 'http://www.wikidata.org/entity/Q1304619', 'http://www.wikidata.org/entity/Q1306297', 'http://www.wikidata.org/entity/Q1319856', 'http://www.wikidata.org/entity/Q1321282', 'http://www.wikidata.org/entity/Q1326419', 'http://www.wikidata.org/entity/Q1327845', 'http://www.wikidata.org/entity/Q1328286', 'http://www.wikidata.org/entity/Q1332491', 'http://www.wikidata.org/entity/Q1338487', 'http://www.wikidata.org/entity/Q1339911', 'http://www.wikidata.org/entity/Q1341116', 'http://www.wikidata.org/entity/Q1342038', 'http://www.wikidata.org/entity/Q1346495', 'http://www.wikidata.org/entity/Q1358956', 'http://www.wikidata.org/entity/Q1377566', 'http://www.wikidata.org/entity/Q1382421', 'http://www.wikidata.org/entity/Q1384034', 'http://www.wikidata.org/entity/Q1792217', 'http://www.wikidata.org/entity/Q1664445', 'http://www.wikidata.org/entity/Q1665143', 'http://www.wikidata.org/entity/Q1670867', 'http://www.wikidata.org/entity/Q1671510', 'http://www.wikidata.org/entity/Q1722219', 'http://www.wikidata.org/entity/Q1581514', 'http://www.wikidata.org/entity/Q1585018', 'http://www.wikidata.org/entity/Q1621638', 'http://www.wikidata.org/entity/Q1630226', 'http://www.wikidata.org/entity/Q1632262', 'http://www.wikidata.org/entity/Q1482548', 'http://www.wikidata.org/entity/Q1507766', 'http://www.wikidata.org/entity/Q1521948', 'http://www.wikidata.org/entity/Q1534667', 'http://www.wikidata.org/entity/Q1538599', 'http://www.wikidata.org/entity/Q1554218', 'http://www.wikidata.org/entity/Q1742410', 'http://www.wikidata.org/entity/Q1754532', 'http://www.wikidata.org/entity/Q1754559', 'http://www.wikidata.org/entity/Q1755197', 'http://www.wikidata.org/entity/Q1757020', 'http://www.wikidata.org/entity/Q1757030', 'http://www.wikidata.org/entity/Q1757810', 'http://www.wikidata.org/entity/Q1758363', 'http://www.wikidata.org/entity/Q1758519', 'http://www.wikidata.org/entity/Q1758576', 'http://www.wikidata.org/entity/Q1758883', 'http://www.wikidata.org/entity/Q1759042', 'http://www.wikidata.org/entity/Q1759123', 'http://www.wikidata.org/entity/Q1759619', 'http://www.wikidata.org/entity/Q1760129', 'http://www.wikidata.org/entity/Q1760354', 'http://www.wikidata.org/entity/Q1760358', 'http://www.wikidata.org/entity/Q1760364', 'http://www.wikidata.org/entity/Q1760391', 'http://www.wikidata.org/entity/Q1760823', 'http://www.wikidata.org/entity/Q1761295', 'http://www.wikidata.org/entity/Q1762512', 'http://www.wikidata.org/entity/Q1762519', 'http://www.wikidata.org/entity/Q1762537', 'http://www.wikidata.org/entity/Q1762695', 'http://www.wikidata.org/entity/Q1762798', 'http://www.wikidata.org/entity/Q1763585', 'http://www.wikidata.org/entity/Q1763879', 'http://www.wikidata.org/entity/Q1766342', 'http://www.wikidata.org/entity/Q1766498', 'http://www.wikidata.org/entity/Q1767018', 'http://www.wikidata.org/entity/Q1767235', 'http://www.wikidata.org/entity/Q1767472', 'http://www.wikidata.org/entity/Q1767675', 'http://www.wikidata.org/entity/Q1768770', 'http://www.wikidata.org/entity/Q1772262', 'http://www.wikidata.org/entity/Q1783771', 'http://www.wikidata.org/entity/Q1812183', 'http://www.wikidata.org/entity/Q1825174', 'http://www.wikidata.org/entity/Q1889303', 'http://www.wikidata.org/entity/Q1915512', 'http://www.wikidata.org/entity/Q1933953', 'http://www.wikidata.org/entity/Q1977126', 'http://www.wikidata.org/entity/Q1977130', 'http://www.wikidata.org/entity/Q2017132', 'http://www.wikidata.org/entity/Q2062163', 'http://www.wikidata.org/entity/Q2096145', 'http://www.wikidata.org/entity/Q2097072', 'http://www.wikidata.org/entity/Q2143831', 'http://www.wikidata.org/entity/Q2146491', 'http://www.wikidata.org/entity/Q2152819', 'http://www.wikidata.org/entity/Q2198202', 'http://www.wikidata.org/entity/Q2241055', 'http://www.wikidata.org/entity/Q2260825', 'http://www.wikidata.org/entity/Q2277610', 'http://www.wikidata.org/entity/Q2293735', 'http://www.wikidata.org/entity/Q2294677', 'http://www.wikidata.org/entity/Q2299929', 'http://www.wikidata.org/entity/Q2330111', 'http://www.wikidata.org/entity/Q2331220', 'http://www.wikidata.org/entity/Q2352630', 'http://www.wikidata.org/entity/Q2378130', 'http://www.wikidata.org/entity/Q2394751', 'http://www.wikidata.org/entity/Q2411663', 'http://www.wikidata.org/entity/Q2434685', 'http://www.wikidata.org/entity/Q2438579', 'http://www.wikidata.org/entity/Q2457086', 'http://www.wikidata.org/entity/Q2466081', 'http://www.wikidata.org/entity/Q2550198', 'http://www.wikidata.org/entity/Q2595780', 'http://www.wikidata.org/entity/Q2608065', 'http://www.wikidata.org/entity/Q2617594', 'http://www.wikidata.org/entity/Q2632905', 'http://www.wikidata.org/entity/Q2646419', 'http://www.wikidata.org/entity/Q2656723', 'http://www.wikidata.org/entity/Q2679094', 'http://www.wikidata.org/entity/Q2735941', 'http://www.wikidata.org/entity/Q2779388', 'http://www.wikidata.org/entity/Q2900465', 'http://www.wikidata.org/entity/Q2904867', 'http://www.wikidata.org/entity/Q2947409', 'http://www.wikidata.org/entity/Q3148900', 'http://www.wikidata.org/entity/Q3190021', 'http://www.wikidata.org/entity/Q3061415', 'http://www.wikidata.org/entity/Q3078014', 'http://www.wikidata.org/entity/Q3099418', 'http://www.wikidata.org/entity/Q3204055', 'http://www.wikidata.org/entity/Q3284962', 'http://www.wikidata.org/entity/Q3220633', 'http://www.wikidata.org/entity/Q3226056', 'http://www.wikidata.org/entity/Q3228255', 'http://www.wikidata.org/entity/Q3235886', 'http://www.wikidata.org/entity/Q3264250', 'http://www.wikidata.org/entity/Q3286160', 'http://www.wikidata.org/entity/Q3317884', 'http://www.wikidata.org/entity/Q3346699', 'http://www.wikidata.org/entity/Q3363736', 'http://www.wikidata.org/entity/Q3422806', 'http://www.wikidata.org/entity/Q3467601', 'http://www.wikidata.org/entity/Q3521078', 'http://www.wikidata.org/entity/Q3480785', 'http://www.wikidata.org/entity/Q3481120', 'http://www.wikidata.org/entity/Q3482183', 'http://www.wikidata.org/entity/Q3488989', 'http://www.wikidata.org/entity/Q3558697', 'http://www.wikidata.org/entity/Q3567719', 'http://www.wikidata.org/entity/Q3574023', 'http://www.wikidata.org/entity/Q3574048', 'http://www.wikidata.org/entity/Q3601168', 'http://www.wikidata.org/entity/Q3606410', 'http://www.wikidata.org/entity/Q3648129', 'http://www.wikidata.org/entity/Q3764502', 'http://www.wikidata.org/entity/Q3790803', 'http://www.wikidata.org/entity/Q3703151', 'http://www.wikidata.org/entity/Q3705408', 'http://www.wikidata.org/entity/Q3713583', 'http://www.wikidata.org/entity/Q3715598', 'http://www.wikidata.org/entity/Q3743976', 'http://www.wikidata.org/entity/Q3828459', 'http://www.wikidata.org/entity/Q3828502', 'http://www.wikidata.org/entity/Q3838066', 'http://www.wikidata.org/entity/Q3844402', 'http://www.wikidata.org/entity/Q3954703', 'http://www.wikidata.org/entity/Q3962834', 'http://www.wikidata.org/entity/Q3899472', 'http://www.wikidata.org/entity/Q3983079', 'http://www.wikidata.org/entity/Q4159361', 'http://www.wikidata.org/entity/Q4069758', 'http://www.wikidata.org/entity/Q4110387', 'http://www.wikidata.org/entity/Q4127657', 'http://www.wikidata.org/entity/Q4379574', 'http://www.wikidata.org/entity/Q4384269', 'http://www.wikidata.org/entity/Q4400517', 'http://www.wikidata.org/entity/Q4405533', 'http://www.wikidata.org/entity/Q4190050', 'http://www.wikidata.org/entity/Q4249907', 'http://www.wikidata.org/entity/Q4310546', 'http://www.wikidata.org/entity/Q4342029', 'http://www.wikidata.org/entity/Q4351048', 'http://www.wikidata.org/entity/Q4353276', 'http://www.wikidata.org/entity/Q4373469', 'http://www.wikidata.org/entity/Q4729965', 'http://www.wikidata.org/entity/Q4532203', 'http://www.wikidata.org/entity/Q4546076', 'http://www.wikidata.org/entity/Q4595704', 'http://www.wikidata.org/entity/Q4634316', 'http://www.wikidata.org/entity/Q4641194', 'http://www.wikidata.org/entity/Q4656890', 'http://www.wikidata.org/entity/Q4657248', 'http://www.wikidata.org/entity/Q4657304', 'http://www.wikidata.org/entity/Q4657764', 'http://www.wikidata.org/entity/Q4658858', 'http://www.wikidata.org/entity/Q4458809', 'http://www.wikidata.org/entity/Q4659909', 'http://www.wikidata.org/entity/Q4660480', 'http://www.wikidata.org/entity/Q4680017', 'http://www.wikidata.org/entity/Q4688778', 'http://www.wikidata.org/entity/Q4689045', 'http://www.wikidata.org/entity/Q4689080', 'http://www.wikidata.org/entity/Q4690397', 'http://www.wikidata.org/entity/Q4708388', 'http://www.wikidata.org/entity/Q4735932', 'http://www.wikidata.org/entity/Q4747994', 'http://www.wikidata.org/entity/Q4761803', 'http://www.wikidata.org/entity/Q4764803', 'http://www.wikidata.org/entity/Q4766080', 'http://www.wikidata.org/entity/Q4781100', 'http://www.wikidata.org/entity/Q4802517', 'http://www.wikidata.org/entity/Q4920010', 'http://www.wikidata.org/entity/Q4930930', 'http://www.wikidata.org/entity/Q4944251', 'http://www.wikidata.org/entity/Q4944465', 'http://www.wikidata.org/entity/Q4946136', 'http://www.wikidata.org/entity/Q4952641', 'http://www.wikidata.org/entity/Q5261254', 'http://www.wikidata.org/entity/Q5261256', 'http://www.wikidata.org/entity/Q5261274', 'http://www.wikidata.org/entity/Q5261273', 'http://www.wikidata.org/entity/Q5265490', 'http://www.wikidata.org/entity/Q5265510', 'http://www.wikidata.org/entity/Q5265515', 'http://www.wikidata.org/entity/Q5265516', 'http://www.wikidata.org/entity/Q5265522', 'http://www.wikidata.org/entity/Q5265530', 'http://www.wikidata.org/entity/Q5265536', 'http://www.wikidata.org/entity/Q5265537', 'http://www.wikidata.org/entity/Q5265540', 'http://www.wikidata.org/entity/Q5265546', 'http://www.wikidata.org/entity/Q4841368', 'http://www.wikidata.org/entity/Q4851332', 'http://www.wikidata.org/entity/Q4875485', 'http://www.wikidata.org/entity/Q4877920', 'http://www.wikidata.org/entity/Q4879441', 'http://www.wikidata.org/entity/Q4897135', 'http://www.wikidata.org/entity/Q4980796', 'http://www.wikidata.org/entity/Q4981907', 'http://www.wikidata.org/entity/Q4984184', 'http://www.wikidata.org/entity/Q4992391', 'http://www.wikidata.org/entity/Q4993093', 'http://www.wikidata.org/entity/Q4993450', 'http://www.wikidata.org/entity/Q4993462', 'http://www.wikidata.org/entity/Q4993546', 'http://www.wikidata.org/entity/Q5040873', 'http://www.wikidata.org/entity/Q5069906', 'http://www.wikidata.org/entity/Q5074698', 'http://www.wikidata.org/entity/Q5237834', 'http://www.wikidata.org/entity/Q5237853', 'http://www.wikidata.org/entity/Q5244776', 'http://www.wikidata.org/entity/Q5244890', 'http://www.wikidata.org/entity/Q5244924', 'http://www.wikidata.org/entity/Q5244987', 'http://www.wikidata.org/entity/Q5247107', 'http://www.wikidata.org/entity/Q5256499', 'http://www.wikidata.org/entity/Q5256519', 'http://www.wikidata.org/entity/Q5256530', 'http://www.wikidata.org/entity/Q5121931', 'http://www.wikidata.org/entity/Q5133706', 'http://www.wikidata.org/entity/Q5183230', 'http://www.wikidata.org/entity/Q5280723', 'http://www.wikidata.org/entity/Q5293247', 'http://www.wikidata.org/entity/Q5298999', 'http://www.wikidata.org/entity/Q5306590', 'http://www.wikidata.org/entity/Q5308347', 'http://www.wikidata.org/entity/Q5312207', 'http://www.wikidata.org/entity/Q5332657', 'http://www.wikidata.org/entity/Q5350585', 'http://www.wikidata.org/entity/Q5366221', 'http://www.wikidata.org/entity/Q5374104', 'http://www.wikidata.org/entity/Q5375063', 'http://www.wikidata.org/entity/Q5375061', 'http://www.wikidata.org/entity/Q5375091', 'http://www.wikidata.org/entity/Q5375096', 'http://www.wikidata.org/entity/Q5375105', 'http://www.wikidata.org/entity/Q5375108', 'http://www.wikidata.org/entity/Q5378093', 'http://www.wikidata.org/entity/Q5406229', 'http://www.wikidata.org/entity/Q5428649', 'http://www.wikidata.org/entity/Q5431909', 'http://www.wikidata.org/entity/Q5432970', 'http://www.wikidata.org/entity/Q5432968', 'http://www.wikidata.org/entity/Q5434662', 'http://www.wikidata.org/entity/Q5434663', 'http://www.wikidata.org/entity/Q5435451', 'http://www.wikidata.org/entity/Q5437674', 'http://www.wikidata.org/entity/Q5437675', 'http://www.wikidata.org/entity/Q5437672', 'http://www.wikidata.org/entity/Q5437673', 'http://www.wikidata.org/entity/Q5437678', 'http://www.wikidata.org/entity/Q5437676', 'http://www.wikidata.org/entity/Q5439352', 'http://www.wikidata.org/entity/Q5446806', 'http://www.wikidata.org/entity/Q5456922', 'http://www.wikidata.org/entity/Q5459588', 'http://www.wikidata.org/entity/Q5463335', 'http://www.wikidata.org/entity/Q5463762', 'http://www.wikidata.org/entity/Q5463967', 'http://www.wikidata.org/entity/Q5468643', 'http://www.wikidata.org/entity/Q5615010', 'http://www.wikidata.org/entity/Q5646559', 'http://www.wikidata.org/entity/Q5646560', 'http://www.wikidata.org/entity/Q5650872', 'http://www.wikidata.org/entity/Q5504538', 'http://www.wikidata.org/entity/Q5505092', 'http://www.wikidata.org/entity/Q5505093', 'http://www.wikidata.org/entity/Q5506653', 'http://www.wikidata.org/entity/Q5506760', 'http://www.wikidata.org/entity/Q5506761', 'http://www.wikidata.org/entity/Q5507608', 'http://www.wikidata.org/entity/Q5508698', 'http://www.wikidata.org/entity/Q5511498', 'http://www.wikidata.org/entity/Q5511501', 'http://www.wikidata.org/entity/Q5526506', 'http://www.wikidata.org/entity/Q5526696', 'http://www.wikidata.org/entity/Q5557206', 'http://www.wikidata.org/entity/Q5559974', 'http://www.wikidata.org/entity/Q5564690', 'http://www.wikidata.org/entity/Q5564688', 'http://www.wikidata.org/entity/Q5564692', 'http://www.wikidata.org/entity/Q5565578', 'http://www.wikidata.org/entity/Q5565768', 'http://www.wikidata.org/entity/Q5577876', 'http://www.wikidata.org/entity/Q5707103', 'http://www.wikidata.org/entity/Q5713520', 'http://www.wikidata.org/entity/Q5733369', 'http://www.wikidata.org/entity/Q5949420', 'http://www.wikidata.org/entity/Q5951637', 'http://www.wikidata.org/entity/Q5951739', 'http://www.wikidata.org/entity/Q5978051', 'http://www.wikidata.org/entity/Q5980128', 'http://www.wikidata.org/entity/Q5980167', 'http://www.wikidata.org/entity/Q5980176', 'http://www.wikidata.org/entity/Q5880151', 'http://www.wikidata.org/entity/Q5911826', 'http://www.wikidata.org/entity/Q5923302', 'http://www.wikidata.org/entity/Q6090410', 'http://www.wikidata.org/entity/Q6010145', 'http://www.wikidata.org/entity/Q6416864', 'http://www.wikidata.org/entity/Q6417179', 'http://www.wikidata.org/entity/Q6421028', 'http://www.wikidata.org/entity/Q6428653', 'http://www.wikidata.org/entity/Q6429109', 'http://www.wikidata.org/entity/Q6438945', 'http://www.wikidata.org/entity/Q6439191', 'http://www.wikidata.org/entity/Q6439614', 'http://www.wikidata.org/entity/Q6545282', 'http://www.wikidata.org/entity/Q6549022', 'http://www.wikidata.org/entity/Q6558742', 'http://www.wikidata.org/entity/Q6176411', 'http://www.wikidata.org/entity/Q6176409', 'http://www.wikidata.org/entity/Q6180437', 'http://www.wikidata.org/entity/Q6180564', 'http://www.wikidata.org/entity/Q6189124', 'http://www.wikidata.org/entity/Q6316687', 'http://www.wikidata.org/entity/Q6321278', 'http://www.wikidata.org/entity/Q6321276', 'http://www.wikidata.org/entity/Q6359179', 'http://www.wikidata.org/entity/Q6377759', 'http://www.wikidata.org/entity/Q6690806', 'http://www.wikidata.org/entity/Q6691437', 'http://www.wikidata.org/entity/Q6697924', 'http://www.wikidata.org/entity/Q6707852', 'http://www.wikidata.org/entity/Q7071411', 'http://www.wikidata.org/entity/Q6449761', 'http://www.wikidata.org/entity/Q6453650', 'http://www.wikidata.org/entity/Q6454064', 'http://www.wikidata.org/entity/Q6484741', 'http://www.wikidata.org/entity/Q6494339', 'http://www.wikidata.org/entity/Q6510612', 'http://www.wikidata.org/entity/Q6522561', 'http://www.wikidata.org/entity/Q6533558', 'http://www.wikidata.org/entity/Q6730943', 'http://www.wikidata.org/entity/Q6738395', 'http://www.wikidata.org/entity/Q6794726', 'http://www.wikidata.org/entity/Q6803029', 'http://www.wikidata.org/entity/Q6803061', 'http://www.wikidata.org/entity/Q6803097', 'http://www.wikidata.org/entity/Q6813500', 'http://www.wikidata.org/entity/Q6844051', 'http://www.wikidata.org/entity/Q6859857', 'http://www.wikidata.org/entity/Q6862535', 'http://www.wikidata.org/entity/Q6862626', 'http://www.wikidata.org/entity/Q6862628', 'http://www.wikidata.org/entity/Q6863541', 'http://www.wikidata.org/entity/Q6876153', 'http://www.wikidata.org/entity/Q6898216', 'http://www.wikidata.org/entity/Q6915597', 'http://www.wikidata.org/entity/Q6916929', 'http://www.wikidata.org/entity/Q6946130', 'http://www.wikidata.org/entity/Q6946398', 'http://www.wikidata.org/entity/Q7021126', 'http://www.wikidata.org/entity/Q7044670', 'http://www.wikidata.org/entity/Q7044909', 'http://www.wikidata.org/entity/Q7050648', 'http://www.wikidata.org/entity/Q7061192', 'http://www.wikidata.org/entity/Q7061216', 'http://www.wikidata.org/entity/Q7077529', 'http://www.wikidata.org/entity/Q7080403', 'http://www.wikidata.org/entity/Q7093979', 'http://www.wikidata.org/entity/Q7109339', 'http://www.wikidata.org/entity/Q7124845', 'http://www.wikidata.org/entity/Q7131094', 'http://www.wikidata.org/entity/Q7131155', 'http://www.wikidata.org/entity/Q7131582', 'http://www.wikidata.org/entity/Q7134392', 'http://www.wikidata.org/entity/Q7253808', 'http://www.wikidata.org/entity/Q7264619', 'http://www.wikidata.org/entity/Q7302187', 'http://www.wikidata.org/entity/Q7141514', 'http://www.wikidata.org/entity/Q7142616', 'http://www.wikidata.org/entity/Q7166628', 'http://www.wikidata.org/entity/Q7172516', 'http://www.wikidata.org/entity/Q7174808', 'http://www.wikidata.org/entity/Q7178153', 'http://www.wikidata.org/entity/Q7178156', 'http://www.wikidata.org/entity/Q7193264', 'http://www.wikidata.org/entity/Q7207446', 'http://www.wikidata.org/entity/Q7207449', 'http://www.wikidata.org/entity/Q7237554', 'http://www.wikidata.org/entity/Q7237584', 'http://www.wikidata.org/entity/Q7310661', 'http://www.wikidata.org/entity/Q7311933', 'http://www.wikidata.org/entity/Q7355094', 'http://www.wikidata.org/entity/Q7367087', 'http://www.wikidata.org/entity/Q7388676', 'http://www.wikidata.org/entity/Q7513772', 'http://www.wikidata.org/entity/Q7531003', 'http://www.wikidata.org/entity/Q7533813', 'http://www.wikidata.org/entity/Q7537721', 'http://www.wikidata.org/entity/Q7538003', 'http://www.wikidata.org/entity/Q7548871', 'http://www.wikidata.org/entity/Q7557211', 'http://www.wikidata.org/entity/Q7557213', 'http://www.wikidata.org/entity/Q7559086', 'http://www.wikidata.org/entity/Q7562386', 'http://www.wikidata.org/entity/Q7569055', 'http://www.wikidata.org/entity/Q7432365', 'http://www.wikidata.org/entity/Q7447350', 'http://www.wikidata.org/entity/Q7689489', 'http://www.wikidata.org/entity/Q7691871', 'http://www.wikidata.org/entity/Q7693982', 'http://www.wikidata.org/entity/Q7710953', 'http://www.wikidata.org/entity/Q7711327', 'http://www.wikidata.org/entity/Q7712287', 'http://www.wikidata.org/entity/Q7620404', 'http://www.wikidata.org/entity/Q7626069', 'http://www.wikidata.org/entity/Q7629826', 'http://www.wikidata.org/entity/Q7630147', 'http://www.wikidata.org/entity/Q7630149', 'http://www.wikidata.org/entity/Q7633628', 'http://www.wikidata.org/entity/Q7637494', 'http://www.wikidata.org/entity/Q7641650', 'http://www.wikidata.org/entity/Q7641668', 'http://www.wikidata.org/entity/Q7648742', 'http://www.wikidata.org/entity/Q7652696', 'http://www.wikidata.org/entity/Q7659115', 'http://www.wikidata.org/entity/Q7663925', 'http://www.wikidata.org/entity/Q7666474', 'http://www.wikidata.org/entity/Q7666498', 'http://www.wikidata.org/entity/Q7675110', 'http://www.wikidata.org/entity/Q7772614', 'http://www.wikidata.org/entity/Q7720677', 'http://www.wikidata.org/entity/Q7721570', 'http://www.wikidata.org/entity/Q7723495', 'http://www.wikidata.org/entity/Q7728995', 'http://www.wikidata.org/entity/Q7730749', 'http://www.wikidata.org/entity/Q7731622', 'http://www.wikidata.org/entity/Q7736551', 'http://www.wikidata.org/entity/Q7736553', 'http://www.wikidata.org/entity/Q7738228', 'http://www.wikidata.org/entity/Q7739324', 'http://www.wikidata.org/entity/Q7739449', 'http://www.wikidata.org/entity/Q7742251', 'http://www.wikidata.org/entity/Q7742443', 'http://www.wikidata.org/entity/Q7744177', 'http://www.wikidata.org/entity/Q7749971', 'http://www.wikidata.org/entity/Q7751728', 'http://www.wikidata.org/entity/Q7751899', 'http://www.wikidata.org/entity/Q7751970', 'http://www.wikidata.org/entity/Q7757575', 'http://www.wikidata.org/entity/Q7759878', 'http://www.wikidata.org/entity/Q7760236', 'http://www.wikidata.org/entity/Q7760659', 'http://www.wikidata.org/entity/Q7764380', 'http://www.wikidata.org/entity/Q7766820', 'http://www.wikidata.org/entity/Q7772494', 'http://www.wikidata.org/entity/Q7783947', 'http://www.wikidata.org/entity/Q7810812', 'http://www.wikidata.org/entity/Q7820268', 'http://www.wikidata.org/entity/Q7828792', 'http://www.wikidata.org/entity/Q7836533', 'http://www.wikidata.org/entity/Q7846282', 'http://www.wikidata.org/entity/Q7861430', 'http://www.wikidata.org/entity/Q7876819', 'http://www.wikidata.org/entity/Q7917885', 'http://www.wikidata.org/entity/Q7918738', 'http://www.wikidata.org/entity/Q7920630', 'http://www.wikidata.org/entity/Q7924336', 'http://www.wikidata.org/entity/Q7924340', 'http://www.wikidata.org/entity/Q7930139', 'http://www.wikidata.org/entity/Q7977677', 'http://www.wikidata.org/entity/Q7977831', 'http://www.wikidata.org/entity/Q7979390', 'http://www.wikidata.org/entity/Q7993301', 'http://www.wikidata.org/entity/Q7993638', 'http://www.wikidata.org/entity/Q8034463', 'http://www.wikidata.org/entity/Q8058892', 'http://www.wikidata.org/entity/Q8285920', 'http://www.wikidata.org/entity/Q8328979', 'http://www.wikidata.org/entity/Q8329935', 'http://www.wikidata.org/entity/Q10399295', 'http://www.wikidata.org/entity/Q10424655', 'http://www.wikidata.org/entity/Q10427794', 'http://www.wikidata.org/entity/Q10438507', 'http://www.wikidata.org/entity/Q10470137', 'http://www.wikidata.org/entity/Q10478647', 'http://www.wikidata.org/entity/Q10483278', 'http://www.wikidata.org/entity/Q10483276', 'http://www.wikidata.org/entity/Q10497055', 'http://www.wikidata.org/entity/Q10498919', 'http://www.wikidata.org/entity/Q10521846', 'http://www.wikidata.org/entity/Q8774107', 'http://www.wikidata.org/entity/Q8775182', 'http://www.wikidata.org/entity/Q9005000', 'http://www.wikidata.org/entity/Q9197880', 'http://www.wikidata.org/entity/Q9199854', 'http://www.wikidata.org/entity/Q9210350', 'http://www.wikidata.org/entity/Q9348948', 'http://www.wikidata.org/entity/Q9362623', 'http://www.wikidata.org/entity/Q10263747', 'http://www.wikidata.org/entity/Q10265027', 'http://www.wikidata.org/entity/Q10539208', 'http://www.wikidata.org/entity/Q10540694', 'http://www.wikidata.org/entity/Q10545976', 'http://www.wikidata.org/entity/Q10546459', 'http://www.wikidata.org/entity/Q10550108', 'http://www.wikidata.org/entity/Q10551144', 'http://www.wikidata.org/entity/Q10551800', 'http://www.wikidata.org/entity/Q10552257', 'http://www.wikidata.org/entity/Q10568431', 'http://www.wikidata.org/entity/Q10576347', 'http://www.wikidata.org/entity/Q10581740', 'http://www.wikidata.org/entity/Q10611490', 'http://www.wikidata.org/entity/Q10623223', 'http://www.wikidata.org/entity/Q10636269', 'http://www.wikidata.org/entity/Q10639468', 'http://www.wikidata.org/entity/Q10657971', 'http://www.wikidata.org/entity/Q10658192', 'http://www.wikidata.org/entity/Q10668100', 'http://www.wikidata.org/entity/Q10680375', 'http://www.wikidata.org/entity/Q10684386', 'http://www.wikidata.org/entity/Q10706553', 'http://www.wikidata.org/entity/Q10709353', 'http://www.wikidata.org/entity/Q10712726', 'http://www.wikidata.org/entity/Q10713122', 'http://www.wikidata.org/entity/Q10766854', 'http://www.wikidata.org/entity/Q10860196', 'http://www.wikidata.org/entity/Q10862359', 'http://www.wikidata.org/entity/Q10862557', 'http://www.wikidata.org/entity/Q11394785', 'http://www.wikidata.org/entity/Q12112241', 'http://www.wikidata.org/entity/Q11895713', 'http://www.wikidata.org/entity/Q11959981', 'http://www.wik</t>
         </is>
       </c>
     </row>
@@ -804,7 +804,7 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>['http://www.wikidata.org/entity/Q151457', 'http://www.wikidata.org/entity/Q152229', 'http://www.wikidata.org/entity/Q152480', 'http://www.wikidata.org/entity/Q153940', 'http://www.wikidata.org/entity/Q154308', 'http://www.wikidata.org/entity/Q154993', 'http://www.wikidata.org/entity/Q154998', 'http://www.wikidata.org/entity/Q155581', 'http://www.wikidata.org/entity/Q157112', 'http://www.wikidata.org/entity/Q157776', 'http://www.wikidata.org/entity/Q157789', 'http://www.wikidata.org/entity/Q52890', 'http://www.wikidata.org/entity/Q52932', 'http://www.wikidata.org/entity/Q52939', 'http://www.wikidata.org/entity/Q105013', 'http://www.wikidata.org/entity/Q130752', 'http://www.wikidata.org/entity/Q214044', 'http://www.wikidata.org/entity/Q271104', 'http://www.wikidata.org/entity/Q314218', 'http://www.wikidata.org/entity/Q76555', 'http://www.wikidata.org/entity/Q150735', 'http://www.wikidata.org/entity/Q161059', 'http://www.wikidata.org/entity/Q170335', 'http://www.wikidata.org/entity/Q175544', 'http://www.wikidata.org/entity/Q177903', 'http://www.wikidata.org/entity/Q234257', 'http://www.wikidata.org/entity/Q29574', 'http://www.wikidata.org/entity/Q38370', 'http://www.wikidata.org/entity/Q57414', 'http://www.wikidata.org/entity/Q57672', 'http://www.wikidata.org/entity/Q57976', 'http://www.wikidata.org/entity/Q58056', 'http://www.wikidata.org/entity/Q1343016', 'http://www.wikidata.org/entity/Q437440', 'http://www.wikidata.org/entity/Q511206']</t>
+          <t>['http://www.wikidata.org/entity/Q151457', 'http://www.wikidata.org/entity/Q152229', 'http://www.wikidata.org/entity/Q152480', 'http://www.wikidata.org/entity/Q153940', 'http://www.wikidata.org/entity/Q154308', 'http://www.wikidata.org/entity/Q154993', 'http://www.wikidata.org/entity/Q154998', 'http://www.wikidata.org/entity/Q155581', 'http://www.wikidata.org/entity/Q157112', 'http://www.wikidata.org/entity/Q157776', 'http://www.wikidata.org/entity/Q157789', 'http://www.wikidata.org/entity/Q76555', 'http://www.wikidata.org/entity/Q57414', 'http://www.wikidata.org/entity/Q57672', 'http://www.wikidata.org/entity/Q57976', 'http://www.wikidata.org/entity/Q58056', 'http://www.wikidata.org/entity/Q52890', 'http://www.wikidata.org/entity/Q52932', 'http://www.wikidata.org/entity/Q52939', 'http://www.wikidata.org/entity/Q105013', 'http://www.wikidata.org/entity/Q130752', 'http://www.wikidata.org/entity/Q271104', 'http://www.wikidata.org/entity/Q314218', 'http://www.wikidata.org/entity/Q1343016', 'http://www.wikidata.org/entity/Q150735', 'http://www.wikidata.org/entity/Q161059', 'http://www.wikidata.org/entity/Q170335', 'http://www.wikidata.org/entity/Q175544', 'http://www.wikidata.org/entity/Q177903', 'http://www.wikidata.org/entity/Q214044', 'http://www.wikidata.org/entity/Q234257', 'http://www.wikidata.org/entity/Q29574', 'http://www.wikidata.org/entity/Q437440', 'http://www.wikidata.org/entity/Q511206']</t>
         </is>
       </c>
     </row>
@@ -936,7 +936,7 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>['http://www.wikidata.org/entity/Q144502', 'http://www.wikidata.org/entity/Q182524', 'http://www.wikidata.org/entity/Q192372', 'http://www.wikidata.org/entity/Q207329', 'http://www.wikidata.org/entity/Q207933', 'http://www.wikidata.org/entity/Q211254', 'http://www.wikidata.org/entity/Q211761', 'http://www.wikidata.org/entity/Q221678', 'http://www.wikidata.org/entity/Q238773', 'http://www.wikidata.org/entity/Q241736', 'http://www.wikidata.org/entity/Q257797', 'http://www.wikidata.org/entity/Q261052', 'http://www.wikidata.org/entity/Q261401', 'http://www.wikidata.org/entity/Q269668', 'http://www.wikidata.org/entity/Q285802', 'http://www.wikidata.org/entity/Q339244', 'http://www.wikidata.org/entity/Q367014', 'http://www.wikidata.org/entity/Q372064', 'http://www.wikidata.org/entity/Q383601', 'http://www.wikidata.org/entity/Q388630', 'http://www.wikidata.org/entity/Q426781', 'http://www.wikidata.org/entity/Q493983', 'http://www.wikidata.org/entity/Q507375', 'http://www.wikidata.org/entity/Q509384', 'http://www.wikidata.org/entity/Q509490', 'http://www.wikidata.org/entity/Q516698', 'http://www.wikidata.org/entity/Q518760', 'http://www.wikidata.org/entity/Q531246', 'http://www.wikidata.org/entity/Q533568', 'http://www.wikidata.org/entity/Q534559', 'http://www.wikidata.org/entity/Q543643', 'http://www.wikidata.org/entity/Q545509', 'http://www.wikidata.org/entity/Q545595', 'http://www.wikidata.org/entity/Q555886', 'http://www.wikidata.org/entity/Q556016', 'http://www.wikidata.org/entity/Q562173', 'http://www.wikidata.org/entity/Q568419', 'http://www.wikidata.org/entity/Q576582', 'http://www.wikidata.org/entity/Q577280', 'http://www.wikidata.org/entity/Q591584', 'http://www.wikidata.org/entity/Q601397', 'http://www.wikidata.org/entity/Q610681', 'http://www.wikidata.org/entity/Q611541', 'http://www.wikidata.org/entity/Q617708', 'http://www.wikidata.org/entity/Q619807', 'http://www.wikidata.org/entity/Q619811', 'http://www.wikidata.org/entity/Q619816', 'http://www.wikidata.org/entity/Q622762', 'http://www.wikidata.org/entity/Q623873', 'http://www.wikidata.org/entity/Q633696', 'http://www.wikidata.org/entity/Q637048', 'http://www.wikidata.org/entity/Q643774', 'http://www.wikidata.org/entity/Q645825', 'http://www.wikidata.org/entity/Q647619', 'http://www.wikidata.org/entity/Q648581', 'http://www.wikidata.org/entity/Q653395', 'http://www.wikidata.org/entity/Q662021', 'http://www.wikidata.org/entity/Q663818', 'http://www.wikidata.org/entity/Q676306', 'http://www.wikidata.org/entity/Q677519', 'http://www.wikidata.org/entity/Q677528', 'http://www.wikidata.org/entity/Q682890', 'http://www.wikidata.org/entity/Q683815', 'http://www.wikidata.org/entity/Q685316', 'http://www.wikidata.org/entity/Q686920', 'http://www.wikidata.org/entity/Q690951', 'http://www.wikidata.org/entity/Q700126', 'http://www.wikidata.org/entity/Q700718', 'http://www.wikidata.org/entity/Q700729', 'http://www.wikidata.org/entity/Q719789', 'http://www.wikidata.org/entity/Q722791', 'http://www.wikidata.org/entity/Q728886', 'http://www.wikidata.org/entity/Q734249', 'http://www.wikidata.org/entity/Q734847', 'http://www.wikidata.org/entity/Q735920', 'http://www.wikidata.org/entity/Q738200', 'http://www.wikidata.org/entity/Q739906', 'http://www.wikidata.org/entity/Q748593', 'http://www.wikidata.org/entity/Q748738', 'http://www.wikidata.org/entity/Q750101', 'http://www.wikidata.org/entity/Q751873', 'http://www.wikidata.org/entity/Q753539', 'http://www.wikidata.org/entity/Q753542', 'http://www.wikidata.org/entity/Q753546', 'http://www.wikidata.org/entity/Q754842', 'http://www.wikidata.org/entity/Q757035', 'http://www.wikidata.org/entity/Q780047', 'http://www.wikidata.org/entity/Q787254', 'http://www.wikidata.org/entity/Q796537', 'http://www.wikidata.org/entity/Q830194', 'http://www.wikidata.org/entity/Q832305', 'http://www.wikidata.org/entity/Q836053', 'http://www.wikidata.org/entity/Q838546', 'http://www.wikidata.org/entity/Q840706', 'http://www.wikidata.org/entity/Q841182', 'http://www.wikidata.org/entity/Q841796', 'http://www.wikidata.org/entity/Q846318', 'http://www.wikidata.org/entity/Q846412', 'http://www.wikidata.org/entity/Q846547', 'http://www.wikidata.org/entity/Q847009', 'http://www.wikidata.org/entity/Q60740704', 'http://www.wikidata.org/entity/Q69637833', 'http://www.wikidata.org/entity/Q86675323', 'http://www.wikidata.org/entity/Q94967350', 'http://www.wikidata.org/entity/Q95977777', 'http://www.wikidata.org/entity/Q100375849', 'http://www.wikidata.org/entity/Q105972186', 'http://www.wikidata.org/entity/Q105992125', 'http://www.wikidata.org/entity/Q106073481', 'http://www.wikidata.org/entity/Q106168897', 'http://www.wikidata.org/entity/Q106951585', 'http://www.wikidata.org/entity/Q108103914', 'http://www.wikidata.org/entity/Q110406015', 'http://www.wikidata.org/entity/Q112918299', 'http://www.wikidata.org/entity/Q112918505', 'http://www.wikidata.org/entity/Q112960263', 'http://www.wikidata.org/entity/Q112960269', 'http://www.wikidata.org/entity/Q112960304', 'http://www.wikidata.org/entity/Q112960710', 'http://www.wikidata.org/entity/Q113129950', 'http://www.wikidata.org/entity/Q113129973', 'http://www.wikidata.org/entity/Q113129981', 'http://www.wikidata.org/entity/Q113130000', 'http://www.wikidata.org/entity/Q113130013', 'http://www.wikidata.org/entity/Q113130030', 'http://www.wikidata.org/entity/Q113136514', 'http://www.wikidata.org/entity/Q113136544', 'http://www.wikidata.org/entity/Q113136586', 'http://www.wikidata.org/entity/Q113136616', 'http://www.wikidata.org/entity/Q113148186', 'http://www.wikidata.org/entity/Q113148214', 'http://www.wikidata.org/entity/Q113275210', 'http://www.wikidata.org/entity/Q115563191', 'http://www.wikidata.org/entity/Q116178292', 'http://www.wikidata.org/entity/Q116977432', 'http://www.wikidata.org/entity/Q847013', 'http://www.wikidata.org/entity/Q847024', 'http://www.wikidata.org/entity/Q847047', 'http://www.wikidata.org/entity/Q847126', 'http://www.wikidata.org/entity/Q847619', 'http://www.wikidata.org/entity/Q847719', 'http://www.wikidata.org/entity/Q857018', 'http://www.wikidata.org/entity/Q857030', 'http://www.wikidata.org/entity/Q891991', 'http://www.wikidata.org/entity/Q902812', 'http://www.wikidata.org/entity/Q903151', 'http://www.wikidata.org/entity/Q903412', 'http://www.wikidata.org/entity/Q903796', 'http://www.wikidata.org/entity/Q904285', 'http://www.wikidata.org/entity/Q914983', 'http://www.wikidata.org/entity/Q915362', 'http://www.wikidata.org/entity/Q915385', 'http://www.wikidata.org/entity/Q915432', 'http://www.wikidata.org/entity/Q916974', 'http://www.wikidata.org/entity/Q921112', 'http://www.wikidata.org/entity/Q942814', 'http://www.wikidata.org/entity/Q948527', 'http://www.wikidata.org/entity/Q965236', 'http://www.wikidata.org/entity/Q968429', 'http://www.wikidata.org/entity/Q1051236', 'http://www.wikidata.org/entity/Q1051675', 'http://www.wikidata.org/entity/Q1072785', 'http://www.wikidata.org/entity/Q1096080', 'http://www.wikidata.org/entity/Q1097421', 'http://www.wikidata.org/entity/Q1130109', 'http://www.wikidata.org/entity/Q1137089', 'http://www.wikidata.org/entity/Q1138999', 'http://www.wikidata.org/entity/Q1159913', 'http://www.wikidata.org/entity/Q1159927', 'http://www.wikidata.org/entity/Q1231148', 'http://www.wikidata.org/entity/Q1254245', 'http://www.wikidata.org/entity/Q1386575', 'http://www.wikidata.org/entity/Q1392129', 'http://www.wikidata.org/entity/Q1423493', 'http://www.wikidata.org/entity/Q1423640', 'http://www.wikidata.org/entity/Q1424029', 'http://www.wikidata.org/entity/Q1424265', 'http://www.wikidata.org/entity/Q1424715', 'http://www.wikidata.org/entity/Q1424721', 'http://www.wikidata.org/entity/Q1424853', 'http://www.wikidata.org/entity/Q1458391', 'http://www.wikidata.org/entity/Q1475435', 'http://www.wikidata.org/entity/Q1516996', 'http://www.wikidata.org/entity/Q1540599', 'http://www.wikidata.org/entity/Q1540613', 'http://www.wikidata.org/entity/Q1540622', 'http://www.wikidata.org/entity/Q1579612', 'http://www.wikidata.org/entity/Q1628242', 'http://www.wikidata.org/entity/Q1632451', 'http://www.wikidata.org/entity/Q1633048', 'http://www.wikidata.org/entity/Q1639887', 'http://www.wikidata.org/entity/Q1659519', 'http://www.wikidata.org/entity/Q1753031', 'http://www.wikidata.org/entity/Q1753202', 'http://www.wikidata.org/entity/Q1770788', 'http://www.wikidata.org/entity/Q1785034', 'http://www.wikidata.org/entity/Q1785036', 'http://www.wikidata.org/entity/Q1785053', 'http://www.wikidata.org/entity/Q1785059', 'http://www.wikidata.org/entity/Q1785056', 'http://www.wikidata.org/entity/Q1785062', 'http://www.wikidata.org/entity/Q1887840', 'http://www.wikidata.org/entity/Q2298031', 'http://www.wikidata.org/entity/Q2349176', 'http://www.wikidata.org/entity/Q2625667', 'http://www.wikidata.org/entity/Q3400866', 'http://www.wikidata.org/entity/Q3510069', 'http://www.wikidata.org/entity/Q4308431', 'http://www.wikidata.org/entity/Q4330517', 'http://www.wikidata.org/entity/Q4468301', 'http://www.wikidata.org/entity/Q7572053', 'http://www.wikidata.org/entity/Q8876084', 'http://www.wikidata.org/entity/Q12286236', 'http://www.wikidata.org/entity/Q12664609', 'http://www.wikidata.org/entity/Q12753412', 'http://www.wikidata.org/entity/Q14288150', 'http://www.wikidata.org/entity/Q15971488', 'http://www.wikidata.org/entity/Q16258498', 'http://www.wikidata.org/entity/Q18341312', 'http://www.wikidata.org/entity/Q18341436', 'http://www.wikidata.org/entity/Q18401197', 'http://www.wikidata.org/entity/Q20667807', 'http://www.wikidata.org/entity/Q20980629', 'http://www.wikidata.org/entity/Q21392568', 'http://www.wikidata.org/entity/Q21395453', 'http://www.wikidata.org/entity/Q23937039', 'http://www.wikidata.org/entity/Q25708277', 'http://www.wikidata.org/entity/Q26695970', 'http://www.wikidata.org/entity/Q26696186', 'http://www.wikidata.org/entity/Q28666067', 'http://www.wikidata.org/entity/Q28666241', 'http://www.wikidata.org/entity/Q29017947', 'http://www.wikidata.org/entity/Q48816787', 'http://www.wikidata.org/entity/Q48816790', 'http://www.wikidata.org/entity/Q55633640']</t>
+          <t>['http://www.wikidata.org/entity/Q144502', 'http://www.wikidata.org/entity/Q182524', 'http://www.wikidata.org/entity/Q192372', 'http://www.wikidata.org/entity/Q207329', 'http://www.wikidata.org/entity/Q207933', 'http://www.wikidata.org/entity/Q211254', 'http://www.wikidata.org/entity/Q211761', 'http://www.wikidata.org/entity/Q221678', 'http://www.wikidata.org/entity/Q238773', 'http://www.wikidata.org/entity/Q241736', 'http://www.wikidata.org/entity/Q257797', 'http://www.wikidata.org/entity/Q261052', 'http://www.wikidata.org/entity/Q261401', 'http://www.wikidata.org/entity/Q269668', 'http://www.wikidata.org/entity/Q285802', 'http://www.wikidata.org/entity/Q339244', 'http://www.wikidata.org/entity/Q367014', 'http://www.wikidata.org/entity/Q372064', 'http://www.wikidata.org/entity/Q383601', 'http://www.wikidata.org/entity/Q388630', 'http://www.wikidata.org/entity/Q426781', 'http://www.wikidata.org/entity/Q493983', 'http://www.wikidata.org/entity/Q507375', 'http://www.wikidata.org/entity/Q509384', 'http://www.wikidata.org/entity/Q509490', 'http://www.wikidata.org/entity/Q516698', 'http://www.wikidata.org/entity/Q518760', 'http://www.wikidata.org/entity/Q531246', 'http://www.wikidata.org/entity/Q533568', 'http://www.wikidata.org/entity/Q534559', 'http://www.wikidata.org/entity/Q543643', 'http://www.wikidata.org/entity/Q545509', 'http://www.wikidata.org/entity/Q545595', 'http://www.wikidata.org/entity/Q555886', 'http://www.wikidata.org/entity/Q556016', 'http://www.wikidata.org/entity/Q562173', 'http://www.wikidata.org/entity/Q568419', 'http://www.wikidata.org/entity/Q576582', 'http://www.wikidata.org/entity/Q577280', 'http://www.wikidata.org/entity/Q591584', 'http://www.wikidata.org/entity/Q601397', 'http://www.wikidata.org/entity/Q610681', 'http://www.wikidata.org/entity/Q611541', 'http://www.wikidata.org/entity/Q617708', 'http://www.wikidata.org/entity/Q617898', 'http://www.wikidata.org/entity/Q619807', 'http://www.wikidata.org/entity/Q619811', 'http://www.wikidata.org/entity/Q619816', 'http://www.wikidata.org/entity/Q620336', 'http://www.wikidata.org/entity/Q620396', 'http://www.wikidata.org/entity/Q620426', 'http://www.wikidata.org/entity/Q622762', 'http://www.wikidata.org/entity/Q623873', 'http://www.wikidata.org/entity/Q633696', 'http://www.wikidata.org/entity/Q637048', 'http://www.wikidata.org/entity/Q643774', 'http://www.wikidata.org/entity/Q645825', 'http://www.wikidata.org/entity/Q647619', 'http://www.wikidata.org/entity/Q648581', 'http://www.wikidata.org/entity/Q653395', 'http://www.wikidata.org/entity/Q662021', 'http://www.wikidata.org/entity/Q663818', 'http://www.wikidata.org/entity/Q676306', 'http://www.wikidata.org/entity/Q677519', 'http://www.wikidata.org/entity/Q677528', 'http://www.wikidata.org/entity/Q682890', 'http://www.wikidata.org/entity/Q683815', 'http://www.wikidata.org/entity/Q685316', 'http://www.wikidata.org/entity/Q686920', 'http://www.wikidata.org/entity/Q690951', 'http://www.wikidata.org/entity/Q700126', 'http://www.wikidata.org/entity/Q700718', 'http://www.wikidata.org/entity/Q700729', 'http://www.wikidata.org/entity/Q719607', 'http://www.wikidata.org/entity/Q719613', 'http://www.wikidata.org/entity/Q719617', 'http://www.wikidata.org/entity/Q719789', 'http://www.wikidata.org/entity/Q722791', 'http://www.wikidata.org/entity/Q728886', 'http://www.wikidata.org/entity/Q733783', 'http://www.wikidata.org/entity/Q734249', 'http://www.wikidata.org/entity/Q734847', 'http://www.wikidata.org/entity/Q735920', 'http://www.wikidata.org/entity/Q738200', 'http://www.wikidata.org/entity/Q739906', 'http://www.wikidata.org/entity/Q742458', 'http://www.wikidata.org/entity/Q748593', 'http://www.wikidata.org/entity/Q748738', 'http://www.wikidata.org/entity/Q750101', 'http://www.wikidata.org/entity/Q751873', 'http://www.wikidata.org/entity/Q753539', 'http://www.wikidata.org/entity/Q753542', 'http://www.wikidata.org/entity/Q753546', 'http://www.wikidata.org/entity/Q754842', 'http://www.wikidata.org/entity/Q757035', 'http://www.wikidata.org/entity/Q780047', 'http://www.wikidata.org/entity/Q787254', 'http://www.wikidata.org/entity/Q796537', 'http://www.wikidata.org/entity/Q830194', 'http://www.wikidata.org/entity/Q830817', 'http://www.wikidata.org/entity/Q832305', 'http://www.wikidata.org/entity/Q836053', 'http://www.wikidata.org/entity/Q838546', 'http://www.wikidata.org/entity/Q840706', 'http://www.wikidata.org/entity/Q841182', 'http://www.wikidata.org/entity/Q841796', 'http://www.wikidata.org/entity/Q846318', 'http://www.wikidata.org/entity/Q846412', 'http://www.wikidata.org/entity/Q846547', 'http://www.wikidata.org/entity/Q847009', 'http://www.wikidata.org/entity/Q847013', 'http://www.wikidata.org/entity/Q847024', 'http://www.wikidata.org/entity/Q847047', 'http://www.wikidata.org/entity/Q847126', 'http://www.wikidata.org/entity/Q847619', 'http://www.wikidata.org/entity/Q847719', 'http://www.wikidata.org/entity/Q857018', 'http://www.wikidata.org/entity/Q857030', 'http://www.wikidata.org/entity/Q891991', 'http://www.wikidata.org/entity/Q902812', 'http://www.wikidata.org/entity/Q903151', 'http://www.wikidata.org/entity/Q903412', 'http://www.wikidata.org/entity/Q903796', 'http://www.wikidata.org/entity/Q904285', 'http://www.wikidata.org/entity/Q914983', 'http://www.wikidata.org/entity/Q915362', 'http://www.wikidata.org/entity/Q915385', 'http://www.wikidata.org/entity/Q915432', 'http://www.wikidata.org/entity/Q916974', 'http://www.wikidata.org/entity/Q921112', 'http://www.wikidata.org/entity/Q942814', 'http://www.wikidata.org/entity/Q948527', 'http://www.wikidata.org/entity/Q965236', 'http://www.wikidata.org/entity/Q968429', 'http://www.wikidata.org/entity/Q1038850', 'http://www.wikidata.org/entity/Q1051236', 'http://www.wikidata.org/entity/Q1051675', 'http://www.wikidata.org/entity/Q1064867', 'http://www.wikidata.org/entity/Q1072785', 'http://www.wikidata.org/entity/Q1096080', 'http://www.wikidata.org/entity/Q1097421', 'http://www.wikidata.org/entity/Q1119595', 'http://www.wikidata.org/entity/Q1119721', 'http://www.wikidata.org/entity/Q1130109', 'http://www.wikidata.org/entity/Q1137089', 'http://www.wikidata.org/entity/Q1138999', 'http://www.wikidata.org/entity/Q1159913', 'http://www.wikidata.org/entity/Q1159927', 'http://www.wikidata.org/entity/Q1159933', 'http://www.wikidata.org/entity/Q1231148', 'http://www.wikidata.org/entity/Q1254245', 'http://www.wikidata.org/entity/Q1386575', 'http://www.wikidata.org/entity/Q1392129', 'http://www.wikidata.org/entity/Q1423493', 'http://www.wikidata.org/entity/Q1423640', 'http://www.wikidata.org/entity/Q1424029', 'http://www.wikidata.org/entity/Q1424265', 'http://www.wikidata.org/entity/Q1424715', 'http://www.wikidata.org/entity/Q1424721', 'http://www.wikidata.org/entity/Q1424853', 'http://www.wikidata.org/entity/Q1458391', 'http://www.wikidata.org/entity/Q1475435', 'http://www.wikidata.org/entity/Q1516996', 'http://www.wikidata.org/entity/Q1540599', 'http://www.wikidata.org/entity/Q1540613', 'http://www.wikidata.org/entity/Q1540622', 'http://www.wikidata.org/entity/Q1579612', 'http://www.wikidata.org/entity/Q1628242', 'http://www.wikidata.org/entity/Q1632451', 'http://www.wikidata.org/entity/Q1633048', 'http://www.wikidata.org/entity/Q1639887', 'http://www.wikidata.org/entity/Q1659519', 'http://www.wikidata.org/entity/Q1753031', 'http://www.wikidata.org/entity/Q1753202', 'http://www.wikidata.org/entity/Q1770788', 'http://www.wikidata.org/entity/Q1785034', 'http://www.wikidata.org/entity/Q1785036', 'http://www.wikidata.org/entity/Q1785053', 'http://www.wikidata.org/entity/Q1785059', 'http://www.wikidata.org/entity/Q1785056', 'http://www.wikidata.org/entity/Q1785062', 'http://www.wikidata.org/entity/Q1887840', 'http://www.wikidata.org/entity/Q2298031', 'http://www.wikidata.org/entity/Q2349176', 'http://www.wikidata.org/entity/Q2625667', 'http://www.wikidata.org/entity/Q3359380', 'http://www.wikidata.org/entity/Q3400866', 'http://www.wikidata.org/entity/Q3510069', 'http://www.wikidata.org/entity/Q4235057', 'http://www.wikidata.org/entity/Q4308431', 'http://www.wikidata.org/entity/Q4330517', 'http://www.wikidata.org/entity/Q4468301', 'http://www.wikidata.org/entity/Q7572053', 'http://www.wikidata.org/entity/Q8876084', 'http://www.wikidata.org/entity/Q12286236', 'http://www.wikidata.org/entity/Q12664609', 'http://www.wikidata.org/entity/Q12753412', 'http://www.wikidata.org/entity/Q14288150', 'http://www.wikidata.org/entity/Q15971488', 'http://www.wikidata.org/entity/Q16258498', 'http://www.wikidata.org/entity/Q18341312', 'http://www.wikidata.org/entity/Q18341436', 'http://www.wikidata.org/entity/Q18401197', 'http://www.wikidata.org/entity/Q20667807', 'http://www.wikidata.org/entity/Q20980629', 'http://www.wikidata.org/entity/Q21392568', 'http://www.wikidata.org/entity/Q21395453', 'http://www.wikidata.org/entity/Q23937039', 'http://www.wikidata.org/entity/Q25708277', 'http://www.wikidata.org/entity/Q26695970', 'http://www.wikidata.org/entity/Q26696186', 'http://www.wikidata.org/entity/Q28666067', 'http://www.wikidata.org/entity/Q28666241', 'http://www.wikidata.org/entity/Q29017947', 'http://www.wikidata.org/entity/Q48816787', 'http://www.wikidata.org/entity/Q48816790', 'http://www.wikidata.org/entity/Q55633640', 'http://www.wikidata.org/entity/Q60740704', 'http://www.wikidata.org/entity/Q69637833', 'http://www.wikidata.org/entity/Q86675323', 'http://www.wikidata.org/entity/Q94967350', 'http://www.wikidata.org/entity/Q95977777', 'http://www.wikidata.org/entity/Q100375849', 'http://www.wikidata.org/entity/Q105972186', 'http://www.wikidata.org/entity/Q105992125', 'http://www.wikidata.org/entity/Q106073481', 'http://www.wikidata.org/entity/Q106168897', 'http://www.wikidata.org/entity/Q106951585', 'http://www.wikidata.org/entity/Q108103914', 'http://www.wikidata.org/entity/Q110406015', 'http://www.wikidata.org/entity/Q112918299', 'http://www.wikidata.org/entity/Q112918505', 'http://www.wikidata.org/entity/Q112960263', 'http://www.wikidata.org/entity/Q112960269', 'http://www.wikidata.org/entity/Q112960304', 'http://www.wikidata.org/entity/Q112960710', 'http://www.wikidata.org/entity/Q113129950', 'http://www.wikidata.org/entity/Q113129973', 'http://www.wikidata.org/entity/Q113129981', 'http://www.wikidata.org/entity/Q113130000', 'http://www.wikidata.org/entity/Q113130013', 'http://www.wikidata.org/entity/Q113130030', 'http://www.wikidata.org/entity/Q113136514', 'http://www.wikidata.org/entity/Q113136544', 'http://www.wikidata.org/entity/Q113136586', 'http://www.wikidata.org/entity/Q113136616', 'http://www.wikidata.org/entity/Q113148186', 'http://www.wikidata.org/entity/Q113148214', 'http://www.wikidata.org/entity/Q113275210', 'http://www.wikidata.org/entity/Q115563191', 'http://www.wikidata.org/entity/Q116178292', 'http://www.wikidata.org/entity/Q116977432']</t>
         </is>
       </c>
     </row>
@@ -958,7 +958,7 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>['http://www.wikidata.org/entity/Q344822', 'http://www.wikidata.org/entity/Q355481', 'http://www.wikidata.org/entity/Q356715', 'http://www.wikidata.org/entity/Q357036', 'http://www.wikidata.org/entity/Q376146', 'http://www.wikidata.org/entity/Q405682', 'http://www.wikidata.org/entity/Q433579', 'http://www.wikidata.org/entity/Q436176', 'http://www.wikidata.org/entity/Q737521', 'http://www.wikidata.org/entity/Q776453', 'http://www.wikidata.org/entity/Q787308', 'http://www.wikidata.org/entity/Q808916', 'http://www.wikidata.org/entity/Q830257', 'http://www.wikidata.org/entity/Q861545', 'http://www.wikidata.org/entity/Q870113', 'http://www.wikidata.org/entity/Q891134', 'http://www.wikidata.org/entity/Q895829', 'http://www.wikidata.org/entity/Q904844', 'http://www.wikidata.org/entity/Q920288', 'http://www.wikidata.org/entity/Q923409', 'http://www.wikidata.org/entity/Q930965', 'http://www.wikidata.org/entity/Q936536', 'http://www.wikidata.org/entity/Q945778', 'http://www.wikidata.org/entity/Q465105', 'http://www.wikidata.org/entity/Q492677', 'http://www.wikidata.org/entity/Q495464', 'http://www.wikidata.org/entity/Q496386', 'http://www.wikidata.org/entity/Q506913', 'http://www.wikidata.org/entity/Q511817', 'http://www.wikidata.org/entity/Q523309', 'http://www.wikidata.org/entity/Q528340', 'http://www.wikidata.org/entity/Q538062', 'http://www.wikidata.org/entity/Q539883', 'http://www.wikidata.org/entity/Q545464', 'http://www.wikidata.org/entity/Q562871', 'http://www.wikidata.org/entity/Q590792', 'http://www.wikidata.org/entity/Q600700', 'http://www.wikidata.org/entity/Q612855', 'http://www.wikidata.org/entity/Q658636', 'http://www.wikidata.org/entity/Q668856', 'http://www.wikidata.org/entity/Q675810', 'http://www.wikidata.org/entity/Q708990', 'http://www.wikidata.org/entity/Q711921', 'http://www.wikidata.org/entity/Q964682', 'http://www.wikidata.org/entity/Q967230', 'http://www.wikidata.org/entity/Q967916', 'http://www.wikidata.org/entity/Q1017857', 'http://www.wikidata.org/entity/Q1026959', 'http://www.wikidata.org/entity/Q1027629', 'http://www.wikidata.org/entity/Q1039172', 'http://www.wikidata.org/entity/Q1081180', 'http://www.wikidata.org/entity/Q1103542', 'http://www.wikidata.org/entity/Q1111398', 'http://www.wikidata.org/entity/Q1138796', 'http://www.wikidata.org/entity/Q1176023', 'http://www.wikidata.org/entity/Q1176361', 'http://www.wikidata.org/entity/Q1238872', 'http://www.wikidata.org/entity/Q78932', 'http://www.wikidata.org/entity/Q85647', 'http://www.wikidata.org/entity/Q86806', 'http://www.wikidata.org/entity/Q89804', 'http://www.wikidata.org/entity/Q93341', 'http://www.wikidata.org/entity/Q115301', 'http://www.wikidata.org/entity/Q120867', 'http://www.wikidata.org/entity/Q163861', 'http://www.wikidata.org/entity/Q177824', 'http://www.wikidata.org/entity/Q188046', 'http://www.wikidata.org/entity/Q193645', 'http://www.wikidata.org/entity/Q199406', 'http://www.wikidata.org/entity/Q201500', 'http://www.wikidata.org/entity/Q205139', 'http://www.wikidata.org/entity/Q210173', 'http://www.wikidata.org/entity/Q210289', 'http://www.wikidata.org/entity/Q212175', 'http://www.wikidata.org/entity/Q222798', 'http://www.wikidata.org/entity/Q250592', 'http://www.wikidata.org/entity/Q273076', 'http://www.wikidata.org/entity/Q276068', 'http://www.wikidata.org/entity/Q300779', 'http://www.wikidata.org/entity/Q309470', 'http://www.wikidata.org/entity/Q313368', 'http://www.wikidata.org/entity/Q313529', 'http://www.wikidata.org/entity/Q313554', 'http://www.wikidata.org/entity/Q313868', 'http://www.wikidata.org/entity/Q319451', 'http://www.wikidata.org/entity/Q322210', 'http://www.wikidata.org/entity/Q322835', 'http://www.wikidata.org/entity/Q322866', 'http://www.wikidata.org/entity/Q1779', 'http://www.wikidata.org/entity/Q23848', 'http://www.wikidata.org/entity/Q49575', 'http://www.wikidata.org/entity/Q15831730', 'http://www.wikidata.org/entity/Q15831731', 'http://www.wikidata.org/entity/Q15831749', 'http://www.wikidata.org/entity/Q15838279', 'http://www.wikidata.org/entity/Q15838400', 'http://www.wikidata.org/entity/Q15838411', 'http://www.wikidata.org/entity/Q15838414', 'http://www.wikidata.org/entity/Q15838481', 'http://www.wikidata.org/entity/Q15963688', 'http://www.wikidata.org/entity/Q15977560', 'http://www.wikidata.org/entity/Q15982372', 'http://www.wikidata.org/entity/Q16017359', 'http://www.wikidata.org/entity/Q16090563', 'http://www.wikidata.org/entity/Q16179949', 'http://www.wikidata.org/entity/Q16560522', 'http://www.wikidata.org/entity/Q16948823', 'http://www.wikidata.org/entity/Q5736141', 'http://www.wikidata.org/entity/Q5788763', 'http://www.wikidata.org/entity/Q5860409', 'http://www.wikidata.org/entity/Q5864112', 'http://www.wikidata.org/entity/Q5872203', 'http://www.wikidata.org/entity/Q5876210', 'http://www.wikidata.org/entity/Q5929845', 'http://www.wikidata.org/entity/Q5932732', 'http://www.wikidata.org/entity/Q5990031', 'http://www.wikidata.org/entity/Q6027208', 'http://www.wikidata.org/entity/Q6074256', 'http://www.wikidata.org/entity/Q6145197', 'http://www.wikidata.org/entity/Q6175185', 'http://www.wikidata.org/entity/Q6202890', 'http://www.wikidata.org/entity/Q6208919', 'http://www.wikidata.org/entity/Q6221178', 'http://www.wikidata.org/entity/Q6240203', 'http://www.wikidata.org/entity/Q6309190', 'http://www.wikidata.org/entity/Q6390677', 'http://www.wikidata.org/entity/Q6687998', 'http://www.wikidata.org/entity/Q6793340', 'http://www.wikidata.org/entity/Q6846424', 'http://www.wikidata.org/entity/Q7052586', 'http://www.wikidata.org/entity/Q7087874', 'http://www.wikidata.org/entity/Q7183918', 'http://www.wikidata.org/entity/Q7298839', 'http://www.wikidata.org/entity/Q7319236', 'http://www.wikidata.org/entity/Q7333203', 'http://www.wikidata.org/entity/Q7441108', 'http://www.wikidata.org/entity/Q7477602', 'http://www.wikidata.org/entity/Q7524109', 'http://www.wikidata.org/entity/Q7694080', 'http://www.wikidata.org/entity/Q7781439', 'http://www.wikidata.org/entity/Q7781727', 'http://www.wikidata.org/entity/Q7924906', 'http://www.wikidata.org/entity/Q7982390', 'http://www.wikidata.org/entity/Q8007734', 'http://www.wikidata.org/entity/Q8009347', 'http://www.wikidata.org/entity/Q9422246', 'http://www.wikidata.org/entity/Q10378298', 'http://www.wikidata.org/entity/Q10513330', 'http://www.wikidata.org/entity/Q11399791', 'http://www.wikidata.org/entity/Q11629760', 'http://www.wikidata.org/entity/Q11858672', 'http://www.wikidata.org/entity/Q11867190', 'http://www.wikidata.org/entity/Q12010658', 'http://www.wikidata.org/entity/Q12725804', 'http://www.wikidata.org/entity/Q12762176', 'http://www.wikidata.org/entity/Q12813704', 'http://www.wikidata.org/entity/Q13428279', 'http://www.wikidata.org/entity/Q13428924', 'http://www.wikidata.org/entity/Q13429127', 'http://www.wikidata.org/entity/Q13430549', 'http://www.wikidata.org/entity/Q13430599', 'http://www.wikidata.org/entity/Q13578525', 'http://www.wikidata.org/entity/Q13621967', 'http://www.wikidata.org/entity/Q13637576', 'http://www.wikidata.org/entity/Q13637684', 'http://www.wikidata.org/entity/Q13642623', 'http://www.wikidata.org/entity/Q13735676', 'http://www.wikidata.org/entity/Q13748173', 'http://www.wikidata.org/entity/Q13749321', 'http://www.wikidata.org/entity/Q13818959', 'http://www.wikidata.org/entity/Q14084087', 'http://www.wikidata.org/entity/Q14252911', 'http://www.wikidata.org/entity/Q14282663', 'http://www.wikidata.org/entity/Q14514707', 'http://www.wikidata.org/entity/Q14545268', 'http://www.wikidata.org/entity/Q14625857', 'http://www.wikidata.org/entity/Q14855238', 'http://www.wikidata.org/entity/Q15065014', 'http://www.wikidata.org/entity/Q15434980', 'http://www.wikidata.org/entity/Q15485363', 'http://www.wikidata.org/entity/Q15485371', 'http://www.wikidata.org/entity/Q15663950', 'http://www.wikidata.org/entity/Q15782011', 'http://www.wikidata.org/entity/Q15831726', 'http://www.wikidata.org/entity/Q1267291', 'http://www.wikidata.org/entity/Q1282503', 'http://www.wikidata.org/entity/Q1314051', 'http://www.wikidata.org/entity/Q1318323', 'http://www.wikidata.org/entity/Q1332284', 'http://www.wikidata.org/entity/Q1346808', 'http://www.wikidata.org/entity/Q1349008', 'http://www.wikidata.org/entity/Q1350269', 'http://www.wikidata.org/entity/Q1361982', 'http://www.wikidata.org/entity/Q1364120', 'http://www.wikidata.org/entity/Q1412239', 'http://www.wikidata.org/entity/Q1440487', 'http://www.wikidata.org/entity/Q1452661', 'http://www.wikidata.org/entity/Q1453559', 'http://www.wikidata.org/entity/Q1454645', 'http://www.wikidata.org/entity/Q1468204', 'http://www.wikidata.org/entity/Q1495388', 'http://www.wikidata.org/entity/Q1523174', 'http://www.wikidata.org/entity/Q1535887', 'http://www.wikidata.org/entity/Q1558930', 'http://www.wikidata.org/entity/Q1558978', 'http://www.wikidata.org/entity/Q1583816', 'http://www.wikidata.org/entity/Q1604148', 'http://www.wikidata.org/entity/Q1607887', 'http://www.wikidata.org/entity/Q1622068', 'http://www.wikidata.org/entity/Q1678838', 'http://www.wikidata.org/entity/Q1679611', 'http://www.wikidata.org/entity/Q1680582', 'http://www.wikidata.org/entity/Q1682798', 'http://www.wikidata.org/entity/Q1687893', 'http://www.wikidata.org/entity/Q1689205', 'http://www.wikidata.org/entity/Q1689925', 'http://www.wikidata.org/entity/Q1701748', 'http://www.wikidata.org/entity/Q1704053', 'http://www.wikidata.org/entity/Q1729145', 'http://www.wikidata.org/entity/Q1729163', 'http://www.wikidata.org/entity/Q1730938', 'http://www.wikidata.org/entity/Q1738588', 'http://www.wikidata.org/entity/Q1738949', 'http://www.wikidata.org/entity/Q1770558', 'http://www.wikidata.org/entity/Q1795197', 'http://www.wikidata.org/entity/Q1806037', 'http://www.wikidata.org/entity/Q1820504', 'http://www.wikidata.org/entity/Q1822323', 'http://www.wikidata.org/entity/Q1844485', 'http://www.wikidata.org/entity/Q1852290', 'http://www.wikidata.org/entity/Q1872759', 'http://www.wikidata.org/entity/Q1873386', 'http://www.wikidata.org/entity/Q1886030', 'http://www.wikidata.org/entity/Q1897498', 'http://www.wikidata.org/entity/Q1902146', 'http://www.wikidata.org/entity/Q1902333', 'http://www.wikidata.org/entity/Q1903602', 'http://www.wikidata.org/entity/Q1912807', 'http://www.wikidata.org/entity/Q1917265', 'http://www.wikidata.org/entity/Q1917393', 'http://www.wikidata.org/entity/Q1935815', 'http://www.wikidata.org/entity/Q1952063', 'http://www.wikidata.org/entity/Q1966469', 'http://www.wikidata.org/entity/Q1971146', 'http://www.wikidata.org/entity/Q1997017', 'http://www.wikidata.org/entity/Q2002094', 'http://www.wikidata.org/entity/Q2018006', 'http://www.wikidata.org/entity/Q2018624', 'http://www.wikidata.org/entity/Q2033376', 'http://www.wikidata.org/entity/Q2041252', 'http://www.wikidata.org/entity/Q2051847', 'http://www.wikidata.org/entity/Q2061143', 'http://www.wikidata.org/entity/Q2065647', 'http://www.wikidata.org/entity/Q2071995', 'http://www.wikidata.org/entity/Q2075755', 'http://www.wikidata.org/entity/Q2113826', 'http://www.wikidata.org/entity/Q2114588', 'http://www.wikidata.org/entity/Q2131475', 'http://www.wikidata.org/entity/Q2134409', 'http://www.wikidata.org/entity/Q2160123', 'http://www.wikidata.org/entity/Q2160443', 'http://www.wikidata.org/entity/Q2178215', 'http://www.wikidata.org/entity/Q2204603', 'http://www.wikidata.org/entity/Q2205004', 'http://www.wikidata.org/entity/Q2212853', 'http://www.wikidata.org/entity/Q2215501', 'http://www.wikidata.org/entity/Q2216444', 'http://www.wikidata.org/entity/Q2223014', 'http://www.wikidata.org/entity/Q2231142', 'http://www.wikidata.org/entity/Q2237290', 'http://www.wikidata.org/entity/Q2249186', 'http://www.wikidata.org/entity/Q2265140', 'http://www.wikidata.org/entity/Q2269117', 'http://www.wikidata.org/entity/Q2281105', 'http://www.wikidata.org/entity/Q2282012', 'http://www.wikidata.org/entity/Q2296396', 'http://www.wikidata.org/entity/Q2299727', 'http://www.wikidata.org/entity/Q2301899', 'http://www.wikidata.org/entity/Q2302261', 'http://www.wikidata.org/entity/Q2308068', 'http://www.wikidata.org/entity/Q2317152', 'http://www.wikidata.org/entity/Q2333645', 'http://www.wikidata.org/entity/Q2346719', 'http://www.wikidata.org/entity/Q2347504', 'http://www.wikidata.org/entity/Q17302890', 'http://www.wikidata.org/entity/Q17302909', 'http://www.wikidata.org/entity/Q17306038', 'http://www.wikidata.org/entity/Q17621303', 'http://www.wikidata.org/entity/Q17630817', 'http://www.wikidata.org/entity/Q18028541', 'http://www.wikidata.org/entity/Q18596060', 'http://www.wikidata.org/entity/Q19561422', 'http://www.wikidata.org/entity/Q19787616', 'http://www.wikidata.org/entity/Q19965844', 'http://www.wikidata.org/entity/Q20065940', 'http://www.wikidata.org/entity/Q21069758', 'http://www.wikidata.org/entity/Q22077690', 'http://www.wikidata.org/entity/Q22958430', 'http://www.wikidata.org/entity/Q24004815', 'http://www.wikidata.org/entity/Q24545476', 'http://www.wikidata.org/entity/Q25016213', 'http://www.wikidata.org/entity/Q27349585', 'http://www.wikidata.org/entity/Q42786392', 'http://www.wikidata.org/entity/Q43191106', 'http://www.wikidata.org/entity/Q54912317', 'http://www.wikidata.org/entity/Q54957569', 'http://www.wikidata.org/entity/Q55226721', 'http://www.wikidata.org/entity/Q56414132', 'http://www.wikidata.org/entity/Q57941720', 'http://www.wikidata.org/entity/Q60642757', 'http://www.wikidata.org/entity/Q61816822', 'http://www.wikidata.org/entity/Q64860097', 'http://www.wikidata.org/entity/Q2350926', 'http://www.wikidata.org/entity/Q2351608', 'http://www.wikidata.org/entity/Q2373687', 'http://www.wikidata.org/entity/Q2388958', 'http://www.wikidata.org/entity/Q2389118', 'http://www.wikidata.org/entity/Q2389720', 'http://www.wikidata.org/entity/Q2396601', 'http://www.wikidata.org/entity/Q2398731', 'http://www.wikidata.org/entity/Q2401961', 'http://www.wikidata.org/entity/Q2405288', 'http://www.wikidata.org/entity/Q2434943', 'http://www.wikidata.org/entity/Q2444116', 'http://www.wikidata.org/entity/Q2452107', 'http://www.wikidata.org/entity/Q2461095', 'http://www.wikidata.org/entity/Q2498692', 'http://www.wikidata.org/entity/Q2524882', 'http://www.wikidata.org/entity/Q2545432', 'http://www.wikidata.org/entity/Q2555494', 'http://www.wikidata.org/entity/Q2585526', 'http://www.wikidata.org/entity/Q2589470', 'http://www.wikidata.org/entity/Q2597090', 'http://www.wikidata.org/entity/Q2602149', 'http://www.wikidata.org/entity/Q2605389', 'http://www.wikidata.org/entity/Q2614369', 'http://www.wikidata.org/entity/Q2618892', 'http://www.wikidata.org/entity/Q2620075', 'http://www.wikidata.org/entity/Q2645829', 'http://www.wikidata.org/entity/Q2658419', 'http://www.wikidata.org/entity/Q2660295', 'http://www.wikidata.org/entity/Q2666889', 'http://www.wikidata.org/entity/Q2676832', 'http://www.wikidata.org/entity/Q2686509', 'http://www.wikidata.org/entity/Q2689866', 'http://www.wikidata.org/entity/Q2723748', 'http://www.wikidata.org/entity/Q2732134', 'http://www.wikidata.org/entity/Q2738133', 'http://www.wikidata.org/entity/Q2750590', 'http://www.wikidata.org/entity/Q2781380', 'http://www.wikidata.org/entity/Q2805529', 'http://www.wikidata.org/entity/Q2850896', 'http://www.wikidata.org/entity/Q2916457', 'http://www.wikidata.org/entity/Q2951433', 'http://www.wikidata.org/entity/Q3026768', 'http://www.wikidata.org/entity/Q3144611', 'http://www.wikidata.org/entity/Q3196381', 'http://www.wikidata.org/entity/Q3209874', 'http://www.wikidata.org/entity/Q3219391', 'http://www.wikidata.org/entity/Q3289097', 'http://www.wikidata.org/entity/Q3296667', 'http://www.wikidata.org/entity/Q3317466', 'http://www.wikidata.org/entity/Q3330992', 'http://www.wikidata.org/entity/Q3367630', 'http://www.wikidata.org/entity/Q3514155', 'http://www.wikidata.org/entity/Q3521902', 'http://www.wikidata.org/entity/Q3534050', 'http://www.wikidata.org/entity/Q3562367', 'http://www.wikidata.org/entity/Q3705319', 'http://www.wikidata.org/entity/Q3754332', 'http://www.wikidata.org/entity/Q3762145', 'http://www.wikidata.org/entity/Q3767568', 'http://www.wikidata.org/entity/Q3837619', 'http://www.wikidata.org/entity/Q3919987', 'http://www.wikidata.org/entity/Q3929797', 'http://www.wikidata.org/entity/Q3973394', 'http://www.wikidata.org/entity/Q4102218', 'http://www.wikidata.org/entity/Q4111188', 'http://www.wikidata.org/entity/Q4112047', 'http://www.wikidata.org/entity/Q4188447', 'http://www.wikidata.org/entity/Q4192381', 'http://www.wikidata.org/entity/Q4212029', 'http://www.wikidata.org/entity/Q4216887', 'http://www.wikidata.org/entity/Q4226412', 'http://www.wikidata.org/entity/Q4251281', 'http://www.wikidata.org/entity/Q4252138', 'http://www.wikidata.org/entity/Q4347263', 'http://www.wikidata.org/entity/Q4347986', 'http://www.wikidata.org/entity/Q4349639', 'http://www.wikidata.org/entity/Q4351622', 'http://www.wikidata.org/entity/Q4377045', 'http://www.wikidata.org/entity/Q4401249', 'http://www.wikidata.org/entity/Q4464127', 'http://www.wikidata.org/entity/Q4502786', 'http://www.wikidata.org/entity/Q4760598', 'http://www.wikidata.org/entity/Q4765639', 'http://www.wikidata.org/entity/Q4767267', 'http://www.wikidata.org/entity/Q4797599', 'http://www.wikidata.org/entity/Q4833896', 'http://www.wikidata.org/entity/Q4887822', 'http://www.wikidata.org/entity/Q4889351', 'http://www.wikidata.org/entity/Q4889942', 'http://www.wikidata.org/entity/Q4911881', 'http://www.wikidata.org/entity/Q4956069', 'http://www.wikidata.org/entity/Q5202535', 'http://www.wikidata.org/entity/Q5214487', 'http://www.wikidata.org/entity/Q5235139', 'http://www.wikidata.org/entity/Q5240601', 'http://www.wikidata.org/entity/Q5246126', 'http://www.wikidata.org/entity/Q5263018', 'http://www.wikidata.org/entity/Q5290919', 'http://www.wikidata.org/entity/Q5392650', 'http://www.wikidata.org/entity/Q5394010', 'http://www.wikidata.org/entity/Q5394507', 'http://www.wikidata.org/entity/Q5490378', 'http://www.wikidata.org/entity/Q5525190', 'http://www.wikidata.org/entity/Q5528172', 'http://www.wikidata.org/entity/Q5531061', 'http://www.wikidata.org/entity/Q5560464', 'http://www.wikidata.org/entity/Q64936945', 'http://www.wikidata.org/entity/Q64949475', 'http://www.wikidata.org/entity/Q64985644', 'http://www.wikidata.org/entity/Q64993378', 'http://www.wikidata.org/entity/Q85974715', 'http://www.wikidata.org/entity/Q85974746', 'http://www.wikidata.org/entity/Q91232485', 'http://www.wikidata.org/entity/Q93487778', 'http://www.wikidata.org/entity/Q94689370', 'http://www.wikidata.org/entity/Q98308750', 'http://www.wikidata.org/entity/Q99438820', 'http://www.wikidata.org/entity/Q99731455', 'http://www.wikidata.org/entity/Q101114845', 'http://www.wikidata.org/entity/Q101428268', 'http://www.wikidata.org/entity/Q106205227', 'http://www.wikidata.org/entity/Q106689756', 'http://www.wikidata.org/entity/Q106959617', 'http://www.wikidata.org/entity/Q107406319', 'http://www.wikidata.org/entity/Q107655857', 'http://www.wikidata.org/entity/Q109554339', 'http://www.wikidata.org/entity/Q109554543', 'http://www.wikidata.org/entity/Q109555192', 'http://www.wikidata.org/entity/Q112135459', 'http://www.wikidata.org/entity/Q121167557', 'http://www.wikidata.org/entity/Q122332851', 'http://www.wikidata.org/entity/Q122474625', 'http://www.wikidata.org/entity/Q122910179', 'http://www.wikidata.org/entity/Q123200520', 'http://www.wikidata.org/entity/Q124037701', 'http://www.wikidata.org/entity/Q124463256']</t>
+          <t>['http://www.wikidata.org/entity/Q344822', 'http://www.wikidata.org/entity/Q355481', 'http://www.wikidata.org/entity/Q356715', 'http://www.wikidata.org/entity/Q357036', 'http://www.wikidata.org/entity/Q376146', 'http://www.wikidata.org/entity/Q405682', 'http://www.wikidata.org/entity/Q433579', 'http://www.wikidata.org/entity/Q436176', 'http://www.wikidata.org/entity/Q737521', 'http://www.wikidata.org/entity/Q776453', 'http://www.wikidata.org/entity/Q787308', 'http://www.wikidata.org/entity/Q808916', 'http://www.wikidata.org/entity/Q830257', 'http://www.wikidata.org/entity/Q861545', 'http://www.wikidata.org/entity/Q870113', 'http://www.wikidata.org/entity/Q891134', 'http://www.wikidata.org/entity/Q895829', 'http://www.wikidata.org/entity/Q904844', 'http://www.wikidata.org/entity/Q920288', 'http://www.wikidata.org/entity/Q923409', 'http://www.wikidata.org/entity/Q930965', 'http://www.wikidata.org/entity/Q936536', 'http://www.wikidata.org/entity/Q945778', 'http://www.wikidata.org/entity/Q78932', 'http://www.wikidata.org/entity/Q85647', 'http://www.wikidata.org/entity/Q86806', 'http://www.wikidata.org/entity/Q89804', 'http://www.wikidata.org/entity/Q93341', 'http://www.wikidata.org/entity/Q115301', 'http://www.wikidata.org/entity/Q120867', 'http://www.wikidata.org/entity/Q163861', 'http://www.wikidata.org/entity/Q177824', 'http://www.wikidata.org/entity/Q188046', 'http://www.wikidata.org/entity/Q193645', 'http://www.wikidata.org/entity/Q199406', 'http://www.wikidata.org/entity/Q201500', 'http://www.wikidata.org/entity/Q205139', 'http://www.wikidata.org/entity/Q210173', 'http://www.wikidata.org/entity/Q210289', 'http://www.wikidata.org/entity/Q212175', 'http://www.wikidata.org/entity/Q222798', 'http://www.wikidata.org/entity/Q250592', 'http://www.wikidata.org/entity/Q273076', 'http://www.wikidata.org/entity/Q276068', 'http://www.wikidata.org/entity/Q300779', 'http://www.wikidata.org/entity/Q309470', 'http://www.wikidata.org/entity/Q313368', 'http://www.wikidata.org/entity/Q313529', 'http://www.wikidata.org/entity/Q313554', 'http://www.wikidata.org/entity/Q313868', 'http://www.wikidata.org/entity/Q319451', 'http://www.wikidata.org/entity/Q322210', 'http://www.wikidata.org/entity/Q322835', 'http://www.wikidata.org/entity/Q322866', 'http://www.wikidata.org/entity/Q1779', 'http://www.wikidata.org/entity/Q23848', 'http://www.wikidata.org/entity/Q49575', 'http://www.wikidata.org/entity/Q465105', 'http://www.wikidata.org/entity/Q492677', 'http://www.wikidata.org/entity/Q495464', 'http://www.wikidata.org/entity/Q496386', 'http://www.wikidata.org/entity/Q506913', 'http://www.wikidata.org/entity/Q511817', 'http://www.wikidata.org/entity/Q523309', 'http://www.wikidata.org/entity/Q528340', 'http://www.wikidata.org/entity/Q538062', 'http://www.wikidata.org/entity/Q539883', 'http://www.wikidata.org/entity/Q545464', 'http://www.wikidata.org/entity/Q562871', 'http://www.wikidata.org/entity/Q590792', 'http://www.wikidata.org/entity/Q600700', 'http://www.wikidata.org/entity/Q612855', 'http://www.wikidata.org/entity/Q658636', 'http://www.wikidata.org/entity/Q668856', 'http://www.wikidata.org/entity/Q675810', 'http://www.wikidata.org/entity/Q708990', 'http://www.wikidata.org/entity/Q711921', 'http://www.wikidata.org/entity/Q964682', 'http://www.wikidata.org/entity/Q967230', 'http://www.wikidata.org/entity/Q967916', 'http://www.wikidata.org/entity/Q1017857', 'http://www.wikidata.org/entity/Q1026959', 'http://www.wikidata.org/entity/Q1027629', 'http://www.wikidata.org/entity/Q1039172', 'http://www.wikidata.org/entity/Q1081180', 'http://www.wikidata.org/entity/Q1103542', 'http://www.wikidata.org/entity/Q1111398', 'http://www.wikidata.org/entity/Q1138796', 'http://www.wikidata.org/entity/Q1176023', 'http://www.wikidata.org/entity/Q1176361', 'http://www.wikidata.org/entity/Q1238872', 'http://www.wikidata.org/entity/Q5736141', 'http://www.wikidata.org/entity/Q5788763', 'http://www.wikidata.org/entity/Q5860409', 'http://www.wikidata.org/entity/Q5864112', 'http://www.wikidata.org/entity/Q5872203', 'http://www.wikidata.org/entity/Q5876210', 'http://www.wikidata.org/entity/Q5929845', 'http://www.wikidata.org/entity/Q5932732', 'http://www.wikidata.org/entity/Q5990031', 'http://www.wikidata.org/entity/Q6027208', 'http://www.wikidata.org/entity/Q6074256', 'http://www.wikidata.org/entity/Q6145197', 'http://www.wikidata.org/entity/Q6175185', 'http://www.wikidata.org/entity/Q6202890', 'http://www.wikidata.org/entity/Q6208919', 'http://www.wikidata.org/entity/Q6221178', 'http://www.wikidata.org/entity/Q11629760', 'http://www.wikidata.org/entity/Q11858672', 'http://www.wikidata.org/entity/Q11867190', 'http://www.wikidata.org/entity/Q12010658', 'http://www.wikidata.org/entity/Q12725804', 'http://www.wikidata.org/entity/Q12762176', 'http://www.wikidata.org/entity/Q12813704', 'http://www.wikidata.org/entity/Q13428279', 'http://www.wikidata.org/entity/Q13428924', 'http://www.wikidata.org/entity/Q7319236', 'http://www.wikidata.org/entity/Q7333203', 'http://www.wikidata.org/entity/Q7441108', 'http://www.wikidata.org/entity/Q7477602', 'http://www.wikidata.org/entity/Q7524109', 'http://www.wikidata.org/entity/Q7694080', 'http://www.wikidata.org/entity/Q7781439', 'http://www.wikidata.org/entity/Q7781727', 'http://www.wikidata.org/entity/Q7924906', 'http://www.wikidata.org/entity/Q7982390', 'http://www.wikidata.org/entity/Q8007734', 'http://www.wikidata.org/entity/Q8009347', 'http://www.wikidata.org/entity/Q9422246', 'http://www.wikidata.org/entity/Q10378298', 'http://www.wikidata.org/entity/Q10513330', 'http://www.wikidata.org/entity/Q11399791', 'http://www.wikidata.org/entity/Q6240203', 'http://www.wikidata.org/entity/Q6282383', 'http://www.wikidata.org/entity/Q6309190', 'http://www.wikidata.org/entity/Q6390677', 'http://www.wikidata.org/entity/Q6687998', 'http://www.wikidata.org/entity/Q6793340', 'http://www.wikidata.org/entity/Q6846424', 'http://www.wikidata.org/entity/Q7052586', 'http://www.wikidata.org/entity/Q7087874', 'http://www.wikidata.org/entity/Q7183918', 'http://www.wikidata.org/entity/Q7298839', 'http://www.wikidata.org/entity/Q99731455', 'http://www.wikidata.org/entity/Q101114845', 'http://www.wikidata.org/entity/Q101428268', 'http://www.wikidata.org/entity/Q106205227', 'http://www.wikidata.org/entity/Q106689756', 'http://www.wikidata.org/entity/Q106959617', 'http://www.wikidata.org/entity/Q107406319', 'http://www.wikidata.org/entity/Q107655857', 'http://www.wikidata.org/entity/Q109554339', 'http://www.wikidata.org/entity/Q109554543', 'http://www.wikidata.org/entity/Q109555192', 'http://www.wikidata.org/entity/Q112135459', 'http://www.wikidata.org/entity/Q121167557', 'http://www.wikidata.org/entity/Q122332851', 'http://www.wikidata.org/entity/Q122474625', 'http://www.wikidata.org/entity/Q122910179', 'http://www.wikidata.org/entity/Q123200520', 'http://www.wikidata.org/entity/Q124037701', 'http://www.wikidata.org/entity/Q124463256', 'http://www.wikidata.org/entity/Q1267291', 'http://www.wikidata.org/entity/Q1282503', 'http://www.wikidata.org/entity/Q1314051', 'http://www.wikidata.org/entity/Q1318323', 'http://www.wikidata.org/entity/Q1332284', 'http://www.wikidata.org/entity/Q1346808', 'http://www.wikidata.org/entity/Q1349008', 'http://www.wikidata.org/entity/Q1350269', 'http://www.wikidata.org/entity/Q1361982', 'http://www.wikidata.org/entity/Q1364120', 'http://www.wikidata.org/entity/Q1412239', 'http://www.wikidata.org/entity/Q1440487', 'http://www.wikidata.org/entity/Q1452661', 'http://www.wikidata.org/entity/Q1453559', 'http://www.wikidata.org/entity/Q1454645', 'http://www.wikidata.org/entity/Q1468204', 'http://www.wikidata.org/entity/Q1495388', 'http://www.wikidata.org/entity/Q1523174', 'http://www.wikidata.org/entity/Q1535887', 'http://www.wikidata.org/entity/Q1558930', 'http://www.wikidata.org/entity/Q1558978', 'http://www.wikidata.org/entity/Q1583816', 'http://www.wikidata.org/entity/Q1604148', 'http://www.wikidata.org/entity/Q1607887', 'http://www.wikidata.org/entity/Q1622068', 'http://www.wikidata.org/entity/Q1678838', 'http://www.wikidata.org/entity/Q1679611', 'http://www.wikidata.org/entity/Q1680582', 'http://www.wikidata.org/entity/Q1682798', 'http://www.wikidata.org/entity/Q1687893', 'http://www.wikidata.org/entity/Q1689205', 'http://www.wikidata.org/entity/Q1689925', 'http://www.wikidata.org/entity/Q1701748', 'http://www.wikidata.org/entity/Q1704053', 'http://www.wikidata.org/entity/Q1729145', 'http://www.wikidata.org/entity/Q1729163', 'http://www.wikidata.org/entity/Q1730938', 'http://www.wikidata.org/entity/Q1738588', 'http://www.wikidata.org/entity/Q1738949', 'http://www.wikidata.org/entity/Q1770558', 'http://www.wikidata.org/entity/Q1795197', 'http://www.wikidata.org/entity/Q1806037', 'http://www.wikidata.org/entity/Q1820504', 'http://www.wikidata.org/entity/Q1822323', 'http://www.wikidata.org/entity/Q1844485', 'http://www.wikidata.org/entity/Q1852290', 'http://www.wikidata.org/entity/Q1872759', 'http://www.wikidata.org/entity/Q1873386', 'http://www.wikidata.org/entity/Q1886030', 'http://www.wikidata.org/entity/Q1897498', 'http://www.wikidata.org/entity/Q1902146', 'http://www.wikidata.org/entity/Q1902333', 'http://www.wikidata.org/entity/Q1903602', 'http://www.wikidata.org/entity/Q1912807', 'http://www.wikidata.org/entity/Q1917265', 'http://www.wikidata.org/entity/Q1917393', 'http://www.wikidata.org/entity/Q1935815', 'http://www.wikidata.org/entity/Q1952063', 'http://www.wikidata.org/entity/Q1966469', 'http://www.wikidata.org/entity/Q1971146', 'http://www.wikidata.org/entity/Q1997017', 'http://www.wikidata.org/entity/Q2002094', 'http://www.wikidata.org/entity/Q2018006', 'http://www.wikidata.org/entity/Q2018624', 'http://www.wikidata.org/entity/Q2033376', 'http://www.wikidata.org/entity/Q2041252', 'http://www.wikidata.org/entity/Q2051847', 'http://www.wikidata.org/entity/Q2061143', 'http://www.wikidata.org/entity/Q2065647', 'http://www.wikidata.org/entity/Q2071995', 'http://www.wikidata.org/entity/Q2075755', 'http://www.wikidata.org/entity/Q2113826', 'http://www.wikidata.org/entity/Q2114588', 'http://www.wikidata.org/entity/Q2131475', 'http://www.wikidata.org/entity/Q2134409', 'http://www.wikidata.org/entity/Q2160123', 'http://www.wikidata.org/entity/Q2160443', 'http://www.wikidata.org/entity/Q2178215', 'http://www.wikidata.org/entity/Q2204603', 'http://www.wikidata.org/entity/Q2205004', 'http://www.wikidata.org/entity/Q2212853', 'http://www.wikidata.org/entity/Q2215501', 'http://www.wikidata.org/entity/Q2216444', 'http://www.wikidata.org/entity/Q2223014', 'http://www.wikidata.org/entity/Q2231142', 'http://www.wikidata.org/entity/Q2237290', 'http://www.wikidata.org/entity/Q2249186', 'http://www.wikidata.org/entity/Q2265140', 'http://www.wikidata.org/entity/Q2269117', 'http://www.wikidata.org/entity/Q2281105', 'http://www.wikidata.org/entity/Q2282012', 'http://www.wikidata.org/entity/Q2296396', 'http://www.wikidata.org/entity/Q2299727', 'http://www.wikidata.org/entity/Q2301899', 'http://www.wikidata.org/entity/Q2302261', 'http://www.wikidata.org/entity/Q2308068', 'http://www.wikidata.org/entity/Q2317152', 'http://www.wikidata.org/entity/Q2333645', 'http://www.wikidata.org/entity/Q2346719', 'http://www.wikidata.org/entity/Q2347504', 'http://www.wikidata.org/entity/Q2350926', 'http://www.wikidata.org/entity/Q2351608', 'http://www.wikidata.org/entity/Q2373687', 'http://www.wikidata.org/entity/Q2388958', 'http://www.wikidata.org/entity/Q2389118', 'http://www.wikidata.org/entity/Q2389720', 'http://www.wikidata.org/entity/Q2396601', 'http://www.wikidata.org/entity/Q2398731', 'http://www.wikidata.org/entity/Q2401961', 'http://www.wikidata.org/entity/Q2405288', 'http://www.wikidata.org/entity/Q2434943', 'http://www.wikidata.org/entity/Q2444116', 'http://www.wikidata.org/entity/Q2452107', 'http://www.wikidata.org/entity/Q2461095', 'http://www.wikidata.org/entity/Q2498692', 'http://www.wikidata.org/entity/Q2524882', 'http://www.wikidata.org/entity/Q2545432', 'http://www.wikidata.org/entity/Q2555494', 'http://www.wikidata.org/entity/Q2585526', 'http://www.wikidata.org/entity/Q2589470', 'http://www.wikidata.org/entity/Q2597090', 'http://www.wikidata.org/entity/Q2602149', 'http://www.wikidata.org/entity/Q2605389', 'http://www.wikidata.org/entity/Q2614369', 'http://www.wikidata.org/entity/Q2618892', 'http://www.wikidata.org/entity/Q2620075', 'http://www.wikidata.org/entity/Q2645829', 'http://www.wikidata.org/entity/Q2658419', 'http://www.wikidata.org/entity/Q2660295', 'http://www.wikidata.org/entity/Q2666889', 'http://www.wikidata.org/entity/Q2676832', 'http://www.wikidata.org/entity/Q2686509', 'http://www.wikidata.org/entity/Q2689866', 'http://www.wikidata.org/entity/Q2723748', 'http://www.wikidata.org/entity/Q2732134', 'http://www.wikidata.org/entity/Q2738133', 'http://www.wikidata.org/entity/Q2750590', 'http://www.wikidata.org/entity/Q2781380', 'http://www.wikidata.org/entity/Q2805529', 'http://www.wikidata.org/entity/Q2850896', 'http://www.wikidata.org/entity/Q2916457', 'http://www.wikidata.org/entity/Q2951433', 'http://www.wikidata.org/entity/Q3026768', 'http://www.wikidata.org/entity/Q3144611', 'http://www.wikidata.org/entity/Q3196381', 'http://www.wikidata.org/entity/Q3209874', 'http://www.wikidata.org/entity/Q3219391', 'http://www.wikidata.org/entity/Q3289097', 'http://www.wikidata.org/entity/Q3296667', 'http://www.wikidata.org/entity/Q3317466', 'http://www.wikidata.org/entity/Q3330992', 'http://www.wikidata.org/entity/Q3367630', 'http://www.wikidata.org/entity/Q3514155', 'http://www.wikidata.org/entity/Q3521902', 'http://www.wikidata.org/entity/Q3534050', 'http://www.wikidata.org/entity/Q3562367', 'http://www.wikidata.org/entity/Q3705319', 'http://www.wikidata.org/entity/Q3754332', 'http://www.wikidata.org/entity/Q3762145', 'http://www.wikidata.org/entity/Q3767568', 'http://www.wikidata.org/entity/Q3837619', 'http://www.wikidata.org/entity/Q3919987', 'http://www.wikidata.org/entity/Q3929797', 'http://www.wikidata.org/entity/Q3973394', 'http://www.wikidata.org/entity/Q4102218', 'http://www.wikidata.org/entity/Q4111188', 'http://www.wikidata.org/entity/Q4112047', 'http://www.wikidata.org/entity/Q4188447', 'http://www.wikidata.org/entity/Q4192381', 'http://www.wikidata.org/entity/Q4212029', 'http://www.wikidata.org/entity/Q4216887', 'http://www.wikidata.org/entity/Q4226412', 'http://www.wikidata.org/entity/Q4251281', 'http://www.wikidata.org/entity/Q4252138', 'http://www.wikidata.org/entity/Q4347263', 'http://www.wikidata.org/entity/Q4347986', 'http://www.wikidata.org/entity/Q4349639', 'http://www.wikidata.org/entity/Q4351622', 'http://www.wikidata.org/entity/Q4377045', 'http://www.wikidata.org/entity/Q4401249', 'http://www.wikidata.org/entity/Q4464127', 'http://www.wikidata.org/entity/Q4502786', 'http://www.wikidata.org/entity/Q4760598', 'http://www.wikidata.org/entity/Q4765639', 'http://www.wikidata.org/entity/Q4767267', 'http://www.wikidata.org/entity/Q4797599', 'http://www.wikidata.org/entity/Q4833896', 'http://www.wikidata.org/entity/Q4887822', 'http://www.wikidata.org/entity/Q4889351', 'http://www.wikidata.org/entity/Q4889942', 'http://www.wikidata.org/entity/Q4911881', 'http://www.wikidata.org/entity/Q4956069', 'http://www.wikidata.org/entity/Q5202535', 'http://www.wikidata.org/entity/Q5214487', 'http://www.wikidata.org/entity/Q5235139', 'http://www.wikidata.org/entity/Q5240601', 'http://www.wikidata.org/entity/Q5246126', 'http://www.wikidata.org/entity/Q5263018', 'http://www.wikidata.org/entity/Q5290919', 'http://www.wikidata.org/entity/Q5392650', 'http://www.wikidata.org/entity/Q5394010', 'http://www.wikidata.org/entity/Q5394507', 'http://www.wikidata.org/entity/Q5490378', 'http://www.wikidata.org/entity/Q5525190', 'http://www.wikidata.org/entity/Q5528172', 'http://www.wikidata.org/entity/Q5531061', 'http://www.wikidata.org/entity/Q5560464', 'http://www.wikidata.org/entity/Q13429127', 'http://www.wikidata.org/entity/Q13430549', 'http://www.wikidata.org/entity/Q13430599', 'http://www.wikidata.org/entity/Q13578525', 'http://www.wikidata.org/entity/Q13621967', 'http://www.wikidata.org/entity/Q13637576', 'http://www.wikidata.org/entity/Q13637684', 'http://www.wikidata.org/entity/Q13642623', 'http://www.wikidata.org/entity/Q13735676', 'http://www.wikidata.org/entity/Q13748173', 'http://www.wikidata.org/entity/Q13749321', 'http://www.wikidata.org/entity/Q13818959', 'http://www.wikidata.org/entity/Q14084087', 'http://www.wikidata.org/entity/Q14252911', 'http://www.wikidata.org/entity/Q14282663', 'http://www.wikidata.org/entity/Q14514707', 'http://www.wikidata.org/entity/Q14545268', 'http://www.wikidata.org/entity/Q14625857', 'http://www.wikidata.org/entity/Q14855238', 'http://www.wikidata.org/entity/Q15065014', 'http://www.wikidata.org/entity/Q15434980', 'http://www.wikidata.org/entity/Q15485363', 'http://www.wikidata.org/entity/Q15485371', 'http://www.wikidata.org/entity/Q15663950', 'http://www.wikidata.org/entity/Q15782011', 'http://www.wikidata.org/entity/Q15831726', 'http://www.wikidata.org/entity/Q15831730', 'http://www.wikidata.org/entity/Q15831731', 'http://www.wikidata.org/entity/Q15831749', 'http://www.wikidata.org/entity/Q15838279', 'http://www.wikidata.org/entity/Q15838400', 'http://www.wikidata.org/entity/Q15838411', 'http://www.wikidata.org/entity/Q15838414', 'http://www.wikidata.org/entity/Q15838481', 'http://www.wikidata.org/entity/Q15963688', 'http://www.wikidata.org/entity/Q15977560', 'http://www.wikidata.org/entity/Q15982372', 'http://www.wikidata.org/entity/Q16017359', 'http://www.wikidata.org/entity/Q16090563', 'http://www.wikidata.org/entity/Q16179949', 'http://www.wikidata.org/entity/Q16560522', 'http://www.wikidata.org/entity/Q16948823', 'http://www.wikidata.org/entity/Q17302890', 'http://www.wikidata.org/entity/Q17302909', 'http://www.wikidata.org/entity/Q17306038', 'http://www.wikidata.org/entity/Q17621303', 'http://www.wikidata.org/entity/Q17630817', 'http://www.wikidata.org/entity/Q18028541', 'http://www.wikidata.org/entity/Q18596060', 'http://www.wikidata.org/entity/Q19561422', 'http://www.wikidata.org/entity/Q19787616', 'http://www.wikidata.org/entity/Q19965844', 'http://www.wikidata.org/entity/Q20065940', 'http://www.wikidata.org/entity/Q21069758', 'http://www.wikidata.org/entity/Q22077690', 'http://www.wikidata.org/entity/Q22958430', 'http://www.wikidata.org/entity/Q24004815', 'http://www.wikidata.org/entity/Q24545476', 'http://www.wikidata.org/entity/Q25016213', 'http://www.wikidata.org/entity/Q27349585', 'http://www.wikidata.org/entity/Q42786392', 'http://www.wikidata.org/entity/Q43191106', 'http://www.wikidata.org/entity/Q54912317', 'http://www.wikidata.org/entity/Q54957569', 'http://www.wikidata.org/entity/Q55226721', 'http://www.wikidata.org/entity/Q56414132', 'http://www.wikidata.org/entity/Q57941720', 'http://www.wikidata.org/entity/Q60642757', 'http://www.wikidata.org/entity/Q61816822', 'http://www.wikidata.org/entity/Q64860097', 'http://www.wikidata.org/entity/Q64936945', 'http://www.wikidata.org/entity/Q64949475', 'http://www.wikidata.org/entity/Q64985644', 'http://www.wikidata.org/entity/Q64993378', 'http://www.wikidata.org/entity/Q85974715', 'http://www.wikidata.org/entity/Q85974746', 'http://www.wikidata.org/entity/Q91232485', 'http://www.wikidata.org/entity/Q93487778', 'http://www.wikidata.org/entity/Q94689370', 'http://www.wikidata.org/entity/Q98308750', 'http://www.wikidata.org/entity/Q99438820']</t>
         </is>
       </c>
     </row>
@@ -1002,7 +1002,7 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>['http://www.wikidata.org/entity/Q41148']</t>
+          <t>['http://www.wikidata.org/entity/Q131868404', 'http://www.wikidata.org/entity/Q41148']</t>
         </is>
       </c>
     </row>
@@ -1024,7 +1024,7 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>['http://www.wikidata.org/entity/Q55075068', 'http://www.wikidata.org/entity/Q113572234', 'http://www.wikidata.org/entity/Q4064609', 'http://www.wikidata.org/entity/Q10534945', 'http://www.wikidata.org/entity/Q109996849']</t>
+          <t>['http://www.wikidata.org/entity/Q55075068', 'http://www.wikidata.org/entity/Q4064609', 'http://www.wikidata.org/entity/Q10534945', 'http://www.wikidata.org/entity/Q109996849', 'http://www.wikidata.org/entity/Q113572234']</t>
         </is>
       </c>
     </row>
@@ -1068,7 +1068,7 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>['http://www.wikidata.org/entity/Q132701', 'http://www.wikidata.org/entity/Q132723', 'http://www.wikidata.org/entity/Q133042', 'http://www.wikidata.org/entity/Q134641', 'http://www.wikidata.org/entity/Q134644', 'http://www.wikidata.org/entity/Q159552', 'http://www.wikidata.org/entity/Q160478', 'http://www.wikidata.org/entity/Q165823', 'http://www.wikidata.org/entity/Q222944', 'http://www.wikidata.org/entity/Q225554', 'http://www.wikidata.org/entity/Q226525', 'http://www.wikidata.org/entity/Q234819', 'http://www.wikidata.org/entity/Q241248', 'http://www.wikidata.org/entity/Q254032', 'http://www.wikidata.org/entity/Q272855', 'http://www.wikidata.org/entity/Q274334', 'http://www.wikidata.org/entity/Q317877', 'http://www.wikidata.org/entity/Q443868', 'http://www.wikidata.org/entity/Q1153825', 'http://www.wikidata.org/entity/Q2344210', 'http://www.wikidata.org/entity/Q5646626', 'http://www.wikidata.org/entity/Q392', 'http://www.wikidata.org/entity/Q765', 'http://www.wikidata.org/entity/Q862', 'http://www.wikidata.org/entity/Q1403', 'http://www.wikidata.org/entity/Q5878', 'http://www.wikidata.org/entity/Q6538', 'http://www.wikidata.org/entity/Q7176', 'http://www.wikidata.org/entity/Q7241', 'http://www.wikidata.org/entity/Q7728', 'http://www.wikidata.org/entity/Q8998', 'http://www.wikidata.org/entity/Q9364', 'http://www.wikidata.org/entity/Q18143', 'http://www.wikidata.org/entity/Q23434', 'http://www.wikidata.org/entity/Q25351', 'http://www.wikidata.org/entity/Q25973', 'http://www.wikidata.org/entity/Q33760', 'http://www.wikidata.org/entity/Q34189', 'http://www.wikidata.org/entity/Q34474', 'http://www.wikidata.org/entity/Q34670', 'http://www.wikidata.org/entity/Q34743', 'http://www.wikidata.org/entity/Q37030', 'http://www.wikidata.org/entity/Q37060', 'http://www.wikidata.org/entity/Q37327', 'http://www.wikidata.org/entity/Q37767', 'http://www.wikidata.org/entity/Q38049', 'http://www.wikidata.org/entity/Q38392', 'http://www.wikidata.org/entity/Q39212', 'http://www.wikidata.org/entity/Q39803', 'http://www.wikidata.org/entity/Q40213', 'http://www.wikidata.org/entity/Q40826', 'http://www.wikidata.org/entity/Q40874', 'http://www.wikidata.org/entity/Q41042', 'http://www.wikidata.org/entity/Q41223', 'http://www.wikidata.org/entity/Q41488', 'http://www.wikidata.org/entity/Q41502', 'http://www.wikidata.org/entity/Q42037', 'http://www.wikidata.org/entity/Q42122', 'http://www.wikidata.org/entity/Q42156', 'http://www.wikidata.org/entity/Q42247', 'http://www.wikidata.org/entity/Q42398', 'http://www.wikidata.org/entity/Q42443', 'http://www.wikidata.org/entity/Q42552', 'http://www.wikidata.org/entity/Q42596', 'http://www.wikidata.org/entity/Q42747', 'http://www.wikidata.org/entity/Q43293', 'http://www.wikidata.org/entity/Q43440', 'http://www.wikidata.org/entity/Q43523', 'http://www.wikidata.org/entity/Q43736', 'http://www.wikidata.org/entity/Q44107', 'http://www.wikidata.org/entity/Q44183', 'http://www.wikidata.org/entity/Q44519', 'http://www.wikidata.org/entity/Q44593', 'http://www.wikidata.org/entity/Q45970', 'http://www.wikidata.org/entity/Q46405', 'http://www.wikidata.org/entity/Q46602', 'http://www.wikidata.org/entity/Q46739', 'http://www.wikidata.org/entity/Q47162', 'http://www.wikidata.org/entity/Q47243', 'http://www.wikidata.org/entity/Q47484', 'http://www.wikidata.org/entity/Q47561', 'http://www.wikidata.org/entity/Q47619', 'http://www.wikidata.org/entity/Q47695', 'http://www.wikidata.org/entity/Q47755', 'http://www.wikidata.org/entity/Q49747', 'http://www.wikidata.org/entity/Q57074', 'http://www.wikidata.org/entity/Q72334', 'http://www.wikidata.org/entity/Q75603', 'http://www.wikidata.org/entity/Q75612', 'http://www.wikidata.org/entity/Q76487', 'http://www.wikidata.org/entity/Q80064', 'http://www.wikidata.org/entity/Q80095', 'http://www.wikidata.org/entity/Q80321', 'http://www.wikidata.org/entity/Q80871', 'http://www.wikidata.org/entity/Q80889', 'http://www.wikidata.org/entity/Q80900', 'http://www.wikidata.org/entity/Q81685', 'http://www.wikidata.org/entity/Q82248', 'http://www.wikidata.org/entity/Q83038', 'http://www.wikidata.org/entity/Q83059', 'http://www.wikidata.org/entity/Q83184', 'http://www.wikidata.org/entity/Q93137', 'http://www.wikidata.org/entity/Q93157', 'http://www.wikidata.org/entity/Q93356', 'http://www.wikidata.org/entity/Q102483', 'http://www.wikidata.org/entity/Q121180', 'http://www.wikidata.org/entity/Q123469', 'http://www.wikidata.org/entity/Q127349', 'http://www.wikidata.org/entity/Q129155', 'http://www.wikidata.org/entity/Q129173', 'http://www.wikidata.org/entity/Q129187', 'http://www.wikidata.org/entity/Q131318', 'http://www.wikidata.org/entity/Q131326', 'http://www.wikidata.org/entity/Q131487', 'http://www.wikidata.org/entity/Q131549', 'http://www.wikidata.org/entity/Q132589', 'http://www.wikidata.org/entity/Q132684', 'http://www.wikidata.org/entity/Q132695']</t>
+          <t>['http://www.wikidata.org/entity/Q132701', 'http://www.wikidata.org/entity/Q132723', 'http://www.wikidata.org/entity/Q133042', 'http://www.wikidata.org/entity/Q134641', 'http://www.wikidata.org/entity/Q134644', 'http://www.wikidata.org/entity/Q159552', 'http://www.wikidata.org/entity/Q160478', 'http://www.wikidata.org/entity/Q165823', 'http://www.wikidata.org/entity/Q222944', 'http://www.wikidata.org/entity/Q225554', 'http://www.wikidata.org/entity/Q226525', 'http://www.wikidata.org/entity/Q234819', 'http://www.wikidata.org/entity/Q241248', 'http://www.wikidata.org/entity/Q254032', 'http://www.wikidata.org/entity/Q272855', 'http://www.wikidata.org/entity/Q274334', 'http://www.wikidata.org/entity/Q317877', 'http://www.wikidata.org/entity/Q443868', 'http://www.wikidata.org/entity/Q1153825', 'http://www.wikidata.org/entity/Q2344210', 'http://www.wikidata.org/entity/Q5646626', 'http://www.wikidata.org/entity/Q392', 'http://www.wikidata.org/entity/Q765', 'http://www.wikidata.org/entity/Q862', 'http://www.wikidata.org/entity/Q1403', 'http://www.wikidata.org/entity/Q5878', 'http://www.wikidata.org/entity/Q7176', 'http://www.wikidata.org/entity/Q7241', 'http://www.wikidata.org/entity/Q7728', 'http://www.wikidata.org/entity/Q8998', 'http://www.wikidata.org/entity/Q9364', 'http://www.wikidata.org/entity/Q18143', 'http://www.wikidata.org/entity/Q23434', 'http://www.wikidata.org/entity/Q25351', 'http://www.wikidata.org/entity/Q25973', 'http://www.wikidata.org/entity/Q33760', 'http://www.wikidata.org/entity/Q34189', 'http://www.wikidata.org/entity/Q34474', 'http://www.wikidata.org/entity/Q34670', 'http://www.wikidata.org/entity/Q34743', 'http://www.wikidata.org/entity/Q37030', 'http://www.wikidata.org/entity/Q37060', 'http://www.wikidata.org/entity/Q37327', 'http://www.wikidata.org/entity/Q37767', 'http://www.wikidata.org/entity/Q38049', 'http://www.wikidata.org/entity/Q38392', 'http://www.wikidata.org/entity/Q39212', 'http://www.wikidata.org/entity/Q39803', 'http://www.wikidata.org/entity/Q40213', 'http://www.wikidata.org/entity/Q40826', 'http://www.wikidata.org/entity/Q40874', 'http://www.wikidata.org/entity/Q41042', 'http://www.wikidata.org/entity/Q41223', 'http://www.wikidata.org/entity/Q41488', 'http://www.wikidata.org/entity/Q41502', 'http://www.wikidata.org/entity/Q42037', 'http://www.wikidata.org/entity/Q42122', 'http://www.wikidata.org/entity/Q42156', 'http://www.wikidata.org/entity/Q42247', 'http://www.wikidata.org/entity/Q42398', 'http://www.wikidata.org/entity/Q42443', 'http://www.wikidata.org/entity/Q42552', 'http://www.wikidata.org/entity/Q42596', 'http://www.wikidata.org/entity/Q42747', 'http://www.wikidata.org/entity/Q43293', 'http://www.wikidata.org/entity/Q43440', 'http://www.wikidata.org/entity/Q43523', 'http://www.wikidata.org/entity/Q43736', 'http://www.wikidata.org/entity/Q44107', 'http://www.wikidata.org/entity/Q44183', 'http://www.wikidata.org/entity/Q44519', 'http://www.wikidata.org/entity/Q44593', 'http://www.wikidata.org/entity/Q45970', 'http://www.wikidata.org/entity/Q46405', 'http://www.wikidata.org/entity/Q46602', 'http://www.wikidata.org/entity/Q46739', 'http://www.wikidata.org/entity/Q47162', 'http://www.wikidata.org/entity/Q47243', 'http://www.wikidata.org/entity/Q47484', 'http://www.wikidata.org/entity/Q47561', 'http://www.wikidata.org/entity/Q47619', 'http://www.wikidata.org/entity/Q47695', 'http://www.wikidata.org/entity/Q47755', 'http://www.wikidata.org/entity/Q49747', 'http://www.wikidata.org/entity/Q57074', 'http://www.wikidata.org/entity/Q72334', 'http://www.wikidata.org/entity/Q75603', 'http://www.wikidata.org/entity/Q75612', 'http://www.wikidata.org/entity/Q76487', 'http://www.wikidata.org/entity/Q80064', 'http://www.wikidata.org/entity/Q80095', 'http://www.wikidata.org/entity/Q80321', 'http://www.wikidata.org/entity/Q80871', 'http://www.wikidata.org/entity/Q80889', 'http://www.wikidata.org/entity/Q80900', 'http://www.wikidata.org/entity/Q81685', 'http://www.wikidata.org/entity/Q82248', 'http://www.wikidata.org/entity/Q83038', 'http://www.wikidata.org/entity/Q83059', 'http://www.wikidata.org/entity/Q83184', 'http://www.wikidata.org/entity/Q93137', 'http://www.wikidata.org/entity/Q93157', 'http://www.wikidata.org/entity/Q93356', 'http://www.wikidata.org/entity/Q102483', 'http://www.wikidata.org/entity/Q121180', 'http://www.wikidata.org/entity/Q123469', 'http://www.wikidata.org/entity/Q127349', 'http://www.wikidata.org/entity/Q129155', 'http://www.wikidata.org/entity/Q129173', 'http://www.wikidata.org/entity/Q129187', 'http://www.wikidata.org/entity/Q131318', 'http://www.wikidata.org/entity/Q131326', 'http://www.wikidata.org/entity/Q131487', 'http://www.wikidata.org/entity/Q131549', 'http://www.wikidata.org/entity/Q132589', 'http://www.wikidata.org/entity/Q132684', 'http://www.wikidata.org/entity/Q132695']</t>
         </is>
       </c>
     </row>
@@ -1090,7 +1090,7 @@
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>['http://www.wikidata.org/entity/Q250593', 'http://www.wikidata.org/entity/Q251472', 'http://www.wikidata.org/entity/Q251489', 'http://www.wikidata.org/entity/Q251507', 'http://www.wikidata.org/entity/Q251725', 'http://www.wikidata.org/entity/Q251812', 'http://www.wikidata.org/entity/Q252946', 'http://www.wikidata.org/entity/Q259401', 'http://www.wikidata.org/entity/Q264393', 'http://www.wikidata.org/entity/Q264533', 'http://www.wikidata.org/entity/Q266660', 'http://www.wikidata.org/entity/Q270947', 'http://www.wikidata.org/entity/Q270966', 'http://www.wikidata.org/entity/Q270975', 'http://www.wikidata.org/entity/Q270981', 'http://www.wikidata.org/entity/Q271933', 'http://www.wikidata.org/entity/Q273256', 'http://www.wikidata.org/entity/Q275148', 'http://www.wikidata.org/entity/Q275183', 'http://www.wikidata.org/entity/Q275332', 'http://www.wikidata.org/entity/Q275339', 'http://www.wikidata.org/entity/Q275762', 'http://www.wikidata.org/entity/Q275889', 'http://www.wikidata.org/entity/Q276907', 'http://www.wikidata.org/entity/Q277040', 'http://www.wikidata.org/entity/Q277780', 'http://www.wikidata.org/entity/Q278203', 'http://www.wikidata.org/entity/Q278594', 'http://www.wikidata.org/entity/Q280025', 'http://www.wikidata.org/entity/Q280437', 'http://www.wikidata.org/entity/Q182455', 'http://www.wikidata.org/entity/Q185268', 'http://www.wikidata.org/entity/Q189240', 'http://www.wikidata.org/entity/Q190152', 'http://www.wikidata.org/entity/Q193020', 'http://www.wikidata.org/entity/Q193052', 'http://www.wikidata.org/entity/Q193637', 'http://www.wikidata.org/entity/Q194772', 'http://www.wikidata.org/entity/Q197616', 'http://www.wikidata.org/entity/Q199896', 'http://www.wikidata.org/entity/Q201386', 'http://www.wikidata.org/entity/Q201608', 'http://www.wikidata.org/entity/Q202295', 'http://www.wikidata.org/entity/Q204285', 'http://www.wikidata.org/entity/Q205171', 'http://www.wikidata.org/entity/Q205735', 'http://www.wikidata.org/entity/Q205823', 'http://www.wikidata.org/entity/Q207033', 'http://www.wikidata.org/entity/Q208956', 'http://www.wikidata.org/entity/Q209368', 'http://www.wikidata.org/entity/Q209921', 'http://www.wikidata.org/entity/Q211876', 'http://www.wikidata.org/entity/Q217672', 'http://www.wikidata.org/entity/Q220565', 'http://www.wikidata.org/entity/Q222851', 'http://www.wikidata.org/entity/Q242185', 'http://www.wikidata.org/entity/Q245222', 'http://www.wikidata.org/entity/Q246067', 'http://www.wikidata.org/entity/Q246144', 'http://www.wikidata.org/entity/Q246372', 'http://www.wikidata.org/entity/Q247487', 'http://www.wikidata.org/entity/Q65594', 'http://www.wikidata.org/entity/Q66647', 'http://www.wikidata.org/entity/Q67709', 'http://www.wikidata.org/entity/Q67858', 'http://www.wikidata.org/entity/Q69225', 'http://www.wikidata.org/entity/Q70386', 'http://www.wikidata.org/entity/Q70486', 'http://www.wikidata.org/entity/Q70698', 'http://www.wikidata.org/entity/Q71045', 'http://www.wikidata.org/entity/Q71377', 'http://www.wikidata.org/entity/Q4332', 'http://www.wikidata.org/entity/Q4835', 'http://www.wikidata.org/entity/Q4836', 'http://www.wikidata.org/entity/Q24002', 'http://www.wikidata.org/entity/Q24178', 'http://www.wikidata.org/entity/Q25278', 'http://www.wikidata.org/entity/Q25515', 'http://www.wikidata.org/entity/Q28932', 'http://www.wikidata.org/entity/Q29336', 'http://www.wikidata.org/entity/Q29342', 'http://www.wikidata.org/entity/Q29545', 'http://www.wikidata.org/entity/Q29604', 'http://www.wikidata.org/entity/Q32187', 'http://www.wikidata.org/entity/Q36159', 'http://www.wikidata.org/entity/Q40444', 'http://www.wikidata.org/entity/Q40490', 'http://www.wikidata.org/entity/Q40657', 'http://www.wikidata.org/entity/Q42079', 'http://www.wikidata.org/entity/Q42255', 'http://www.wikidata.org/entity/Q42615', 'http://www.wikidata.org/entity/Q42656', 'http://www.wikidata.org/entity/Q42660', 'http://www.wikidata.org/entity/Q44068', 'http://www.wikidata.org/entity/Q44378', 'http://www.wikidata.org/entity/Q46125', 'http://www.wikidata.org/entity/Q47073', 'http://www.wikidata.org/entity/Q48830', 'http://www.wikidata.org/entity/Q48838', 'http://www.wikidata.org/entity/Q48842', 'http://www.wikidata.org/entity/Q48845', 'http://www.wikidata.org/entity/Q57596', 'http://www.wikidata.org/entity/Q58590', 'http://www.wikidata.org/entity/Q59547', 'http://www.wikidata.org/entity/Q60118', 'http://www.wikidata.org/entity/Q60478', 'http://www.wikidata.org/entity/Q61675', 'http://www.wikidata.org/entity/Q62735', 'http://www.wikidata.org/entity/Q62873', 'http://www.wikidata.org/entity/Q71591', 'http://www.wikidata.org/entity/Q72252', 'http://www.wikidata.org/entity/Q72285', 'http://www.wikidata.org/entity/Q72353', 'http://www.wikidata.org/entity/Q72849', 'http://www.wikidata.org/entity/Q73276', 'http://www.wikidata.org/entity/Q73827', 'http://www.wikidata.org/entity/Q73832', 'http://www.wikidata.org/entity/Q74005', 'http://www.wikidata.org/entity/Q74550', 'http://www.wikidata.org/entity/Q75135', 'http://www.wikidata.org/entity/Q76761', 'http://www.wikidata.org/entity/Q76765', 'http://www.wikidata.org/entity/Q77044', 'http://www.wikidata.org/entity/Q77165', 'http://www.wikidata.org/entity/Q82132', 'http://www.wikidata.org/entity/Q90164', 'http://www.wikidata.org/entity/Q90938', 'http://www.wikidata.org/entity/Q91060', 'http://www.wikidata.org/entity/Q91851', 'http://www.wikidata.org/entity/Q91859', 'http://www.wikidata.org/entity/Q93570', 'http://www.wikidata.org/entity/Q93587', 'http://www.wikidata.org/entity/Q94846', 'http://www.wikidata.org/entity/Q96481', 'http://www.wikidata.org/entity/Q96840', 'http://www.wikidata.org/entity/Q98594', 'http://www.wikidata.org/entity/Q98611', 'http://www.wikidata.org/entity/Q102955', 'http://www.wikidata.org/entity/Q104361', 'http://www.wikidata.org/entity/Q104375', 'http://www.wikidata.org/entity/Q106279', 'http://www.wikidata.org/entity/Q106451', 'http://www.wikidata.org/entity/Q108291', 'http://www.wikidata.org/entity/Q108333', 'http://www.wikidata.org/entity/Q111008', 'http://www.wikidata.org/entity/Q112435', 'http://www.wikidata.org/entity/Q112449', 'http://www.wikidata.org/entity/Q113569', 'http://www.wikidata.org/entity/Q113576', 'http://www.wikidata.org/entity/Q115629', 'http://www.wikidata.org/entity/Q115634', 'http://www.wikidata.org/entity/Q115722', 'http://www.wikidata.org/entity/Q115915', 'http://www.wikidata.org/entity/Q116037', 'http://www.wikidata.org/entity/Q116198', 'http://www.wikidata.org/entity/Q116254', 'http://www.wikidata.org/entity/Q116551', 'http://www.wikidata.org/entity/Q116699', 'http://www.wikidata.org/entity/Q118067', 'http://www.wikidata.org/entity/Q120098', 'http://www.wikidata.org/entity/Q121647', 'http://www.wikidata.org/entity/Q122952', 'http://www.wikidata.org/entity/Q123040', 'http://www.wikidata.org/entity/Q127561', 'http://www.wikidata.org/entity/Q128188', 'http://www.wikidata.org/entity/Q128530', 'http://www.wikidata.org/entity/Q129041', 'http://www.wikidata.org/entity/Q131942', 'http://www.wikidata.org/entity/Q132208', 'http://www.wikidata.org/entity/Q134183', 'http://www.wikidata.org/entity/Q135109', 'http://www.wikidata.org/entity/Q135167', 'http://www.wikidata.org/entity/Q137450', 'http://www.wikidata.org/entity/Q139376', 'http://www.wikidata.org/entity/Q142214', 'http://www.wikidata.org/entity/Q144703', 'http://www.wikidata.org/entity/Q145884', 'http://www.wikidata.org/entity/Q147900', 'http://www.wikidata.org/entity/Q150327', 'http://www.wikidata.org/entity/Q150510', 'http://www.wikidata.org/entity/Q151355', 'http://www.wikidata.org/entity/Q151553', 'http://www.wikidata.org/entity/Q163754', 'http://www.wikidata.org/entity/Q174067', 'http://www.wikidata.org/entity/Q175441', 'http://www.wikidata.org/entity/Q177151', 'http://www.wikidata.org/entity/Q179051', 'http://www.wikidata.org/entity/Q179906', 'http://www.wikidata.org/entity/Q180860', 'http://www.wikidata.org/entity/Q181491', 'http://www.wikidata.org/entity/Q703908', 'http://www.wikidata.org/entity/Q704642', 'http://www.wikidata.org/entity/Q705206', 'http://www.wikidata.org/entity/Q705209', 'http://www.wikidata.org/entity/Q705993', 'http://www.wikidata.org/entity/Q706052', 'http://www.wikidata.org/entity/Q706180', 'http://www.wikidata.org/entity/Q706771', 'http://www.wikidata.org/entity/Q707870', 'http://www.wikidata.org/entity/Q709054', 'http://www.wikidata.org/entity/Q710228', 'http://www.wikidata.org/entity/Q711177', 'http://www.wikidata.org/entity/Q714058', 'http://www.wikidata.org/entity/Q714191', 'http://www.wikidata.org/entity/Q714213', 'http://www.wikidata.org/entity/Q715618', 'http://www.wikidata.org/entity/Q715717', 'http://www.wikidata.org/entity/Q716025', 'http://www.wikidata.org/entity/Q716062', 'http://www.wikidata.org/entity/Q716066', 'http://www.wikidata.org/entity/Q716085', 'http://www.wikidata.org/entity/Q716093', 'http://www.wikidata.org/entity/Q716637', 'http://www.wikidata.org/entity/Q717054', 'http://www.wikidata.org/entity/Q717284', 'http://www.wikidata.org/entity/Q717335', 'http://www.wikidata.org/entity/Q717344', 'http://www.wikidata.org/entity/Q717532', 'http://www.wikidata.org/entity/Q717593', 'http://www.wikidata.org/entity/Q717793', 'http://www.wikidata.org/entity/Q717944', 'http://www.wikidata.org/entity/Q718789', 'http://www.wikidata.org/entity/Q719631', 'http://www.wikidata.org/entity/Q720679', 'http://www.wikidata.org/entity/Q720821', 'http://www.wikidata.org/entity/Q722629', 'http://www.wikidata.org/entity/Q725083', 'http://www.wikidata.org/entity/Q725886', 'http://www.wikidata.org/entity/Q726213', 'http://www.wikidata.org/entity/Q655613', 'http://www.wikidata.org/entity/Q656414', 'http://www.wikidata.org/entity/Q657876', 'http://www.wikidata.org/entity/Q658347', 'http://www.wikidata.org/entity/Q659886', 'http://www.wikidata.org/entity/Q660132', 'http://www.wikidata.org/entity/Q661226', 'http://www.wikidata.org/entity/Q662134', 'http://www.wikidata.org/entity/Q662773', 'http://www.wikidata.org/entity/Q663888', 'http://www.wikidata.org/entity/Q664243', 'http://www.wikidata.org/entity/Q665879', 'http://www.wikidata.org/entity/Q671294', 'http://www.wikidata.org/entity/Q672096', 'http://www.wikidata.org/entity/Q673384', 'http://www.wikidata.org/entity/Q676808', 'http://www.wikidata.org/entity/Q677332', 'http://www.wikidata.org/entity/Q679852', 'http://www.wikidata.org/entity/Q680038', 'http://www.wikidata.org/entity/Q681033', 'http://www.wikidata.org/entity/Q681243', 'http://www.wikidata.org/entity/Q681735', 'http://www.wikidata.org/entity/Q682139', 'http://www.wikidata.org/entity/Q682468', 'http://www.wikidata.org/entity/Q692580', 'http://www.wikidata.org/entity/Q693834', 'http://www.wikidata.org/entity/Q698125', 'http://www.wikidata.org/entity/Q726577', 'http://www.wikidata.org/entity/Q727048', 'http://www.wikidata.org/entity/Q732231', 'http://www.wikidata.org/entity/Q732350', 'http://www.wikidata.org/entity/Q732470', 'http://www.wikidata.org/entity/Q733261', 'http://www.wikidata.org/entity/Q733899', 'http://www.wikidata.org/entity/Q734538', 'http://www.wikidata.org/entity/Q734735', 'http://www.wikidata.org/entity/Q735251', 'http://www.wikidata.org/entity/Q736301', 'http://www.wikidata.org/entity/Q738690', 'http://www.wikidata.org/entity/Q739699', 'http://www.wikidata.org/entity/Q739832', 'http://www.wikidata.org/entity/Q740121', 'http://www.wikidata.org/entity/Q740175', 'http://www.wikidata.org/entity/Q740318', 'http://www.wikidata.org/entity/Q741055', 'http://www.wikidata.org/entity/Q741102', 'http://www.wikidata.org/entity/Q741278', 'http://www.wikidata.org/entity/Q741417', 'http://www.wikidata.org/entity/Q741842', 'http://www.wikidata.org/entity/Q742104', 'http://www.wikidata.org/entity/Q742119', 'http://www.wikidata.org/entity/Q743850', 'http://www.wikidata.org/entity/Q744851', 'http://www.wikidata.org/entity/Q744920', 'http://www.wikidata.org/entity/Q745367', 'http://www.wikidata.org/entity/Q745776', 'http://www.wikidata.org/entity/Q746616', 'http://www.wikidata.org/entity/Q749008', 'http://www.wikidata.org/entity/Q751049', 'http://www.wikidata.org/entity/Q751413', 'http://www.wikidata.org/entity/Q761392', 'http://www.wikidata.org/entity/Q763614', 'http://www.wikidata.org/entity/Q764756', 'http://www.wikidata.org/entity/Q764964', 'http://www.wikidata.org/entity/Q280793', 'http://www.wikidata.org/entity/Q282322', 'http://www.wikidata.org/entity/Q282811', 'http://www.wikidata.org/entity/Q284176', 'http://www.wikidata.org/entity/Q286765', 'http://www.wikidata.org/entity/Q287176', 'http://www.wikidata.org/entity/Q288853', 'http://www.wikidata.org/entity/Q289398', 'http://www.wikidata.org/entity/Q294004', 'http://www.wikidata.org/entity/Q294788', 'http://www.wikidata.org/entity/Q295322', 'http://www.wikidata.org/entity/Q295340', 'http://www.wikidata.org/entity/Q295364', 'http://www.wikidata.org/entity/Q295521', 'http://www.wikidata.org/entity/Q296403', 'http://www.wikidata.org/entity/Q297146', 'http://www.wikidata.org/entity/Q297221', 'http://www.wikidata.org/entity/Q297474', 'http://www.wikidata.org/entity/Q297750', 'http://www.wikidata.org/entity/Q298981', 'http://www.wikidata.org/entity/Q301863', 'http://www.wikidata.org/entity/Q302068', 'http://www.wikidata.org/entity/Q302777', 'http://www.wikidata.org/entity/Q304473', 'http://www.wikidata.org/entity/Q305510', 'http://www.wikidata.org/entity/Q306553', 'http://www.wikidata.org/entity/Q309783', 'http://www.wikidata.org/entity/Q310281', 'http://www.wikidata.org/entity/Q310411', 'http://www.wikidata.org/entity/Q310968', 'http://www.wikidata.org/entity/Q311533', 'http://www.wikidata.org/entity/Q311546', 'http://www.wikidata.org/entity/Q311735', 'http://www.wikidata.org/entity/Q311869', 'http://www.wikidata.org/entity/Q311895', 'http://www.wikidata.org/entity/Q313389', 'http://www.wikidata.org/entity/Q313479', 'http://www.wikidata.org/entity/Q313481', 'http://www.wikidata.org/entity/Q313487', 'http://www.wikidata.org/entity/Q313499', 'http://www.wikidata.org/entity/Q313622', 'http://www.wikidata.org/entity/Q314071', 'http://www.wikidata.org/entity/Q314185', 'http://www.wikidata.org/entity/Q314415', 'http://www.wikidata.org/entity/Q314614', 'http://www.wikidata.org/entity/Q314822', 'http://www.wikidata.org/entity/Q316179', 'http://www.wikidata.org/entity/Q316243', 'http://www.wikidata.org/entity/Q316246', 'http://www.wikidata.org/entity/Q316253', 'http://www.wikidata.org/entity/Q316258', 'http://www.wikidata.org/entity/Q316256', 'http://www.wikidata.org/entity/Q316261', 'http://www.wikidata.org/entity/Q316336', 'http://www.wikidata.org/entity/Q316577', 'http://www.wikidata.org/entity/Q316580', 'http://www.wikidata.org/entity/Q317008', 'http://www.wikidata.org/entity/Q317037', 'http://www.wikidata.org/entity/Q317045', 'http://www.wikidata.org/entity/Q317065', 'http://www.wikidata.org/entity/Q317209', 'http://www.wikidata.org/entity/Q317527', 'http://www.wikidata.org/entity/Q317583', 'http://www.wikidata.org/entity/Q318916', 'http://www.wikidata.org/entity/Q318926', 'http://www.wikidata.org/entity/Q318929', 'http://www.wikidata.org/entity/Q319313', 'http://www.wikidata.org/entity/Q319614', 'http://www.wikidata.org/entity/Q324225', 'http://www.wikidata.org/entity/Q324842', 'http://www.wikidata.org/entity/Q325252', 'http://www.wikidata.org/entity/Q325977', 'http://www.wikidata.org/entity/Q326355', 'http://www.wikidata.org/entity/Q326861', 'http://www.wikidata.org/entity/Q327973', 'http://www.wikidata.org/entity/Q329180', 'http://www.wikidata.org/entity/Q329374', 'http://www.wikidata.org/entity/Q330794', 'http://www.wikidata.org/entity/Q331313', 'http://www.wikidata.org/entity/Q331358', 'http://www.wikidata.org/entity/Q334470', 'http://www.wikidata.org/entity/Q336503', 'http://www.wikidata.org/entity/Q337729', 'http://www.wikidata.org/entity/Q338895', 'http://www.wikidata.org/entity/Q339744', 'http://www.wikidata.org/entity/Q339988', 'http://www.wikidata.org/entity/Q344531', 'http://www.wikidata.org/entity/Q348734', 'http://www.wikidata.org/entity/Q348994', 'http://www.wikidata.org/entity/Q349755', 'http://www.wikidata.org/entity/Q350464', 'http://www.wikidata.org/entity/Q351032', 'http://www.wikidata.org/entity/Q352064', 'http://www.wikidata.org/entity/Q352073', 'http://www.wikidata.org/entity/Q352110', 'http://www.wikidata.org/entity/Q352114', 'http://www.wikidata.org/entity/Q352140', 'http://www.wikidata.org/entity/Q352145', 'http://www.wikidata.org/entity/Q352168', 'http://www.wikidata.org/entity/Q1408291', 'http://www.wikidata.org/entity/Q1413920', 'http://www.wikidata.org/entity/Q1421720', 'http://www.wikidata.org/entity/Q1422575', 'http://www.wikidata.org/entity/Q1424128', 'http://www.wikidata.org/entity/Q1424134', 'http://www.wikidata.org/entity/Q1424165', 'http://www.wikidata.org/entity/Q1424414', 'http://www.wikidata.org/entity/Q1424455', 'http://www.wikidata.org/entity/Q1424462', 'http://www.wikidata.org/entity/Q1424475', 'http://www.wikidata.org/entity/Q1424495', 'http://www.wikidata.org/entity/Q1424502', 'http://www.wikidata.org/entity/Q1429702', 'http://www.wikidata.org/entity/Q1432596', 'http://www.wikidata.org/entity/Q1435883', 'http://www.wikidata.org/entity/Q1438347', 'http://www.wikidata.org/entity/Q1438348', 'http://www.wikidata.org/entity/Q1439529', 'http://www.wikidata.org/entity/Q1439541', 'http://www.wikidata.org/entity/Q1440606', 'http://www.wikidata.org/entity/Q1441343', 'http://www.wikidata.org/entity/Q1441397', 'http://www.wikidata.org/entity/Q1441492', 'http://www.wikidata.org/entity/Q1441499', 'http://www.wikidata.org/entity/Q1442053', 'http://www.wikidata.org/entity/Q1442329', 'http://www.wikidata.org/entity/Q1444910', 'http://www.wikidata.org/entity/Q1444934', 'http://www.wikidata.org/entity/Q1445196', 'http://www.wikidata.org/entity/Q1445455', 'http://www.wikidata.org/entity/Q1445762', 'http://www.wikidata.org/entity/Q1445827', 'http://www.wikidata.org/entity/Q1449836', 'http://www.wikidata.org/entity/Q1449882', 'http://www.wikidata.org/entity/Q1452892', 'http://www.wikidata.org/entity/Q1453383', 'http://www.wikidata.org/entity/Q1353620', 'http://www.wikidata.org/entity/Q1355070', 'http://www.wikidata.org/entity/Q1356519', 'http://www.wikidata.org/entity/Q1358452', 'http://www.wikidata.org/entity/Q1359588', 'http://www.wikidata.org/entity/Q1361081', 'http://www.wikidata.org/entity/Q1362580', 'http://www.wikidata.org/entity/Q1362664', 'http://www.wikidata.org/entity/Q1362904', 'http://www.wikidata.org/entity/Q1363177', 'http://www.wikidata.org/entity/Q1363787', 'http://www.wikidata.org/entity/Q1363884', 'http://www.wikidata.org/entity/Q1363974', 'http://www.wikidata.org/entity/Q1364009', 'http://www.wikidata.org/entity/Q1364223', 'http://www.wikidata.org/entity/Q1365630', 'http://www.wikidata.org/entity/Q1365645', 'http://www.wikidata.org/entity/Q1366501', 'http://www.wikidata.org/entity/Q1370831', 'http://www.wikidata.org/entity/Q1370925', 'http://www.wikidata.org/entity/Q1371485', 'http://www.wikidata.org/entity/Q1373712', 'http://www.wikidata.org/entity/Q1375950', 'http://www.wikidata.org/entity/Q1377443', 'http://www.wikidata.org/entity/Q1380489', 'http://www.wikidata.org/entity/Q1380719', 'http://www.wikidata.org/entity/Q1381445', 'http://www.wikidata.org/entity/Q1381732', 'http://www.wikidata.org/entity/Q1387820', 'http://www.wikidata.org/entity/Q1390262', 'http://www.wikidata.org/entity/Q1392517', 'http://www.wikidata.org/entity/Q1393378', 'http://www.wikidata.org/entity/Q1393433', 'http://www.wikidata.org/entity/Q1398536', 'http://www.wikidata.org/entity/Q1401783', 'http://www.wikidata.org/entity/Q1406261', 'http://www.wikidata.org/entity/Q1407902', 'http://www.wikidata.org/entity/Q577502', 'http://www.wikidata.org/entity/Q577516', 'http://www.wikidata.org/entity/Q580031', 'http://www.wikidata.org/entity/Q580435', 'http://www.wikidata.org/entity/Q581572', 'http://www.wikidata.org/entity/Q582252', 'http://www.wikidata.org/entity/Q582337', 'http://www.wikidata.org/entity/Q582831', 'http://www.wikidata.org/entity/Q583719', 'http://www.wikidata.org/entity/Q583966', 'http://www.wikidata.org/entity/Q584520', 'http://www.wikidata.org/entity/Q585199', 'http://www.wikidata.org/entity/Q586008', 'http://www.wikidata.org/entity/Q586182', 'http://www.wikidata.org/entity/Q586946', 'http://www.wikidata.org/entity/Q588607', 'http://www.wikidata.org/entity/Q588764', 'http://www.wikidata.org/entity/Q589439', 'http://www.wikidata.org/entity/Q591020', 'http://www.wikidata.org/entity/Q591237', 'http://www.wikidata.org/entity/Q592854', 'http://www.wikidata.org/entity/Q592941', 'http://www.wikidata.org/entity/Q594137', 'http://www.wikidata.org/entity/Q595258', 'http://www.wikidata.org/entity/Q596374', 'http://www.wikidata.org/entity/Q597193', 'http://www.wikidata.org/entity/Q597474', 'http://www.wikidata.org/entity/Q598411', 'http://www.wikidata.org/entity/Q598415', 'http://www.wikidata.org/entity/Q598461', 'http://www.wikidata.org/entity/Q599161', 'http://www.wikidata.org/entity/Q599783', 'http://www.wikidata.org/entity/Q600960', 'http://www.wikidata.org/entity/Q600981', 'http://www.wikidata.org/entity/Q601681', 'http://www.wikidata.org/entity/Q601776', 'http://www.wikidata.org/entity/Q603957', 'http://www.wikidata.org/entity/Q604638', 'http://www.wikidata.org/entity/Q604855', 'http://www.wikidata.org/entity/Q604941', 'http://www.wikidata.org/entity/Q606989', 'http://www.wikidata.org/entity/Q607383', 'http://www.wikidata.org/entity/Q607702', 'http://www.wikidata.org/entity/Q607930', 'http://www.wikidata.org/entity/Q608496', 'http://www.wikidata.org/entity/Q608514', 'http://www.wikidata.org/entity/Q609300', 'http://www.wikidata.org/entity/Q609773', 'http://www.wikidata.org/entity/Q610380', 'http://www.wikidata.org/entity/Q611372', 'http://www.wikidata.org/entity/Q611457', 'http://www.wikidata.org/entity/Q611468', 'http://www.wikidata.org/entity/Q611560', 'http://www.wikidata.org/entity/Q611756', 'http://www.wikidata.org/entity/Q613866', 'http://www.wikidata.org/entity/Q614074', 'http://www.wikidata.org/entity/Q614522', 'http://www.wikidata.org/entity/Q614905', 'http://www.wikidata.org/entity/Q616049', 'http://www.wikidata.org/entity/Q616436', 'http://www.wikidata.org/entity/Q617619', 'http://www.wikidata.org/entity/Q617829', 'http://www.wikidata.org/entity/Q618061', 'http://www.wikidata.org/entity/Q619583', 'http://www.wikidata.org/entity/Q620693', 'http://www.wikidata.org/entity/Q620698', 'http://www.wikidata.org/entity/Q620953', 'http://www.wikidata.org/entity/Q628060', 'http://www.wikidata.org/entity/Q628422', 'http://www.wikidata.org/entity/Q629737', 'http://www.wikidata.org/entity/Q630484', 'http://www.wikidata.org/entity/Q633781', 'http://www.wikidata.org/entity/Q634770', 'http://www.wikidata.org/entity/Q634812', 'http://www.wikidata.org/entity/Q637788', 'http://www.wikidata.org/entity/Q640300', 'http://www.wikidata.org/entity/Q641026', 'http://www.wikidata.org/entity/Q641280', 'http://www.wikidata.org/entity/Q641345', 'http://www.wikidata.org/entity/Q641377', 'http://www.wikidata.org/entity/Q641523', 'http://www.wikidata.org/entity/Q642529', 'http://www.wikidata.org/entity/Q642775', 'http://www.wikidata.org/entity/Q644762', 'http://www.wikidata.org/entity/Q645386', 'http://www.wikidata.org/entity/Q645816', 'http://www.wikidata.org/entity/Q647405', 'http://www.wikidata.org/entity/Q647498', 'http://www.wikidata.org/entity/Q647595', 'http://www.wikidata.org/entity/Q648447', 'http://www.wikidata.org/entity/Q649511', 'http://www.wikidata.org/entity/Q649548', 'http://www.wikidata.org/entity/Q649604', 'http://www.wikidata.org/entity/Q650793', 'http://www.wikidata.org/entity/Q651203', 'http://www.wikidata.org/entity/Q652743', 'http://www.wikidata.org/entity/Q653201', 'http://www.wikidata.org/entity/Q766986', 'http://www.wikidata.org/entity/Q767363', 'http://www.wikidata.org/entity/Q767622', 'http://www.wikidata.org/entity/Q767817', 'http://www.wikidata.org/entity/Q767836', 'http://www.wikidata.org/entity/Q768070', 'http://www.wikidata.org/entity/Q769073', 'http://www.wikidata.org/entity/Q770083', 'http://www.wikidata.org/entity/Q770894', 'http://www.wikidata.org/entity/Q773636', 'http://www.wikidata.org/entity/Q775144', 'http://www.wikidata.org/entity/Q776619', 'http://www.wikidata.org/entity/Q776631', 'http://www.wikidata.org/entity/Q778308', 'http://www.wikidata.org/entity/Q779600', 'http://www.wikidata.org/entity/Q780130', 'http://www.wikidata.org/entity/Q780630', 'http://www.wikidata.org/entity/Q781069', 'http://www.wikidata.org/entity/Q781072', 'http://www.wikidata.org/entity/Q781925', 'http://www.wikidata.org/entity/Q782461', 'http://www.wikidata.org/entity/Q782619', 'http://www.wikidata.org/entity/Q783112', 'http://www.wikidata.org/entity/Q784179', 'http://www.wikidata.org/entity/Q784734', 'http://www.wikidata.org/entity/Q784780', 'http://www.wikidata.org/entity/Q786644', 'http://www.wikidata.org/entity/Q786687', 'http://www.wikidata.org/entity/Q787999', 'http://www.wikidata.org/entity/Q788527', 'http://www.wikidata.org/entity/Q796564', 'http://www.wikidata.org/entity/Q798290', 'http://www.wikidata.org/entity/Q803821', 'http://www.wikidata.org/entity/Q817640', 'http://www.wikidata.org/entity/Q817876', 'http://www.wikidata.org/entity/Q822531', 'http://www.wikidata.org/entity/Q823757', 'http://www.wikidata.org/entity/Q862011', 'http://www.wikidata.org/entity/Q862762', 'http://www.wikidata.org/entity/Q862766', 'http://www.wikidata.org/entity/Q862801', 'http://www.wikidata.org/entity/Q863830', 'http://www.wikidata.org/entity/Q866619', 'http://www.wikidata.org/entity/Q867082', 'http://www.wikidata.org/entity/Q876519', 'http://www.wikidata.org/entity/Q881086', 'http://www.wikidata.org/entity/Q888002', 'http://www.wikidata.org/entity/Q888056', 'http://www.wikidata.org/entity/Q888647', 'http://www.wikidata.org/entity/Q890438', 'http://www.wikidata.org/entity/Q890511', 'http://www.wikidata.org/entity/Q892099', 'http://www.wikidata.org/entity/Q896772', 'http://www.wikidata.org/entity/Q898117', 'http://www.wikidata.org/entity/Q898679', 'http://www.wikidata.org/entity/Q901437', 'http://www.wikidata.org/entity/Q908715', 'http://www.wikidata.org/entity/Q911981', 'http://www.wikidata.org/entity/Q912263', 'http://www.wikidata.org/entity/Q912679', 'http://www.wikidata.org/entity/Q914125', 'http://www.wikidata.org/entity/Q917648', 'http://www.wikidata.org/entity/Q918878', 'http://www.wikidata.org/entity/Q919371', 'http://www.wikidata.org/entity/Q920007', 'http://www.wikidata.org/entity/Q920238', 'http://www.wikidata.org/entity/Q920921', 'http://www.wikidata.org/entity/Q921511', 'http://www.wikidata.org/entity/Q922038', 'http://www.wikidata.org/entity/Q922523', 'http://www.wikidata.org/entity/Q923075', 'http://www.wikidata.org/entity/Q924072', 'http://www.wikidata.org/entity/Q924857', 'http://www.wikidata.org/entity/Q926014', 'http://www.wikidata.org/entity/Q926071', 'http://www.wikidata.org/entity/Q926220', 'http://www.wikidata.org/entity/Q926248', 'http://www.wikidata.org/entity/Q926311', 'http://www.wikidata.org/entity/Q926337', 'http://www.wikidata.org/entity/Q927926', 'http://www.wikidata.org/entity/Q927966', 'http://www.wikidata.org/entity/Q928064', 'http://www.wikidata.org/entity/Q928077', 'http://www.wikidata.org/entity/Q928237', 'http://www.wikidata.org/entity/Q929291', 'http://www.wikidata.org/entity/Q929320', 'http://www.wikidata.org/entity/Q930309', 'http://www.wikidata.org/entity/Q930443', 'http://www.wikidata.org/entity/Q930587', 'http://www.wikidata.org/entity/Q930646', 'http://www.wikidata.org/entity/Q930775', 'http://www.wikidata.org/entity/Q931124', 'http://www.wikidata.org/entity/Q931131', 'http://www.wikidata.org/entity/Q931867', 'http://www.wikidata.org/entity/Q932632', 'http://www.wikidata.org/entity/Q932879', 'http://www.wikidata.org/entity/Q933190', 'http://www.wikidata.org/entity/Q352668', 'http://www.wikidata.org/entity/Q352696', 'http://www.wikidata.org/entity/Q352741', 'http://www.wikidata.org/entity/Q354157', 'http://www.wikidata.org/entity/Q354914', 'http://www.wikidata.org/entity/Q357096', 'http://www.wikidata.org/entity/Q357295', 'http://www.wikidata.org/entity/Q357438', 'http://www.wikidata.org/entity/Q357556', 'http://www.wikidata.org/entity/Q357757', 'http://www.wikidata.org/entity/Q358043', 'http://www.wikidata.org/entity/Q358093', 'http://www.wikidata.org/entity/Q358108', 'http://www.wikidata.org/entity/Q358704', 'http://www.wikidata.org/entity/Q358723', 'http://www.wikidata.org/entity/Q359370', 'http://www.wikidata.org/entity/Q361134', 'http://www.wikidata.org/entity/Q361178', 'http://www.wikidata.org/entity/Q362214', 'http://www.wikidata.org/entity/Q362872', 'http://www.wikidata.org/entity/Q363246', 'http://www.wikidata.org/entity/Q363409', 'http://www.wikidata.org/entity/Q363421', 'http://www.wikidata.org/entity/Q363432', 'http://www.wikidata.org/entity/Q363445', 'http://www.wikidata.org/entity/Q363869', 'http://www.wikidata.org/entity/Q364321', 'http://www.wikidata.org/entity/Q364394', 'http://www.wikidata.org/entity/Q366505', 'http://www.wikidata.org/entity/Q366772', 'http://www.wikidata.org/entity/Q367117', 'http://www.wikidata.org/entity/Q368005', 'http://www.wikidata.org/entity/Q368561', 'http://www.wikidata.org/entity/Q368573', 'http://www.wikidata.org/entity/Q370006', 'http://www.wikidata.org/entity/Q370275', 'http://www.wikidata.org/entity/Q370431', 'http://www.wikidata.org/entity/Q371250', 'http://www.wikidata.org/entity/Q371821', 'http://www.wikidata.org/entity/Q371832', 'http://www.wikidata.org/entity/Q371886', 'http://www.wikidata.org/entity/Q372389', 'http://www.wikidata.org/entity/Q372408', 'http://www.wikidata.org/entity/Q373071', 'http://www.wikidata.org/entity/Q373376', 'http://www.wikidata.org/entity/Q373938', 'http://www.wikidata.org/entity/Q373964', 'http://www.wikidata.org/entity/Q374115', 'http://www.wikidata.org/entity/Q374151', 'http://www.wikidata.org/entity/Q374536', 'http://www.wikidata.org/entity/Q375189', 'http://www.wikidata.org/entity/Q375230', 'http://www.wikidata.org/entity/Q375525', 'http://www.wikidata.org/entity/Q375574', 'http://www.wikidata.org/entity/Q375955', 'http://www.wikidata.org/entity/Q375969', 'http://www.wikidata.org/entity/Q376173', 'http://www.wikidata.org/entity/Q376230', 'http://www.wikidata.org/entity/Q376523', 'http://www.wikidata.org/entity/Q376586', 'http://www.wikidata.org/entity/Q377693', 'http://www.wikidata.org/entity/Q377721', 'http://www.wikidata.org/entity/Q380006', 'http://www.wikidata.org/entity/Q380010', 'http://www.wikidata.org/entity/Q380008', 'http://www.wikidata.org/entity/Q380018', 'http://www.wikidata.org/entity/Q380030', 'http://www.wikidata.org/entity/Q380515', 'http://www.wikidata.org/entity/Q380541', 'http://www.wikidata.org/entity/Q380802', 'http://www.wikidata.org/entity/Q380812', 'http://www.wikidata.org/entity/Q381762', 'http://www.wikidata.org/entity/Q382285', 'http://www.wikidata.org/entity/Q384236', 'http://www.wikidata.org/entity/Q384545', 'http://www.wikidata.org/entity/Q384801', 'http://www.wikidata.org/entity/Q384989', 'http://www.wikidata.org/entity/Q386225', 'http://www.wikidata.org/entity/Q386513', 'http://www.wikidata.org/entity/Q386656', 'http://www.wikidata.org/entity/Q386995', 'http://www.wikidata.org/entity/Q387141', 'http://www.wikidata.org/entity/Q389136', 'http://www.wikidata.org/entity/Q389657', 'http://www.wikidata.org/entity/Q389708', 'http://www.wikidata.org/entity/Q390215', 'http://www.wikidata.org/entity/Q390274', 'http://www.wikidata.org/entity/Q390521', 'http://www.wikidata.org/entity/Q390679', 'http://www.wikidata.org/entity/Q392373', 'http://www.wikidata.org/entity/Q393404', 'http://www.wikidata.org/entity/Q393734', 'http://www.wikidata.org/entity/Q419871', 'http://www.wikidata.org/entity/Q420803', 'http://www.wikidata.org/entity/Q426456', 'http://www.wikidata.org/entity/Q427720', 'http://www.wikidata.org/entity/Q428535', 'http://www.wikidata.org/entity/Q428689', 'http://www.wikidata.org/entity/Q428720', 'http://www.wikidata.org/entity/Q429084', 'http://www.wikidata.org/entity/Q2020111', 'http://www.wikidata.org/entity/Q2020149', 'http://www.wikidata.org/entity/Q2021467', 'http://www.wikidata.org/entity/Q2021867', 'http://www.wikidata.org/entity/Q2023534', 'http://www.wikidata.org/entity/Q2024753', 'http://www.wikidata.org/entity/Q2032738', 'http://www.wikidata.org/entity/Q2032761', 'http://www.wikidata.org/entity/Q2033135', 'http://www.wikidata.org/entity/Q2033668', 'http://www.wikidata.org/entity/Q2038244', 'http://www.wikidata.org/entity/Q2039863', 'http://www.wikidata.org/entity/Q2042557', 'http://www.wikidata.org/entity/Q2054671', 'http://www.wikidata.org/entity/Q2056453', 'http://www.wikidata.org/entity/Q2057584', 'http://www.wikidata.org/entity/Q2059430', 'http://www.wikidata.org/entity/Q2059578', 'http://www.wikidata.org/entity/Q2062631', 'http://www.wikidata.org/entity/Q2</t>
+          <t>['http://www.wikidata.org/entity/Q250593', 'http://www.wikidata.org/entity/Q251472', 'http://www.wikidata.org/entity/Q251489', 'http://www.wikidata.org/entity/Q251507', 'http://www.wikidata.org/entity/Q251725', 'http://www.wikidata.org/entity/Q251812', 'http://www.wikidata.org/entity/Q252946', 'http://www.wikidata.org/entity/Q259401', 'http://www.wikidata.org/entity/Q264393', 'http://www.wikidata.org/entity/Q264533', 'http://www.wikidata.org/entity/Q266660', 'http://www.wikidata.org/entity/Q270947', 'http://www.wikidata.org/entity/Q270966', 'http://www.wikidata.org/entity/Q270975', 'http://www.wikidata.org/entity/Q270981', 'http://www.wikidata.org/entity/Q271933', 'http://www.wikidata.org/entity/Q273256', 'http://www.wikidata.org/entity/Q275148', 'http://www.wikidata.org/entity/Q275183', 'http://www.wikidata.org/entity/Q275332', 'http://www.wikidata.org/entity/Q275339', 'http://www.wikidata.org/entity/Q275762', 'http://www.wikidata.org/entity/Q275889', 'http://www.wikidata.org/entity/Q276907', 'http://www.wikidata.org/entity/Q277040', 'http://www.wikidata.org/entity/Q277780', 'http://www.wikidata.org/entity/Q278203', 'http://www.wikidata.org/entity/Q278594', 'http://www.wikidata.org/entity/Q280025', 'http://www.wikidata.org/entity/Q280437', 'http://www.wikidata.org/entity/Q182455', 'http://www.wikidata.org/entity/Q185268', 'http://www.wikidata.org/entity/Q189240', 'http://www.wikidata.org/entity/Q190152', 'http://www.wikidata.org/entity/Q193020', 'http://www.wikidata.org/entity/Q193052', 'http://www.wikidata.org/entity/Q193637', 'http://www.wikidata.org/entity/Q194772', 'http://www.wikidata.org/entity/Q197616', 'http://www.wikidata.org/entity/Q199896', 'http://www.wikidata.org/entity/Q201386', 'http://www.wikidata.org/entity/Q201608', 'http://www.wikidata.org/entity/Q202295', 'http://www.wikidata.org/entity/Q204285', 'http://www.wikidata.org/entity/Q205171', 'http://www.wikidata.org/entity/Q205735', 'http://www.wikidata.org/entity/Q205823', 'http://www.wikidata.org/entity/Q207033', 'http://www.wikidata.org/entity/Q208956', 'http://www.wikidata.org/entity/Q209368', 'http://www.wikidata.org/entity/Q209921', 'http://www.wikidata.org/entity/Q211876', 'http://www.wikidata.org/entity/Q217672', 'http://www.wikidata.org/entity/Q220565', 'http://www.wikidata.org/entity/Q222851', 'http://www.wikidata.org/entity/Q242185', 'http://www.wikidata.org/entity/Q245222', 'http://www.wikidata.org/entity/Q246067', 'http://www.wikidata.org/entity/Q246144', 'http://www.wikidata.org/entity/Q246372', 'http://www.wikidata.org/entity/Q247487', 'http://www.wikidata.org/entity/Q65594', 'http://www.wikidata.org/entity/Q66647', 'http://www.wikidata.org/entity/Q67709', 'http://www.wikidata.org/entity/Q67858', 'http://www.wikidata.org/entity/Q69225', 'http://www.wikidata.org/entity/Q70386', 'http://www.wikidata.org/entity/Q70486', 'http://www.wikidata.org/entity/Q70698', 'http://www.wikidata.org/entity/Q71045', 'http://www.wikidata.org/entity/Q71377', 'http://www.wikidata.org/entity/Q4332', 'http://www.wikidata.org/entity/Q4835', 'http://www.wikidata.org/entity/Q4836', 'http://www.wikidata.org/entity/Q24002', 'http://www.wikidata.org/entity/Q24178', 'http://www.wikidata.org/entity/Q25278', 'http://www.wikidata.org/entity/Q25515', 'http://www.wikidata.org/entity/Q28932', 'http://www.wikidata.org/entity/Q29336', 'http://www.wikidata.org/entity/Q29342', 'http://www.wikidata.org/entity/Q29545', 'http://www.wikidata.org/entity/Q29604', 'http://www.wikidata.org/entity/Q32187', 'http://www.wikidata.org/entity/Q36159', 'http://www.wikidata.org/entity/Q40444', 'http://www.wikidata.org/entity/Q40490', 'http://www.wikidata.org/entity/Q40657', 'http://www.wikidata.org/entity/Q42079', 'http://www.wikidata.org/entity/Q42255', 'http://www.wikidata.org/entity/Q42615', 'http://www.wikidata.org/entity/Q42656', 'http://www.wikidata.org/entity/Q42660', 'http://www.wikidata.org/entity/Q44068', 'http://www.wikidata.org/entity/Q44378', 'http://www.wikidata.org/entity/Q46125', 'http://www.wikidata.org/entity/Q47073', 'http://www.wikidata.org/entity/Q48830', 'http://www.wikidata.org/entity/Q48838', 'http://www.wikidata.org/entity/Q48842', 'http://www.wikidata.org/entity/Q48845', 'http://www.wikidata.org/entity/Q57596', 'http://www.wikidata.org/entity/Q58590', 'http://www.wikidata.org/entity/Q59547', 'http://www.wikidata.org/entity/Q60118', 'http://www.wikidata.org/entity/Q60478', 'http://www.wikidata.org/entity/Q61675', 'http://www.wikidata.org/entity/Q62735', 'http://www.wikidata.org/entity/Q62873', 'http://www.wikidata.org/entity/Q71591', 'http://www.wikidata.org/entity/Q72252', 'http://www.wikidata.org/entity/Q72285', 'http://www.wikidata.org/entity/Q72353', 'http://www.wikidata.org/entity/Q72849', 'http://www.wikidata.org/entity/Q73276', 'http://www.wikidata.org/entity/Q73827', 'http://www.wikidata.org/entity/Q73832', 'http://www.wikidata.org/entity/Q74005', 'http://www.wikidata.org/entity/Q74550', 'http://www.wikidata.org/entity/Q75135', 'http://www.wikidata.org/entity/Q76761', 'http://www.wikidata.org/entity/Q76765', 'http://www.wikidata.org/entity/Q77044', 'http://www.wikidata.org/entity/Q77165', 'http://www.wikidata.org/entity/Q82132', 'http://www.wikidata.org/entity/Q90164', 'http://www.wikidata.org/entity/Q90938', 'http://www.wikidata.org/entity/Q91060', 'http://www.wikidata.org/entity/Q91851', 'http://www.wikidata.org/entity/Q91859', 'http://www.wikidata.org/entity/Q93570', 'http://www.wikidata.org/entity/Q93587', 'http://www.wikidata.org/entity/Q94846', 'http://www.wikidata.org/entity/Q96481', 'http://www.wikidata.org/entity/Q96840', 'http://www.wikidata.org/entity/Q98594', 'http://www.wikidata.org/entity/Q98611', 'http://www.wikidata.org/entity/Q102955', 'http://www.wikidata.org/entity/Q104361', 'http://www.wikidata.org/entity/Q104375', 'http://www.wikidata.org/entity/Q106279', 'http://www.wikidata.org/entity/Q106451', 'http://www.wikidata.org/entity/Q108291', 'http://www.wikidata.org/entity/Q108333', 'http://www.wikidata.org/entity/Q111008', 'http://www.wikidata.org/entity/Q112435', 'http://www.wikidata.org/entity/Q112449', 'http://www.wikidata.org/entity/Q113569', 'http://www.wikidata.org/entity/Q113576', 'http://www.wikidata.org/entity/Q115629', 'http://www.wikidata.org/entity/Q115634', 'http://www.wikidata.org/entity/Q115722', 'http://www.wikidata.org/entity/Q115915', 'http://www.wikidata.org/entity/Q116037', 'http://www.wikidata.org/entity/Q116198', 'http://www.wikidata.org/entity/Q116254', 'http://www.wikidata.org/entity/Q116551', 'http://www.wikidata.org/entity/Q116699', 'http://www.wikidata.org/entity/Q118067', 'http://www.wikidata.org/entity/Q120098', 'http://www.wikidata.org/entity/Q121647', 'http://www.wikidata.org/entity/Q122952', 'http://www.wikidata.org/entity/Q123040', 'http://www.wikidata.org/entity/Q127561', 'http://www.wikidata.org/entity/Q128188', 'http://www.wikidata.org/entity/Q128530', 'http://www.wikidata.org/entity/Q129041', 'http://www.wikidata.org/entity/Q131942', 'http://www.wikidata.org/entity/Q132208', 'http://www.wikidata.org/entity/Q134183', 'http://www.wikidata.org/entity/Q135109', 'http://www.wikidata.org/entity/Q135167', 'http://www.wikidata.org/entity/Q137450', 'http://www.wikidata.org/entity/Q139376', 'http://www.wikidata.org/entity/Q142214', 'http://www.wikidata.org/entity/Q144703', 'http://www.wikidata.org/entity/Q145884', 'http://www.wikidata.org/entity/Q147900', 'http://www.wikidata.org/entity/Q150327', 'http://www.wikidata.org/entity/Q150510', 'http://www.wikidata.org/entity/Q151355', 'http://www.wikidata.org/entity/Q151553', 'http://www.wikidata.org/entity/Q163754', 'http://www.wikidata.org/entity/Q174067', 'http://www.wikidata.org/entity/Q175441', 'http://www.wikidata.org/entity/Q177151', 'http://www.wikidata.org/entity/Q179051', 'http://www.wikidata.org/entity/Q179906', 'http://www.wikidata.org/entity/Q180860', 'http://www.wikidata.org/entity/Q181491', 'http://www.wikidata.org/entity/Q577502', 'http://www.wikidata.org/entity/Q577516', 'http://www.wikidata.org/entity/Q580031', 'http://www.wikidata.org/entity/Q580435', 'http://www.wikidata.org/entity/Q581572', 'http://www.wikidata.org/entity/Q582252', 'http://www.wikidata.org/entity/Q582337', 'http://www.wikidata.org/entity/Q582831', 'http://www.wikidata.org/entity/Q583719', 'http://www.wikidata.org/entity/Q583966', 'http://www.wikidata.org/entity/Q584520', 'http://www.wikidata.org/entity/Q585199', 'http://www.wikidata.org/entity/Q586008', 'http://www.wikidata.org/entity/Q586182', 'http://www.wikidata.org/entity/Q586946', 'http://www.wikidata.org/entity/Q588607', 'http://www.wikidata.org/entity/Q588764', 'http://www.wikidata.org/entity/Q589439', 'http://www.wikidata.org/entity/Q591020', 'http://www.wikidata.org/entity/Q591237', 'http://www.wikidata.org/entity/Q592854', 'http://www.wikidata.org/entity/Q592941', 'http://www.wikidata.org/entity/Q594137', 'http://www.wikidata.org/entity/Q595258', 'http://www.wikidata.org/entity/Q596374', 'http://www.wikidata.org/entity/Q597193', 'http://www.wikidata.org/entity/Q597474', 'http://www.wikidata.org/entity/Q598411', 'http://www.wikidata.org/entity/Q598415', 'http://www.wikidata.org/entity/Q598461', 'http://www.wikidata.org/entity/Q703908', 'http://www.wikidata.org/entity/Q704642', 'http://www.wikidata.org/entity/Q705206', 'http://www.wikidata.org/entity/Q705209', 'http://www.wikidata.org/entity/Q705993', 'http://www.wikidata.org/entity/Q706052', 'http://www.wikidata.org/entity/Q706180', 'http://www.wikidata.org/entity/Q706771', 'http://www.wikidata.org/entity/Q707870', 'http://www.wikidata.org/entity/Q709054', 'http://www.wikidata.org/entity/Q710228', 'http://www.wikidata.org/entity/Q711177', 'http://www.wikidata.org/entity/Q714058', 'http://www.wikidata.org/entity/Q714191', 'http://www.wikidata.org/entity/Q714213', 'http://www.wikidata.org/entity/Q715618', 'http://www.wikidata.org/entity/Q715717', 'http://www.wikidata.org/entity/Q716025', 'http://www.wikidata.org/entity/Q716062', 'http://www.wikidata.org/entity/Q716066', 'http://www.wikidata.org/entity/Q716085', 'http://www.wikidata.org/entity/Q716093', 'http://www.wikidata.org/entity/Q716637', 'http://www.wikidata.org/entity/Q717054', 'http://www.wikidata.org/entity/Q717284', 'http://www.wikidata.org/entity/Q717335', 'http://www.wikidata.org/entity/Q717344', 'http://www.wikidata.org/entity/Q717532', 'http://www.wikidata.org/entity/Q717593', 'http://www.wikidata.org/entity/Q717793', 'http://www.wikidata.org/entity/Q717944', 'http://www.wikidata.org/entity/Q718789', 'http://www.wikidata.org/entity/Q719631', 'http://www.wikidata.org/entity/Q720679', 'http://www.wikidata.org/entity/Q720821', 'http://www.wikidata.org/entity/Q722629', 'http://www.wikidata.org/entity/Q725083', 'http://www.wikidata.org/entity/Q725886', 'http://www.wikidata.org/entity/Q726213', 'http://www.wikidata.org/entity/Q655613', 'http://www.wikidata.org/entity/Q656414', 'http://www.wikidata.org/entity/Q657876', 'http://www.wikidata.org/entity/Q658347', 'http://www.wikidata.org/entity/Q659886', 'http://www.wikidata.org/entity/Q660132', 'http://www.wikidata.org/entity/Q661226', 'http://www.wikidata.org/entity/Q662134', 'http://www.wikidata.org/entity/Q662773', 'http://www.wikidata.org/entity/Q663888', 'http://www.wikidata.org/entity/Q664243', 'http://www.wikidata.org/entity/Q665879', 'http://www.wikidata.org/entity/Q671294', 'http://www.wikidata.org/entity/Q672096', 'http://www.wikidata.org/entity/Q673384', 'http://www.wikidata.org/entity/Q676808', 'http://www.wikidata.org/entity/Q677332', 'http://www.wikidata.org/entity/Q679852', 'http://www.wikidata.org/entity/Q680038', 'http://www.wikidata.org/entity/Q681033', 'http://www.wikidata.org/entity/Q681243', 'http://www.wikidata.org/entity/Q681735', 'http://www.wikidata.org/entity/Q682139', 'http://www.wikidata.org/entity/Q682468', 'http://www.wikidata.org/entity/Q692580', 'http://www.wikidata.org/entity/Q693834', 'http://www.wikidata.org/entity/Q698125', 'http://www.wikidata.org/entity/Q599161', 'http://www.wikidata.org/entity/Q599783', 'http://www.wikidata.org/entity/Q600960', 'http://www.wikidata.org/entity/Q600981', 'http://www.wikidata.org/entity/Q601681', 'http://www.wikidata.org/entity/Q601776', 'http://www.wikidata.org/entity/Q603957', 'http://www.wikidata.org/entity/Q604638', 'http://www.wikidata.org/entity/Q604855', 'http://www.wikidata.org/entity/Q604941', 'http://www.wikidata.org/entity/Q606989', 'http://www.wikidata.org/entity/Q607383', 'http://www.wikidata.org/entity/Q607702', 'http://www.wikidata.org/entity/Q607930', 'http://www.wikidata.org/entity/Q608496', 'http://www.wikidata.org/entity/Q608514', 'http://www.wikidata.org/entity/Q609300', 'http://www.wikidata.org/entity/Q609773', 'http://www.wikidata.org/entity/Q610380', 'http://www.wikidata.org/entity/Q611372', 'http://www.wikidata.org/entity/Q611457', 'http://www.wikidata.org/entity/Q611468', 'http://www.wikidata.org/entity/Q611560', 'http://www.wikidata.org/entity/Q611756', 'http://www.wikidata.org/entity/Q613866', 'http://www.wikidata.org/entity/Q614074', 'http://www.wikidata.org/entity/Q614522', 'http://www.wikidata.org/entity/Q614905', 'http://www.wikidata.org/entity/Q616049', 'http://www.wikidata.org/entity/Q616436', 'http://www.wikidata.org/entity/Q617619', 'http://www.wikidata.org/entity/Q617829', 'http://www.wikidata.org/entity/Q618061', 'http://www.wikidata.org/entity/Q619583', 'http://www.wikidata.org/entity/Q620693', 'http://www.wikidata.org/entity/Q620698', 'http://www.wikidata.org/entity/Q620953', 'http://www.wikidata.org/entity/Q628060', 'http://www.wikidata.org/entity/Q628422', 'http://www.wikidata.org/entity/Q629737', 'http://www.wikidata.org/entity/Q630484', 'http://www.wikidata.org/entity/Q633781', 'http://www.wikidata.org/entity/Q634770', 'http://www.wikidata.org/entity/Q634812', 'http://www.wikidata.org/entity/Q637788', 'http://www.wikidata.org/entity/Q640300', 'http://www.wikidata.org/entity/Q641026', 'http://www.wikidata.org/entity/Q641280', 'http://www.wikidata.org/entity/Q641345', 'http://www.wikidata.org/entity/Q641377', 'http://www.wikidata.org/entity/Q641523', 'http://www.wikidata.org/entity/Q642529', 'http://www.wikidata.org/entity/Q642775', 'http://www.wikidata.org/entity/Q644762', 'http://www.wikidata.org/entity/Q645386', 'http://www.wikidata.org/entity/Q645816', 'http://www.wikidata.org/entity/Q647405', 'http://www.wikidata.org/entity/Q647498', 'http://www.wikidata.org/entity/Q647595', 'http://www.wikidata.org/entity/Q648447', 'http://www.wikidata.org/entity/Q649511', 'http://www.wikidata.org/entity/Q649548', 'http://www.wikidata.org/entity/Q649604', 'http://www.wikidata.org/entity/Q650793', 'http://www.wikidata.org/entity/Q651203', 'http://www.wikidata.org/entity/Q652743', 'http://www.wikidata.org/entity/Q653201', 'http://www.wikidata.org/entity/Q280793', 'http://www.wikidata.org/entity/Q282322', 'http://www.wikidata.org/entity/Q282811', 'http://www.wikidata.org/entity/Q284176', 'http://www.wikidata.org/entity/Q286765', 'http://www.wikidata.org/entity/Q287176', 'http://www.wikidata.org/entity/Q288853', 'http://www.wikidata.org/entity/Q289398', 'http://www.wikidata.org/entity/Q294004', 'http://www.wikidata.org/entity/Q294788', 'http://www.wikidata.org/entity/Q295322', 'http://www.wikidata.org/entity/Q295340', 'http://www.wikidata.org/entity/Q295364', 'http://www.wikidata.org/entity/Q295521', 'http://www.wikidata.org/entity/Q296403', 'http://www.wikidata.org/entity/Q297146', 'http://www.wikidata.org/entity/Q297221', 'http://www.wikidata.org/entity/Q297474', 'http://www.wikidata.org/entity/Q297750', 'http://www.wikidata.org/entity/Q298981', 'http://www.wikidata.org/entity/Q301863', 'http://www.wikidata.org/entity/Q302068', 'http://www.wikidata.org/entity/Q302777', 'http://www.wikidata.org/entity/Q304473', 'http://www.wikidata.org/entity/Q305510', 'http://www.wikidata.org/entity/Q306553', 'http://www.wikidata.org/entity/Q309783', 'http://www.wikidata.org/entity/Q310281', 'http://www.wikidata.org/entity/Q310411', 'http://www.wikidata.org/entity/Q310968', 'http://www.wikidata.org/entity/Q311533', 'http://www.wikidata.org/entity/Q311546', 'http://www.wikidata.org/entity/Q311735', 'http://www.wikidata.org/entity/Q311869', 'http://www.wikidata.org/entity/Q311895', 'http://www.wikidata.org/entity/Q313389', 'http://www.wikidata.org/entity/Q313479', 'http://www.wikidata.org/entity/Q313481', 'http://www.wikidata.org/entity/Q313487', 'http://www.wikidata.org/entity/Q313499', 'http://www.wikidata.org/entity/Q313622', 'http://www.wikidata.org/entity/Q314071', 'http://www.wikidata.org/entity/Q314185', 'http://www.wikidata.org/entity/Q314415', 'http://www.wikidata.org/entity/Q314614', 'http://www.wikidata.org/entity/Q314822', 'http://www.wikidata.org/entity/Q316179', 'http://www.wikidata.org/entity/Q316243', 'http://www.wikidata.org/entity/Q316246', 'http://www.wikidata.org/entity/Q316253', 'http://www.wikidata.org/entity/Q316258', 'http://www.wikidata.org/entity/Q316256', 'http://www.wikidata.org/entity/Q316261', 'http://www.wikidata.org/entity/Q316336', 'http://www.wikidata.org/entity/Q316577', 'http://www.wikidata.org/entity/Q316580', 'http://www.wikidata.org/entity/Q317008', 'http://www.wikidata.org/entity/Q317037', 'http://www.wikidata.org/entity/Q317045', 'http://www.wikidata.org/entity/Q317065', 'http://www.wikidata.org/entity/Q317209', 'http://www.wikidata.org/entity/Q317527', 'http://www.wikidata.org/entity/Q317583', 'http://www.wikidata.org/entity/Q318916', 'http://www.wikidata.org/entity/Q318926', 'http://www.wikidata.org/entity/Q318929', 'http://www.wikidata.org/entity/Q319313', 'http://www.wikidata.org/entity/Q319614', 'http://www.wikidata.org/entity/Q324225', 'http://www.wikidata.org/entity/Q324842', 'http://www.wikidata.org/entity/Q325252', 'http://www.wikidata.org/entity/Q325977', 'http://www.wikidata.org/entity/Q326355', 'http://www.wikidata.org/entity/Q326861', 'http://www.wikidata.org/entity/Q327973', 'http://www.wikidata.org/entity/Q329180', 'http://www.wikidata.org/entity/Q329374', 'http://www.wikidata.org/entity/Q330794', 'http://www.wikidata.org/entity/Q331313', 'http://www.wikidata.org/entity/Q331358', 'http://www.wikidata.org/entity/Q334470', 'http://www.wikidata.org/entity/Q336503', 'http://www.wikidata.org/entity/Q337729', 'http://www.wikidata.org/entity/Q338895', 'http://www.wikidata.org/entity/Q339744', 'http://www.wikidata.org/entity/Q339988', 'http://www.wikidata.org/entity/Q344531', 'http://www.wikidata.org/entity/Q348734', 'http://www.wikidata.org/entity/Q348994', 'http://www.wikidata.org/entity/Q349755', 'http://www.wikidata.org/entity/Q350464', 'http://www.wikidata.org/entity/Q351032', 'http://www.wikidata.org/entity/Q352064', 'http://www.wikidata.org/entity/Q352073', 'http://www.wikidata.org/entity/Q352110', 'http://www.wikidata.org/entity/Q352114', 'http://www.wikidata.org/entity/Q352140', 'http://www.wikidata.org/entity/Q352145', 'http://www.wikidata.org/entity/Q352168', 'http://www.wikidata.org/entity/Q726577', 'http://www.wikidata.org/entity/Q727048', 'http://www.wikidata.org/entity/Q732231', 'http://www.wikidata.org/entity/Q732350', 'http://www.wikidata.org/entity/Q732470', 'http://www.wikidata.org/entity/Q733261', 'http://www.wikidata.org/entity/Q733899', 'http://www.wikidata.org/entity/Q734538', 'http://www.wikidata.org/entity/Q734735', 'http://www.wikidata.org/entity/Q735251', 'http://www.wikidata.org/entity/Q736301', 'http://www.wikidata.org/entity/Q738690', 'http://www.wikidata.org/entity/Q739699', 'http://www.wikidata.org/entity/Q739832', 'http://www.wikidata.org/entity/Q740121', 'http://www.wikidata.org/entity/Q740175', 'http://www.wikidata.org/entity/Q740318', 'http://www.wikidata.org/entity/Q741055', 'http://www.wikidata.org/entity/Q741102', 'http://www.wikidata.org/entity/Q741278', 'http://www.wikidata.org/entity/Q741417', 'http://www.wikidata.org/entity/Q741842', 'http://www.wikidata.org/entity/Q742104', 'http://www.wikidata.org/entity/Q742119', 'http://www.wikidata.org/entity/Q743850', 'http://www.wikidata.org/entity/Q744851', 'http://www.wikidata.org/entity/Q744920', 'http://www.wikidata.org/entity/Q745367', 'http://www.wikidata.org/entity/Q745776', 'http://www.wikidata.org/entity/Q746616', 'http://www.wikidata.org/entity/Q749008', 'http://www.wikidata.org/entity/Q751049', 'http://www.wikidata.org/entity/Q751413', 'http://www.wikidata.org/entity/Q761392', 'http://www.wikidata.org/entity/Q763614', 'http://www.wikidata.org/entity/Q764756', 'http://www.wikidata.org/entity/Q764964', 'http://www.wikidata.org/entity/Q766986', 'http://www.wikidata.org/entity/Q767363', 'http://www.wikidata.org/entity/Q767622', 'http://www.wikidata.org/entity/Q767817', 'http://www.wikidata.org/entity/Q767836', 'http://www.wikidata.org/entity/Q768070', 'http://www.wikidata.org/entity/Q769073', 'http://www.wikidata.org/entity/Q770083', 'http://www.wikidata.org/entity/Q770894', 'http://www.wikidata.org/entity/Q773636', 'http://www.wikidata.org/entity/Q775144', 'http://www.wikidata.org/entity/Q776619', 'http://www.wikidata.org/entity/Q776631', 'http://www.wikidata.org/entity/Q778308', 'http://www.wikidata.org/entity/Q779600', 'http://www.wikidata.org/entity/Q780130', 'http://www.wikidata.org/entity/Q780630', 'http://www.wikidata.org/entity/Q781069', 'http://www.wikidata.org/entity/Q781072', 'http://www.wikidata.org/entity/Q781925', 'http://www.wikidata.org/entity/Q782461', 'http://www.wikidata.org/entity/Q782619', 'http://www.wikidata.org/entity/Q783112', 'http://www.wikidata.org/entity/Q784179', 'http://www.wikidata.org/entity/Q784734', 'http://www.wikidata.org/entity/Q784780', 'http://www.wikidata.org/entity/Q786644', 'http://www.wikidata.org/entity/Q786687', 'http://www.wikidata.org/entity/Q787999', 'http://www.wikidata.org/entity/Q788527', 'http://www.wikidata.org/entity/Q796564', 'http://www.wikidata.org/entity/Q798290', 'http://www.wikidata.org/entity/Q803821', 'http://www.wikidata.org/entity/Q817640', 'http://www.wikidata.org/entity/Q817876', 'http://www.wikidata.org/entity/Q822531', 'http://www.wikidata.org/entity/Q823757', 'http://www.wikidata.org/entity/Q862011', 'http://www.wikidata.org/entity/Q862762', 'http://www.wikidata.org/entity/Q862766', 'http://www.wikidata.org/entity/Q862801', 'http://www.wikidata.org/entity/Q863830', 'http://www.wikidata.org/entity/Q866619', 'http://www.wikidata.org/entity/Q867082', 'http://www.wikidata.org/entity/Q876519', 'http://www.wikidata.org/entity/Q881086', 'http://www.wikidata.org/entity/Q888002', 'http://www.wikidata.org/entity/Q888056', 'http://www.wikidata.org/entity/Q888647', 'http://www.wikidata.org/entity/Q890438', 'http://www.wikidata.org/entity/Q890511', 'http://www.wikidata.org/entity/Q892099', 'http://www.wikidata.org/entity/Q896772', 'http://www.wikidata.org/entity/Q898117', 'http://www.wikidata.org/entity/Q898679', 'http://www.wikidata.org/entity/Q901437', 'http://www.wikidata.org/entity/Q908715', 'http://www.wikidata.org/entity/Q911981', 'http://www.wikidata.org/entity/Q912263', 'http://www.wikidata.org/entity/Q912679', 'http://www.wikidata.org/entity/Q914125', 'http://www.wikidata.org/entity/Q1748572', 'http://www.wikidata.org/entity/Q1748685', 'http://www.wikidata.org/entity/Q1748969', 'http://www.wikidata.org/entity/Q1748982', 'http://www.wikidata.org/entity/Q1749072', 'http://www.wikidata.org/entity/Q1749388', 'http://www.wikidata.org/entity/Q1749506', 'http://www.wikidata.org/entity/Q1749594', 'http://www.wikidata.org/entity/Q1750274', 'http://www.wikidata.org/entity/Q1750314', 'http://www.wikidata.org/entity/Q1750492', 'http://www.wikidata.org/entity/Q1750571', 'http://www.wikidata.org/entity/Q1751387', 'http://www.wikidata.org/entity/Q1751482', 'http://www.wikidata.org/entity/Q1752941', 'http://www.wikidata.org/entity/Q1753441', 'http://www.wikidata.org/entity/Q1753506', 'http://www.wikidata.org/entity/Q1753781', 'http://www.wikidata.org/entity/Q1756515', 'http://www.wikidata.org/entity/Q1756749', 'http://www.wikidata.org/entity/Q1758224', 'http://www.wikidata.org/entity/Q1760441', 'http://www.wikidata.org/entity/Q1760549', 'http://www.wikidata.org/entity/Q1764428', 'http://www.wikidata.org/entity/Q1771206', 'http://www.wikidata.org/entity/Q1772961', 'http://www.wikidata.org/entity/Q1773647', 'http://www.wikidata.org/entity/Q1773744', 'http://www.wikidata.org/entity/Q1773923', 'http://www.wikidata.org/entity/Q1776155', 'http://www.wikidata.org/entity/Q1777068', 'http://www.wikidata.org/entity/Q1777077', 'http://www.wikidata.org/entity/Q1777227', 'http://www.wikidata.org/entity/Q1777248', 'http://www.wikidata.org/entity/Q1777682', 'http://www.wikidata.org/entity/Q1797248', 'http://www.wikidata.org/entity/Q1825983', 'http://www.wikidata.org/entity/Q1842302', 'http://www.wikidata.org/entity/Q1845944', 'http://www.wikidata.org/entity/Q1848493', 'http://www.wikidata.org/entity/Q1850244', 'http://www.wikidata.org/entity/Q1855672', 'http://www.wikidata.org/entity/Q1856608', 'http://www.wikidata.org/entity/Q1856664', 'http://www.wikidata.org/entity/Q1857885', 'http://www.wikidata.org/entity/Q1862004', 'http://www.wikidata.org/entity/Q1869647', 'http://www.wikidata.org/entity/Q1886533', 'http://www.wikidata.org/entity/Q1886751', 'http://www.wikidata.org/entity/Q1887208', 'http://www.wikidata.org/entity/Q1887670', 'http://www.wikidata.org/entity/Q1888258', 'http://www.wikidata.org/entity/Q1888440', 'http://www.wikidata.org/entity/Q1889733', 'http://www.wikidata.org/entity/Q1890505', 'http://www.wikidata.org/entity/Q1891397', 'http://www.wikidata.org/entity/Q1899459', 'http://www.wikidata.org/entity/Q1904289', 'http://www.wikidata.org/entity/Q1264436', 'http://www.wikidata.org/entity/Q1267570', 'http://www.wikidata.org/entity/Q1267622', 'http://www.wikidata.org/entity/Q1270684', 'http://www.wikidata.org/entity/Q1273047', 'http://www.wikidata.org/entity/Q1277708', 'http://www.wikidata.org/entity/Q1279010', 'http://www.wikidata.org/entity/Q1279973', 'http://www.wikidata.org/entity/Q1282320', 'http://www.wikidata.org/entity/Q1282809', 'http://www.wikidata.org/entity/Q1286476', 'http://www.wikidata.org/entity/Q1289729', 'http://www.wikidata.org/entity/Q1291124', 'http://www.wikidata.org/entity/Q1292529', 'http://www.wikidata.org/entity/Q1293573', 'http://www.wikidata.org/entity/Q1296648', 'http://www.wikidata.org/entity/Q1314733', 'http://www.wikidata.org/entity/Q1327649', 'http://www.wikidata.org/entity/Q1328504', 'http://www.wikidata.org/entity/Q1332856', 'http://www.wikidata.org/entity/Q1334238', 'http://www.wikidata.org/entity/Q1336737', 'http://www.wikidata.org/entity/Q1338315', 'http://www.wikidata.org/entity/Q1339658', 'http://www.wikidata.org/entity/Q1343292', 'http://www.wikidata.org/entity/Q1351678', 'http://www.wikidata.org/entity/Q1353620', 'http://www.wikidata.org/entity/Q1355070', 'http://www.wikidata.org/entity/Q1356519', 'http://www.wikidata.org/entity/Q1358452', 'http://www.wikidata.org/entity/Q1359588', 'http://www.wikidata.org/entity/Q1361081', 'http://www.wikidata.org/entity/Q1362580', 'http://www.wikidata.org/entity/Q1362664', 'http://www.wikidata.org/entity/Q1362904', 'http://www.wikidata.org/entity/Q1363177', 'http://www.wikidata.org/entity/Q1363787', 'http://www.wikidata.org/entity/Q1363884', 'http://www.wikidata.org/entity/Q1363974', 'http://www.wikidata.org/entity/Q1364009', 'http://www.wikidata.org/entity/Q1364223', 'http://www.wikidata.org/entity/Q1365630', 'http://www.wikidata.org/entity/Q1365645', 'http://www.wikidata.org/entity/Q1366501', 'http://www.wikidata.org/entity/Q1370831', 'http://www.wikidata.org/entity/Q1370925', 'http://www.wikidata.org/entity/Q1371485', 'http://www.wikidata.org/entity/Q1373712', 'http://www.wikidata.org/entity/Q1375950', 'http://www.wikidata.org/entity/Q1377443', 'http://www.wikidata.org/entity/Q1380489', 'http://www.wikidata.org/entity/Q1380719', 'http://www.wikidata.org/entity/Q1381445', 'http://www.wikidata.org/entity/Q1381732', 'http://www.wikidata.org/entity/Q1387820', 'http://www.wikidata.org/entity/Q1390262', 'http://www.wikidata.org/entity/Q1392517', 'http://www.wikidata.org/entity/Q1393378', 'http://www.wikidata.org/entity/Q1393433', 'http://www.wikidata.org/entity/Q1398536', 'http://www.wikidata.org/entity/Q1401783', 'http://www.wikidata.org/entity/Q1406261', 'http://www.wikidata.org/entity/Q1407902', 'http://www.wikidata.org/entity/Q1408291', 'http://www.wikidata.org/entity/Q1413920', 'http://www.wikidata.org/entity/Q1421720', 'http://www.wikidata.org/entity/Q1422575', 'http://www.wikidata.org/entity/Q1424128', 'http://www.wikidata.org/entity/Q1424134', 'http://www.wikidata.org/entity/Q1424165', 'http://www.wikidata.org/entity/Q1424414', 'http://www.wikidata.org/entity/Q1424455', 'http://www.wikidata.org/entity/Q1424462', 'http://www.wikidata.org/entity/Q1424475', 'http://www.wikidata.org/entity/Q1424495', 'http://www.wikidata.org/entity/Q1424502', 'http://www.wikidata.org/entity/Q1429702', 'http://www.wikidata.org/entity/Q1432596', 'http://www.wikidata.org/entity/Q1435883', 'http://www.wikidata.org/entity/Q1438347', 'http://www.wikidata.org/entity/Q1438348', 'http://www.wikidata.org/entity/Q1439529', 'http://www.wikidata.org/entity/Q1439541', 'http://www.wikidata.org/entity/Q1440606', 'http://www.wikidata.org/entity/Q1441343', 'http://www.wikidata.org/entity/Q1441397', 'http://www.wikidata.org/entity/Q1441492', 'http://www.wikidata.org/entity/Q1441499', 'http://www.wikidata.org/entity/Q1442053', 'http://www.wikidata.org/entity/Q1442329', 'http://www.wikidata.org/entity/Q1444910', 'http://www.wikidata.org/entity/Q1444934', 'http://www.wikidata.org/entity/Q1445196', 'http://www.wikidata.org/entity/Q1445455', 'http://www.wikidata.org/entity/Q1445762', 'http://www.wikidata.org/entity/Q1445827', 'http://www.wikidata.org/entity/Q352668', 'http://www.wikidata.org/entity/Q352696', 'http://www.wikidata.org/entity/Q352741', 'http://www.wikidata.org/entity/Q354157', 'http://www.wikidata.org/entity/Q354914', 'http://www.wikidata.org/entity/Q357096', 'http://www.wikidata.org/entity/Q357295', 'http://www.wikidata.org/entity/Q357438', 'http://www.wikidata.org/entity/Q357556', 'http://www.wikidata.org/entity/Q357757', 'http://www.wikidata.org/entity/Q358043', 'http://www.wikidata.org/entity/Q358093', 'http://www.wikidata.org/entity/Q358108', 'http://www.wikidata.org/entity/Q358704', 'http://www.wikidata.org/entity/Q358723', 'http://www.wikidata.org/entity/Q359370', 'http://www.wikidata.org/entity/Q361134', 'http://www.wikidata.org/entity/Q361178', 'http://www.wikidata.org/entity/Q362214', 'http://www.wikidata.org/entity/Q362872', 'http://www.wikidata.org/entity/Q363246', 'http://www.wikidata.org/entity/Q363409', 'http://www.wikidata.org/entity/Q363421', 'http://www.wikidata.org/entity/Q363432', 'http://www.wikidata.org/entity/Q363445', 'http://www.wikidata.org/entity/Q363869', 'http://www.wikidata.org/entity/Q364321', 'http://www.wikidata.org/entity/Q364394', 'http://www.wikidata.org/entity/Q366505', 'http://www.wikidata.org/entity/Q366772', 'http://www.wikidata.org/entity/Q367117', 'http://www.wikidata.org/entity/Q368005', 'http://www.wikidata.org/entity/Q368561', 'http://www.wikidata.org/entity/Q368573', 'http://www.wikidata.org/entity/Q370006', 'http://www.wikidata.org/entity/Q370275', 'http://www.wikidata.org/entity/Q370431', 'http://www.wikidata.org/entity/Q371250', 'http://www.wikidata.org/entity/Q371821', 'http://www.wikidata.org/entity/Q371832', 'http://www.wikidata.org/entity/Q371886', 'http://www.wikidata.org/entity/Q372389', 'http://www.wikidata.org/entity/Q372408', 'http://www.wikidata.org/entity/Q373071', 'http://www.wikidata.org/entity/Q373376', 'http://www.wikidata.org/entity/Q373938', 'http://www.wikidata.org/entity/Q373964', 'http://www.wikidata.org/entity/Q374115', 'http://www.wikidata.org/entity/Q374151', 'http://www.wikidata.org/entity/Q374536', 'http://www.wikidata.org/entity/Q375189', 'http://www.wikidata.org/entity/Q375230', 'http://www.wikidata.org/entity/Q375525', 'http://www.wikidata.org/entity/Q375574', 'http://www.wikidata.org/entity/Q375955', 'http://www.wikidata.org/entity/Q375969', 'http://www.wikidata.org/entity/Q376173', 'http://www.wikidata.org/entity/Q376230', 'http://www.wikidata.org/entity/Q376523', 'http://www.wikidata.org/entity/Q376586', 'http://www.wikidata.org/entity/Q377693', 'http://www.wikidata.org/entity/Q377721', 'http://www.wikidata.org/entity/Q380006', 'http://www.wikidata.org/entity/Q380010', 'http://www.wikidata.org/entity/Q380008', 'http://www.wikidata.org/entity/Q380018', 'http://www.wikidata.org/entity/Q380030', 'http://www.wikidata.org/entity/Q380515', 'http://www.wikidata.org/entity/Q380541', 'http://www.wikidata.org/entity/Q380802', 'http://www.wikidata.org/entity/Q380812', 'http://www.wikidata.org/entity/Q381762', 'http://www.wikidata.org/entity/Q382285', 'http://www.wikidata.org/entity/Q384236', 'http://www.wik</t>
         </is>
       </c>
     </row>
@@ -1200,7 +1200,7 @@
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>['http://www.wikidata.org/entity/Q185888', 'http://www.wikidata.org/entity/Q219810', 'http://www.wikidata.org/entity/Q224133', 'http://www.wikidata.org/entity/Q261899', 'http://www.wikidata.org/entity/Q379994', 'http://www.wikidata.org/entity/Q465227', 'http://www.wikidata.org/entity/Q474246', 'http://www.wikidata.org/entity/Q499851', 'http://www.wikidata.org/entity/Q769453', 'http://www.wikidata.org/entity/Q978927', 'http://www.wikidata.org/entity/Q1197427', 'http://www.wikidata.org/entity/Q1467522', 'http://www.wikidata.org/entity/Q1503896', 'http://www.wikidata.org/entity/Q1753498', 'http://www.wikidata.org/entity/Q3087286', 'http://www.wikidata.org/entity/Q3178485', 'http://www.wikidata.org/entity/Q3986749', 'http://www.wikidata.org/entity/Q7730725', 'http://www.wikidata.org/entity/Q7747903', 'http://www.wikidata.org/entity/Q12126557', 'http://www.wikidata.org/entity/Q12133175', 'http://www.wikidata.org/entity/Q14772351', 'http://www.wikidata.org/entity/Q15270846', 'http://www.wikidata.org/entity/Q16250123', 'http://www.wikidata.org/entity/Q16354845', 'http://www.wikidata.org/entity/Q18151930', 'http://www.wikidata.org/entity/Q18703028', 'http://www.wikidata.org/entity/Q20501835', 'http://www.wikidata.org/entity/Q20950014', 'http://www.wikidata.org/entity/Q37909451', 'http://www.wikidata.org/entity/Q44613088', 'http://www.wikidata.org/entity/Q49001848', 'http://www.wikidata.org/entity/Q58879016', 'http://www.wikidata.org/entity/Q60737594', 'http://www.wikidata.org/entity/Q63352785', 'http://www.wikidata.org/entity/Q94998134', 'http://www.wikidata.org/entity/Q100724914', 'http://www.wikidata.org/entity/Q104714221', 'http://www.wikidata.org/entity/Q110060323', 'http://www.wikidata.org/entity/Q110060321', 'http://www.wikidata.org/entity/Q111950685', 'http://www.wikidata.org/entity/Q116314289', 'http://www.wikidata.org/entity/Q123690193', 'http://www.wikidata.org/entity/Q123690368', 'http://www.wikidata.org/entity/Q29658']</t>
+          <t>['http://www.wikidata.org/entity/Q185888', 'http://www.wikidata.org/entity/Q219810', 'http://www.wikidata.org/entity/Q224133', 'http://www.wikidata.org/entity/Q261899', 'http://www.wikidata.org/entity/Q379994', 'http://www.wikidata.org/entity/Q465227', 'http://www.wikidata.org/entity/Q474246', 'http://www.wikidata.org/entity/Q499851', 'http://www.wikidata.org/entity/Q769453', 'http://www.wikidata.org/entity/Q978927', 'http://www.wikidata.org/entity/Q1197427', 'http://www.wikidata.org/entity/Q1467522', 'http://www.wikidata.org/entity/Q1503896', 'http://www.wikidata.org/entity/Q1753498', 'http://www.wikidata.org/entity/Q3087286', 'http://www.wikidata.org/entity/Q3178485', 'http://www.wikidata.org/entity/Q3986749', 'http://www.wikidata.org/entity/Q7730725', 'http://www.wikidata.org/entity/Q7747903', 'http://www.wikidata.org/entity/Q12126557', 'http://www.wikidata.org/entity/Q12133175', 'http://www.wikidata.org/entity/Q14772351', 'http://www.wikidata.org/entity/Q15270846', 'http://www.wikidata.org/entity/Q16250123', 'http://www.wikidata.org/entity/Q16354845', 'http://www.wikidata.org/entity/Q18151930', 'http://www.wikidata.org/entity/Q18703028', 'http://www.wikidata.org/entity/Q20501835', 'http://www.wikidata.org/entity/Q20950014', 'http://www.wikidata.org/entity/Q37909451', 'http://www.wikidata.org/entity/Q44613088', 'http://www.wikidata.org/entity/Q49001848', 'http://www.wikidata.org/entity/Q58879016', 'http://www.wikidata.org/entity/Q60737594', 'http://www.wikidata.org/entity/Q63352785', 'http://www.wikidata.org/entity/Q65146722', 'http://www.wikidata.org/entity/Q94998134', 'http://www.wikidata.org/entity/Q100724914', 'http://www.wikidata.org/entity/Q104714221', 'http://www.wikidata.org/entity/Q110060323', 'http://www.wikidata.org/entity/Q110060321', 'http://www.wikidata.org/entity/Q111950685', 'http://www.wikidata.org/entity/Q116314289', 'http://www.wikidata.org/entity/Q123690193', 'http://www.wikidata.org/entity/Q123690368', 'http://www.wikidata.org/entity/Q29658']</t>
         </is>
       </c>
     </row>
@@ -1222,7 +1222,7 @@
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>['http://www.wikidata.org/entity/Q242776', 'http://www.wikidata.org/entity/Q299747', 'http://www.wikidata.org/entity/Q2356473', 'http://www.wikidata.org/entity/Q2372089', 'http://www.wikidata.org/entity/Q2391239', 'http://www.wikidata.org/entity/Q2509125', 'http://www.wikidata.org/entity/Q2567381', 'http://www.wikidata.org/entity/Q2668457', 'http://www.wikidata.org/entity/Q2734147', 'http://www.wikidata.org/entity/Q1439850', 'http://www.wikidata.org/entity/Q2113545', 'http://www.wikidata.org/entity/Q4721350', 'http://www.wikidata.org/entity/Q4730244', 'http://www.wikidata.org/entity/Q4751854', 'http://www.wikidata.org/entity/Q4759167', 'http://www.wikidata.org/entity/Q4759191', 'http://www.wikidata.org/entity/Q4767053', 'http://www.wikidata.org/entity/Q4797426', 'http://www.wikidata.org/entity/Q5219224', 'http://www.wikidata.org/entity/Q5219549', 'http://www.wikidata.org/entity/Q5348229', 'http://www.wikidata.org/entity/Q460043', 'http://www.wikidata.org/entity/Q508250', 'http://www.wikidata.org/entity/Q556111', 'http://www.wikidata.org/entity/Q1031959', 'http://www.wikidata.org/entity/Q2754815', 'http://www.wikidata.org/entity/Q2901829', 'http://www.wikidata.org/entity/Q3049594', 'http://www.wikidata.org/entity/Q3801963', 'http://www.wikidata.org/entity/Q3870583', 'http://www.wikidata.org/entity/Q4015878', 'http://www.wikidata.org/entity/Q4113367', 'http://www.wikidata.org/entity/Q4244582', 'http://www.wikidata.org/entity/Q4715115', 'http://www.wikidata.org/entity/Q4715355', 'http://www.wikidata.org/entity/Q4715366', 'http://www.wikidata.org/entity/Q4715396', 'http://www.wikidata.org/entity/Q4715965', 'http://www.wikidata.org/entity/Q6069817', 'http://www.wikidata.org/entity/Q6069906', 'http://www.wikidata.org/entity/Q6761242', 'http://www.wikidata.org/entity/Q6763800', 'http://www.wikidata.org/entity/Q6763906', 'http://www.wikidata.org/entity/Q6968363', 'http://www.wikidata.org/entity/Q6968364', 'http://www.wikidata.org/entity/Q7035893', 'http://www.wikidata.org/entity/Q7038078', 'http://www.wikidata.org/entity/Q7086047', 'http://www.wikidata.org/entity/Q7086663', 'http://www.wikidata.org/entity/Q7086674', 'http://www.wikidata.org/entity/Q7263180', 'http://www.wikidata.org/entity/Q7454107', 'http://www.wikidata.org/entity/Q7680835', 'http://www.wikidata.org/entity/Q7910781', 'http://www.wikidata.org/entity/Q7910881', 'http://www.wikidata.org/entity/Q7910896', 'http://www.wikidata.org/entity/Q7929719', 'http://www.wikidata.org/entity/Q7929757', 'http://www.wikidata.org/entity/Q7929832', 'http://www.wikidata.org/entity/Q7938430', 'http://www.wikidata.org/entity/Q7938643', 'http://www.wikidata.org/entity/Q8051367', 'http://www.wikidata.org/entity/Q8053274', 'http://www.wikidata.org/entity/Q9146400', 'http://www.wikidata.org/entity/Q9323051', 'http://www.wikidata.org/entity/Q10860087', 'http://www.wikidata.org/entity/Q11750372', 'http://www.wikidata.org/entity/Q14504132', 'http://www.wikidata.org/entity/Q14560946', 'http://www.wikidata.org/entity/Q16054123', 'http://www.wikidata.org/entity/Q16221402', 'http://www.wikidata.org/entity/Q27063571', 'http://www.wikidata.org/entity/Q27538037', 'http://www.wikidata.org/entity/Q27805393', 'http://www.wikidata.org/entity/Q17154793', 'http://www.wikidata.org/entity/Q17523891', 'http://www.wikidata.org/entity/Q17644417', 'http://www.wikidata.org/entity/Q18021520', 'http://www.wikidata.org/entity/Q18639533', 'http://www.wikidata.org/entity/Q19578089', 'http://www.wikidata.org/entity/Q19867395', 'http://www.wikidata.org/entity/Q19915730', 'http://www.wikidata.org/entity/Q20862334', 'http://www.wikidata.org/entity/Q27995584', 'http://www.wikidata.org/entity/Q29021564', 'http://www.wikidata.org/entity/Q21094770', 'http://www.wikidata.org/entity/Q21622402', 'http://www.wikidata.org/entity/Q21623147', 'http://www.wikidata.org/entity/Q24048969', 'http://www.wikidata.org/entity/Q24955683', 'http://www.wikidata.org/entity/Q26229689', 'http://www.wikidata.org/entity/Q26236434', 'http://www.wikidata.org/entity/Q26250653', 'http://www.wikidata.org/entity/Q108658638', 'http://www.wikidata.org/entity/Q107353823', 'http://www.wikidata.org/entity/Q107634702', 'http://www.wikidata.org/entity/Q107638361', 'http://www.wikidata.org/entity/Q108305735', 'http://www.wikidata.org/entity/Q33259050', 'http://www.wikidata.org/entity/Q50221013', 'http://www.wikidata.org/entity/Q55972891', 'http://www.wikidata.org/entity/Q56043337', 'http://www.wikidata.org/entity/Q56073370', 'http://www.wikidata.org/entity/Q57114357', 'http://www.wikidata.org/entity/Q124302084', 'http://www.wikidata.org/entity/Q124313747', 'http://www.wikidata.org/entity/Q65589494', 'http://www.wikidata.org/entity/Q66317885', 'http://www.wikidata.org/entity/Q87832143']</t>
+          <t>['http://www.wikidata.org/entity/Q242776', 'http://www.wikidata.org/entity/Q299747', 'http://www.wikidata.org/entity/Q3870583', 'http://www.wikidata.org/entity/Q4015878', 'http://www.wikidata.org/entity/Q4113367', 'http://www.wikidata.org/entity/Q4244582', 'http://www.wikidata.org/entity/Q4715115', 'http://www.wikidata.org/entity/Q4715355', 'http://www.wikidata.org/entity/Q4715366', 'http://www.wikidata.org/entity/Q4715396', 'http://www.wikidata.org/entity/Q4715965', 'http://www.wikidata.org/entity/Q3049594', 'http://www.wikidata.org/entity/Q3801963', 'http://www.wikidata.org/entity/Q4721350', 'http://www.wikidata.org/entity/Q4730244', 'http://www.wikidata.org/entity/Q4751854', 'http://www.wikidata.org/entity/Q4759167', 'http://www.wikidata.org/entity/Q4759191', 'http://www.wikidata.org/entity/Q4767053', 'http://www.wikidata.org/entity/Q4797426', 'http://www.wikidata.org/entity/Q5219224', 'http://www.wikidata.org/entity/Q5219549', 'http://www.wikidata.org/entity/Q5348229', 'http://www.wikidata.org/entity/Q460043', 'http://www.wikidata.org/entity/Q508250', 'http://www.wikidata.org/entity/Q556111', 'http://www.wikidata.org/entity/Q1031959', 'http://www.wikidata.org/entity/Q1439850', 'http://www.wikidata.org/entity/Q2113545', 'http://www.wikidata.org/entity/Q2356473', 'http://www.wikidata.org/entity/Q2372089', 'http://www.wikidata.org/entity/Q2391239', 'http://www.wikidata.org/entity/Q2509125', 'http://www.wikidata.org/entity/Q2567381', 'http://www.wikidata.org/entity/Q2668457', 'http://www.wikidata.org/entity/Q2734147', 'http://www.wikidata.org/entity/Q2754815', 'http://www.wikidata.org/entity/Q2901829', 'http://www.wikidata.org/entity/Q6069817', 'http://www.wikidata.org/entity/Q6069906', 'http://www.wikidata.org/entity/Q6761242', 'http://www.wikidata.org/entity/Q6763800', 'http://www.wikidata.org/entity/Q6763906', 'http://www.wikidata.org/entity/Q6968363', 'http://www.wikidata.org/entity/Q6968364', 'http://www.wikidata.org/entity/Q7035893', 'http://www.wikidata.org/entity/Q7038078', 'http://www.wikidata.org/entity/Q7086047', 'http://www.wikidata.org/entity/Q7086663', 'http://www.wikidata.org/entity/Q7086674', 'http://www.wikidata.org/entity/Q7263180', 'http://www.wikidata.org/entity/Q7454107', 'http://www.wikidata.org/entity/Q7680835', 'http://www.wikidata.org/entity/Q16054123', 'http://www.wikidata.org/entity/Q16221402', 'http://www.wikidata.org/entity/Q17154793', 'http://www.wikidata.org/entity/Q17523891', 'http://www.wikidata.org/entity/Q17644417', 'http://www.wikidata.org/entity/Q18021520', 'http://www.wikidata.org/entity/Q18639533', 'http://www.wikidata.org/entity/Q19578089', 'http://www.wikidata.org/entity/Q19867395', 'http://www.wikidata.org/entity/Q19915730', 'http://www.wikidata.org/entity/Q20862334', 'http://www.wikidata.org/entity/Q21094770', 'http://www.wikidata.org/entity/Q21622402', 'http://www.wikidata.org/entity/Q21623147', 'http://www.wikidata.org/entity/Q24048969', 'http://www.wikidata.org/entity/Q24955683', 'http://www.wikidata.org/entity/Q26229689', 'http://www.wikidata.org/entity/Q26236434', 'http://www.wikidata.org/entity/Q26250653', 'http://www.wikidata.org/entity/Q7910781', 'http://www.wikidata.org/entity/Q7910881', 'http://www.wikidata.org/entity/Q7910896', 'http://www.wikidata.org/entity/Q7929719', 'http://www.wikidata.org/entity/Q7929757', 'http://www.wikidata.org/entity/Q7929832', 'http://www.wikidata.org/entity/Q7938430', 'http://www.wikidata.org/entity/Q7938643', 'http://www.wikidata.org/entity/Q8051367', 'http://www.wikidata.org/entity/Q8053274', 'http://www.wikidata.org/entity/Q9146400', 'http://www.wikidata.org/entity/Q9323051', 'http://www.wikidata.org/entity/Q10860087', 'http://www.wikidata.org/entity/Q11750372', 'http://www.wikidata.org/entity/Q14504132', 'http://www.wikidata.org/entity/Q14560946', 'http://www.wikidata.org/entity/Q27063571', 'http://www.wikidata.org/entity/Q27538037', 'http://www.wikidata.org/entity/Q27805393', 'http://www.wikidata.org/entity/Q27995584', 'http://www.wikidata.org/entity/Q29021564', 'http://www.wikidata.org/entity/Q33259050', 'http://www.wikidata.org/entity/Q50221013', 'http://www.wikidata.org/entity/Q55972891', 'http://www.wikidata.org/entity/Q56043337', 'http://www.wikidata.org/entity/Q56073370', 'http://www.wikidata.org/entity/Q57114357', 'http://www.wikidata.org/entity/Q65589494', 'http://www.wikidata.org/entity/Q66317885', 'http://www.wikidata.org/entity/Q87832143', 'http://www.wikidata.org/entity/Q107353823', 'http://www.wikidata.org/entity/Q107634702', 'http://www.wikidata.org/entity/Q107638361', 'http://www.wikidata.org/entity/Q108305735', 'http://www.wikidata.org/entity/Q108658638', 'http://www.wikidata.org/entity/Q124302084', 'http://www.wikidata.org/entity/Q124313747']</t>
         </is>
       </c>
     </row>
@@ -1244,7 +1244,7 @@
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>['http://www.wikidata.org/entity/Q360038', 'http://www.wikidata.org/entity/Q362819', 'http://www.wikidata.org/entity/Q362998', 'http://www.wikidata.org/entity/Q364451', 'http://www.wikidata.org/entity/Q365317', 'http://www.wikidata.org/entity/Q381541', 'http://www.wikidata.org/entity/Q382150', 'http://www.wikidata.org/entity/Q382184', 'http://www.wikidata.org/entity/Q431006', 'http://www.wikidata.org/entity/Q432752', 'http://www.wikidata.org/entity/Q433046', 'http://www.wikidata.org/entity/Q434409', 'http://www.wikidata.org/entity/Q434546', 'http://www.wikidata.org/entity/Q434555', 'http://www.wikidata.org/entity/Q440178', 'http://www.wikidata.org/entity/Q446233', 'http://www.wikidata.org/entity/Q446531', 'http://www.wikidata.org/entity/Q446720', 'http://www.wikidata.org/entity/Q447311', 'http://www.wikidata.org/entity/Q448491', 'http://www.wikidata.org/entity/Q449577', 'http://www.wikidata.org/entity/Q450834', 'http://www.wikidata.org/entity/Q451259', 'http://www.wikidata.org/entity/Q453764', 'http://www.wikidata.org/entity/Q455669', 'http://www.wikidata.org/entity/Q457064', 'http://www.wikidata.org/entity/Q360060', 'http://www.wikidata.org/entity/Q362180', 'http://www.wikidata.org/entity/Q375659', 'http://www.wikidata.org/entity/Q376688', 'http://www.wikidata.org/entity/Q448538', 'http://www.wikidata.org/entity/Q448872', 'http://www.wikidata.org/entity/Q461807', 'http://www.wikidata.org/entity/Q465461', 'http://www.wikidata.org/entity/Q465724', 'http://www.wikidata.org/entity/Q465748', 'http://www.wikidata.org/entity/Q466069', 'http://www.wikidata.org/entity/Q466075', 'http://www.wikidata.org/entity/Q466513', 'http://www.wikidata.org/entity/Q467623', 'http://www.wikidata.org/entity/Q467732', 'http://www.wikidata.org/entity/Q468250', 'http://www.wikidata.org/entity/Q470256', 'http://www.wikidata.org/entity/Q471486', 'http://www.wikidata.org/entity/Q472497', 'http://www.wikidata.org/entity/Q487622', 'http://www.wikidata.org/entity/Q488043', 'http://www.wikidata.org/entity/Q502101', 'http://www.wikidata.org/entity/Q520334', 'http://www.wikidata.org/entity/Q520760', 'http://www.wikidata.org/entity/Q535157', 'http://www.wikidata.org/entity/Q535172', 'http://www.wikidata.org/entity/Q535234', 'http://www.wikidata.org/entity/Q535831', 'http://www.wikidata.org/entity/Q539358', 'http://www.wikidata.org/entity/Q555679', 'http://www.wikidata.org/entity/Q560360', 'http://www.wikidata.org/entity/Q466483', 'http://www.wikidata.org/entity/Q468258', 'http://www.wikidata.org/entity/Q472491', 'http://www.wikidata.org/entity/Q487984', 'http://www.wikidata.org/entity/Q488008', 'http://www.wikidata.org/entity/Q535280', 'http://www.wikidata.org/entity/Q538639', 'http://www.wikidata.org/entity/Q221615', 'http://www.wikidata.org/entity/Q252726', 'http://www.wikidata.org/entity/Q255764', 'http://www.wikidata.org/entity/Q261731', 'http://www.wikidata.org/entity/Q266359', 'http://www.wikidata.org/entity/Q280301', 'http://www.wikidata.org/entity/Q281604', 'http://www.wikidata.org/entity/Q283544', 'http://www.wikidata.org/entity/Q312474', 'http://www.wikidata.org/entity/Q313399', 'http://www.wikidata.org/entity/Q313815', 'http://www.wikidata.org/entity/Q314921', 'http://www.wikidata.org/entity/Q317792', 'http://www.wikidata.org/entity/Q320068', 'http://www.wikidata.org/entity/Q342338', 'http://www.wikidata.org/entity/Q342953', 'http://www.wikidata.org/entity/Q345288', 'http://www.wikidata.org/entity/Q347977', 'http://www.wikidata.org/entity/Q348205', 'http://www.wikidata.org/entity/Q352137', 'http://www.wikidata.org/entity/Q345658', 'http://www.wikidata.org/entity/Q355433', 'http://www.wikidata.org/entity/Q358525', 'http://www.wikidata.org/entity/Q118490', 'http://www.wikidata.org/entity/Q152298', 'http://www.wikidata.org/entity/Q152318', 'http://www.wikidata.org/entity/Q154269', 'http://www.wikidata.org/entity/Q159681', 'http://www.wikidata.org/entity/Q203026', 'http://www.wikidata.org/entity/Q44371', 'http://www.wikidata.org/entity/Q104865', 'http://www.wikidata.org/entity/Q157931', 'http://www.wikidata.org/entity/Q202933', 'http://www.wikidata.org/entity/Q7327', 'http://www.wikidata.org/entity/Q706809', 'http://www.wikidata.org/entity/Q708452', 'http://www.wikidata.org/entity/Q708484', 'http://www.wikidata.org/entity/Q708689', 'http://www.wikidata.org/entity/Q711010', 'http://www.wikidata.org/entity/Q725659', 'http://www.wikidata.org/entity/Q730220', 'http://www.wikidata.org/entity/Q820606', 'http://www.wikidata.org/entity/Q592219', 'http://www.wikidata.org/entity/Q620632', 'http://www.wikidata.org/entity/Q641389', 'http://www.wikidata.org/entity/Q708489', 'http://www.wikidata.org/entity/Q709634', 'http://www.wikidata.org/entity/Q722142', 'http://www.wikidata.org/entity/Q727902', 'http://www.wikidata.org/entity/Q728371', 'http://www.wikidata.org/entity/Q730170', 'http://www.wikidata.org/entity/Q834956', 'http://www.wikidata.org/entity/Q927249', 'http://www.wikidata.org/entity/Q956160', 'http://www.wikidata.org/entity/Q963226', 'http://www.wikidata.org/entity/Q1100407', 'http://www.wikidata.org/entity/Q3492123', 'http://www.wikidata.org/entity/Q3553627', 'http://www.wikidata.org/entity/Q4098485', 'http://www.wikidata.org/entity/Q4131995', 'http://www.wikidata.org/entity/Q4181402', 'http://www.wikidata.org/entity/Q4196202', 'http://www.wikidata.org/entity/Q4994273', 'http://www.wikidata.org/entity/Q7258156', 'http://www.wikidata.org/entity/Q8070504', 'http://www.wikidata.org/entity/Q9601011', 'http://www.wikidata.org/entity/Q10335385', 'http://www.wikidata.org/entity/Q10340525', 'http://www.wikidata.org/entity/Q17426654', 'http://www.wikidata.org/entity/Q17426873', 'http://www.wikidata.org/entity/Q17593757', 'http://www.wikidata.org/entity/Q18236847', 'http://www.wikidata.org/entity/Q18352451', 'http://www.wikidata.org/entity/Q19366412', 'http://www.wikidata.org/entity/Q21481122', 'http://www.wikidata.org/entity/Q26255563', 'http://www.wikidata.org/entity/Q26776784', 'http://www.wikidata.org/entity/Q26837347', 'http://www.wikidata.org/entity/Q103929698', 'http://www.wikidata.org/entity/Q109491621', 'http://www.wikidata.org/entity/Q109491693', 'http://www.wikidata.org/entity/Q121567180', 'http://www.wikidata.org/entity/Q928034', 'http://www.wikidata.org/entity/Q975217', 'http://www.wikidata.org/entity/Q1009884', 'http://www.wikidata.org/entity/Q1100745', 'http://www.wikidata.org/entity/Q1243689', 'http://www.wikidata.org/entity/Q1406012', 'http://www.wikidata.org/entity/Q2474284', 'http://www.wikidata.org/entity/Q2655329', 'http://www.wikidata.org/entity/Q3329196', 'http://www.wikidata.org/entity/Q3501233', 'http://www.wikidata.org/entity/Q4715991', 'http://www.wikidata.org/entity/Q6740250', 'http://www.wikidata.org/entity/Q7086024', 'http://www.wikidata.org/entity/Q7454059', 'http://www.wikidata.org/entity/Q11685717', 'http://www.wikidata.org/entity/Q12040315', 'http://www.wikidata.org/entity/Q13519676', 'http://www.wikidata.org/entity/Q13889299', 'http://www.wikidata.org/entity/Q16153519', 'http://www.wikidata.org/entity/Q16522978', 'http://www.wikidata.org/entity/Q17427763', 'http://www.wikidata.org/entity/Q21106378', 'http://www.wikidata.org/entity/Q21154027', 'http://www.wikidata.org/entity/Q21856852', 'http://www.wikidata.org/entity/Q28195006', 'http://www.wikidata.org/entity/Q50379072', 'http://www.wikidata.org/entity/Q50379654', 'http://www.wikidata.org/entity/Q50379760', 'http://www.wikidata.org/entity/Q50379793', 'http://www.wikidata.org/entity/Q85859878', 'http://www.wikidata.org/entity/Q85861593', 'http://www.wikidata.org/entity/Q85867505', 'http://www.wikidata.org/entity/Q109490108', 'http://www.wikidata.org/entity/Q109490152', 'http://www.wikidata.org/entity/Q109490367', 'http://www.wikidata.org/entity/Q109490394', 'http://www.wikidata.org/entity/Q109491455', 'http://www.wikidata.org/entity/Q109493060', 'http://www.wikidata.org/entity/Q109493064', 'http://www.wikidata.org/entity/Q118114238']</t>
+          <t>['http://www.wikidata.org/entity/Q358525', 'http://www.wikidata.org/entity/Q360038', 'http://www.wikidata.org/entity/Q362819', 'http://www.wikidata.org/entity/Q362998', 'http://www.wikidata.org/entity/Q364451', 'http://www.wikidata.org/entity/Q365317', 'http://www.wikidata.org/entity/Q381541', 'http://www.wikidata.org/entity/Q382150', 'http://www.wikidata.org/entity/Q382184', 'http://www.wikidata.org/entity/Q431006', 'http://www.wikidata.org/entity/Q432752', 'http://www.wikidata.org/entity/Q433046', 'http://www.wikidata.org/entity/Q434409', 'http://www.wikidata.org/entity/Q434546', 'http://www.wikidata.org/entity/Q434555', 'http://www.wikidata.org/entity/Q446233', 'http://www.wikidata.org/entity/Q446531', 'http://www.wikidata.org/entity/Q446720', 'http://www.wikidata.org/entity/Q447311', 'http://www.wikidata.org/entity/Q448491', 'http://www.wikidata.org/entity/Q449577', 'http://www.wikidata.org/entity/Q450834', 'http://www.wikidata.org/entity/Q451259', 'http://www.wikidata.org/entity/Q453764', 'http://www.wikidata.org/entity/Q455669', 'http://www.wikidata.org/entity/Q457064', 'http://www.wikidata.org/entity/Q360060', 'http://www.wikidata.org/entity/Q362180', 'http://www.wikidata.org/entity/Q375659', 'http://www.wikidata.org/entity/Q376688', 'http://www.wikidata.org/entity/Q440178', 'http://www.wikidata.org/entity/Q448538', 'http://www.wikidata.org/entity/Q448872', 'http://www.wikidata.org/entity/Q118490', 'http://www.wikidata.org/entity/Q152298', 'http://www.wikidata.org/entity/Q152318', 'http://www.wikidata.org/entity/Q154269', 'http://www.wikidata.org/entity/Q159681', 'http://www.wikidata.org/entity/Q203026', 'http://www.wikidata.org/entity/Q44371', 'http://www.wikidata.org/entity/Q104865', 'http://www.wikidata.org/entity/Q157931', 'http://www.wikidata.org/entity/Q202933', 'http://www.wikidata.org/entity/Q7327', 'http://www.wikidata.org/entity/Q461807', 'http://www.wikidata.org/entity/Q465461', 'http://www.wikidata.org/entity/Q465724', 'http://www.wikidata.org/entity/Q465748', 'http://www.wikidata.org/entity/Q466069', 'http://www.wikidata.org/entity/Q466075', 'http://www.wikidata.org/entity/Q466513', 'http://www.wikidata.org/entity/Q467623', 'http://www.wikidata.org/entity/Q467732', 'http://www.wikidata.org/entity/Q468250', 'http://www.wikidata.org/entity/Q470256', 'http://www.wikidata.org/entity/Q471486', 'http://www.wikidata.org/entity/Q472497', 'http://www.wikidata.org/entity/Q487622', 'http://www.wikidata.org/entity/Q487984', 'http://www.wikidata.org/entity/Q488043', 'http://www.wikidata.org/entity/Q502101', 'http://www.wikidata.org/entity/Q520334', 'http://www.wikidata.org/entity/Q520760', 'http://www.wikidata.org/entity/Q535157', 'http://www.wikidata.org/entity/Q535172', 'http://www.wikidata.org/entity/Q535234', 'http://www.wikidata.org/entity/Q535831', 'http://www.wikidata.org/entity/Q539358', 'http://www.wikidata.org/entity/Q555679', 'http://www.wikidata.org/entity/Q560360', 'http://www.wikidata.org/entity/Q466483', 'http://www.wikidata.org/entity/Q468258', 'http://www.wikidata.org/entity/Q472491', 'http://www.wikidata.org/entity/Q488008', 'http://www.wikidata.org/entity/Q535280', 'http://www.wikidata.org/entity/Q538639', 'http://www.wikidata.org/entity/Q592219', 'http://www.wikidata.org/entity/Q620632', 'http://www.wikidata.org/entity/Q641389', 'http://www.wikidata.org/entity/Q708484', 'http://www.wikidata.org/entity/Q708489', 'http://www.wikidata.org/entity/Q709634', 'http://www.wikidata.org/entity/Q711010', 'http://www.wikidata.org/entity/Q722142', 'http://www.wikidata.org/entity/Q725659', 'http://www.wikidata.org/entity/Q727902', 'http://www.wikidata.org/entity/Q728371', 'http://www.wikidata.org/entity/Q730170', 'http://www.wikidata.org/entity/Q730220', 'http://www.wikidata.org/entity/Q820606', 'http://www.wikidata.org/entity/Q706809', 'http://www.wikidata.org/entity/Q708452', 'http://www.wikidata.org/entity/Q708689', 'http://www.wikidata.org/entity/Q221615', 'http://www.wikidata.org/entity/Q252726', 'http://www.wikidata.org/entity/Q255764', 'http://www.wikidata.org/entity/Q261731', 'http://www.wikidata.org/entity/Q266359', 'http://www.wikidata.org/entity/Q280301', 'http://www.wikidata.org/entity/Q281604', 'http://www.wikidata.org/entity/Q283544', 'http://www.wikidata.org/entity/Q312474', 'http://www.wikidata.org/entity/Q313399', 'http://www.wikidata.org/entity/Q313815', 'http://www.wikidata.org/entity/Q314921', 'http://www.wikidata.org/entity/Q317792', 'http://www.wikidata.org/entity/Q320068', 'http://www.wikidata.org/entity/Q342338', 'http://www.wikidata.org/entity/Q342953', 'http://www.wikidata.org/entity/Q345288', 'http://www.wikidata.org/entity/Q347977', 'http://www.wikidata.org/entity/Q348205', 'http://www.wikidata.org/entity/Q352137', 'http://www.wikidata.org/entity/Q345658', 'http://www.wikidata.org/entity/Q355433', 'http://www.wikidata.org/entity/Q834956', 'http://www.wikidata.org/entity/Q927249', 'http://www.wikidata.org/entity/Q956160', 'http://www.wikidata.org/entity/Q963226', 'http://www.wikidata.org/entity/Q1100407', 'http://www.wikidata.org/entity/Q3492123', 'http://www.wikidata.org/entity/Q4098485', 'http://www.wikidata.org/entity/Q4131995', 'http://www.wikidata.org/entity/Q4181402', 'http://www.wikidata.org/entity/Q4196202', 'http://www.wikidata.org/entity/Q4994273', 'http://www.wikidata.org/entity/Q7258156', 'http://www.wikidata.org/entity/Q8070504', 'http://www.wikidata.org/entity/Q9601011', 'http://www.wikidata.org/entity/Q10335385', 'http://www.wikidata.org/entity/Q10340525', 'http://www.wikidata.org/entity/Q17426654', 'http://www.wikidata.org/entity/Q17426873', 'http://www.wikidata.org/entity/Q17593757', 'http://www.wikidata.org/entity/Q18236847', 'http://www.wikidata.org/entity/Q18352451', 'http://www.wikidata.org/entity/Q19366412', 'http://www.wikidata.org/entity/Q21481122', 'http://www.wikidata.org/entity/Q26255563', 'http://www.wikidata.org/entity/Q26776784', 'http://www.wikidata.org/entity/Q26837347', 'http://www.wikidata.org/entity/Q103929698', 'http://www.wikidata.org/entity/Q109491621', 'http://www.wikidata.org/entity/Q121567180', 'http://www.wikidata.org/entity/Q928034', 'http://www.wikidata.org/entity/Q975217', 'http://www.wikidata.org/entity/Q1009884', 'http://www.wikidata.org/entity/Q1100745', 'http://www.wikidata.org/entity/Q1243689', 'http://www.wikidata.org/entity/Q1406012', 'http://www.wikidata.org/entity/Q2474284', 'http://www.wikidata.org/entity/Q2655329', 'http://www.wikidata.org/entity/Q3329196', 'http://www.wikidata.org/entity/Q3501233', 'http://www.wikidata.org/entity/Q3553627', 'http://www.wikidata.org/entity/Q4715991', 'http://www.wikidata.org/entity/Q6740250', 'http://www.wikidata.org/entity/Q7086024', 'http://www.wikidata.org/entity/Q7454059', 'http://www.wikidata.org/entity/Q11685717', 'http://www.wikidata.org/entity/Q12040315', 'http://www.wikidata.org/entity/Q13519676', 'http://www.wikidata.org/entity/Q13889299', 'http://www.wikidata.org/entity/Q16153519', 'http://www.wikidata.org/entity/Q16522978', 'http://www.wikidata.org/entity/Q17427763', 'http://www.wikidata.org/entity/Q21106378', 'http://www.wikidata.org/entity/Q21154027', 'http://www.wikidata.org/entity/Q21856852', 'http://www.wikidata.org/entity/Q28195006', 'http://www.wikidata.org/entity/Q50379072', 'http://www.wikidata.org/entity/Q50379654', 'http://www.wikidata.org/entity/Q50379760', 'http://www.wikidata.org/entity/Q50379793', 'http://www.wikidata.org/entity/Q85859878', 'http://www.wikidata.org/entity/Q85861593', 'http://www.wikidata.org/entity/Q85867505', 'http://www.wikidata.org/entity/Q109490108', 'http://www.wikidata.org/entity/Q109490152', 'http://www.wikidata.org/entity/Q109490367', 'http://www.wikidata.org/entity/Q109490394', 'http://www.wikidata.org/entity/Q109491455', 'http://www.wikidata.org/entity/Q109491693', 'http://www.wikidata.org/entity/Q109493060', 'http://www.wikidata.org/entity/Q109493064', 'http://www.wikidata.org/entity/Q118114238']</t>
         </is>
       </c>
     </row>
@@ -1266,7 +1266,7 @@
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>['http://www.wikidata.org/entity/Q104152580', 'http://www.wikidata.org/entity/Q732855', 'http://www.wikidata.org/entity/Q2256434', 'http://www.wikidata.org/entity/Q19544160', 'http://www.wikidata.org/entity/Q23783835', 'http://www.wikidata.org/entity/Q33121275', 'http://www.wikidata.org/entity/Q33121462', 'http://www.wikidata.org/entity/Q820425', 'http://www.wikidata.org/entity/Q5413188', 'http://www.wikidata.org/entity/Q25379154', 'http://www.wikidata.org/entity/Q33121215', 'http://www.wikidata.org/entity/Q33121240', 'http://www.wikidata.org/entity/Q33121564', 'http://www.wikidata.org/entity/Q50038605', 'http://www.wikidata.org/entity/Q62273233', 'http://www.wikidata.org/entity/Q110723776', 'http://www.wikidata.org/entity/Q171183', 'http://www.wikidata.org/entity/Q219495', 'http://www.wikidata.org/entity/Q264955', 'http://www.wikidata.org/entity/Q374300', 'http://www.wikidata.org/entity/Q389818', 'http://www.wikidata.org/entity/Q497510', 'http://www.wikidata.org/entity/Q691715', 'http://www.wikidata.org/entity/Q699385', 'http://www.wikidata.org/entity/Q1224690', 'http://www.wikidata.org/entity/Q1391132', 'http://www.wikidata.org/entity/Q1597589', 'http://www.wikidata.org/entity/Q1667822', 'http://www.wikidata.org/entity/Q2624519', 'http://www.wikidata.org/entity/Q3075378', 'http://www.wikidata.org/entity/Q3075457', 'http://www.wikidata.org/entity/Q3146553', 'http://www.wikidata.org/entity/Q3153252', 'http://www.wikidata.org/entity/Q3356079', 'http://www.wikidata.org/entity/Q3799691', 'http://www.wikidata.org/entity/Q4330268', 'http://www.wikidata.org/entity/Q4992719', 'http://www.wikidata.org/entity/Q5532982', 'http://www.wikidata.org/entity/Q5570101', 'http://www.wikidata.org/entity/Q15788373', 'http://www.wikidata.org/entity/Q17076790', 'http://www.wikidata.org/entity/Q23778328', 'http://www.wikidata.org/entity/Q30273969', 'http://www.wikidata.org/entity/Q30274493', 'http://www.wikidata.org/entity/Q33121522', 'http://www.wikidata.org/entity/Q33121529', 'http://www.wikidata.org/entity/Q33121684', 'http://www.wikidata.org/entity/Q33121779', 'http://www.wikidata.org/entity/Q50036015', 'http://www.wikidata.org/entity/Q50036195', 'http://www.wikidata.org/entity/Q50038499', 'http://www.wikidata.org/entity/Q50038814', 'http://www.wikidata.org/entity/Q50038815', 'http://www.wikidata.org/entity/Q50039186', 'http://www.wikidata.org/entity/Q50039820', 'http://www.wikidata.org/entity/Q50497525', 'http://www.wikidata.org/entity/Q55504880', 'http://www.wikidata.org/entity/Q107173975', 'http://www.wikidata.org/entity/Q110608053', 'http://www.wikidata.org/entity/Q116444672', 'http://www.wikidata.org/entity/Q116971607', 'http://www.wikidata.org/entity/Q170', 'http://www.wikidata.org/entity/Q35572', 'http://www.wikidata.org/entity/Q253414', 'http://www.wikidata.org/entity/Q404083', 'http://www.wikidata.org/entity/Q683229', 'http://www.wikidata.org/entity/Q683733', 'http://www.wikidata.org/entity/Q693257', 'http://www.wikidata.org/entity/Q795901', 'http://www.wikidata.org/entity/Q864905', 'http://www.wikidata.org/entity/Q870014', 'http://www.wikidata.org/entity/Q2256497', 'http://www.wikidata.org/entity/Q2453242', 'http://www.wikidata.org/entity/Q3356076', 'http://www.wikidata.org/entity/Q7658834', 'http://www.wikidata.org/entity/Q15837072', 'http://www.wikidata.org/entity/Q15854413', 'http://www.wikidata.org/entity/Q17089361', 'http://www.wikidata.org/entity/Q30274496', 'http://www.wikidata.org/entity/Q33121272', 'http://www.wikidata.org/entity/Q33121276', 'http://www.wikidata.org/entity/Q33121342', 'http://www.wikidata.org/entity/Q33121648', 'http://www.wikidata.org/entity/Q33121677', 'http://www.wikidata.org/entity/Q33121782', 'http://www.wikidata.org/entity/Q39059230', 'http://www.wikidata.org/entity/Q43895121', 'http://www.wikidata.org/entity/Q50036344', 'http://www.wikidata.org/entity/Q50040861', 'http://www.wikidata.org/entity/Q50497516', 'http://www.wikidata.org/entity/Q50497521', 'http://www.wikidata.org/entity/Q59440381', 'http://www.wikidata.org/entity/Q60054054', 'http://www.wikidata.org/entity/Q86079220', 'http://www.wikidata.org/entity/Q106707240', 'http://www.wikidata.org/entity/Q110723761', 'http://www.wikidata.org/entity/Q110723771', 'http://www.wikidata.org/entity/Q112981040', 'http://www.wikidata.org/entity/Q124713113', 'http://www.wikidata.org/entity/Q126722984', 'http://www.wikidata.org/entity/Q127425492', 'http://www.wikidata.org/entity/Q127691623', 'http://www.wikidata.org/entity/Q170418', 'http://www.wikidata.org/entity/Q188738', 'http://www.wikidata.org/entity/Q689707', 'http://www.wikidata.org/entity/Q918136', 'http://www.wikidata.org/entity/Q2256540', 'http://www.wikidata.org/entity/Q2256584', 'http://www.wikidata.org/entity/Q2372943', 'http://www.wikidata.org/entity/Q22032294', 'http://www.wikidata.org/entity/Q26836271', 'http://www.wikidata.org/entity/Q33121178', 'http://www.wikidata.org/entity/Q33121177', 'http://www.wikidata.org/entity/Q33121191', 'http://www.wikidata.org/entity/Q33121204', 'http://www.wikidata.org/entity/Q33121488', 'http://www.wikidata.org/entity/Q33121502', 'http://www.wikidata.org/entity/Q33121537', 'http://www.wikidata.org/entity/Q33121600', 'http://www.wikidata.org/entity/Q33121870', 'http://www.wikidata.org/entity/Q42419062', 'http://www.wikidata.org/entity/Q50036191', 'http://www.wikidata.org/entity/Q50037541', 'http://www.wikidata.org/entity/Q50037595', 'http://www.wikidata.org/entity/Q50038395', 'http://www.wikidata.org/entity/Q50038402', 'http://www.wikidata.org/entity/Q50038452', 'http://www.wikidata.org/entity/Q50357847', 'http://www.wikidata.org/entity/Q52063654', 'http://www.wikidata.org/entity/Q56248905', 'http://www.wikidata.org/entity/Q63449242', 'http://www.wikidata.org/entity/Q71519009', 'http://www.wikidata.org/entity/Q106311308', 'http://www.wikidata.org/entity/Q110723546', 'http://www.wikidata.org/entity/Q111657755', 'http://www.wikidata.org/entity/Q118468568', 'http://www.wikidata.org/entity/Q124512339', 'http://www.wikidata.org/entity/Q294830', 'http://www.wikidata.org/entity/Q693652', 'http://www.wikidata.org/entity/Q1036336', 'http://www.wikidata.org/entity/Q1664146', 'http://www.wikidata.org/entity/Q2420112', 'http://www.wikidata.org/entity/Q2867479', 'http://www.wikidata.org/entity/Q3075460', 'http://www.wikidata.org/entity/Q5413090', 'http://www.wikidata.org/entity/Q6050984', 'http://www.wikidata.org/entity/Q6674179', 'http://www.wikidata.org/entity/Q15906149', 'http://www.wikidata.org/entity/Q16529040', 'http://www.wikidata.org/entity/Q30274033', 'http://www.wikidata.org/entity/Q30274495', 'http://www.wikidata.org/entity/Q33121167', 'http://www.wikidata.org/entity/Q33121243', 'http://www.wikidata.org/entity/Q33121532', 'http://www.wikidata.org/entity/Q33121657', 'http://www.wikidata.org/entity/Q33121712', 'http://www.wikidata.org/entity/Q33121719', 'http://www.wikidata.org/entity/Q33122059', 'http://www.wikidata.org/entity/Q36875162', 'http://www.wikidata.org/entity/Q43895103', 'http://www.wikidata.org/entity/Q47354014', 'http://www.wikidata.org/entity/Q50035308', 'http://www.wikidata.org/entity/Q50035914', 'http://www.wikidata.org/entity/Q50037539', 'http://www.wikidata.org/entity/Q100956299', 'http://www.wikidata.org/entity/Q104862892', 'http://www.wikidata.org/entity/Q105357212', 'http://www.wikidata.org/entity/Q111659969', 'http://www.wikidata.org/entity/Q112981096', 'http://www.wikidata.org/entity/Q112981524', 'http://www.wikidata.org/entity/Q116739022', 'http://www.wikidata.org/entity/Q122664134', 'http://www.wikidata.org/entity/Q122792083', 'http://www.wikidata.org/entity/Q122908608', 'http://www.wikidata.org/entity/Q123516986', 'http://www.wikidata.org/entity/Q125556306', 'http://www.wikidata.org/entity/Q40970', 'http://www.wikidata.org/entity/Q2521633', 'http://www.wikidata.org/entity/Q4127349', 'http://www.wikidata.org/entity/Q6049412', 'http://www.wikidata.org/entity/Q33121208', 'http://www.wikidata.org/entity/Q125504378', 'http://www.wikidata.org/entity/Q107569', 'http://www.wikidata.org/entity/Q1457514', 'http://www.wikidata.org/entity/Q2147551', 'http://www.wikidata.org/entity/Q18020748', 'http://www.wikidata.org/entity/Q30274034', 'http://www.wikidata.org/entity/Q30274508', 'http://www.wikidata.org/entity/Q33121449', 'http://www.wikidata.org/entity/Q33121953', 'http://www.wikidata.org/entity/Q50037628', 'http://www.wikidata.org/entity/Q65972533', 'http://www.wikidata.org/entity/Q99838610', 'http://www.wikidata.org/entity/Q100956050', 'http://www.wikidata.org/entity/Q104193127', 'http://www.wikidata.org/entity/Q112981318']</t>
+          <t>['http://www.wikidata.org/entity/Q104152580', 'http://www.wikidata.org/entity/Q732855', 'http://www.wikidata.org/entity/Q2256434', 'http://www.wikidata.org/entity/Q19544160', 'http://www.wikidata.org/entity/Q23783835', 'http://www.wikidata.org/entity/Q33121275', 'http://www.wikidata.org/entity/Q689707', 'http://www.wikidata.org/entity/Q820425', 'http://www.wikidata.org/entity/Q918136', 'http://www.wikidata.org/entity/Q1664146', 'http://www.wikidata.org/entity/Q6674179', 'http://www.wikidata.org/entity/Q15906149', 'http://www.wikidata.org/entity/Q25379154', 'http://www.wikidata.org/entity/Q30274033', 'http://www.wikidata.org/entity/Q33121167', 'http://www.wikidata.org/entity/Q33121243', 'http://www.wikidata.org/entity/Q33121657', 'http://www.wikidata.org/entity/Q33121719', 'http://www.wikidata.org/entity/Q33122059', 'http://www.wikidata.org/entity/Q43895103', 'http://www.wikidata.org/entity/Q50035308', 'http://www.wikidata.org/entity/Q50035914', 'http://www.wikidata.org/entity/Q50037539', 'http://www.wikidata.org/entity/Q110723776', 'http://www.wikidata.org/entity/Q112981524', 'http://www.wikidata.org/entity/Q115095', 'http://www.wikidata.org/entity/Q33121215', 'http://www.wikidata.org/entity/Q71519009', 'http://www.wikidata.org/entity/Q100956299', 'http://www.wikidata.org/entity/Q105357212', 'http://www.wikidata.org/entity/Q106311308', 'http://www.wikidata.org/entity/Q110723546', 'http://www.wikidata.org/entity/Q111657755', 'http://www.wikidata.org/entity/Q118468568', 'http://www.wikidata.org/entity/Q123516986', 'http://www.wikidata.org/entity/Q40970', 'http://www.wikidata.org/entity/Q170418', 'http://www.wikidata.org/entity/Q253414', 'http://www.wikidata.org/entity/Q404083', 'http://www.wikidata.org/entity/Q525012', 'http://www.wikidata.org/entity/Q683229', 'http://www.wikidata.org/entity/Q683733', 'http://www.wikidata.org/entity/Q2256497', 'http://www.wikidata.org/entity/Q2453242', 'http://www.wikidata.org/entity/Q3356076', 'http://www.wikidata.org/entity/Q30273969', 'http://www.wikidata.org/entity/Q30274493', 'http://www.wikidata.org/entity/Q30274496', 'http://www.wikidata.org/entity/Q33121272', 'http://www.wikidata.org/entity/Q33121342', 'http://www.wikidata.org/entity/Q33121648', 'http://www.wikidata.org/entity/Q33121677', 'http://www.wikidata.org/entity/Q33121782', 'http://www.wikidata.org/entity/Q33121870', 'http://www.wikidata.org/entity/Q39059230', 'http://www.wikidata.org/entity/Q43895121', 'http://www.wikidata.org/entity/Q50038814', 'http://www.wikidata.org/entity/Q50040861', 'http://www.wikidata.org/entity/Q50497516', 'http://www.wikidata.org/entity/Q50497521', 'http://www.wikidata.org/entity/Q59440381', 'http://www.wikidata.org/entity/Q60054054', 'http://www.wikidata.org/entity/Q65078509', 'http://www.wikidata.org/entity/Q86079220', 'http://www.wikidata.org/entity/Q104481044', 'http://www.wikidata.org/entity/Q106707240', 'http://www.wikidata.org/entity/Q110723761', 'http://www.wikidata.org/entity/Q110723771', 'http://www.wikidata.org/entity/Q112981040', 'http://www.wikidata.org/entity/Q124713113', 'http://www.wikidata.org/entity/Q126722984', 'http://www.wikidata.org/entity/Q127691623', 'http://www.wikidata.org/entity/Q131388646', 'http://www.wikidata.org/entity/Q131926572', 'http://www.wikidata.org/entity/Q188738', 'http://www.wikidata.org/entity/Q693257', 'http://www.wikidata.org/entity/Q795901', 'http://www.wikidata.org/entity/Q864905', 'http://www.wikidata.org/entity/Q870014', 'http://www.wikidata.org/entity/Q2256540', 'http://www.wikidata.org/entity/Q2256584', 'http://www.wikidata.org/entity/Q2372943', 'http://www.wikidata.org/entity/Q5474445', 'http://www.wikidata.org/entity/Q6805007', 'http://www.wikidata.org/entity/Q7658834', 'http://www.wikidata.org/entity/Q15837072', 'http://www.wikidata.org/entity/Q15854413', 'http://www.wikidata.org/entity/Q17089361', 'http://www.wikidata.org/entity/Q22032294', 'http://www.wikidata.org/entity/Q26836271', 'http://www.wikidata.org/entity/Q30274495', 'http://www.wikidata.org/entity/Q33121178', 'http://www.wikidata.org/entity/Q33121177', 'http://www.wikidata.org/entity/Q33121191', 'http://www.wikidata.org/entity/Q33121204', 'http://www.wikidata.org/entity/Q33121276', 'http://www.wikidata.org/entity/Q33121488', 'http://www.wikidata.org/entity/Q33121502', 'http://www.wikidata.org/entity/Q33121537', 'http://www.wikidata.org/entity/Q42419062', 'http://www.wikidata.org/entity/Q50036191', 'http://www.wikidata.org/entity/Q50036344', 'http://www.wikidata.org/entity/Q50037541', 'http://www.wikidata.org/entity/Q50037595', 'http://www.wikidata.org/entity/Q50038395', 'http://www.wikidata.org/entity/Q50038402', 'http://www.wikidata.org/entity/Q50038452', 'http://www.wikidata.org/entity/Q50357847', 'http://www.wikidata.org/entity/Q52063654', 'http://www.wikidata.org/entity/Q56248905', 'http://www.wikidata.org/entity/Q62273233', 'http://www.wikidata.org/entity/Q63449242', 'http://www.wikidata.org/entity/Q124512339', 'http://www.wikidata.org/entity/Q171183', 'http://www.wikidata.org/entity/Q191275', 'http://www.wikidata.org/entity/Q219495', 'http://www.wikidata.org/entity/Q264955', 'http://www.wikidata.org/entity/Q374300', 'http://www.wikidata.org/entity/Q389818', 'http://www.wikidata.org/entity/Q497510', 'http://www.wikidata.org/entity/Q583031', 'http://www.wikidata.org/entity/Q643370', 'http://www.wikidata.org/entity/Q684784', 'http://www.wikidata.org/entity/Q689768', 'http://www.wikidata.org/entity/Q691715', 'http://www.wikidata.org/entity/Q699385', 'http://www.wikidata.org/entity/Q1069175', 'http://www.wikidata.org/entity/Q1184878', 'http://www.wikidata.org/entity/Q1224690', 'http://www.wikidata.org/entity/Q1391132', 'http://www.wikidata.org/entity/Q1597589', 'http://www.wikidata.org/entity/Q1601925', 'http://www.wikidata.org/entity/Q1667822', 'http://www.wikidata.org/entity/Q2624519', 'http://www.wikidata.org/entity/Q3075378', 'http://www.wikidata.org/entity/Q3075457', 'http://www.wikidata.org/entity/Q3146553', 'http://www.wikidata.org/entity/Q3153252', 'http://www.wikidata.org/entity/Q3356079', 'http://www.wikidata.org/entity/Q3799691', 'http://www.wikidata.org/entity/Q4330268', 'http://www.wikidata.org/entity/Q4650878', 'http://www.wikidata.org/entity/Q4992719', 'http://www.wikidata.org/entity/Q5532982', 'http://www.wikidata.org/entity/Q5570101', 'http://www.wikidata.org/entity/Q6056261', 'http://www.wikidata.org/entity/Q15788373', 'http://www.wikidata.org/entity/Q17076790', 'http://www.wikidata.org/entity/Q23778328', 'http://www.wikidata.org/entity/Q33121462', 'http://www.wikidata.org/entity/Q33121522', 'http://www.wikidata.org/entity/Q33121529', 'http://www.wikidata.org/entity/Q33121684', 'http://www.wikidata.org/entity/Q33121779', 'http://www.wikidata.org/entity/Q50036015', 'http://www.wikidata.org/entity/Q50036195', 'http://www.wikidata.org/entity/Q50038499', 'http://www.wikidata.org/entity/Q50038815', 'http://www.wikidata.org/entity/Q50039186', 'http://www.wikidata.org/entity/Q50039820', 'http://www.wikidata.org/entity/Q50497525', 'http://www.wikidata.org/entity/Q55504880', 'http://www.wikidata.org/entity/Q107173975', 'http://www.wikidata.org/entity/Q110608053', 'http://www.wikidata.org/entity/Q116444672', 'http://www.wikidata.org/entity/Q116971607', 'http://www.wikidata.org/entity/Q127425492', 'http://www.wikidata.org/entity/Q170', 'http://www.wikidata.org/entity/Q35572', 'http://www.wikidata.org/entity/Q107569', 'http://www.wikidata.org/entity/Q294830', 'http://www.wikidata.org/entity/Q693652', 'http://www.wikidata.org/entity/Q1036336', 'http://www.wikidata.org/entity/Q2147551', 'http://www.wikidata.org/entity/Q2420112', 'http://www.wikidata.org/entity/Q2867479', 'http://www.wikidata.org/entity/Q3075460', 'http://www.wikidata.org/entity/Q5413090', 'http://www.wikidata.org/entity/Q5413188', 'http://www.wikidata.org/entity/Q6050984', 'http://www.wikidata.org/entity/Q16529040', 'http://www.wikidata.org/entity/Q18020748', 'http://www.wikidata.org/entity/Q33121240', 'http://www.wikidata.org/entity/Q33121449', 'http://www.wikidata.org/entity/Q33121532', 'http://www.wikidata.org/entity/Q33121564', 'http://www.wikidata.org/entity/Q33121600', 'http://www.wikidata.org/entity/Q33121712', 'http://www.wikidata.org/entity/Q36875162', 'http://www.wikidata.org/entity/Q47354014', 'http://www.wikidata.org/entity/Q50037628', 'http://www.wikidata.org/entity/Q50038605', 'http://www.wikidata.org/entity/Q104193127', 'http://www.wikidata.org/entity/Q104862892', 'http://www.wikidata.org/entity/Q111659969', 'http://www.wikidata.org/entity/Q112981096', 'http://www.wikidata.org/entity/Q116739022', 'http://www.wikidata.org/entity/Q122664134', 'http://www.wikidata.org/entity/Q122792083', 'http://www.wikidata.org/entity/Q122908608', 'http://www.wikidata.org/entity/Q125556306', 'http://www.wikidata.org/entity/Q1457514', 'http://www.wikidata.org/entity/Q2521633', 'http://www.wikidata.org/entity/Q4127349', 'http://www.wikidata.org/entity/Q6049412', 'http://www.wikidata.org/entity/Q30274034', 'http://www.wikidata.org/entity/Q30274508', 'http://www.wikidata.org/entity/Q33121208', 'http://www.wikidata.org/entity/Q33121953', 'http://www.wikidata.org/entity/Q65972533', 'http://www.wikidata.org/entity/Q99838610', 'http://www.wikidata.org/entity/Q100956050', 'http://www.wikidata.org/entity/Q112981318', 'http://www.wikidata.org/entity/Q125504378']</t>
         </is>
       </c>
     </row>
@@ -1288,7 +1288,7 @@
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>['http://www.wikidata.org/entity/Q69585', 'http://www.wikidata.org/entity/Q181832', 'http://www.wikidata.org/entity/Q888025', 'http://www.wikidata.org/entity/Q324108', 'http://www.wikidata.org/entity/Q122377', 'http://www.wikidata.org/entity/Q167444', 'http://www.wikidata.org/entity/Q57402', 'http://www.wikidata.org/entity/Q57480', 'http://www.wikidata.org/entity/Q57667', 'http://www.wikidata.org/entity/Q313353', 'http://www.wikidata.org/entity/Q2821166', 'http://www.wikidata.org/entity/Q179242', 'http://www.wikidata.org/entity/Q3181301', 'http://www.wikidata.org/entity/Q3322037', 'http://www.wikidata.org/entity/Q308210', 'http://www.wikidata.org/entity/Q13593432', 'http://www.wikidata.org/entity/Q4715', 'http://www.wikidata.org/entity/Q3514836', 'http://www.wikidata.org/entity/Q474312', 'http://www.wikidata.org/entity/Q646182', 'http://www.wikidata.org/entity/Q6012345']</t>
+          <t>['http://www.wikidata.org/entity/Q69585', 'http://www.wikidata.org/entity/Q181832', 'http://www.wikidata.org/entity/Q3514836', 'http://www.wikidata.org/entity/Q888025', 'http://www.wikidata.org/entity/Q122377', 'http://www.wikidata.org/entity/Q57402', 'http://www.wikidata.org/entity/Q179242', 'http://www.wikidata.org/entity/Q3181301', 'http://www.wikidata.org/entity/Q3322037', 'http://www.wikidata.org/entity/Q167444', 'http://www.wikidata.org/entity/Q13593432', 'http://www.wikidata.org/entity/Q4715', 'http://www.wikidata.org/entity/Q308210', 'http://www.wikidata.org/entity/Q324108', 'http://www.wikidata.org/entity/Q57480', 'http://www.wikidata.org/entity/Q57667', 'http://www.wikidata.org/entity/Q474312', 'http://www.wikidata.org/entity/Q646182', 'http://www.wikidata.org/entity/Q6012345', 'http://www.wikidata.org/entity/Q313353', 'http://www.wikidata.org/entity/Q2821166']</t>
         </is>
       </c>
     </row>
@@ -1354,7 +1354,7 @@
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>['http://www.wikidata.org/entity/Q4512', 'http://www.wikidata.org/entity/Q6463', 'http://www.wikidata.org/entity/Q15755', 'http://www.wikidata.org/entity/Q15789', 'http://www.wikidata.org/entity/Q22707', 'http://www.wikidata.org/entity/Q38245', 'http://www.wikidata.org/entity/Q41420', 'http://www.wikidata.org/entity/Q51976', 'http://www.wikidata.org/entity/Q101859', 'http://www.wikidata.org/entity/Q101959', 'http://www.wikidata.org/entity/Q104761', 'http://www.wikidata.org/entity/Q105254', 'http://www.wikidata.org/entity/Q105861', 'http://www.wikidata.org/entity/Q106394', 'http://www.wikidata.org/entity/Q141971', 'http://www.wikidata.org/entity/Q157828', 'http://www.wikidata.org/entity/Q162251', 'http://www.wikidata.org/entity/Q702455']</t>
+          <t>['http://www.wikidata.org/entity/Q4512', 'http://www.wikidata.org/entity/Q6463', 'http://www.wikidata.org/entity/Q15755', 'http://www.wikidata.org/entity/Q15789', 'http://www.wikidata.org/entity/Q22707', 'http://www.wikidata.org/entity/Q38245', 'http://www.wikidata.org/entity/Q41420', 'http://www.wikidata.org/entity/Q51976', 'http://www.wikidata.org/entity/Q101859', 'http://www.wikidata.org/entity/Q101959', 'http://www.wikidata.org/entity/Q104761', 'http://www.wikidata.org/entity/Q105254', 'http://www.wikidata.org/entity/Q105861', 'http://www.wikidata.org/entity/Q106394', 'http://www.wikidata.org/entity/Q702455', 'http://www.wikidata.org/entity/Q141971', 'http://www.wikidata.org/entity/Q157828', 'http://www.wikidata.org/entity/Q162251']</t>
         </is>
       </c>
     </row>
@@ -1398,7 +1398,7 @@
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>['603']</t>
+          <t>['614']</t>
         </is>
       </c>
     </row>
@@ -1420,7 +1420,7 @@
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>['http://www.wikidata.org/entity/Q24910', 'http://www.wikidata.org/entity/Q24911', 'http://www.wikidata.org/entity/Q32303', 'http://www.wikidata.org/entity/Q20493713', 'http://www.wikidata.org/entity/Q20494430', 'http://www.wikidata.org/entity/Q20494889', 'http://www.wikidata.org/entity/Q20495158', 'http://www.wikidata.org/entity/Q20653258', 'http://www.wikidata.org/entity/Q20727879', 'http://www.wikidata.org/entity/Q61061048', 'http://www.wikidata.org/entity/Q165525', 'http://www.wikidata.org/entity/Q165699', 'http://www.wikidata.org/entity/Q194649', 'http://www.wikidata.org/entity/Q195920', 'http://www.wikidata.org/entity/Q195959', 'http://www.wikidata.org/entity/Q196103', 'http://www.wikidata.org/entity/Q205687', 'http://www.wikidata.org/entity/Q221887', 'http://www.wikidata.org/entity/Q224618', 'http://www.wikidata.org/entity/Q230608', 'http://www.wikidata.org/entity/Q254687', 'http://www.wikidata.org/entity/Q255181', 'http://www.wikidata.org/entity/Q151730', 'http://www.wikidata.org/entity/Q110365', 'http://www.wikidata.org/entity/Q117378', 'http://www.wikidata.org/entity/Q127011', 'http://www.wikidata.org/entity/Q63930921', 'http://www.wikidata.org/entity/Q63959157', 'http://www.wikidata.org/entity/Q64787782', 'http://www.wikidata.org/entity/Q64819690', 'http://www.wikidata.org/entity/Q65374542', 'http://www.wikidata.org/entity/Q65375718', 'http://www.wikidata.org/entity/Q65613232', 'http://www.wikidata.org/entity/Q65619940', 'http://www.wikidata.org/entity/Q65622059', 'http://www.wikidata.org/entity/Q65622086', 'http://www.wikidata.org/entity/Q65665494', 'http://www.wikidata.org/entity/Q108301630', 'http://www.wikidata.org/entity/Q111255011', 'http://www.wikidata.org/entity/Q59721', 'http://www.wikidata.org/entity/Q62513', 'http://www.wikidata.org/entity/Q276343', 'http://www.wikidata.org/entity/Q279255', 'http://www.wikidata.org/entity/Q4037757', 'http://www.wikidata.org/entity/Q12314322', 'http://www.wikidata.org/entity/Q12320999', 'http://www.wikidata.org/entity/Q87997688', 'http://www.wikidata.org/entity/Q100929104', 'http://www.wikidata.org/entity/Q286619', 'http://www.wikidata.org/entity/Q300442', 'http://www.wikidata.org/entity/Q304394', 'http://www.wikidata.org/entity/Q312394', 'http://www.wikidata.org/entity/Q316761', 'http://www.wikidata.org/entity/Q110626835', 'http://www.wikidata.org/entity/Q327681', 'http://www.wikidata.org/entity/Q342637', 'http://www.wikidata.org/entity/Q108437454', 'http://www.wikidata.org/entity/Q352000', 'http://www.wikidata.org/entity/Q370707', 'http://www.wikidata.org/entity/Q372477', 'http://www.wikidata.org/entity/Q374373', 'http://www.wikidata.org/entity/Q387727', 'http://www.wikidata.org/entity/Q391263', 'http://www.wikidata.org/entity/Q392684', 'http://www.wikidata.org/entity/Q392960', 'http://www.wikidata.org/entity/Q401539', 'http://www.wikidata.org/entity/Q10671524', 'http://www.wikidata.org/entity/Q130342318', 'http://www.wikidata.org/entity/Q469708', 'http://www.wikidata.org/entity/Q475788', 'http://www.wikidata.org/entity/Q477307', 'http://www.wikidata.org/entity/Q33531490', 'http://www.wikidata.org/entity/Q33532062', 'http://www.wikidata.org/entity/Q33534121', 'http://www.wikidata.org/entity/Q33536679', 'http://www.wikidata.org/entity/Q33542677', 'http://www.wikidata.org/entity/Q33577599', 'http://www.wikidata.org/entity/Q431948', 'http://www.wikidata.org/entity/Q435189', 'http://www.wikidata.org/entity/Q441444', 'http://www.wikidata.org/entity/Q459997', 'http://www.wikidata.org/entity/Q460620', 'http://www.wikidata.org/entity/Q461645', 'http://www.wikidata.org/entity/Q462350', 'http://www.wikidata.org/entity/Q464440', 'http://www.wikidata.org/entity/Q20494380', 'http://www.wikidata.org/entity/Q20728902', 'http://www.wikidata.org/entity/Q20729174', 'http://www.wikidata.org/entity/Q20729586', 'http://www.wikidata.org/entity/Q20729676', 'http://www.wikidata.org/entity/Q20755929', 'http://www.wikidata.org/entity/Q20757057', 'http://www.wikidata.org/entity/Q20757452', 'http://www.wikidata.org/entity/Q20757460', 'http://www.wikidata.org/entity/Q492340', 'http://www.wikidata.org/entity/Q497260', 'http://www.wikidata.org/entity/Q498789', 'http://www.wikidata.org/entity/Q507285', 'http://www.wikidata.org/entity/Q569281', 'http://www.wikidata.org/entity/Q574713', 'http://www.wikidata.org/entity/Q574998', 'http://www.wikidata.org/entity/Q589953', 'http://www.wikidata.org/entity/Q598804', 'http://www.wikidata.org/entity/Q598865', 'http://www.wikidata.org/entity/Q75771369', 'http://www.wikidata.org/entity/Q640854', 'http://www.wikidata.org/entity/Q643268', 'http://www.wikidata.org/entity/Q643847', 'http://www.wikidata.org/entity/Q657986', 'http://www.wikidata.org/entity/Q666017', 'http://www.wikidata.org/entity/Q671754', 'http://www.wikidata.org/entity/Q682574', 'http://www.wikidata.org/entity/Q682695', 'http://www.wikidata.org/entity/Q690385', 'http://www.wikidata.org/entity/Q119175149', 'http://www.wikidata.org/entity/Q615237', 'http://www.wikidata.org/entity/Q625341', 'http://www.wikidata.org/entity/Q625345', 'http://www.wikidata.org/entity/Q625514', 'http://www.wikidata.org/entity/Q626954', 'http://www.wikidata.org/entity/Q626964', 'http://www.wikidata.org/entity/Q626968', 'http://www.wikidata.org/entity/Q626973', 'http://www.wikidata.org/entity/Q639154', 'http://www.wikidata.org/entity/Q111309453', 'http://www.wikidata.org/entity/Q538412', 'http://www.wikidata.org/entity/Q538516', 'http://www.wikidata.org/entity/Q64811467', 'http://www.wikidata.org/entity/Q64811483', 'http://www.wikidata.org/entity/Q64812647', 'http://www.wikidata.org/entity/Q69121620', 'http://www.wikidata.org/entity/Q72283487', 'http://www.wikidata.org/entity/Q72283821', 'http://www.wikidata.org/entity/Q762898', 'http://www.wikidata.org/entity/Q764783', 'http://www.wikidata.org/entity/Q766096', 'http://www.wikidata.org/entity/Q775356', 'http://www.wikidata.org/entity/Q781684', 'http://www.wikidata.org/entity/Q784369', 'http://www.wikidata.org/entity/Q790282', 'http://www.wikidata.org/entity/Q797679', 'http://www.wikidata.org/entity/Q805127', 'http://www.wikidata.org/entity/Q808700', 'http://www.wikidata.org/entity/Q813913', 'http://www.wikidata.org/entity/Q827199', 'http://www.wikidata.org/entity/Q827277', 'http://www.wikidata.org/entity/Q690651', 'http://www.wikidata.org/entity/Q734819', 'http://www.wikidata.org/entity/Q756444', 'http://www.wikidata.org/entity/Q759230', 'http://www.wikidata.org/entity/Q841958', 'http://www.wikidata.org/entity/Q882945', 'http://www.wikidata.org/entity/Q885169', 'http://www.wikidata.org/entity/Q897561', 'http://www.wikidata.org/entity/Q912049', 'http://www.wikidata.org/entity/Q933674', 'http://www.wikidata.org/entity/Q941126', 'http://www.wikidata.org/entity/Q954182', 'http://www.wikidata.org/entity/Q1218226', 'http://www.wikidata.org/entity/Q975962', 'http://www.wikidata.org/entity/Q990857', 'http://www.wikidata.org/entity/Q992227', 'http://www.wikidata.org/entity/Q1016657', 'http://www.wikidata.org/entity/Q1018491', 'http://www.wikidata.org/entity/Q1029748', 'http://www.wikidata.org/entity/Q1052389', 'http://www.wikidata.org/entity/Q1058095', 'http://www.wikidata.org/entity/Q1058578', 'http://www.wikidata.org/entity/Q1073856', 'http://www.wikidata.org/entity/Q1090737', 'http://www.wikidata.org/entity/Q1103638', 'http://www.wikidata.org/entity/Q1106764', 'http://www.wikidata.org/entity/Q1126097', 'http://www.wikidata.org/entity/Q1127630', 'http://www.wikidata.org/entity/Q1134037', 'http://www.wikidata.org/entity/Q1141731', 'http://www.wikidata.org/entity/Q1142950', 'http://www.wikidata.org/entity/Q1165090', 'http://www.wikidata.org/entity/Q1167202', 'http://www.wikidata.org/entity/Q1179100', 'http://www.wikidata.org/entity/Q1180628', 'http://www.wikidata.org/entity/Q1192010', 'http://www.wikidata.org/entity/Q1193228', 'http://www.wikidata.org/entity/Q1193235', 'http://www.wikidata.org/entity/Q1193606', 'http://www.wikidata.org/entity/Q1212397', 'http://www.wikidata.org/entity/Q1215271', 'http://www.wikidata.org/entity/Q1215282', 'http://www.wikidata.org/entity/Q1215281', 'http://www.wikidata.org/entity/Q1215294', 'http://www.wikidata.org/entity/Q1216829', 'http://www.wikidata.org/entity/Q1219667', 'http://www.wikidata.org/entity/Q1226345', 'http://www.wikidata.org/entity/Q1242222', 'http://www.wikidata.org/entity/Q1245864', 'http://www.wikidata.org/entity/Q1249231', 'http://www.wikidata.org/entity/Q1253821', 'http://www.wikidata.org/entity/Q1284216', 'http://www.wikidata.org/entity/Q1304619', 'http://www.wikidata.org/entity/Q1306297', 'http://www.wikidata.org/entity/Q1319856', 'http://www.wikidata.org/entity/Q1321282', 'http://www.wikidata.org/entity/Q1326419', 'http://www.wikidata.org/entity/Q1327845', 'http://www.wikidata.org/entity/Q1328286', 'http://www.wikidata.org/entity/Q1332491', 'http://www.wikidata.org/entity/Q1338487', 'http://www.wikidata.org/entity/Q1339911', 'http://www.wikidata.org/entity/Q1341116', 'http://www.wikidata.org/entity/Q1342038', 'http://www.wikidata.org/entity/Q1346495', 'http://www.wikidata.org/entity/Q1358956', 'http://www.wikidata.org/entity/Q1377566', 'http://www.wikidata.org/entity/Q1382421', 'http://www.wikidata.org/entity/Q1384034', 'http://www.wikidata.org/entity/Q1403033', 'http://www.wikidata.org/entity/Q1403042', 'http://www.wikidata.org/entity/Q1403047', 'http://www.wikidata.org/entity/Q1407094', 'http://www.wikidata.org/entity/Q1416607', 'http://www.wikidata.org/entity/Q1423329', 'http://www.wikidata.org/entity/Q1428455', 'http://www.wikidata.org/entity/Q1430594', 'http://www.wikidata.org/entity/Q1438966', 'http://www.wikidata.org/entity/Q1442230', 'http://www.wikidata.org/entity/Q1446749', 'http://www.wikidata.org/entity/Q1456651', 'http://www.wikidata.org/entity/Q1462630', 'http://www.wikidata.org/entity/Q1482548', 'http://www.wikidata.org/entity/Q1507766', 'http://www.wikidata.org/entity/Q1521948', 'http://www.wikidata.org/entity/Q1534667', 'http://www.wikidata.org/entity/Q1538599', 'http://www.wikidata.org/entity/Q1554218', 'http://www.wikidata.org/entity/Q1581514', 'http://www.wikidata.org/entity/Q1585018', 'http://www.wikidata.org/entity/Q1621638', 'http://www.wikidata.org/entity/Q1630226', 'http://www.wikidata.org/entity/Q1632262', 'http://www.wikidata.org/entity/Q1664445', 'http://www.wikidata.org/entity/Q1665143', 'http://www.wikidata.org/entity/Q1670867', 'http://www.wikidata.org/entity/Q1671510', 'http://www.wikidata.org/entity/Q1722219', 'http://www.wikidata.org/entity/Q1742410', 'http://www.wikidata.org/entity/Q1754532', 'http://www.wikidata.org/entity/Q1754559', 'http://www.wikidata.org/entity/Q1755197', 'http://www.wikidata.org/entity/Q1757020', 'http://www.wikidata.org/entity/Q1757030', 'http://www.wikidata.org/entity/Q1757810', 'http://www.wikidata.org/entity/Q1758363', 'http://www.wikidata.org/entity/Q1758519', 'http://www.wikidata.org/entity/Q1758576', 'http://www.wikidata.org/entity/Q1758883', 'http://www.wikidata.org/entity/Q1759042', 'http://www.wikidata.org/entity/Q1759123', 'http://www.wikidata.org/entity/Q1759619', 'http://www.wikidata.org/entity/Q1760129', 'http://www.wikidata.org/entity/Q1760354', 'http://www.wikidata.org/entity/Q1760358', 'http://www.wikidata.org/entity/Q1760364', 'http://www.wikidata.org/entity/Q1760391', 'http://www.wikidata.org/entity/Q1760823', 'http://www.wikidata.org/entity/Q1761295', 'http://www.wikidata.org/entity/Q1762512', 'http://www.wikidata.org/entity/Q1762519', 'http://www.wikidata.org/entity/Q1762537', 'http://www.wikidata.org/entity/Q1762695', 'http://www.wikidata.org/entity/Q1762798', 'http://www.wikidata.org/entity/Q1763585', 'http://www.wikidata.org/entity/Q1763879', 'http://www.wikidata.org/entity/Q1766342', 'http://www.wikidata.org/entity/Q1766498', 'http://www.wikidata.org/entity/Q1767018', 'http://www.wikidata.org/entity/Q1767235', 'http://www.wikidata.org/entity/Q1767472', 'http://www.wikidata.org/entity/Q1767675', 'http://www.wikidata.org/entity/Q1768770', 'http://www.wikidata.org/entity/Q1772262', 'http://www.wikidata.org/entity/Q1783771', 'http://www.wikidata.org/entity/Q1792217', 'http://www.wikidata.org/entity/Q1812183', 'http://www.wikidata.org/entity/Q1825174', 'http://www.wikidata.org/entity/Q1889303', 'http://www.wikidata.org/entity/Q1915512', 'http://www.wikidata.org/entity/Q1933953', 'http://www.wikidata.org/entity/Q2241055', 'http://www.wikidata.org/entity/Q2260825', 'http://www.wikidata.org/entity/Q2277610', 'http://www.wikidata.org/entity/Q2293735', 'http://www.wikidata.org/entity/Q2294677', 'http://www.wikidata.org/entity/Q2299929', 'http://www.wikidata.org/entity/Q2330111', 'http://www.wikidata.org/entity/Q2331220', 'http://www.wikidata.org/entity/Q2352630', 'http://www.wikidata.org/entity/Q2062163', 'http://www.wikidata.org/entity/Q2096145', 'http://www.wikidata.org/entity/Q2097072', 'http://www.wikidata.org/entity/Q2143831', 'http://www.wikidata.org/entity/Q2146491', 'http://www.wikidata.org/entity/Q2152819', 'http://www.wikidata.org/entity/Q2198202', 'http://www.wikidata.org/entity/Q1977126', 'http://www.wikidata.org/entity/Q1977130', 'http://www.wikidata.org/entity/Q2017132', 'http://www.wikidata.org/entity/Q2378130', 'http://www.wikidata.org/entity/Q2394751', 'http://www.wikidata.org/entity/Q2411663', 'http://www.wikidata.org/entity/Q2434685', 'http://www.wikidata.org/entity/Q2438579', 'http://www.wikidata.org/entity/Q2457086', 'http://www.wikidata.org/entity/Q2466081', 'http://www.wikidata.org/entity/Q2550198', 'http://www.wikidata.org/entity/Q2595780', 'http://www.wikidata.org/entity/Q2608065', 'http://www.wikidata.org/entity/Q2617594', 'http://www.wikidata.org/entity/Q2632905', 'http://www.wikidata.org/entity/Q2646419', 'http://www.wikidata.org/entity/Q2656723', 'http://www.wikidata.org/entity/Q2679094', 'http://www.wikidata.org/entity/Q2735941', 'http://www.wikidata.org/entity/Q2779388', 'http://www.wikidata.org/entity/Q2947409', 'http://www.wikidata.org/entity/Q2900465', 'http://www.wikidata.org/entity/Q2904867', 'http://www.wikidata.org/entity/Q3061415', 'http://www.wikidata.org/entity/Q3078014', 'http://www.wikidata.org/entity/Q3099418', 'http://www.wikidata.org/entity/Q3148900', 'http://www.wikidata.org/entity/Q3190021', 'http://www.wikidata.org/entity/Q3204055', 'http://www.wikidata.org/entity/Q3220633', 'http://www.wikidata.org/entity/Q3235886', 'http://www.wikidata.org/entity/Q3264250', 'http://www.wikidata.org/entity/Q3226056', 'http://www.wikidata.org/entity/Q3228255', 'http://www.wikidata.org/entity/Q3284962', 'http://www.wikidata.org/entity/Q3286160', 'http://www.wikidata.org/entity/Q3317884', 'http://www.wikidata.org/entity/Q3346699', 'http://www.wikidata.org/entity/Q3363736', 'http://www.wikidata.org/entity/Q3422806', 'http://www.wikidata.org/entity/Q3574023', 'http://www.wikidata.org/entity/Q3574048', 'http://www.wikidata.org/entity/Q3558697', 'http://www.wikidata.org/entity/Q3567719', 'http://www.wikidata.org/entity/Q3467601', 'http://www.wikidata.org/entity/Q3480785', 'http://www.wikidata.org/entity/Q3481120', 'http://www.wikidata.org/entity/Q3482183', 'http://www.wikidata.org/entity/Q3488989', 'http://www.wikidata.org/entity/Q3521078', 'http://www.wikidata.org/entity/Q3601168', 'http://www.wikidata.org/entity/Q3606410', 'http://www.wikidata.org/entity/Q3648129', 'http://www.wikidata.org/entity/Q3703151', 'http://www.wikidata.org/entity/Q3705408', 'http://www.wikidata.org/entity/Q3713583', 'http://www.wikidata.org/entity/Q3715598', 'http://www.wikidata.org/entity/Q3844402', 'http://www.wikidata.org/entity/Q3743976', 'http://www.wikidata.org/entity/Q3764502', 'http://www.wikidata.org/entity/Q3790803', 'http://www.wikidata.org/entity/Q3899472', 'http://www.wikidata.org/entity/Q4069758', 'http://www.wikidata.org/entity/Q3828459', 'http://www.wikidata.org/entity/Q3828502', 'http://www.wikidata.org/entity/Q3838066', 'http://www.wikidata.org/entity/Q4159361', 'http://www.wikidata.org/entity/Q3954703', 'http://www.wikidata.org/entity/Q3962834', 'http://www.wikidata.org/entity/Q3983079', 'http://www.wikidata.org/entity/Q4190050', 'http://www.wikidata.org/entity/Q4110387', 'http://www.wikidata.org/entity/Q4127657', 'http://www.wikidata.org/entity/Q4658858', 'http://www.wikidata.org/entity/Q4659909', 'http://www.wikidata.org/entity/Q4249907', 'http://www.wikidata.org/entity/Q4310546', 'http://www.wikidata.org/entity/Q4458809', 'http://www.wikidata.org/entity/Q4342029', 'http://www.wikidata.org/entity/Q4351048', 'http://www.wikidata.org/entity/Q4353276', 'http://www.wikidata.org/entity/Q4373469', 'http://www.wikidata.org/entity/Q4379574', 'http://www.wikidata.org/entity/Q4384269', 'http://www.wikidata.org/entity/Q4400517', 'http://www.wikidata.org/entity/Q4405533', 'http://www.wikidata.org/entity/Q4660480', 'http://www.wikidata.org/entity/Q4680017', 'http://www.wikidata.org/entity/Q4688778', 'http://www.wikidata.org/entity/Q4689045', 'http://www.wikidata.org/entity/Q4689080', 'http://www.wikidata.org/entity/Q4690397', 'http://www.wikidata.org/entity/Q4708388', 'http://www.wikidata.org/entity/Q4729965', 'http://www.wikidata.org/entity/Q4532203', 'http://www.wikidata.org/entity/Q4546076', 'http://www.wikidata.org/entity/Q4595704', 'http://www.wikidata.org/entity/Q4634316', 'http://www.wikidata.org/entity/Q4641194', 'http://www.wikidata.org/entity/Q4656890', 'http://www.wikidata.org/entity/Q4657248', 'http://www.wikidata.org/entity/Q4657304', 'http://www.wikidata.org/entity/Q4657764', 'http://www.wikidata.org/entity/Q4879441', 'http://www.wikidata.org/entity/Q4897135', 'http://www.wikidata.org/entity/Q4920010', 'http://www.wikidata.org/entity/Q4802517', 'http://www.wikidata.org/entity/Q4841368', 'http://www.wikidata.org/entity/Q4851332', 'http://www.wikidata.org/entity/Q4875485', 'http://www.wikidata.org/entity/Q4877920', 'http://www.wikidata.org/entity/Q4735932', 'http://www.wikidata.org/entity/Q4747994', 'http://www.wikidata.org/entity/Q4761803', 'http://www.wikidata.org/entity/Q4764803', 'http://www.wikidata.org/entity/Q4766080', 'http://www.wikidata.org/entity/Q4781100', 'http://www.wikidata.org/entity/Q5040873', 'http://www.wikidata.org/entity/Q5069906', 'http://www.wikidata.org/entity/Q5074698', 'http://www.wikidata.org/entity/Q5237834', 'http://www.wikidata.org/entity/Q5237853', 'http://www.wikidata.org/entity/Q5244776', 'http://www.wikidata.org/entity/Q5244890', 'http://www.wikidata.org/entity/Q5244924', 'http://www.wikidata.org/entity/Q5244987', 'http://www.wikidata.org/entity/Q5247107', 'http://www.wikidata.org/entity/Q5256499', 'http://www.wikidata.org/entity/Q5256519', 'http://www.wikidata.org/entity/Q5256530', 'http://www.wikidata.org/entity/Q5261254', 'http://www.wikidata.org/entity/Q5261256', 'http://www.wikidata.org/entity/Q5261274', 'http://www.wikidata.org/entity/Q5261273', 'http://www.wikidata.org/entity/Q5265490', 'http://www.wikidata.org/entity/Q5265510', 'http://www.wikidata.org/entity/Q5265515', 'http://www.wikidata.org/entity/Q5265516', 'http://www.wikidata.org/entity/Q5265522', 'http://www.wikidata.org/entity/Q5265530', 'http://www.wikidata.org/entity/Q5265536', 'http://www.wikidata.org/entity/Q5265537', 'http://www.wikidata.org/entity/Q5265540', 'http://www.wikidata.org/entity/Q5265546', 'http://www.wikidata.org/entity/Q5280723', 'http://www.wikidata.org/entity/Q5293247', 'http://www.wikidata.org/entity/Q5298999', 'http://www.wikidata.org/entity/Q5306590', 'http://www.wikidata.org/entity/Q5308347', 'http://www.wikidata.org/entity/Q5312207', 'http://www.wikidata.org/entity/Q4930930', 'http://www.wikidata.org/entity/Q4944251', 'http://www.wikidata.org/entity/Q4944465', 'http://www.wikidata.org/entity/Q4946136', 'http://www.wikidata.org/entity/Q4952641', 'http://www.wikidata.org/entity/Q4980796', 'http://www.wikidata.org/entity/Q4981907', 'http://www.wikidata.org/entity/Q4984184', 'http://www.wikidata.org/entity/Q4992391', 'http://www.wikidata.org/entity/Q4993093', 'http://www.wikidata.org/entity/Q4993450', 'http://www.wikidata.org/entity/Q4993462', 'http://www.wikidata.org/entity/Q4993546', 'http://www.wikidata.org/entity/Q5121931', 'http://www.wikidata.org/entity/Q5133706', 'http://www.wikidata.org/entity/Q5183230', 'http://www.wikidata.org/entity/Q5332657', 'http://www.wikidata.org/entity/Q5350585', 'http://www.wikidata.org/entity/Q5366221', 'http://www.wikidata.org/entity/Q5374104', 'http://www.wikidata.org/entity/Q5375063', 'http://www.wikidata.org/entity/Q5375061', 'http://www.wikidata.org/entity/Q5375091', 'http://www.wikidata.org/entity/Q5375096', 'http://www.wikidata.org/entity/Q5375105', 'http://www.wikidata.org/entity/Q5375108', 'http://www.wikidata.org/entity/Q5378093', 'http://www.wikidata.org/entity/Q5406229', 'http://www.wikidata.org/entity/Q5504538', 'http://www.wikidata.org/entity/Q5505092', 'http://www.wikidata.org/entity/Q5505093', 'http://www.wikidata.org/entity/Q5506653', 'http://www.wikidata.org/entity/Q5506760', 'http://www.wikidata.org/entity/Q5506761', 'http://www.wikidata.org/entity/Q5507608', 'http://www.wikidata.org/entity/Q5508698', 'http://www.wikidata.org/entity/Q5511498', 'http://www.wikidata.org/entity/Q5511501', 'http://www.wikidata.org/entity/Q5646559', 'http://www.wikidata.org/entity/Q5646560', 'http://www.wikidata.org/entity/Q5650872', 'http://www.wikidata.org/entity/Q5707103', 'http://www.wikidata.org/entity/Q5713520', 'http://www.wikidata.org/entity/Q5526506', 'http://www.wikidata.org/entity/Q5526696', 'http://www.wikidata.org/entity/Q5557206', 'http://www.wikidata.org/entity/Q5559974', 'http://www.wikidata.org/entity/Q5564690', 'http://www.wikidata.org/entity/Q5564688', 'http://www.wikidata.org/entity/Q5564692', 'http://www.wikidata.org/entity/Q5565578', 'http://www.wikidata.org/entity/Q5565768', 'http://www.wikidata.org/entity/Q5577876', 'http://www.wikidata.org/entity/Q5615010', 'http://www.wikidata.org/entity/Q5428649', 'http://www.wikidata.org/entity/Q5431909', 'http://www.wikidata.org/entity/Q5432970', 'http://www.wikidata.org/entity/Q5432968', 'http://www.wikidata.org/entity/Q5434662', 'http://www.wikidata.org/entity/Q5434663', 'http://www.wikidata.org/entity/Q5435451', 'http://www.wikidata.org/entity/Q5437674', 'http://www.wikidata.org/entity/Q5437675', 'http://www.wikidata.org/entity/Q5437672', 'http://www.wikidata.org/entity/Q5437673', 'http://www.wikidata.org/entity/Q5437678', 'http://www.wikidata.org/entity/Q5437676', 'http://www.wikidata.org/entity/Q5439352', 'http://www.wikidata.org/entity/Q5446806', 'http://www.wikidata.org/entity/Q5456922', 'http://www.wikidata.org/entity/Q5459588', 'http://www.wikidata.org/entity/Q5463335', 'http://www.wikidata.org/entity/Q5463762', 'http://www.wikidata.org/entity/Q5463967', 'http://www.wikidata.org/entity/Q5468643', 'http://www.wikidata.org/entity/Q5733369', 'http://www.wikidata.org/entity/Q5880151', 'http://www.wikidata.org/entity/Q5911826', 'http://www.wikidata.org/entity/Q5923302', 'http://www.wikidata.org/entity/Q5949420', 'http://www.wikidata.org/entity/Q5951637', 'http://www.wikidata.org/entity/Q6090410', 'http://www.wikidata.org/entity/Q5951739', 'http://www.wikidata.org/entity/Q5978051', 'http://www.wikidata.org/entity/Q5980128', 'http://www.wikidata.org/entity/Q5980167', 'http://www.wikidata.org/entity/Q5980176', 'http://www.wikidata.org/entity/Q6010145', 'http://www.wikidata.org/entity/Q6176411', 'http://www.wikidata.org/entity/Q6176409', 'http://www.wikidata.org/entity/Q6180437', 'http://www.wikidata.org/entity/Q6180564', 'http://www.wikidata.org/entity/Q6189124', 'http://www.wikidata.org/entity/Q6316687', 'http://www.wikidata.org/entity/Q6321278', 'http://www.wikidata.org/entity/Q6321276', 'http://www.wikidata.org/entity/Q6359179', 'http://www.wikidata.org/entity/Q6377759', 'http://www.wikidata.org/entity/Q6416864', 'http://www.wikidata.org/entity/Q6417179', 'http://www.wikidata.org/entity/Q6421028', 'http://www.wikidata.org/entity/Q6428653', 'http://www.wikidata.org/entity/Q6429109', 'http://www.wikidata.org/entity/Q6438945', 'http://www.wikidata.org/entity/Q6439191', 'http://www.wikidata.org/entity/Q6439614', 'http://www.wikidata.org/entity/Q6449761', 'http://www.wikidata.org/entity/Q6453650', 'http://www.wikidata.org/entity/Q6454064', 'http://www.wikidata.org/entity/Q6484741', 'http://www.wikidata.org/entity/Q6494339', 'http://www.wikidata.org/entity/Q6510612', 'http://www.wikidata.org/entity/Q6522561', 'http://www.wikidata.org/entity/Q6533558', 'http://www.wikidata.org/entity/Q6545282', 'http://www.wikidata.org/entity/Q6549022', 'http://www.wikidata.org/entity/Q6558742', 'http://www.wikidata.org/entity/Q6690806', 'http://www.wikidata.org/entity/Q6691437', 'http://www.wikidata.org/entity/Q6697924', 'http://www.wikidata.org/entity/Q6707852', 'http://www.wikidata.org/entity/Q6730943', 'http://www.wikidata.org/entity/Q6738395', 'http://www.wikidata.org/entity/Q6794726', 'http://www.wikidata.org/entity/Q6803029', 'http://www.wikidata.org/entity/Q6803061', 'http://www.wikidata.org/entity/Q6803097', 'http://www.wikidata.org/entity/Q6813500', 'http://www.wikidata.org/entity/Q6844051', 'http://www.wikidata.org/entity/Q6859857', 'http://www.wikidata.org/entity/Q6862535', 'http://www.wikidata.org/entity/Q6862626', 'http://www.wikidata.org/entity/Q6862628', 'http://www.wikidata.org/entity/Q6863541', 'http://www.wikidata.org/entity/Q6876153', 'http://www.wikidata.org/entity/Q6898216', 'http://www.wikidata.org/entity/Q6915597', 'http://www.wikidata.org/entity/Q6916929', 'http://www.wikidata.org/entity/Q7131094', 'http://www.wikidata.org/entity/Q7131155', 'http://www.wikidata.org/entity/Q7131582', 'http://www.wikidata.org/entity/Q7134392', 'http://www.wikidata.org/entity/Q7141514', 'http://www.wikidata.org/entity/Q7142616', 'http://www.wikidata.org/entity/Q7166628', 'http://www.wikidata.org/entity/Q7172516', 'http://www.wikidata.org/entity/Q7174808', 'http://www.wikidata.org/entity/Q7178153', 'http://www.wikidata.org/entity/Q7178156', 'http://www.wikidata.org/entity/Q6946130', 'http://www.wikidata.org/entity/Q6946398', 'http://www.wikidata.org/entity/Q7021126', 'http://www.wikidata.org/entity/Q7044670', 'http://www.wikidata.org/entity/Q7044909', 'http://www.wikidata.org/entity/Q7050648', 'http://www.wikidata.org/entity/Q7061192', 'http://www.wikidata.org/entity/Q7061216', 'http://www.wikidata.org/entity/Q7071411', 'http://www.wikidata.org/entity/Q7077529', 'http://www.wikidata.org/entity/Q7080403', 'http://www.wikidata.org/entity/Q7093979', 'http://www.wikidata.org/entity/Q7109339', 'http://www.wikidata.org/entity/Q7124845', 'http://www.wikidata.org/entity/Q7193264', 'http://www.wikidata.org/entity/Q7207446', 'http://www.wikidata.org/entity/Q7207449', 'http://www.wikidata.org/entity/Q7237554', 'http://www.wikidata.org/entity/Q7237584', 'http://www.wikidata.org/entity/Q7253808', 'http://www.wikidata.org/entity/Q7264619', 'http://www.wikidata.org/entity/Q7302187', 'http://www.wikidata.org/entity/Q7310661', 'http://www.wikidata.org/entity/Q7311933', 'http://www.wikidata.org/entity/Q7355094', 'http://www.wikidata.org/entity/Q7367087', 'http://www.wikidata.org/entity/Q7388676', 'http://www.wikidata.org/entity/Q7432365', 'http://www.wikidata.org/entity/Q7447350', 'http://www.wikidata.org/entity/Q7513772', 'http://www.wikidata.org/entity/Q7531003', 'http://www.wikidata.org/entity/Q7533813', 'http://www.wikidata.org/entity/Q7537721', 'http://www.wikidata.org/entity/Q7538003', 'http://www.wikidata.org/entity/Q7548871', 'http://www.wikidata.org/entity/Q7557211', 'http://www.wikidata.org/entity/Q7557213', 'http://www.wikidata.org/entity/Q7559086', 'http://www.wikidata.org/entity/Q7562386', 'http://www.wikidata.org/entity/Q7569055', 'http://www.wikidata.org/entity/Q7620404', 'http://www.wikidata.org/entity/Q7626069', 'http://www.wikidata.org/entity/Q7629826', 'http://www.wikidata.org/entity/Q7630147', 'http://www.wikidata.org/entity/Q7630149', 'http://www.wikidata.org/entity/Q7633628', 'http://www.wikidata.org/entity/Q7637494', 'http://www.wikidata.org/entity/Q7641650', 'http://www.wikidata.org/entity/Q7641668', 'http://www.wikidata.org/entity/Q7648742', 'http://www.wikidata.org/entity/Q7652696', 'http://www.wikidata.org/entity/Q7659115', 'http://www.wikidata.org/entity/Q7663925', 'http://www.wikidata.org/entity/Q7666474', 'http://www.wikidata.org/entity/Q7666498', 'http://www.wikidata.org/entity/Q7675110', 'http://www.wikidata.org/entity/Q7689489', 'http://www.wikidata.org/entity/Q7691871', 'http://www.wikidata.org/entity/Q7693982', 'http://www.wikidata.org/entity/Q7710953', 'http://www.wikidata.org/entity/Q7711327', 'http://www.wikidata.org/entity/Q7712287', 'http://www.wikidata.org/entity/Q7720677', 'http://www.wikidata.org/entity/Q7721570', 'http://www.wikidata.org/entity/Q7723495', 'http://www.wikidata.org/entity/Q7728995', 'http://www.wikidata.org/entity/Q7730749', 'http://www.wikidata.org/entity/Q7731622', 'http://www.wikidata.org/entity/Q7736551', 'http://www.wikidata.org/entity/Q7736553', 'http://www.wikidata.org/entity/Q7738228', 'http://www.wikidata.org/entity/Q7739324', 'http://www.wikidata.org/entity/Q7739449', 'http://www.wikidata.org/entity/Q7742251', 'http://www.wikidata.org/entity/Q7742443', 'http://www.wikidata.org/entity/Q7744177', 'http://www.wikidata.org/entity/Q7749971', 'http://www.wikidata.org/entity/Q7751728', 'http://www.wikidata.org/entity/Q7751899', 'http://www.wikidata.org/entity/Q7751970', 'http://www.wikidata.org/entity/Q7757575', 'http://www.wikidata.org/entity/Q7759878', 'http://www.wikidata.org/entity/Q7760236', 'http://www.wikidata.org/entity/Q7760659', 'http://www.wikidata.org/entity/Q7861430', 'http://www.wikidata.org/entity/Q7876819', 'http://www.wikidata.org/entity/Q7764380', 'http://www.wikidata.org/entity/Q7766820', 'http://www.wikidata.org/entity/Q7772494', 'http://www.wikidata.org/entity/Q7772614', 'http://www.wikidata.org/entity/Q7783947', 'http://www.wikidata.org/entity/Q7810812', 'http://www.wikidata.org/entity/Q7820268', 'http://www.wikidata.org/entity/Q7828792', 'http://www.wikidata.org/entity/Q7836533', 'http://www.wikidata.org/entity/Q7846282', 'http://www.wikidata.org/entity/Q7917885', 'http://www.wikidata.org/entity/Q7918738', 'http://www.wikidata.org/entity/Q7920630', 'http://www.wikidata.org/entity/Q7924336', 'http://www.wikidata.org/entity/Q7924340', 'http://www.wikidata.org/entity/Q7930139', 'http://www.wikidata.org/entity/Q8285920', 'http://www.wikidata.org/entity/Q8328979', 'http://www.wikidata.org/entity/Q8329935', 'http://www.wikidata.org/entity/Q8774107', 'http://www.wikidata.org/entity/Q8775182', 'http://www.wikidata.org/entity/Q9005000', 'http://www.wikidata.org/entity/Q7977677', 'http://www.wikidata.org/entity/Q7977831', 'http://www.wikidata.org/entity/Q7979390', 'http://www.wikidata.org/entity/Q7993301', 'http://www.wikidata.org/entity/Q7993638', 'http://www.wikidata.org/entity/Q8034463', 'http://www.wikidata.org/entity/Q8058892', 'http://www.wikidata.org/entity/Q9197880', 'http://www.wikidata.org/entity/Q9199854', 'http://www.wikidata.org/entity/Q9348948', 'http://www.wikidata.org/entity/Q9362623', 'http://www.wikidata.org/entity/Q10399295', 'http://www.wikidata.org/entity/Q10424655', 'http://www.wikidata.org/entity/Q10427794', 'http://www.wikidata.org/entity/Q10438507', 'http://www.wikidata.org/entity/Q10470137', 'http://www.wikidata.org/entity/Q10478647', 'http://www.wikidata.org/entity/Q10483278', 'http://www.wikidata.org/entity/Q10483276', 'http://www.wikidata.org/entity/Q10497055', 'http://www.wikidata.org/entity/Q10498919', 'http://www.wikidata.org/entity/Q10521846', 'http://www.wikidata.org/entity/Q10539208', 'http://www.wikidata.org/entity/Q10540694', 'http://www.wikidata.org/entity/Q10545976', 'http://www.wikidata.org/entity/Q10546459', 'http://www.wikidata.org/entity/Q10550108', 'http://www.wikidata.org/entity/Q10551144', 'http://www.wikidata.org/entity/Q10551800', 'http://www.wikidata.org/entity/Q10552257', 'http://www.wikidata.org/entity/Q10568431', 'http://www.wikidata.org/entity/Q10576347', 'http://www.wikidata.org/entity/Q10263747', 'http://www.wikidata.org/entity/Q10265027', 'http://www.wikidata.org/entity/Q10581740', 'http://www.wikidata.org/entity/Q10611490', 'http://www.wikidata.org/entity/Q10623223', 'http://www.wikidata.org/entity/Q10636269', 'http://www.wikidata.org/entity/Q10639468', 'http://www.wikidata.org/entity/Q10657971', 'http://www.wikidata.org/entity/Q10658192', 'http://www.wikidata.org/entity/Q10668100', 'http://www.wikidata.org/entity/Q10680375', 'http://www.wikidata.org/entity/Q10684386', 'http://www.wikidata.org/entity/Q10706553', 'http://www.wikidata.org/entity/Q10709353', 'http://www.wikidata.org/entity/Q10712726', 'http://www.wikidata.org/entity/Q10713122', 'http://www.wikidata.org/entity/Q10766854', 'http://www.wikidata.org/entity/Q11394785', 'http://www.wikidata.org/entity/Q10860196', 'http://www.wikidata.org/entity/Q10862359', 'http://www.</t>
+          <t>['http://www.wikidata.org/entity/Q24910', 'http://www.wikidata.org/entity/Q24911', 'http://www.wikidata.org/entity/Q59721', 'http://www.wikidata.org/entity/Q62513', 'http://www.wikidata.org/entity/Q32303', 'http://www.wikidata.org/entity/Q194649', 'http://www.wikidata.org/entity/Q195920', 'http://www.wikidata.org/entity/Q195959', 'http://www.wikidata.org/entity/Q196103', 'http://www.wikidata.org/entity/Q61061048', 'http://www.wikidata.org/entity/Q165525', 'http://www.wikidata.org/entity/Q165699', 'http://www.wikidata.org/entity/Q111255011', 'http://www.wikidata.org/entity/Q110365', 'http://www.wikidata.org/entity/Q117378', 'http://www.wikidata.org/entity/Q127011', 'http://www.wikidata.org/entity/Q151730', 'http://www.wikidata.org/entity/Q20493713', 'http://www.wikidata.org/entity/Q20494430', 'http://www.wikidata.org/entity/Q20494889', 'http://www.wikidata.org/entity/Q20495158', 'http://www.wikidata.org/entity/Q20653258', 'http://www.wikidata.org/entity/Q20727879', 'http://www.wikidata.org/entity/Q63930921', 'http://www.wikidata.org/entity/Q63959157', 'http://www.wikidata.org/entity/Q64787782', 'http://www.wikidata.org/entity/Q64819690', 'http://www.wikidata.org/entity/Q65374542', 'http://www.wikidata.org/entity/Q65375718', 'http://www.wikidata.org/entity/Q65613232', 'http://www.wikidata.org/entity/Q65619940', 'http://www.wikidata.org/entity/Q65622059', 'http://www.wikidata.org/entity/Q65622086', 'http://www.wikidata.org/entity/Q65665494', 'http://www.wikidata.org/entity/Q108301630', 'http://www.wikidata.org/entity/Q205687', 'http://www.wikidata.org/entity/Q221887', 'http://www.wikidata.org/entity/Q224618', 'http://www.wikidata.org/entity/Q230608', 'http://www.wikidata.org/entity/Q254687', 'http://www.wikidata.org/entity/Q255181', 'http://www.wikidata.org/entity/Q276343', 'http://www.wikidata.org/entity/Q279255', 'http://www.wikidata.org/entity/Q286619', 'http://www.wikidata.org/entity/Q300442', 'http://www.wikidata.org/entity/Q304394', 'http://www.wikidata.org/entity/Q312394', 'http://www.wikidata.org/entity/Q316761', 'http://www.wikidata.org/entity/Q108437454', 'http://www.wikidata.org/entity/Q131857051', 'http://www.wikidata.org/entity/Q327681', 'http://www.wikidata.org/entity/Q342637', 'http://www.wikidata.org/entity/Q352000', 'http://www.wikidata.org/entity/Q370707', 'http://www.wikidata.org/entity/Q372477', 'http://www.wikidata.org/entity/Q374373', 'http://www.wikidata.org/entity/Q4037757', 'http://www.wikidata.org/entity/Q387727', 'http://www.wikidata.org/entity/Q391263', 'http://www.wikidata.org/entity/Q392684', 'http://www.wikidata.org/entity/Q392960', 'http://www.wikidata.org/entity/Q401539', 'http://www.wikidata.org/entity/Q431948', 'http://www.wikidata.org/entity/Q435189', 'http://www.wikidata.org/entity/Q441444', 'http://www.wikidata.org/entity/Q459997', 'http://www.wikidata.org/entity/Q460620', 'http://www.wikidata.org/entity/Q461645', 'http://www.wikidata.org/entity/Q462350', 'http://www.wikidata.org/entity/Q464440', 'http://www.wikidata.org/entity/Q469708', 'http://www.wikidata.org/entity/Q475788', 'http://www.wikidata.org/entity/Q477307', 'http://www.wikidata.org/entity/Q10671524', 'http://www.wikidata.org/entity/Q492340', 'http://www.wikidata.org/entity/Q497260', 'http://www.wikidata.org/entity/Q498789', 'http://www.wikidata.org/entity/Q507285', 'http://www.wikidata.org/entity/Q20494380', 'http://www.wikidata.org/entity/Q20728902', 'http://www.wikidata.org/entity/Q20729174', 'http://www.wikidata.org/entity/Q20729586', 'http://www.wikidata.org/entity/Q20729676', 'http://www.wikidata.org/entity/Q20755929', 'http://www.wikidata.org/entity/Q20757057', 'http://www.wikidata.org/entity/Q20757452', 'http://www.wikidata.org/entity/Q20757460', 'http://www.wikidata.org/entity/Q569281', 'http://www.wikidata.org/entity/Q64811467', 'http://www.wikidata.org/entity/Q64811483', 'http://www.wikidata.org/entity/Q64812647', 'http://www.wikidata.org/entity/Q69121620', 'http://www.wikidata.org/entity/Q538412', 'http://www.wikidata.org/entity/Q538516', 'http://www.wikidata.org/entity/Q33531490', 'http://www.wikidata.org/entity/Q33532062', 'http://www.wikidata.org/entity/Q33534121', 'http://www.wikidata.org/entity/Q33536679', 'http://www.wikidata.org/entity/Q33542677', 'http://www.wikidata.org/entity/Q33577599', 'http://www.wikidata.org/entity/Q615237', 'http://www.wikidata.org/entity/Q625341', 'http://www.wikidata.org/entity/Q625345', 'http://www.wikidata.org/entity/Q625514', 'http://www.wikidata.org/entity/Q626954', 'http://www.wikidata.org/entity/Q626964', 'http://www.wikidata.org/entity/Q626968', 'http://www.wikidata.org/entity/Q626973', 'http://www.wikidata.org/entity/Q119175149', 'http://www.wikidata.org/entity/Q574713', 'http://www.wikidata.org/entity/Q574998', 'http://www.wikidata.org/entity/Q589953', 'http://www.wikidata.org/entity/Q598804', 'http://www.wikidata.org/entity/Q598865', 'http://www.wikidata.org/entity/Q72283487', 'http://www.wikidata.org/entity/Q72283821', 'http://www.wikidata.org/entity/Q75771369', 'http://www.wikidata.org/entity/Q111309453', 'http://www.wikidata.org/entity/Q690651', 'http://www.wikidata.org/entity/Q734819', 'http://www.wikidata.org/entity/Q756444', 'http://www.wikidata.org/entity/Q759230', 'http://www.wikidata.org/entity/Q639154', 'http://www.wikidata.org/entity/Q640854', 'http://www.wikidata.org/entity/Q643268', 'http://www.wikidata.org/entity/Q643847', 'http://www.wikidata.org/entity/Q657986', 'http://www.wikidata.org/entity/Q666017', 'http://www.wikidata.org/entity/Q671754', 'http://www.wikidata.org/entity/Q682574', 'http://www.wikidata.org/entity/Q682695', 'http://www.wikidata.org/entity/Q690385', 'http://www.wikidata.org/entity/Q762898', 'http://www.wikidata.org/entity/Q764783', 'http://www.wikidata.org/entity/Q766096', 'http://www.wikidata.org/entity/Q775356', 'http://www.wikidata.org/entity/Q781684', 'http://www.wikidata.org/entity/Q784369', 'http://www.wikidata.org/entity/Q790282', 'http://www.wikidata.org/entity/Q797679', 'http://www.wikidata.org/entity/Q805127', 'http://www.wikidata.org/entity/Q808700', 'http://www.wikidata.org/entity/Q813913', 'http://www.wikidata.org/entity/Q827199', 'http://www.wikidata.org/entity/Q827277', 'http://www.wikidata.org/entity/Q841958', 'http://www.wikidata.org/entity/Q882945', 'http://www.wikidata.org/entity/Q885169', 'http://www.wikidata.org/entity/Q897561', 'http://www.wikidata.org/entity/Q912049', 'http://www.wikidata.org/entity/Q933674', 'http://www.wikidata.org/entity/Q941126', 'http://www.wikidata.org/entity/Q954182', 'http://www.wikidata.org/entity/Q975962', 'http://www.wikidata.org/entity/Q1218226', 'http://www.wikidata.org/entity/Q990857', 'http://www.wikidata.org/entity/Q992227', 'http://www.wikidata.org/entity/Q1016657', 'http://www.wikidata.org/entity/Q1018491', 'http://www.wikidata.org/entity/Q1029748', 'http://www.wikidata.org/entity/Q1052389', 'http://www.wikidata.org/entity/Q1058095', 'http://www.wikidata.org/entity/Q1058578', 'http://www.wikidata.org/entity/Q1073856', 'http://www.wikidata.org/entity/Q1090737', 'http://www.wikidata.org/entity/Q1103638', 'http://www.wikidata.org/entity/Q1106764', 'http://www.wikidata.org/entity/Q1126097', 'http://www.wikidata.org/entity/Q1127630', 'http://www.wikidata.org/entity/Q1134037', 'http://www.wikidata.org/entity/Q1141731', 'http://www.wikidata.org/entity/Q1142950', 'http://www.wikidata.org/entity/Q1165090', 'http://www.wikidata.org/entity/Q1167202', 'http://www.wikidata.org/entity/Q1179100', 'http://www.wikidata.org/entity/Q1180628', 'http://www.wikidata.org/entity/Q1192010', 'http://www.wikidata.org/entity/Q1193228', 'http://www.wikidata.org/entity/Q1193235', 'http://www.wikidata.org/entity/Q1193606', 'http://www.wikidata.org/entity/Q1403033', 'http://www.wikidata.org/entity/Q1403042', 'http://www.wikidata.org/entity/Q1403047', 'http://www.wikidata.org/entity/Q1407094', 'http://www.wikidata.org/entity/Q1416607', 'http://www.wikidata.org/entity/Q1423329', 'http://www.wikidata.org/entity/Q1428455', 'http://www.wikidata.org/entity/Q1430594', 'http://www.wikidata.org/entity/Q1438966', 'http://www.wikidata.org/entity/Q1442230', 'http://www.wikidata.org/entity/Q1446749', 'http://www.wikidata.org/entity/Q1456651', 'http://www.wikidata.org/entity/Q1462630', 'http://www.wikidata.org/entity/Q1212397', 'http://www.wikidata.org/entity/Q1215271', 'http://www.wikidata.org/entity/Q1215282', 'http://www.wikidata.org/entity/Q1215281', 'http://www.wikidata.org/entity/Q1215294', 'http://www.wikidata.org/entity/Q1216829', 'http://www.wikidata.org/entity/Q1219667', 'http://www.wikidata.org/entity/Q1226345', 'http://www.wikidata.org/entity/Q1242222', 'http://www.wikidata.org/entity/Q1245864', 'http://www.wikidata.org/entity/Q1249231', 'http://www.wikidata.org/entity/Q1253821', 'http://www.wikidata.org/entity/Q1284216', 'http://www.wikidata.org/entity/Q1304619', 'http://www.wikidata.org/entity/Q1306297', 'http://www.wikidata.org/entity/Q1319856', 'http://www.wikidata.org/entity/Q1321282', 'http://www.wikidata.org/entity/Q1326419', 'http://www.wikidata.org/entity/Q1327845', 'http://www.wikidata.org/entity/Q1328286', 'http://www.wikidata.org/entity/Q1332491', 'http://www.wikidata.org/entity/Q1338487', 'http://www.wikidata.org/entity/Q1339911', 'http://www.wikidata.org/entity/Q1341116', 'http://www.wikidata.org/entity/Q1342038', 'http://www.wikidata.org/entity/Q1346495', 'http://www.wikidata.org/entity/Q1358956', 'http://www.wikidata.org/entity/Q1377566', 'http://www.wikidata.org/entity/Q1382421', 'http://www.wikidata.org/entity/Q1384034', 'http://www.wikidata.org/entity/Q1792217', 'http://www.wikidata.org/entity/Q1664445', 'http://www.wikidata.org/entity/Q1665143', 'http://www.wikidata.org/entity/Q1670867', 'http://www.wikidata.org/entity/Q1671510', 'http://www.wikidata.org/entity/Q1722219', 'http://www.wikidata.org/entity/Q1581514', 'http://www.wikidata.org/entity/Q1585018', 'http://www.wikidata.org/entity/Q1621638', 'http://www.wikidata.org/entity/Q1630226', 'http://www.wikidata.org/entity/Q1632262', 'http://www.wikidata.org/entity/Q1482548', 'http://www.wikidata.org/entity/Q1507766', 'http://www.wikidata.org/entity/Q1521948', 'http://www.wikidata.org/entity/Q1534667', 'http://www.wikidata.org/entity/Q1538599', 'http://www.wikidata.org/entity/Q1554218', 'http://www.wikidata.org/entity/Q1742410', 'http://www.wikidata.org/entity/Q1754532', 'http://www.wikidata.org/entity/Q1754559', 'http://www.wikidata.org/entity/Q1755197', 'http://www.wikidata.org/entity/Q1757020', 'http://www.wikidata.org/entity/Q1757030', 'http://www.wikidata.org/entity/Q1757810', 'http://www.wikidata.org/entity/Q1758363', 'http://www.wikidata.org/entity/Q1758519', 'http://www.wikidata.org/entity/Q1758576', 'http://www.wikidata.org/entity/Q1758883', 'http://www.wikidata.org/entity/Q1759042', 'http://www.wikidata.org/entity/Q1759123', 'http://www.wikidata.org/entity/Q1759619', 'http://www.wikidata.org/entity/Q1760129', 'http://www.wikidata.org/entity/Q1760354', 'http://www.wikidata.org/entity/Q1760358', 'http://www.wikidata.org/entity/Q1760364', 'http://www.wikidata.org/entity/Q1760391', 'http://www.wikidata.org/entity/Q1760823', 'http://www.wikidata.org/entity/Q1761295', 'http://www.wikidata.org/entity/Q1762512', 'http://www.wikidata.org/entity/Q1762519', 'http://www.wikidata.org/entity/Q1762537', 'http://www.wikidata.org/entity/Q1762695', 'http://www.wikidata.org/entity/Q1762798', 'http://www.wikidata.org/entity/Q1763585', 'http://www.wikidata.org/entity/Q1763879', 'http://www.wikidata.org/entity/Q1766342', 'http://www.wikidata.org/entity/Q1766498', 'http://www.wikidata.org/entity/Q1767018', 'http://www.wikidata.org/entity/Q1767235', 'http://www.wikidata.org/entity/Q1767472', 'http://www.wikidata.org/entity/Q1767675', 'http://www.wikidata.org/entity/Q1768770', 'http://www.wikidata.org/entity/Q1772262', 'http://www.wikidata.org/entity/Q1783771', 'http://www.wikidata.org/entity/Q1812183', 'http://www.wikidata.org/entity/Q1825174', 'http://www.wikidata.org/entity/Q1889303', 'http://www.wikidata.org/entity/Q1915512', 'http://www.wikidata.org/entity/Q1933953', 'http://www.wikidata.org/entity/Q1977126', 'http://www.wikidata.org/entity/Q1977130', 'http://www.wikidata.org/entity/Q2017132', 'http://www.wikidata.org/entity/Q2062163', 'http://www.wikidata.org/entity/Q2096145', 'http://www.wikidata.org/entity/Q2097072', 'http://www.wikidata.org/entity/Q2143831', 'http://www.wikidata.org/entity/Q2146491', 'http://www.wikidata.org/entity/Q2152819', 'http://www.wikidata.org/entity/Q2198202', 'http://www.wikidata.org/entity/Q2241055', 'http://www.wikidata.org/entity/Q2260825', 'http://www.wikidata.org/entity/Q2277610', 'http://www.wikidata.org/entity/Q2293735', 'http://www.wikidata.org/entity/Q2294677', 'http://www.wikidata.org/entity/Q2299929', 'http://www.wikidata.org/entity/Q2330111', 'http://www.wikidata.org/entity/Q2331220', 'http://www.wikidata.org/entity/Q2352630', 'http://www.wikidata.org/entity/Q2378130', 'http://www.wikidata.org/entity/Q2394751', 'http://www.wikidata.org/entity/Q2411663', 'http://www.wikidata.org/entity/Q2434685', 'http://www.wikidata.org/entity/Q2438579', 'http://www.wikidata.org/entity/Q2457086', 'http://www.wikidata.org/entity/Q2466081', 'http://www.wikidata.org/entity/Q2550198', 'http://www.wikidata.org/entity/Q2595780', 'http://www.wikidata.org/entity/Q2608065', 'http://www.wikidata.org/entity/Q2617594', 'http://www.wikidata.org/entity/Q2632905', 'http://www.wikidata.org/entity/Q2646419', 'http://www.wikidata.org/entity/Q2656723', 'http://www.wikidata.org/entity/Q2679094', 'http://www.wikidata.org/entity/Q2735941', 'http://www.wikidata.org/entity/Q2779388', 'http://www.wikidata.org/entity/Q2900465', 'http://www.wikidata.org/entity/Q2904867', 'http://www.wikidata.org/entity/Q2947409', 'http://www.wikidata.org/entity/Q3148900', 'http://www.wikidata.org/entity/Q3190021', 'http://www.wikidata.org/entity/Q3061415', 'http://www.wikidata.org/entity/Q3078014', 'http://www.wikidata.org/entity/Q3099418', 'http://www.wikidata.org/entity/Q3204055', 'http://www.wikidata.org/entity/Q3284962', 'http://www.wikidata.org/entity/Q3220633', 'http://www.wikidata.org/entity/Q3226056', 'http://www.wikidata.org/entity/Q3228255', 'http://www.wikidata.org/entity/Q3235886', 'http://www.wikidata.org/entity/Q3264250', 'http://www.wikidata.org/entity/Q3286160', 'http://www.wikidata.org/entity/Q3317884', 'http://www.wikidata.org/entity/Q3346699', 'http://www.wikidata.org/entity/Q3363736', 'http://www.wikidata.org/entity/Q3422806', 'http://www.wikidata.org/entity/Q3467601', 'http://www.wikidata.org/entity/Q3521078', 'http://www.wikidata.org/entity/Q3480785', 'http://www.wikidata.org/entity/Q3481120', 'http://www.wikidata.org/entity/Q3482183', 'http://www.wikidata.org/entity/Q3488989', 'http://www.wikidata.org/entity/Q3558697', 'http://www.wikidata.org/entity/Q3567719', 'http://www.wikidata.org/entity/Q3574023', 'http://www.wikidata.org/entity/Q3574048', 'http://www.wikidata.org/entity/Q3601168', 'http://www.wikidata.org/entity/Q3606410', 'http://www.wikidata.org/entity/Q3648129', 'http://www.wikidata.org/entity/Q3764502', 'http://www.wikidata.org/entity/Q3790803', 'http://www.wikidata.org/entity/Q3703151', 'http://www.wikidata.org/entity/Q3705408', 'http://www.wikidata.org/entity/Q3713583', 'http://www.wikidata.org/entity/Q3715598', 'http://www.wikidata.org/entity/Q3743976', 'http://www.wikidata.org/entity/Q3828459', 'http://www.wikidata.org/entity/Q3828502', 'http://www.wikidata.org/entity/Q3838066', 'http://www.wikidata.org/entity/Q3844402', 'http://www.wikidata.org/entity/Q3954703', 'http://www.wikidata.org/entity/Q3962834', 'http://www.wikidata.org/entity/Q3899472', 'http://www.wikidata.org/entity/Q3983079', 'http://www.wikidata.org/entity/Q4159361', 'http://www.wikidata.org/entity/Q4069758', 'http://www.wikidata.org/entity/Q4110387', 'http://www.wikidata.org/entity/Q4127657', 'http://www.wikidata.org/entity/Q4379574', 'http://www.wikidata.org/entity/Q4384269', 'http://www.wikidata.org/entity/Q4400517', 'http://www.wikidata.org/entity/Q4405533', 'http://www.wikidata.org/entity/Q4190050', 'http://www.wikidata.org/entity/Q4249907', 'http://www.wikidata.org/entity/Q4310546', 'http://www.wikidata.org/entity/Q4342029', 'http://www.wikidata.org/entity/Q4351048', 'http://www.wikidata.org/entity/Q4353276', 'http://www.wikidata.org/entity/Q4373469', 'http://www.wikidata.org/entity/Q4729965', 'http://www.wikidata.org/entity/Q4532203', 'http://www.wikidata.org/entity/Q4546076', 'http://www.wikidata.org/entity/Q4595704', 'http://www.wikidata.org/entity/Q4634316', 'http://www.wikidata.org/entity/Q4641194', 'http://www.wikidata.org/entity/Q4656890', 'http://www.wikidata.org/entity/Q4657248', 'http://www.wikidata.org/entity/Q4657304', 'http://www.wikidata.org/entity/Q4657764', 'http://www.wikidata.org/entity/Q4658858', 'http://www.wikidata.org/entity/Q4458809', 'http://www.wikidata.org/entity/Q4659909', 'http://www.wikidata.org/entity/Q4660480', 'http://www.wikidata.org/entity/Q4680017', 'http://www.wikidata.org/entity/Q4688778', 'http://www.wikidata.org/entity/Q4689045', 'http://www.wikidata.org/entity/Q4689080', 'http://www.wikidata.org/entity/Q4690397', 'http://www.wikidata.org/entity/Q4708388', 'http://www.wikidata.org/entity/Q4735932', 'http://www.wikidata.org/entity/Q4747994', 'http://www.wikidata.org/entity/Q4761803', 'http://www.wikidata.org/entity/Q4764803', 'http://www.wikidata.org/entity/Q4766080', 'http://www.wikidata.org/entity/Q4781100', 'http://www.wikidata.org/entity/Q4802517', 'http://www.wikidata.org/entity/Q4920010', 'http://www.wikidata.org/entity/Q4930930', 'http://www.wikidata.org/entity/Q4944251', 'http://www.wikidata.org/entity/Q4944465', 'http://www.wikidata.org/entity/Q4946136', 'http://www.wikidata.org/entity/Q4952641', 'http://www.wikidata.org/entity/Q5261254', 'http://www.wikidata.org/entity/Q5261256', 'http://www.wikidata.org/entity/Q5261274', 'http://www.wikidata.org/entity/Q5261273', 'http://www.wikidata.org/entity/Q5265490', 'http://www.wikidata.org/entity/Q5265510', 'http://www.wikidata.org/entity/Q5265515', 'http://www.wikidata.org/entity/Q5265516', 'http://www.wikidata.org/entity/Q5265522', 'http://www.wikidata.org/entity/Q5265530', 'http://www.wikidata.org/entity/Q5265536', 'http://www.wikidata.org/entity/Q5265537', 'http://www.wikidata.org/entity/Q5265540', 'http://www.wikidata.org/entity/Q5265546', 'http://www.wikidata.org/entity/Q4841368', 'http://www.wikidata.org/entity/Q4851332', 'http://www.wikidata.org/entity/Q4875485', 'http://www.wikidata.org/entity/Q4877920', 'http://www.wikidata.org/entity/Q4879441', 'http://www.wikidata.org/entity/Q4897135', 'http://www.wikidata.org/entity/Q4980796', 'http://www.wikidata.org/entity/Q4981907', 'http://www.wikidata.org/entity/Q4984184', 'http://www.wikidata.org/entity/Q4992391', 'http://www.wikidata.org/entity/Q4993093', 'http://www.wikidata.org/entity/Q4993450', 'http://www.wikidata.org/entity/Q4993462', 'http://www.wikidata.org/entity/Q4993546', 'http://www.wikidata.org/entity/Q5040873', 'http://www.wikidata.org/entity/Q5069906', 'http://www.wikidata.org/entity/Q5074698', 'http://www.wikidata.org/entity/Q5237834', 'http://www.wikidata.org/entity/Q5237853', 'http://www.wikidata.org/entity/Q5244776', 'http://www.wikidata.org/entity/Q5244890', 'http://www.wikidata.org/entity/Q5244924', 'http://www.wikidata.org/entity/Q5244987', 'http://www.wikidata.org/entity/Q5247107', 'http://www.wikidata.org/entity/Q5256499', 'http://www.wikidata.org/entity/Q5256519', 'http://www.wikidata.org/entity/Q5256530', 'http://www.wikidata.org/entity/Q5121931', 'http://www.wikidata.org/entity/Q5133706', 'http://www.wikidata.org/entity/Q5183230', 'http://www.wikidata.org/entity/Q5280723', 'http://www.wikidata.org/entity/Q5293247', 'http://www.wikidata.org/entity/Q5298999', 'http://www.wikidata.org/entity/Q5306590', 'http://www.wikidata.org/entity/Q5308347', 'http://www.wikidata.org/entity/Q5312207', 'http://www.wikidata.org/entity/Q5332657', 'http://www.wikidata.org/entity/Q5350585', 'http://www.wikidata.org/entity/Q5366221', 'http://www.wikidata.org/entity/Q5374104', 'http://www.wikidata.org/entity/Q5375063', 'http://www.wikidata.org/entity/Q5375061', 'http://www.wikidata.org/entity/Q5375091', 'http://www.wikidata.org/entity/Q5375096', 'http://www.wikidata.org/entity/Q5375105', 'http://www.wikidata.org/entity/Q5375108', 'http://www.wikidata.org/entity/Q5378093', 'http://www.wikidata.org/entity/Q5406229', 'http://www.wikidata.org/entity/Q5428649', 'http://www.wikidata.org/entity/Q5431909', 'http://www.wikidata.org/entity/Q5432970', 'http://www.wikidata.org/entity/Q5432968', 'http://www.wikidata.org/entity/Q5434662', 'http://www.wikidata.org/entity/Q5434663', 'http://www.wikidata.org/entity/Q5435451', 'http://www.wikidata.org/entity/Q5437674', 'http://www.wikidata.org/entity/Q5437675', 'http://www.wikidata.org/entity/Q5437672', 'http://www.wikidata.org/entity/Q5437673', 'http://www.wikidata.org/entity/Q5437678', 'http://www.wikidata.org/entity/Q5437676', 'http://www.wikidata.org/entity/Q5439352', 'http://www.wikidata.org/entity/Q5446806', 'http://www.wikidata.org/entity/Q5456922', 'http://www.wikidata.org/entity/Q5459588', 'http://www.wikidata.org/entity/Q5463335', 'http://www.wikidata.org/entity/Q5463762', 'http://www.wikidata.org/entity/Q5463967', 'http://www.wikidata.org/entity/Q5468643', 'http://www.wikidata.org/entity/Q5615010', 'http://www.wikidata.org/entity/Q5646559', 'http://www.wikidata.org/entity/Q5646560', 'http://www.wikidata.org/entity/Q5650872', 'http://www.wikidata.org/entity/Q5504538', 'http://www.wikidata.org/entity/Q5505092', 'http://www.wikidata.org/entity/Q5505093', 'http://www.wikidata.org/entity/Q5506653', 'http://www.wikidata.org/entity/Q5506760', 'http://www.wikidata.org/entity/Q5506761', 'http://www.wikidata.org/entity/Q5507608', 'http://www.wikidata.org/entity/Q5508698', 'http://www.wikidata.org/entity/Q5511498', 'http://www.wikidata.org/entity/Q5511501', 'http://www.wikidata.org/entity/Q5526506', 'http://www.wikidata.org/entity/Q5526696', 'http://www.wikidata.org/entity/Q5557206', 'http://www.wikidata.org/entity/Q5559974', 'http://www.wikidata.org/entity/Q5564690', 'http://www.wikidata.org/entity/Q5564688', 'http://www.wikidata.org/entity/Q5564692', 'http://www.wikidata.org/entity/Q5565578', 'http://www.wikidata.org/entity/Q5565768', 'http://www.wikidata.org/entity/Q5577876', 'http://www.wikidata.org/entity/Q5707103', 'http://www.wikidata.org/entity/Q5713520', 'http://www.wikidata.org/entity/Q5733369', 'http://www.wikidata.org/entity/Q5949420', 'http://www.wikidata.org/entity/Q5951637', 'http://www.wikidata.org/entity/Q5951739', 'http://www.wikidata.org/entity/Q5978051', 'http://www.wikidata.org/entity/Q5980128', 'http://www.wikidata.org/entity/Q5980167', 'http://www.wikidata.org/entity/Q5980176', 'http://www.wikidata.org/entity/Q5880151', 'http://www.wikidata.org/entity/Q5911826', 'http://www.wikidata.org/entity/Q5923302', 'http://www.wikidata.org/entity/Q6090410', 'http://www.wikidata.org/entity/Q6010145', 'http://www.wikidata.org/entity/Q6416864', 'http://www.wikidata.org/entity/Q6417179', 'http://www.wikidata.org/entity/Q6421028', 'http://www.wikidata.org/entity/Q6428653', 'http://www.wikidata.org/entity/Q6429109', 'http://www.wikidata.org/entity/Q6438945', 'http://www.wikidata.org/entity/Q6439191', 'http://www.wikidata.org/entity/Q6439614', 'http://www.wikidata.org/entity/Q6545282', 'http://www.wikidata.org/entity/Q6549022', 'http://www.wikidata.org/entity/Q6558742', 'http://www.wikidata.org/entity/Q6176411', 'http://www.wikidata.org/entity/Q6176409', 'http://www.wikidata.org/entity/Q6180437', 'http://www.wikidata.org/entity/Q6180564', 'http://www.wikidata.org/entity/Q6189124', 'http://www.wikidata.org/entity/Q6316687', 'http://www.wikidata.org/entity/Q6321278', 'http://www.wikidata.org/entity/Q6321276', 'http://www.wikidata.org/entity/Q6359179', 'http://www.wikidata.org/entity/Q6377759', 'http://www.wikidata.org/entity/Q6690806', 'http://www.wikidata.org/entity/Q6691437', 'http://www.wikidata.org/entity/Q6697924', 'http://www.wikidata.org/entity/Q6707852', 'http://www.wikidata.org/entity/Q7071411', 'http://www.wikidata.org/entity/Q6449761', 'http://www.wikidata.org/entity/Q6453650', 'http://www.wikidata.org/entity/Q6454064', 'http://www.wikidata.org/entity/Q6484741', 'http://www.wikidata.org/entity/Q6494339', 'http://www.wikidata.org/entity/Q6510612', 'http://www.wikidata.org/entity/Q6522561', 'http://www.wikidata.org/entity/Q6533558', 'http://www.wikidata.org/entity/Q6730943', 'http://www.wikidata.org/entity/Q6738395', 'http://www.wikidata.org/entity/Q6794726', 'http://www.wikidata.org/entity/Q6803029', 'http://www.wikidata.org/entity/Q6803061', 'http://www.wikidata.org/entity/Q6803097', 'http://www.wikidata.org/entity/Q6813500', 'http://www.wikidata.org/entity/Q6844051', 'http://www.wikidata.org/entity/Q6859857', 'http://www.wikidata.org/entity/Q6862535', 'http://www.wikidata.org/entity/Q6862626', 'http://www.wikidata.org/entity/Q6862628', 'http://www.wikidata.org/entity/Q6863541', 'http://www.wikidata.org/entity/Q6876153', 'http://www.wikidata.org/entity/Q6898216', 'http://www.wikidata.org/entity/Q6915597', 'http://www.wikidata.org/entity/Q6916929', 'http://www.wikidata.org/entity/Q6946130', 'http://www.wikidata.org/entity/Q6946398', 'http://www.wikidata.org/entity/Q7021126', 'http://www.wikidata.org/entity/Q7044670', 'http://www.wikidata.org/entity/Q7044909', 'http://www.wikidata.org/entity/Q7050648', 'http://www.wikidata.org/entity/Q7061192', 'http://www.wikidata.org/entity/Q7061216', 'http://www.wikidata.org/entity/Q7077529', 'http://www.wikidata.org/entity/Q7080403', 'http://www.wikidata.org/entity/Q7093979', 'http://www.wikidata.org/entity/Q7109339', 'http://www.wikidata.org/entity/Q7124845', 'http://www.wikidata.org/entity/Q7131094', 'http://www.wikidata.org/entity/Q7131155', 'http://www.wikidata.org/entity/Q7131582', 'http://www.wikidata.org/entity/Q7134392', 'http://www.wikidata.org/entity/Q7253808', 'http://www.wikidata.org/entity/Q7264619', 'http://www.wikidata.org/entity/Q7302187', 'http://www.wikidata.org/entity/Q7141514', 'http://www.wikidata.org/entity/Q7142616', 'http://www.wikidata.org/entity/Q7166628', 'http://www.wikidata.org/entity/Q7172516', 'http://www.wikidata.org/entity/Q7174808', 'http://www.wikidata.org/entity/Q7178153', 'http://www.wikidata.org/entity/Q7178156', 'http://www.wikidata.org/entity/Q7193264', 'http://www.wikidata.org/entity/Q7207446', 'http://www.wikidata.org/entity/Q7207449', 'http://www.wikidata.org/entity/Q7237554', 'http://www.wikidata.org/entity/Q7237584', 'http://www.wikidata.org/entity/Q7310661', 'http://www.wikidata.org/entity/Q7311933', 'http://www.wikidata.org/entity/Q7355094', 'http://www.wikidata.org/entity/Q7367087', 'http://www.wikidata.org/entity/Q7388676', 'http://www.wikidata.org/entity/Q7513772', 'http://www.wikidata.org/entity/Q7531003', 'http://www.wikidata.org/entity/Q7533813', 'http://www.wikidata.org/entity/Q7537721', 'http://www.wikidata.org/entity/Q7538003', 'http://www.wikidata.org/entity/Q7548871', 'http://www.wikidata.org/entity/Q7557211', 'http://www.wikidata.org/entity/Q7557213', 'http://www.wikidata.org/entity/Q7559086', 'http://www.wikidata.org/entity/Q7562386', 'http://www.wikidata.org/entity/Q7569055', 'http://www.wikidata.org/entity/Q7432365', 'http://www.wikidata.org/entity/Q7447350', 'http://www.wikidata.org/entity/Q7689489', 'http://www.wikidata.org/entity/Q7691871', 'http://www.wikidata.org/entity/Q7693982', 'http://www.wikidata.org/entity/Q7710953', 'http://www.wikidata.org/entity/Q7711327', 'http://www.wikidata.org/entity/Q7712287', 'http://www.wikidata.org/entity/Q7620404', 'http://www.wikidata.org/entity/Q7626069', 'http://www.wikidata.org/entity/Q7629826', 'http://www.wikidata.org/entity/Q7630147', 'http://www.wikidata.org/entity/Q7630149', 'http://www.wikidata.org/entity/Q7633628', 'http://www.wikidata.org/entity/Q7637494', 'http://www.wikidata.org/entity/Q7641650', 'http://www.wikidata.org/entity/Q7641668', 'http://www.wikidata.org/entity/Q7648742', 'http://www.wikidata.org/entity/Q7652696', 'http://www.wikidata.org/entity/Q7659115', 'http://www.wikidata.org/entity/Q7663925', 'http://www.wikidata.org/entity/Q7666474', 'http://www.wikidata.org/entity/Q7666498', 'http://www.wikidata.org/entity/Q7675110', 'http://www.wikidata.org/entity/Q7772614', 'http://www.wikidata.org/entity/Q7720677', 'http://www.wikidata.org/entity/Q7721570', 'http://www.wikidata.org/entity/Q7723495', 'http://www.wikidata.org/entity/Q7728995', 'http://www.wikidata.org/entity/Q7730749', 'http://www.wikidata.org/entity/Q7731622', 'http://www.wikidata.org/entity/Q7736551', 'http://www.wikidata.org/entity/Q7736553', 'http://www.wikidata.org/entity/Q7738228', 'http://www.wikidata.org/entity/Q7739324', 'http://www.wikidata.org/entity/Q7739449', 'http://www.wikidata.org/entity/Q7742251', 'http://www.wikidata.org/entity/Q7742443', 'http://www.wikidata.org/entity/Q7744177', 'http://www.wikidata.org/entity/Q7749971', 'http://www.wikidata.org/entity/Q7751728', 'http://www.wikidata.org/entity/Q7751899', 'http://www.wikidata.org/entity/Q7751970', 'http://www.wikidata.org/entity/Q7757575', 'http://www.wikidata.org/entity/Q7759878', 'http://www.wikidata.org/entity/Q7760236', 'http://www.wikidata.org/entity/Q7760659', 'http://www.wikidata.org/entity/Q7764380', 'http://www.wikidata.org/entity/Q7766820', 'http://www.wikidata.org/entity/Q7772494', 'http://www.wikidata.org/entity/Q7783947', 'http://www.wikidata.org/entity/Q7810812', 'http://www.wikidata.org/entity/Q7820268', 'http://www.wikidata.org/entity/Q7828792', 'http://www.wikidata.org/entity/Q7836533', 'http://www.wikidata.org/entity/Q7846282', 'http://www.wikidata.org/entity/Q7861430', 'http://www.wikidata.org/entity/Q7876819', 'http://www.wikidata.org/entity/Q7917885', 'http://www.wikidata.org/entity/Q7918738', 'http://www.wikidata.org/entity/Q7920630', 'http://www.wikidata.org/entity/Q7924336', 'http://www.wikidata.org/entity/Q7924340', 'http://www.wikidata.org/entity/Q7930139', 'http://www.wikidata.org/entity/Q7977677', 'http://www.wikidata.org/entity/Q7977831', 'http://www.wikidata.org/entity/Q7979390', 'http://www.wikidata.org/entity/Q7993301', 'http://www.wikidata.org/entity/Q7993638', 'http://www.wikidata.org/entity/Q8034463', 'http://www.wikidata.org/entity/Q8058892', 'http://www.wikidata.org/entity/Q8285920', 'http://www.wikidata.org/entity/Q8328979', 'http://www.wikidata.org/entity/Q8329935', 'http://www.wikidata.org/entity/Q10399295', 'http://www.wikidata.org/entity/Q10424655', 'http://www.wikidata.org/entity/Q10427794', 'http://www.wikidata.org/entity/Q10438507', 'http://www.wikidata.org/entity/Q10470137', 'http://www.wikidata.org/entity/Q10478647', 'http://www.wikidata.org/entity/Q10483278', 'http://www.wikidata.org/entity/Q10483276', 'http://www.wikidata.org/entity/Q10497055', 'http://www.wikidata.org/entity/Q10498919', 'http://www.wikidata.org/entity/Q10521846', 'http://www.wikidata.org/entity/Q8774107', 'http://www.wikidata.org/entity/Q8775182', 'http://www.wikidata.org/entity/Q9005000', 'http://www.wikidata.org/entity/Q9197880', 'http://www.wikidata.org/entity/Q9199854', 'http://www.wikidata.org/entity/Q9210350', 'http://www.wikidata.org/entity/Q9348948', 'http://www.wikidata.org/entity/Q9362623', 'http://www.wikidata.org/entity/Q10263747', 'http://www.wikidata.org/entity/Q10265027', 'http://www.wikidata.org/entity/Q10539208', 'http://www.wikidata.org/entity/Q10540694', 'http://www.wikidata.org/entity/Q10545976', 'http://www.wikidata.org/entity/Q10546459', 'http://www.wikidata.org/entity/Q10550108', 'http://www.wikidata.org/entity/Q10551144', 'http://www.wikidata.org/entity/Q10551800', 'http://www.wikidata.org/entity/Q10552257', 'http://www.wikidata.org/entity/Q10568431', 'http://www.wikidata.org/entity/Q10576347', 'http://www.wikidata.org/entity/Q10581740', 'http://www.wikidata.org/entity/Q10611490', 'http://www.wikidata.org/entity/Q10623223', 'http://www.wikidata.org/entity/Q10636269', 'http://www.wikidata.org/entity/Q10639468', 'http://www.wikidata.org/entity/Q10657971', 'http://www.wikidata.org/entity/Q10658192', 'http://www.wikidata.org/entity/Q10668100', 'http://www.wikidata.org/entity/Q10680375', 'http://www.wikidata.org/entity/Q10684386', 'http://www.wikidata.org/entity/Q10706553', 'http://www.wikidata.org/entity/Q10709353', 'http://www.wikidata.org/entity/Q10712726', 'http://www.wikidata.org/entity/Q10713122', 'http://www.wikidata.org/entity/Q10766854', 'http://www.wikidata.org/entity/Q10860196', 'http://www.wikidata.org/entity/Q10862359', 'http://www.wikidata.org/entity/Q10862557', 'http://www.wikidata.org/entity/Q11394785', 'http://www.wikidata.org/entity/Q12112241', 'http://www.wikidata.org/entity/Q11895713', 'http://www.wikidata.org/entity/Q11959981', 'http://www.wik</t>
         </is>
       </c>
     </row>
@@ -1486,7 +1486,7 @@
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>['http://www.wikidata.org/entity/Q600986', 'http://www.wikidata.org/entity/Q19296127', 'http://www.wikidata.org/entity/Q41804705', 'http://www.wikidata.org/entity/Q668365', 'http://www.wikidata.org/entity/Q84757996', 'http://www.wikidata.org/entity/Q116819872', 'http://www.wikidata.org/entity/Q11207', 'http://www.wikidata.org/entity/Q467407', 'http://www.wikidata.org/entity/Q62998653', 'http://www.wikidata.org/entity/Q105771317', 'http://www.wikidata.org/entity/Q105771321', 'http://www.wikidata.org/entity/Q130285248', 'http://www.wikidata.org/entity/Q56826559', 'http://www.wikidata.org/entity/Q56875765', 'http://www.wikidata.org/entity/Q122782791', 'http://www.wikidata.org/entity/Q126956629', 'http://www.wikidata.org/entity/Q1273386', 'http://www.wikidata.org/entity/Q1386913', 'http://www.wikidata.org/entity/Q1386920', 'http://www.wikidata.org/entity/Q1386921', 'http://www.wikidata.org/entity/Q30268885', 'http://www.wikidata.org/entity/Q1736264', 'http://www.wikidata.org/entity/Q125334261', 'http://www.wikidata.org/entity/Q1666244', 'http://www.wikidata.org/entity/Q113446390', 'http://www.wikidata.org/entity/Q30919210', 'http://www.wikidata.org/entity/Q322784', 'http://www.wikidata.org/entity/Q812237', 'http://www.wikidata.org/entity/Q1921466', 'http://www.wikidata.org/entity/Q1921855', 'http://www.wikidata.org/entity/Q58808616', 'http://www.wikidata.org/entity/Q295937', 'http://www.wikidata.org/entity/Q646162', 'http://www.wikidata.org/entity/Q759176', 'http://www.wikidata.org/entity/Q831961', 'http://www.wikidata.org/entity/Q831974', 'http://www.wikidata.org/entity/Q850577', 'http://www.wikidata.org/entity/Q1502842', 'http://www.wikidata.org/entity/Q1618868', 'http://www.wikidata.org/entity/Q1641495', 'http://www.wikidata.org/entity/Q2405174', 'http://www.wikidata.org/entity/Q1653982', 'http://www.wikidata.org/entity/Q15907302', 'http://www.wikidata.org/entity/Q30256949', 'http://www.wikidata.org/entity/Q268878', 'http://www.wikidata.org/entity/Q463980', 'http://www.wikidata.org/entity/Q98497101', 'http://www.wikidata.org/entity/Q220189', 'http://www.wikidata.org/entity/Q109659129', 'http://www.wikidata.org/entity/Q812252', 'http://www.wikidata.org/entity/Q110277323', 'http://www.wikidata.org/entity/Q113623328', 'http://www.wikidata.org/entity/Q113631502', 'http://www.wikidata.org/entity/Q113679708', 'http://www.wikidata.org/entity/Q22671798', 'http://www.wikidata.org/entity/Q118496568', 'http://www.wikidata.org/entity/Q118496595', 'http://www.wikidata.org/entity/Q119951901', 'http://www.wikidata.org/entity/Q120001924', 'http://www.wikidata.org/entity/Q130213471', 'http://www.wikidata.org/entity/Q189589', 'http://www.wikidata.org/entity/Q318616', 'http://www.wikidata.org/entity/Q701237', 'http://www.wikidata.org/entity/Q124308116', 'http://www.wikidata.org/entity/Q24004523', 'http://www.wikidata.org/entity/Q2515205', 'http://www.wikidata.org/entity/Q2648743', 'http://www.wikidata.org/entity/Q48585964', 'http://www.wikidata.org/entity/Q71979316', 'http://www.wikidata.org/entity/Q72049758', 'http://www.wikidata.org/entity/Q130711543', 'http://www.wikidata.org/entity/Q130711548', 'http://www.wikidata.org/entity/Q564960', 'http://www.wikidata.org/entity/Q66125173', 'http://www.wikidata.org/entity/Q1092353', 'http://www.wikidata.org/entity/Q1257223', 'http://www.wikidata.org/entity/Q1386879', 'http://www.wikidata.org/entity/Q1402681', 'http://www.wikidata.org/entity/Q1494465', 'http://www.wikidata.org/entity/Q1535837', 'http://www.wikidata.org/entity/Q123021026', 'http://www.wikidata.org/entity/Q1623217', 'http://www.wikidata.org/entity/Q2014391', 'http://www.wikidata.org/entity/Q2385609', 'http://www.wikidata.org/entity/Q2451857', 'http://www.wikidata.org/entity/Q2568272', 'http://www.wikidata.org/entity/Q2601340', 'http://www.wikidata.org/entity/Q124748346', 'http://www.wikidata.org/entity/Q124748367', 'http://www.wikidata.org/entity/Q461257', 'http://www.wikidata.org/entity/Q992121', 'http://www.wikidata.org/entity/Q15224734', 'http://www.wikidata.org/entity/Q16295348', 'http://www.wikidata.org/entity/Q166637', 'http://www.wikidata.org/entity/Q66555223', 'http://www.wikidata.org/entity/Q23789297', 'http://www.wikidata.org/entity/Q107516979', 'http://www.wikidata.org/entity/Q107527832', 'http://www.wikidata.org/entity/Q5636549', 'http://www.wikidata.org/entity/Q33108601', 'http://www.wikidata.org/entity/Q41635406', 'http://www.wikidata.org/entity/Q42286429', 'http://www.wikidata.org/entity/Q43686428', 'http://www.wikidata.org/entity/Q56474046', 'http://www.wikidata.org/entity/Q57403410', 'http://www.wikidata.org/entity/Q108430732', 'http://www.wikidata.org/entity/Q651946', 'http://www.wikidata.org/entity/Q16991392', 'http://www.wikidata.org/entity/Q57541102', 'http://www.wikidata.org/entity/Q57648993', 'http://www.wikidata.org/entity/Q64777447', 'http://www.wikidata.org/entity/Q65589420', 'http://www.wikidata.org/entity/Q1868392', 'http://www.wikidata.org/entity/Q78159044', 'http://www.wikidata.org/entity/Q78625928', 'http://www.wikidata.org/entity/Q79618634', 'http://www.wikidata.org/entity/Q88889010', 'http://www.wikidata.org/entity/Q89045213', 'http://www.wikidata.org/entity/Q101208785', 'http://www.wikidata.org/entity/Q130999913', 'http://www.wikidata.org/entity/Q26678', 'http://www.wikidata.org/entity/Q28255', 'http://www.wikidata.org/entity/Q59167', 'http://www.wikidata.org/entity/Q74418278', 'http://www.wikidata.org/entity/Q101246994', 'http://www.wikidata.org/entity/Q104772178', 'http://www.wikidata.org/entity/Q105699228', 'http://www.wikidata.org/entity/Q105699308', 'http://www.wikidata.org/entity/Q105756521', 'http://www.wikidata.org/entity/Q106631524', 'http://www.wikidata.org/entity/Q106641397', 'http://www.wikidata.org/entity/Q122922227', 'http://www.wikidata.org/entity/Q128929', 'http://www.wikidata.org/entity/Q112226413', 'http://www.wikidata.org/entity/Q112769638', 'http://www.wikidata.org/entity/Q112864620', 'http://www.wikidata.org/entity/Q114966474', 'http://www.wikidata.org/entity/Q115247331', 'http://www.wikidata.org/entity/Q115257316', 'http://www.wikidata.org/entity/Q115944474', 'http://www.wikidata.org/entity/Q116774987', 'http://www.wikidata.org/entity/Q117846421', 'http://www.wikidata.org/entity/Q292622', 'http://www.wikidata.org/entity/Q312590', 'http://www.wikidata.org/entity/Q320521', 'http://www.wikidata.org/entity/Q322712', 'http://www.wikidata.org/entity/Q323802', 'http://www.wikidata.org/entity/Q118851620', 'http://www.wikidata.org/entity/Q548825', 'http://www.wikidata.org/entity/Q126370600', 'http://www.wikidata.org/entity/Q451526', 'http://www.wikidata.org/entity/Q479845', 'http://www.wikidata.org/entity/Q123585705', 'http://www.wikidata.org/entity/Q124545647', 'http://www.wikidata.org/entity/Q647863', 'http://www.wikidata.org/entity/Q114810299', 'http://www.wikidata.org/entity/Q130381757', 'http://www.wikidata.org/entity/Q131050914', 'http://www.wikidata.org/entity/Q131155296', 'http://www.wikidata.org/entity/Q666476', 'http://www.wikidata.org/entity/Q704874', 'http://www.wikidata.org/entity/Q708667', 'http://www.wikidata.org/entity/Q880195', 'http://www.wikidata.org/entity/Q882871', 'http://www.wikidata.org/entity/Q892015', 'http://www.wikidata.org/entity/Q784898', 'http://www.wikidata.org/entity/Q796648', 'http://www.wikidata.org/entity/Q796949', 'http://www.wikidata.org/entity/Q812300', 'http://www.wikidata.org/entity/Q812518', 'http://www.wikidata.org/entity/Q1529957', 'http://www.wikidata.org/entity/Q2392262', 'http://www.wikidata.org/entity/Q897437', 'http://www.wikidata.org/entity/Q1022404', 'http://www.wikidata.org/entity/Q1034581', 'http://www.wikidata.org/entity/Q1151354', 'http://www.wikidata.org/entity/Q1153623', 'http://www.wikidata.org/entity/Q1158033', 'http://www.wikidata.org/entity/Q1251194', 'http://www.wikidata.org/entity/Q1371521', 'http://www.wikidata.org/entity/Q1386924', 'http://www.wikidata.org/entity/Q1493841', 'http://www.wikidata.org/entity/Q456402', 'http://www.wikidata.org/entity/Q1561183', 'http://www.wikidata.org/entity/Q1152076', 'http://www.wikidata.org/entity/Q1681708', 'http://www.wikidata.org/entity/Q1736470', 'http://www.wikidata.org/entity/Q1432106', 'http://www.wikidata.org/entity/Q1565282', 'http://www.wikidata.org/entity/Q1908856', 'http://www.wikidata.org/entity/Q1916189', 'http://www.wikidata.org/entity/Q2175704', 'http://www.wikidata.org/entity/Q2220152', 'http://www.wikidata.org/entity/Q152106', 'http://www.wikidata.org/entity/Q2154631', 'http://www.wikidata.org/entity/Q2156588', 'http://www.wikidata.org/entity/Q2161386', 'http://www.wikidata.org/entity/Q2473072', 'http://www.wikidata.org/entity/Q2506037', 'http://www.wikidata.org/entity/Q2538598', 'http://www.wikidata.org/entity/Q2541749', 'http://www.wikidata.org/entity/Q2649121', 'http://www.wikidata.org/entity/Q2654526', 'http://www.wikidata.org/entity/Q1293054', 'http://www.wikidata.org/entity/Q63436869', 'http://www.wikidata.org/entity/Q63718592', 'http://www.wikidata.org/entity/Q1595419', 'http://www.wikidata.org/entity/Q2211794', 'http://www.wikidata.org/entity/Q19283774', 'http://www.wikidata.org/entity/Q19285033', 'http://www.wikidata.org/entity/Q1958943', 'http://www.wikidata.org/entity/Q2127588', 'http://www.wikidata.org/entity/Q2307151', 'http://www.wikidata.org/entity/Q64521188', 'http://www.wikidata.org/entity/Q302508', 'http://www.wikidata.org/entity/Q123686087', 'http://www.wikidata.org/entity/Q15712258', 'http://www.wikidata.org/entity/Q99582862', 'http://www.wikidata.org/entity/Q99583158', 'http://www.wikidata.org/entity/Q107044100', 'http://www.wikidata.org/entity/Q812349', 'http://www.wikidata.org/entity/Q1491864', 'http://www.wikidata.org/entity/Q459755', 'http://www.wikidata.org/entity/Q786162', 'http://www.wikidata.org/entity/Q27638908', 'http://www.wikidata.org/entity/Q2138493', 'http://www.wikidata.org/entity/Q40008227', 'http://www.wikidata.org/entity/Q56525762', 'http://www.wikidata.org/entity/Q5157406', 'http://www.wikidata.org/entity/Q1787798', 'http://www.wikidata.org/entity/Q105675580', 'http://www.wikidata.org/entity/Q5281947', 'http://www.wikidata.org/entity/Q73812103', 'http://www.wikidata.org/entity/Q6822539', 'http://www.wikidata.org/entity/Q123181507', 'http://www.wikidata.org/entity/Q1021189', 'http://www.wikidata.org/entity/Q1354245', 'http://www.wikidata.org/entity/Q1438023', 'http://www.wikidata.org/entity/Q153546', 'http://www.wikidata.org/entity/Q256392', 'http://www.wikidata.org/entity/Q568684', 'http://www.wikidata.org/entity/Q612166', 'http://www.wikidata.org/entity/Q787066', 'http://www.wikidata.org/entity/Q874166', 'http://www.wikidata.org/entity/Q1113350', 'http://www.wikidata.org/entity/Q2111113', 'http://www.wikidata.org/entity/Q98644524', 'http://www.wikidata.org/entity/Q110064223', 'http://www.wikidata.org/entity/Q119727110', 'http://www.wikidata.org/entity/Q121301213', 'http://www.wikidata.org/entity/Q124258813', 'http://www.wikidata.org/entity/Q127380521', 'http://www.wikidata.org/entity/Q86459781', 'http://www.wikidata.org/entity/Q561385', 'http://www.wikidata.org/entity/Q15836691', 'http://www.wikidata.org/entity/Q54822032', 'http://www.wikidata.org/entity/Q15906728', 'http://www.wikidata.org/entity/Q16218182', 'http://www.wikidata.org/entity/Q85691737', 'http://www.wikidata.org/entity/Q54263823', 'http://www.wikidata.org/entity/Q5611321', 'http://www.wikidata.org/entity/Q18624445', 'http://www.wikidata.org/entity/Q18703804', 'http://www.wikidata.org/entity/Q19964718', 'http://www.wikidata.org/entity/Q20164822', 'http://www.wikidata.org/entity/Q20181121', 'http://www.wikidata.org/entity/Q20181239', 'http://www.wikidata.org/entity/Q16857450', 'http://www.wikidata.org/entity/Q21511456', 'http://www.wikidata.org/entity/Q58839893', 'http://www.wikidata.org/entity/Q62587932', 'http://www.wikidata.org/entity/Q62894884', 'http://www.wikidata.org/entity/Q1559932', 'http://www.wikidata.org/entity/Q1742266', 'http://www.wikidata.org/entity/Q4836827', 'http://www.wikidata.org/entity/Q20748081', 'http://www.wikidata.org/entity/Q226817', 'http://www.wikidata.org/entity/Q1531663', 'http://www.wikidata.org/entity/Q23785765', 'http://www.wikidata.org/entity/Q124528120', 'http://www.wikidata.org/entity/Q22674690', 'http://www.wikidata.org/entity/Q61889589', 'http://www.wikidata.org/entity/Q1673714', 'http://www.wikidata.org/entity/Q1301938', 'http://www.wikidata.org/entity/Q130310104', 'http://www.wikidata.org/entity/Q28228137', 'http://www.wikidata.org/entity/Q123016150', 'http://www.wikidata.org/entity/Q126371084', 'http://www.wikidata.org/entity/Q391080', 'http://www.wikidata.org/entity/Q1464486', 'http://www.wikidata.org/entity/Q42916758', 'http://www.wikidata.org/entity/Q81230', 'http://www.wikidata.org/entity/Q126827', 'http://www.wikidata.org/entity/Q164152', 'http://www.wikidata.org/entity/Q171212', 'http://www.wikidata.org/entity/Q185691', 'http://www.wikidata.org/entity/Q42717773', 'http://www.wikidata.org/entity/Q190815', 'http://www.wikidata.org/entity/Q224554', 'http://www.wikidata.org/entity/Q47953205', 'http://www.wikidata.org/entity/Q256290', 'http://www.wikidata.org/entity/Q263756', 'http://www.wikidata.org/entity/Q50639109', 'http://www.wikidata.org/entity/Q290304', 'http://www.wikidata.org/entity/Q297891', 'http://www.wikidata.org/entity/Q310481', 'http://www.wikidata.org/entity/Q314790', 'http://www.wikidata.org/entity/Q315564', 'http://www.wikidata.org/entity/Q316636', 'http://www.wikidata.org/entity/Q319437', 'http://www.wikidata.org/entity/Q319971', 'http://www.wikidata.org/entity/Q323748', 'http://www.wikidata.org/entity/Q325891', 'http://www.wikidata.org/entity/Q326933', 'http://www.wikidata.org/entity/Q53108351', 'http://www.wikidata.org/entity/Q128339659', 'http://www.wikidata.org/entity/Q53596640', 'http://www.wikidata.org/entity/Q54913647', 'http://www.wikidata.org/entity/Q106378448', 'http://www.wikidata.org/entity/Q107585565', 'http://www.wikidata.org/entity/Q455467', 'http://www.wikidata.org/entity/Q469594', 'http://www.wikidata.org/entity/Q477848', 'http://www.wikidata.org/entity/Q481464', 'http://www.wikidata.org/entity/Q487292', 'http://www.wikidata.org/entity/Q535517', 'http://www.wikidata.org/entity/Q116035327', 'http://www.wikidata.org/entity/Q571907', 'http://www.wikidata.org/entity/Q583177', 'http://www.wikidata.org/entity/Q593874', 'http://www.wikidata.org/entity/Q614920', 'http://www.wikidata.org/entity/Q750476', 'http://www.wikidata.org/entity/Q639440', 'http://www.wikidata.org/entity/Q641437', 'http://www.wikidata.org/entity/Q646220', 'http://www.wikidata.org/entity/Q656469', 'http://www.wikidata.org/entity/Q682533', 'http://www.wikidata.org/entity/Q20895367', 'http://www.wikidata.org/entity/Q704853', 'http://www.wikidata.org/entity/Q662623', 'http://www.wikidata.org/entity/Q17080276', 'http://www.wikidata.org/entity/Q757673', 'http://www.wikidata.org/entity/Q768501', 'http://www.wikidata.org/entity/Q830846', 'http://www.wikidata.org/entity/Q835487', 'http://www.wikidata.org/entity/Q797073', 'http://www.wikidata.org/entity/Q804921', 'http://www.wikidata.org/entity/Q809994', 'http://www.wikidata.org/entity/Q812055', 'http://www.wikidata.org/entity/Q812177', 'http://www.wikidata.org/entity/Q812213', 'http://www.wikidata.org/entity/Q812231', 'http://www.wikidata.org/entity/Q812498', 'http://www.wikidata.org/entity/Q812775', 'http://www.wikidata.org/entity/Q818866', 'http://www.wikidata.org/entity/Q796240', 'http://www.wikidata.org/entity/Q121159761', 'http://www.wikidata.org/entity/Q878363', 'http://www.wikidata.org/entity/Q906804', 'http://www.wikidata.org/entity/Q122259955', 'http://www.wikidata.org/entity/Q123562123', 'http://www.wikidata.org/entity/Q881017', 'http://www.wikidata.org/entity/Q899963', 'http://www.wikidata.org/entity/Q681931', 'http://www.wikidata.org/entity/Q992509', 'http://www.wikidata.org/entity/Q55511580', 'http://www.wikidata.org/entity/Q1020977', 'http://www.wikidata.org/entity/Q1022539', 'http://www.wikidata.org/entity/Q1068745', 'http://www.wikidata.org/entity/Q1093377', 'http://www.wikidata.org/entity/Q1121999', 'http://www.wikidata.org/entity/Q1256856', 'http://www.wikidata.org/entity/Q1274507', 'http://www.wikidata.org/entity/Q1280528', 'http://www.wikidata.org/entity/Q1280813', 'http://www.wikidata.org/entity/Q1281744', 'http://www.wikidata.org/entity/Q1286268', 'http://www.wikidata.org/entity/Q1304340', 'http://www.wikidata.org/entity/Q1307894', 'http://www.wikidata.org/entity/Q1151747', 'http://www.wikidata.org/entity/Q1199893', 'http://www.wikidata.org/entity/Q1206230', 'http://www.wikidata.org/entity/Q288810', 'http://www.wikidata.org/entity/Q1225415', 'http://www.wikidata.org/entity/Q1233314', 'http://www.wikidata.org/entity/Q1235360', 'http://www.wikidata.org/entity/Q1240806', 'http://www.wikidata.org/entity/Q1247187', 'http://www.wikidata.org/entity/Q123238612', 'http://www.wikidata.org/entity/Q1341223', 'http://www.wikidata.org/entity/Q1368770', 'http://www.wikidata.org/entity/Q1376461', 'http://www.wikidata.org/entity/Q1376879', 'http://www.wikidata.org/entity/Q1377104', 'http://www.wikidata.org/entity/Q1377479', 'http://www.wikidata.org/entity/Q1386668', 'http://www.wikidata.org/entity/Q1389761', 'http://www.wikidata.org/entity/Q1410841', 'http://www.wikidata.org/entity/Q1414247', 'http://www.wikidata.org/entity/Q1425225', 'http://www.wikidata.org/entity/Q1425607', 'http://www.wikidata.org/entity/Q1483999', 'http://www.wikidata.org/entity/Q1484782', 'http://www.wikidata.org/entity/Q1485251', 'http://www.wikidata.org/entity/Q1486164', 'http://www.wikidata.org/entity/Q1486954', 'http://www.wikidata.org/entity/Q19274812', 'http://www.wikidata.org/entity/Q1455771', 'http://www.wikidata.org/entity/Q1467027', 'http://www.wikidata.org/entity/Q59423676', 'http://www.wikidata.org/entity/Q60762195', 'http://www.wikidata.org/entity/Q66317579', 'http://www.wikidata.org/entity/Q106691669', 'http://www.wikidata.org/entity/Q108250509', 'http://www.wikidata.org/entity/Q1571714', 'http://www.wikidata.org/entity/Q66126134', 'http://www.wikidata.org/entity/Q1514067', 'http://www.wikidata.org/entity/Q1516677', 'http://www.wikidata.org/entity/Q1523257', 'http://www.wikidata.org/entity/Q63623999', 'http://www.wikidata.org/entity/Q63725648', 'http://www.wikidata.org/entity/Q116738779', 'http://www.wikidata.org/entity/Q131323895', 'http://www.wikidata.org/entity/Q1634142', 'http://www.wikidata.org/entity/Q2136378', 'http://www.wikidata.org/entity/Q2558169', 'http://www.wikidata.org/entity/Q125521240', 'http://www.wikidata.org/entity/Q564937', 'http://www.wikidata.org/entity/Q3482130', 'http://www.wikidata.org/entity/Q3978133', 'http://www.wikidata.org/entity/Q1601696', 'http://www.wikidata.org/entity/Q1663622', 'http://www.wikidata.org/entity/Q1666091', 'http://www.wikidata.org/entity/Q1670079', 'http://www.wikidata.org/entity/Q1671060', 'http://www.wikidata.org/entity/Q5099356', 'http://www.wikidata.org/entity/Q5170290', 'http://www.wikidata.org/entity/Q124816100', 'http://www.wikidata.org/entity/Q1678589', 'http://www.wikidata.org/entity/Q1686777', 'http://www.wikidata.org/entity/Q1699037', 'http://www.wikidata.org/entity/Q6808967', 'http://www.wikidata.org/entity/Q1724325', 'http://www.wikidata.org/entity/Q1727026', 'http://www.wikidata.org/entity/Q1727709', 'http://www.wikidata.org/entity/Q7301342', 'http://www.wikidata.org/entity/Q1762174', 'http://www.wikidata.org/entity/Q1774480', 'http://www.wikidata.org/entity/Q1777429', 'http://www.wikidata.org/entity/Q1780544', 'http://www.wikidata.org/entity/Q20707755', 'http://www.wikidata.org/entity/Q1874204', 'http://www.wikidata.org/entity/Q1881316', 'http://www.wikidata.org/entity/Q32059975', 'http://www.wikidata.org/entity/Q1901049', 'http://www.wikidata.org/entity/Q1912056', 'http://www.wikidata.org/entity/Q1916754', 'http://www.wikidata.org/entity/Q1940645', 'http://www.wikidata.org/entity/Q1947088', 'http://www.wikidata.org/entity/Q1958909', 'http://www.wikidata.org/entity/Q1958981', 'http://www.wikidata.org/entity/Q1996533', 'http://www.wikidata.org/entity/Q2003006', 'http://www.wikidata.org/entity/Q2004368', 'http://www.wikidata.org/entity/Q2099084', 'http://www.wikidata.org/entity/Q2108605', 'http://www.wikidata.org/entity/Q2007398', 'http://www.wikidata.org/entity/Q2010413', 'http://www.wikidata.org/entity/Q2033979', 'http://www.wikidata.org/entity/Q2034913', 'http://www.wikidata.org/entity/Q2111411', 'http://www.wikidata.org/entity/Q118877575', 'http://www.wikidata.org/entity/Q2147902', 'http://www.wikidata.org/entity/Q2261455', 'http://www.wikidata.org/entity/Q2275630', 'http://www.wikidata.org/entity/Q2284316', 'http://www.wikidata.org/entity/Q2286374', 'http://www.wikidata.org/entity/Q2205290', 'http://www.wikidata.org/entity/Q2227783', 'http://www.wikidata.org/entity/Q2238898', 'http://www.wikidata.org/entity/Q2249692', 'http://www.wikidata.org/entity/Q2297536', 'http://www.wikidata.org/entity/Q2310841', 'http://www.wikidata.org/entity/Q113640419', 'http://www.wikidata.org/entity/Q623712', 'http://www.wikidata.org/entity/Q2345671', 'http://www.wikidata.org/entity/Q2358728', 'http://www.wikidata.org/entity/Q2360063', 'http://www.wikidata.org/entity/Q2376015', 'http://www.wikidata.org/entity/Q2380541', 'http://www.wikidata.org/entity/Q35953', 'http://www.wikidata.org/entity/Q2463549', 'http://www.wikidata.org/entity/Q2495289', 'http://www.wikidata.org/entity/Q2496469', 'http://www.wikidata.org/entity/Q1498851', 'http://www.wikidata.org/entity/Q2438749', 'http://www.wikidata.org/entity/Q2455910', 'http://www.wikidata.org/entity/Q2515157', 'http://www.wikidata.org/entity/Q2553221', 'http://www.wikidata.org/entity/Q2553539', 'http://www.wikidata.org/entity/Q812463', 'http://www.wikidata.org/entity/Q991368', 'http://www.wikidata.org/entity/Q2650924', 'http://www.wikidata.org/entity/Q2825507', 'http://www.wikidata.org/entity/Q77678006', 'http://www.wikidata.org/entity/Q1663015', 'http://www.wikidata.org/entity/Q2843199', 'http://www.wikidata.org/entity/Q79845107', 'http://www.wikidata.org/entity/Q1022796', 'http://www.wikidata.org/entity/Q124371415', 'http://www.wikidata.org/entity/Q796042', 'http://www.wikidata.org/entity/Q796110', 'http://www.wikidata.org/entity/Q2215502', 'http://www.wikidata.org/entity/Q811995', 'http://www.wikidata.org/entity/Q265102', 'http://www.wikidata.org/entity/Q3335393', 'http://www.wikidata.org/entity/Q3338642', 'http://www.wikidata.org/entity/Q1688487', 'http://www.wikidata.org/entity/Q33216137', 'http://www.wikidata.org/entity/Q97570127', 'http://www.wikidata.org/entity/Q100715681', 'http://www.wikidata.org/entity/Q99520664', 'http://www.wikidata.org/entity/Q811994', 'http://www.wikidata.org/entity/Q1114279', 'http://www.wikidata.org/entity/Q1389762', 'http://www.wikidata.org/entity/Q2506090', 'http://www.wikidata.org/entity/Q16839030', 'http://www.wikidata.org/entity/Q152971', 'http://www.wikidata.org/entity/Q6699673', 'http://www.wikidata.org/entity/Q3843040', 'http://www.wikidata.org/entity/Q3877400', 'http://www.wikidata.org/entity/Q102312797', 'http://www.wikidata.org/entity/Q16935325', 'http://www.wikidata.org/entity/Q4034627', 'http://www.wikidata.org/entity/Q26794383', 'http://www.wikidata.org/entity/Q63052337', 'http://www.wikidata.org/entity/Q102416462', 'http://www.wikidata.org/entity/Q102416461', 'http://www.wikidata.org/entity/Q102416467', 'http://www.wikidata.org/entity/Q1619708', 'http://www.wikidata.org/entity/Q4053029', 'http://www.wikidata.org/entity/Q4119712', 'http://www.wikidata.org/entity/Q105195388', 'http://www.wikidata.org/entity/Q105687591', 'http://www.wikidata.org/entity/Q105988160', 'http://www.wikidata.org/entity/Q1406219', 'http://www.wikidata.org/entity/Q107009805', 'http://www.wikidata.org/entity/Q107448239', 'http://www.wikidata.org/entity/Q107959659', 'http://www.wikidata.org/entity/Q108411518', 'http://www.wikidata.org/entity/Q108981540', 'http://www.wikidata.org/entity/Q111189219', 'http://www.wikidata.org/entity/Q112191180', 'http://www.wikidata.org/entity/Q114238000', 'http://www.wikidata.org/entity/Q4688630', 'http://www.wikidata.org/entity/Q124816078', 'http://www.wikidata.org/entity/Q117313525', 'http://www.wikidata.org/entity/Q117662654', 'http://www.wikidata.org/entity/Q117915952', 'http://www.wikidata.org/entity/Q119151788', 'http://www.wikidata.org/entity/Q119791656', 'http://www.wikidata.org/entity/Q120644855', 'http://www.wikidata.org/entity/Q122839989', 'http://www.wikidata.org/entity/Q123262730', 'http://www.wikidata.org/entity/Q123478667', 'http://www.wikidata.org/entity/Q123556184', 'http://www.wikidata.org/entity/Q123615431', 'http://www.wikidata.org/entity/Q124211337', 'http://www.wikidata.org/entity/Q124212034', 'http://www.wikidata.org/entity/Q126073930', 'http://www.wikidata.org/entity/Q124664650', 'http://www.wikidata.org/entity/Q125673872', 'http://www.wikidata.org/entity/Q127404973', 'http://www.wikidata.org/entity/Q128771729', 'http://www.wikidata.org/entity/Q129170123', 'http://www.wikidata.org/entity/Q129177338', 'http://www.wikidata.org/entity/Q2121409', 'http://www.wikidata.org/entity/Q130313650', 'http://www.wikidata.org/entity/Q5121109', 'http://www.wikidata.org/entity/Q18207259', 'http://www.wikidata.org/entity/Q29016942', 'http://www.wikidata.org/entity/Q38376156', 'http://www.wikidata.org/entity/Q56510606', 'http://www.wikidata.org/entity/Q107557280', 'http://www.wikidata.org/entity/Q5188611', 'http://www.wikidata.org/entity/Q25230606', 'http://www.wikidata.org/entity/Q1024514', 'http://www.wikidata.org/entity/Q130899349', 'http://www.wikidata.org/entity/Q22569868', 'http://www.wikidata.org/entity/Q5450952', 'http://www.wikidata.org/entity/Q5533474', 'http://www.wikidata.org/entity/Q6383715', 'http://www.wikidata.org/entity/Q18018529', 'http://www.wikidata.org/entity/Q795941', 'http://www.wikidata.org/entity/Q15810049', 'http://www.wikidata.org/entity/Q108866856', 'http://www.wikidata.org/entity/Q7168717', 'http://www.wikidata.org/entity/Q7294298', 'http://www.wikidata.org/entity/Q7685873', 'http://www.wikidata.org/entity/Q7855893', 'http://www.wikidata.org/entity/Q8073204', 'http://www.wikidata.org/entity/Q7906738', 'http://www.wikidata.org/entity/Q10546926', 'http://www.wikidata.org/entity/Q13799874', 'http://www.wikidata.org/entity/Q14644751', 'http://www.wikidata.org/entity/Q15106811', 'http://www.wikidata.org/entity/Q15618434', 'http://www.wikidata.org/entity/Q15815754', 'http://www.wikidata.org/entity/Q15820073', 'http://www.wikidata.org/entity/Q15835403', 'http://www.wikidata.org/entity/Q15842301', 'http://www.wikidata.org/entity/Q15849323', 'http://www.wikidata.org/entity/Q15853849', 'http://www.wikidata.org/entity/Q15857244', 'http://www.wikidata.org/entity/Q16283636', 'http://www.wikidata.org/entity/Q16974244', 'http://www.wikidata.org/entity/Q17127968', 'http://www.wikidata.org/entity/Q18287629', 'http://www.wikidata.org/entity/Q18288800', 'http://www.wikidata.org/entity/Q17310477', 'http://www.wikidata.org/entity/Q17320113', 'http://www.wikidata.org/entity/Q17511644', 'http://www.wikidata.org/entity/Q17591710', 'http://www.wikidata.org/entity/Q18028319', 'http://www.wikidata.org/entity/Q18029778', 'http://www.wikidata.org/entity/Q18563009', 'http://www.wikidata.org/entity/Q18814916', 'http://www.wikidata.org/entity/Q19275161', 'http://www.wikidata.org/entity/Q19834029', 'http://www.wikidata.org/entity/Q20825775', 'http://www.wikidata.org/entity/Q20828661', 'http://www.wikidata.org/entity/Q21036550', 'http://www.wikidata.org/entity/Q21036327', 'http://www.wikidata.org/entity/Q21036421', 'http://www.wikidata.org/entity/Q20180341', 'http://www.wikidata.org/entity/Q20180375', 'http://www.wikidata.org/entity/Q22101778', 'http://www.wikidata.org/entity/Q21451563', 'http://www.wikidata.org/entity/Q21472027', 'http://www.wikidata.org/entity/Q22312893', 'http://www.wikidata.org/entity/Q22674659', 'http://www.wikidata.org/entity/Q23464981', 'http://www.wikidata.org/entity/Q27500597', 'http://www.wikidata.org/entity/Q27881528', 'http://www.wikidata.org/entity/Q28147234', 'http://www.wikidata.org/entity/Q28228091', 'http://www.wikidata.org/entity/Q28325457', 'http://www.wikidata.org/entity/Q28500258', 'http://www.wikidata.org/entity/Q29123068', 'http://www.wikidata.org/entity/Q29123629', 'http://www.wikidata.org/entity/Q28833347', 'http://www.wikidata.org/entity/Q28973135', 'http://www.wikidata.org/entity/Q28973132', 'http://www.wikidata.org/entity/Q28999554', 'http://www.wikidata.org/entity/Q29000319', 'http://www.wikidata.org/entity/Q30254673', 'http://www.wikidata.org/entity/Q30254836', 'http://www.wikidata.org/entity/Q30252819', 'http://www.wikidata.org/entity/Q30255193', 'http://www.wikidata.org/entity/Q30255424', 'http://www.wikidata.org/entity/Q30256225', 'http://www.wikidata.org/entity/Q30256413', 'http://www.wikidata.org/entity/Q30256431', 'http://www.wikidata.org/entity/Q30274672', 'http://www.wikidata.org/entity/Q30279555', 'http://www.wikidata.org/entity/Q30268722', 'http://www.wikidata.org/entity/Q30268970', 'http://www.wikidata.org/entity/Q30269020', 'http://www.wikidata.org/entity/Q30269025', 'http://www.wikidata.org/entity/Q30269139', 'http://www.wikidata.org/entity/Q30269168', 'http://www.wikidata.org/entity/Q30269206', 'http://www.wikidata.org/entity/Q30269266', 'http://www.wikidata.org/entity/Q30265931', 'http://www.wikidata.org/entity/Q30267300', 'http://www.wikidata.org/entity/Q30267308', 'http://www.wikidata.org/entity/Q30284501', 'http://www.wikidata.org/entity/Q30284632', 'http://www.wikidata.org/entity/Q30284782', 'http://www.wikidata.org/entity/Q30285208', 'http://www.wikidata.org/entity/Q30285583', 'http://www.wikidata.org/entity/Q30290576', 'http://www.wikidata.org/entity/Q30290790', 'http://www.wikidata.org/entity/Q30290894', 'http://www.wikidata.org/entity/Q30291065', 'http://www.wikidata.org/entity/Q30291745', 'http://www.wikidata.org/entity/Q30291769', 'http://www.wikidata.org/entity/Q30291942', 'http://www.wikidata.org/entity/Q30292123', 'http://www.wikidata.org/entity/Q30292203', 'http://www.wikidata.org/entity/Q30292215', 'http://www.wikidata.org/entity/Q30292607', 'http://www.wikidata.org/entity/Q30294854', 'http://www.wikidata.org/entity/Q30338687', 'http://www.wikidata.org/entity/Q30338706', 'http://www.wikidata.org/entity/Q30338465', 'http://www.wikidata.org/entity/Q30338474', 'http://www.wikidata.org/entity/Q30338482', 'http://www.wikidata.org/entity/Q30343915', 'http://www.wikidata.org/entity/Q30713231', 'http://www.wikidata.org/entity/Q30748373', 'http://www.wikidata.org/entity/Q33527896', 'http://www.wikidata.org/entity/Q37068913', 'http://www.wikidata.org/entity/Q41568675', 'http://www.wikidata.org/entity/Q43896167', 'http://www.wikidata.org/entity/Q43896168', 'http://www.wikidata.org/entity/Q43896253', 'http://www.wikidata.org/entity/Q42871748', 'http://www.wikidata.org/entity/Q43895171', 'http://www.wikidata.org/entity/Q48966381', 'http://www.wikidata.org/entity/Q50037941', 'http://www.wikidata.org/entity/Q50038310', 'http://www.wikidata.org/entity/Q50038313', 'http://www.wikidata.org/entity/Q50038601', 'http://www.wikidata.org/entity/Q50038743', 'http://www.wikidata.org/entity/Q50038820', 'http://www.wikidata.org/entity/Q51110652', 'http://www.wikidata.org/entity/Q51844715', 'http://www.wikidata.org/entity/Q584985', 'http://www.wikidata.org/entity/Q787867', 'http://www.wikidata.org/entity/Q787872', 'http://www.wikidata.org/entity/Q812395', 'http://www.wikidata.org/entity/Q173339', 'http://www.wikidata.org/entity/Q244017', 'http://www.wikidata.org/entity/Q1036734', 'http://www.wikidata.org/entity/Q1105275', 'http://www.wikidata.org/entity/Q1122885', 'http://www.wikidata.org/entity/Q54957930', 'http://www.wikidata.org/entity/Q1184966', 'http://www.wikidata.org/entity/Q1208778', 'http://www.wikidata.org/entity/Q1283357', 'http://www.wikidata.org/entity/Q1712799', 'http://www.wikidata.org/entity/Q1872736', 'http://www.wikidata.org/entity/Q1914511', 'http://www.wikidata.org/entity/Q1936956', 'http://www.wikidata.org/entity/Q2038026', 'http://www.wikidata.org/entity/Q16295306', 'http://www.wikidata.org/entity/Q55314518', 'http://www.wikidata.org/entity/Q55439724', 'http://www.wikidata.org/entity/Q55000754', 'http://www.wikidata.org/entity/Q55517308', 'http://www.wikidata.org/entity/Q109453642', 'http://www.wikidata.org/entity/Q56650636', 'http://www.wikidata.org/entity/Q57531532', 'http://www.wikidata.org/entity/Q57779499', 'http://www.wikidata.org/entity/Q747215', 'http://www.wikidata.org/entity/Q757695', 'http://www.wikidata.org/entity/Q765796', 'http://www.wikidata.org/entity/Q811992', 'http://www.wikidata.org/entity/Q56064242', 'http://www.wikidata.org/entity/Q1393030', 'http://www.wikidata.org/entity/Q59659278', 'http://www.wikidata.org/entity/Q59660681', 'http://www.wikidata.org/entity/Q1054364', 'http</t>
+          <t>['http://www.wikidata.org/entity/Q467407', 'http://www.wikidata.org/entity/Q1024514', 'http://www.wikidata.org/entity/Q19296127', 'http://www.wikidata.org/entity/Q41804705', 'http://www.wikidata.org/entity/Q116819872', 'http://www.wikidata.org/entity/Q600986', 'http://www.wikidata.org/entity/Q668365', 'http://www.wikidata.org/entity/Q84757996', 'http://www.wikidata.org/entity/Q130285248', 'http://www.wikidata.org/entity/Q11207', 'http://www.wikidata.org/entity/Q62998653', 'http://www.wikidata.org/entity/Q105771317', 'http://www.wikidata.org/entity/Q105771321', 'http://www.wikidata.org/entity/Q391895', 'http://www.wikidata.org/entity/Q125334261', 'http://www.wikidata.org/entity/Q1666244', 'http://www.wikidata.org/entity/Q122782791', 'http://www.wikidata.org/entity/Q127380521', 'http://www.wikidata.org/entity/Q56826559', 'http://www.wikidata.org/entity/Q56875765', 'http://www.wikidata.org/entity/Q646162', 'http://www.wikidata.org/entity/Q759176', 'http://www.wikidata.org/entity/Q850577', 'http://www.wikidata.org/entity/Q1502842', 'http://www.wikidata.org/entity/Q1618868', 'http://www.wikidata.org/entity/Q126956629', 'http://www.wikidata.org/entity/Q2405174', 'http://www.wikidata.org/entity/Q109659129', 'http://www.wikidata.org/entity/Q15907302', 'http://www.wikidata.org/entity/Q831961', 'http://www.wikidata.org/entity/Q831974', 'http://www.wikidata.org/entity/Q22671798', 'http://www.wikidata.org/entity/Q130213471', 'http://www.wikidata.org/entity/Q98497101', 'http://www.wikidata.org/entity/Q30256949', 'http://www.wikidata.org/entity/Q30268885', 'http://www.wikidata.org/entity/Q106917357', 'http://www.wikidata.org/entity/Q110277323', 'http://www.wikidata.org/entity/Q113623328', 'http://www.wikidata.org/entity/Q113631502', 'http://www.wikidata.org/entity/Q113679708', 'http://www.wikidata.org/entity/Q118496568', 'http://www.wikidata.org/entity/Q118496595', 'http://www.wikidata.org/entity/Q119951901', 'http://www.wikidata.org/entity/Q120001924', 'http://www.wikidata.org/entity/Q124308116', 'http://www.wikidata.org/entity/Q71979316', 'http://www.wikidata.org/entity/Q72049758', 'http://www.wikidata.org/entity/Q123021026', 'http://www.wikidata.org/entity/Q189589', 'http://www.wikidata.org/entity/Q295937', 'http://www.wikidata.org/entity/Q318616', 'http://www.wikidata.org/entity/Q701237', 'http://www.wikidata.org/entity/Q1641495', 'http://www.wikidata.org/entity/Q2515205', 'http://www.wikidata.org/entity/Q2648743', 'http://www.wikidata.org/entity/Q130711543', 'http://www.wikidata.org/entity/Q130711548', 'http://www.wikidata.org/entity/Q1653982', 'http://www.wikidata.org/entity/Q564960', 'http://www.wikidata.org/entity/Q166637', 'http://www.wikidata.org/entity/Q461257', 'http://www.wikidata.org/entity/Q992121', 'http://www.wikidata.org/entity/Q15224734', 'http://www.wikidata.org/entity/Q66555223', 'http://www.wikidata.org/entity/Q268878', 'http://www.wikidata.org/entity/Q463980', 'http://www.wikidata.org/entity/Q1092353', 'http://www.wikidata.org/entity/Q1257223', 'http://www.wikidata.org/entity/Q1386879', 'http://www.wikidata.org/entity/Q1402681', 'http://www.wikidata.org/entity/Q1494465', 'http://www.wikidata.org/entity/Q1535837', 'http://www.wikidata.org/entity/Q2014391', 'http://www.wikidata.org/entity/Q2385609', 'http://www.wikidata.org/entity/Q2451857', 'http://www.wikidata.org/entity/Q2568272', 'http://www.wikidata.org/entity/Q2601340', 'http://www.wikidata.org/entity/Q651946', 'http://www.wikidata.org/entity/Q5636549', 'http://www.wikidata.org/entity/Q16295348', 'http://www.wikidata.org/entity/Q16991392', 'http://www.wikidata.org/entity/Q107516979', 'http://www.wikidata.org/entity/Q107527832', 'http://www.wikidata.org/entity/Q23789297', 'http://www.wikidata.org/entity/Q33108601', 'http://www.wikidata.org/entity/Q41635406', 'http://www.wikidata.org/entity/Q122922227', 'http://www.wikidata.org/entity/Q42286429', 'http://www.wikidata.org/entity/Q43686428', 'http://www.wikidata.org/entity/Q56474046', 'http://www.wikidata.org/entity/Q57403410', 'http://www.wikidata.org/entity/Q57541102', 'http://www.wikidata.org/entity/Q57648993', 'http://www.wikidata.org/entity/Q62527968', 'http://www.wikidata.org/entity/Q64777447', 'http://www.wikidata.org/entity/Q65589420', 'http://www.wikidata.org/entity/Q78159044', 'http://www.wikidata.org/entity/Q78625928', 'http://www.wikidata.org/entity/Q79618634', 'http://www.wikidata.org/entity/Q88889010', 'http://www.wikidata.org/entity/Q89045213', 'http://www.wikidata.org/entity/Q130999913', 'http://www.wikidata.org/entity/Q108430732', 'http://www.wikidata.org/entity/Q74418278', 'http://www.wikidata.org/entity/Q101208785', 'http://www.wikidata.org/entity/Q101246994', 'http://www.wikidata.org/entity/Q292622', 'http://www.wikidata.org/entity/Q312590', 'http://www.wikidata.org/entity/Q320521', 'http://www.wikidata.org/entity/Q322712', 'http://www.wikidata.org/entity/Q323802', 'http://www.wikidata.org/entity/Q382470', 'http://www.wikidata.org/entity/Q451526', 'http://www.wikidata.org/entity/Q479845', 'http://www.wikidata.org/entity/Q128929', 'http://www.wikidata.org/entity/Q104772178', 'http://www.wikidata.org/entity/Q105699228', 'http://www.wikidata.org/entity/Q105699308', 'http://www.wikidata.org/entity/Q105756521', 'http://www.wikidata.org/entity/Q106631524', 'http://www.wikidata.org/entity/Q106641397', 'http://www.wikidata.org/entity/Q112226413', 'http://www.wikidata.org/entity/Q26678', 'http://www.wikidata.org/entity/Q28255', 'http://www.wikidata.org/entity/Q59167', 'http://www.wikidata.org/entity/Q548825', 'http://www.wikidata.org/entity/Q647863', 'http://www.wikidata.org/entity/Q666476', 'http://www.wikidata.org/entity/Q112769638', 'http://www.wikidata.org/entity/Q112864620', 'http://www.wikidata.org/entity/Q114966474', 'http://www.wikidata.org/entity/Q115247331', 'http://www.wikidata.org/entity/Q115257316', 'http://www.wikidata.org/entity/Q115944474', 'http://www.wikidata.org/entity/Q116774987', 'http://www.wikidata.org/entity/Q117846421', 'http://www.wikidata.org/entity/Q118851620', 'http://www.wikidata.org/entity/Q880195', 'http://www.wikidata.org/entity/Q882871', 'http://www.wikidata.org/entity/Q892015', 'http://www.wikidata.org/entity/Q897437', 'http://www.wikidata.org/entity/Q123585705', 'http://www.wikidata.org/entity/Q124545647', 'http://www.wikidata.org/entity/Q126370600', 'http://www.wikidata.org/entity/Q130381757', 'http://www.wikidata.org/entity/Q131050914', 'http://www.wikidata.org/entity/Q131155296', 'http://www.wikidata.org/entity/Q131368105', 'http://www.wikidata.org/entity/Q704874', 'http://www.wikidata.org/entity/Q708667', 'http://www.wikidata.org/entity/Q784898', 'http://www.wikidata.org/entity/Q796648', 'http://www.wikidata.org/entity/Q796949', 'http://www.wikidata.org/entity/Q812300', 'http://www.wikidata.org/entity/Q812518', 'http://www.wikidata.org/entity/Q1868392', 'http://www.wikidata.org/entity/Q1022404', 'http://www.wikidata.org/entity/Q1034581', 'http://www.wikidata.org/entity/Q1151354', 'http://www.wikidata.org/entity/Q1153623', 'http://www.wikidata.org/entity/Q1158033', 'http://www.wikidata.org/entity/Q1204371', 'http://www.wikidata.org/entity/Q1251194', 'http://www.wikidata.org/entity/Q1493841', 'http://www.wikidata.org/entity/Q1561183', 'http://www.wikidata.org/entity/Q1908856', 'http://www.wikidata.org/entity/Q1916189', 'http://www.wikidata.org/entity/Q1371521', 'http://www.wikidata.org/entity/Q1386924', 'http://www.wikidata.org/entity/Q1681708', 'http://www.wikidata.org/entity/Q1736470', 'http://www.wikidata.org/entity/Q2154631', 'http://www.wikidata.org/entity/Q2156588', 'http://www.wikidata.org/entity/Q2161386', 'http://www.wikidata.org/entity/Q131424380', 'http://www.wikidata.org/entity/Q2220152', 'http://www.wikidata.org/entity/Q2473072', 'http://www.wikidata.org/entity/Q2506037', 'http://www.wikidata.org/entity/Q2538598', 'http://www.wikidata.org/entity/Q2541749', 'http://www.wikidata.org/entity/Q2649121', 'http://www.wikidata.org/entity/Q2654526', 'http://www.wikidata.org/entity/Q114810299', 'http://www.wikidata.org/entity/Q1529957', 'http://www.wikidata.org/entity/Q2392262', 'http://www.wikidata.org/entity/Q2825507', 'http://www.wikidata.org/entity/Q456402', 'http://www.wikidata.org/entity/Q1152076', 'http://www.wikidata.org/entity/Q1464486', 'http://www.wikidata.org/entity/Q2175704', 'http://www.wikidata.org/entity/Q1565282', 'http://www.wikidata.org/entity/Q1432106', 'http://www.wikidata.org/entity/Q63436869', 'http://www.wikidata.org/entity/Q63718592', 'http://www.wikidata.org/entity/Q64521188', 'http://www.wikidata.org/entity/Q1595419', 'http://www.wikidata.org/entity/Q2211794', 'http://www.wikidata.org/entity/Q5157406', 'http://www.wikidata.org/entity/Q5281947', 'http://www.wikidata.org/entity/Q302508', 'http://www.wikidata.org/entity/Q123686087', 'http://www.wikidata.org/entity/Q6822539', 'http://www.wikidata.org/entity/Q15712258', 'http://www.wikidata.org/entity/Q99582862', 'http://www.wikidata.org/entity/Q99583158', 'http://www.wikidata.org/entity/Q107044100', 'http://www.wikidata.org/entity/Q812349', 'http://www.wikidata.org/entity/Q1160103', 'http://www.wikidata.org/entity/Q1491864', 'http://www.wikidata.org/entity/Q459755', 'http://www.wikidata.org/entity/Q786162', 'http://www.wikidata.org/entity/Q2138493', 'http://www.wikidata.org/entity/Q128339659', 'http://www.wikidata.org/entity/Q15906728', 'http://www.wikidata.org/entity/Q15836691', 'http://www.wikidata.org/entity/Q56525762', 'http://www.wikidata.org/entity/Q40008227', 'http://www.wikidata.org/entity/Q16218182', 'http://www.wikidata.org/entity/Q73812103', 'http://www.wikidata.org/entity/Q105675580', 'http://www.wikidata.org/entity/Q18624445', 'http://www.wikidata.org/entity/Q18703804', 'http://www.wikidata.org/entity/Q123181507', 'http://www.wikidata.org/entity/Q19964718', 'http://www.wikidata.org/entity/Q23785765', 'http://www.wikidata.org/entity/Q20164822', 'http://www.wikidata.org/entity/Q20181121', 'http://www.wikidata.org/entity/Q20181239', 'http://www.wikidata.org/entity/Q20748081', 'http://www.wikidata.org/entity/Q110064223', 'http://www.wikidata.org/entity/Q570212', 'http://www.wikidata.org/entity/Q1113350', 'http://www.wikidata.org/entity/Q98644524', 'http://www.wikidata.org/entity/Q21511456', 'http://www.wikidata.org/entity/Q119727110', 'http://www.wikidata.org/entity/Q121301213', 'http://www.wikidata.org/entity/Q124258813', 'http://www.wikidata.org/entity/Q86459781', 'http://www.wikidata.org/entity/Q85691737', 'http://www.wikidata.org/entity/Q28228137', 'http://www.wikidata.org/entity/Q153546', 'http://www.wikidata.org/entity/Q256392', 'http://www.wikidata.org/entity/Q568684', 'http://www.wikidata.org/entity/Q612166', 'http://www.wikidata.org/entity/Q787066', 'http://www.wikidata.org/entity/Q874166', 'http://www.wikidata.org/entity/Q1021189', 'http://www.wikidata.org/entity/Q561385', 'http://www.wikidata.org/entity/Q54822032', 'http://www.wikidata.org/entity/Q1354245', 'http://www.wikidata.org/entity/Q1438023', 'http://www.wikidata.org/entity/Q2111113', 'http://www.wikidata.org/entity/Q27638908', 'http://www.wikidata.org/entity/Q5611321', 'http://www.wikidata.org/entity/Q54263823', 'http://www.wikidata.org/entity/Q42717773', 'http://www.wikidata.org/entity/Q47953205', 'http://www.wikidata.org/entity/Q53108351', 'http://www.wikidata.org/entity/Q124528120', 'http://www.wikidata.org/entity/Q50639109', 'http://www.wikidata.org/entity/Q1787798', 'http://www.wikidata.org/entity/Q53596640', 'http://www.wikidata.org/entity/Q54913647', 'http://www.wikidata.org/entity/Q1559932', 'http://www.wikidata.org/entity/Q1742266', 'http://www.wikidata.org/entity/Q4836827', 'http://www.wikidata.org/entity/Q1623217', 'http://www.wikidata.org/entity/Q16857450', 'http://www.wikidata.org/entity/Q226817', 'http://www.wikidata.org/entity/Q1531663', 'http://www.wikidata.org/entity/Q22674690', 'http://www.wikidata.org/entity/Q58839893', 'http://www.wikidata.org/entity/Q61889589', 'http://www.wikidata.org/entity/Q62587932', 'http://www.wikidata.org/entity/Q62894884', 'http://www.wikidata.org/entity/Q123016150', 'http://www.wikidata.org/entity/Q126371084', 'http://www.wikidata.org/entity/Q130310104', 'http://www.wikidata.org/entity/Q1673714', 'http://www.wikidata.org/entity/Q113465013', 'http://www.wikidata.org/entity/Q3482130', 'http://www.wikidata.org/entity/Q3978133', 'http://www.wikidata.org/entity/Q5099356', 'http://www.wikidata.org/entity/Q5170290', 'http://www.wikidata.org/entity/Q1301938', 'http://www.wikidata.org/entity/Q2136378', 'http://www.wikidata.org/entity/Q2558169', 'http://www.wikidata.org/entity/Q6808967', 'http://www.wikidata.org/entity/Q7301342', 'http://www.wikidata.org/entity/Q20707755', 'http://www.wikidata.org/entity/Q55511580', 'http://www.wikidata.org/entity/Q391080', 'http://www.wikidata.org/entity/Q32059975', 'http://www.wikidata.org/entity/Q42916758', 'http://www.wikidata.org/entity/Q487292', 'http://www.wikidata.org/entity/Q123238612', 'http://www.wikidata.org/entity/Q19274812', 'http://www.wikidata.org/entity/Q66317579', 'http://www.wikidata.org/entity/Q106691669', 'http://www.wikidata.org/entity/Q108250509', 'http://www.wikidata.org/entity/Q116738779', 'http://www.wikidata.org/entity/Q131323895', 'http://www.wikidata.org/entity/Q113640419', 'http://www.wikidata.org/entity/Q59423676', 'http://www.wikidata.org/entity/Q60762195', 'http://www.wikidata.org/entity/Q63623999', 'http://www.wikidata.org/entity/Q63725648', 'http://www.wikidata.org/entity/Q185691', 'http://www.wikidata.org/entity/Q190815', 'http://www.wikidata.org/entity/Q220189', 'http://www.wikidata.org/entity/Q224554', 'http://www.wikidata.org/entity/Q81230', 'http://www.wikidata.org/entity/Q126827', 'http://www.wikidata.org/entity/Q164152', 'http://www.wikidata.org/entity/Q171212', 'http://www.wikidata.org/entity/Q106378448', 'http://www.wikidata.org/entity/Q107585565', 'http://www.wikidata.org/entity/Q256290', 'http://www.wikidata.org/entity/Q263756', 'http://www.wikidata.org/entity/Q290304', 'http://www.wikidata.org/entity/Q297891', 'http://www.wikidata.org/entity/Q477848', 'http://www.wikidata.org/entity/Q481464', 'http://www.wikidata.org/entity/Q535517', 'http://www.wikidata.org/entity/Q455467', 'http://www.wikidata.org/entity/Q469594', 'http://www.wikidata.org/entity/Q310481', 'http://www.wikidata.org/entity/Q314790', 'http://www.wikidata.org/entity/Q315564', 'http://www.wikidata.org/entity/Q316636', 'http://www.wikidata.org/entity/Q319437', 'http://www.wikidata.org/entity/Q319971', 'http://www.wikidata.org/entity/Q323748', 'http://www.wikidata.org/entity/Q325891', 'http://www.wikidata.org/entity/Q326933', 'http://www.wikidata.org/entity/Q66126134', 'http://www.wikidata.org/entity/Q116035327', 'http://www.wikidata.org/entity/Q571907', 'http://www.wikidata.org/entity/Q583177', 'http://www.wikidata.org/entity/Q593874', 'http://www.wikidata.org/entity/Q614920', 'http://www.wikidata.org/entity/Q639440', 'http://www.wikidata.org/entity/Q641437', 'http://www.wikidata.org/entity/Q646220', 'http://www.wikidata.org/entity/Q656469', 'http://www.wikidata.org/entity/Q682533', 'http://www.wikidata.org/entity/Q704853', 'http://www.wikidata.org/entity/Q121159761', 'http://www.wikidata.org/entity/Q662623', 'http://www.wikidata.org/entity/Q757673', 'http://www.wikidata.org/entity/Q768501', 'http://www.wikidata.org/entity/Q796240', 'http://www.wikidata.org/entity/Q797073', 'http://www.wikidata.org/entity/Q818866', 'http://www.wikidata.org/entity/Q830846', 'http://www.wikidata.org/entity/Q804921', 'http://www.wikidata.org/entity/Q809994', 'http://www.wikidata.org/entity/Q812055', 'http://www.wikidata.org/entity/Q812177', 'http://www.wikidata.org/entity/Q812213', 'http://www.wikidata.org/entity/Q812231', 'http://www.wikidata.org/entity/Q812237', 'http://www.wikidata.org/entity/Q812498', 'http://www.wikidata.org/entity/Q812775', 'http://www.wikidata.org/entity/Q122259955', 'http://www.wikidata.org/entity/Q123562123', 'http://www.wikidata.org/entity/Q899963', 'http://www.wikidata.org/entity/Q906804', 'http://www.wikidata.org/entity/Q835487', 'http://www.wikidata.org/entity/Q878363', 'http://www.wikidata.org/entity/Q881017', 'http://www.wikidata.org/entity/Q992509', 'http://www.wikidata.org/entity/Q1020977', 'http://www.wikidata.org/entity/Q1022539', 'http://www.wikidata.org/entity/Q1068745', 'http://www.wikidata.org/entity/Q1093377', 'http://www.wikidata.org/entity/Q1121999', 'http://www.wikidata.org/entity/Q1225415', 'http://www.wikidata.org/entity/Q1233314', 'http://www.wikidata.org/entity/Q1235360', 'http://www.wikidata.org/entity/Q1240806', 'http://www.wikidata.org/entity/Q1247187', 'http://www.wikidata.org/entity/Q1256856', 'http://www.wikidata.org/entity/Q750476', 'http://www.wikidata.org/entity/Q17080276', 'http://www.wikidata.org/entity/Q20895367', 'http://www.wikidata.org/entity/Q1151747', 'http://www.wikidata.org/entity/Q1199893', 'http://www.wikidata.org/entity/Q1206230', 'http://www.wikidata.org/entity/Q1304340', 'http://www.wikidata.org/entity/Q1307894', 'http://www.wikidata.org/entity/Q1341223', 'http://www.wikidata.org/entity/Q1274507', 'http://www.wikidata.org/entity/Q1280528', 'http://www.wikidata.org/entity/Q1280813', 'http://www.wikidata.org/entity/Q1281744', 'http://www.wikidata.org/entity/Q1286268', 'http://www.wikidata.org/entity/Q1368770', 'http://www.wikidata.org/entity/Q1376461', 'http://www.wikidata.org/entity/Q1377104', 'http://www.wikidata.org/entity/Q1377479', 'http://www.wikidata.org/entity/Q77678006', 'http://www.wikidata.org/entity/Q681931', 'http://www.wikidata.org/entity/Q1386668', 'http://www.wikidata.org/entity/Q1389761', 'http://www.wikidata.org/entity/Q1410841', 'http://www.wikidata.org/entity/Q1414247', 'http://www.wikidata.org/entity/Q1425225', 'http://www.wikidata.org/entity/Q1425607', 'http://www.wikidata.org/entity/Q79845107', 'http://www.wikidata.org/entity/Q1455771', 'http://www.wikidata.org/entity/Q1467027', 'http://www.wikidata.org/entity/Q1571714', 'http://www.wikidata.org/entity/Q1601696', 'http://www.wikidata.org/entity/Q288810', 'http://www.wikidata.org/entity/Q1483999', 'http://www.wikidata.org/entity/Q1484782', 'http://www.wikidata.org/entity/Q1485251', 'http://www.wikidata.org/entity/Q1486164', 'http://www.wikidata.org/entity/Q1486954', 'http://www.wikidata.org/entity/Q1514067', 'http://www.wikidata.org/entity/Q1516677', 'http://www.wikidata.org/entity/Q1523257', 'http://www.wikidata.org/entity/Q97570127', 'http://www.wikidata.org/entity/Q99520664', 'http://www.wikidata.org/entity/Q100715681', 'http://www.wikidata.org/entity/Q1634142', 'http://www.wikidata.org/entity/Q1678589', 'http://www.wikidata.org/entity/Q1686777', 'http://www.wikidata.org/entity/Q1699037', 'http://www.wikidata.org/entity/Q1724325', 'http://www.wikidata.org/entity/Q1663622', 'http://www.wikidata.org/entity/Q1666091', 'http://www.wikidata.org/entity/Q1670079', 'http://www.wikidata.org/entity/Q1671060', 'http://www.wikidata.org/entity/Q1727026', 'http://www.wikidata.org/entity/Q1727709', 'http://www.wikidata.org/entity/Q1736264', 'http://www.wikidata.org/entity/Q1762174', 'http://www.wikidata.org/entity/Q1777429', 'http://www.wikidata.org/entity/Q1780544', 'http://www.wikidata.org/entity/Q1874204', 'http://www.wikidata.org/entity/Q1881316', 'http://www.wikidata.org/entity/Q1901049', 'http://www.wikidata.org/entity/Q102312797', 'http://www.wikidata.org/entity/Q812252', 'http://www.wikidata.org/entity/Q1912056', 'http://www.wikidata.org/entity/Q1916754', 'http://www.wikidata.org/entity/Q1940645', 'http://www.wikidata.org/entity/Q1947088', 'http://www.wikidata.org/entity/Q1958909', 'http://www.wikidata.org/entity/Q1958981', 'http://www.wikidata.org/entity/Q2004368', 'http://www.wikidata.org/entity/Q2007398', 'http://www.wikidata.org/entity/Q2010413', 'http://www.wikidata.org/entity/Q2033979', 'http://www.wikidata.org/entity/Q2034913', 'http://www.wikidata.org/entity/Q102416462', 'http://www.wikidata.org/entity/Q102416461', 'http://www.wikidata.org/entity/Q102416467', 'http://www.wikidata.org/entity/Q1996533', 'http://www.wikidata.org/entity/Q2003006', 'http://www.wikidata.org/entity/Q2099084', 'http://www.wikidata.org/entity/Q2108605', 'http://www.wikidata.org/entity/Q2111411', 'http://www.wikidata.org/entity/Q2147902', 'http://www.wikidata.org/entity/Q2205290', 'http://www.wikidata.org/entity/Q2227783', 'http://www.wikidata.org/entity/Q2238898', 'http://www.wikidata.org/entity/Q2249692', 'http://www.wikidata.org/entity/Q2261455', 'http://www.wikidata.org/entity/Q2275630', 'http://www.wikidata.org/entity/Q2284316', 'http://www.wikidata.org/entity/Q2286374', 'http://www.wikidata.org/entity/Q2297536', 'http://www.wikidata.org/entity/Q48585964', 'http://www.wikidata.org/entity/Q66125173', 'http://www.wikidata.org/entity/Q105195388', 'http://www.wikidata.org/entity/Q105687591', 'http://www.wikidata.org/entity/Q105988160', 'http://www.wikidata.org/entity/Q24004523', 'http://www.wikidata.org/entity/Q125521240', 'http://www.wikidata.org/entity/Q564937', 'http://www.wikidata.org/entity/Q2310841', 'http://www.wikidata.org/entity/Q2345671', 'http://www.wikidata.org/entity/Q2358728', 'http://www.wikidata.org/entity/Q2376015', 'http://www.wikidata.org/entity/Q2380541', 'http://www.wikidata.org/entity/Q107009805', 'http://www.wikidata.org/entity/Q107448239', 'http://www.wikidata.org/entity/Q2650924', 'http://www.wikidata.org/entity/Q107959659', 'http://www.wikidata.org/entity/Q108411518', 'http://www.wikidata.org/entity/Q108981540', 'http://www.wikidata.org/entity/Q2438749', 'http://www.wikidata.org/entity/Q2455910', 'http://www.wikidata.org/entity/Q2463549', 'http://www.wikidata.org/entity/Q2495289', 'http://www.wikidata.org/entity/Q2496469', 'http://www.wikidata.org/entity/Q2515157', 'http://www.wikidata.org/entity/Q2553221', 'http://www.wikidata.org/entity/Q2553539', 'http://www.wikidata.org/entity/Q2843199', 'http://www.wikidata.org/entity/Q111189219', 'http://www.wikidata.org/entity/Q112191180', 'http://www.wikidata.org/entity/Q1498851', 'http://www.wikidata.org/entity/Q623712', 'http://www.wikidata.org/entity/Q114238000', 'http://www.wikidata.org/entity/Q124748346', 'http://www.wikidata.org/entity/Q124748367', 'http://www.wikidata.org/entity/Q3335393', 'http://www.wikidata.org/entity/Q3338642', 'http://www.wikidata.org/entity/Q117313525', 'http://www.wikidata.org/entity/Q117662654', 'http://www.wikidata.org/entity/Q117915952', 'http://www.wikidata.org/entity/Q119151788', 'http://www.wikidata.org/entity/Q119791656', 'http://www.wikidata.org/entity/Q120644855', 'http://www.wikidata.org/entity/Q123262730', 'http://www.wikidata.org/entity/Q123478667', 'http://www.wikidata.org/entity/Q123556184', 'http://www.wikidata.org/entity/Q123615431', 'http://www.wikidata.org/entity/Q124169585', 'http://www.wikidata.org/entity/Q124211337', 'http://www.wikidata.org/entity/Q124212034', 'http://www.wikidata.org/entity/Q118877575', 'http://www.wikidata.org/entity/Q122839989', 'http://www.wikidata.org/entity/Q3843040', 'http://www.wikidata.org/entity/Q3877400', 'http://www.wikidata.org/entity/Q124664650', 'http://www.wikidata.org/entity/Q4034627', 'http://www.wikidata.org/entity/Q127404973', 'http://www.wikidata.org/entity/Q128771729', 'http://www.wikidata.org/entity/Q129170123', 'http://www.wikidata.org/entity/Q129177338', 'http://www.wikidata.org/entity/Q125673872', 'http://www.wikidata.org/entity/Q130313650', 'http://www.wikidata.org/entity/Q4053029', 'http://www.wikidata.org/entity/Q4119712', 'http://www.wikidata.org/entity/Q811994', 'http://www.wikidata.org/entity/Q1114279', 'http://www.wikidata.org/entity/Q1389762', 'http://www.wikidata.org/entity/Q2506090', 'http://www.wikidata.org/entity/Q33216137', 'http://www.wikidata.org/entity/Q152971', 'http://www.wikidata.org/entity/Q1022796', 'http://www.wikidata.org/entity/Q16839030', 'http://www.wikidata.org/entity/Q130899349', 'http://www.wikidata.org/entity/Q35953', 'http://www.wikidata.org/entity/Q131384524', 'http://www.wikidata.org/entity/Q131448938', 'http://www.wikidata.org/entity/Q131554062', 'http://www.wikidata.org/entity/Q131899200', 'http://www.wikidata.org/entity/Q1663015', 'http://www.wikidata.org/entity/Q812463', 'http://www.wikidata.org/entity/Q991368', 'http://www.wikidata.org/entity/Q4688630', 'http://www.wikidata.org/entity/Q796042', 'http://www.wikidata.org/entity/Q796110', 'http://www.wikidata.org/entity/Q2215502', 'http://www.wikidata.org/entity/Q152106', 'http://www.wikidata.org/entity/Q124816078', 'http://www.wikidata.org/entity/Q265102', 'http://www.wikidata.org/entity/Q124371415', 'http://www.wikidata.org/entity/Q811995', 'http://www.wikidata.org/entity/Q1376879', 'http://www.wikidata.org/entity/Q1406219', 'http://www.wikidata.org/entity/Q5121109', 'http://www.wikidata.org/entity/Q5188611', 'http://www.wikidata.org/entity/Q1688487', 'http://www.wikidata.org/entity/Q6699673', 'http://www.wikidata.org/entity/Q126073930', 'http://www.wikidata.org/entity/Q16935325', 'http://www.wikidata.org/entity/Q5450952', 'http://www.wikidata.org/entity/Q63052337', 'http://www.wikidata.org/entity/Q26794383', 'http://www.wikidata.org/entity/Q2121409', 'http://www.wikidata.org/entity/Q5533474', 'http://www.wikidata.org/entity/Q1619708', 'http://www.wikidata.org/entity/Q6383715', 'http://www.wikidata.org/entity/Q18207259', 'http://www.wikidata.org/entity/Q29016942', 'http://www.wikidata.org/entity/Q38376156', 'http://www.wikidata.org/entity/Q56510606', 'http://www.wikidata.org/entity/Q107557280', 'http://www.wikidata.org/entity/Q24312', 'http://www.wikidata.org/entity/Q22569868', 'http://www.wikidata.org/entity/Q7168717', 'http://www.wikidata.org/entity/Q7294298', 'http://www.wikidata.org/entity/Q7685873', 'http://www.wikidata.org/entity/Q108866856', 'http://www.wikidata.org/entity/Q795941', 'http://www.wikidata.org/entity/Q15810049', 'http://www.wikidata.org/entity/Q18018529', 'http://www.wikidata.org/entity/Q7855893', 'http://www.wikidata.org/entity/Q7906738', 'http://www.wikidata.org/entity/Q60522637', 'http://www.wikidata.org/entity/Q8073204', 'http://www.wikidata.org/entity/Q10546926', 'http://www.wikidata.org/entity/Q13799874', 'http://www.wikidata.org/entity/Q14644751', 'http://www.wikidata.org/entity/Q15106811', 'http://www.wikidata.org/entity/Q15618434', 'http://www.wikidata.org/entity/Q15815754', 'http://www.wikidata.org/entity/Q15820073', 'http://www.wikidata.org/entity/Q15835403', 'http://www.wikidata.org/entity/Q15842301', 'http://www.wikidata.org/entity/Q15849323', 'http://www.wikidata.org/entity/Q15853849', 'http://www.wikidata.org/entity/Q15857244', 'http://www.wikidata.org/entity/Q16283636', 'http://www.wikidata.org/entity/Q16974244', 'http://www.wikidata.org/entity/Q17127968', 'http://www.wikidata.org/entity/Q17310477', 'http://www.wikidata.org/entity/Q17320113', 'http://www.wikidata.org/entity/Q17511644', 'http://www.wikidata.org/entity/Q17591710', 'http://www.wikidata.org/entity/Q18028319', 'http://www.wikidata.org/entity/Q18029778', 'http://www.wikidata.org/entity/Q18287629', 'http://www.wikidata.org/entity/Q18288800', 'http://www.wikidata.org/entity/Q18814916', 'http://www.wikidata.org/entity/Q19275161', 'http://www.wikidata.org/entity/Q18563009', 'http://www.wikidata.org/entity/Q20180341', 'http://www.wikidata.org/entity/Q20180375', 'http://www.wikidata.org/entity/Q19834029', 'http://www.wikidata.org/entity/Q21036327', 'http://www.wikidata.org/entity/Q21036421', 'http://www.wikidata.org/entity/Q21036550', 'http://www.wikidata.org/entity/Q20825775', 'http://www.wikidata.org/entity/Q20828661', 'http://www.wikidata.org/entity/Q21451563', 'http://www.wikidata.org/entity/Q21472027', 'http://www.wikidata.org/entity/Q22101778', 'http://www.wikidata.org/entity/Q23464981', 'http://www.wikidata.org/entity/Q22312893', 'http://www.wikidata.org/entity/Q22674659', 'http://www.wikidata.org/entity/Q28147234', 'http://www.wikidata.org/entity/Q28228091', 'http://www.wikidata.org/entity/Q28325457', 'http://www.wikidata.org/entity/Q27500597', 'http://www.wikidata.org/entity/Q27881528', 'http://www.wikidata.org/entity/Q28833347', 'http://www.wikidata.org/entity/Q28500258', 'http://www.wikidata.org/entity/Q28973135', 'http://www.wikidata.org/entity/Q28973132', 'http://www.wikidata.org/entity/Q28999554', 'http://www.wikidata.org/entity/Q29000319', 'http://www.wikidata.org/entity/Q30254673', 'http://www.wikidata.org/entity/Q30254836', 'http://www.wikidata.org/entity/Q29123068', 'http://www.wikidata.org/entity/Q29123629', 'http://www.wikidata.org/entity/Q30255193', 'http://www.wikidata.org/entity/Q30255424', 'http://www.wikidata.org/entity/Q30256225', 'http://www.wikidata.org/entity/Q30256413', 'http://www.wikidata.org/entity/Q30256431', 'http://www.wikidata.org/entity/Q30265931', 'http://www.wikidata.org/entity/Q30252819', 'http://www.wikidata.org/entity/Q30267300', 'http://www.wikidata.org/entity/Q30267308', 'http://www.wikidata.org/entity/Q30268722', 'http://www.wikidata.org/entity/Q30268970', 'http://www.wikidata.org/entity/Q30269020', 'http://www.wikidata.org/entity/Q30269025', 'http://www.wikidata.org/entity/Q30269139', 'http://www.wikidata.org/entity/Q30269168', 'http://www.wikidata.org/entity/Q30269206', 'http://www.wikidata.org/entity/Q30269266', 'http://www.wikidata.org/entity/Q30274672', 'http://www.wikidata.org/entity/Q30279555', 'http://www.wikidata.org/entity/Q30284501', 'http://www.wikidata.org/entity/Q30284632', 'http://www.wikidata.org/entity/Q30284782', 'http://www.wikidata.org/entity/Q30285208', 'http://www.wikidata.org/entity/Q30285583', 'http://www.wikidata.org/entity/Q30291745', 'http://www.wikidata.org/entity/Q30291769', 'http://www.wikidata.org/entity/Q30291942', 'http://www.wikidata.org/entity/Q30292607', 'http://www.wikidata.org/entity/Q30294854', 'http://www.wikidata.org/entity/Q30290576', 'http://www.wikidata.org/entity/Q30290790', 'http://www.wikidata.org/entity/Q30290894', 'http://www.wikidata.org/entity/Q30291065', 'http://www.wikidata.org/entity/Q30292123', 'http://www.wikidata.org/entity/Q30292203', 'http://www.wikidata.org/entity/Q30292215', 'http://www.wikidata.org/entity/Q30338465', 'http://www.wikidata.org/entity/Q30338474', 'http://www.wikidata.org/entity/Q30338482', 'http://www.wikidata.org/entity/Q30338687', 'http://www.wikidata.org/entity/Q30338706', 'http://www.wikidata.org/entity/Q30343915', 'http://www.wikidata.org/entity/Q30713231', 'http://www.wikidata.org/entity/Q37068913', 'http://www.wikidata.org/entity/Q33527896', 'http://www.wikidata.org/entity/Q30748373', 'http://www.wikidata.org/entity/Q41568675', 'http://www.wikidata.org/entity/Q42871748', 'http://www.wikidata.org/entity/Q43895171', 'http://www.wikidata.org/entity/Q43896167', 'http://www.wikidata.org/entity/Q43896168', 'http://www.wikidata.org/entity/Q43896253', 'http://www.wikidata.org/entity/Q48966381', 'http://www.wikidata.org/entity/Q50037941', 'http://www.wikidata.org/entity/Q50038310', 'http://www.wikidata.org/entity/Q50038313', 'http://www.wikidata.org/entity/Q50038601', 'http://www.wikidata.org/entity/Q50038743', 'http://www.wikidata.org/entity/Q50038820', 'http://www.wikidata.org/entity/Q51110652', 'http://www.wikidata.org/entity/Q51844715', 'http://www.wikidata.org/entity/Q173339', 'http://www.wikidata.org/entity/Q244017', 'http://www.wikidata.org/entity/Q584985', 'http://www.wikidata.org/entity/Q787867', 'http://www.wikidata.org/entity/Q787872', 'http://www.wikidata.org/entity/Q812395', 'http://www.wikidata.org/entity/Q1036734', 'http://www.wikidata.org/entity/Q54957930', 'http://www.wikidata.org/entity/Q1105275', 'http://www.wikidata.org/entity/Q1122885', 'http://www.wikidata.org/entity/Q1184966', 'http://www.wikidata.org/entity/Q1208778', 'http://www.wikidata.org/entity/Q1283357', 'http://www.wikidata.org/entity/Q1712799', 'http://www.wikidata.org/entity/Q1872736', 'http://www.wikidata.org/entity/Q1914511', 'http://www.wikidata.org/entity/Q1936956', 'http://www.wikidata.org/entity/Q2038026', 'http://www.wikidata.org/entity/Q55000754', 'http://www.wikidata.org/entity/Q16295306', 'http://www.wikidata.org/entity/Q55314518', 'http://www.wikidata.org/entity/Q55439724', 'http://www.wikidata.org/entity/Q55517308', 'http://www.wikidata.org/entity/Q56064242', 'http://www.wikidata.org/entity/Q56650636', 'http://www.wikidata.org/entity/Q57531532', 'http://www.wikidata.org/entity/Q57779499', 'http://www.wikidata.org/entity/Q1054364', 'http://www.wikidata.org/entity/Q1128730', 'http://www.wikidata.org/entity/Q1144435', 'http://www.wikidata.org/entity/Q1151571', 'http://www.wikidata.org/entity/Q109453642', 'http://www.wikidata.org/entity/Q747215', 'http://www.wikidata.org/entity/Q757695', 'http://www.wikidata.org/entity/Q765796', 'http://www.wikidata.org/entity/Q811992', 'http://www.wikidata.org/entity/Q1393030', 'http://www.wikidata.org/entity/Q58808616', 'http://www.wikidata.org/entity/Q59659278'</t>
         </is>
       </c>
     </row>
@@ -1574,7 +1574,7 @@
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>['5570']</t>
+          <t>['5588']</t>
         </is>
       </c>
     </row>
@@ -1596,7 +1596,7 @@
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>['http://www.wikidata.org/entity/Q196701', 'http://www.wikidata.org/entity/Q169589', 'http://www.wikidata.org/entity/Q187366', 'http://www.wikidata.org/entity/Q49493', 'http://www.wikidata.org/entity/Q49500', 'http://www.wikidata.org/entity/Q49507', 'http://www.wikidata.org/entity/Q49511', 'http://www.wikidata.org/entity/Q49513', 'http://www.wikidata.org/entity/Q52051', 'http://www.wikidata.org/entity/Q65067', 'http://www.wikidata.org/entity/Q13987', 'http://www.wikidata.org/entity/Q13991', 'http://www.wikidata.org/entity/Q75322', 'http://www.wikidata.org/entity/Q94714', 'http://www.wikidata.org/entity/Q94734', 'http://www.wikidata.org/entity/Q94736', 'http://www.wikidata.org/entity/Q94762', 'http://www.wikidata.org/entity/Q94781', 'http://www.wikidata.org/entity/Q130120', 'http://www.wikidata.org/entity/Q130535', 'http://www.wikidata.org/entity/Q137962', 'http://www.wikidata.org/entity/Q145371', 'http://www.wikidata.org/entity/Q705002', 'http://www.wikidata.org/entity/Q705012', 'http://www.wikidata.org/entity/Q705018', 'http://www.wikidata.org/entity/Q709253', 'http://www.wikidata.org/entity/Q709813', 'http://www.wikidata.org/entity/Q711507', 'http://www.wikidata.org/entity/Q711584', 'http://www.wikidata.org/entity/Q714339', 'http://www.wikidata.org/entity/Q719187', 'http://www.wikidata.org/entity/Q768768', 'http://www.wikidata.org/entity/Q768916', 'http://www.wikidata.org/entity/Q812578', 'http://www.wikidata.org/entity/Q840599', 'http://www.wikidata.org/entity/Q847285', 'http://www.wikidata.org/entity/Q858061', 'http://www.wikidata.org/entity/Q858292', 'http://www.wikidata.org/entity/Q875301', 'http://www.wikidata.org/entity/Q1344326', 'http://www.wikidata.org/entity/Q1414691', 'http://www.wikidata.org/entity/Q1475428', 'http://www.wikidata.org/entity/Q1532472', 'http://www.wikidata.org/entity/Q904438', 'http://www.wikidata.org/entity/Q908529', 'http://www.wikidata.org/entity/Q908857', 'http://www.wikidata.org/entity/Q909675', 'http://www.wikidata.org/entity/Q922266', 'http://www.wikidata.org/entity/Q942626', 'http://www.wikidata.org/entity/Q954059', 'http://www.wikidata.org/entity/Q954100', 'http://www.wikidata.org/entity/Q987038', 'http://www.wikidata.org/entity/Q997301', 'http://www.wikidata.org/entity/Q998623', 'http://www.wikidata.org/entity/Q1019313', 'http://www.wikidata.org/entity/Q1039445', 'http://www.wikidata.org/entity/Q1047492', 'http://www.wikidata.org/entity/Q1061394', 'http://www.wikidata.org/entity/Q1072125', 'http://www.wikidata.org/entity/Q1083890', 'http://www.wikidata.org/entity/Q1111504', 'http://www.wikidata.org/entity/Q1204188', 'http://www.wikidata.org/entity/Q220701', 'http://www.wikidata.org/entity/Q242176', 'http://www.wikidata.org/entity/Q247515', 'http://www.wikidata.org/entity/Q277035', 'http://www.wikidata.org/entity/Q285468', 'http://www.wikidata.org/entity/Q328533', 'http://www.wikidata.org/entity/Q339004', 'http://www.wikidata.org/entity/Q382082', 'http://www.wikidata.org/entity/Q385313', 'http://www.wikidata.org/entity/Q385710', 'http://www.wikidata.org/entity/Q393031', 'http://www.wikidata.org/entity/Q398636', 'http://www.wikidata.org/entity/Q432124', 'http://www.wikidata.org/entity/Q473472', 'http://www.wikidata.org/entity/Q474560', 'http://www.wikidata.org/entity/Q490610', 'http://www.wikidata.org/entity/Q494914', 'http://www.wikidata.org/entity/Q504373', 'http://www.wikidata.org/entity/Q600614', 'http://www.wikidata.org/entity/Q623490', 'http://www.wikidata.org/entity/Q629058', 'http://www.wikidata.org/entity/Q675101', 'http://www.wikidata.org/entity/Q689643', 'http://www.wikidata.org/entity/Q696228', 'http://www.wikidata.org/entity/Q697278', 'http://www.wikidata.org/entity/Q697600', 'http://www.wikidata.org/entity/Q700331', 'http://www.wikidata.org/entity/Q700885', 'http://www.wikidata.org/entity/Q700908', 'http://www.wikidata.org/entity/Q700942', 'http://www.wikidata.org/entity/Q700946', 'http://www.wikidata.org/entity/Q701089', 'http://www.wikidata.org/entity/Q701847', 'http://www.wikidata.org/entity/Q702410', 'http://www.wikidata.org/entity/Q702436', 'http://www.wikidata.org/entity/Q702603', 'http://www.wikidata.org/entity/Q702615', 'http://www.wikidata.org/entity/Q702613', 'http://www.wikidata.org/entity/Q702660', 'http://www.wikidata.org/entity/Q702676', 'http://www.wikidata.org/entity/Q704726', 'http://www.wikidata.org/entity/Q704765', 'http://www.wikidata.org/entity/Q1676132', 'http://www.wikidata.org/entity/Q1803811', 'http://www.wikidata.org/entity/Q1995509', 'http://www.wikidata.org/entity/Q2018422', 'http://www.wikidata.org/entity/Q2118388', 'http://www.wikidata.org/entity/Q2166413', 'http://www.wikidata.org/entity/Q2407298', 'http://www.wikidata.org/entity/Q3579074', 'http://www.wikidata.org/entity/Q3594049', 'http://www.wikidata.org/entity/Q3623017', 'http://www.wikidata.org/entity/Q3785700', 'http://www.wikidata.org/entity/Q3108859', 'http://www.wikidata.org/entity/Q3199146', 'http://www.wikidata.org/entity/Q3285144', 'http://www.wikidata.org/entity/Q3349795', 'http://www.wikidata.org/entity/Q4419675', 'http://www.wikidata.org/entity/Q4419682', 'http://www.wikidata.org/entity/Q4478859', 'http://www.wikidata.org/entity/Q4497854', 'http://www.wikidata.org/entity/Q4518163', 'http://www.wikidata.org/entity/Q4518364', 'http://www.wikidata.org/entity/Q4518483', 'http://www.wikidata.org/entity/Q4518560', 'http://www.wikidata.org/entity/Q4518632', 'http://www.wikidata.org/entity/Q4518662', 'http://www.wikidata.org/entity/Q4518698', 'http://www.wikidata.org/entity/Q4518728', 'http://www.wikidata.org/entity/Q4518764', 'http://www.wikidata.org/entity/Q4518813', 'http://www.wikidata.org/entity/Q4518835', 'http://www.wikidata.org/entity/Q4518882', 'http://www.wikidata.org/entity/Q4518914', 'http://www.wikidata.org/entity/Q4518946', 'http://www.wikidata.org/entity/Q4519060', 'http://www.wikidata.org/entity/Q4519100', 'http://www.wikidata.org/entity/Q4519127', 'http://www.wikidata.org/entity/Q4519202', 'http://www.wikidata.org/entity/Q4519334', 'http://www.wikidata.org/entity/Q4519416', 'http://www.wikidata.org/entity/Q4519472', 'http://www.wikidata.org/entity/Q4520401', 'http://www.wikidata.org/entity/Q4520501', 'http://www.wikidata.org/entity/Q4520623', 'http://www.wikidata.org/entity/Q4520676', 'http://www.wikidata.org/entity/Q4520740', 'http://www.wikidata.org/entity/Q5004035', 'http://www.wikidata.org/entity/Q5101919', 'http://www.wikidata.org/entity/Q5354192', 'http://www.wikidata.org/entity/Q5354360', 'http://www.wikidata.org/entity/Q5354430', 'http://www.wikidata.org/entity/Q5354453', 'http://www.wikidata.org/entity/Q5354789', 'http://www.wikidata.org/entity/Q5354800', 'http://www.wikidata.org/entity/Q5361563', 'http://www.wikidata.org/entity/Q5366335', 'http://www.wikidata.org/entity/Q5366388', 'http://www.wikidata.org/entity/Q5366609', 'http://www.wikidata.org/entity/Q5366860', 'http://www.wikidata.org/entity/Q5377606', 'http://www.wikidata.org/entity/Q5508550', 'http://www.wikidata.org/entity/Q5817606', 'http://www.wikidata.org/entity/Q6100326', 'http://www.wikidata.org/entity/Q6143668', 'http://www.wikidata.org/entity/Q6201990', 'http://www.wikidata.org/entity/Q6363834', 'http://www.wikidata.org/entity/Q6406056', 'http://www.wikidata.org/entity/Q6413909', 'http://www.wikidata.org/entity/Q6435390', 'http://www.wikidata.org/entity/Q6446243', 'http://www.wikidata.org/entity/Q6446399', 'http://www.wikidata.org/entity/Q11443237', 'http://www.wikidata.org/entity/Q11445536', 'http://www.wikidata.org/entity/Q11446412', 'http://www.wikidata.org/entity/Q11447403', 'http://www.wikidata.org/entity/Q11447404', 'http://www.wikidata.org/entity/Q11449014', 'http://www.wikidata.org/entity/Q11449464', 'http://www.wikidata.org/entity/Q11450585', 'http://www.wikidata.org/entity/Q11454772', 'http://www.wikidata.org/entity/Q11458850', 'http://www.wikidata.org/entity/Q11459344', 'http://www.wikidata.org/entity/Q11459579', 'http://www.wikidata.org/entity/Q11460065', 'http://www.wikidata.org/entity/Q11460438', 'http://www.wikidata.org/entity/Q11464517', 'http://www.wikidata.org/entity/Q11465691', 'http://www.wikidata.org/entity/Q11474307', 'http://www.wikidata.org/entity/Q11474346', 'http://www.wikidata.org/entity/Q11475712', 'http://www.wikidata.org/entity/Q11476827', 'http://www.wikidata.org/entity/Q11476897', 'http://www.wikidata.org/entity/Q11477129', 'http://www.wikidata.org/entity/Q11477305', 'http://www.wikidata.org/entity/Q11477410', 'http://www.wikidata.org/entity/Q11481155', 'http://www.wikidata.org/entity/Q11482668', 'http://www.wikidata.org/entity/Q11482669', 'http://www.wikidata.org/entity/Q11483492', 'http://www.wikidata.org/entity/Q11483589', 'http://www.wikidata.org/entity/Q11483827', 'http://www.wikidata.org/entity/Q11484404', 'http://www.wikidata.org/entity/Q11486132', 'http://www.wikidata.org/entity/Q11486910', 'http://www.wikidata.org/entity/Q11486911', 'http://www.wikidata.org/entity/Q11486908', 'http://www.wikidata.org/entity/Q11486909', 'http://www.wikidata.org/entity/Q11487067', 'http://www.wikidata.org/entity/Q11487395', 'http://www.wikidata.org/entity/Q11488768', 'http://www.wikidata.org/entity/Q11489067', 'http://www.wikidata.org/entity/Q11489240', 'http://www.wikidata.org/entity/Q11489251', 'http://www.wikidata.org/entity/Q11490807', 'http://www.wikidata.org/entity/Q11491460', 'http://www.wikidata.org/entity/Q11491674', 'http://www.wikidata.org/entity/Q11492404', 'http://www.wikidata.org/entity/Q11492410', 'http://www.wikidata.org/entity/Q11492883', 'http://www.wikidata.org/entity/Q11492884', 'http://www.wikidata.org/entity/Q11496323', 'http://www.wikidata.org/entity/Q11496324', 'http://www.wikidata.org/entity/Q11496670', 'http://www.wikidata.org/entity/Q11497087', 'http://www.wikidata.org/entity/Q11497519', 'http://www.wikidata.org/entity/Q11500406', 'http://www.wikidata.org/entity/Q11501924', 'http://www.wikidata.org/entity/Q11502024', 'http://www.wikidata.org/entity/Q11502876', 'http://www.wikidata.org/entity/Q11504920', 'http://www.wikidata.org/entity/Q11505281', 'http://www.wikidata.org/entity/Q11505343', 'http://www.wikidata.org/entity/Q11511249', 'http://www.wikidata.org/entity/Q11516644', 'http://www.wikidata.org/entity/Q11520216', 'http://www.wikidata.org/entity/Q11530091', 'http://www.wikidata.org/entity/Q11530093', 'http://www.wikidata.org/entity/Q11532746', 'http://www.wikidata.org/entity/Q11533729', 'http://www.wikidata.org/entity/Q11542683', 'http://www.wikidata.org/entity/Q11542685', 'http://www.wikidata.org/entity/Q11543672', 'http://www.wikidata.org/entity/Q11544654', 'http://www.wikidata.org/entity/Q11544655', 'http://www.wikidata.org/entity/Q11545996', 'http://www.wikidata.org/entity/Q11547731', 'http://www.wikidata.org/entity/Q11548193', 'http://www.wikidata.org/entity/Q11548462', 'http://www.wikidata.org/entity/Q11550173', 'http://www.wikidata.org/entity/Q11550842', 'http://www.wikidata.org/entity/Q11550845', 'http://www.wikidata.org/entity/Q11551591', 'http://www.wikidata.org/entity/Q11552439', 'http://www.wikidata.org/entity/Q11552466', 'http://www.wikidata.org/entity/Q11552477', 'http://www.wikidata.org/entity/Q11552498', 'http://www.wikidata.org/entity/Q11552502', 'http://www.wikidata.org/entity/Q11552549', 'http://www.wikidata.org/entity/Q11553027', 'http://www.wikidata.org/entity/Q11555929', 'http://www.wikidata.org/entity/Q11555966', 'http://www.wikidata.org/entity/Q11556058', 'http://www.wikidata.org/entity/Q11556221', 'http://www.wikidata.org/entity/Q11558503', 'http://www.wikidata.org/entity/Q11558501', 'http://www.wikidata.org/entity/Q11558824', 'http://www.wikidata.org/entity/Q11559068', 'http://www.wikidata.org/entity/Q11559418', 'http://www.wikidata.org/entity/Q11559763', 'http://www.wikidata.org/entity/Q11559986', 'http://www.wikidata.org/entity/Q11562837', 'http://www.wikidata.org/entity/Q6849883', 'http://www.wikidata.org/entity/Q7081764', 'http://www.wikidata.org/entity/Q7082047', 'http://www.wikidata.org/entity/Q11563518', 'http://www.wikidata.org/entity/Q11567224', 'http://www.wikidata.org/entity/Q11567245', 'http://www.wikidata.org/entity/Q11567267', 'http://www.wikidata.org/entity/Q11572200', 'http://www.wikidata.org/entity/Q11572311', 'http://www.wikidata.org/entity/Q11573306', 'http://www.wikidata.org/entity/Q11573823', 'http://www.wikidata.org/entity/Q11574179', 'http://www.wikidata.org/entity/Q11574434', 'http://www.wikidata.org/entity/Q11574442', 'http://www.wikidata.org/entity/Q11574503', 'http://www.wikidata.org/entity/Q11574566', 'http://www.wikidata.org/entity/Q11574873', 'http://www.wikidata.org/entity/Q11576597', 'http://www.wikidata.org/entity/Q11577548', 'http://www.wikidata.org/entity/Q11577742', 'http://www.wikidata.org/entity/Q11578144', 'http://www.wikidata.org/entity/Q11578192', 'http://www.wikidata.org/entity/Q11578542', 'http://www.wikidata.org/entity/Q11579570', 'http://www.wikidata.org/entity/Q11580729', 'http://www.wikidata.org/entity/Q11580862', 'http://www.wikidata.org/entity/Q11580911', 'http://www.wikidata.org/entity/Q11581974', 'http://www.wikidata.org/entity/Q11581975', 'http://www.wikidata.org/entity/Q11583780', 'http://www.wikidata.org/entity/Q11583965', 'http://www.wikidata.org/entity/Q11588028', 'http://www.wikidata.org/entity/Q11588453', 'http://www.wikidata.org/entity/Q11589438', 'http://www.wikidata.org/entity/Q11589594', 'http://www.wikidata.org/entity/Q11591024', 'http://www.wikidata.org/entity/Q11592984', 'http://www.wikidata.org/entity/Q11596394', 'http://www.wikidata.org/entity/Q11598512', 'http://www.wikidata.org/entity/Q11598646', 'http://www.wikidata.org/entity/Q11598647', 'http://www.wikidata.org/entity/Q11599897', 'http://www.wikidata.org/entity/Q11602695', 'http://www.wikidata.org/entity/Q11603507', 'http://www.wikidata.org/entity/Q11603714', 'http://www.wikidata.org/entity/Q11604580', 'http://www.wikidata.org/entity/Q11604657', 'http://www.wikidata.org/entity/Q11605347', 'http://www.wikidata.org/entity/Q11607173', 'http://www.wikidata.org/entity/Q11610036', 'http://www.wikidata.org/entity/Q11612025', 'http://www.wikidata.org/entity/Q11613384', 'http://www.wikidata.org/entity/Q11616271', 'http://www.wikidata.org/entity/Q11622569', 'http://www.wikidata.org/entity/Q11625567', 'http://www.wikidata.org/entity/Q11626891', 'http://www.wikidata.org/entity/Q11630243', 'http://www.wikidata.org/entity/Q11631382', 'http://www.wikidata.org/entity/Q11633491', 'http://www.wikidata.org/entity/Q11633492', 'http://www.wikidata.org/entity/Q11634353', 'http://www.wikidata.org/entity/Q11635889', 'http://www.wikidata.org/entity/Q11636071', 'http://www.wikidata.org/entity/Q11636883', 'http://www.wikidata.org/entity/Q11645346', 'http://www.wikidata.org/entity/Q11645453', 'http://www.wikidata.org/entity/Q11647939', 'http://www.wikidata.org/entity/Q11648162', 'http://www.wikidata.org/entity/Q11648224', 'http://www.wikidata.org/entity/Q11650283', 'http://www.wikidata.org/entity/Q11650626', 'http://www.wikidata.org/entity/Q11652193', 'http://www.wikidata.org/entity/Q11652198', 'http://www.wikidata.org/entity/Q11652207', 'http://www.wikidata.org/entity/Q11652204', 'http://www.wikidata.org/entity/Q11655424', 'http://www.wikidata.org/entity/Q11657147', 'http://www.wikidata.org/entity/Q11657359', 'http://www.wikidata.org/entity/Q11659209', 'http://www.wikidata.org/entity/Q11661370', 'http://www.wikidata.org/entity/Q11661371', 'http://www.wikidata.org/entity/Q11661369', 'http://www.wikidata.org/entity/Q11661373', 'http://www.wikidata.org/entity/Q11662600', 'http://www.wikidata.org/entity/Q11664922', 'http://www.wikidata.org/entity/Q11664932', 'http://www.wikidata.org/entity/Q11665527', 'http://www.wikidata.org/entity/Q11665758', 'http://www.wikidata.org/entity/Q11665759', 'http://www.wikidata.org/entity/Q11667955', 'http://www.wikidata.org/entity/Q11667995', 'http://www.wikidata.org/entity/Q11668024', 'http://www.wikidata.org/entity/Q11668037', 'http://www.wikidata.org/entity/Q11668718', 'http://www.wikidata.org/entity/Q11669590', 'http://www.wikidata.org/entity/Q11669595', 'http://www.wikidata.org/entity/Q11669598', 'http://www.wikidata.org/entity/Q11669599', 'http://www.wikidata.org/entity/Q11669597', 'http://www.wikidata.org/entity/Q11669603', 'http://www.wikidata.org/entity/Q11669605', 'http://www.wikidata.org/entity/Q11670635', 'http://www.wikidata.org/entity/Q11673959', 'http://www.wikidata.org/entity/Q7370377', 'http://www.wikidata.org/entity/Q7497005', 'http://www.wikidata.org/entity/Q7498240', 'http://www.wikidata.org/entity/Q7705474', 'http://www.wikidata.org/entity/Q7850236', 'http://www.wikidata.org/entity/Q7850254', 'http://www.wikidata.org/entity/Q7862729', 'http://www.wikidata.org/entity/Q8081823', 'http://www.wikidata.org/entity/Q8193619', 'http://www.wikidata.org/entity/Q11674270', 'http://www.wikidata.org/entity/Q11675635', 'http://www.wikidata.org/entity/Q11675694', 'http://www.wikidata.org/entity/Q11675705', 'http://www.wikidata.org/entity/Q11675721', 'http://www.wikidata.org/entity/Q11675825', 'http://www.wikidata.org/entity/Q11676467', 'http://www.wikidata.org/entity/Q11677072', 'http://www.wikidata.org/entity/Q11678083', 'http://www.wikidata.org/entity/Q11678146', 'http://www.wikidata.org/entity/Q11678147', 'http://www.wikidata.org/entity/Q11678144', 'http://www.wikidata.org/entity/Q11678145', 'http://www.wikidata.org/entity/Q11678919', 'http://www.wikidata.org/entity/Q12122598', 'http://www.wikidata.org/entity/Q12168088', 'http://www.wikidata.org/entity/Q9009569', 'http://www.wikidata.org/entity/Q9009597', 'http://www.wikidata.org/entity/Q9009869', 'http://www.wikidata.org/entity/Q10449219', 'http://www.wikidata.org/entity/Q10855760', 'http://www.wikidata.org/entity/Q10855761', 'http://www.wikidata.org/entity/Q10856210', 'http://www.wikidata.org/entity/Q10859834', 'http://www.wikidata.org/entity/Q10860535', 'http://www.wikidata.org/entity/Q10889854', 'http://www.wikidata.org/entity/Q10938711', 'http://www.wikidata.org/entity/Q10943140', 'http://www.wikidata.org/entity/Q11234719', 'http://www.wikidata.org/entity/Q11241368', 'http://www.wikidata.org/entity/Q11261668', 'http://www.wikidata.org/entity/Q11276631', 'http://www.wikidata.org/entity/Q11285385', 'http://www.wikidata.org/entity/Q11286923', 'http://www.wikidata.org/entity/Q11353972', 'http://www.wikidata.org/entity/Q11354008', 'http://www.wikidata.org/entity/Q11356195', 'http://www.wikidata.org/entity/Q11357220', 'http://www.wikidata.org/entity/Q11358913', 'http://www.wikidata.org/entity/Q11360086', 'http://www.wikidata.org/entity/Q11360847', 'http://www.wikidata.org/entity/Q11361905', 'http://www.wikidata.org/entity/Q11362799', 'http://www.wikidata.org/entity/Q11362796', 'http://www.wikidata.org/entity/Q11362797', 'http://www.wikidata.org/entity/Q11369263', 'http://www.wikidata.org/entity/Q11369927', 'http://www.wikidata.org/entity/Q11370029', 'http://www.wikidata.org/entity/Q11370104', 'http://www.wikidata.org/entity/Q11371742', 'http://www.wikidata.org/entity/Q11373491', 'http://www.wikidata.org/entity/Q11376329', 'http://www.wikidata.org/entity/Q11377524', 'http://www.wikidata.org/entity/Q11378204', 'http://www.wikidata.org/entity/Q11379228', 'http://www.wikidata.org/entity/Q11379335', 'http://www.wikidata.org/entity/Q11382608', 'http://www.wikidata.org/entity/Q11383201', 'http://www.wikidata.org/entity/Q11383217', 'http://www.wikidata.org/entity/Q11385812', 'http://www.wikidata.org/entity/Q11386818', 'http://www.wikidata.org/entity/Q11390867', 'http://www.wikidata.org/entity/Q11390868', 'http://www.wikidata.org/entity/Q11392330', 'http://www.wikidata.org/entity/Q11394726', 'http://www.wikidata.org/entity/Q11395612', 'http://www.wikidata.org/entity/Q11395786', 'http://www.wikidata.org/entity/Q11397118', 'http://www.wikidata.org/entity/Q11398556', 'http://www.wikidata.org/entity/Q11399769', 'http://www.wikidata.org/entity/Q11401908', 'http://www.wikidata.org/entity/Q11402215', 'http://www.wikidata.org/entity/Q11402223', 'http://www.wikidata.org/entity/Q11407776', 'http://www.wikidata.org/entity/Q11409587', 'http://www.wikidata.org/entity/Q11410659', 'http://www.wikidata.org/entity/Q11415951', 'http://www.wikidata.org/entity/Q11415949', 'http://www.wikidata.org/entity/Q11415952', 'http://www.wikidata.org/entity/Q11415953', 'http://www.wikidata.org/entity/Q11416626', 'http://www.wikidata.org/entity/Q11418533', 'http://www.wikidata.org/entity/Q11419386', 'http://www.wikidata.org/entity/Q11419637', 'http://www.wikidata.org/entity/Q11420237', 'http://www.wikidata.org/entity/Q11424450', 'http://www.wikidata.org/entity/Q11424752', 'http://www.wikidata.org/entity/Q11425641', 'http://www.wikidata.org/entity/Q11430798', 'http://www.wikidata.org/entity/Q11431830', 'http://www.wikidata.org/entity/Q11432478', 'http://www.wikidata.org/entity/Q11434172', 'http://www.wikidata.org/entity/Q11434806', 'http://www.wikidata.org/entity/Q11434807', 'http://www.wikidata.org/entity/Q11434804', 'http://www.wikidata.org/entity/Q11434805', 'http://www.wikidata.org/entity/Q11434809', 'http://www.wikidata.org/entity/Q11434815', 'http://www.wikidata.org/entity/Q11434813', 'http://www.wikidata.org/entity/Q11434819', 'http://www.wikidata.org/entity/Q11434816', 'http://www.wikidata.org/entity/Q11435006', 'http://www.wikidata.org/entity/Q11435005', 'http://www.wikidata.org/entity/Q11436454', 'http://www.wikidata.org/entity/Q11436765', 'http://www.wikidata.org/entity/Q11437275', 'http://www.wikidata.org/entity/Q11438136', 'http://www.wikidata.org/entity/Q11438379', 'http://www.wikidata.org/entity/Q11439590', 'http://www.wikidata.org/entity/Q11442082', 'http://www.wikidata.org/entity/Q15914611', 'http://www.wikidata.org/entity/Q15914636', 'http://www.wikidata.org/entity/Q15914793', 'http://www.wikidata.org/entity/Q15914839', 'http://www.wikidata.org/entity/Q15914850', 'http://www.wikidata.org/entity/Q15914965', 'http://www.wikidata.org/entity/Q15915038', 'http://www.wikidata.org/entity/Q15915094', 'http://www.wikidata.org/entity/Q15915371', 'http://www.wikidata.org/entity/Q15915516', 'http://www.wikidata.org/entity/Q15915542', 'http://www.wikidata.org/entity/Q15915739', 'http://www.wikidata.org/entity/Q15915768', 'http://www.wikidata.org/entity/Q15915877', 'http://www.wikidata.org/entity/Q15915985', 'http://www.wikidata.org/entity/Q15916001', 'http://www.wikidata.org/entity/Q15916180', 'http://www.wikidata.org/entity/Q15916186', 'http://www.wikidata.org/entity/Q15916187', 'http://www.wikidata.org/entity/Q15916216', 'http://www.wikidata.org/entity/Q15916254', 'http://www.wikidata.org/entity/Q15916253', 'http://www.wikidata.org/entity/Q15916285', 'http://www.wikidata.org/entity/Q15916298', 'http://www.wikidata.org/entity/Q15916297', 'http://www.wikidata.org/entity/Q15916370', 'http://www.wikidata.org/entity/Q15916369', 'http://www.wikidata.org/entity/Q15916387', 'http://www.wikidata.org/entity/Q15916410', 'http://www.wikidata.org/entity/Q15916434', 'http://www.wikidata.org/entity/Q15916435', 'http://www.wikidata.org/entity/Q15916438', 'http://www.wikidata.org/entity/Q15916437', 'http://www.wikidata.org/entity/Q15916508', 'http://www.wikidata.org/entity/Q15923957', 'http://www.wikidata.org/entity/Q15924538', 'http://www.wikidata.org/entity/Q15925138', 'http://www.wikidata.org/entity/Q15925270', 'http://www.wikidata.org/entity/Q17021654', 'http://www.wikidata.org/entity/Q17023687', 'http://www.wikidata.org/entity/Q17031459', 'http://www.wikidata.org/entity/Q17039990', 'http://www.wikidata.org/entity/Q17191315', 'http://www.wikidata.org/entity/Q17191378', 'http://www.wikidata.org/entity/Q17192049', 'http://www.wikidata.org/entity/Q17192826', 'http://www.wikidata.org/entity/Q17193690', 'http://www.wikidata.org/entity/Q17210135', 'http://www.wikidata.org/entity/Q17210185', 'http://www.wikidata.org/entity/Q17211889', 'http://www.wikidata.org/entity/Q17214084', 'http://www.wikidata.org/entity/Q17215469', 'http://www.wikidata.org/entity/Q17216064', 'http://www.wikidata.org/entity/Q17216375', 'http://www.wikidata.org/entity/Q17217423', 'http://www.wikidata.org/entity/Q17219919', 'http://www.wikidata.org/entity/Q17221048', 'http://www.wikidata.org/entity/Q17222656', 'http://www.wikidata.org/entity/Q17223389', 'http://www.wikidata.org/entity/Q17225029', 'http://www.wikidata.org/entity/Q17989148', 'http://www.wikidata.org/entity/Q17989626', 'http://www.wikidata.org/entity/Q17992764', 'http://www.wikidata.org/entity/Q17993734', 'http://www.wikidata.org/entity/Q17995776', 'http://www.wikidata.org/entity/Q18003098', 'http://www.wikidata.org/entity/Q18009413', 'http://www.wikidata.org/entity/Q18010599', 'http://www.wikidata.org/entity/Q14948406', 'http://www.wikidata.org/entity/Q14948405', 'http://www.wikidata.org/entity/Q15231937', 'http://www.wikidata.org/entity/Q15233224', 'http://www.wikidata.org/entity/Q18335728', 'http://www.wikidata.org/entity/Q18336591', 'http://www.wikidata.org/entity/Q18336657', 'http://www.wikidata.org/entity/Q18338827', 'http://www.wikidata.org/entity/Q18338974', 'http://www.wikidata.org/entity/Q18339013', 'http://www.wikidata.org/entity/Q18339157', 'http://www.wikidata.org/entity/Q18339362', 'http://www.wikidata.org/entity/Q18339537', 'http://www.wikidata.org/entity/Q18339548', 'http://www.wikidata.org/entity/Q18700735', 'http://www.wikidata.org/entity/Q19926707', 'http://www.wikidata.org/entity/Q19927579', 'http://www.wikidata.org/entity/Q19927913', 'http://www.wikidata.org/entity/Q19928028', 'http://www.wikidata.org/entity/Q19969455', 'http://www.wikidata.org/entity/Q19969459', 'http://www.wikidata.org/entity/Q19969456', 'http://www.wikidata.org/entity/Q19969457', 'http://www.wikidata.org/entity/Q19969462', 'http://www.wikidata.org/entity/Q19969463', 'http://www.wikidata.org/entity/Q19969461', 'http://www.wikidata.org/entity/Q20043639', 'http://www.wikidata.org/entity/Q20160219', 'http://www.wikidata.org/entity/Q20207875', 'http://www.wikidata.org/entity/Q20208336', 'http://www.wikidata.org/entity/Q20208605', 'http://www.wikidata.org/entity/Q20220282', 'http://www.wikidata.org/entity/Q20220291', 'http://www.wikidata.org/entity/Q20249559', 'http://www.wikidata.org/entity/Q20251315', 'http://www.wikidata.org/entity/Q20267482', 'http://www.wikidata.org/entity/Q20441459', 'http://www.wikidata.org/entity/Q20441495', 'http://www.wikidata.org/entity/Q20441538', 'http://www.wikidata.org/entity/Q20441672', 'http://www.wikidata.org/entity/Q20441835', 'http://www.wikidata.org/entity/Q20442833', 'http://www.wikidata.org/entity/Q20442886', 'http://www.wikidata.org/entity/Q20454159', 'http://www.wikidata.org/entity/Q20652984', 'http://www.wikidata.org/entity/Q20653009', 'http://www.wikidata.org/entity/Q20653020', 'http://www.wikidata.org/entity/Q20653048', 'http://www.wikidata.org/entity/Q20653083', 'http://www.wikidata.org/entity/Q20653128', 'http://www.wikidata.org/entity/Q20655767', 'http://www.wikidata.org/entity/Q20655779', 'http://www.wikidata.org/entity/Q20655824', 'http://www.wikidata.org/entity/Q20655829', 'http://www.wikidata.org/entity/Q20655854', 'http://www.wikidata.org/entity/Q20655861', 'http://www.wikidata.org/entity/Q20656218', 'http://www.wikidata.org/entity/Q20662194', 'http://www.wikidata.org/entity/Q20662421', 'http://www.wikidata.org/entity/Q20665543', 'http://www.wikidata.org/entity/Q20669152', 'http://www.wikidata.org/entity/Q20669173', 'http://www.wikidata.org/entity/Q20669188', 'http://www.wikidata.org/entity/Q20669201', 'http://www.wikidata.org/entity/Q20669474', 'http://www.wikidata.org/entity/Q20670486', 'http://www.wikidata.org/entity/Q20670485', 'http://www.wikidata.org/entity/Q20670490', 'http://www.wikidata.org/entity/Q20670489', 'http://www.wikidata.org/entity/Q20670802', 'http://www.wikidata.org/entity/Q20670818', 'http://www.wikidata.org/entity/Q20670842', 'http://www.wikidata.org/entity/Q20680346', 'http://www.wikidata.org/entity/Q20681784', 'http://www.wikidata.org/entity/Q20681836', 'http://www.wikidata.org/entity/Q20687296', 'http://www.wikidata.org/entity/Q20706572', 'http://www.wikidata.org/entity/Q20706579', 'http://www.wikidata.org/entity/Q20706699', 'http://www.wikidata.org/entity/Q20709285', 'http://www.wikidata.org/entity/Q21652956', 'http://www.wikidata.org/entity/Q21652975', 'http://www.wikidata.org/entity/Q21653337', 'http://www.wikidata.org/entity/Q21653909', 'http://www.wikidata.org/entity/Q21654565', 'http://www.wikidata.org/entity/Q23069893', 'http://www.wikidata.org/entity/Q24488445', 'http://www.wikidata.org/entity/Q24871573', 'http://www.wikidata.org/entity/Q24872138', 'http://www.wikidata.org/entity/Q24875184', 'http://www.wikidata.org/entity/Q24898648', 'http://www.wikidata.org/entity/Q24902485', 'http://www.wikidata.org/entity/Q27560716', 'http://www.wikidata.org/entity/Q28155659', 'http://www.wikidata.org/entity/Q28682242', 'http://www.wikidata.org/entity/Q28682892', 'http://www.wikidata.org/entity/Q28682901', 'http://www.wikidata.org/entity/Q28683300', 'http://www.wikidata.org/entity/Q28684991', 'http://www.wikidata.org/entity/Q28684995', 'http://www.wikidata.org/entity/Q28687509', 'http://www.wikidata.org/entity/Q28687512', 'http://www.wikidata.org/entity/Q28687518', 'http://www.wikidata.org/entity/Q28687517', 'http://www.wikidata.org/entity/Q28687526', 'http://www.wikidata.org/entity/Q28687528', 'http://www.wikidata.org/entity/Q28687551', 'http://www.wikidata.org/entity/Q28687549', 'http://www.wikidata.org/entity/Q28687556', 'http://www.wikidata.org/entity/Q28687561', 'http://www.wikidata.org/entity/Q28687591', 'http://www.wikidata.org/entity/Q28693411', 'http://www.wikidata.org/entity/Q29980548', 'http://www.wikidata.org/entity/Q30925772', 'http://www.wikidata.org/entity/Q30925773', 'http://www.wikidata.org/entity/Q30931692', 'http://www.wikidata.org/entity/Q30931979', 'http://www.wikidata.org/entity/Q34783955', 'http://www.wikidata.org/entity/Q34783964', 'http://www.wikidata.org/entity/Q34783974', 'http://www.wikidata.org/entity/Q34784035', 'http://www.wikidata.org/entity/Q34784045', 'http://www.wikidata.org/entity/Q34784074', 'http://www.wikidata.org/entity/Q34784082', 'http://www.wikidata.org/entity/Q34784090', 'http://www.wikidata.org/entity/Q34784099', 'http://www.wikidata.org/entity/Q34784108', 'http://www.wikidata.org/entity/Q34784117', 'http://www.wikidata.org/entity/Q34784145', 'http://www.wikidata.org/entity/Q34784154', 'http://www.wikidata.org/entity/Q34784163', 'http://www.wikidata.org/entity/Q34784172', 'http://www.wikidata.org/entity/Q34784180', 'http://www.wikidata.org/entity/Q34784236', 'http://www.wikidata.org/entity/Q34784245', 'http://www.wikidata.org/entity/Q34784264', 'http://www.wikidata.org/entity/Q34784309', 'http://www.wikidata.org/entity/Q34784328', 'http://www.wikidata.org/entity/Q34784514', 'http://www.wikidata.org/entity/Q34785535', 'http://www.wikidata.org/entity/Q34785547', 'http://www.wikidata.org/entity/Q34787923', 'http://www.wikidata.org/entity/Q34787927', 'http://www.wikidata.org/entity/Q34787936', 'http://www.wikidata.org/entity/Q34787940', 'http://www.wikidata.org/entity/Q34787945', 'http://www.wikidata.org/entity/Q34787948', 'http://www.wikidata.org/entity/Q34787955', 'http://www.wikidata.org/entity/Q34787960', 'http://www.wikidata.org/entity/Q34787964', 'http://www.wikidata.org/entity/Q34787968', 'http://www.wikidata.org/entity/Q34787980', 'http://www.wikidata.org/entity/Q34787985', 'http://www.wikidata.org/entity/Q34788048', 'http://www.wikidata.org/entity/Q34788086', 'http://www.wikidata.org/entity/Q34788091', 'http://www.wikidata.org/entity/Q34788095', 'http://www.wikidata.org/entity/Q34788578', 'http://www.wikidata.org/entity/Q34788581', 'http://www.wikidata.org/entity/Q34788617', 'http://www.wikidata.org/entity/Q34788621', 'http://www.wikidata.org/entity/Q34788699', 'http://www.wikidata.org/entity/Q34795633', 'http://www.wikidata.org/entity/Q34795652', 'http://www.wikidata.org/entity/Q34795659', 'http://www.wikidata.org/entity/Q34795671', 'http://www.wikidata.org/entity/Q34795678', 'http://www.wikidata.org/entity/Q34795686', 'http://www.wikidata.org/entity/Q34795693', 'http://www.wikidata.org/entity/Q34795722', 'http://www.wikidata.org/entity/Q34795734', 'http://www.wikidata.org/entity/Q34795744', 'http://www.wikidata.org/entity/Q34795753', 'http://www.wikidata.org/entity/Q34795770', 'http://www.wikidata.org/entity/Q34795778', 'http://www.wikidata.org/entity/Q34795788', 'http://www.wikidata.org/entity/Q34795804', 'http://www.wikidata.org/entity/Q34795808', 'http://www.wikidata.org/entity/Q34795832', 'http://www.wikidata.org/entity/Q34795844', 'http://www.wikidata.org/entity/Q34795856', 'http://www.wikidata.org/entity/Q34795867', 'http://www.wikidata.org/entity/Q34795874', 'http://www.wikidata.org/entity/Q34795887', 'http://www.wikidata.org/entity/Q34795901', 'http://www.wikidata.org/entity/Q34795907', 'http://www.wikidata.org/entity/Q34795913', 'http://www.wikida</t>
+          <t>['http://www.wikidata.org/entity/Q196701', 'http://www.wikidata.org/entity/Q13987', 'http://www.wikidata.org/entity/Q13991', 'http://www.wikidata.org/entity/Q169589', 'http://www.wikidata.org/entity/Q187366', 'http://www.wikidata.org/entity/Q49493', 'http://www.wikidata.org/entity/Q49500', 'http://www.wikidata.org/entity/Q49507', 'http://www.wikidata.org/entity/Q49511', 'http://www.wikidata.org/entity/Q49513', 'http://www.wikidata.org/entity/Q52051', 'http://www.wikidata.org/entity/Q65067', 'http://www.wikidata.org/entity/Q75322', 'http://www.wikidata.org/entity/Q94714', 'http://www.wikidata.org/entity/Q94734', 'http://www.wikidata.org/entity/Q94736', 'http://www.wikidata.org/entity/Q94762', 'http://www.wikidata.org/entity/Q94781', 'http://www.wikidata.org/entity/Q130120', 'http://www.wikidata.org/entity/Q130535', 'http://www.wikidata.org/entity/Q137962', 'http://www.wikidata.org/entity/Q145371', 'http://www.wikidata.org/entity/Q904438', 'http://www.wikidata.org/entity/Q908529', 'http://www.wikidata.org/entity/Q908857', 'http://www.wikidata.org/entity/Q909675', 'http://www.wikidata.org/entity/Q922266', 'http://www.wikidata.org/entity/Q942626', 'http://www.wikidata.org/entity/Q954059', 'http://www.wikidata.org/entity/Q954100', 'http://www.wikidata.org/entity/Q704726', 'http://www.wikidata.org/entity/Q704765', 'http://www.wikidata.org/entity/Q705002', 'http://www.wikidata.org/entity/Q705012', 'http://www.wikidata.org/entity/Q705018', 'http://www.wikidata.org/entity/Q709253', 'http://www.wikidata.org/entity/Q709813', 'http://www.wikidata.org/entity/Q711507', 'http://www.wikidata.org/entity/Q711584', 'http://www.wikidata.org/entity/Q714339', 'http://www.wikidata.org/entity/Q719187', 'http://www.wikidata.org/entity/Q768768', 'http://www.wikidata.org/entity/Q768916', 'http://www.wikidata.org/entity/Q812578', 'http://www.wikidata.org/entity/Q840599', 'http://www.wikidata.org/entity/Q847285', 'http://www.wikidata.org/entity/Q858061', 'http://www.wikidata.org/entity/Q858292', 'http://www.wikidata.org/entity/Q875301', 'http://www.wikidata.org/entity/Q1204188', 'http://www.wikidata.org/entity/Q1344326', 'http://www.wikidata.org/entity/Q987038', 'http://www.wikidata.org/entity/Q997301', 'http://www.wikidata.org/entity/Q998623', 'http://www.wikidata.org/entity/Q1019313', 'http://www.wikidata.org/entity/Q1039445', 'http://www.wikidata.org/entity/Q1047492', 'http://www.wikidata.org/entity/Q1061394', 'http://www.wikidata.org/entity/Q1072125', 'http://www.wikidata.org/entity/Q1083890', 'http://www.wikidata.org/entity/Q1111504', 'http://www.wikidata.org/entity/Q220701', 'http://www.wikidata.org/entity/Q242176', 'http://www.wikidata.org/entity/Q247515', 'http://www.wikidata.org/entity/Q277035', 'http://www.wikidata.org/entity/Q285468', 'http://www.wikidata.org/entity/Q328533', 'http://www.wikidata.org/entity/Q339004', 'http://www.wikidata.org/entity/Q382082', 'http://www.wikidata.org/entity/Q385313', 'http://www.wikidata.org/entity/Q385710', 'http://www.wikidata.org/entity/Q393031', 'http://www.wikidata.org/entity/Q398636', 'http://www.wikidata.org/entity/Q432124', 'http://www.wikidata.org/entity/Q473472', 'http://www.wikidata.org/entity/Q474560', 'http://www.wikidata.org/entity/Q490610', 'http://www.wikidata.org/entity/Q494914', 'http://www.wikidata.org/entity/Q504373', 'http://www.wikidata.org/entity/Q600614', 'http://www.wikidata.org/entity/Q623490', 'http://www.wikidata.org/entity/Q629058', 'http://www.wikidata.org/entity/Q675101', 'http://www.wikidata.org/entity/Q689643', 'http://www.wikidata.org/entity/Q696228', 'http://www.wikidata.org/entity/Q697278', 'http://www.wikidata.org/entity/Q697600', 'http://www.wikidata.org/entity/Q700331', 'http://www.wikidata.org/entity/Q700885', 'http://www.wikidata.org/entity/Q700908', 'http://www.wikidata.org/entity/Q700942', 'http://www.wikidata.org/entity/Q700946', 'http://www.wikidata.org/entity/Q701089', 'http://www.wikidata.org/entity/Q701847', 'http://www.wikidata.org/entity/Q702410', 'http://www.wikidata.org/entity/Q702436', 'http://www.wikidata.org/entity/Q702603', 'http://www.wikidata.org/entity/Q702615', 'http://www.wikidata.org/entity/Q702613', 'http://www.wikidata.org/entity/Q702660', 'http://www.wikidata.org/entity/Q702676', 'http://www.wikidata.org/entity/Q2407298', 'http://www.wikidata.org/entity/Q1414691', 'http://www.wikidata.org/entity/Q1475428', 'http://www.wikidata.org/entity/Q1532472', 'http://www.wikidata.org/entity/Q1676132', 'http://www.wikidata.org/entity/Q1803811', 'http://www.wikidata.org/entity/Q1995509', 'http://www.wikidata.org/entity/Q2018422', 'http://www.wikidata.org/entity/Q2118388', 'http://www.wikidata.org/entity/Q2166413', 'http://www.wikidata.org/entity/Q5101919', 'http://www.wikidata.org/entity/Q3108859', 'http://www.wikidata.org/entity/Q3199146', 'http://www.wikidata.org/entity/Q3285144', 'http://www.wikidata.org/entity/Q3349795', 'http://www.wikidata.org/entity/Q5817606', 'http://www.wikidata.org/entity/Q3579074', 'http://www.wikidata.org/entity/Q3594049', 'http://www.wikidata.org/entity/Q3623017', 'http://www.wikidata.org/entity/Q3785700', 'http://www.wikidata.org/entity/Q5354192', 'http://www.wikidata.org/entity/Q5354360', 'http://www.wikidata.org/entity/Q5354430', 'http://www.wikidata.org/entity/Q5354453', 'http://www.wikidata.org/entity/Q5354789', 'http://www.wikidata.org/entity/Q5354800', 'http://www.wikidata.org/entity/Q5361563', 'http://www.wikidata.org/entity/Q5366335', 'http://www.wikidata.org/entity/Q5366388', 'http://www.wikidata.org/entity/Q5366609', 'http://www.wikidata.org/entity/Q5366860', 'http://www.wikidata.org/entity/Q5377606', 'http://www.wikidata.org/entity/Q5508550', 'http://www.wikidata.org/entity/Q4419675', 'http://www.wikidata.org/entity/Q4419682', 'http://www.wikidata.org/entity/Q4478859', 'http://www.wikidata.org/entity/Q4497854', 'http://www.wikidata.org/entity/Q4518163', 'http://www.wikidata.org/entity/Q4518364', 'http://www.wikidata.org/entity/Q4518483', 'http://www.wikidata.org/entity/Q4518560', 'http://www.wikidata.org/entity/Q4518632', 'http://www.wikidata.org/entity/Q4518662', 'http://www.wikidata.org/entity/Q4518698', 'http://www.wikidata.org/entity/Q4518728', 'http://www.wikidata.org/entity/Q4518764', 'http://www.wikidata.org/entity/Q4518813', 'http://www.wikidata.org/entity/Q4518835', 'http://www.wikidata.org/entity/Q4518882', 'http://www.wikidata.org/entity/Q4518914', 'http://www.wikidata.org/entity/Q4518946', 'http://www.wikidata.org/entity/Q4519060', 'http://www.wikidata.org/entity/Q4519100', 'http://www.wikidata.org/entity/Q4519127', 'http://www.wikidata.org/entity/Q4519202', 'http://www.wikidata.org/entity/Q4519334', 'http://www.wikidata.org/entity/Q4519416', 'http://www.wikidata.org/entity/Q4519472', 'http://www.wikidata.org/entity/Q4520401', 'http://www.wikidata.org/entity/Q4520501', 'http://www.wikidata.org/entity/Q4520623', 'http://www.wikidata.org/entity/Q4520676', 'http://www.wikidata.org/entity/Q4520740', 'http://www.wikidata.org/entity/Q5004035', 'http://www.wikidata.org/entity/Q7081764', 'http://www.wikidata.org/entity/Q7082047', 'http://www.wikidata.org/entity/Q7370377', 'http://www.wikidata.org/entity/Q7497005', 'http://www.wikidata.org/entity/Q7498240', 'http://www.wikidata.org/entity/Q10855760', 'http://www.wikidata.org/entity/Q10855761', 'http://www.wikidata.org/entity/Q10856210', 'http://www.wikidata.org/entity/Q10859834', 'http://www.wikidata.org/entity/Q10860535', 'http://www.wikidata.org/entity/Q10889854', 'http://www.wikidata.org/entity/Q10938711', 'http://www.wikidata.org/entity/Q10943140', 'http://www.wikidata.org/entity/Q11234719', 'http://www.wikidata.org/entity/Q11241368', 'http://www.wikidata.org/entity/Q11261668', 'http://www.wikidata.org/entity/Q11276631', 'http://www.wikidata.org/entity/Q11285385', 'http://www.wikidata.org/entity/Q11286923', 'http://www.wikidata.org/entity/Q11353972', 'http://www.wikidata.org/entity/Q11354008', 'http://www.wikidata.org/entity/Q11356195', 'http://www.wikidata.org/entity/Q11357220', 'http://www.wikidata.org/entity/Q11358913', 'http://www.wikidata.org/entity/Q11360086', 'http://www.wikidata.org/entity/Q11360847', 'http://www.wikidata.org/entity/Q11361905', 'http://www.wikidata.org/entity/Q11362799', 'http://www.wikidata.org/entity/Q11362796', 'http://www.wikidata.org/entity/Q11362797', 'http://www.wikidata.org/entity/Q11369263', 'http://www.wikidata.org/entity/Q11369927', 'http://www.wikidata.org/entity/Q11370029', 'http://www.wikidata.org/entity/Q11370104', 'http://www.wikidata.org/entity/Q11371742', 'http://www.wikidata.org/entity/Q11373491', 'http://www.wikidata.org/entity/Q11376329', 'http://www.wikidata.org/entity/Q11377524', 'http://www.wikidata.org/entity/Q11378204', 'http://www.wikidata.org/entity/Q11379228', 'http://www.wikidata.org/entity/Q11379335', 'http://www.wikidata.org/entity/Q11382608', 'http://www.wikidata.org/entity/Q11383201', 'http://www.wikidata.org/entity/Q11383217', 'http://www.wikidata.org/entity/Q11385812', 'http://www.wikidata.org/entity/Q11386818', 'http://www.wikidata.org/entity/Q11390867', 'http://www.wikidata.org/entity/Q11390868', 'http://www.wikidata.org/entity/Q11392330', 'http://www.wikidata.org/entity/Q11394726', 'http://www.wikidata.org/entity/Q11395612', 'http://www.wikidata.org/entity/Q11395786', 'http://www.wikidata.org/entity/Q11397118', 'http://www.wikidata.org/entity/Q11398556', 'http://www.wikidata.org/entity/Q11399769', 'http://www.wikidata.org/entity/Q11401908', 'http://www.wikidata.org/entity/Q11402215', 'http://www.wikidata.org/entity/Q11402223', 'http://www.wikidata.org/entity/Q11407776', 'http://www.wikidata.org/entity/Q11409587', 'http://www.wikidata.org/entity/Q11410659', 'http://www.wikidata.org/entity/Q11415951', 'http://www.wikidata.org/entity/Q11415949', 'http://www.wikidata.org/entity/Q11415952', 'http://www.wikidata.org/entity/Q11415953', 'http://www.wikidata.org/entity/Q11416626', 'http://www.wikidata.org/entity/Q11418533', 'http://www.wikidata.org/entity/Q11419386', 'http://www.wikidata.org/entity/Q11419637', 'http://www.wikidata.org/entity/Q11420237', 'http://www.wikidata.org/entity/Q11424450', 'http://www.wikidata.org/entity/Q11424752', 'http://www.wikidata.org/entity/Q11425641', 'http://www.wikidata.org/entity/Q11430798', 'http://www.wikidata.org/entity/Q11431830', 'http://www.wikidata.org/entity/Q11432478', 'http://www.wikidata.org/entity/Q11434172', 'http://www.wikidata.org/entity/Q11434806', 'http://www.wikidata.org/entity/Q11434807', 'http://www.wikidata.org/entity/Q11434804', 'http://www.wikidata.org/entity/Q11434805', 'http://www.wikidata.org/entity/Q11434809', 'http://www.wikidata.org/entity/Q11434815', 'http://www.wikidata.org/entity/Q11434813', 'http://www.wikidata.org/entity/Q11434819', 'http://www.wikidata.org/entity/Q11434816', 'http://www.wikidata.org/entity/Q11435006', 'http://www.wikidata.org/entity/Q11435005', 'http://www.wikidata.org/entity/Q11436454', 'http://www.wikidata.org/entity/Q11436765', 'http://www.wikidata.org/entity/Q11437275', 'http://www.wikidata.org/entity/Q11438136', 'http://www.wikidata.org/entity/Q11438379', 'http://www.wikidata.org/entity/Q11439590', 'http://www.wikidata.org/entity/Q11442082', 'http://www.wikidata.org/entity/Q11443237', 'http://www.wikidata.org/entity/Q11445536', 'http://www.wikidata.org/entity/Q11446412', 'http://www.wikidata.org/entity/Q11447403', 'http://www.wikidata.org/entity/Q11447404', 'http://www.wikidata.org/entity/Q11449014', 'http://www.wikidata.org/entity/Q11449464', 'http://www.wikidata.org/entity/Q11450585', 'http://www.wikidata.org/entity/Q11454772', 'http://www.wikidata.org/entity/Q11458850', 'http://www.wikidata.org/entity/Q6100326', 'http://www.wikidata.org/entity/Q6143668', 'http://www.wikidata.org/entity/Q6201990', 'http://www.wikidata.org/entity/Q6363834', 'http://www.wikidata.org/entity/Q6406056', 'http://www.wikidata.org/entity/Q6413909', 'http://www.wikidata.org/entity/Q6435390', 'http://www.wikidata.org/entity/Q6446243', 'http://www.wikidata.org/entity/Q6446399', 'http://www.wikidata.org/entity/Q6849883', 'http://www.wikidata.org/entity/Q7705474', 'http://www.wikidata.org/entity/Q7850236', 'http://www.wikidata.org/entity/Q7850254', 'http://www.wikidata.org/entity/Q7862729', 'http://www.wikidata.org/entity/Q8081823', 'http://www.wikidata.org/entity/Q8193619', 'http://www.wikidata.org/entity/Q9009569', 'http://www.wikidata.org/entity/Q9009597', 'http://www.wikidata.org/entity/Q9009869', 'http://www.wikidata.org/entity/Q10449219', 'http://www.wikidata.org/entity/Q11459344', 'http://www.wikidata.org/entity/Q11459579', 'http://www.wikidata.org/entity/Q11460065', 'http://www.wikidata.org/entity/Q11460438', 'http://www.wikidata.org/entity/Q11464517', 'http://www.wikidata.org/entity/Q11465691', 'http://www.wikidata.org/entity/Q11474307', 'http://www.wikidata.org/entity/Q11474346', 'http://www.wikidata.org/entity/Q11475712', 'http://www.wikidata.org/entity/Q11476827', 'http://www.wikidata.org/entity/Q11476897', 'http://www.wikidata.org/entity/Q11477129', 'http://www.wikidata.org/entity/Q11477305', 'http://www.wikidata.org/entity/Q11477410', 'http://www.wikidata.org/entity/Q11481155', 'http://www.wikidata.org/entity/Q11482668', 'http://www.wikidata.org/entity/Q11482669', 'http://www.wikidata.org/entity/Q11483492', 'http://www.wikidata.org/entity/Q11483589', 'http://www.wikidata.org/entity/Q11483827', 'http://www.wikidata.org/entity/Q11484404', 'http://www.wikidata.org/entity/Q11486132', 'http://www.wikidata.org/entity/Q11486910', 'http://www.wikidata.org/entity/Q11486911', 'http://www.wikidata.org/entity/Q11486908', 'http://www.wikidata.org/entity/Q11486909', 'http://www.wikidata.org/entity/Q11487067', 'http://www.wikidata.org/entity/Q11487395', 'http://www.wikidata.org/entity/Q11488768', 'http://www.wikidata.org/entity/Q11489067', 'http://www.wikidata.org/entity/Q11489240', 'http://www.wikidata.org/entity/Q11489251', 'http://www.wikidata.org/entity/Q11490807', 'http://www.wikidata.org/entity/Q11491460', 'http://www.wikidata.org/entity/Q11491674', 'http://www.wikidata.org/entity/Q11492404', 'http://www.wikidata.org/entity/Q11492410', 'http://www.wikidata.org/entity/Q11492883', 'http://www.wikidata.org/entity/Q11492884', 'http://www.wikidata.org/entity/Q11496323', 'http://www.wikidata.org/entity/Q11496324', 'http://www.wikidata.org/entity/Q11496670', 'http://www.wikidata.org/entity/Q11497087', 'http://www.wikidata.org/entity/Q11497519', 'http://www.wikidata.org/entity/Q11500406', 'http://www.wikidata.org/entity/Q11501924', 'http://www.wikidata.org/entity/Q11502024', 'http://www.wikidata.org/entity/Q11502876', 'http://www.wikidata.org/entity/Q11504920', 'http://www.wikidata.org/entity/Q11505281', 'http://www.wikidata.org/entity/Q11505343', 'http://www.wikidata.org/entity/Q11511249', 'http://www.wikidata.org/entity/Q11516644', 'http://www.wikidata.org/entity/Q11520216', 'http://www.wikidata.org/entity/Q11530091', 'http://www.wikidata.org/entity/Q11530093', 'http://www.wikidata.org/entity/Q11532746', 'http://www.wikidata.org/entity/Q11533729', 'http://www.wikidata.org/entity/Q11542683', 'http://www.wikidata.org/entity/Q11542685', 'http://www.wikidata.org/entity/Q11543672', 'http://www.wikidata.org/entity/Q11544654', 'http://www.wikidata.org/entity/Q11544655', 'http://www.wikidata.org/entity/Q11545996', 'http://www.wikidata.org/entity/Q11547731', 'http://www.wikidata.org/entity/Q11548193', 'http://www.wikidata.org/entity/Q11548462', 'http://www.wikidata.org/entity/Q11550173', 'http://www.wikidata.org/entity/Q11550842', 'http://www.wikidata.org/entity/Q11550845', 'http://www.wikidata.org/entity/Q11551591', 'http://www.wikidata.org/entity/Q11552439', 'http://www.wikidata.org/entity/Q11552466', 'http://www.wikidata.org/entity/Q11552477', 'http://www.wikidata.org/entity/Q11552498', 'http://www.wikidata.org/entity/Q11552502', 'http://www.wikidata.org/entity/Q11552549', 'http://www.wikidata.org/entity/Q11553027', 'http://www.wikidata.org/entity/Q11555929', 'http://www.wikidata.org/entity/Q11555966', 'http://www.wikidata.org/entity/Q11556058', 'http://www.wikidata.org/entity/Q11556221', 'http://www.wikidata.org/entity/Q11558503', 'http://www.wikidata.org/entity/Q11558501', 'http://www.wikidata.org/entity/Q11558824', 'http://www.wikidata.org/entity/Q11559068', 'http://www.wikidata.org/entity/Q11559418', 'http://www.wikidata.org/entity/Q11559763', 'http://www.wikidata.org/entity/Q11559986', 'http://www.wikidata.org/entity/Q11562837', 'http://www.wikidata.org/entity/Q11563518', 'http://www.wikidata.org/entity/Q11567224', 'http://www.wikidata.org/entity/Q11567245', 'http://www.wikidata.org/entity/Q11567267', 'http://www.wikidata.org/entity/Q11572200', 'http://www.wikidata.org/entity/Q11572311', 'http://www.wikidata.org/entity/Q11573306', 'http://www.wikidata.org/entity/Q11573823', 'http://www.wikidata.org/entity/Q11574179', 'http://www.wikidata.org/entity/Q11574434', 'http://www.wikidata.org/entity/Q11574442', 'http://www.wikidata.org/entity/Q11574503', 'http://www.wikidata.org/entity/Q11574566', 'http://www.wikidata.org/entity/Q11574873', 'http://www.wikidata.org/entity/Q11576597', 'http://www.wikidata.org/entity/Q11577548', 'http://www.wikidata.org/entity/Q11577742', 'http://www.wikidata.org/entity/Q11578144', 'http://www.wikidata.org/entity/Q11578192', 'http://www.wikidata.org/entity/Q11578542', 'http://www.wikidata.org/entity/Q11579570', 'http://www.wikidata.org/entity/Q11580729', 'http://www.wikidata.org/entity/Q11580862', 'http://www.wikidata.org/entity/Q11580911', 'http://www.wikidata.org/entity/Q11581974', 'http://www.wikidata.org/entity/Q11581975', 'http://www.wikidata.org/entity/Q11583780', 'http://www.wikidata.org/entity/Q11583965', 'http://www.wikidata.org/entity/Q11588028', 'http://www.wikidata.org/entity/Q11588453', 'http://www.wikidata.org/entity/Q11589438', 'http://www.wikidata.org/entity/Q11589594', 'http://www.wikidata.org/entity/Q11591024', 'http://www.wikidata.org/entity/Q11592984', 'http://www.wikidata.org/entity/Q11596394', 'http://www.wikidata.org/entity/Q11598512', 'http://www.wikidata.org/entity/Q11598646', 'http://www.wikidata.org/entity/Q11598647', 'http://www.wikidata.org/entity/Q11599897', 'http://www.wikidata.org/entity/Q11602695', 'http://www.wikidata.org/entity/Q11603507', 'http://www.wikidata.org/entity/Q11603714', 'http://www.wikidata.org/entity/Q11604580', 'http://www.wikidata.org/entity/Q11604657', 'http://www.wikidata.org/entity/Q11605347', 'http://www.wikidata.org/entity/Q11607173', 'http://www.wikidata.org/entity/Q11610036', 'http://www.wikidata.org/entity/Q11612025', 'http://www.wikidata.org/entity/Q11613384', 'http://www.wikidata.org/entity/Q11616271', 'http://www.wikidata.org/entity/Q11622569', 'http://www.wikidata.org/entity/Q11625567', 'http://www.wikidata.org/entity/Q11626891', 'http://www.wikidata.org/entity/Q11630243', 'http://www.wikidata.org/entity/Q11631382', 'http://www.wikidata.org/entity/Q11633491', 'http://www.wikidata.org/entity/Q11633492', 'http://www.wikidata.org/entity/Q11634353', 'http://www.wikidata.org/entity/Q11635889', 'http://www.wikidata.org/entity/Q11636071', 'http://www.wikidata.org/entity/Q11636883', 'http://www.wikidata.org/entity/Q11645346', 'http://www.wikidata.org/entity/Q11645453', 'http://www.wikidata.org/entity/Q11647939', 'http://www.wikidata.org/entity/Q11648162', 'http://www.wikidata.org/entity/Q11648224', 'http://www.wikidata.org/entity/Q11650283', 'http://www.wikidata.org/entity/Q11650626', 'http://www.wikidata.org/entity/Q11652193', 'http://www.wikidata.org/entity/Q11652198', 'http://www.wikidata.org/entity/Q11652207', 'http://www.wikidata.org/entity/Q11652204', 'http://www.wikidata.org/entity/Q11655424', 'http://www.wikidata.org/entity/Q11657147', 'http://www.wikidata.org/entity/Q11657359', 'http://www.wikidata.org/entity/Q11659209', 'http://www.wikidata.org/entity/Q11661370', 'http://www.wikidata.org/entity/Q11661371', 'http://www.wikidata.org/entity/Q11661369', 'http://www.wikidata.org/entity/Q11661373', 'http://www.wikidata.org/entity/Q11662600', 'http://www.wikidata.org/entity/Q11664922', 'http://www.wikidata.org/entity/Q11664932', 'http://www.wikidata.org/entity/Q11665527', 'http://www.wikidata.org/entity/Q11665758', 'http://www.wikidata.org/entity/Q11665759', 'http://www.wikidata.org/entity/Q11667955', 'http://www.wikidata.org/entity/Q11667995', 'http://www.wikidata.org/entity/Q11668024', 'http://www.wikidata.org/entity/Q11668037', 'http://www.wikidata.org/entity/Q11668718', 'http://www.wikidata.org/entity/Q11669590', 'http://www.wikidata.org/entity/Q11669595', 'http://www.wikidata.org/entity/Q11669598', 'http://www.wikidata.org/entity/Q11669599', 'http://www.wikidata.org/entity/Q11669597', 'http://www.wikidata.org/entity/Q11669603', 'http://www.wikidata.org/entity/Q11669605', 'http://www.wikidata.org/entity/Q11670635', 'http://www.wikidata.org/entity/Q11673959', 'http://www.wikidata.org/entity/Q11674270', 'http://www.wikidata.org/entity/Q11675635', 'http://www.wikidata.org/entity/Q11675694', 'http://www.wikidata.org/entity/Q11675705', 'http://www.wikidata.org/entity/Q11675721', 'http://www.wikidata.org/entity/Q11675825', 'http://www.wikidata.org/entity/Q11676467', 'http://www.wikidata.org/entity/Q11677072', 'http://www.wikidata.org/entity/Q11678083', 'http://www.wikidata.org/entity/Q11678144', 'http://www.wikidata.org/entity/Q11678146', 'http://www.wikidata.org/entity/Q11678147', 'http://www.wikidata.org/entity/Q11678145', 'http://www.wikidata.org/entity/Q11678919', 'http://www.wikidata.org/entity/Q12122598', 'http://www.wikidata.org/entity/Q12168088', 'http://www.wikidata.org/entity/Q17021654', 'http://www.wikidata.org/entity/Q17023687', 'http://www.wikidata.org/entity/Q17031459', 'http://www.wikidata.org/entity/Q17039990', 'http://www.wikidata.org/entity/Q17191315', 'http://www.wikidata.org/entity/Q17191378', 'http://www.wikidata.org/entity/Q17192049', 'http://www.wikidata.org/entity/Q17192826', 'http://www.wikidata.org/entity/Q17193690', 'http://www.wikidata.org/entity/Q17210135', 'http://www.wikidata.org/entity/Q17210185', 'http://www.wikidata.org/entity/Q17211889', 'http://www.wikidata.org/entity/Q17214084', 'http://www.wikidata.org/entity/Q17215469', 'http://www.wikidata.org/entity/Q17216064', 'http://www.wikidata.org/entity/Q17216375', 'http://www.wikidata.org/entity/Q17217423', 'http://www.wikidata.org/entity/Q17219919', 'http://www.wikidata.org/entity/Q17221048', 'http://www.wikidata.org/entity/Q17222656', 'http://www.wikidata.org/entity/Q17223389', 'http://www.wikidata.org/entity/Q17225029', 'http://www.wikidata.org/entity/Q17989148', 'http://www.wikidata.org/entity/Q17989626', 'http://www.wikidata.org/entity/Q17992764', 'http://www.wikidata.org/entity/Q17993734', 'http://www.wikidata.org/entity/Q17995776', 'http://www.wikidata.org/entity/Q18003098', 'http://www.wikidata.org/entity/Q18009413', 'http://www.wikidata.org/entity/Q18010599', 'http://www.wikidata.org/entity/Q18335728', 'http://www.wikidata.org/entity/Q18336591', 'http://www.wikidata.org/entity/Q18336657', 'http://www.wikidata.org/entity/Q18338827', 'http://www.wikidata.org/entity/Q18338974', 'http://www.wikidata.org/entity/Q18339013', 'http://www.wikidata.org/entity/Q18339157', 'http://www.wikidata.org/entity/Q18339362', 'http://www.wikidata.org/entity/Q18339537', 'http://www.wikidata.org/entity/Q18339548', 'http://www.wikidata.org/entity/Q18700735', 'http://www.wikidata.org/entity/Q19926707', 'http://www.wikidata.org/entity/Q19927579', 'http://www.wikidata.org/entity/Q19927913', 'http://www.wikidata.org/entity/Q19928028', 'http://www.wikidata.org/entity/Q19969455', 'http://www.wikidata.org/entity/Q19969459', 'http://www.wikidata.org/entity/Q19969456', 'http://www.wikidata.org/entity/Q19969457', 'http://www.wikidata.org/entity/Q19969462', 'http://www.wikidata.org/entity/Q19969463', 'http://www.wikidata.org/entity/Q19969461', 'http://www.wikidata.org/entity/Q20043639', 'http://www.wikidata.org/entity/Q20160219', 'http://www.wikidata.org/entity/Q20207875', 'http://www.wikidata.org/entity/Q20208336', 'http://www.wikidata.org/entity/Q20208605', 'http://www.wikidata.org/entity/Q20220282', 'http://www.wikidata.org/entity/Q20220291', 'http://www.wikidata.org/entity/Q20249559', 'http://www.wikidata.org/entity/Q20251315', 'http://www.wikidata.org/entity/Q20267482', 'http://www.wikidata.org/entity/Q20441459', 'http://www.wikidata.org/entity/Q20441495', 'http://www.wikidata.org/entity/Q20441538', 'http://www.wikidata.org/entity/Q20441672', 'http://www.wikidata.org/entity/Q20441835', 'http://www.wikidata.org/entity/Q20442833', 'http://www.wikidata.org/entity/Q20442886', 'http://www.wikidata.org/entity/Q20454159', 'http://www.wikidata.org/entity/Q20652984', 'http://www.wikidata.org/entity/Q20653009', 'http://www.wikidata.org/entity/Q20653020', 'http://www.wikidata.org/entity/Q20653048', 'http://www.wikidata.org/entity/Q20653083', 'http://www.wikidata.org/entity/Q20653128', 'http://www.wikidata.org/entity/Q20655767', 'http://www.wikidata.org/entity/Q20655779', 'http://www.wikidata.org/entity/Q20655824', 'http://www.wikidata.org/entity/Q20655829', 'http://www.wikidata.org/entity/Q20655854', 'http://www.wikidata.org/entity/Q20655861', 'http://www.wikidata.org/entity/Q20656218', 'http://www.wikidata.org/entity/Q20662194', 'http://www.wikidata.org/entity/Q20662421', 'http://www.wikidata.org/entity/Q20665543', 'http://www.wikidata.org/entity/Q20669152', 'http://www.wikidata.org/entity/Q20669173', 'http://www.wikidata.org/entity/Q20669188', 'http://www.wikidata.org/entity/Q20669201', 'http://www.wikidata.org/entity/Q20669474', 'http://www.wikidata.org/entity/Q20670486', 'http://www.wikidata.org/entity/Q20670485', 'http://www.wikidata.org/entity/Q20670490', 'http://www.wikidata.org/entity/Q20670489', 'http://www.wikidata.org/entity/Q20670802', 'http://www.wikidata.org/entity/Q20670818', 'http://www.wikidata.org/entity/Q20670842', 'http://www.wikidata.org/entity/Q20680346', 'http://www.wikidata.org/entity/Q20681784', 'http://www.wikidata.org/entity/Q20681836', 'http://www.wikidata.org/entity/Q20687296', 'http://www.wikidata.org/entity/Q20706572', 'http://www.wikidata.org/entity/Q20706579', 'http://www.wikidata.org/entity/Q20706699', 'http://www.wikidata.org/entity/Q20709285', 'http://www.wikidata.org/entity/Q14948406', 'http://www.wikidata.org/entity/Q14948405', 'http://www.wikidata.org/entity/Q15231937', 'http://www.wikidata.org/entity/Q15233224', 'http://www.wikidata.org/entity/Q15914611', 'http://www.wikidata.org/entity/Q15914636', 'http://www.wikidata.org/entity/Q15914793', 'http://www.wikidata.org/entity/Q15914839', 'http://www.wikidata.org/entity/Q15914850', 'http://www.wikidata.org/entity/Q15914965', 'http://www.wikidata.org/entity/Q15915038', 'http://www.wikidata.org/entity/Q15915094', 'http://www.wikidata.org/entity/Q15915371', 'http://www.wikidata.org/entity/Q15915516', 'http://www.wikidata.org/entity/Q15915542', 'http://www.wikidata.org/entity/Q15915739', 'http://www.wikidata.org/entity/Q15915768', 'http://www.wikidata.org/entity/Q15915877', 'http://www.wikidata.org/entity/Q15915985', 'http://www.wikidata.org/entity/Q15916001', 'http://www.wikidata.org/entity/Q15916180', 'http://www.wikidata.org/entity/Q15916186', 'http://www.wikidata.org/entity/Q15916187', 'http://www.wikidata.org/entity/Q15916216', 'http://www.wikidata.org/entity/Q15916254', 'http://www.wikidata.org/entity/Q15916253', 'http://www.wikidata.org/entity/Q15916285', 'http://www.wikidata.org/entity/Q15916298', 'http://www.wikidata.org/entity/Q15916297', 'http://www.wikidata.org/entity/Q15916370', 'http://www.wikidata.org/entity/Q15916369', 'http://www.wikidata.org/entity/Q15916387', 'http://www.wikidata.org/entity/Q15916410', 'http://www.wikidata.org/entity/Q15916434', 'http://www.wikidata.org/entity/Q15916435', 'http://www.wikidata.org/entity/Q15916438', 'http://www.wikidata.org/entity/Q15916437', 'http://www.wikidata.org/entity/Q15916508', 'http://www.wikidata.org/entity/Q15923957', 'http://www.wikidata.org/entity/Q15924538', 'http://www.wikidata.org/entity/Q15925138', 'http://www.wikidata.org/entity/Q15925270', 'http://www.wikidata.org/entity/Q21652956', 'http://www.wikidata.org/entity/Q21652975', 'http://www.wikidata.org/entity/Q21653337', 'http://www.wikidata.org/entity/Q21653909', 'http://www.wikidata.org/entity/Q21654565', 'http://www.wikidata.org/entity/Q23069893', 'http://www.wikidata.org/entity/Q24488445', 'http://www.wikidata.org/entity/Q24871573', 'http://www.wikidata.org/entity/Q24875184', 'http://www.wikidata.org/entity/Q24898648', 'http://www.wikidata.org/entity/Q24902485', 'http://www.wikidata.org/entity/Q27560716', 'http://www.wikidata.org/entity/Q28155659', 'http://www.wikidata.org/entity/Q28682242', 'http://www.wikidata.org/entity/Q28682892', 'http://www.wikidata.org/entity/Q28682901', 'http://www.wikidata.org/entity/Q28683300', 'http://www.wikidata.org/entity/Q28684991', 'http://www.wikidata.org/entity/Q28684995', 'http://www.wikidata.org/entity/Q28687509', 'http://www.wikidata.org/entity/Q28687512', 'http://www.wikidata.org/entity/Q28687518', 'http://www.wikidata.org/entity/Q28687517', 'http://www.wikidata.org/entity/Q28687526', 'http://www.wikidata.org/entity/Q28687528', 'http://www.wikidata.org/entity/Q28687551', 'http://www.wikidata.org/entity/Q28687549', 'http://www.wikidata.org/entity/Q28687556', 'http://www.wikidata.org/entity/Q28687561', 'http://www.wikidata.org/entity/Q28687591', 'http://www.wikidata.org/entity/Q28693411', 'http://www.wikidata.org/entity/Q29980548', 'http://www.wikidata.org/entity/Q30925772', 'http://www.wikidata.org/entity/Q30925773', 'http://www.wikidata.org/entity/Q30931692', 'http://www.wikidata.org/entity/Q30931979', 'http://www.wikidata.org/entity/Q34795633', 'http://www.wikidata.org/entity/Q34795652', 'http://www.wikidata.org/entity/Q34795659', 'http://www.wikidata.org/entity/Q34795671', 'http://www.wikidata.org/entity/Q34795678', 'http://www.wikidata.org/entity/Q34795686', 'http://www.wikidata.org/entity/Q34795693', 'http://www.wikidata.org/entity/Q34795722', 'http://www.wikidata.org/entity/Q34795734', 'http://www.wikidata.org/entity/Q34795744', 'http://www.wikidata.org/entity/Q34795753', 'http://www.wikidata.org/entity/Q34795770', 'http://www.wikidata.org/entity/Q34795778', 'http://www.wikidata.org/entity/Q34795788', 'http://www.wikidata.org/entity/Q34795804', 'http://www.wikidata.org/entity/Q34795808', 'http://www.wikidata.org/entity/Q34795832', 'http://www.wikidata.org/entity/Q34795844', 'http://www.wikidata.org/entity/Q34795856', 'http://www.wikidata.org/entity/Q34795867', 'http://www.wikidata.org/entity/Q34795874', 'http://www.wikidata.org/entity/Q34795887', 'http://www.wikidata.org/entity/Q34795901', 'http://www.wikidata.org/entity/Q34795907', 'http://www.wikidata.org/entity/Q34795913', 'http://www.wikidata.org/entity/Q34795937', 'http://www.wikidata.org/entity/Q34795942', 'http://www.wikidata.org/entity/Q34795954', 'http://www.wikidata.org/entity/Q34795961', 'http://www.wikidata.org/entity/Q34795967', 'http://www.wikidata.org/entity/Q34795972', 'http://www.wikidata.org/entity/Q34795984', 'http://www.wikidata.org/entity/Q34795990', 'http://www.wikidata.org/entity/Q34795996', 'http://www.wikidata.org/entity/Q34796002', 'http://www.wikidata.org/entity/Q34796008', 'http://www.wikidata.org/entity/Q34796015', 'http://www.wikidata.org/entity/Q34796021', 'http://www.wikidata.org/entity/Q34796028', 'http://www.wikidata.org/entity/Q34796033', 'http://www.wikidata.org/entity/Q34796043', 'http://www.wikidata.org/entity/Q34796055', 'http://www.wikidata.org/entity/Q34796071', 'http://www.wikidata.org/entity/Q34796095', 'http://www.wikidata.org/entity/Q34796102', 'http://www.wikidata.org/entity/Q34796119', 'http://www.wikidata.org/entity/Q34796134', 'http://www.wikidata.org/entity/Q34796146', 'http://www.wikidata.org/entity/Q34796151', 'http://www.wikidata.org/entity/Q34796158', 'http://www.wikidata.org/entity/Q34796163', 'http://www.wikidata.org/entity/Q34796170', 'http://www.wikidata.org/entity/Q34796175', 'http://www.wikidata.org/entity/Q34796180', 'http://www.wikidata.org/entity/Q34861379', 'http://www.wikidata.org/entity/Q34861390', 'http://www.wikidata.org/entity/Q34861523', 'http://www.wikidata.org/entity/Q34861562', 'http://www.wikidata.org/entity/Q34861821', 'http://www.wikidata.org/entity/Q34862653', 'http://www.wikidata.org/entity/Q37910369', 'http://www.wikidata.org/entity/Q34788048', 'http://www.wikidata.org/entity/Q34788086', 'http://www.wikidata.org/entity/Q34788091', 'http://www.wikidata.org/entity/Q34788095', 'http://www.wikidata.org/entity/Q34788578', 'http://www.wikidata.org/entity/Q34788581', 'http://www.wikidata.org/entity/Q34788617', 'http://www.wikidata.org/entity/Q34788621', 'http://www.wikidata.org/entity/Q34788699', 'http://www.wikidata.org/entity/Q34783955', 'http://www.wikida</t>
         </is>
       </c>
     </row>
@@ -1662,7 +1662,7 @@
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>['http://www.wikidata.org/entity/Q3884', 'http://www.wikidata.org/entity/Q819425', 'http://www.wikidata.org/entity/Q483551', 'http://www.wikidata.org/entity/Q209078', 'http://www.wikidata.org/entity/Q588786', 'http://www.wikidata.org/entity/Q446043']</t>
+          <t>['http://www.wikidata.org/entity/Q819425', 'http://www.wikidata.org/entity/Q483551', 'http://www.wikidata.org/entity/Q3884', 'http://www.wikidata.org/entity/Q209078', 'http://www.wikidata.org/entity/Q588786']</t>
         </is>
       </c>
     </row>
@@ -1816,7 +1816,7 @@
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>['http://www.wikidata.org/entity/Q117147', 'http://www.wikidata.org/entity/Q270005', 'http://www.wikidata.org/entity/Q272804', 'http://www.wikidata.org/entity/Q273342', 'http://www.wikidata.org/entity/Q273770', 'http://www.wikidata.org/entity/Q274656', 'http://www.wikidata.org/entity/Q275346', 'http://www.wikidata.org/entity/Q228891', 'http://www.wikidata.org/entity/Q234890', 'http://www.wikidata.org/entity/Q242914', 'http://www.wikidata.org/entity/Q249794', 'http://www.wikidata.org/entity/Q258139', 'http://www.wikidata.org/entity/Q263178', 'http://www.wikidata.org/entity/Q191644', 'http://www.wikidata.org/entity/Q28463', 'http://www.wikidata.org/entity/Q45827', 'http://www.wikidata.org/entity/Q778451', 'http://www.wikidata.org/entity/Q824767', 'http://www.wikidata.org/entity/Q859051', 'http://www.wikidata.org/entity/Q732109', 'http://www.wikidata.org/entity/Q732668', 'http://www.wikidata.org/entity/Q642952', 'http://www.wikidata.org/entity/Q658220', 'http://www.wikidata.org/entity/Q658664', 'http://www.wikidata.org/entity/Q678957', 'http://www.wikidata.org/entity/Q681451', 'http://www.wikidata.org/entity/Q721337', 'http://www.wikidata.org/entity/Q2825427', 'http://www.wikidata.org/entity/Q2826475', 'http://www.wikidata.org/entity/Q2826970', 'http://www.wikidata.org/entity/Q2830233', 'http://www.wikidata.org/entity/Q2830311', 'http://www.wikidata.org/entity/Q2830742', 'http://www.wikidata.org/entity/Q2833279', 'http://www.wikidata.org/entity/Q2833300', 'http://www.wikidata.org/entity/Q2833324', 'http://www.wikidata.org/entity/Q2833696', 'http://www.wikidata.org/entity/Q2833785', 'http://www.wikidata.org/entity/Q2833905', 'http://www.wikidata.org/entity/Q2833957', 'http://www.wikidata.org/entity/Q2834408', 'http://www.wikidata.org/entity/Q289032', 'http://www.wikidata.org/entity/Q289594', 'http://www.wikidata.org/entity/Q291693', 'http://www.wikidata.org/entity/Q297794', 'http://www.wikidata.org/entity/Q326837', 'http://www.wikidata.org/entity/Q328256', 'http://www.wikidata.org/entity/Q345755', 'http://www.wikidata.org/entity/Q346857', 'http://www.wikidata.org/entity/Q391297', 'http://www.wikidata.org/entity/Q434074', 'http://www.wikidata.org/entity/Q440348', 'http://www.wikidata.org/entity/Q446842', 'http://www.wikidata.org/entity/Q451109', 'http://www.wikidata.org/entity/Q453691', 'http://www.wikidata.org/entity/Q457722', 'http://www.wikidata.org/entity/Q462238', 'http://www.wikidata.org/entity/Q464138', 'http://www.wikidata.org/entity/Q465695', 'http://www.wikidata.org/entity/Q466926', 'http://www.wikidata.org/entity/Q484779', 'http://www.wikidata.org/entity/Q508199', 'http://www.wikidata.org/entity/Q509777', 'http://www.wikidata.org/entity/Q510408', 'http://www.wikidata.org/entity/Q511489', 'http://www.wikidata.org/entity/Q527437', 'http://www.wikidata.org/entity/Q533363', 'http://www.wikidata.org/entity/Q533768', 'http://www.wikidata.org/entity/Q549356', 'http://www.wikidata.org/entity/Q573679', 'http://www.wikidata.org/entity/Q586054', 'http://www.wikidata.org/entity/Q586641', 'http://www.wikidata.org/entity/Q3165613', 'http://www.wikidata.org/entity/Q2835280', 'http://www.wikidata.org/entity/Q2836904', 'http://www.wikidata.org/entity/Q2837069', 'http://www.wikidata.org/entity/Q2837301', 'http://www.wikidata.org/entity/Q2840673', 'http://www.wikidata.org/entity/Q2842345', 'http://www.wikidata.org/entity/Q2842675', 'http://www.wikidata.org/entity/Q2844973', 'http://www.wikidata.org/entity/Q2845710', 'http://www.wikidata.org/entity/Q2850927', 'http://www.wikidata.org/entity/Q2850947', 'http://www.wikidata.org/entity/Q2850968', 'http://www.wikidata.org/entity/Q2851068', 'http://www.wikidata.org/entity/Q2851215', 'http://www.wikidata.org/entity/Q2851275', 'http://www.wikidata.org/entity/Q2851292', 'http://www.wikidata.org/entity/Q2852954', 'http://www.wikidata.org/entity/Q2852965', 'http://www.wikidata.org/entity/Q2853664', 'http://www.wikidata.org/entity/Q2854252', 'http://www.wikidata.org/entity/Q2862330', 'http://www.wikidata.org/entity/Q2863424', 'http://www.wikidata.org/entity/Q2865266', 'http://www.wikidata.org/entity/Q2870702', 'http://www.wikidata.org/entity/Q2874763', 'http://www.wikidata.org/entity/Q2874772', 'http://www.wikidata.org/entity/Q2874899', 'http://www.wikidata.org/entity/Q2897933', 'http://www.wikidata.org/entity/Q2899666', 'http://www.wikidata.org/entity/Q2906106', 'http://www.wikidata.org/entity/Q2910907', 'http://www.wikidata.org/entity/Q2925397', 'http://www.wikidata.org/entity/Q2926951', 'http://www.wikidata.org/entity/Q2926989', 'http://www.wikidata.org/entity/Q2928235', 'http://www.wikidata.org/entity/Q2934882', 'http://www.wikidata.org/entity/Q2934970', 'http://www.wikidata.org/entity/Q2935061', 'http://www.wikidata.org/entity/Q2938927', 'http://www.wikidata.org/entity/Q2939958', 'http://www.wikidata.org/entity/Q2940043', 'http://www.wikidata.org/entity/Q2940071', 'http://www.wikidata.org/entity/Q2942063', 'http://www.wikidata.org/entity/Q2942211', 'http://www.wikidata.org/entity/Q2947625', 'http://www.wikidata.org/entity/Q899042', 'http://www.wikidata.org/entity/Q928295', 'http://www.wikidata.org/entity/Q932338', 'http://www.wikidata.org/entity/Q947150', 'http://www.wikidata.org/entity/Q949296', 'http://www.wikidata.org/entity/Q953208', 'http://www.wikidata.org/entity/Q954028', 'http://www.wikidata.org/entity/Q958458', 'http://www.wikidata.org/entity/Q959087', 'http://www.wikidata.org/entity/Q964873', 'http://www.wikidata.org/entity/Q973814', 'http://www.wikidata.org/entity/Q982784', 'http://www.wikidata.org/entity/Q1093577', 'http://www.wikidata.org/entity/Q1150229', 'http://www.wikidata.org/entity/Q1187314', 'http://www.wikidata.org/entity/Q1306771', 'http://www.wikidata.org/entity/Q1338400', 'http://www.wikidata.org/entity/Q1368173', 'http://www.wikidata.org/entity/Q1384928', 'http://www.wikidata.org/entity/Q1394368', 'http://www.wikidata.org/entity/Q1609167', 'http://www.wikidata.org/entity/Q1635512', 'http://www.wikidata.org/entity/Q2960872', 'http://www.wikidata.org/entity/Q2960927', 'http://www.wikidata.org/entity/Q2960975', 'http://www.wikidata.org/entity/Q2962583', 'http://www.wikidata.org/entity/Q2964178', 'http://www.wikidata.org/entity/Q2965542', 'http://www.wikidata.org/entity/Q2965955', 'http://www.wikidata.org/entity/Q2966277', 'http://www.wikidata.org/entity/Q2966335', 'http://www.wikidata.org/entity/Q2975467', 'http://www.wikidata.org/entity/Q2975505', 'http://www.wikidata.org/entity/Q2980615', 'http://www.wikidata.org/entity/Q2980691', 'http://www.wikidata.org/entity/Q2982536', 'http://www.wikidata.org/entity/Q2997291', 'http://www.wikidata.org/entity/Q3008655', 'http://www.wikidata.org/entity/Q3008962', 'http://www.wikidata.org/entity/Q3009700', 'http://www.wikidata.org/entity/Q3012205', 'http://www.wikidata.org/entity/Q3012812', 'http://www.wikidata.org/entity/Q3013087', 'http://www.wikidata.org/entity/Q3018220', 'http://www.wikidata.org/entity/Q3021856', 'http://www.wikidata.org/entity/Q3022764', 'http://www.wikidata.org/entity/Q3035449', 'http://www.wikidata.org/entity/Q3037216', 'http://www.wikidata.org/entity/Q3043016', 'http://www.wikidata.org/entity/Q3050822', 'http://www.wikidata.org/entity/Q3052584', 'http://www.wikidata.org/entity/Q3052809', 'http://www.wikidata.org/entity/Q3052932', 'http://www.wikidata.org/entity/Q3052966', 'http://www.wikidata.org/entity/Q3058913', 'http://www.wikidata.org/entity/Q3066875', 'http://www.wikidata.org/entity/Q3072706', 'http://www.wikidata.org/entity/Q3073457', 'http://www.wikidata.org/entity/Q3073972', 'http://www.wikidata.org/entity/Q3079848', 'http://www.wikidata.org/entity/Q3082065', 'http://www.wikidata.org/entity/Q3082918', 'http://www.wikidata.org/entity/Q3083654', 'http://www.wikidata.org/entity/Q3084265', 'http://www.wikidata.org/entity/Q3085194', 'http://www.wikidata.org/entity/Q3086940', 'http://www.wikidata.org/entity/Q1661394', 'http://www.wikidata.org/entity/Q1677379', 'http://www.wikidata.org/entity/Q1684962', 'http://www.wikidata.org/entity/Q1752546', 'http://www.wikidata.org/entity/Q1775644', 'http://www.wikidata.org/entity/Q1807890', 'http://www.wikidata.org/entity/Q1972918', 'http://www.wikidata.org/entity/Q1983710', 'http://www.wikidata.org/entity/Q2079864', 'http://www.wikidata.org/entity/Q2089072', 'http://www.wikidata.org/entity/Q2115400', 'http://www.wikidata.org/entity/Q2154406', 'http://www.wikidata.org/entity/Q2255366', 'http://www.wikidata.org/entity/Q2258941', 'http://www.wikidata.org/entity/Q2277797', 'http://www.wikidata.org/entity/Q2310203', 'http://www.wikidata.org/entity/Q2334488', 'http://www.wikidata.org/entity/Q2357605', 'http://www.wikidata.org/entity/Q2357740', 'http://www.wikidata.org/entity/Q2360373', 'http://www.wikidata.org/entity/Q2367563', 'http://www.wikidata.org/entity/Q2368282', 'http://www.wikidata.org/entity/Q2378488', 'http://www.wikidata.org/entity/Q2378986', 'http://www.wikidata.org/entity/Q2382697', 'http://www.wikidata.org/entity/Q2385704', 'http://www.wikidata.org/entity/Q2390803', 'http://www.wikidata.org/entity/Q2396606', 'http://www.wikidata.org/entity/Q2597731', 'http://www.wikidata.org/entity/Q2599715', 'http://www.wikidata.org/entity/Q2625575', 'http://www.wikidata.org/entity/Q2643776', 'http://www.wikidata.org/entity/Q2681916', 'http://www.wikidata.org/entity/Q2744903', 'http://www.wikidata.org/entity/Q2756117', 'http://www.wikidata.org/entity/Q2776777', 'http://www.wikidata.org/entity/Q2825177', 'http://www.wikidata.org/entity/Q2825425', 'http://www.wikidata.org/entity/Q3264653', 'http://www.wikidata.org/entity/Q3265243', 'http://www.wikidata.org/entity/Q3265280', 'http://www.wikidata.org/entity/Q3265286', 'http://www.wikidata.org/entity/Q3271520', 'http://www.wikidata.org/entity/Q3272811', 'http://www.wikidata.org/entity/Q3276423', 'http://www.wikidata.org/entity/Q3276523', 'http://www.wikidata.org/entity/Q3287847', 'http://www.wikidata.org/entity/Q3287856', 'http://www.wikidata.org/entity/Q3288079', 'http://www.wikidata.org/entity/Q3288369', 'http://www.wikidata.org/entity/Q3290153', 'http://www.wikidata.org/entity/Q3290563', 'http://www.wikidata.org/entity/Q3291654', 'http://www.wikidata.org/entity/Q3292487', 'http://www.wikidata.org/entity/Q3292536', 'http://www.wikidata.org/entity/Q3292718', 'http://www.wikidata.org/entity/Q3293096', 'http://www.wikidata.org/entity/Q3089806', 'http://www.wikidata.org/entity/Q3089922', 'http://www.wikidata.org/entity/Q3099901', 'http://www.wikidata.org/entity/Q3101099', 'http://www.wikidata.org/entity/Q3101150', 'http://www.wikidata.org/entity/Q3105262', 'http://www.wikidata.org/entity/Q3106179', 'http://www.wikidata.org/entity/Q3106216', 'http://www.wikidata.org/entity/Q3106353', 'http://www.wikidata.org/entity/Q3108676', 'http://www.wikidata.org/entity/Q3118556', 'http://www.wikidata.org/entity/Q3119795', 'http://www.wikidata.org/entity/Q3120105', 'http://www.wikidata.org/entity/Q3120900', 'http://www.wikidata.org/entity/Q3124132', 'http://www.wikidata.org/entity/Q3134549', 'http://www.wikidata.org/entity/Q3134613', 'http://www.wikidata.org/entity/Q3134633', 'http://www.wikidata.org/entity/Q3144827', 'http://www.wikidata.org/entity/Q3154363', 'http://www.wikidata.org/entity/Q3155039', 'http://www.wikidata.org/entity/Q3156516', 'http://www.wikidata.org/entity/Q3164195', 'http://www.wikidata.org/entity/Q3573390', 'http://www.wikidata.org/entity/Q3414184', 'http://www.wikidata.org/entity/Q3416208', 'http://www.wikidata.org/entity/Q3417301', 'http://www.wikidata.org/entity/Q3418533', 'http://www.wikidata.org/entity/Q3424859', 'http://www.wikidata.org/entity/Q3430005', 'http://www.wikidata.org/entity/Q3446459', 'http://www.wikidata.org/entity/Q3456184', 'http://www.wikidata.org/entity/Q3470627', 'http://www.wikidata.org/entity/Q3470798', 'http://www.wikidata.org/entity/Q3470907', 'http://www.wikidata.org/entity/Q3471173', 'http://www.wikidata.org/entity/Q3472012', 'http://www.wikidata.org/entity/Q3473304', 'http://www.wikidata.org/entity/Q3473320', 'http://www.wikidata.org/entity/Q3473425', 'http://www.wikidata.org/entity/Q3474350', 'http://www.wikidata.org/entity/Q3479289', 'http://www.wikidata.org/entity/Q3481005', 'http://www.wikidata.org/entity/Q3481029', 'http://www.wikidata.org/entity/Q3484224', 'http://www.wikidata.org/entity/Q3486692', 'http://www.wikidata.org/entity/Q3487603', 'http://www.wikidata.org/entity/Q3490904', 'http://www.wikidata.org/entity/Q3491028', 'http://www.wikidata.org/entity/Q3493957', 'http://www.wikidata.org/entity/Q3496696', 'http://www.wikidata.org/entity/Q3499131', 'http://www.wikidata.org/entity/Q3499698', 'http://www.wikidata.org/entity/Q3501612', 'http://www.wikidata.org/entity/Q3501632', 'http://www.wikidata.org/entity/Q3501931', 'http://www.wikidata.org/entity/Q3502159', 'http://www.wikidata.org/entity/Q3502168', 'http://www.wikidata.org/entity/Q3507031', 'http://www.wikidata.org/entity/Q3509934', 'http://www.wikidata.org/entity/Q3510330', 'http://www.wikidata.org/entity/Q3524042', 'http://www.wikidata.org/entity/Q3524133', 'http://www.wikidata.org/entity/Q3524338', 'http://www.wikidata.org/entity/Q3524879', 'http://www.wikidata.org/entity/Q3525440', 'http://www.wikidata.org/entity/Q3525541', 'http://www.wikidata.org/entity/Q3526314', 'http://www.wikidata.org/entity/Q3528538', 'http://www.wikidata.org/entity/Q3531837', 'http://www.wikidata.org/entity/Q3546129', 'http://www.wikidata.org/entity/Q3553639', 'http://www.wikidata.org/entity/Q3554303', 'http://www.wikidata.org/entity/Q3559331', 'http://www.wikidata.org/entity/Q3559500', 'http://www.wikidata.org/entity/Q3559704', 'http://www.wikidata.org/entity/Q3560613', 'http://www.wikidata.org/entity/Q3560763', 'http://www.wikidata.org/entity/Q3560765', 'http://www.wikidata.org/entity/Q3560786', 'http://www.wikidata.org/entity/Q3564263', 'http://www.wikidata.org/entity/Q3568517', 'http://www.wikidata.org/entity/Q3570677', 'http://www.wikidata.org/entity/Q3571312', 'http://www.wikidata.org/entity/Q3571488', 'http://www.wikidata.org/entity/Q3571636', 'http://www.wikidata.org/entity/Q3571715', 'http://www.wikidata.org/entity/Q3572075', 'http://www.wikidata.org/entity/Q3167155', 'http://www.wikidata.org/entity/Q3167727', 'http://www.wikidata.org/entity/Q3168582', 'http://www.wikidata.org/entity/Q3169571', 'http://www.wikidata.org/entity/Q3172192', 'http://www.wikidata.org/entity/Q3175995', 'http://www.wikidata.org/entity/Q3177299', 'http://www.wikidata.org/entity/Q3179504', 'http://www.wikidata.org/entity/Q3183340', 'http://www.wikidata.org/entity/Q3183446', 'http://www.wikidata.org/entity/Q3186659', 'http://www.wikidata.org/entity/Q3187377', 'http://www.wikidata.org/entity/Q3187992', 'http://www.wikidata.org/entity/Q3188041', 'http://www.wikidata.org/entity/Q3188398', 'http://www.wikidata.org/entity/Q3189178', 'http://www.wikidata.org/entity/Q3189177', 'http://www.wikidata.org/entity/Q3189336', 'http://www.wikidata.org/entity/Q3189404', 'http://www.wikidata.org/entity/Q3189443', 'http://www.wikidata.org/entity/Q3189609', 'http://www.wikidata.org/entity/Q3189742', 'http://www.wikidata.org/entity/Q3189767', 'http://www.wikidata.org/entity/Q3190771', 'http://www.wikidata.org/entity/Q3190798', 'http://www.wikidata.org/entity/Q3190813', 'http://www.wikidata.org/entity/Q3190930', 'http://www.wikidata.org/entity/Q3190951', 'http://www.wikidata.org/entity/Q3191763', 'http://www.wikidata.org/entity/Q3193288', 'http://www.wikidata.org/entity/Q3193534', 'http://www.wikidata.org/entity/Q3194135', 'http://www.wikidata.org/entity/Q3195422', 'http://www.wikidata.org/entity/Q3199715', 'http://www.wikidata.org/entity/Q3217852', 'http://www.wikidata.org/entity/Q3218807', 'http://www.wikidata.org/entity/Q3218871', 'http://www.wikidata.org/entity/Q3219012', 'http://www.wikidata.org/entity/Q3219059', 'http://www.wikidata.org/entity/Q3219309', 'http://www.wikidata.org/entity/Q3219398', 'http://www.wikidata.org/entity/Q3219562', 'http://www.wikidata.org/entity/Q3236709', 'http://www.wikidata.org/entity/Q3260960', 'http://www.wikidata.org/entity/Q3261799', 'http://www.wikidata.org/entity/Q3295523', 'http://www.wikidata.org/entity/Q3302043', 'http://www.wikidata.org/entity/Q3302287', 'http://www.wikidata.org/entity/Q3304488', 'http://www.wikidata.org/entity/Q3307810', 'http://www.wikidata.org/entity/Q3310333', 'http://www.wikidata.org/entity/Q3318777', 'http://www.wikidata.org/entity/Q3320039', 'http://www.wikidata.org/entity/Q3328126', 'http://www.wikidata.org/entity/Q3332864', 'http://www.wikidata.org/entity/Q3332889', 'http://www.wikidata.org/entity/Q3333007', 'http://www.wikidata.org/entity/Q3334962', 'http://www.wikidata.org/entity/Q3336312', 'http://www.wikidata.org/entity/Q3336327', 'http://www.wikidata.org/entity/Q3336596', 'http://www.wikidata.org/entity/Q3336687', 'http://www.wikidata.org/entity/Q3337401', 'http://www.wikidata.org/entity/Q3340838', 'http://www.wikidata.org/entity/Q3341887', 'http://www.wikidata.org/entity/Q3345738', 'http://www.wikidata.org/entity/Q3350865', 'http://www.wikidata.org/entity/Q3350872', 'http://www.wikidata.org/entity/Q3350894', 'http://www.wikidata.org/entity/Q3350946', 'http://www.wikidata.org/entity/Q3351052', 'http://www.wikidata.org/entity/Q3351159', 'http://www.wikidata.org/entity/Q3351366', 'http://www.wikidata.org/entity/Q3357220', 'http://www.wikidata.org/entity/Q3360244', 'http://www.wikidata.org/entity/Q3367253', 'http://www.wikidata.org/entity/Q3367605', 'http://www.wikidata.org/entity/Q3369259', 'http://www.wikidata.org/entity/Q3369794', 'http://www.wikidata.org/entity/Q3370129', 'http://www.wikidata.org/entity/Q3372050', 'http://www.wikidata.org/entity/Q3372700', 'http://www.wikidata.org/entity/Q3379514', 'http://www.wikidata.org/entity/Q3380140', 'http://www.wikidata.org/entity/Q3380459', 'http://www.wikidata.org/entity/Q3380724', 'http://www.wikidata.org/entity/Q3381025', 'http://www.wikidata.org/entity/Q3574241', 'http://www.wikidata.org/entity/Q3587868', 'http://www.wikidata.org/entity/Q3587895', 'http://www.wikidata.org/entity/Q3588128', 'http://www.wikidata.org/entity/Q3591058', 'http://www.wikidata.org/entity/Q3591116', 'http://www.wikidata.org/entity/Q3591178', 'http://www.wikidata.org/entity/Q3591218', 'http://www.wikidata.org/entity/Q3629793', 'http://www.wikidata.org/entity/Q3631286', 'http://www.wikidata.org/entity/Q3746506', 'http://www.wikidata.org/entity/Q3779575', 'http://www.wikidata.org/entity/Q3870666', 'http://www.wikidata.org/entity/Q3877584', 'http://www.wikidata.org/entity/Q4148452', 'http://www.wikidata.org/entity/Q4241733', 'http://www.wikidata.org/entity/Q4354080', 'http://www.wikidata.org/entity/Q4755213', 'http://www.wikidata.org/entity/Q4762779', 'http://www.wikidata.org/entity/Q4935048', 'http://www.wikidata.org/entity/Q4952220', 'http://www.wikidata.org/entity/Q4990908', 'http://www.wikidata.org/entity/Q5042824', 'http://www.wikidata.org/entity/Q5237979', 'http://www.wikidata.org/entity/Q5362676', 'http://www.wikidata.org/entity/Q5373267', 'http://www.wikidata.org/entity/Q5401360', 'http://www.wikidata.org/entity/Q6059988', 'http://www.wikidata.org/entity/Q6124331', 'http://www.wikidata.org/entity/Q6134698', 'http://www.wikidata.org/entity/Q6147154', 'http://www.wikidata.org/entity/Q6171367', 'http://www.wikidata.org/entity/Q6506240', 'http://www.wikidata.org/entity/Q6531996', 'http://www.wikidata.org/entity/Q6707641', 'http://www.wikidata.org/entity/Q6762063', 'http://www.wikidata.org/entity/Q6764204', 'http://www.wikidata.org/entity/Q15918277', 'http://www.wikidata.org/entity/Q15965422', 'http://www.wikidata.org/entity/Q15973722', 'http://www.wikidata.org/entity/Q15973762', 'http://www.wikidata.org/entity/Q15973972', 'http://www.wikidata.org/entity/Q16028184', 'http://www.wikidata.org/entity/Q16028908', 'http://www.wikidata.org/entity/Q16139430', 'http://www.wikidata.org/entity/Q16148448', 'http://www.wikidata.org/entity/Q16185204', 'http://www.wikidata.org/entity/Q16214144', 'http://www.wikidata.org/entity/Q16234314', 'http://www.wikidata.org/entity/Q16298767', 'http://www.wikidata.org/entity/Q16606238', 'http://www.wikidata.org/entity/Q16635855', 'http://www.wikidata.org/entity/Q16637019', 'http://www.wikidata.org/entity/Q16663967', 'http://www.wikidata.org/entity/Q16664826', 'http://www.wikidata.org/entity/Q16668611', 'http://www.wikidata.org/entity/Q16670062', 'http://www.wikidata.org/entity/Q16675475', 'http://www.wikidata.org/entity/Q16677437', 'http://www.wikidata.org/entity/Q16683362', 'http://www.wikidata.org/entity/Q16864683', 'http://www.wikidata.org/entity/Q16890088', 'http://www.wikidata.org/entity/Q8046623', 'http://www.wikidata.org/entity/Q10281007', 'http://www.wikidata.org/entity/Q11340779', 'http://www.wikidata.org/entity/Q11340983', 'http://www.wikidata.org/entity/Q11439218', 'http://www.wikidata.org/entity/Q11566520', 'http://www.wikidata.org/entity/Q11880764', 'http://www.wikidata.org/entity/Q11918689', 'http://www.wikidata.org/entity/Q12403796', 'http://www.wikidata.org/entity/Q12410606', 'http://www.wikidata.org/entity/Q12476703', 'http://www.wikidata.org/entity/Q12877474', 'http://www.wikidata.org/entity/Q14928140', 'http://www.wikidata.org/entity/Q15069885', 'http://www.wikidata.org/entity/Q15069904', 'http://www.wikidata.org/entity/Q15069912', 'http://www.wikidata.org/entity/Q15069936', 'http://www.wikidata.org/entity/Q15079800', 'http://www.wikidata.org/entity/Q15122314', 'http://www.wikidata.org/entity/Q15220779', 'http://www.wikidata.org/entity/Q15433473', 'http://www.wikidata.org/entity/Q15499532', 'http://www.wikidata.org/entity/Q15550353', 'http://www.wikidata.org/entity/Q15726286', 'http://www.wikidata.org/entity/Q17175096', 'http://www.wikidata.org/entity/Q17220253', 'http://www.wikidata.org/entity/Q17305574', 'http://www.wikidata.org/entity/Q17350573', 'http://www.wikidata.org/entity/Q17354467', 'http://www.wikidata.org/entity/Q17485828', 'http://www.wikidata.org/entity/Q17496932', 'http://www.wikidata.org/entity/Q17497016', 'http://www.wikidata.org/entity/Q17497099', 'http://www.wikidata.org/entity/Q17521625', 'http://www.wikidata.org/entity/Q17521736', 'http://www.wikidata.org/entity/Q17635663', 'http://www.wikidata.org/entity/Q17906915', 'http://www.wikidata.org/entity/Q18179234', 'http://www.wikidata.org/entity/Q18205868', 'http://www.wikidata.org/entity/Q18326681', 'http://www.wikidata.org/entity/Q18548875', 'http://www.wikidata.org/entity/Q18684211', 'http://www.wikidata.org/entity/Q18684672', 'http://www.wikidata.org/entity/Q18708080', 'http://www.wikidata.org/entity/Q18744719', 'http://www.wikidata.org/entity/Q18771528', 'http://www.wikidata.org/entity/Q19248606', 'http://www.wikidata.org/entity/Q19614596', 'http://www.wikidata.org/entity/Q19630122', 'http://www.wikidata.org/entity/Q19849298', 'http://www.wikidata.org/entity/Q19945041', 'http://www.wikidata.org/entity/Q20049091', 'http://www.wikidata.org/entity/Q20089366', 'http://www.wikidata.org/entity/Q20089595', 'http://www.wikidata.org/entity/Q20533059', 'http://www.wikidata.org/entity/Q20670730', 'http://www.wikidata.org/entity/Q20723033', 'http://www.wikidata.org/entity/Q20723775', 'http://www.wikidata.org/entity/Q20723802', 'http://www.wikidata.org/entity/Q20795525', 'http://www.wikidata.org/entity/Q20807834', 'http://www.wikidata.org/entity/Q20814082', 'http://www.wikidata.org/entity/Q20851318', 'http://www.wikidata.org/entity/Q20991589', 'http://www.wikidata.org/entity/Q21032082', 'http://www.wikidata.org/entity/Q21208248', 'http://www.wikidata.org/entity/Q21634529', 'http://www.wikidata.org/entity/Q21995180', 'http://www.wikidata.org/entity/Q22054967', 'http://www.wikidata.org/entity/Q22210998', 'http://www.wikidata.org/entity/Q22212949', 'http://www.wikidata.org/entity/Q22213111', 'http://www.wikidata.org/entity/Q22295307', 'http://www.wikidata.org/entity/Q22920409', 'http://www.wikidata.org/entity/Q22955536', 'http://www.wikidata.org/entity/Q23013325', 'http://www.wikidata.org/entity/Q23021126', 'http://www.wikidata.org/entity/Q23199078', 'http://www.wikidata.org/entity/Q23774054', 'http://www.wikidata.org/entity/Q23774056', 'http://www.wikidata.org/entity/Q23815602', 'http://www.wikidata.org/entity/Q23816434', 'http://www.wikidata.org/entity/Q24059384', 'http://www.wikidata.org/entity/Q24258703', 'http://www.wikidata.org/entity/Q24508966', 'http://www.wikidata.org/entity/Q24734684', 'http://www.wikidata.org/entity/Q24734714', 'http://www.wikidata.org/entity/Q24904965', 'http://www.wikidata.org/entity/Q24940525', 'http://www.wikidata.org/entity/Q24950523', 'http://www.wikidata.org/entity/Q25391247', 'http://www.wikidata.org/entity/Q25433396', 'http://www.wikidata.org/entity/Q25975683', 'http://www.wikidata.org/entity/Q26036599', 'http://www.wikidata.org/entity/Q26213701', 'http://www.wikidata.org/entity/Q26214506', 'http://www.wikidata.org/entity/Q26221422', 'http://www.wikidata.org/entity/Q26259931', 'http://www.wikidata.org/entity/Q42342049', 'http://www.wikidata.org/entity/Q44738387', 'http://www.wikidata.org/entity/Q46565165', 'http://www.wikidata.org/entity/Q46993553', 'http://www.wikidata.org/entity/Q47005212', 'http://www.wikidata.org/entity/Q47500491', 'http://www.wikidata.org/entity/Q48102215', 'http://www.wikidata.org/entity/Q26761757', 'http://www.wikidata.org/entity/Q27078155', 'http://www.wikidata.org/entity/Q27450418', 'http://www.wikidata.org/entity/Q27535243', 'http://www.wikidata.org/entity/Q27535244', 'http://www.wikidata.org/entity/Q27535245', 'http://www.wikidata.org/entity/Q27535249', 'http://www.wikidata.org/entity/Q27535456', 'http://www.wikidata.org/entity/Q27704881', 'http://www.wikidata.org/entity/Q27834850', 'http://www.wikidata.org/entity/Q27956008', 'http://www.wikidata.org/entity/Q27997862', 'http://www.wikidata.org/entity/Q28032626', 'http://www.wikidata.org/entity/Q28105132', 'http://www.wikidata.org/entity/Q28496113', 'http://www.wikidata.org/entity/Q28496356', 'http://www.wikidata.org/entity/Q28497094', 'http://www.wikidata.org/entity/Q28703138', 'http://www.wikidata.org/entity/Q28755521', 'http://www.wikidata.org/entity/Q28872725', 'http://www.wikidata.org/entity/Q28912361', 'http://www.wikidata.org/entity/Q28950079', 'http://www.wikidata.org/entity/Q28961130', 'http://www.wikidata.org/entity/Q29906325', 'http://www.wikidata.org/entity/Q29999823', 'http://www.wikidata.org/entity/Q36243177', 'http://www.wikidata.org/entity/Q39072982', 'http://www.wikidata.org/entity/Q48753499', 'http://www.wikidata.org/entity/Q48758094', 'http://www.wikidata.org/entity/Q50328133', 'http://www.wikidata.org/entity/Q50359273', 'http://www.wikidata.org/entity/Q50395972', 'http://www.wikidata.org/entity/Q50400107', 'http://www.wikidata.org/entity/Q50826394', 'http://www.wikidata.org/entity/Q50826412', 'http://www.wikidata.org/entity/Q51436213', 'http://www.wikidata.org/entity/Q52063093', 'http://www.wikidata.org/entity/Q52230714', 'http://www.wikidata.org/entity/Q52722000', 'http://www.wikidata.org/entity/Q54566975', 'http://www.wikidata.org/entity/Q55315022', 'http://www.wikidata.org/entity/Q55598878', 'http://www.wikidata.org/entity/Q56045005', 'http://www.wikidata.org/entity/Q56318250', 'http://www.wikidata.org/entity/Q56696354', 'http://www.wikidata.org/entity/Q59232977', 'http://www.wikidata.org/entity/Q59265018', 'http://www.wikidata.org/entity/Q60465877', 'http://www.wikidata.org/entity/Q60582788', 'http://www.wikidata.org/entity/Q60832704', 'http://www.wikidata.org/entity/Q61107517', 'http://www.wikidata.org/entity/Q61107643', 'http://www.wikidata.org/entity/Q61314513', 'http://www.wikidata.org/entity/Q61763049', 'http://www.wikidata.org/entity/Q61987083', 'http://www.wikidata.org/entity/Q62083629', 'http://www.wikidata.org/entity/Q62567287', 'http://www.wikidata.org/entity/Q64031670', 'http://www.wikidata.org/entity/Q92958299', 'http://www.wikidata.org/entity/Q93598152', 'http://www.wikidata.org/entity/Q94536119', 'http://www.wikidata.org/entity/Q95209786', 'http://www.wikidata.org/entity/Q95274672', 'http://www.wikidata.org/entity/Q95278461', 'http://www.wikidata.org/entity/Q95487176', 'http://www.wikidata.org/entity/Q95675136', 'http://www.wikidata.org/entity/Q95775193', 'http://www.wikidata.org/entity/Q95819872', 'http://www.wikidata.org/entity/Q95848294', 'http://www.wikidata.org/entity/Q96578993', 'http://www.wikidata.org/entity/Q97198763', 'http://www.wikidata.org/entity/Q98065869', 'http://www.wikidata.org/entity/Q98820234', 'http://www.wikidata.org/entity/Q98878337', 'http://www.wikidata.org/entity/Q100379415', 'http://www.wikidata.org/entity/Q64362032', 'http://www.wikidata.org/entity/Q65115565', 'http://www.wikidata.org/entity/Q65134137', 'http://www.wikidata.org/entity/Q65157310', 'http://www.wikidata.org/entity/Q65159578', 'http://www.wikidata.org/entity/Q65165189', 'http://www.wikidata.org/entity/Q65321833', 'http://www.wikidata.org/entity/Q66203085', 'http://www.wikidata.org/entity/Q67086186', 'http://www.wikidata.org/entity/Q68056625', 'http://www.wikidata.org/entity/Q69789609', 'http://www.wikidata.org/entity/Q72726124', 'http://www.wikidata.org/entity/Q72726577', 'http://www.wikidata.org/entity/Q73235268', 'http://www.wikidata.org/entity/Q73578724', 'http://www.wikidata.org/entity/Q74677363', 'http://www.wikidata.org/entity/Q75619296', 'http://www.wikidata.org/entity/Q77329762', 'http://www.wikidata.org/entity/Q81655239', 'http://www.wikidata.org/entity/Q82232815', 'http://www.wikidata.org/entity/Q83689747', 'http://www.wikidata.org/entity/Q85853359', 'http://www.wikidata.org/entity/Q85926606', 'http://www.wikidata.org/entity/Q87211691', 'http://www.wikidata.org/entity/Q87712172', 'http://www.wikidata.org/entity/Q88009745', 'http://www.wikidata.org/entity/Q88145152', 'http://www.wikidata.org/entity/Q88886118', 'http://www.wikidata.org/entity/Q89513915', 'http://www.wikidata.org/entity/Q104212289', 'http://www.wikidata.org/entity/Q104668247', 'http://www.wikidata.org/entity/Q104786071', 'http://www.wikidata.org/entity/Q104891505', 'http://www.wikidata.org/entity/Q105316284', 'http://www.wikidata.org/entity/Q105542326', 'http://www.wikidata.org/entity/Q105966380', 'http://www.wikidata.org/entity/Q106070570', 'http://www.wikidata.org/entity/Q106427379', 'http://www.wikidata.org/entity/Q106866519', 'http://www.wikidata.org/entity/Q107167527', 'http://www.wikidata.org/entity/Q107303277', 'http://www.wikidata.org/entity/Q107425269', 'http://www.wikidata.org/entity/Q107488685', 'http://www.wikidata.org/entity/Q108028328', 'http://www.wikidata.org/entity/Q108770226', 'http://www.wikidata.org/entity/Q108854933', 'http://www.wikidata.org/entity/Q109316791', 'http://www.wikidata.org/entity/Q109867332', 'http://www.wikidata.org/entity/Q109967909', 'http://www.wikidata.org/entity/Q110028246', 'http://www.wikidata.org/entity/Q110277773', 'http://www.wikidata.org/entity/Q110877620', 'http://www.wikidata.org/entity/Q110907526', 'http://www.wikidata.org/entity/Q110950442', 'http://www.wikidata.org/entity/Q111131087', 'http://www.wikidata.org/entity/Q111131697', 'http://www.wikidata.org/entity/Q111357140', 'http://www.wikidata.org/entity/Q111450731', 'http://www.wikidata.org/entity/Q111472381', 'http://www.wikidata.org/entity/Q111530496', 'http://www.wikidata.org/entity/Q112066218', 'http://www.wikidata.org/entity/Q112606279', 'http://www.wikidata.org/entity/Q112933044', 'http://www.wikidata.org/entity/Q113005440', 'http://www.wikidata.org/entity/Q113210513', 'http://www.wikidata.org/entity/Q113367525', 'http://www.wikidata.org/entity/Q113567066', 'http://www.wikidata.org/entity/Q114066008', 'http://www.wikidata.org/entity/Q114333221', 'http://www.wikidata.org/entity/Q115470400', 'http://www.wikidata.org/entity/Q115618296', 'http://www.wikidata.org/entity/Q115663709', 'http://www.wikidata.org/entity/Q116790429', 'http://www.wikidata.org/entity/Q117011287', 'http://www.wikidata.org/entity/Q121297849', 'http://www.wikidata.org/entity/Q123009687', 'http://www.wikidata.org/entity/Q123859944', 'http://www.wikidata.org/entity/Q124338218', 'http://www.wikidata.org/entity/Q124338520', 'http://www.wikidata.org/entity/Q124359207', 'http://www.wikidata.org/entity/Q124796143', 'http://www.wikidata.org/entity/Q124811132', 'http://www.wikidata.org/entity/Q127513692', 'http://www.wikidata.org/entity/Q130396134', 'http://www.wikidata.org/entity/Q130619136']</t>
+          <t>['http://www.wikidata.org/entity/Q270005', 'http://www.wikidata.org/entity/Q272804', 'http://www.wikidata.org/entity/Q273342', 'http://www.wikidata.org/entity/Q273770', 'http://www.wikidata.org/entity/Q274656', 'http://www.wikidata.org/entity/Q275346', 'http://www.wikidata.org/entity/Q191644', 'http://www.wikidata.org/entity/Q228891', 'http://www.wikidata.org/entity/Q234890', 'http://www.wikidata.org/entity/Q242914', 'http://www.wikidata.org/entity/Q249794', 'http://www.wikidata.org/entity/Q258139', 'http://www.wikidata.org/entity/Q263178', 'http://www.wikidata.org/entity/Q117147', 'http://www.wikidata.org/entity/Q28463', 'http://www.wikidata.org/entity/Q45827', 'http://www.wikidata.org/entity/Q958458', 'http://www.wikidata.org/entity/Q959087', 'http://www.wikidata.org/entity/Q964873', 'http://www.wikidata.org/entity/Q973814', 'http://www.wikidata.org/entity/Q982784', 'http://www.wikidata.org/entity/Q1093577', 'http://www.wikidata.org/entity/Q658220', 'http://www.wikidata.org/entity/Q658664', 'http://www.wikidata.org/entity/Q678957', 'http://www.wikidata.org/entity/Q681451', 'http://www.wikidata.org/entity/Q721337', 'http://www.wikidata.org/entity/Q732109', 'http://www.wikidata.org/entity/Q732668', 'http://www.wikidata.org/entity/Q778451', 'http://www.wikidata.org/entity/Q824767', 'http://www.wikidata.org/entity/Q859051', 'http://www.wikidata.org/entity/Q899042', 'http://www.wikidata.org/entity/Q928295', 'http://www.wikidata.org/entity/Q932338', 'http://www.wikidata.org/entity/Q947150', 'http://www.wikidata.org/entity/Q949296', 'http://www.wikidata.org/entity/Q953208', 'http://www.wikidata.org/entity/Q954028', 'http://www.wikidata.org/entity/Q1150229', 'http://www.wikidata.org/entity/Q1187314', 'http://www.wikidata.org/entity/Q1232804', 'http://www.wikidata.org/entity/Q1306771', 'http://www.wikidata.org/entity/Q1338400', 'http://www.wikidata.org/entity/Q1368173', 'http://www.wikidata.org/entity/Q1384928', 'http://www.wikidata.org/entity/Q1394368', 'http://www.wikidata.org/entity/Q1609167', 'http://www.wikidata.org/entity/Q1635512', 'http://www.wikidata.org/entity/Q1661394', 'http://www.wikidata.org/entity/Q1677379', 'http://www.wikidata.org/entity/Q1684962', 'http://www.wikidata.org/entity/Q289032', 'http://www.wikidata.org/entity/Q289594', 'http://www.wikidata.org/entity/Q291693', 'http://www.wikidata.org/entity/Q297794', 'http://www.wikidata.org/entity/Q326837', 'http://www.wikidata.org/entity/Q328256', 'http://www.wikidata.org/entity/Q345755', 'http://www.wikidata.org/entity/Q346857', 'http://www.wikidata.org/entity/Q391297', 'http://www.wikidata.org/entity/Q434074', 'http://www.wikidata.org/entity/Q440348', 'http://www.wikidata.org/entity/Q446842', 'http://www.wikidata.org/entity/Q451109', 'http://www.wikidata.org/entity/Q453691', 'http://www.wikidata.org/entity/Q457722', 'http://www.wikidata.org/entity/Q462238', 'http://www.wikidata.org/entity/Q464138', 'http://www.wikidata.org/entity/Q465695', 'http://www.wikidata.org/entity/Q466926', 'http://www.wikidata.org/entity/Q508199', 'http://www.wikidata.org/entity/Q509777', 'http://www.wikidata.org/entity/Q510408', 'http://www.wikidata.org/entity/Q511489', 'http://www.wikidata.org/entity/Q527437', 'http://www.wikidata.org/entity/Q533363', 'http://www.wikidata.org/entity/Q533768', 'http://www.wikidata.org/entity/Q549356', 'http://www.wikidata.org/entity/Q573679', 'http://www.wikidata.org/entity/Q586054', 'http://www.wikidata.org/entity/Q586641', 'http://www.wikidata.org/entity/Q642952', 'http://www.wikidata.org/entity/Q2830233', 'http://www.wikidata.org/entity/Q2830311', 'http://www.wikidata.org/entity/Q2830742', 'http://www.wikidata.org/entity/Q2833279', 'http://www.wikidata.org/entity/Q2833300', 'http://www.wikidata.org/entity/Q2833324', 'http://www.wikidata.org/entity/Q2833696', 'http://www.wikidata.org/entity/Q2833905', 'http://www.wikidata.org/entity/Q2833957', 'http://www.wikidata.org/entity/Q2835280', 'http://www.wikidata.org/entity/Q2836904', 'http://www.wikidata.org/entity/Q2837301', 'http://www.wikidata.org/entity/Q2840673', 'http://www.wikidata.org/entity/Q2842345', 'http://www.wikidata.org/entity/Q2842675', 'http://www.wikidata.org/entity/Q2844973', 'http://www.wikidata.org/entity/Q2845710', 'http://www.wikidata.org/entity/Q2850927', 'http://www.wikidata.org/entity/Q2850947', 'http://www.wikidata.org/entity/Q2850968', 'http://www.wikidata.org/entity/Q2851068', 'http://www.wikidata.org/entity/Q2851215', 'http://www.wikidata.org/entity/Q2851275', 'http://www.wikidata.org/entity/Q2851292', 'http://www.wikidata.org/entity/Q2852954', 'http://www.wikidata.org/entity/Q2852965', 'http://www.wikidata.org/entity/Q2853664', 'http://www.wikidata.org/entity/Q2854252', 'http://www.wikidata.org/entity/Q2862330', 'http://www.wikidata.org/entity/Q2863424', 'http://www.wikidata.org/entity/Q2865266', 'http://www.wikidata.org/entity/Q2870702', 'http://www.wikidata.org/entity/Q2874763', 'http://www.wikidata.org/entity/Q2874772', 'http://www.wikidata.org/entity/Q2874899', 'http://www.wikidata.org/entity/Q2897933', 'http://www.wikidata.org/entity/Q2899666', 'http://www.wikidata.org/entity/Q2906106', 'http://www.wikidata.org/entity/Q2910907', 'http://www.wikidata.org/entity/Q2925397', 'http://www.wikidata.org/entity/Q2926951', 'http://www.wikidata.org/entity/Q2928235', 'http://www.wikidata.org/entity/Q2934882', 'http://www.wikidata.org/entity/Q2934970', 'http://www.wikidata.org/entity/Q2935061', 'http://www.wikidata.org/entity/Q2938927', 'http://www.wikidata.org/entity/Q2939958', 'http://www.wikidata.org/entity/Q2940043', 'http://www.wikidata.org/entity/Q2940071', 'http://www.wikidata.org/entity/Q2942063', 'http://www.wikidata.org/entity/Q2942211', 'http://www.wikidata.org/entity/Q2947625', 'http://www.wikidata.org/entity/Q1752546', 'http://www.wikidata.org/entity/Q1775644', 'http://www.wikidata.org/entity/Q1807890', 'http://www.wikidata.org/entity/Q1972918', 'http://www.wikidata.org/entity/Q1983710', 'http://www.wikidata.org/entity/Q2079864', 'http://www.wikidata.org/entity/Q2089072', 'http://www.wikidata.org/entity/Q2115400', 'http://www.wikidata.org/entity/Q2154406', 'http://www.wikidata.org/entity/Q2255366', 'http://www.wikidata.org/entity/Q2258941', 'http://www.wikidata.org/entity/Q2277797', 'http://www.wikidata.org/entity/Q2310203', 'http://www.wikidata.org/entity/Q2334488', 'http://www.wikidata.org/entity/Q2357605', 'http://www.wikidata.org/entity/Q2357740', 'http://www.wikidata.org/entity/Q2360373', 'http://www.wikidata.org/entity/Q2367563', 'http://www.wikidata.org/entity/Q2368282', 'http://www.wikidata.org/entity/Q2378488', 'http://www.wikidata.org/entity/Q2378986', 'http://www.wikidata.org/entity/Q2382697', 'http://www.wikidata.org/entity/Q2385704', 'http://www.wikidata.org/entity/Q2390803', 'http://www.wikidata.org/entity/Q2396606', 'http://www.wikidata.org/entity/Q2597731', 'http://www.wikidata.org/entity/Q2599715', 'http://www.wikidata.org/entity/Q2625575', 'http://www.wikidata.org/entity/Q2643776', 'http://www.wikidata.org/entity/Q2681916', 'http://www.wikidata.org/entity/Q2744903', 'http://www.wikidata.org/entity/Q2756117', 'http://www.wikidata.org/entity/Q2776777', 'http://www.wikidata.org/entity/Q2825177', 'http://www.wikidata.org/entity/Q2825427', 'http://www.wikidata.org/entity/Q2825425', 'http://www.wikidata.org/entity/Q2826475', 'http://www.wikidata.org/entity/Q2826970', 'http://www.wikidata.org/entity/Q2960872', 'http://www.wikidata.org/entity/Q2960927', 'http://www.wikidata.org/entity/Q2960975', 'http://www.wikidata.org/entity/Q2962583', 'http://www.wikidata.org/entity/Q2964178', 'http://www.wikidata.org/entity/Q2965542', 'http://www.wikidata.org/entity/Q2965955', 'http://www.wikidata.org/entity/Q2966277', 'http://www.wikidata.org/entity/Q2966335', 'http://www.wikidata.org/entity/Q2975467', 'http://www.wikidata.org/entity/Q2975505', 'http://www.wikidata.org/entity/Q2980615', 'http://www.wikidata.org/entity/Q2980691', 'http://www.wikidata.org/entity/Q2982536', 'http://www.wikidata.org/entity/Q2997291', 'http://www.wikidata.org/entity/Q3008655', 'http://www.wikidata.org/entity/Q3008962', 'http://www.wikidata.org/entity/Q3009700', 'http://www.wikidata.org/entity/Q3012205', 'http://www.wikidata.org/entity/Q3012812', 'http://www.wikidata.org/entity/Q3013087', 'http://www.wikidata.org/entity/Q3018220', 'http://www.wikidata.org/entity/Q3021856', 'http://www.wikidata.org/entity/Q3022764', 'http://www.wikidata.org/entity/Q3035449', 'http://www.wikidata.org/entity/Q3037216', 'http://www.wikidata.org/entity/Q3043016', 'http://www.wikidata.org/entity/Q3050822', 'http://www.wikidata.org/entity/Q3052584', 'http://www.wikidata.org/entity/Q3052809', 'http://www.wikidata.org/entity/Q3052932', 'http://www.wikidata.org/entity/Q3052966', 'http://www.wikidata.org/entity/Q3058913', 'http://www.wikidata.org/entity/Q3066875', 'http://www.wikidata.org/entity/Q3072706', 'http://www.wikidata.org/entity/Q3073457', 'http://www.wikidata.org/entity/Q3073972', 'http://www.wikidata.org/entity/Q3082065', 'http://www.wikidata.org/entity/Q3082918', 'http://www.wikidata.org/entity/Q3083654', 'http://www.wikidata.org/entity/Q3084265', 'http://www.wikidata.org/entity/Q3085194', 'http://www.wikidata.org/entity/Q3086940', 'http://www.wikidata.org/entity/Q3089806', 'http://www.wikidata.org/entity/Q3089922', 'http://www.wikidata.org/entity/Q3099901', 'http://www.wikidata.org/entity/Q3101099', 'http://www.wikidata.org/entity/Q3101150', 'http://www.wikidata.org/entity/Q3105262', 'http://www.wikidata.org/entity/Q3106179', 'http://www.wikidata.org/entity/Q3106216', 'http://www.wikidata.org/entity/Q3106353', 'http://www.wikidata.org/entity/Q3108676', 'http://www.wikidata.org/entity/Q3118556', 'http://www.wikidata.org/entity/Q3119795', 'http://www.wikidata.org/entity/Q3120900', 'http://www.wikidata.org/entity/Q3124132', 'http://www.wikidata.org/entity/Q3134549', 'http://www.wikidata.org/entity/Q3134613', 'http://www.wikidata.org/entity/Q3134633', 'http://www.wikidata.org/entity/Q3144827', 'http://www.wikidata.org/entity/Q3154363', 'http://www.wikidata.org/entity/Q3155039', 'http://www.wikidata.org/entity/Q3156516', 'http://www.wikidata.org/entity/Q3350946', 'http://www.wikidata.org/entity/Q3351052', 'http://www.wikidata.org/entity/Q3351159', 'http://www.wikidata.org/entity/Q3351366', 'http://www.wikidata.org/entity/Q3357220', 'http://www.wikidata.org/entity/Q3360244', 'http://www.wikidata.org/entity/Q3367253', 'http://www.wikidata.org/entity/Q3367605', 'http://www.wikidata.org/entity/Q3164195', 'http://www.wikidata.org/entity/Q3165194', 'http://www.wikidata.org/entity/Q3165613', 'http://www.wikidata.org/entity/Q3167155', 'http://www.wikidata.org/entity/Q3167727', 'http://www.wikidata.org/entity/Q3168582', 'http://www.wikidata.org/entity/Q3169571', 'http://www.wikidata.org/entity/Q3172192', 'http://www.wikidata.org/entity/Q3175995', 'http://www.wikidata.org/entity/Q3177299', 'http://www.wikidata.org/entity/Q3179116', 'http://www.wikidata.org/entity/Q3179504', 'http://www.wikidata.org/entity/Q3183340', 'http://www.wikidata.org/entity/Q3186659', 'http://www.wikidata.org/entity/Q3187377', 'http://www.wikidata.org/entity/Q3187992', 'http://www.wikidata.org/entity/Q3188041', 'http://www.wikidata.org/entity/Q3188398', 'http://www.wikidata.org/entity/Q3189178', 'http://www.wikidata.org/entity/Q3189177', 'http://www.wikidata.org/entity/Q3189336', 'http://www.wikidata.org/entity/Q3189404', 'http://www.wikidata.org/entity/Q3189443', 'http://www.wikidata.org/entity/Q3189609', 'http://www.wikidata.org/entity/Q3189742', 'http://www.wikidata.org/entity/Q3189767', 'http://www.wikidata.org/entity/Q3190771', 'http://www.wikidata.org/entity/Q3190798', 'http://www.wikidata.org/entity/Q3190813', 'http://www.wikidata.org/entity/Q3190930', 'http://www.wikidata.org/entity/Q3190951', 'http://www.wikidata.org/entity/Q3191763', 'http://www.wikidata.org/entity/Q3193288', 'http://www.wikidata.org/entity/Q3193534', 'http://www.wikidata.org/entity/Q3194135', 'http://www.wikidata.org/entity/Q3195422', 'http://www.wikidata.org/entity/Q3199715', 'http://www.wikidata.org/entity/Q3217852', 'http://www.wikidata.org/entity/Q3218807', 'http://www.wikidata.org/entity/Q3218871', 'http://www.wikidata.org/entity/Q3219012', 'http://www.wikidata.org/entity/Q3219059', 'http://www.wikidata.org/entity/Q3219309', 'http://www.wikidata.org/entity/Q3219398', 'http://www.wikidata.org/entity/Q3219562', 'http://www.wikidata.org/entity/Q3236709', 'http://www.wikidata.org/entity/Q3260960', 'http://www.wikidata.org/entity/Q3261799', 'http://www.wikidata.org/entity/Q3264653', 'http://www.wikidata.org/entity/Q3265243', 'http://www.wikidata.org/entity/Q3265280', 'http://www.wikidata.org/entity/Q3265286', 'http://www.wikidata.org/entity/Q3271520', 'http://www.wikidata.org/entity/Q3272811', 'http://www.wikidata.org/entity/Q3276423', 'http://www.wikidata.org/entity/Q3276523', 'http://www.wikidata.org/entity/Q3287847', 'http://www.wikidata.org/entity/Q3287856', 'http://www.wikidata.org/entity/Q3288079', 'http://www.wikidata.org/entity/Q3288369', 'http://www.wikidata.org/entity/Q3290153', 'http://www.wikidata.org/entity/Q3290563', 'http://www.wikidata.org/entity/Q3291654', 'http://www.wikidata.org/entity/Q3292487', 'http://www.wikidata.org/entity/Q3292536', 'http://www.wikidata.org/entity/Q3292718', 'http://www.wikidata.org/entity/Q3293096', 'http://www.wikidata.org/entity/Q3295523', 'http://www.wikidata.org/entity/Q3302043', 'http://www.wikidata.org/entity/Q3302287', 'http://www.wikidata.org/entity/Q3304488', 'http://www.wikidata.org/entity/Q3307810', 'http://www.wikidata.org/entity/Q3310333', 'http://www.wikidata.org/entity/Q3318777', 'http://www.wikidata.org/entity/Q3320039', 'http://www.wikidata.org/entity/Q3328126', 'http://www.wikidata.org/entity/Q3332864', 'http://www.wikidata.org/entity/Q3332889', 'http://www.wikidata.org/entity/Q3333007', 'http://www.wikidata.org/entity/Q3334962', 'http://www.wikidata.org/entity/Q3336312', 'http://www.wikidata.org/entity/Q3336327', 'http://www.wikidata.org/entity/Q3336596', 'http://www.wikidata.org/entity/Q3336687', 'http://www.wikidata.org/entity/Q3337401', 'http://www.wikidata.org/entity/Q3340838', 'http://www.wikidata.org/entity/Q3345738', 'http://www.wikidata.org/entity/Q3350865', 'http://www.wikidata.org/entity/Q3350872', 'http://www.wikidata.org/entity/Q3350894', 'http://www.wikidata.org/entity/Q3369259', 'http://www.wikidata.org/entity/Q3369794', 'http://www.wikidata.org/entity/Q3370129', 'http://www.wikidata.org/entity/Q3372050', 'http://www.wikidata.org/entity/Q3372700', 'http://www.wikidata.org/entity/Q3379514', 'http://www.wikidata.org/entity/Q3380140', 'http://www.wikidata.org/entity/Q3380459', 'http://www.wikidata.org/entity/Q3380724', 'http://www.wikidata.org/entity/Q3381025', 'http://www.wikidata.org/entity/Q3414184', 'http://www.wikidata.org/entity/Q3416208', 'http://www.wikidata.org/entity/Q3417301', 'http://www.wikidata.org/entity/Q3418533', 'http://www.wikidata.org/entity/Q3424859', 'http://www.wikidata.org/entity/Q3430005', 'http://www.wikidata.org/entity/Q3446459', 'http://www.wikidata.org/entity/Q3456184', 'http://www.wikidata.org/entity/Q3460757', 'http://www.wikidata.org/entity/Q3470627', 'http://www.wikidata.org/entity/Q3470798', 'http://www.wikidata.org/entity/Q3470907', 'http://www.wikidata.org/entity/Q3471173', 'http://www.wikidata.org/entity/Q3472012', 'http://www.wikidata.org/entity/Q3473304', 'http://www.wikidata.org/entity/Q3473320', 'http://www.wikidata.org/entity/Q3473425', 'http://www.wikidata.org/entity/Q3474350', 'http://www.wikidata.org/entity/Q3479289', 'http://www.wikidata.org/entity/Q3481005', 'http://www.wikidata.org/entity/Q3481029', 'http://www.wikidata.org/entity/Q3484224', 'http://www.wikidata.org/entity/Q3486692', 'http://www.wikidata.org/entity/Q3487603', 'http://www.wikidata.org/entity/Q3490904', 'http://www.wikidata.org/entity/Q3491028', 'http://www.wikidata.org/entity/Q3493957', 'http://www.wikidata.org/entity/Q3496696', 'http://www.wikidata.org/entity/Q3499131', 'http://www.wikidata.org/entity/Q3499698', 'http://www.wikidata.org/entity/Q3501612', 'http://www.wikidata.org/entity/Q3501632', 'http://www.wikidata.org/entity/Q3501931', 'http://www.wikidata.org/entity/Q3502159', 'http://www.wikidata.org/entity/Q3502168', 'http://www.wikidata.org/entity/Q3507031', 'http://www.wikidata.org/entity/Q3509934', 'http://www.wikidata.org/entity/Q3510330', 'http://www.wikidata.org/entity/Q3524042', 'http://www.wikidata.org/entity/Q3524133', 'http://www.wikidata.org/entity/Q3524338', 'http://www.wikidata.org/entity/Q3524879', 'http://www.wikidata.org/entity/Q3525440', 'http://www.wikidata.org/entity/Q3525541', 'http://www.wikidata.org/entity/Q3526314', 'http://www.wikidata.org/entity/Q3528538', 'http://www.wikidata.org/entity/Q3531837', 'http://www.wikidata.org/entity/Q3546129', 'http://www.wikidata.org/entity/Q3553639', 'http://www.wikidata.org/entity/Q3554303', 'http://www.wikidata.org/entity/Q3559331', 'http://www.wikidata.org/entity/Q3559500', 'http://www.wikidata.org/entity/Q3559704', 'http://www.wikidata.org/entity/Q3560613', 'http://www.wikidata.org/entity/Q3560763', 'http://www.wikidata.org/entity/Q3560765', 'http://www.wikidata.org/entity/Q3560786', 'http://www.wikidata.org/entity/Q3564263', 'http://www.wikidata.org/entity/Q3568517', 'http://www.wikidata.org/entity/Q3570677', 'http://www.wikidata.org/entity/Q3571312', 'http://www.wikidata.org/entity/Q3571488', 'http://www.wikidata.org/entity/Q3571636', 'http://www.wikidata.org/entity/Q3571715', 'http://www.wikidata.org/entity/Q3572075', 'http://www.wikidata.org/entity/Q3573390', 'http://www.wikidata.org/entity/Q3574241', 'http://www.wikidata.org/entity/Q3587868', 'http://www.wikidata.org/entity/Q3587895', 'http://www.wikidata.org/entity/Q3588128', 'http://www.wikidata.org/entity/Q3591058', 'http://www.wikidata.org/entity/Q3591116', 'http://www.wikidata.org/entity/Q3591178', 'http://www.wikidata.org/entity/Q3591218', 'http://www.wikidata.org/entity/Q3629793', 'http://www.wikidata.org/entity/Q3631286', 'http://www.wikidata.org/entity/Q3746506', 'http://www.wikidata.org/entity/Q3779575', 'http://www.wikidata.org/entity/Q3870666', 'http://www.wikidata.org/entity/Q3877584', 'http://www.wikidata.org/entity/Q4148452', 'http://www.wikidata.org/entity/Q4241733', 'http://www.wikidata.org/entity/Q4354080', 'http://www.wikidata.org/entity/Q4755213', 'http://www.wikidata.org/entity/Q4762779', 'http://www.wikidata.org/entity/Q4935048', 'http://www.wikidata.org/entity/Q4952220', 'http://www.wikidata.org/entity/Q4990908', 'http://www.wikidata.org/entity/Q5042824', 'http://www.wikidata.org/entity/Q5237979', 'http://www.wikidata.org/entity/Q5362676', 'http://www.wikidata.org/entity/Q5373267', 'http://www.wikidata.org/entity/Q5401360', 'http://www.wikidata.org/entity/Q14928140', 'http://www.wikidata.org/entity/Q15069885', 'http://www.wikidata.org/entity/Q15069904', 'http://www.wikidata.org/entity/Q15069912', 'http://www.wikidata.org/entity/Q15079800', 'http://www.wikidata.org/entity/Q15122314', 'http://www.wikidata.org/entity/Q15220779', 'http://www.wikidata.org/entity/Q15433473', 'http://www.wikidata.org/entity/Q15499532', 'http://www.wikidata.org/entity/Q15550353', 'http://www.wikidata.org/entity/Q15726286', 'http://www.wikidata.org/entity/Q15918277', 'http://www.wikidata.org/entity/Q15965422', 'http://www.wikidata.org/entity/Q15973722', 'http://www.wikidata.org/entity/Q15973762', 'http://www.wikidata.org/entity/Q15973972', 'http://www.wikidata.org/entity/Q16028184', 'http://www.wikidata.org/entity/Q16028908', 'http://www.wikidata.org/entity/Q16139430', 'http://www.wikidata.org/entity/Q16148448', 'http://www.wikidata.org/entity/Q16185204', 'http://www.wikidata.org/entity/Q6059988', 'http://www.wikidata.org/entity/Q6124331', 'http://www.wikidata.org/entity/Q6134698', 'http://www.wikidata.org/entity/Q6147154', 'http://www.wikidata.org/entity/Q6171367', 'http://www.wikidata.org/entity/Q6506240', 'http://www.wikidata.org/entity/Q6531996', 'http://www.wikidata.org/entity/Q6707641', 'http://www.wikidata.org/entity/Q6762063', 'http://www.wikidata.org/entity/Q6764204', 'http://www.wikidata.org/entity/Q8046623', 'http://www.wikidata.org/entity/Q10281007', 'http://www.wikidata.org/entity/Q11340779', 'http://www.wikidata.org/entity/Q11340983', 'http://www.wikidata.org/entity/Q11439218', 'http://www.wikidata.org/entity/Q11547381', 'http://www.wikidata.org/entity/Q11566520', 'http://www.wikidata.org/entity/Q11880764', 'http://www.wikidata.org/entity/Q11918689', 'http://www.wikidata.org/entity/Q12403796', 'http://www.wikidata.org/entity/Q12410606', 'http://www.wikidata.org/entity/Q12476703', 'http://www.wikidata.org/entity/Q12877474', 'http://www.wikidata.org/entity/Q28872725', 'http://www.wikidata.org/entity/Q28912361', 'http://www.wikidata.org/entity/Q28950079', 'http://www.wikidata.org/entity/Q28961130', 'http://www.wikidata.org/entity/Q16214144', 'http://www.wikidata.org/entity/Q16234314', 'http://www.wikidata.org/entity/Q16298767', 'http://www.wikidata.org/entity/Q16606238', 'http://www.wikidata.org/entity/Q16635855', 'http://www.wikidata.org/entity/Q16637019', 'http://www.wikidata.org/entity/Q16663967', 'http://www.wikidata.org/entity/Q16664826', 'http://www.wikidata.org/entity/Q16668611', 'http://www.wikidata.org/entity/Q16670062', 'http://www.wikidata.org/entity/Q16675475', 'http://www.wikidata.org/entity/Q16677437', 'http://www.wikidata.org/entity/Q16683362', 'http://www.wikidata.org/entity/Q16864683', 'http://www.wikidata.org/entity/Q16890088', 'http://www.wikidata.org/entity/Q17175096', 'http://www.wikidata.org/entity/Q17220253', 'http://www.wikidata.org/entity/Q17305574', 'http://www.wikidata.org/entity/Q17350573', 'http://www.wikidata.org/entity/Q17354467', 'http://www.wikidata.org/entity/Q17485828', 'http://www.wikidata.org/entity/Q17496932', 'http://www.wikidata.org/entity/Q17497016', 'http://www.wikidata.org/entity/Q17497099', 'http://www.wikidata.org/entity/Q17521736', 'http://www.wikidata.org/entity/Q17906915', 'http://www.wikidata.org/entity/Q18179234', 'http://www.wikidata.org/entity/Q18205868', 'http://www.wikidata.org/entity/Q18326681', 'http://www.wikidata.org/entity/Q18548875', 'http://www.wikidata.org/entity/Q18684211', 'http://www.wikidata.org/entity/Q18684672', 'http://www.wikidata.org/entity/Q18708080', 'http://www.wikidata.org/entity/Q18744719', 'http://www.wikidata.org/entity/Q18771528', 'http://www.wikidata.org/entity/Q19248606', 'http://www.wikidata.org/entity/Q19614596', 'http://www.wikidata.org/entity/Q19630122', 'http://www.wikidata.org/entity/Q19849298', 'http://www.wikidata.org/entity/Q19945041', 'http://www.wikidata.org/entity/Q20049091', 'http://www.wikidata.org/entity/Q20089366', 'http://www.wikidata.org/entity/Q20089595', 'http://www.wikidata.org/entity/Q20533059', 'http://www.wikidata.org/entity/Q20670730', 'http://www.wikidata.org/entity/Q20723033', 'http://www.wikidata.org/entity/Q20723775', 'http://www.wikidata.org/entity/Q20723802', 'http://www.wikidata.org/entity/Q20795525', 'http://www.wikidata.org/entity/Q20807834', 'http://www.wikidata.org/entity/Q20814082', 'http://www.wikidata.org/entity/Q20851318', 'http://www.wikidata.org/entity/Q20991589', 'http://www.wikidata.org/entity/Q21032082', 'http://www.wikidata.org/entity/Q21208248', 'http://www.wikidata.org/entity/Q21634529', 'http://www.wikidata.org/entity/Q21995180', 'http://www.wikidata.org/entity/Q22054967', 'http://www.wikidata.org/entity/Q22210998', 'http://www.wikidata.org/entity/Q22212949', 'http://www.wikidata.org/entity/Q22213111', 'http://www.wikidata.org/entity/Q22295307', 'http://www.wikidata.org/entity/Q22920409', 'http://www.wikidata.org/entity/Q22955536', 'http://www.wikidata.org/entity/Q23013325', 'http://www.wikidata.org/entity/Q23021126', 'http://www.wikidata.org/entity/Q23199078', 'http://www.wikidata.org/entity/Q29906325', 'http://www.wikidata.org/entity/Q29999823', 'http://www.wikidata.org/entity/Q23774054', 'http://www.wikidata.org/entity/Q23774056', 'http://www.wikidata.org/entity/Q23815602', 'http://www.wikidata.org/entity/Q23816434', 'http://www.wikidata.org/entity/Q24059384', 'http://www.wikidata.org/entity/Q24258703', 'http://www.wikidata.org/entity/Q24508966', 'http://www.wikidata.org/entity/Q24734684', 'http://www.wikidata.org/entity/Q24734714', 'http://www.wikidata.org/entity/Q24904965', 'http://www.wikidata.org/entity/Q24940525', 'http://www.wikidata.org/entity/Q24950523', 'http://www.wikidata.org/entity/Q25391247', 'http://www.wikidata.org/entity/Q25433396', 'http://www.wikidata.org/entity/Q25975683', 'http://www.wikidata.org/entity/Q26036599', 'http://www.wikidata.org/entity/Q26213701', 'http://www.wikidata.org/entity/Q26214506', 'http://www.wikidata.org/entity/Q26221422', 'http://www.wikidata.org/entity/Q26259931', 'http://www.wikidata.org/entity/Q26761757', 'http://www.wikidata.org/entity/Q27078155', 'http://www.wikidata.org/entity/Q27450418', 'http://www.wikidata.org/entity/Q27535243', 'http://www.wikidata.org/entity/Q27535244', 'http://www.wikidata.org/entity/Q27535245', 'http://www.wikidata.org/entity/Q27535249', 'http://www.wikidata.org/entity/Q27535456', 'http://www.wikidata.org/entity/Q27704881', 'http://www.wikidata.org/entity/Q27834850', 'http://www.wikidata.org/entity/Q27956008', 'http://www.wikidata.org/entity/Q27997862', 'http://www.wikidata.org/entity/Q28032626', 'http://www.wikidata.org/entity/Q28105132', 'http://www.wikidata.org/entity/Q28496113', 'http://www.wikidata.org/entity/Q28496356', 'http://www.wikidata.org/entity/Q28497094', 'http://www.wikidata.org/entity/Q28703138', 'http://www.wikidata.org/entity/Q28755521', 'http://www.wikidata.org/entity/Q36243177', 'http://www.wikidata.org/entity/Q39072982', 'http://www.wikidata.org/entity/Q42342049', 'http://www.wikidata.org/entity/Q44738387', 'http://www.wikidata.org/entity/Q46565165', 'http://www.wikidata.org/entity/Q46993553', 'http://www.wikidata.org/entity/Q47005212', 'http://www.wikidata.org/entity/Q47500491', 'http://www.wikidata.org/entity/Q48102215', 'http://www.wikidata.org/entity/Q48753499', 'http://www.wikidata.org/entity/Q48758094', 'http://www.wikidata.org/entity/Q50328133', 'http://www.wikidata.org/entity/Q50359273', 'http://www.wikidata.org/entity/Q50395972', 'http://www.wikidata.org/entity/Q50400107', 'http://www.wikidata.org/entity/Q50826394', 'http://www.wikidata.org/entity/Q50826412', 'http://www.wikidata.org/entity/Q51436213', 'http://www.wikidata.org/entity/Q52063093', 'http://www.wikidata.org/entity/Q52230714', 'http://www.wikidata.org/entity/Q52722000', 'http://www.wikidata.org/entity/Q54566975', 'http://www.wikidata.org/entity/Q55315022', 'http://www.wikidata.org/entity/Q55598878', 'http://www.wikidata.org/entity/Q56045005', 'http://www.wikidata.org/entity/Q56318250', 'http://www.wikidata.org/entity/Q56696354', 'http://www.wikidata.org/entity/Q58471554', 'http://www.wikidata.org/entity/Q59232977', 'http://www.wikidata.org/entity/Q59265018', 'http://www.wikidata.org/entity/Q60465877', 'http://www.wikidata.org/entity/Q60582788', 'http://www.wikidata.org/entity/Q60832704', 'http://www.wikidata.org/entity/Q61107517', 'http://www.wikidata.org/entity/Q61107643', 'http://www.wikidata.org/entity/Q61314513', 'http://www.wikidata.org/entity/Q61763049', 'http://www.wikidata.org/entity/Q61987083', 'http://www.wikidata.org/entity/Q62083629', 'http://www.wikidata.org/entity/Q62567287', 'http://www.wikidata.org/entity/Q64031670', 'http://www.wikidata.org/entity/Q64362032', 'http://www.wikidata.org/entity/Q65115565', 'http://www.wikidata.org/entity/Q65134137', 'http://www.wikidata.org/entity/Q65157310', 'http://www.wikidata.org/entity/Q65159578', 'http://www.wikidata.org/entity/Q65165189', 'http://www.wikidata.org/entity/Q65321833', 'http://www.wikidata.org/entity/Q66203085', 'http://www.wikidata.org/entity/Q67086186', 'http://www.wikidata.org/entity/Q68056625', 'http://www.wikidata.org/entity/Q69789609', 'http://www.wikidata.org/entity/Q72726124', 'http://www.wikidata.org/entity/Q72726577', 'http://www.wikidata.org/entity/Q73235268', 'http://www.wikidata.org/entity/Q73578724', 'http://www.wikidata.org/entity/Q74677363', 'http://www.wikidata.org/entity/Q75619296', 'http://www.wikidata.org/entity/Q77329762', 'http://www.wikidata.org/entity/Q98820234', 'http://www.wikidata.org/entity/Q98878337', 'http://www.wikidata.org/entity/Q100379415', 'http://www.wikidata.org/entity/Q104212289', 'http://www.wikidata.org/entity/Q104668247', 'http://www.wikidata.org/entity/Q104786071', 'http://www.wikidata.org/entity/Q104891505', 'http://www.wikidata.org/entity/Q105316284', 'http://www.wikidata.org/entity/Q105542326', 'http://www.wikidata.org/entity/Q105966380', 'http://www.wikidata.org/entity/Q106070570', 'http://www.wikidata.org/entity/Q106427379', 'http://www.wikidata.org/entity/Q106866519', 'http://www.wikidata.org/entity/Q107167527', 'http://www.wikidata.org/entity/Q107303277', 'http://www.wikidata.org/entity/Q107425269', 'http://www.wikidata.org/entity/Q107488685', 'http://www.wikidata.org/entity/Q108028328', 'http://www.wikidata.org/entity/Q81655239', 'http://www.wikidata.org/entity/Q82232815', 'http://www.wikidata.org/entity/Q83689747', 'http://www.wikidata.org/entity/Q85853359', 'http://www.wikidata.org/entity/Q85926606', 'http://www.wikidata.org/entity/Q87211691', 'http://www.wikidata.org/entity/Q87712172', 'http://www.wikidata.org/entity/Q88009745', 'http://www.wikidata.org/entity/Q88145152', 'http://www.wikidata.org/entity/Q88886118', 'http://www.wikidata.org/entity/Q89513915', 'http://www.wikidata.org/entity/Q92958299', 'http://www.wikidata.org/entity/Q93598152', 'http://www.wikidata.org/entity/Q94536119', 'http://www.wikidata.org/entity/Q95209786', 'http://www.wikidata.org/entity/Q95274672', 'http://www.wikidata.org/entity/Q95278461', 'http://www.wikidata.org/entity/Q95487176', 'http://www.wikidata.org/entity/Q95675136', 'http://www.wikidata.org/entity/Q95775193', 'http://www.wikidata.org/entity/Q95819872', 'http://www.wikidata.org/entity/Q95848294', 'http://www.wikidata.org/entity/Q96578993', 'http://www.wikidata.org/entity/Q97198763', 'http://www.wikidata.org/entity/Q97255544', 'http://www.wikidata.org/entity/Q98065869', 'http://www.wikidata.org/entity/Q108770226', 'http://www.wikidata.org/entity/Q108854933', 'http://www.wikidata.org/entity/Q109316791', 'http://www.wikidata.org/entity/Q109867332', 'http://www.wikidata.org/entity/Q109967909', 'http://www.wikidata.org/entity/Q110028246', 'http://www.wikidata.org/entity/Q110277773', 'http://www.wikidata.org/entity/Q110877620', 'http://www.wikidata.org/entity/Q110907526', 'http://www.wikidata.org/entity/Q110950442', 'http://www.wikidata.org/entity/Q111131087', 'http://www.wikidata.org/entity/Q111131697', 'http://www.wikidata.org/entity/Q111357140', 'http://www.wikidata.org/entity/Q111450731', 'http://www.wikidata.org/entity/Q111472381', 'http://www.wikidata.org/entity/Q111530496', 'http://www.wikidata.org/entity/Q111661296', 'http://www.wikidata.org/entity/Q112066218', 'http://www.wikidata.org/entity/Q112606279', 'http://www.wikidata.org/entity/Q112933044', 'http://www.wikidata.org/entity/Q113005440', 'http://www.wikidata.org/entity/Q113210513', 'http://www.wikidata.org/entity/Q113367525', 'http://www.wikidata.org/entity/Q113567066', 'http://www.wikidata.org/entity/Q114066008', 'http://www.wikidata.org/entity/Q114333221', 'http://www.wikidata.org/entity/Q125813842', 'http://www.wikidata.org/entity/Q127513692', 'http://www.wikidata.org/entity/Q130396134', 'http://www.wikidata.org/entity/Q130619136', 'http://www.wikidata.org/entity/Q115470400', 'http://www.wikidata.org/entity/Q115618296', 'http://www.wikidata.org/entity/Q115663709', 'http://www.wikidata.org/entity/Q116250751', 'http://www.wikidata.org/entity/Q116790429', 'http://www.wikidata.org/entity/Q117011287', 'http://www.wikidata.org/entity/Q118340974', 'http://www.wikidata.org/entity/Q121297849', 'http://www.wikidata.org/entity/Q123009687', 'http://www.wikidata.org/entity/Q123859944', 'http://www.wikidata.org/entity/Q124282426', 'http://www.wikidata.org/entity/Q124338218', 'http://www.wikidata.org/entity/Q124338520', 'http://www.wikidata.org/entity/Q124359207', 'http://www.wikidata.org/entity/Q124796143', 'http://www.wikidata.org/entity/Q124811132']</t>
         </is>
       </c>
     </row>
@@ -1860,7 +1860,7 @@
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>['http://www.wikidata.org/entity/Q178156', 'http://www.wikidata.org/entity/Q178849', 'http://www.wikidata.org/entity/Q1544766', 'http://www.wikidata.org/entity/Q151602', 'http://www.wikidata.org/entity/Q38669', 'http://www.wikidata.org/entity/Q1130055', 'http://www.wikidata.org/entity/Q731099', 'http://www.wikidata.org/entity/Q2944907', 'http://www.wikidata.org/entity/Q3447077', 'http://www.wikidata.org/entity/Q3633470', 'http://www.wikidata.org/entity/Q4037342', 'http://www.wikidata.org/entity/Q4037982', 'http://www.wikidata.org/entity/Q4806468', 'http://www.wikidata.org/entity/Q4811668', 'http://www.wikidata.org/entity/Q4915823', 'http://www.wikidata.org/entity/Q5008907', 'http://www.wikidata.org/entity/Q5029024', 'http://www.wikidata.org/entity/Q5031289', 'http://www.wikidata.org/entity/Q4688771', 'http://www.wikidata.org/entity/Q4688915', 'http://www.wikidata.org/entity/Q4763546', 'http://www.wikidata.org/entity/Q6484356', 'http://www.wikidata.org/entity/Q6516554', 'http://www.wikidata.org/entity/Q4823949', 'http://www.wikidata.org/entity/Q4824042', 'http://www.wikidata.org/entity/Q4824051', 'http://www.wikidata.org/entity/Q4824115', 'http://www.wikidata.org/entity/Q4824171', 'http://www.wikidata.org/entity/Q4824273', 'http://www.wikidata.org/entity/Q4824303', 'http://www.wikidata.org/entity/Q4824359', 'http://www.wikidata.org/entity/Q4824412', 'http://www.wikidata.org/entity/Q4824486', 'http://www.wikidata.org/entity/Q4824496', 'http://www.wikidata.org/entity/Q4824518', 'http://www.wikidata.org/entity/Q4824698', 'http://www.wikidata.org/entity/Q4824786', 'http://www.wikidata.org/entity/Q4824802', 'http://www.wikidata.org/entity/Q4835449', 'http://www.wikidata.org/entity/Q4857573', 'http://www.wikidata.org/entity/Q4959767', 'http://www.wikidata.org/entity/Q4975625', 'http://www.wikidata.org/entity/Q5001378', 'http://www.wikidata.org/entity/Q5008648', 'http://www.wikidata.org/entity/Q5098022', 'http://www.wikidata.org/entity/Q5104010', 'http://www.wikidata.org/entity/Q5130501', 'http://www.wikidata.org/entity/Q5132909', 'http://www.wikidata.org/entity/Q5154656', 'http://www.wikidata.org/entity/Q5162941', 'http://www.wikidata.org/entity/Q5175654', 'http://www.wikidata.org/entity/Q5381034', 'http://www.wikidata.org/entity/Q6980502', 'http://www.wikidata.org/entity/Q5446931', 'http://www.wikidata.org/entity/Q5474459', 'http://www.wikidata.org/entity/Q5588285', 'http://www.wikidata.org/entity/Q5598047', 'http://www.wikidata.org/entity/Q5600128', 'http://www.wikidata.org/entity/Q5604183', 'http://www.wikidata.org/entity/Q5973787', 'http://www.wikidata.org/entity/Q7265647', 'http://www.wikidata.org/entity/Q7270921', 'http://www.wikidata.org/entity/Q7284880', 'http://www.wikidata.org/entity/Q7302731', 'http://www.wikidata.org/entity/Q7305829', 'http://www.wikidata.org/entity/Q6044349', 'http://www.wikidata.org/entity/Q6288472', 'http://www.wikidata.org/entity/Q6382937', 'http://www.wikidata.org/entity/Q6413211', 'http://www.wikidata.org/entity/Q6545404', 'http://www.wikidata.org/entity/Q6545472', 'http://www.wikidata.org/entity/Q6555051', 'http://www.wikidata.org/entity/Q6555900', 'http://www.wikidata.org/entity/Q6878519', 'http://www.wikidata.org/entity/Q6947390', 'http://www.wikidata.org/entity/Q6955408', 'http://www.wikidata.org/entity/Q7128432', 'http://www.wikidata.org/entity/Q7369412', 'http://www.wikidata.org/entity/Q7374328', 'http://www.wikidata.org/entity/Q11310492', 'http://www.wikidata.org/entity/Q7390459', 'http://www.wikidata.org/entity/Q7431606', 'http://www.wikidata.org/entity/Q7438642', 'http://www.wikidata.org/entity/Q7569833', 'http://www.wikidata.org/entity/Q7649610', 'http://www.wikidata.org/entity/Q7677547', 'http://www.wikidata.org/entity/Q7686546', 'http://www.wikidata.org/entity/Q7687441', 'http://www.wikidata.org/entity/Q7828014', 'http://www.wikidata.org/entity/Q7052932', 'http://www.wikidata.org/entity/Q7734949', 'http://www.wikidata.org/entity/Q7735182', 'http://www.wikidata.org/entity/Q7753247', 'http://www.wikidata.org/entity/Q7848156', 'http://www.wikidata.org/entity/Q7865384', 'http://www.wikidata.org/entity/Q7966487', 'http://www.wikidata.org/entity/Q7968554', 'http://www.wikidata.org/entity/Q7996481', 'http://www.wikidata.org/entity/Q8001313', 'http://www.wikidata.org/entity/Q8055234', 'http://www.wikidata.org/entity/Q8057958', 'http://www.wikidata.org/entity/Q8073252', 'http://www.wikidata.org/entity/Q23073523', 'http://www.wikidata.org/entity/Q23073752', 'http://www.wikidata.org/entity/Q23073767', 'http://www.wikidata.org/entity/Q23073836', 'http://www.wikidata.org/entity/Q23073933', 'http://www.wikidata.org/entity/Q16937977', 'http://www.wikidata.org/entity/Q16949124', 'http://www.wikidata.org/entity/Q16967872', 'http://www.wikidata.org/entity/Q24189845', 'http://www.wikidata.org/entity/Q24896633', 'http://www.wikidata.org/entity/Q25182639', 'http://www.wikidata.org/entity/Q25303106', 'http://www.wikidata.org/entity/Q30253739', 'http://www.wikidata.org/entity/Q30259226', 'http://www.wikidata.org/entity/Q30259575', 'http://www.wikidata.org/entity/Q30264545', 'http://www.wikidata.org/entity/Q30264611', 'http://www.wikidata.org/entity/Q30264608', 'http://www.wikidata.org/entity/Q30264648', 'http://www.wikidata.org/entity/Q30270801', 'http://www.wikidata.org/entity/Q30270840', 'http://www.wikidata.org/entity/Q30270853', 'http://www.wikidata.org/entity/Q30270857', 'http://www.wikidata.org/entity/Q30270865', 'http://www.wikidata.org/entity/Q30270875', 'http://www.wikidata.org/entity/Q30270882', 'http://www.wikidata.org/entity/Q30270974', 'http://www.wikidata.org/entity/Q30271313', 'http://www.wikidata.org/entity/Q30271388', 'http://www.wikidata.org/entity/Q30271408', 'http://www.wikidata.org/entity/Q30271415', 'http://www.wikidata.org/entity/Q30271424', 'http://www.wikidata.org/entity/Q30271440', 'http://www.wikidata.org/entity/Q30256213', 'http://www.wikidata.org/entity/Q30257057', 'http://www.wikidata.org/entity/Q30265371', 'http://www.wikidata.org/entity/Q30265704', 'http://www.wikidata.org/entity/Q30265708', 'http://www.wikidata.org/entity/Q30265755', 'http://www.wikidata.org/entity/Q30265757', 'http://www.wikidata.org/entity/Q30265818', 'http://www.wikidata.org/entity/Q30265822', 'http://www.wikidata.org/entity/Q30265882', 'http://www.wikidata.org/entity/Q30267092', 'http://www.wikidata.org/entity/Q30267107', 'http://www.wikidata.org/entity/Q30267157', 'http://www.wikidata.org/entity/Q30268164', 'http://www.wikidata.org/entity/Q30270092', 'http://www.wikidata.org/entity/Q30270179', 'http://www.wikidata.org/entity/Q30270177', 'http://www.wikidata.org/entity/Q30270768', 'http://www.wikidata.org/entity/Q30270993', 'http://www.wikidata.org/entity/Q30271044', 'http://www.wikidata.org/entity/Q30271118', 'http://www.wikidata.org/entity/Q30271152', 'http://www.wikidata.org/entity/Q30273179', 'http://www.wikidata.org/entity/Q30273212', 'http://www.wikidata.org/entity/Q30273238', 'http://www.wikidata.org/entity/Q16997330', 'http://www.wikidata.org/entity/Q17003041', 'http://www.wikidata.org/entity/Q17009233', 'http://www.wikidata.org/entity/Q17012051', 'http://www.wikidata.org/entity/Q21015647', 'http://www.wikidata.org/entity/Q21015833', 'http://www.wikidata.org/entity/Q17031596', 'http://www.wikidata.org/entity/Q17040754', 'http://www.wikidata.org/entity/Q17052696', 'http://www.wikidata.org/entity/Q30267303', 'http://www.wikidata.org/entity/Q30267318', 'http://www.wikidata.org/entity/Q30267324', 'http://www.wikidata.org/entity/Q30267336', 'http://www.wikidata.org/entity/Q30267419', 'http://www.wikidata.org/entity/Q30267879', 'http://www.wikidata.org/entity/Q30269892', 'http://www.wikidata.org/entity/Q30272480', 'http://www.wikidata.org/entity/Q30272560', 'http://www.wikidata.org/entity/Q30272577', 'http://www.wikidata.org/entity/Q30272769', 'http://www.wikidata.org/entity/Q30288035', 'http://www.wikidata.org/entity/Q30288054', 'http://www.wikidata.org/entity/Q30289631', 'http://www.wikidata.org/entity/Q30290741', 'http://www.wikidata.org/entity/Q50037437', 'http://www.wikidata.org/entity/Q50037447', 'http://www.wikidata.org/entity/Q30264708', 'http://www.wikidata.org/entity/Q30264718', 'http://www.wikidata.org/entity/Q30264716', 'http://www.wikidata.org/entity/Q30264727', 'http://www.wikidata.org/entity/Q30264751', 'http://www.wikidata.org/entity/Q30264748', 'http://www.wikidata.org/entity/Q30264770', 'http://www.wikidata.org/entity/Q30265039', 'http://www.wikidata.org/entity/Q30272130', 'http://www.wikidata.org/entity/Q30272170', 'http://www.wikidata.org/entity/Q30272229', 'http://www.wikidata.org/entity/Q30272806', 'http://www.wikidata.org/entity/Q30272867', 'http://www.wikidata.org/entity/Q30272869', 'http://www.wikidata.org/entity/Q30272873', 'http://www.wikidata.org/entity/Q30272916', 'http://www.wikidata.org/entity/Q30282084', 'http://www.wikidata.org/entity/Q30282101', 'http://www.wikidata.org/entity/Q30282252', 'http://www.wikidata.org/entity/Q30282344', 'http://www.wikidata.org/entity/Q30292145', 'http://www.wikidata.org/entity/Q30296832', 'http://www.wikidata.org/entity/Q30297006', 'http://www.wikidata.org/entity/Q30297010', 'http://www.wikidata.org/entity/Q30297008', 'http://www.wikidata.org/entity/Q30297012', 'http://www.wikidata.org/entity/Q30297013', 'http://www.wikidata.org/entity/Q30297019', 'http://www.wikidata.org/entity/Q30297046', 'http://www.wikidata.org/entity/Q30297047', 'http://www.wikidata.org/entity/Q30297051', 'http://www.wikidata.org/entity/Q30297052', 'http://www.wikidata.org/entity/Q30297059', 'http://www.wikidata.org/entity/Q30297062', 'http://www.wikidata.org/entity/Q30297061', 'http://www.wikidata.org/entity/Q30297067', 'http://www.wikidata.org/entity/Q30325382', 'http://www.wikidata.org/entity/Q30272014', 'http://www.wikidata.org/entity/Q30272032', 'http://www.wikidata.org/entity/Q30272036', 'http://www.wikidata.org/entity/Q30272058', 'http://www.wikidata.org/entity/Q30272996', 'http://www.wikidata.org/entity/Q30273001', 'http://www.wikidata.org/entity/Q30273082', 'http://www.wikidata.org/entity/Q30273097', 'http://www.wikidata.org/entity/Q30284084', 'http://www.wikidata.org/entity/Q30284089', 'http://www.wikidata.org/entity/Q33121824', 'http://www.wikidata.org/entity/Q33121829', 'http://www.wikidata.org/entity/Q45132022', 'http://www.wikidata.org/entity/Q45132085', 'http://www.wikidata.org/entity/Q45133203', 'http://www.wikidata.org/entity/Q45133427', 'http://www.wikidata.org/entity/Q45133758', 'http://www.wikidata.org/entity/Q50035460', 'http://www.wikidata.org/entity/Q19875296', 'http://www.wikidata.org/entity/Q19875521', 'http://www.wikidata.org/entity/Q19876049', 'http://www.wikidata.org/entity/Q28220029', 'http://www.wikidata.org/entity/Q28224015', 'http://www.wikidata.org/entity/Q28224070', 'http://www.wikidata.org/entity/Q28224129', 'http://www.wikidata.org/entity/Q28428567', 'http://www.wikidata.org/entity/Q28458352', 'http://www.wikidata.org/entity/Q16201584', 'http://www.wikidata.org/entity/Q16835654', 'http://www.wikidata.org/entity/Q16850153', 'http://www.wikidata.org/entity/Q16927546', 'http://www.wikidata.org/entity/Q18162432', 'http://www.wikidata.org/entity/Q30263740', 'http://www.wikidata.org/entity/Q30263752', 'http://www.wikidata.org/entity/Q30264015', 'http://www.wikidata.org/entity/Q30264410', 'http://www.wikidata.org/entity/Q30296504', 'http://www.wikidata.org/entity/Q30296564', 'http://www.wikidata.org/entity/Q30296607', 'http://www.wikidata.org/entity/Q30296635', 'http://www.wikidata.org/entity/Q30296638', 'http://www.wikidata.org/entity/Q30296637', 'http://www.wikidata.org/entity/Q30296700', 'http://www.wikidata.org/entity/Q30296701', 'http://www.wikidata.org/entity/Q30296743', 'http://www.wikidata.org/entity/Q33121909', 'http://www.wikidata.org/entity/Q33121931', 'http://www.wikidata.org/entity/Q33121943', 'http://www.wikidata.org/entity/Q50039035', 'http://www.wikidata.org/entity/Q50039036', 'http://www.wikidata.org/entity/Q50039047', 'http://www.wikidata.org/entity/Q50039045', 'http://www.wikidata.org/entity/Q50039048', 'http://www.wikidata.org/entity/Q50039057', 'http://www.wikidata.org/entity/Q50039060', 'http://www.wikidata.org/entity/Q50039072', 'http://www.wikidata.org/entity/Q50039078', 'http://www.wikidata.org/entity/Q50039077', 'http://www.wikidata.org/entity/Q50039087', 'http://www.wikidata.org/entity/Q50039085', 'http://www.wikidata.org/entity/Q50039090', 'http://www.wikidata.org/entity/Q50039091', 'http://www.wikidata.org/entity/Q50039098', 'http://www.wikidata.org/entity/Q50039099', 'http://www.wikidata.org/entity/Q30286362', 'http://www.wikidata.org/entity/Q30286374', 'http://www.wikidata.org/entity/Q36875191', 'http://www.wikidata.org/entity/Q36875313', 'http://www.wikidata.org/entity/Q50039882', 'http://www.wikidata.org/entity/Q50039893', 'http://www.wikidata.org/entity/Q50039899', 'http://www.wikidata.org/entity/Q50039916', 'http://www.wikidata.org/entity/Q50039922', 'http://www.wikidata.org/entity/Q50039921', 'http://www.wikidata.org/entity/Q50039927', 'http://www.wikidata.org/entity/Q50039925', 'http://www.wikidata.org/entity/Q50039935', 'http://www.wikidata.org/entity/Q50039938', 'http://www.wikidata.org/entity/Q50039936', 'http://www.wikidata.org/entity/Q50039950', 'http://www.wikidata.org/entity/Q50039951', 'http://www.wikidata.org/entity/Q50040366', 'http://www.wikidata.org/entity/Q45135167', 'http://www.wikidata.org/entity/Q45135935', 'http://www.wikidata.org/entity/Q45136594', 'http://www.wikidata.org/entity/Q45136884', 'http://www.wikidata.org/entity/Q50035906', 'http://www.wikidata.org/entity/Q50035905', 'http://www.wikidata.org/entity/Q50036105', 'http://www.wikidata.org/entity/Q50037644', 'http://www.wikidata.org/entity/Q50357845', 'http://www.wikidata.org/entity/Q30273302', 'http://www.wikidata.org/entity/Q30274277', 'http://www.wikidata.org/entity/Q30279656', 'http://www.wikidata.org/entity/Q30287670', 'http://www.wikidata.org/entity/Q30288021', 'http://www.wikidata.org/entity/Q42417561', 'http://www.wikidata.org/entity/Q96379918', 'http://www.wikidata.org/entity/Q55635434', 'http://www.wikidata.org/entity/Q56672733', 'http://www.wikidata.org/entity/Q60752168', 'http://www.wikidata.org/entity/Q60753795', 'http://www.wikidata.org/entity/Q99600000', 'http://www.wikidata.org/entity/Q97647926', 'http://www.wikidata.org/entity/Q59536819', 'http://www.wikidata.org/entity/Q98640111', 'http://www.wikidata.org/entity/Q101320088', 'http://www.wikidata.org/entity/Q101352555', 'http://www.wikidata.org/entity/Q56564150', 'http://www.wikidata.org/entity/Q59292017', 'http://www.wikidata.org/entity/Q61931466', 'http://www.wikidata.org/entity/Q61931956', 'http://www.wikidata.org/entity/Q66132398', 'http://www.wikidata.org/entity/Q81136362', 'http://www.wikidata.org/entity/Q104426620', 'http://www.wikidata.org/entity/Q104665590', 'http://www.wikidata.org/entity/Q106412024', 'http://www.wikidata.org/entity/Q97040353', 'http://www.wikidata.org/entity/Q97041805', 'http://www.wikidata.org/entity/Q73411767', 'http://www.wikidata.org/entity/Q116980418', 'http://www.wikidata.org/entity/Q116980494', 'http://www.wikidata.org/entity/Q61827577', 'http://www.wikidata.org/entity/Q61883318', 'http://www.wikidata.org/entity/Q62566849', 'http://www.wikidata.org/entity/Q104759169', 'http://www.wikidata.org/entity/Q104857330', 'http://www.wikidata.org/entity/Q104901697', 'http://www.wikidata.org/entity/Q110723912', 'http://www.wikidata.org/entity/Q110877406', 'http://www.wikidata.org/entity/Q113095323', 'http://www.wikidata.org/entity/Q113551486', 'http://www.wikidata.org/entity/Q115088304', 'http://www.wikidata.org/entity/Q115110762', 'http://www.wikidata.org/entity/Q115112409', 'http://www.wikidata.org/entity/Q115241836', 'http://www.wikidata.org/entity/Q115411044', 'http://www.wikidata.org/entity/Q65047615', 'http://www.wikidata.org/entity/Q65073083', 'http://www.wikidata.org/entity/Q105438889', 'http://www.wikidata.org/entity/Q106606502', 'http://www.wikidata.org/entity/Q106978222', 'http://www.wikidata.org/entity/Q107150007', 'http://www.wikidata.org/entity/Q114016469', 'http://www.wikidata.org/entity/Q114055494', 'http://www.wikidata.org/entity/Q114842613', 'http://www.wikidata.org/entity/Q107517834', 'http://www.wikidata.org/entity/Q110723662', 'http://www.wikidata.org/entity/Q118213345', 'http://www.wikidata.org/entity/Q118444592', 'http://www.wikidata.org/entity/Q124516313', 'http://www.wikidata.org/entity/Q124525839', 'http://www.wikidata.org/entity/Q124526097', 'http://www.wikidata.org/entity/Q124536863', 'http://www.wikidata.org/entity/Q106342699', 'http://www.wikidata.org/entity/Q108737244', 'http://www.wikidata.org/entity/Q108737305', 'http://www.wikidata.org/entity/Q108737498', 'http://www.wikidata.org/entity/Q108737610', 'http://www.wikidata.org/entity/Q108756508', 'http://www.wikidata.org/entity/Q109111846', 'http://www.wikidata.org/entity/Q109112665', 'http://www.wikidata.org/entity/Q112731383', 'http://www.wikidata.org/entity/Q112752083', 'http://www.wikidata.org/entity/Q119857298', 'http://www.wikidata.org/entity/Q123695109', 'http://www.wikidata.org/entity/Q107518500', 'http://www.wikidata.org/entity/Q107519126', 'http://www.wikidata.org/entity/Q107519959', 'http://www.wikidata.org/entity/Q119248151', 'http://www.wikidata.org/entity/Q122763717', 'http://www.wikidata.org/entity/Q122763797', 'http://www.wikidata.org/entity/Q125726526', 'http://www.wikidata.org/entity/Q125761855', 'http://www.wikidata.org/entity/Q125761895', 'http://www.wikidata.org/entity/Q111526515', 'http://www.wikidata.org/entity/Q111665833', 'http://www.wikidata.org/entity/Q117405662', 'http://www.wikidata.org/entity/Q117468231', 'http://www.wikidata.org/entity/Q120837260', 'http://www.wikidata.org/entity/Q120983064', 'http://www.wikidata.org/entity/Q122154876', 'http://www.wikidata.org/entity/Q122154881', 'http://www.wikidata.org/entity/Q122154904', 'http://www.wikidata.org/entity/Q125632436', 'http://www.wikidata.org/entity/Q126208876', 'http://www.wikidata.org/entity/Q126550958', 'http://www.wikidata.org/entity/Q111352818', 'http://www.wikidata.org/entity/Q125057391', 'http://www.wikidata.org/entity/Q130314652', 'http://www.wikidata.org/entity/Q123188306', 'http://www.wikidata.org/entity/Q123201776', 'http://www.wikidata.org/entity/Q123382145', 'http://www.wikidata.org/entity/Q123382175', 'http://www.wikidata.org/entity/Q122883324', 'http://www.wikidata.org/entity/Q123016853', 'http://www.wikidata.org/entity/Q123032855', 'http://www.wikidata.org/entity/Q123512469', 'http://www.wikidata.org/entity/Q124289527', 'http://www.wikidata.org/entity/Q127415560', 'http://www.wikidata.org/entity/Q124613235', 'http://www.wikidata.org/entity/Q124634970', 'http://www.wikidata.org/entity/Q130542509', 'http://www.wikidata.org/entity/Q130746621']</t>
+          <t>['http://www.wikidata.org/entity/Q151602', 'http://www.wikidata.org/entity/Q178156', 'http://www.wikidata.org/entity/Q178849', 'http://www.wikidata.org/entity/Q38669', 'http://www.wikidata.org/entity/Q1130055', 'http://www.wikidata.org/entity/Q1544766', 'http://www.wikidata.org/entity/Q731099', 'http://www.wikidata.org/entity/Q2944907', 'http://www.wikidata.org/entity/Q3447077', 'http://www.wikidata.org/entity/Q3633470', 'http://www.wikidata.org/entity/Q4037342', 'http://www.wikidata.org/entity/Q4037982', 'http://www.wikidata.org/entity/Q4688771', 'http://www.wikidata.org/entity/Q4688915', 'http://www.wikidata.org/entity/Q5098022', 'http://www.wikidata.org/entity/Q5104010', 'http://www.wikidata.org/entity/Q5130501', 'http://www.wikidata.org/entity/Q5132909', 'http://www.wikidata.org/entity/Q5175654', 'http://www.wikidata.org/entity/Q4763546', 'http://www.wikidata.org/entity/Q4806468', 'http://www.wikidata.org/entity/Q4811668', 'http://www.wikidata.org/entity/Q4823949', 'http://www.wikidata.org/entity/Q4824042', 'http://www.wikidata.org/entity/Q4824051', 'http://www.wikidata.org/entity/Q4824115', 'http://www.wikidata.org/entity/Q4824171', 'http://www.wikidata.org/entity/Q4824273', 'http://www.wikidata.org/entity/Q4824303', 'http://www.wikidata.org/entity/Q4824359', 'http://www.wikidata.org/entity/Q4824412', 'http://www.wikidata.org/entity/Q4824486', 'http://www.wikidata.org/entity/Q4824496', 'http://www.wikidata.org/entity/Q4824518', 'http://www.wikidata.org/entity/Q4824698', 'http://www.wikidata.org/entity/Q4824786', 'http://www.wikidata.org/entity/Q4824802', 'http://www.wikidata.org/entity/Q4835449', 'http://www.wikidata.org/entity/Q4857573', 'http://www.wikidata.org/entity/Q4915823', 'http://www.wikidata.org/entity/Q4959767', 'http://www.wikidata.org/entity/Q4975625', 'http://www.wikidata.org/entity/Q5001378', 'http://www.wikidata.org/entity/Q5031289', 'http://www.wikidata.org/entity/Q5154656', 'http://www.wikidata.org/entity/Q5162941', 'http://www.wikidata.org/entity/Q6044349', 'http://www.wikidata.org/entity/Q6054284', 'http://www.wikidata.org/entity/Q6288472', 'http://www.wikidata.org/entity/Q6382937', 'http://www.wikidata.org/entity/Q6413211', 'http://www.wikidata.org/entity/Q6484356', 'http://www.wikidata.org/entity/Q6516554', 'http://www.wikidata.org/entity/Q7128432', 'http://www.wikidata.org/entity/Q7734949', 'http://www.wikidata.org/entity/Q7735182', 'http://www.wikidata.org/entity/Q5008648', 'http://www.wikidata.org/entity/Q5008907', 'http://www.wikidata.org/entity/Q5029024', 'http://www.wikidata.org/entity/Q5381034', 'http://www.wikidata.org/entity/Q5474459', 'http://www.wikidata.org/entity/Q5588285', 'http://www.wikidata.org/entity/Q5598047', 'http://www.wikidata.org/entity/Q5600128', 'http://www.wikidata.org/entity/Q5604183', 'http://www.wikidata.org/entity/Q5973787', 'http://www.wikidata.org/entity/Q6980502', 'http://www.wikidata.org/entity/Q7115193', 'http://www.wikidata.org/entity/Q5446931', 'http://www.wikidata.org/entity/Q6545404', 'http://www.wikidata.org/entity/Q6545472', 'http://www.wikidata.org/entity/Q6555051', 'http://www.wikidata.org/entity/Q6555900', 'http://www.wikidata.org/entity/Q7052932', 'http://www.wikidata.org/entity/Q7753247', 'http://www.wikidata.org/entity/Q7828014', 'http://www.wikidata.org/entity/Q7848156', 'http://www.wikidata.org/entity/Q16937977', 'http://www.wikidata.org/entity/Q16949124', 'http://www.wikidata.org/entity/Q16967872', 'http://www.wikidata.org/entity/Q6878519', 'http://www.wikidata.org/entity/Q7431606', 'http://www.wikidata.org/entity/Q7649610', 'http://www.wikidata.org/entity/Q7677547', 'http://www.wikidata.org/entity/Q7686546', 'http://www.wikidata.org/entity/Q7687441', 'http://www.wikidata.org/entity/Q16850153', 'http://www.wikidata.org/entity/Q16927546', 'http://www.wikidata.org/entity/Q19875296', 'http://www.wikidata.org/entity/Q19875521', 'http://www.wikidata.org/entity/Q19876049', 'http://www.wikidata.org/entity/Q21015647', 'http://www.wikidata.org/entity/Q30257057', 'http://www.wikidata.org/entity/Q30265818', 'http://www.wikidata.org/entity/Q30265822', 'http://www.wikidata.org/entity/Q30265882', 'http://www.wikidata.org/entity/Q16997330', 'http://www.wikidata.org/entity/Q6947390', 'http://www.wikidata.org/entity/Q6955408', 'http://www.wikidata.org/entity/Q7284880', 'http://www.wikidata.org/entity/Q7302731', 'http://www.wikidata.org/entity/Q7305829', 'http://www.wikidata.org/entity/Q7569833', 'http://www.wikidata.org/entity/Q8001313', 'http://www.wikidata.org/entity/Q11310492', 'http://www.wikidata.org/entity/Q16201584', 'http://www.wikidata.org/entity/Q7265647', 'http://www.wikidata.org/entity/Q7270921', 'http://www.wikidata.org/entity/Q7438642', 'http://www.wikidata.org/entity/Q7865384', 'http://www.wikidata.org/entity/Q16835654', 'http://www.wikidata.org/entity/Q17003041', 'http://www.wikidata.org/entity/Q17009233', 'http://www.wikidata.org/entity/Q17012051', 'http://www.wikidata.org/entity/Q25182639', 'http://www.wikidata.org/entity/Q25303106', 'http://www.wikidata.org/entity/Q30271313', 'http://www.wikidata.org/entity/Q30271388', 'http://www.wikidata.org/entity/Q30271408', 'http://www.wikidata.org/entity/Q30271415', 'http://www.wikidata.org/entity/Q30271424', 'http://www.wikidata.org/entity/Q30271440', 'http://www.wikidata.org/entity/Q7966487', 'http://www.wikidata.org/entity/Q7968554', 'http://www.wikidata.org/entity/Q7996481', 'http://www.wikidata.org/entity/Q8055234', 'http://www.wikidata.org/entity/Q8057958', 'http://www.wikidata.org/entity/Q8073252', 'http://www.wikidata.org/entity/Q17031596', 'http://www.wikidata.org/entity/Q17040754', 'http://www.wikidata.org/entity/Q17052696', 'http://www.wikidata.org/entity/Q24189845', 'http://www.wikidata.org/entity/Q30267092', 'http://www.wikidata.org/entity/Q30267107', 'http://www.wikidata.org/entity/Q30267157', 'http://www.wikidata.org/entity/Q30267303', 'http://www.wikidata.org/entity/Q30267318', 'http://www.wikidata.org/entity/Q30267324', 'http://www.wikidata.org/entity/Q30267336', 'http://www.wikidata.org/entity/Q30267419', 'http://www.wikidata.org/entity/Q30267879', 'http://www.wikidata.org/entity/Q7369412', 'http://www.wikidata.org/entity/Q7374328', 'http://www.wikidata.org/entity/Q7390459', 'http://www.wikidata.org/entity/Q21015833', 'http://www.wikidata.org/entity/Q23073523', 'http://www.wikidata.org/entity/Q23073752', 'http://www.wikidata.org/entity/Q23073767', 'http://www.wikidata.org/entity/Q23073836', 'http://www.wikidata.org/entity/Q23073933', 'http://www.wikidata.org/entity/Q28428567', 'http://www.wikidata.org/entity/Q28458352', 'http://www.wikidata.org/entity/Q30269892', 'http://www.wikidata.org/entity/Q30270092', 'http://www.wikidata.org/entity/Q30270179', 'http://www.wikidata.org/entity/Q30270177', 'http://www.wikidata.org/entity/Q30271118', 'http://www.wikidata.org/entity/Q30271152', 'http://www.wikidata.org/entity/Q28220029', 'http://www.wikidata.org/entity/Q28224015', 'http://www.wikidata.org/entity/Q28224070', 'http://www.wikidata.org/entity/Q28224129', 'http://www.wikidata.org/entity/Q30253739', 'http://www.wikidata.org/entity/Q30256213', 'http://www.wikidata.org/entity/Q30259226', 'http://www.wikidata.org/entity/Q30259575', 'http://www.wikidata.org/entity/Q30264410', 'http://www.wikidata.org/entity/Q30264545', 'http://www.wikidata.org/entity/Q30264611', 'http://www.wikidata.org/entity/Q30264608', 'http://www.wikidata.org/entity/Q30272014', 'http://www.wikidata.org/entity/Q30272032', 'http://www.wikidata.org/entity/Q30272036', 'http://www.wikidata.org/entity/Q30272058', 'http://www.wikidata.org/entity/Q30272480', 'http://www.wikidata.org/entity/Q30272560', 'http://www.wikidata.org/entity/Q30272577', 'http://www.wikidata.org/entity/Q30287670', 'http://www.wikidata.org/entity/Q30288021', 'http://www.wikidata.org/entity/Q30288035', 'http://www.wikidata.org/entity/Q30288054', 'http://www.wikidata.org/entity/Q36875191', 'http://www.wikidata.org/entity/Q18162432', 'http://www.wikidata.org/entity/Q24896633', 'http://www.wikidata.org/entity/Q30268164', 'http://www.wikidata.org/entity/Q30273238', 'http://www.wikidata.org/entity/Q30273302', 'http://www.wikidata.org/entity/Q30274277', 'http://www.wikidata.org/entity/Q30289631', 'http://www.wikidata.org/entity/Q30290741', 'http://www.wikidata.org/entity/Q30264648', 'http://www.wikidata.org/entity/Q30264708', 'http://www.wikidata.org/entity/Q30264718', 'http://www.wikidata.org/entity/Q30264716', 'http://www.wikidata.org/entity/Q30264727', 'http://www.wikidata.org/entity/Q30264751', 'http://www.wikidata.org/entity/Q30264748', 'http://www.wikidata.org/entity/Q30264770', 'http://www.wikidata.org/entity/Q30282084', 'http://www.wikidata.org/entity/Q30282101', 'http://www.wikidata.org/entity/Q30282252', 'http://www.wikidata.org/entity/Q30282344', 'http://www.wikidata.org/entity/Q30292145', 'http://www.wikidata.org/entity/Q30296743', 'http://www.wikidata.org/entity/Q30296832', 'http://www.wikidata.org/entity/Q33121824', 'http://www.wikidata.org/entity/Q33121829', 'http://www.wikidata.org/entity/Q33121909', 'http://www.wikidata.org/entity/Q33121931', 'http://www.wikidata.org/entity/Q33121943', 'http://www.wikidata.org/entity/Q36875313', 'http://www.wikidata.org/entity/Q50035460', 'http://www.wikidata.org/entity/Q50035906', 'http://www.wikidata.org/entity/Q50035905', 'http://www.wikidata.org/entity/Q30265039', 'http://www.wikidata.org/entity/Q30265371', 'http://www.wikidata.org/entity/Q30265704', 'http://www.wikidata.org/entity/Q30265708', 'http://www.wikidata.org/entity/Q30265755', 'http://www.wikidata.org/entity/Q30265757', 'http://www.wikidata.org/entity/Q30270974', 'http://www.wikidata.org/entity/Q30270993', 'http://www.wikidata.org/entity/Q30271044', 'http://www.wikidata.org/entity/Q30272996', 'http://www.wikidata.org/entity/Q30273001', 'http://www.wikidata.org/entity/Q30273082', 'http://www.wikidata.org/entity/Q30273097', 'http://www.wikidata.org/entity/Q30273179', 'http://www.wikidata.org/entity/Q30273212', 'http://www.wikidata.org/entity/Q30296564', 'http://www.wikidata.org/entity/Q30296607', 'http://www.wikidata.org/entity/Q30296635', 'http://www.wikidata.org/entity/Q30296638', 'http://www.wikidata.org/entity/Q30296637', 'http://www.wikidata.org/entity/Q30296700', 'http://www.wikidata.org/entity/Q30296701', 'http://www.wikidata.org/entity/Q30297059', 'http://www.wikidata.org/entity/Q30297062', 'http://www.wikidata.org/entity/Q30297061', 'http://www.wikidata.org/entity/Q30297067', 'http://www.wikidata.org/entity/Q50036105', 'http://www.wikidata.org/entity/Q30286362', 'http://www.wikidata.org/entity/Q30286374', 'http://www.wikidata.org/entity/Q30297006', 'http://www.wikidata.org/entity/Q30297010', 'http://www.wikidata.org/entity/Q30297008', 'http://www.wikidata.org/entity/Q30297012', 'http://www.wikidata.org/entity/Q30297013', 'http://www.wikidata.org/entity/Q30297019', 'http://www.wikidata.org/entity/Q30297046', 'http://www.wikidata.org/entity/Q30297047', 'http://www.wikidata.org/entity/Q30297051', 'http://www.wikidata.org/entity/Q30297052', 'http://www.wikidata.org/entity/Q30325382', 'http://www.wikidata.org/entity/Q30263740', 'http://www.wikidata.org/entity/Q30263752', 'http://www.wikidata.org/entity/Q30264015', 'http://www.wikidata.org/entity/Q30270768', 'http://www.wikidata.org/entity/Q30270801', 'http://www.wikidata.org/entity/Q30270840', 'http://www.wikidata.org/entity/Q30270853', 'http://www.wikidata.org/entity/Q30270857', 'http://www.wikidata.org/entity/Q30270865', 'http://www.wikidata.org/entity/Q30270875', 'http://www.wikidata.org/entity/Q30270882', 'http://www.wikidata.org/entity/Q30272130', 'http://www.wikidata.org/entity/Q30272170', 'http://www.wikidata.org/entity/Q30272229', 'http://www.wikidata.org/entity/Q30279656', 'http://www.wikidata.org/entity/Q30284084', 'http://www.wikidata.org/entity/Q30284089', 'http://www.wikidata.org/entity/Q30296504', 'http://www.wikidata.org/entity/Q45132022', 'http://www.wikidata.org/entity/Q45132085', 'http://www.wikidata.org/entity/Q45135935', 'http://www.wikidata.org/entity/Q45136594', 'http://www.wikidata.org/entity/Q45136884', 'http://www.wikidata.org/entity/Q45133203', 'http://www.wikidata.org/entity/Q45133427', 'http://www.wikidata.org/entity/Q45133758', 'http://www.wikidata.org/entity/Q45135167', 'http://www.wikidata.org/entity/Q50037644', 'http://www.wikidata.org/entity/Q50039035', 'http://www.wikidata.org/entity/Q50039036', 'http://www.wikidata.org/entity/Q50039047', 'http://www.wikidata.org/entity/Q50039045', 'http://www.wikidata.org/entity/Q50039048', 'http://www.wikidata.org/entity/Q50039057', 'http://www.wikidata.org/entity/Q50039060', 'http://www.wikidata.org/entity/Q50039072', 'http://www.wikidata.org/entity/Q50039078', 'http://www.wikidata.org/entity/Q50039077', 'http://www.wikidata.org/entity/Q50039087', 'http://www.wikidata.org/entity/Q50039085', 'http://www.wikidata.org/entity/Q50039090', 'http://www.wikidata.org/entity/Q50039091', 'http://www.wikidata.org/entity/Q50039098', 'http://www.wikidata.org/entity/Q50039099', 'http://www.wikidata.org/entity/Q50039882', 'http://www.wikidata.org/entity/Q50039893', 'http://www.wikidata.org/entity/Q50039899', 'http://www.wikidata.org/entity/Q50039916', 'http://www.wikidata.org/entity/Q50039922', 'http://www.wikidata.org/entity/Q50039921', 'http://www.wikidata.org/entity/Q50039927', 'http://www.wikidata.org/entity/Q50039925', 'http://www.wikidata.org/entity/Q50039935', 'http://www.wikidata.org/entity/Q50039938', 'http://www.wikidata.org/entity/Q50039936', 'http://www.wikidata.org/entity/Q50039950', 'http://www.wikidata.org/entity/Q50039951', 'http://www.wikidata.org/entity/Q30272769', 'http://www.wikidata.org/entity/Q30272806', 'http://www.wikidata.org/entity/Q30272867', 'http://www.wikidata.org/entity/Q30272869', 'http://www.wikidata.org/entity/Q30272873', 'http://www.wikidata.org/entity/Q30272916', 'http://www.wikidata.org/entity/Q42417561', 'http://www.wikidata.org/entity/Q50040366', 'http://www.wikidata.org/entity/Q50037437', 'http://www.wikidata.org/entity/Q50037447', 'http://www.wikidata.org/entity/Q56564150', 'http://www.wikidata.org/entity/Q56672733', 'http://www.wikidata.org/entity/Q50357845', 'http://www.wikidata.org/entity/Q60752168', 'http://www.wikidata.org/entity/Q60753795', 'http://www.wikidata.org/entity/Q55635434', 'http://www.wikidata.org/entity/Q61931466', 'http://www.wikidata.org/entity/Q61931956', 'http://www.wikidata.org/entity/Q59292017', 'http://www.wikidata.org/entity/Q101320088', 'http://www.wikidata.org/entity/Q101352555', 'http://www.wikidata.org/entity/Q61827577', 'http://www.wikidata.org/entity/Q61883318', 'http://www.wikidata.org/entity/Q62566849', 'http://www.wikidata.org/entity/Q59536819', 'http://www.wikidata.org/entity/Q104857330', 'http://www.wikidata.org/entity/Q104901697', 'http://www.wikidata.org/entity/Q105438889', 'http://www.wikidata.org/entity/Q106342699', 'http://www.wikidata.org/entity/Q66132398', 'http://www.wikidata.org/entity/Q98640111', 'http://www.wikidata.org/entity/Q99600000', 'http://www.wikidata.org/entity/Q107519959', 'http://www.wikidata.org/entity/Q65047615', 'http://www.wikidata.org/entity/Q65073083', 'http://www.wikidata.org/entity/Q97040353', 'http://www.wikidata.org/entity/Q110723662', 'http://www.wikidata.org/entity/Q111352818', 'http://www.wikidata.org/entity/Q73411767', 'http://www.wikidata.org/entity/Q81136362', 'http://www.wikidata.org/entity/Q104426620', 'http://www.wikidata.org/entity/Q104665590', 'http://www.wikidata.org/entity/Q104759169', 'http://www.wikidata.org/entity/Q106606502', 'http://www.wikidata.org/entity/Q97041805', 'http://www.wikidata.org/entity/Q109111846', 'http://www.wikidata.org/entity/Q109112665', 'http://www.wikidata.org/entity/Q122154876', 'http://www.wikidata.org/entity/Q122154881', 'http://www.wikidata.org/entity/Q122154904', 'http://www.wikidata.org/entity/Q125057391', 'http://www.wikidata.org/entity/Q106412024', 'http://www.wikidata.org/entity/Q107150007', 'http://www.wikidata.org/entity/Q108737244', 'http://www.wikidata.org/entity/Q108737305', 'http://www.wikidata.org/entity/Q108737498', 'http://www.wikidata.org/entity/Q108737610', 'http://www.wikidata.org/entity/Q108756508', 'http://www.wikidata.org/entity/Q111526515', 'http://www.wikidata.org/entity/Q114842613', 'http://www.wikidata.org/entity/Q122883324', 'http://www.wikidata.org/entity/Q123016853', 'http://www.wikidata.org/entity/Q123032855', 'http://www.wikidata.org/entity/Q123188306', 'http://www.wikidata.org/entity/Q123201776', 'http://www.wikidata.org/entity/Q96379918', 'http://www.wikidata.org/entity/Q97647926', 'http://www.wikidata.org/entity/Q106978222', 'http://www.wikidata.org/entity/Q110723912', 'http://www.wikidata.org/entity/Q110877406', 'http://www.wikidata.org/entity/Q114016469', 'http://www.wikidata.org/entity/Q114055494', 'http://www.wikidata.org/entity/Q107517834', 'http://www.wikidata.org/entity/Q107518500', 'http://www.wikidata.org/entity/Q107519126', 'http://www.wikidata.org/entity/Q111665833', 'http://www.wikidata.org/entity/Q112731383', 'http://www.wikidata.org/entity/Q112752083', 'http://www.wikidata.org/entity/Q113095323', 'http://www.wikidata.org/entity/Q113551486', 'http://www.wikidata.org/entity/Q115088304', 'http://www.wikidata.org/entity/Q115110762', 'http://www.wikidata.org/entity/Q115112409', 'http://www.wikidata.org/entity/Q115241836', 'http://www.wikidata.org/entity/Q115411044', 'http://www.wikidata.org/entity/Q119248151', 'http://www.wikidata.org/entity/Q119857298', 'http://www.wikidata.org/entity/Q120837260', 'http://www.wikidata.org/entity/Q120983064', 'http://www.wikidata.org/entity/Q122763717', 'http://www.wikidata.org/entity/Q122763797', 'http://www.wikidata.org/entity/Q124516313', 'http://www.wikidata.org/entity/Q124525839', 'http://www.wikidata.org/entity/Q124526097', 'http://www.wikidata.org/entity/Q124536863', 'http://www.wikidata.org/entity/Q125632436', 'http://www.wikidata.org/entity/Q125726526', 'http://www.wikidata.org/entity/Q125761855', 'http://www.wikidata.org/entity/Q125761895', 'http://www.wikidata.org/entity/Q117405662', 'http://www.wikidata.org/entity/Q117468231', 'http://www.wikidata.org/entity/Q118444592', 'http://www.wikidata.org/entity/Q124289527', 'http://www.wikidata.org/entity/Q124613235', 'http://www.wikidata.org/entity/Q124634970', 'http://www.wikidata.org/entity/Q123695109', 'http://www.wikidata.org/entity/Q130542509', 'http://www.wikidata.org/entity/Q130746621', 'http://www.wikidata.org/entity/Q116980418', 'http://www.wikidata.org/entity/Q116980494', 'http://www.wikidata.org/entity/Q123382145', 'http://www.wikidata.org/entity/Q123382175', 'http://www.wikidata.org/entity/Q123512469', 'http://www.wikidata.org/entity/Q126208876', 'http://www.wikidata.org/entity/Q126550958', 'http://www.wikidata.org/entity/Q118213345', 'http://www.wikidata.org/entity/Q132471924', 'http://www.wikidata.org/entity/Q127415560', 'http://www.wikidata.org/entity/Q130314652', 'http://www.wikidata.org/entity/Q131941186']</t>
         </is>
       </c>
     </row>
@@ -1948,7 +1948,7 @@
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>['http://www.wikidata.org/entity/Q642825', 'http://www.wikidata.org/entity/Q670268', 'http://www.wikidata.org/entity/Q742488', 'http://www.wikidata.org/entity/Q1435661', 'http://www.wikidata.org/entity/Q2255375', 'http://www.wikidata.org/entity/Q2383302', 'http://www.wikidata.org/entity/Q2655828', 'http://www.wikidata.org/entity/Q2992085', 'http://www.wikidata.org/entity/Q3058119', 'http://www.wikidata.org/entity/Q3329038', 'http://www.wikidata.org/entity/Q3329101', 'http://www.wikidata.org/entity/Q3329289', 'http://www.wikidata.org/entity/Q3329319', 'http://www.wikidata.org/entity/Q3329379', 'http://www.wikidata.org/entity/Q3329749', 'http://www.wikidata.org/entity/Q3329795', 'http://www.wikidata.org/entity/Q3329972', 'http://www.wikidata.org/entity/Q3330260', 'http://www.wikidata.org/entity/Q3330353', 'http://www.wikidata.org/entity/Q3364646', 'http://www.wikidata.org/entity/Q3527406', 'http://www.wikidata.org/entity/Q6943609', 'http://www.wikidata.org/entity/Q12130529', 'http://www.wikidata.org/entity/Q12505361', 'http://www.wikidata.org/entity/Q13651333', 'http://www.wikidata.org/entity/Q21076028', 'http://www.wikidata.org/entity/Q111209139', 'http://www.wikidata.org/entity/Q112224724', 'http://www.wikidata.org/entity/Q28819543', 'http://www.wikidata.org/entity/Q46625757', 'http://www.wikidata.org/entity/Q56303934', 'http://www.wikidata.org/entity/Q88640485']</t>
+          <t>['http://www.wikidata.org/entity/Q642825', 'http://www.wikidata.org/entity/Q670268', 'http://www.wikidata.org/entity/Q742488', 'http://www.wikidata.org/entity/Q1435661', 'http://www.wikidata.org/entity/Q2255375', 'http://www.wikidata.org/entity/Q2383302', 'http://www.wikidata.org/entity/Q2655828', 'http://www.wikidata.org/entity/Q2992085', 'http://www.wikidata.org/entity/Q3058119', 'http://www.wikidata.org/entity/Q3329038', 'http://www.wikidata.org/entity/Q3329101', 'http://www.wikidata.org/entity/Q3329289', 'http://www.wikidata.org/entity/Q3329319', 'http://www.wikidata.org/entity/Q3329379', 'http://www.wikidata.org/entity/Q3329749', 'http://www.wikidata.org/entity/Q3329795', 'http://www.wikidata.org/entity/Q3329972', 'http://www.wikidata.org/entity/Q3330260', 'http://www.wikidata.org/entity/Q3330353', 'http://www.wikidata.org/entity/Q3364646', 'http://www.wikidata.org/entity/Q3527406', 'http://www.wikidata.org/entity/Q6943609', 'http://www.wikidata.org/entity/Q12130529', 'http://www.wikidata.org/entity/Q12505361', 'http://www.wikidata.org/entity/Q13651333', 'http://www.wikidata.org/entity/Q112224724', 'http://www.wikidata.org/entity/Q21076028', 'http://www.wikidata.org/entity/Q28819543', 'http://www.wikidata.org/entity/Q46625757', 'http://www.wikidata.org/entity/Q56303934', 'http://www.wikidata.org/entity/Q131693670', 'http://www.wikidata.org/entity/Q88640485', 'http://www.wikidata.org/entity/Q111209139']</t>
         </is>
       </c>
     </row>
@@ -2058,7 +2058,7 @@
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>['http://www.wikidata.org/entity/Q23953', 'http://www.wikidata.org/entity/Q25571', 'http://www.wikidata.org/entity/Q25974', 'http://www.wikidata.org/entity/Q26734', 'http://www.wikidata.org/entity/Q26763', 'http://www.wikidata.org/entity/Q28152', 'http://www.wikidata.org/entity/Q28998', 'http://www.wikidata.org/entity/Q29898', 'http://www.wikidata.org/entity/Q31152', 'http://www.wikidata.org/entity/Q32223', 'http://www.wikidata.org/entity/Q35393', 'http://www.wikidata.org/entity/Q18994', 'http://www.wikidata.org/entity/Q20235', 'http://www.wikidata.org/entity/Q22563', 'http://www.wikidata.org/entity/Q22575', 'http://www.wikidata.org/entity/Q22675', 'http://www.wikidata.org/entity/Q2680', 'http://www.wikidata.org/entity/Q4612', 'http://www.wikidata.org/entity/Q4673', 'http://www.wikidata.org/entity/Q4826', 'http://www.wikidata.org/entity/Q40645', 'http://www.wikidata.org/entity/Q43769', 'http://www.wikidata.org/entity/Q43774', 'http://www.wikidata.org/entity/Q43781', 'http://www.wikidata.org/entity/Q99544', 'http://www.wikidata.org/entity/Q99569', 'http://www.wikidata.org/entity/Q99575', 'http://www.wikidata.org/entity/Q99577', 'http://www.wikidata.org/entity/Q99635', 'http://www.wikidata.org/entity/Q99632', 'http://www.wikidata.org/entity/Q99662', 'http://www.wikidata.org/entity/Q99710', 'http://www.wikidata.org/entity/Q99714', 'http://www.wikidata.org/entity/Q99719', 'http://www.wikidata.org/entity/Q99732', 'http://www.wikidata.org/entity/Q99743', 'http://www.wikidata.org/entity/Q99799', 'http://www.wikidata.org/entity/Q99891', 'http://www.wikidata.org/entity/Q99888', 'http://www.wikidata.org/entity/Q99893', 'http://www.wikidata.org/entity/Q99913', 'http://www.wikidata.org/entity/Q100028', 'http://www.wikidata.org/entity/Q100122', 'http://www.wikidata.org/entity/Q100175', 'http://www.wikidata.org/entity/Q100220', 'http://www.wikidata.org/entity/Q100227', 'http://www.wikidata.org/entity/Q100224', 'http://www.wikidata.org/entity/Q100251', 'http://www.wikidata.org/entity/Q100264', 'http://www.wikidata.org/entity/Q100269', 'http://www.wikidata.org/entity/Q100293', 'http://www.wikidata.org/entity/Q100299', 'http://www.wikidata.org/entity/Q100318', 'http://www.wikidata.org/entity/Q100322', 'http://www.wikidata.org/entity/Q100333', 'http://www.wikidata.org/entity/Q100338', 'http://www.wikidata.org/entity/Q100337', 'http://www.wikidata.org/entity/Q100356', 'http://www.wikidata.org/entity/Q100395', 'http://www.wikidata.org/entity/Q100414', 'http://www.wikidata.org/entity/Q100415', 'http://www.wikidata.org/entity/Q100417', 'http://www.wikidata.org/entity/Q100422', 'http://www.wikidata.org/entity/Q100451', 'http://www.wikidata.org/entity/Q100506', 'http://www.wikidata.org/entity/Q100535', 'http://www.wikidata.org/entity/Q100545', 'http://www.wikidata.org/entity/Q100562', 'http://www.wikidata.org/entity/Q100571', 'http://www.wikidata.org/entity/Q100572', 'http://www.wikidata.org/entity/Q100602', 'http://www.wikidata.org/entity/Q100658', 'http://www.wikidata.org/entity/Q100673', 'http://www.wikidata.org/entity/Q100708', 'http://www.wikidata.org/entity/Q100781', 'http://www.wikidata.org/entity/Q100841', 'http://www.wikidata.org/entity/Q100844', 'http://www.wikidata.org/entity/Q100893', 'http://www.wikidata.org/entity/Q100903', 'http://www.wikidata.org/entity/Q100989', 'http://www.wikidata.org/entity/Q101019', 'http://www.wikidata.org/entity/Q101059', 'http://www.wikidata.org/entity/Q101079', 'http://www.wikidata.org/entity/Q101094', 'http://www.wikidata.org/entity/Q101104', 'http://www.wikidata.org/entity/Q101120', 'http://www.wikidata.org/entity/Q101149', 'http://www.wikidata.org/entity/Q101171', 'http://www.wikidata.org/entity/Q101177', 'http://www.wikidata.org/entity/Q101189', 'http://www.wikidata.org/entity/Q101203', 'http://www.wikidata.org/entity/Q101218', 'http://www.wikidata.org/entity/Q101223', 'http://www.wikidata.org/entity/Q101231', 'http://www.wikidata.org/entity/Q101228', 'http://www.wikidata.org/entity/Q101238', 'http://www.wikidata.org/entity/Q101243', 'http://www.wikidata.org/entity/Q101267', 'http://www.wikidata.org/entity/Q101347', 'http://www.wikidata.org/entity/Q101380', 'http://www.wikidata.org/entity/Q101381', 'http://www.wikidata.org/entity/Q101392', 'http://www.wikidata.org/entity/Q101434', 'http://www.wikidata.org/entity/Q101476', 'http://www.wikidata.org/entity/Q101524', 'http://www.wikidata.org/entity/Q43790', 'http://www.wikidata.org/entity/Q43797', 'http://www.wikidata.org/entity/Q43805', 'http://www.wikidata.org/entity/Q43823', 'http://www.wikidata.org/entity/Q43826', 'http://www.wikidata.org/entity/Q43881', 'http://www.wikidata.org/entity/Q43897', 'http://www.wikidata.org/entity/Q44131', 'http://www.wikidata.org/entity/Q44426', 'http://www.wikidata.org/entity/Q44634', 'http://www.wikidata.org/entity/Q44736', 'http://www.wikidata.org/entity/Q45221', 'http://www.wikidata.org/entity/Q45255', 'http://www.wikidata.org/entity/Q45291', 'http://www.wikidata.org/entity/Q45292', 'http://www.wikidata.org/entity/Q45338', 'http://www.wikidata.org/entity/Q45357', 'http://www.wikidata.org/entity/Q45370', 'http://www.wikidata.org/entity/Q45430', 'http://www.wikidata.org/entity/Q45542', 'http://www.wikidata.org/entity/Q45558', 'http://www.wikidata.org/entity/Q105607', 'http://www.wikidata.org/entity/Q119564', 'http://www.wikidata.org/entity/Q119573', 'http://www.wikidata.org/entity/Q119604', 'http://www.wikidata.org/entity/Q119634', 'http://www.wikidata.org/entity/Q119650', 'http://www.wikidata.org/entity/Q119766', 'http://www.wikidata.org/entity/Q119838', 'http://www.wikidata.org/entity/Q119867', 'http://www.wikidata.org/entity/Q119910', 'http://www.wikidata.org/entity/Q119923', 'http://www.wikidata.org/entity/Q120102', 'http://www.wikidata.org/entity/Q120144', 'http://www.wikidata.org/entity/Q120149', 'http://www.wikidata.org/entity/Q120257', 'http://www.wikidata.org/entity/Q120283', 'http://www.wikidata.org/entity/Q120287', 'http://www.wikidata.org/entity/Q120291', 'http://www.wikidata.org/entity/Q120353', 'http://www.wikidata.org/entity/Q120391', 'http://www.wikidata.org/entity/Q120388', 'http://www.wikidata.org/entity/Q120418', 'http://www.wikidata.org/entity/Q120426', 'http://www.wikidata.org/entity/Q120472', 'http://www.wikidata.org/entity/Q120522', 'http://www.wikidata.org/entity/Q120545', 'http://www.wikidata.org/entity/Q120570', 'http://www.wikidata.org/entity/Q120598', 'http://www.wikidata.org/entity/Q120607', 'http://www.wikidata.org/entity/Q120665', 'http://www.wikidata.org/entity/Q120674', 'http://www.wikidata.org/entity/Q120695', 'http://www.wikidata.org/entity/Q120713', 'http://www.wikidata.org/entity/Q120732', 'http://www.wikidata.org/entity/Q120786', 'http://www.wikidata.org/entity/Q120825', 'http://www.wikidata.org/entity/Q120895', 'http://www.wikidata.org/entity/Q120957', 'http://www.wikidata.org/entity/Q120985', 'http://www.wikidata.org/entity/Q121007', 'http://www.wikidata.org/entity/Q121043', 'http://www.wikidata.org/entity/Q121045', 'http://www.wikidata.org/entity/Q121051', 'http://www.wikidata.org/entity/Q121214', 'http://www.wikidata.org/entity/Q121263', 'http://www.wikidata.org/entity/Q121282', 'http://www.wikidata.org/entity/Q121322', 'http://www.wikidata.org/entity/Q121365', 'http://www.wikidata.org/entity/Q121375', 'http://www.wikidata.org/entity/Q121389', 'http://www.wikidata.org/entity/Q121408', 'http://www.wikidata.org/entity/Q121431', 'http://www.wikidata.org/entity/Q121560', 'http://www.wikidata.org/entity/Q121582', 'http://www.wikidata.org/entity/Q121699', 'http://www.wikidata.org/entity/Q50949', 'http://www.wikidata.org/entity/Q51537', 'http://www.wikidata.org/entity/Q51562', 'http://www.wikidata.org/entity/Q52030', 'http://www.wikidata.org/entity/Q55415', 'http://www.wikidata.org/entity/Q55413', 'http://www.wikidata.org/entity/Q55418', 'http://www.wikidata.org/entity/Q62346', 'http://www.wikidata.org/entity/Q57114', 'http://www.wikidata.org/entity/Q57118', 'http://www.wikidata.org/entity/Q57147', 'http://www.wikidata.org/entity/Q57292', 'http://www.wikidata.org/entity/Q57316', 'http://www.wikidata.org/entity/Q57391', 'http://www.wikidata.org/entity/Q57584', 'http://www.wikidata.org/entity/Q57604', 'http://www.wikidata.org/entity/Q57614', 'http://www.wikidata.org/entity/Q57686', 'http://www.wikidata.org/entity/Q58065', 'http://www.wikidata.org/entity/Q58603', 'http://www.wikidata.org/entity/Q58747', 'http://www.wikidata.org/entity/Q58801', 'http://www.wikidata.org/entity/Q58822', 'http://www.wikidata.org/entity/Q58866', 'http://www.wikidata.org/entity/Q60036', 'http://www.wikidata.org/entity/Q60306', 'http://www.wikidata.org/entity/Q60539', 'http://www.wikidata.org/entity/Q60659', 'http://www.wikidata.org/entity/Q60687', 'http://www.wikidata.org/entity/Q60763', 'http://www.wikidata.org/entity/Q60863', 'http://www.wikidata.org/entity/Q60876', 'http://www.wikidata.org/entity/Q60905', 'http://www.wikidata.org/entity/Q60917', 'http://www.wikidata.org/entity/Q60996', 'http://www.wikidata.org/entity/Q61074', 'http://www.wikidata.org/entity/Q61099', 'http://www.wikidata.org/entity/Q61112', 'http://www.wikidata.org/entity/Q61238', 'http://www.wikidata.org/entity/Q61260', 'http://www.wikidata.org/entity/Q61356', 'http://www.wikidata.org/entity/Q61376', 'http://www.wikidata.org/entity/Q61393', 'http://www.wikidata.org/entity/Q61510', 'http://www.wikidata.org/entity/Q61552', 'http://www.wikidata.org/entity/Q61597', 'http://www.wikidata.org/entity/Q61608', 'http://www.wikidata.org/entity/Q61677', 'http://www.wikidata.org/entity/Q62052', 'http://www.wikidata.org/entity/Q62135', 'http://www.wikidata.org/entity/Q62285', 'http://www.wikidata.org/entity/Q62327', 'http://www.wikidata.org/entity/Q103544', 'http://www.wikidata.org/entity/Q103611', 'http://www.wikidata.org/entity/Q103623', 'http://www.wikidata.org/entity/Q103637', 'http://www.wikidata.org/entity/Q103643', 'http://www.wikidata.org/entity/Q103656', 'http://www.wikidata.org/entity/Q103696', 'http://www.wikidata.org/entity/Q103702', 'http://www.wikidata.org/entity/Q103718', 'http://www.wikidata.org/entity/Q103727', 'http://www.wikidata.org/entity/Q103746', 'http://www.wikidata.org/entity/Q103760', 'http://www.wikidata.org/entity/Q103805', 'http://www.wikidata.org/entity/Q103845', 'http://www.wikidata.org/entity/Q103851', 'http://www.wikidata.org/entity/Q103863', 'http://www.wikidata.org/entity/Q103868', 'http://www.wikidata.org/entity/Q103920', 'http://www.wikidata.org/entity/Q103948', 'http://www.wikidata.org/entity/Q103961', 'http://www.wikidata.org/entity/Q103986', 'http://www.wikidata.org/entity/Q104006', 'http://www.wikidata.org/entity/Q104008', 'http://www.wikidata.org/entity/Q104084', 'http://www.wikidata.org/entity/Q104094', 'http://www.wikidata.org/entity/Q104121', 'http://www.wikidata.org/entity/Q104141', 'http://www.wikidata.org/entity/Q104196', 'http://www.wikidata.org/entity/Q104208', 'http://www.wikidata.org/entity/Q104213', 'http://www.wikidata.org/entity/Q104371', 'http://www.wikidata.org/entity/Q104385', 'http://www.wikidata.org/entity/Q104427', 'http://www.wikidata.org/entity/Q104476', 'http://www.wikidata.org/entity/Q104523', 'http://www.wikidata.org/entity/Q104544', 'http://www.wikidata.org/entity/Q104568', 'http://www.wikidata.org/entity/Q104578', 'http://www.wikidata.org/entity/Q104576', 'http://www.wikidata.org/entity/Q104601', 'http://www.wikidata.org/entity/Q104604', 'http://www.wikidata.org/entity/Q104667', 'http://www.wikidata.org/entity/Q104665', 'http://www.wikidata.org/entity/Q104670', 'http://www.wikidata.org/entity/Q104702', 'http://www.wikidata.org/entity/Q104730', 'http://www.wikidata.org/entity/Q104737', 'http://www.wikidata.org/entity/Q104741', 'http://www.wikidata.org/entity/Q104766', 'http://www.wikidata.org/entity/Q104787', 'http://www.wikidata.org/entity/Q104815', 'http://www.wikidata.org/entity/Q104832', 'http://www.wikidata.org/entity/Q104866', 'http://www.wikidata.org/entity/Q104879', 'http://www.wikidata.org/entity/Q104876', 'http://www.wikidata.org/entity/Q104902', 'http://www.wikidata.org/entity/Q104923', 'http://www.wikidata.org/entity/Q104925', 'http://www.wikidata.org/entity/Q104977', 'http://www.wikidata.org/entity/Q105052', 'http://www.wikidata.org/entity/Q105058', 'http://www.wikidata.org/entity/Q105065', 'http://www.wikidata.org/entity/Q105082', 'http://www.wikidata.org/entity/Q105102', 'http://www.wikidata.org/entity/Q97757', 'http://www.wikidata.org/entity/Q97794', 'http://www.wikidata.org/entity/Q97835', 'http://www.wikidata.org/entity/Q97838', 'http://www.wikidata.org/entity/Q97836', 'http://www.wikidata.org/entity/Q97846', 'http://www.wikidata.org/entity/Q97855', 'http://www.wikidata.org/entity/Q97921', 'http://www.wikidata.org/entity/Q97930', 'http://www.wikidata.org/entity/Q97934', 'http://www.wikidata.org/entity/Q97939', 'http://www.wikidata.org/entity/Q97944', 'http://www.wikidata.org/entity/Q97969', 'http://www.wikidata.org/entity/Q98006', 'http://www.wikidata.org/entity/Q98113', 'http://www.wikidata.org/entity/Q98140', 'http://www.wikidata.org/entity/Q98148', 'http://www.wikidata.org/entity/Q98183', 'http://www.wikidata.org/entity/Q98224', 'http://www.wikidata.org/entity/Q98248', 'http://www.wikidata.org/entity/Q98267', 'http://www.wikidata.org/entity/Q98286', 'http://www.wikidata.org/entity/Q98296', 'http://www.wikidata.org/entity/Q98305', 'http://www.wikidata.org/entity/Q98315', 'http://www.wikidata.org/entity/Q98325', 'http://www.wikidata.org/entity/Q98336', 'http://www.wikidata.org/entity/Q98362', 'http://www.wikidata.org/entity/Q98363', 'http://www.wikidata.org/entity/Q98379', 'http://www.wikidata.org/entity/Q98393', 'http://www.wikidata.org/entity/Q98407', 'http://www.wikidata.org/entity/Q98437', 'http://www.wikidata.org/entity/Q98469', 'http://www.wikidata.org/entity/Q98476', 'http://www.wikidata.org/entity/Q98492', 'http://www.wikidata.org/entity/Q98540', 'http://www.wikidata.org/entity/Q98541', 'http://www.wikidata.org/entity/Q98547', 'http://www.wikidata.org/entity/Q98600', 'http://www.wikidata.org/entity/Q98609', 'http://www.wikidata.org/entity/Q98622', 'http://www.wikidata.org/entity/Q98624', 'http://www.wikidata.org/entity/Q98631', 'http://www.wikidata.org/entity/Q98629', 'http://www.wikidata.org/entity/Q98696', 'http://www.wikidata.org/entity/Q98755', 'http://www.wikidata.org/entity/Q98776', 'http://www.wikidata.org/entity/Q98899', 'http://www.wikidata.org/entity/Q98902', 'http://www.wikidata.org/entity/Q98927', 'http://www.wikidata.org/entity/Q98948', 'http://www.wikidata.org/entity/Q98965', 'http://www.wikidata.org/entity/Q99003', 'http://www.wikidata.org/entity/Q99014', 'http://www.wikidata.org/entity/Q99020', 'http://www.wikidata.org/entity/Q99051', 'http://www.wikidata.org/entity/Q99073', 'http://www.wikidata.org/entity/Q99162', 'http://www.wikidata.org/entity/Q99209', 'http://www.wikidata.org/entity/Q99228', 'http://www.wikidata.org/entity/Q99254', 'http://www.wikidata.org/entity/Q99258', 'http://www.wikidata.org/entity/Q99279', 'http://www.wikidata.org/entity/Q99288', 'http://www.wikidata.org/entity/Q99305', 'http://www.wikidata.org/entity/Q99342', 'http://www.wikidata.org/entity/Q99344', 'http://www.wikidata.org/entity/Q99353', 'http://www.wikidata.org/entity/Q99373', 'http://www.wikidata.org/entity/Q99385', 'http://www.wikidata.org/entity/Q99388', 'http://www.wikidata.org/entity/Q99402', 'http://www.wikidata.org/entity/Q99410', 'http://www.wikidata.org/entity/Q99430', 'http://www.wikidata.org/entity/Q99509', 'http://www.wikidata.org/entity/Q99528', 'http://www.wikidata.org/entity/Q99529', 'http://www.wikidata.org/entity/Q99532', 'http://www.wikidata.org/entity/Q103433', 'http://www.wikidata.org/entity/Q103476', 'http://www.wikidata.org/entity/Q65550', 'http://www.wikidata.org/entity/Q65774', 'http://www.wikidata.org/entity/Q65922', 'http://www.wikidata.org/entity/Q66011', 'http://www.wikidata.org/entity/Q66019', 'http://www.wikidata.org/entity/Q66027', 'http://www.wikidata.org/entity/Q66097', 'http://www.wikidata.org/entity/Q66126', 'http://www.wikidata.org/entity/Q66236', 'http://www.wikidata.org/entity/Q66372', 'http://www.wikidata.org/entity/Q66377', 'http://www.wikidata.org/entity/Q66408', 'http://www.wikidata.org/entity/Q66423', 'http://www.wikidata.org/entity/Q66434', 'http://www.wikidata.org/entity/Q66465', 'http://www.wikidata.org/entity/Q66479', 'http://www.wikidata.org/entity/Q66519', 'http://www.wikidata.org/entity/Q66742', 'http://www.wikidata.org/entity/Q62353', 'http://www.wikidata.org/entity/Q62510', 'http://www.wikidata.org/entity/Q62508', 'http://www.wikidata.org/entity/Q62581', 'http://www.wikidata.org/entity/Q62648', 'http://www.wikidata.org/entity/Q62676', 'http://www.wikidata.org/entity/Q62681', 'http://www.wikidata.org/entity/Q62740', 'http://www.wikidata.org/entity/Q62848', 'http://www.wikidata.org/entity/Q62929', 'http://www.wikidata.org/entity/Q63003', 'http://www.wikidata.org/entity/Q63033', 'http://www.wikidata.org/entity/Q63051', 'http://www.wikidata.org/entity/Q63059', 'http://www.wikidata.org/entity/Q63062', 'http://www.wikidata.org/entity/Q63187', 'http://www.wikidata.org/entity/Q63189', 'http://www.wikidata.org/entity/Q63220', 'http://www.wikidata.org/entity/Q63296', 'http://www.wikidata.org/entity/Q63317', 'http://www.wikidata.org/entity/Q63450', 'http://www.wikidata.org/entity/Q63523', 'http://www.wikidata.org/entity/Q63586', 'http://www.wikidata.org/entity/Q63641', 'http://www.wikidata.org/entity/Q63722', 'http://www.wikidata.org/entity/Q63781', 'http://www.wikidata.org/entity/Q63910', 'http://www.wikidata.org/entity/Q63960', 'http://www.wikidata.org/entity/Q64008', 'http://www.wikidata.org/entity/Q64150', 'http://www.wikidata.org/entity/Q64260', 'http://www.wikidata.org/entity/Q64645', 'http://www.wikidata.org/entity/Q64823', 'http://www.wikidata.org/entity/Q65003', 'http://www.wikidata.org/entity/Q65023', 'http://www.wikidata.org/entity/Q65068', 'http://www.wikidata.org/entity/Q65105', 'http://www.wikidata.org/entity/Q65111', 'http://www.wikidata.org/entity/Q65116', 'http://www.wikidata.org/entity/Q65144', 'http://www.wikidata.org/entity/Q65154', 'http://www.wikidata.org/entity/Q65359', 'http://www.wikidata.org/entity/Q65496', 'http://www.wikidata.org/entity/Q65511', 'http://www.wikidata.org/entity/Q88997', 'http://www.wikidata.org/entity/Q89032', 'http://www.wikidata.org/entity/Q89052', 'http://www.wikidata.org/entity/Q89065', 'http://www.wikidata.org/entity/Q89069', 'http://www.wikidata.org/entity/Q89103', 'http://www.wikidata.org/entity/Q89105', 'http://www.wikidata.org/entity/Q89130', 'http://www.wikidata.org/entity/Q89155', 'http://www.wikidata.org/entity/Q89182', 'http://www.wikidata.org/entity/Q89187', 'http://www.wikidata.org/entity/Q89189', 'http://www.wikidata.org/entity/Q89338', 'http://www.wikidata.org/entity/Q89342', 'http://www.wikidata.org/entity/Q89358', 'http://www.wikidata.org/entity/Q89375', 'http://www.wikidata.org/entity/Q89446', 'http://www.wikidata.org/entity/Q89458', 'http://www.wikidata.org/entity/Q89469', 'http://www.wikidata.org/entity/Q89473', 'http://www.wikidata.org/entity/Q89480', 'http://www.wikidata.org/entity/Q89484', 'http://www.wikidata.org/entity/Q89499', 'http://www.wikidata.org/entity/Q89501', 'http://www.wikidata.org/entity/Q89507', 'http://www.wikidata.org/entity/Q89509', 'http://www.wikidata.org/entity/Q89513', 'http://www.wikidata.org/entity/Q89551', 'http://www.wikidata.org/entity/Q89561', 'http://www.wikidata.org/entity/Q89565', 'http://www.wikidata.org/entity/Q89609', 'http://www.wikidata.org/entity/Q89694', 'http://www.wikidata.org/entity/Q89731', 'http://www.wikidata.org/entity/Q89764', 'http://www.wikidata.org/entity/Q89787', 'http://www.wikidata.org/entity/Q89789', 'http://www.wikidata.org/entity/Q89793', 'http://www.wikidata.org/entity/Q89830', 'http://www.wikidata.org/entity/Q89842', 'http://www.wikidata.org/entity/Q89933', 'http://www.wikidata.org/entity/Q89974', 'http://www.wikidata.org/entity/Q89996', 'http://www.wikidata.org/entity/Q90022', 'http://www.wikidata.org/entity/Q90039', 'http://www.wikidata.org/entity/Q108469', 'http://www.wikidata.org/entity/Q108554', 'http://www.wikidata.org/entity/Q108617', 'http://www.wikidata.org/entity/Q108630', 'http://www.wikidata.org/entity/Q108660', 'http://www.wikidata.org/entity/Q108763', 'http://www.wikidata.org/entity/Q108773', 'http://www.wikidata.org/entity/Q108792', 'http://www.wikidata.org/entity/Q108845', 'http://www.wikidata.org/entity/Q108853', 'http://www.wikidata.org/entity/Q108867', 'http://www.wikidata.org/entity/Q108873', 'http://www.wikidata.org/entity/Q108920', 'http://www.wikidata.org/entity/Q108928', 'http://www.wikidata.org/entity/Q108936', 'http://www.wikidata.org/entity/Q108942', 'http://www.wikidata.org/entity/Q108964', 'http://www.wikidata.org/entity/Q108965', 'http://www.wikidata.org/entity/Q108972', 'http://www.wikidata.org/entity/Q108978', 'http://www.wikidata.org/entity/Q108987', 'http://www.wikidata.org/entity/Q108984', 'http://www.wikidata.org/entity/Q108989', 'http://www.wikidata.org/entity/Q109001', 'http://www.wikidata.org/entity/Q109028', 'http://www.wikidata.org/entity/Q109050', 'http://www.wikidata.org/entity/Q109104', 'http://www.wikidata.org/entity/Q109123', 'http://www.wikidata.org/entity/Q109127', 'http://www.wikidata.org/entity/Q109131', 'http://www.wikidata.org/entity/Q109141', 'http://www.wikidata.org/entity/Q109148', 'http://www.wikidata.org/entity/Q109211', 'http://www.wikidata.org/entity/Q109225', 'http://www.wikidata.org/entity/Q109286', 'http://www.wikidata.org/entity/Q109306', 'http://www.wikidata.org/entity/Q109304', 'http://www.wikidata.org/entity/Q109335', 'http://www.wikidata.org/entity/Q109358', 'http://www.wikidata.org/entity/Q109357', 'http://www.wikidata.org/entity/Q109366', 'http://www.wikidata.org/entity/Q109443', 'http://www.wikidata.org/entity/Q109444', 'http://www.wikidata.org/entity/Q109492', 'http://www.wikidata.org/entity/Q109505', 'http://www.wikidata.org/entity/Q109516', 'http://www.wikidata.org/entity/Q109534', 'http://www.wikidata.org/entity/Q109556', 'http://www.wikidata.org/entity/Q109581', 'http://www.wikidata.org/entity/Q109595', 'http://www.wikidata.org/entity/Q109603', 'http://www.wikidata.org/entity/Q109608', 'http://www.wikidata.org/entity/Q109619', 'http://www.wikidata.org/entity/Q109623', 'http://www.wikidata.org/entity/Q109628', 'http://www.wikidata.org/entity/Q109629', 'http://www.wikidata.org/entity/Q109648', 'http://www.wikidata.org/entity/Q109718', 'http://www.wikidata.org/entity/Q109720', 'http://www.wikidata.org/entity/Q109778', 'http://www.wikidata.org/entity/Q109796', 'http://www.wikidata.org/entity/Q109819', 'http://www.wikidata.org/entity/Q109824', 'http://www.wikidata.org/entity/Q109842', 'http://www.wikidata.org/entity/Q109855', 'http://www.wikidata.org/entity/Q109867', 'http://www.wikidata.org/entity/Q109864', 'http://www.wikidata.org/entity/Q109934', 'http://www.wikidata.org/entity/Q110054', 'http://www.wikidata.org/entity/Q110064', 'http://www.wikidata.org/entity/Q110086', 'http://www.wikidata.org/entity/Q110124', 'http://www.wikidata.org/entity/Q110136', 'http://www.wikidata.org/entity/Q110141', 'http://www.wikidata.org/entity/Q96469', 'http://www.wikidata.org/entity/Q96473', 'http://www.wikidata.org/entity/Q105104', 'http://www.wikidata.org/entity/Q105114', 'http://www.wikidata.org/entity/Q105129', 'http://www.wikidata.org/entity/Q105138', 'http://www.wikidata.org/entity/Q105147', 'http://www.wikidata.org/entity/Q105149', 'http://www.wikidata.org/entity/Q105166', 'http://www.wikidata.org/entity/Q105193', 'http://www.wikidata.org/entity/Q105283', 'http://www.wikidata.org/entity/Q105297', 'http://www.wikidata.org/entity/Q105373', 'http://www.wikidata.org/entity/Q105478', 'http://www.wikidata.org/entity/Q105491', 'http://www.wikidata.org/entity/Q105559', 'http://www.wikidata.org/entity/Q105610', 'http://www.wikidata.org/entity/Q105613', 'http://www.wikidata.org/entity/Q105631', 'http://www.wikidata.org/entity/Q105642', 'http://www.wikidata.org/entity/Q105665', 'http://www.wikidata.org/entity/Q105679', 'http://www.wikidata.org/entity/Q105681', 'http://www.wikidata.org/entity/Q105691', 'http://www.wikidata.org/entity/Q105716', 'http://www.wikidata.org/entity/Q105770', 'http://www.wikidata.org/entity/Q105785', 'http://www.wikidata.org/entity/Q105901', 'http://www.wikidata.org/entity/Q105914', 'http://www.wikidata.org/entity/Q105915', 'http://www.wikidata.org/entity/Q105918', 'http://www.wikidata.org/entity/Q105925', 'http://www.wikidata.org/entity/Q106035', 'http://www.wikidata.org/entity/Q106041', 'http://www.wikidata.org/entity/Q106061', 'http://www.wikidata.org/entity/Q106126', 'http://www.wikidata.org/entity/Q106127', 'http://www.wikidata.org/entity/Q106177', 'http://www.wikidata.org/entity/Q106254', 'http://www.wikidata.org/entity/Q106260', 'http://www.wikidata.org/entity/Q106368', 'http://www.wikidata.org/entity/Q106373', 'http://www.wikidata.org/entity/Q106390', 'http://www.wikidata.org/entity/Q106393', 'http://www.wikidata.org/entity/Q106412', 'http://www.wikidata.org/entity/Q106423', 'http://www.wikidata.org/entity/Q106438', 'http://www.wikidata.org/entity/Q106455', 'http://www.wikidata.org/entity/Q106460', 'http://www.wikidata.org/entity/Q106461', 'http://www.wikidata.org/entity/Q106479', 'http://www.wikidata.org/entity/Q106493', 'http://www.wikidata.org/entity/Q106496', 'http://www.wikidata.org/entity/Q106553', 'http://www.wikidata.org/entity/Q106572', 'http://www.wikidata.org/entity/Q106578', 'http://www.wikidata.org/entity/Q112253', 'http://www.wikidata.org/entity/Q112417', 'http://www.wikidata.org/entity/Q112561', 'http://www.wikidata.org/entity/Q112571', 'http://www.wikidata.org/entity/Q112602', 'http://www.wikidata.org/entity/Q112632', 'http://www.wikidata.org/entity/Q112637', 'http://www.wikidata.org/entity/Q112667', 'http://www.wikidata.org/entity/Q112722', 'http://www.wikidata.org/entity/Q112748', 'http://www.wikidata.org/entity/Q112839', 'http://www.wikidata.org/entity/Q112920', 'http://www.wikidata.org/entity/Q112931', 'http://www.wikidata.org/entity/Q112994', 'http://www.wikidata.org/entity/Q113649', 'http://www.wikidata.org/entity/Q113693', 'http://www.wikidata.org/entity/Q113716', 'http://www.wikidata.org/entity/Q113736', 'http://www.wikidata.org/entity/Q113790', 'http://www.wikidata.org/entity/Q113799', 'http://www.wikidata.org/entity/Q113807', 'http://www.wikidata.org/entity/Q113842', 'http://www.wikidata.org/entity/Q113863', 'http://www.wikidata.org/entity/Q114044', 'http://www.wikidata.org/entity/Q114122', 'http://www.wikidata.org/entity/Q114184', 'http://www.wikidata.org/entity/Q114197', 'http://www.wikidata.org/entity/Q114268', 'http://www.wikidata.org/entity/Q114273', 'http://www.wikidata.org/entity/Q114328', 'http://www.wikidata.org/entity/Q114394', 'http://www.wikidata.org/entity/Q114558', 'http://www.wikidata.org/entity/Q114561', 'http://www.wikidata.org/entity/Q114565', 'http://www.wikidata.org/entity/Q114624', 'http://www.wikidata.org/entity/Q114696', 'http://www.wikidata.org/entity/Q114957', 'http://www.wikidata.org/entity/Q115010', 'http://www.wikidata.org/entity/Q115073', 'http://www.wikidata.org/entity/Q115198', 'http://www.wikidata.org/entity/Q115207', 'http://www.wikidata.org/entity/Q115228', 'http://www.wikidata.org/entity/Q115249', 'http://www.wikidata.org/entity/Q96504', 'http://www.wikidata.org/entity/Q96589', 'http://www.wikidata.org/entity/Q96599', 'http://www.wikidata.org/entity/Q96603', 'http://www.wikidata.org/entity/Q96627', 'http://www.wikidata.org/entity/Q96629', 'http://www.wikidata.org/entity/Q96660', 'http://www.wikidata.org/entity/Q96687', 'http://www.wikidata.org/entity/Q96715', 'http://www.wikidata.org/entity/Q96724', 'http://www.wikidata.org/entity/Q96761', 'http://www.wikidata.org/entity/Q96784', 'http://www.wikidata.org/entity/Q96788', 'http://www.wikidata.org/entity/Q96795', 'http://www.wikidata.org/entity/Q96848', 'http://www.wikidata.org/entity/Q96852', 'http://www.wikidata.org/entity/Q96894', 'http://www.wikidata.org/entity/Q96911', 'http://www.wikidata.org/entity/Q96933', 'http://www.wikidata.org/entity/Q96937', 'http://www.wikidata.org/entity/Q97010', 'http://www.wikidata.org/entity/Q97109', 'http://www.wikidata.org/entity/Q97117', 'http://www.wikidata.org/entity/Q97152', 'http://www.wikidata.org/entity/Q97168', 'http://www.wikidata.org/entity/Q97173', 'http://www.wikidata.org/entity/Q97176', 'http://www.wikidata.org/entity/Q97233', 'http://www.wikidata.org/entity/Q97255', 'http://www.wikidata.org/entity/Q97260', 'http://www.wikidata.org/entity/Q97265', 'http://www.wikidata.org/entity/Q97285', 'http://www.wikidata.org/entity/Q97289', 'http://www.wikidata.org/entity/Q97317', 'http://www.wikidata.org/entity/Q97323', 'http://www.wikidata.org/entity/Q97331', 'http://www.wikidata.org/entity/Q97335', 'http://www.wikidata.org/entity/Q97337', 'http://www.wikidata.org/entity/Q97351', 'http://www.wikidata.org/entity/Q97349', 'http://www.wikidata.org/entity/Q97354', 'http://www.wikidata.org/entity/Q97366', 'http://www.wikidata.org/entity/Q97365', 'http://www.wikidata.org/entity/Q97373', 'http://www.wikidata.org/entity/Q97378', 'http://www.wikidata.org/entity/Q97379', 'http://www.wikidata.org/entity/Q97382', 'http://www.wikidata.org/entity/Q97380', 'http://www.wikidata.org/entity/Q97386', 'http://www.wikidata.org/entity/Q97395', 'http://www.wikidata.org/entity/Q97393', 'http://www.wikidata.org/entity/Q97397', 'http://www.wikidata.org/entity/Q97406', 'http://www.wikidata.org/entity/Q97407', 'http://www.wikidata.org/entity/Q97423', 'http://www.wikidata.org/entity/Q97473', 'http://www.wikidata.org/entity/Q97481', 'http://www.wikidata.org/entity/Q97553', 'http://www.wikidata.org/entity/Q97571', 'http://www.wikidata.org/entity/Q97578', 'http://www.wikidata.org/entity/Q97595', 'http://www.wikidata.org/entity/Q97598', 'http://www.wikidata.org/entity/Q97602', 'http://www.wikidata.org/entity/Q97603', 'http://www.wikidata.org/entity/Q97601', 'http://www.wikidata.org/entity/Q97604', 'http://www.wikidata.org/entity/Q97609', 'http://www.wikidata.org/entity/Q97613', 'http://www.wikidata.org/entity/Q97618', 'http://www.wikidata.org/entity/Q97619', 'http://www.wikidata.org/entity/Q97616', 'http://www.wikidata.org/entity/Q97622', 'http://www.wikidata.org/entity/Q97620', 'http://www.wikidata.org/entity/Q97656', 'http://www.wikidata.org/entity/Q97686', 'http://www.wikidata.org/entity/Q97706', 'http://www.wikidata.org/entity/Q97712', 'http://www.wikidata.org/entity/Q97720', 'http://www.wikidata.org/entity/Q97745', 'http://www.wikidata.org/entity/Q106661', 'http://www.wikidata.org/entity/Q106744', 'http://www.wikidata.org/entity/Q106754', 'http://www.wikidata.org/entity/Q106799', 'http://www.wikidata.org/entity/Q106869', 'http://www.wikidata.org/entity/Q106939', 'http://www.wikidata.org/entity/Q107219', 'http://www.wikidata.org/entity/Q107274', 'http://www.wikidata.org/entity/Q107291', 'http://www.wikidata.org/entity/Q107345', 'http://www.wikidata.org/entity/Q107350', 'http://www.wikidata.org/entity/Q107364', 'http://www.wikidata.org/entity/Q107375', 'http://www.wikidata.org/entity/Q107438', 'http://www.wikidata.org/entity/Q107483', 'http://www.wikidata.org/entity/Q107514', 'http://www.wikidata.org/entity/Q107583', 'http://www.wikidata.org/entity/Q107599', 'http://www.wikidata.org/entity/Q107605', 'http://www.wikidata.org/entity/Q107630', 'http://www.wikidata.org/entity/Q107628', 'http://www.wikidata.org/entity/Q107646', 'http://www.wikidata.org/entity/Q107651', 'http://www.wikidata.org/entity/Q107683', 'http://www.wikidata.org/entity/Q107743', 'http://www.wikidata.org/entity/Q107753', 'http://www.wikidata.org/entity/Q107782', 'http://www.wikidata.org/entity/Q107788', 'http://www.wikidata.org/entity/Q107805', 'http://www.wikidata.org/entity/Q107849', 'http://www.wikidata.org/entity/Q107869', 'http://www.wikidata.org/entity/Q107924', 'http://www.wikidata.org/entity/Q107983', 'http://www.wikidata.org/entity/Q108035', 'http://www.wikidata.org/entity/Q108057', 'http://www.wikidata.org/entity/Q108070', 'http://www.wikidata.org/entity/Q108097', 'http://www.wikidata.org/entity/Q108104', 'http://www.wikidata.org/entity/Q108114', 'http://www.wikidata.org/entity/Q108153', 'http://www.wikidata.org/entity/Q108164', 'http://www.wikidata.org/entity/Q108176', 'http://www.wikidata.org/entity/Q108192', 'http://www.wikidata.org/entity/Q108202', 'http://www.wikidata.org/entity/Q108230', 'http://www.wikidata.org/entity/Q108233', 'http://www.wikidata.org/entity/Q108236', 'http://www.wikidata.org/entity/Q108255', 'http://www.wikidata.org/entity/Q108302', 'http://www.wikidata.org/entity/Q108306', 'http://www.wikidata.org/entity/Q108311', 'http://www.wikidata.org/entity/Q108358', 'http://www.wikidata.org/entity/Q108365', 'http://www.</t>
+          <t>['http://www.wikidata.org/entity/Q2680', 'http://www.wikidata.org/entity/Q4612', 'http://www.wikidata.org/entity/Q4673', 'http://www.wikidata.org/entity/Q4826', 'http://www.wikidata.org/entity/Q29898', 'http://www.wikidata.org/entity/Q31152', 'http://www.wikidata.org/entity/Q32223', 'http://www.wikidata.org/entity/Q35393', 'http://www.wikidata.org/entity/Q43774', 'http://www.wikidata.org/entity/Q43781', 'http://www.wikidata.org/entity/Q43790', 'http://www.wikidata.org/entity/Q43797', 'http://www.wikidata.org/entity/Q43805', 'http://www.wikidata.org/entity/Q43823', 'http://www.wikidata.org/entity/Q43826', 'http://www.wikidata.org/entity/Q43881', 'http://www.wikidata.org/entity/Q43897', 'http://www.wikidata.org/entity/Q44131', 'http://www.wikidata.org/entity/Q44426', 'http://www.wikidata.org/entity/Q44634', 'http://www.wikidata.org/entity/Q44736', 'http://www.wikidata.org/entity/Q45221', 'http://www.wikidata.org/entity/Q45255', 'http://www.wikidata.org/entity/Q45291', 'http://www.wikidata.org/entity/Q45292', 'http://www.wikidata.org/entity/Q45338', 'http://www.wikidata.org/entity/Q45357', 'http://www.wikidata.org/entity/Q45370', 'http://www.wikidata.org/entity/Q45430', 'http://www.wikidata.org/entity/Q45542', 'http://www.wikidata.org/entity/Q45558', 'http://www.wikidata.org/entity/Q23953', 'http://www.wikidata.org/entity/Q25571', 'http://www.wikidata.org/entity/Q25974', 'http://www.wikidata.org/entity/Q26734', 'http://www.wikidata.org/entity/Q26763', 'http://www.wikidata.org/entity/Q28152', 'http://www.wikidata.org/entity/Q28998', 'http://www.wikidata.org/entity/Q96392', 'http://www.wikidata.org/entity/Q97578', 'http://www.wikidata.org/entity/Q18994', 'http://www.wikidata.org/entity/Q20235', 'http://www.wikidata.org/entity/Q22563', 'http://www.wikidata.org/entity/Q22575', 'http://www.wikidata.org/entity/Q22675', 'http://www.wikidata.org/entity/Q40645', 'http://www.wikidata.org/entity/Q43769', 'http://www.wikidata.org/entity/Q86544', 'http://www.wikidata.org/entity/Q86712', 'http://www.wikidata.org/entity/Q86778', 'http://www.wikidata.org/entity/Q86952', 'http://www.wikidata.org/entity/Q86977', 'http://www.wikidata.org/entity/Q86982', 'http://www.wikidata.org/entity/Q86996', 'http://www.wikidata.org/entity/Q87033', 'http://www.wikidata.org/entity/Q87097', 'http://www.wikidata.org/entity/Q87148', 'http://www.wikidata.org/entity/Q87231', 'http://www.wikidata.org/entity/Q87272', 'http://www.wikidata.org/entity/Q87280', 'http://www.wikidata.org/entity/Q87304', 'http://www.wikidata.org/entity/Q87322', 'http://www.wikidata.org/entity/Q87330', 'http://www.wikidata.org/entity/Q87336', 'http://www.wikidata.org/entity/Q87350', 'http://www.wikidata.org/entity/Q87395', 'http://www.wikidata.org/entity/Q87397', 'http://www.wikidata.org/entity/Q87428', 'http://www.wikidata.org/entity/Q87432', 'http://www.wikidata.org/entity/Q87436', 'http://www.wikidata.org/entity/Q87448', 'http://www.wikidata.org/entity/Q87452', 'http://www.wikidata.org/entity/Q87459', 'http://www.wikidata.org/entity/Q87542', 'http://www.wikidata.org/entity/Q87546', 'http://www.wikidata.org/entity/Q87558', 'http://www.wikidata.org/entity/Q87560', 'http://www.wikidata.org/entity/Q87561', 'http://www.wikidata.org/entity/Q87571', 'http://www.wikidata.org/entity/Q87589', 'http://www.wikidata.org/entity/Q87606', 'http://www.wikidata.org/entity/Q87816', 'http://www.wikidata.org/entity/Q50949', 'http://www.wikidata.org/entity/Q51537', 'http://www.wikidata.org/entity/Q51562', 'http://www.wikidata.org/entity/Q52030', 'http://www.wikidata.org/entity/Q55415', 'http://www.wikidata.org/entity/Q55413', 'http://www.wikidata.org/entity/Q55418', 'http://www.wikidata.org/entity/Q99430', 'http://www.wikidata.org/entity/Q99509', 'http://www.wikidata.org/entity/Q99528', 'http://www.wikidata.org/entity/Q99529', 'http://www.wikidata.org/entity/Q99532', 'http://www.wikidata.org/entity/Q99544', 'http://www.wikidata.org/entity/Q99569', 'http://www.wikidata.org/entity/Q99575', 'http://www.wikidata.org/entity/Q99577', 'http://www.wikidata.org/entity/Q99635', 'http://www.wikidata.org/entity/Q99632', 'http://www.wikidata.org/entity/Q99662', 'http://www.wikidata.org/entity/Q99710', 'http://www.wikidata.org/entity/Q99714', 'http://www.wikidata.org/entity/Q99719', 'http://www.wikidata.org/entity/Q99732', 'http://www.wikidata.org/entity/Q99743', 'http://www.wikidata.org/entity/Q99799', 'http://www.wikidata.org/entity/Q99891', 'http://www.wikidata.org/entity/Q99888', 'http://www.wikidata.org/entity/Q99893', 'http://www.wikidata.org/entity/Q99913', 'http://www.wikidata.org/entity/Q100028', 'http://www.wikidata.org/entity/Q100122', 'http://www.wikidata.org/entity/Q100175', 'http://www.wikidata.org/entity/Q100220', 'http://www.wikidata.org/entity/Q100227', 'http://www.wikidata.org/entity/Q100224', 'http://www.wikidata.org/entity/Q100251', 'http://www.wikidata.org/entity/Q100264', 'http://www.wikidata.org/entity/Q100269', 'http://www.wikidata.org/entity/Q100293', 'http://www.wikidata.org/entity/Q100299', 'http://www.wikidata.org/entity/Q100318', 'http://www.wikidata.org/entity/Q100322', 'http://www.wikidata.org/entity/Q100333', 'http://www.wikidata.org/entity/Q100338', 'http://www.wikidata.org/entity/Q100337', 'http://www.wikidata.org/entity/Q100356', 'http://www.wikidata.org/entity/Q100395', 'http://www.wikidata.org/entity/Q100414', 'http://www.wikidata.org/entity/Q100415', 'http://www.wikidata.org/entity/Q100417', 'http://www.wikidata.org/entity/Q100422', 'http://www.wikidata.org/entity/Q100451', 'http://www.wikidata.org/entity/Q100506', 'http://www.wikidata.org/entity/Q100535', 'http://www.wikidata.org/entity/Q100545', 'http://www.wikidata.org/entity/Q100562', 'http://www.wikidata.org/entity/Q100571', 'http://www.wikidata.org/entity/Q100572', 'http://www.wikidata.org/entity/Q100602', 'http://www.wikidata.org/entity/Q100658', 'http://www.wikidata.org/entity/Q100673', 'http://www.wikidata.org/entity/Q100708', 'http://www.wikidata.org/entity/Q100781', 'http://www.wikidata.org/entity/Q100841', 'http://www.wikidata.org/entity/Q100844', 'http://www.wikidata.org/entity/Q100893', 'http://www.wikidata.org/entity/Q100903', 'http://www.wikidata.org/entity/Q100989', 'http://www.wikidata.org/entity/Q101019', 'http://www.wikidata.org/entity/Q101059', 'http://www.wikidata.org/entity/Q101079', 'http://www.wikidata.org/entity/Q101094', 'http://www.wikidata.org/entity/Q101104', 'http://www.wikidata.org/entity/Q101120', 'http://www.wikidata.org/entity/Q101149', 'http://www.wikidata.org/entity/Q101171', 'http://www.wikidata.org/entity/Q101177', 'http://www.wikidata.org/entity/Q101189', 'http://www.wikidata.org/entity/Q101203', 'http://www.wikidata.org/entity/Q101218', 'http://www.wikidata.org/entity/Q101223', 'http://www.wikidata.org/entity/Q101231', 'http://www.wikidata.org/entity/Q101228', 'http://www.wikidata.org/entity/Q101238', 'http://www.wikidata.org/entity/Q101243', 'http://www.wikidata.org/entity/Q101267', 'http://www.wikidata.org/entity/Q101347', 'http://www.wikidata.org/entity/Q101380', 'http://www.wikidata.org/entity/Q101381', 'http://www.wikidata.org/entity/Q97686', 'http://www.wikidata.org/entity/Q97706', 'http://www.wikidata.org/entity/Q97712', 'http://www.wikidata.org/entity/Q97720', 'http://www.wikidata.org/entity/Q97745', 'http://www.wikidata.org/entity/Q97757', 'http://www.wikidata.org/entity/Q97794', 'http://www.wikidata.org/entity/Q97835', 'http://www.wikidata.org/entity/Q97838', 'http://www.wikidata.org/entity/Q97836', 'http://www.wikidata.org/entity/Q97846', 'http://www.wikidata.org/entity/Q97855', 'http://www.wikidata.org/entity/Q97921', 'http://www.wikidata.org/entity/Q97930', 'http://www.wikidata.org/entity/Q97934', 'http://www.wikidata.org/entity/Q97939', 'http://www.wikidata.org/entity/Q97944', 'http://www.wikidata.org/entity/Q97969', 'http://www.wikidata.org/entity/Q98006', 'http://www.wikidata.org/entity/Q98113', 'http://www.wikidata.org/entity/Q98140', 'http://www.wikidata.org/entity/Q98148', 'http://www.wikidata.org/entity/Q98183', 'http://www.wikidata.org/entity/Q98224', 'http://www.wikidata.org/entity/Q98248', 'http://www.wikidata.org/entity/Q98267', 'http://www.wikidata.org/entity/Q98286', 'http://www.wikidata.org/entity/Q98296', 'http://www.wikidata.org/entity/Q98305', 'http://www.wikidata.org/entity/Q98315', 'http://www.wikidata.org/entity/Q98325', 'http://www.wikidata.org/entity/Q98336', 'http://www.wikidata.org/entity/Q98362', 'http://www.wikidata.org/entity/Q98363', 'http://www.wikidata.org/entity/Q98379', 'http://www.wikidata.org/entity/Q98393', 'http://www.wikidata.org/entity/Q98407', 'http://www.wikidata.org/entity/Q98437', 'http://www.wikidata.org/entity/Q98469', 'http://www.wikidata.org/entity/Q98476', 'http://www.wikidata.org/entity/Q98492', 'http://www.wikidata.org/entity/Q98540', 'http://www.wikidata.org/entity/Q98541', 'http://www.wikidata.org/entity/Q98547', 'http://www.wikidata.org/entity/Q98600', 'http://www.wikidata.org/entity/Q98609', 'http://www.wikidata.org/entity/Q98622', 'http://www.wikidata.org/entity/Q98624', 'http://www.wikidata.org/entity/Q98631', 'http://www.wikidata.org/entity/Q98629', 'http://www.wikidata.org/entity/Q98696', 'http://www.wikidata.org/entity/Q98755', 'http://www.wikidata.org/entity/Q98776', 'http://www.wikidata.org/entity/Q98899', 'http://www.wikidata.org/entity/Q98902', 'http://www.wikidata.org/entity/Q98927', 'http://www.wikidata.org/entity/Q98948', 'http://www.wikidata.org/entity/Q98965', 'http://www.wikidata.org/entity/Q99003', 'http://www.wikidata.org/entity/Q99014', 'http://www.wikidata.org/entity/Q99020', 'http://www.wikidata.org/entity/Q99051', 'http://www.wikidata.org/entity/Q99073', 'http://www.wikidata.org/entity/Q99162', 'http://www.wikidata.org/entity/Q99209', 'http://www.wikidata.org/entity/Q99228', 'http://www.wikidata.org/entity/Q99254', 'http://www.wikidata.org/entity/Q99258', 'http://www.wikidata.org/entity/Q99279', 'http://www.wikidata.org/entity/Q99288', 'http://www.wikidata.org/entity/Q99305', 'http://www.wikidata.org/entity/Q99342', 'http://www.wikidata.org/entity/Q99344', 'http://www.wikidata.org/entity/Q99353', 'http://www.wikidata.org/entity/Q99373', 'http://www.wikidata.org/entity/Q99385', 'http://www.wikidata.org/entity/Q99388', 'http://www.wikidata.org/entity/Q99402', 'http://www.wikidata.org/entity/Q99410', 'http://www.wikidata.org/entity/Q101392', 'http://www.wikidata.org/entity/Q101434', 'http://www.wikidata.org/entity/Q101476', 'http://www.wikidata.org/entity/Q101524', 'http://www.wikidata.org/entity/Q101598', 'http://www.wikidata.org/entity/Q101615', 'http://www.wikidata.org/entity/Q101618', 'http://www.wikidata.org/entity/Q101705', 'http://www.wikidata.org/entity/Q101719', 'http://www.wikidata.org/entity/Q101720', 'http://www.wikidata.org/entity/Q101734', 'http://www.wikidata.org/entity/Q101768', 'http://www.wikidata.org/entity/Q101775', 'http://www.wikidata.org/entity/Q101782', 'http://www.wikidata.org/entity/Q101840', 'http://www.wikidata.org/entity/Q101855', 'http://www.wikidata.org/entity/Q101888', 'http://www.wikidata.org/entity/Q101897', 'http://www.wikidata.org/entity/Q101969', 'http://www.wikidata.org/entity/Q101973', 'http://www.wikidata.org/entity/Q102050', 'http://www.wikidata.org/entity/Q102127', 'http://www.wikidata.org/entity/Q102260', 'http://www.wikidata.org/entity/Q102280', 'http://www.wikidata.org/entity/Q102288', 'http://www.wikidata.org/entity/Q102294', 'http://www.wikidata.org/entity/Q102302', 'http://www.wikidata.org/entity/Q102332', 'http://www.wikidata.org/entity/Q102337', 'http://www.wikidata.org/entity/Q102354', 'http://www.wikidata.org/entity/Q102352', 'http://www.wikidata.org/entity/Q102363', 'http://www.wikidata.org/entity/Q102374', 'http://www.wikidata.org/entity/Q102450', 'http://www.wikidata.org/entity/Q102504', 'http://www.wikidata.org/entity/Q102530', 'http://www.wikidata.org/entity/Q102574', 'http://www.wikidata.org/entity/Q102572', 'http://www.wikidata.org/entity/Q102606', 'http://www.wikidata.org/entity/Q102611', 'http://www.wikidata.org/entity/Q102627', 'http://www.wikidata.org/entity/Q102630', 'http://www.wikidata.org/entity/Q102635', 'http://www.wikidata.org/entity/Q102633', 'http://www.wikidata.org/entity/Q102650', 'http://www.wikidata.org/entity/Q102651', 'http://www.wikidata.org/entity/Q102672', 'http://www.wikidata.org/entity/Q102678', 'http://www.wikidata.org/entity/Q102693', 'http://www.wikidata.org/entity/Q102712', 'http://www.wikidata.org/entity/Q102743', 'http://www.wikidata.org/entity/Q102783', 'http://www.wikidata.org/entity/Q102796', 'http://www.wikidata.org/entity/Q102802', 'http://www.wikidata.org/entity/Q102923', 'http://www.wikidata.org/entity/Q102929', 'http://www.wikidata.org/entity/Q102936', 'http://www.wikidata.org/entity/Q102937', 'http://www.wikidata.org/entity/Q102947', 'http://www.wikidata.org/entity/Q102961', 'http://www.wikidata.org/entity/Q102976', 'http://www.wikidata.org/entity/Q102990', 'http://www.wikidata.org/entity/Q102998', 'http://www.wikidata.org/entity/Q103002', 'http://www.wikidata.org/entity/Q103000', 'http://www.wikidata.org/entity/Q103158', 'http://www.wikidata.org/entity/Q103197', 'http://www.wikidata.org/entity/Q103256', 'http://www.wikidata.org/entity/Q103271', 'http://www.wikidata.org/entity/Q103361', 'http://www.wikidata.org/entity/Q57114', 'http://www.wikidata.org/entity/Q57118', 'http://www.wikidata.org/entity/Q57147', 'http://www.wikidata.org/entity/Q57292', 'http://www.wikidata.org/entity/Q57316', 'http://www.wikidata.org/entity/Q57391', 'http://www.wikidata.org/entity/Q57584', 'http://www.wikidata.org/entity/Q57604', 'http://www.wikidata.org/entity/Q57614', 'http://www.wikidata.org/entity/Q57686', 'http://www.wikidata.org/entity/Q58065', 'http://www.wikidata.org/entity/Q58603', 'http://www.wikidata.org/entity/Q58747', 'http://www.wikidata.org/entity/Q58801', 'http://www.wikidata.org/entity/Q58822', 'http://www.wikidata.org/entity/Q58866', 'http://www.wikidata.org/entity/Q60036', 'http://www.wikidata.org/entity/Q60306', 'http://www.wikidata.org/entity/Q60539', 'http://www.wikidata.org/entity/Q60659', 'http://www.wikidata.org/entity/Q60687', 'http://www.wikidata.org/entity/Q60763', 'http://www.wikidata.org/entity/Q60863', 'http://www.wikidata.org/entity/Q60876', 'http://www.wikidata.org/entity/Q60905', 'http://www.wikidata.org/entity/Q60917', 'http://www.wikidata.org/entity/Q60996', 'http://www.wikidata.org/entity/Q61074', 'http://www.wikidata.org/entity/Q61080', 'http://www.wikidata.org/entity/Q61099', 'http://www.wikidata.org/entity/Q61112', 'http://www.wikidata.org/entity/Q61238', 'http://www.wikidata.org/entity/Q61260', 'http://www.wikidata.org/entity/Q61356', 'http://www.wikidata.org/entity/Q61376', 'http://www.wikidata.org/entity/Q61393', 'http://www.wikidata.org/entity/Q61510', 'http://www.wikidata.org/entity/Q61552', 'http://www.wikidata.org/entity/Q61597', 'http://www.wikidata.org/entity/Q61608', 'http://www.wikidata.org/entity/Q61677', 'http://www.wikidata.org/entity/Q62052', 'http://www.wikidata.org/entity/Q62135', 'http://www.wikidata.org/entity/Q87852', 'http://www.wikidata.org/entity/Q87932', 'http://www.wikidata.org/entity/Q88001', 'http://www.wikidata.org/entity/Q88101', 'http://www.wikidata.org/entity/Q88139', 'http://www.wikidata.org/entity/Q88153', 'http://www.wikidata.org/entity/Q88162', 'http://www.wikidata.org/entity/Q88218', 'http://www.wikidata.org/entity/Q88236', 'http://www.wikidata.org/entity/Q88322', 'http://www.wikidata.org/entity/Q88402', 'http://www.wikidata.org/entity/Q88410', 'http://www.wikidata.org/entity/Q88530', 'http://www.wikidata.org/entity/Q88544', 'http://www.wikidata.org/entity/Q88570', 'http://www.wikidata.org/entity/Q88574', 'http://www.wikidata.org/entity/Q88572', 'http://www.wikidata.org/entity/Q88588', 'http://www.wikidata.org/entity/Q88687', 'http://www.wikidata.org/entity/Q88747', 'http://www.wikidata.org/entity/Q88789', 'http://www.wikidata.org/entity/Q88838', 'http://www.wikidata.org/entity/Q88842', 'http://www.wikidata.org/entity/Q88860', 'http://www.wikidata.org/entity/Q88864', 'http://www.wikidata.org/entity/Q88871', 'http://www.wikidata.org/entity/Q159117', 'http://www.wikidata.org/entity/Q103362', 'http://www.wikidata.org/entity/Q103391', 'http://www.wikidata.org/entity/Q103394', 'http://www.wikidata.org/entity/Q103415', 'http://www.wikidata.org/entity/Q103416', 'http://www.wikidata.org/entity/Q103430', 'http://www.wikidata.org/entity/Q103433', 'http://www.wikidata.org/entity/Q103476', 'http://www.wikidata.org/entity/Q103544', 'http://www.wikidata.org/entity/Q103611', 'http://www.wikidata.org/entity/Q103623', 'http://www.wikidata.org/entity/Q103637', 'http://www.wikidata.org/entity/Q103643', 'http://www.wikidata.org/entity/Q103656', 'http://www.wikidata.org/entity/Q103696', 'http://www.wikidata.org/entity/Q103702', 'http://www.wikidata.org/entity/Q103718', 'http://www.wikidata.org/entity/Q103727', 'http://www.wikidata.org/entity/Q103746', 'http://www.wikidata.org/entity/Q103760', 'http://www.wikidata.org/entity/Q103805', 'http://www.wikidata.org/entity/Q103845', 'http://www.wikidata.org/entity/Q103851', 'http://www.wikidata.org/entity/Q103863', 'http://www.wikidata.org/entity/Q103868', 'http://www.wikidata.org/entity/Q103920', 'http://www.wikidata.org/entity/Q103948', 'http://www.wikidata.org/entity/Q103961', 'http://www.wikidata.org/entity/Q103986', 'http://www.wikidata.org/entity/Q104006', 'http://www.wikidata.org/entity/Q104008', 'http://www.wikidata.org/entity/Q104084', 'http://www.wikidata.org/entity/Q104094', 'http://www.wikidata.org/entity/Q104121', 'http://www.wikidata.org/entity/Q104141', 'http://www.wikidata.org/entity/Q104199', 'http://www.wikidata.org/entity/Q104196', 'http://www.wikidata.org/entity/Q104208', 'http://www.wikidata.org/entity/Q104213', 'http://www.wikidata.org/entity/Q104336', 'http://www.wikidata.org/entity/Q104371', 'http://www.wikidata.org/entity/Q104385', 'http://www.wikidata.org/entity/Q104427', 'http://www.wikidata.org/entity/Q104476', 'http://www.wikidata.org/entity/Q104523', 'http://www.wikidata.org/entity/Q104544', 'http://www.wikidata.org/entity/Q104568', 'http://www.wikidata.org/entity/Q104578', 'http://www.wikidata.org/entity/Q104576', 'http://www.wikidata.org/entity/Q104601', 'http://www.wikidata.org/entity/Q104604', 'http://www.wikidata.org/entity/Q104667', 'http://www.wikidata.org/entity/Q104665', 'http://www.wikidata.org/entity/Q104670', 'http://www.wikidata.org/entity/Q104702', 'http://www.wikidata.org/entity/Q104730', 'http://www.wikidata.org/entity/Q104737', 'http://www.wikidata.org/entity/Q104741', 'http://www.wikidata.org/entity/Q104766', 'http://www.wikidata.org/entity/Q104787', 'http://www.wikidata.org/entity/Q104815', 'http://www.wikidata.org/entity/Q104832', 'http://www.wikidata.org/entity/Q104866', 'http://www.wikidata.org/entity/Q104879', 'http://www.wikidata.org/entity/Q104876', 'http://www.wikidata.org/entity/Q64260', 'http://www.wikidata.org/entity/Q64645', 'http://www.wikidata.org/entity/Q64823', 'http://www.wikidata.org/entity/Q65003', 'http://www.wikidata.org/entity/Q65023', 'http://www.wikidata.org/entity/Q65068', 'http://www.wikidata.org/entity/Q65105', 'http://www.wikidata.org/entity/Q65111', 'http://www.wikidata.org/entity/Q65116', 'http://www.wikidata.org/entity/Q65144', 'http://www.wikidata.org/entity/Q65154', 'http://www.wikidata.org/entity/Q65359', 'http://www.wikidata.org/entity/Q65496', 'http://www.wikidata.org/entity/Q65511', 'http://www.wikidata.org/entity/Q106553', 'http://www.wikidata.org/entity/Q106572', 'http://www.wikidata.org/entity/Q106578', 'http://www.wikidata.org/entity/Q106661', 'http://www.wikidata.org/entity/Q106744', 'http://www.wikidata.org/entity/Q106754', 'http://www.wikidata.org/entity/Q106799', 'http://www.wikidata.org/entity/Q106869', 'http://www.wikidata.org/entity/Q106939', 'http://www.wikidata.org/entity/Q107087', 'http://www.wikidata.org/entity/Q107219', 'http://www.wikidata.org/entity/Q107274', 'http://www.wikidata.org/entity/Q107291', 'http://www.wikidata.org/entity/Q107345', 'http://www.wikidata.org/entity/Q107350', 'http://www.wikidata.org/entity/Q107364', 'http://www.wikidata.org/entity/Q107375', 'http://www.wikidata.org/entity/Q107438', 'http://www.wikidata.org/entity/Q107483', 'http://www.wikidata.org/entity/Q107514', 'http://www.wikidata.org/entity/Q107583', 'http://www.wikidata.org/entity/Q107599', 'http://www.wikidata.org/entity/Q107605', 'http://www.wikidata.org/entity/Q107630', 'http://www.wikidata.org/entity/Q107628', 'http://www.wikidata.org/entity/Q107646', 'http://www.wikidata.org/entity/Q107651', 'http://www.wikidata.org/entity/Q107683', 'http://www.wikidata.org/entity/Q107743', 'http://www.wikidata.org/entity/Q107753', 'http://www.wikidata.org/entity/Q107782', 'http://www.wikidata.org/entity/Q107788', 'http://www.wikidata.org/entity/Q107805', 'http://www.wikidata.org/entity/Q107849', 'http://www.wikidata.org/entity/Q107869', 'http://www.wikidata.org/entity/Q107924', 'http://www.wikidata.org/entity/Q107983', 'http://www.wikidata.org/entity/Q108035', 'http://www.wikidata.org/entity/Q108057', 'http://www.wikidata.org/entity/Q108070', 'http://www.wikidata.org/entity/Q108097', 'http://www.wikidata.org/entity/Q108104', 'http://www.wikidata.org/entity/Q108114', 'http://www.wikidata.org/entity/Q108153', 'http://www.wikidata.org/entity/Q108164', 'http://www.wikidata.org/entity/Q108176', 'http://www.wikidata.org/entity/Q108192', 'http://www.wikidata.org/entity/Q108202', 'http://www.wikidata.org/entity/Q108230', 'http://www.wikidata.org/entity/Q108233', 'http://www.wikidata.org/entity/Q108236', 'http://www.wikidata.org/entity/Q108255', 'http://www.wikidata.org/entity/Q108302', 'http://www.wikidata.org/entity/Q65550', 'http://www.wikidata.org/entity/Q65774', 'http://www.wikidata.org/entity/Q65922', 'http://www.wikidata.org/entity/Q66011', 'http://www.wikidata.org/entity/Q66019', 'http://www.wikidata.org/entity/Q66027', 'http://www.wikidata.org/entity/Q66097', 'http://www.wikidata.org/entity/Q66126', 'http://www.wikidata.org/entity/Q66236', 'http://www.wikidata.org/entity/Q66372', 'http://www.wikidata.org/entity/Q66377', 'http://www.wikidata.org/entity/Q66408', 'http://www.wikidata.org/entity/Q66423', 'http://www.wikidata.org/entity/Q62285', 'http://www.wikidata.org/entity/Q62308', 'http://www.wikidata.org/entity/Q62327', 'http://www.wikidata.org/entity/Q62346', 'http://www.wikidata.org/entity/Q62353', 'http://www.wikidata.org/entity/Q62510', 'http://www.wikidata.org/entity/Q62508', 'http://www.wikidata.org/entity/Q62581', 'http://www.wikidata.org/entity/Q62648', 'http://www.wikidata.org/entity/Q62676', 'http://www.wikidata.org/entity/Q62681', 'http://www.wikidata.org/entity/Q62740', 'http://www.wikidata.org/entity/Q62848', 'http://www.wikidata.org/entity/Q62929', 'http://www.wikidata.org/entity/Q63003', 'http://www.wikidata.org/entity/Q63033', 'http://www.wikidata.org/entity/Q63051', 'http://www.wikidata.org/entity/Q63059', 'http://www.wikidata.org/entity/Q63062', 'http://www.wikidata.org/entity/Q63187', 'http://www.wikidata.org/entity/Q63189', 'http://www.wikidata.org/entity/Q63220', 'http://www.wikidata.org/entity/Q63296', 'http://www.wikidata.org/entity/Q63317', 'http://www.wikidata.org/entity/Q63450', 'http://www.wikidata.org/entity/Q63523', 'http://www.wikidata.org/entity/Q63586', 'http://www.wikidata.org/entity/Q63641', 'http://www.wikidata.org/entity/Q63722', 'http://www.wikidata.org/entity/Q63781', 'http://www.wikidata.org/entity/Q63910', 'http://www.wikidata.org/entity/Q63960', 'http://www.wikidata.org/entity/Q64008', 'http://www.wikidata.org/entity/Q64150', 'http://www.wikidata.org/entity/Q88981', 'http://www.wikidata.org/entity/Q88989', 'http://www.wikidata.org/entity/Q88997', 'http://www.wikidata.org/entity/Q89032', 'http://www.wikidata.org/entity/Q89052', 'http://www.wikidata.org/entity/Q89065', 'http://www.wikidata.org/entity/Q89069', 'http://www.wikidata.org/entity/Q89103', 'http://www.wikidata.org/entity/Q89105', 'http://www.wikidata.org/entity/Q89130', 'http://www.wikidata.org/entity/Q89155', 'http://www.wikidata.org/entity/Q89182', 'http://www.wikidata.org/entity/Q89187', 'http://www.wikidata.org/entity/Q89189', 'http://www.wikidata.org/entity/Q89338', 'http://www.wikidata.org/entity/Q89342', 'http://www.wikidata.org/entity/Q89358', 'http://www.wikidata.org/entity/Q89375', 'http://www.wikidata.org/entity/Q89446', 'http://www.wikidata.org/entity/Q89458', 'http://www.wikidata.org/entity/Q89469', 'http://www.wikidata.org/entity/Q89473', 'http://www.wikidata.org/entity/Q89480', 'http://www.wikidata.org/entity/Q89484', 'http://www.wikidata.org/entity/Q89499', 'http://www.wikidata.org/entity/Q89501', 'http://www.wikidata.org/entity/Q89507', 'http://www.wikidata.org/entity/Q89509', 'http://www.wikidata.org/entity/Q89513', 'http://www.wikidata.org/entity/Q89551', 'http://www.wikidata.org/entity/Q89561', 'http://www.wikidata.org/entity/Q89565', 'http://www.wikidata.org/entity/Q89609', 'http://www.wikidata.org/entity/Q89694', 'http://www.wikidata.org/entity/Q89731', 'http://www.wikidata.org/entity/Q89764', 'http://www.wikidata.org/entity/Q89787', 'http://www.wikidata.org/entity/Q89789', 'http://www.wikidata.org/entity/Q89793', 'http://www.wikidata.org/entity/Q89830', 'http://www.wikidata.org/entity/Q89842', 'http://www.wikidata.org/entity/Q89933', 'http://www.wikidata.org/entity/Q89974', 'http://www.wikidata.org/entity/Q108306', 'http://www.wikidata.org/entity/Q108311', 'http://www.wikidata.org/entity/Q108358', 'http://www.wikidata.org/entity/Q108365', 'http://www.wikidata.org/entity/Q108393', 'http://www.wikidata.org/entity/Q108434', 'http://www.wikidata.org/entity/Q108469', 'http://www.wikidata.org/entity/Q108554', 'http://www.wikidata.org/entity/Q108617', 'http://www.wikidata.org/entity/Q108630', 'http://www.wikidata.org/entity/Q108660', 'http://www.wikidata.org/entity/Q108763', 'http://www.wikidata.org/entity/Q108773', 'http://www.wikidata.org/entity/Q108792', 'http://www.wikidata.org/entity/Q108845', 'http://www.wikidata.org/entity/Q108853', 'http://www.wikidata.org/entity/Q108867', 'http://www.wikidata.org/entity/Q108873', 'http://www.wikidata.org/entity/Q108920', 'http://www.wikidata.org/entity/Q108928', 'http://www.wikidata.org/entity/Q108936', 'http://www.wikidata.org/entity/Q108942', 'http://www.wikidata.org/entity/Q108964', 'http://www.wikidata.org/entity/Q108965', 'http://www.wikidata.org/entity/Q108972', 'http://www.wikidata.org/entity/Q108978', 'http://www.wikidata.org/entity/Q108987', 'http://www.wikidata.org/entity/Q108984', 'http://www.wikidata.org/entity/Q108989', 'http://www.wikidata.org/entity/Q109001', 'http://www.wikidata.org/entity/Q109028', 'http://www.wikidata.org/entity/Q109050', 'http://www.wikidata.org/entity/Q109104', 'http://www.wikidata.org/entity/Q109123', 'http://www.wikidata.org/entity/Q109127', 'http://www.wikidata.org/entity/Q109131', 'http://www.wikidata.org/entity/Q109141', 'http://www.wikidata.org/entity/Q109148', 'http://www.wikidata.org/entity/Q109211', 'http://www.wikidata.org/entity/Q109225', 'http://www.wikidata.org/entity/Q109286', 'http://www.wikidata.org/entity/Q109306', 'http://www.wikidata.org/entity/Q109304', 'http://www.wikidata.org/entity/Q109335', 'http://www.wikidata.org/entity/Q109358', 'http://www.wikidata.org/entity/Q109357', 'http://www.wikidata.org/entity/Q109366', 'http://www.wikidata.org/entity/Q109443', 'http://www.wikidata.org/entity/Q109444', 'http://www.wikidata.org/entity/Q109492', 'http://www.wikidata.org/entity/Q109505', 'http://www.wikidata.org/entity/Q109516', 'http://www.wikidata.org/entity/Q109534', 'http://www.wikidata.org/entity/Q109556', 'http://www.wikidata.org/entity/Q109581', 'http://www.wikidata.org/entity/Q109595', 'http://www.wikidata.org/entity/Q109603', 'http://www.wikidata.org/entity/Q109608', 'http://www.wikidata.org/entity/Q109619', 'http://www.wikidata.org/entity/Q109623', 'http://www.wikidata.org/entity/Q109628', 'http://www.wikidata.org/entity/Q109629', 'http://www.wikidata.org/entity/Q109648', 'http://www.wikidata.org/entity/Q109718', 'http://www.wikidata.org/entity/Q109720', 'http://www.wikidata.org/entity/Q109778', 'http://www.wikidata.org/entity/Q109796', 'http://www.wikidata.org/entity/Q109819', 'http://www.wikidata.org/entity/Q109824', 'http://www.wikidata.org/entity/Q109842', 'http://www.wikidata.org/entity/Q109855', 'http://www.wikidata.org/entity/Q109867', 'http://www.wikidata.org/entity/Q109864', 'http://www.wikidata.org/entity/Q109934', 'http://www.wikidata.org/entity/Q110054', 'http://www.wikidata.org/entity/Q104902', 'http://www.wikidata.org/entity/Q104923', 'http://www.wikidata.org/entity/Q104925', 'http://www.wikidata.org/entity/Q104977', 'http://www.wikidata.org/entity/Q105052', 'http://www.wikidata.org/entity/Q105058', 'http://www.wikidata.org/entity/Q105065', 'http://www.wikidata.org/entity/Q105082', 'http://www.wikidata.org/entity/Q105102', 'http://www.wikidata.org/entity/Q105104', 'http://www.wikidata.org/entity/Q105114', 'http://www.wikidata.org/entity/Q105129', 'http://www.wikidata.org/entity/Q105138', 'http://www.wikidata.org/entity/Q105147', 'http://www.wikidata.org/entity/Q105149', 'http://www.wikidata.org/entity/Q105166', 'http://www.wikidata.org/entity/Q105193', 'http://www.wikidata.org/entity/Q105283', 'http://www.wikidata.org/entity/Q105297', 'http://www.wikidata.org/entity/Q105373', 'http://www.wikidata.org/entity/Q105478', 'http://www.wikidata.org/entity/Q105491', 'http://www.wikidata.org/entity/Q105559', 'http://www.wikidata.org/entity/Q105610', 'http://www.wikidata.org/entity/Q105613', 'http://www.wikidata.org/entity/Q105631', 'http://www.wikidata.org/entity/Q105642', 'http://www.wikidata.org/entity/Q105665', 'http://www.wikidata.org/entity/Q105679', 'http://www.wikidata.org/entity/Q105681', 'http://www.wikidata.org/entity/Q105691', 'http://www.wikidata.org/entity/Q105716', 'http://www.wikidata.org/entity/Q105770', 'http://www.wikidata.org/entity/Q105785', 'http://www.wikidata.org/entity/Q105901', 'http://www.wikidata.org/entity/Q105914', 'http://www.wikidata.org/entity/Q105915', 'http://www.wikidata.org/entity/Q105918', 'http://www.wikidata.org/entity/Q105925', 'http://www.wikidata.org/entity/Q106035', 'http://www.wikidata.org/entity/Q106041', 'http://www.wikidata.org/entity/Q106061', 'http://www.wikidata.org/entity/Q106126', 'http://www.wikidata.org/entity/Q106127', 'http://www.wikidata.org/entity/Q106177', 'http://www.wikidata.org/entity/Q106254', 'http://www.wikidata.org/entity/Q106260', 'http://www.wikidata.org/entity/Q106368', 'http://www.wikidata.org/entity/Q106373', 'http://www.wikidata.org/entity/Q106390', 'http://www.wikidata.org/entity/Q106393', 'http://www.wikidata.org/entity/Q106412', 'http://www.wikidata.org/entity/Q106423', 'http://www.wikidata.org/entity/Q106438', 'http://www.wikidata.org/entity/Q106455', 'http://www.wikidata.org/entity/Q106460', 'http://www.wikidata.org/entity/Q106461', 'http://www.wikidata.org/entity/Q106479', 'http://www.wikidata.org/entity/Q106493', 'http://www.wikidata.org/entity/Q106496', 'http://www.wikidata.org/entity/Q164624', 'http://www.wikidata.org/entity/Q66434', 'http://www.wikidata.org/entity/Q66465', 'http://www.wikidata.org/entity/Q66479', 'http://www.wikidata.org/entity/Q66519', 'http://www.wikidata.org/entity/Q66742', 'http://www.wikidata.org/entity/Q66751', 'http://www.wikidata.org/entity/Q66769', 'http://www.wikidata.org/entity/Q67026', 'http://www.wikidata.org/entity/Q67117', 'http://www.wikidata.org/entity/Q67287', 'http://www.wikidata.org/entity/Q67383', 'http://www.wikidata.org/entity/Q67380', 'http://www.wikidata.org/entity/Q67469', 'http://www.wikidata.org/entity/Q67543', 'http://www.wikidata.org/entity/Q67641', 'http://www.wikidata.org/entity/Q67723', 'http://www.wikidata.org/entity/Q67810', 'http://www.wikidata.org/entity/Q67881', 'http://www.wikidata.org/entity/Q67899', 'http://www.wikidata.org/entity/Q67903', 'http://www.wikidata.org/entity/Q67917', 'http://www.wikidata.org/entity/Q67927', 'http://www.wikidata.org/entity/Q67950', 'http://www.wikidata.org/entity/Q67973', 'http://www.wikidata.org/entity/Q68025', 'http://www.wikidata.org/entity/Q68054', 'http://www.wikidata.org/entity/Q68057', 'http://www.wikidata.org/entity/Q68084', 'http://www.wikidata.org/entity/Q68134', 'http://www.wikidata.org/entity/Q68322', 'http://www.wikidata.org/entity/Q68448', 'http://www.wikidata.org/entity/Q68468', 'http://www.wikidata.org/entity/Q68654', 'http://www.wikidata.org/entity/Q68822', 'http://www.wikidata.org/entity/Q68898', 'http://www.wikidata.org/entity/Q68928', 'http://www.wikidata.org/entity/Q69108', 'http://www.wikidata.org/entity/Q69159', 'http://www.wikidata.org/entity/Q69171', 'http://www.wikidata.org/entity/Q69236', 'http://www.wikidata.org/entity/Q69298', 'http://www.wikidata.org/entity/Q693</t>
         </is>
       </c>
     </row>
@@ -2124,7 +2124,7 @@
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>['http://www.wikidata.org/entity/Q67641', 'http://www.wikidata.org/entity/Q67899', 'http://www.wikidata.org/entity/Q67901', 'http://www.wikidata.org/entity/Q68448', 'http://www.wikidata.org/entity/Q69645', 'http://www.wikidata.org/entity/Q70662', 'http://www.wikidata.org/entity/Q70948', 'http://www.wikidata.org/entity/Q71412', 'http://www.wikidata.org/entity/Q71463', 'http://www.wikidata.org/entity/Q71589', 'http://www.wikidata.org/entity/Q71650', 'http://www.wikidata.org/entity/Q71750', 'http://www.wikidata.org/entity/Q71839', 'http://www.wikidata.org/entity/Q72126', 'http://www.wikidata.org/entity/Q72500', 'http://www.wikidata.org/entity/Q72520', 'http://www.wikidata.org/entity/Q72768', 'http://www.wikidata.org/entity/Q65550', 'http://www.wikidata.org/entity/Q64400', 'http://www.wikidata.org/entity/Q64421', 'http://www.wikidata.org/entity/Q62581', 'http://www.wikidata.org/entity/Q63033', 'http://www.wikidata.org/entity/Q63062', 'http://www.wikidata.org/entity/Q63152', 'http://www.wikidata.org/entity/Q63189', 'http://www.wikidata.org/entity/Q63220', 'http://www.wikidata.org/entity/Q63439', 'http://www.wikidata.org/entity/Q4673', 'http://www.wikidata.org/entity/Q45383', 'http://www.wikidata.org/entity/Q51537', 'http://www.wikidata.org/entity/Q51562', 'http://www.wikidata.org/entity/Q55415', 'http://www.wikidata.org/entity/Q58801', 'http://www.wikidata.org/entity/Q58822', 'http://www.wikidata.org/entity/Q60525', 'http://www.wikidata.org/entity/Q60539', 'http://www.wikidata.org/entity/Q60905', 'http://www.wikidata.org/entity/Q60996', 'http://www.wikidata.org/entity/Q103611', 'http://www.wikidata.org/entity/Q103845', 'http://www.wikidata.org/entity/Q103961', 'http://www.wikidata.org/entity/Q104094', 'http://www.wikidata.org/entity/Q104101', 'http://www.wikidata.org/entity/Q104196', 'http://www.wikidata.org/entity/Q104523', 'http://www.wikidata.org/entity/Q104702', 'http://www.wikidata.org/entity/Q105082', 'http://www.wikidata.org/entity/Q105114', 'http://www.wikidata.org/entity/Q105195', 'http://www.wikidata.org/entity/Q105283', 'http://www.wikidata.org/entity/Q107315', 'http://www.wikidata.org/entity/Q107350', 'http://www.wikidata.org/entity/Q107461', 'http://www.wikidata.org/entity/Q107599', 'http://www.wikidata.org/entity/Q107753', 'http://www.wikidata.org/entity/Q108176', 'http://www.wikidata.org/entity/Q108202', 'http://www.wikidata.org/entity/Q108236', 'http://www.wikidata.org/entity/Q108531', 'http://www.wikidata.org/entity/Q108630', 'http://www.wikidata.org/entity/Q108773', 'http://www.wikidata.org/entity/Q108811', 'http://www.wikidata.org/entity/Q108936', 'http://www.wikidata.org/entity/Q108978', 'http://www.wikidata.org/entity/Q101686', 'http://www.wikidata.org/entity/Q101803', 'http://www.wikidata.org/entity/Q101807', 'http://www.wikidata.org/entity/Q102030', 'http://www.wikidata.org/entity/Q102337', 'http://www.wikidata.org/entity/Q102633', 'http://www.wikidata.org/entity/Q102675', 'http://www.wikidata.org/entity/Q102709', 'http://www.wikidata.org/entity/Q102990', 'http://www.wikidata.org/entity/Q103132', 'http://www.wikidata.org/entity/Q103174', 'http://www.wikidata.org/entity/Q103315', 'http://www.wikidata.org/entity/Q103394', 'http://www.wikidata.org/entity/Q103433', 'http://www.wikidata.org/entity/Q105493', 'http://www.wikidata.org/entity/Q105613', 'http://www.wikidata.org/entity/Q105770', 'http://www.wikidata.org/entity/Q105920', 'http://www.wikidata.org/entity/Q106035', 'http://www.wikidata.org/entity/Q106222', 'http://www.wikidata.org/entity/Q106661', 'http://www.wikidata.org/entity/Q106797', 'http://www.wikidata.org/entity/Q107129', 'http://www.wikidata.org/entity/Q549865', 'http://www.wikidata.org/entity/Q551176', 'http://www.wikidata.org/entity/Q551235', 'http://www.wikidata.org/entity/Q553197', 'http://www.wikidata.org/entity/Q559891', 'http://www.wikidata.org/entity/Q560789', 'http://www.wikidata.org/entity/Q561653', 'http://www.wikidata.org/entity/Q563538', 'http://www.wikidata.org/entity/Q564182', 'http://www.wikidata.org/entity/Q564796', 'http://www.wikidata.org/entity/Q565095', 'http://www.wikidata.org/entity/Q565471', 'http://www.wikidata.org/entity/Q566484', 'http://www.wikidata.org/entity/Q566735', 'http://www.wikidata.org/entity/Q566929', 'http://www.wikidata.org/entity/Q568274', 'http://www.wikidata.org/entity/Q584884', 'http://www.wikidata.org/entity/Q1184190', 'http://www.wikidata.org/entity/Q1187757', 'http://www.wikidata.org/entity/Q1189246', 'http://www.wikidata.org/entity/Q1221728', 'http://www.wikidata.org/entity/Q1221838', 'http://www.wikidata.org/entity/Q1222351', 'http://www.wikidata.org/entity/Q1222580', 'http://www.wikidata.org/entity/Q1222631', 'http://www.wikidata.org/entity/Q1223593', 'http://www.wikidata.org/entity/Q1224059', 'http://www.wikidata.org/entity/Q1226203', 'http://www.wikidata.org/entity/Q1226304', 'http://www.wikidata.org/entity/Q1227782', 'http://www.wikidata.org/entity/Q1227816', 'http://www.wikidata.org/entity/Q1231570', 'http://www.wikidata.org/entity/Q1236161', 'http://www.wikidata.org/entity/Q1238379', 'http://www.wikidata.org/entity/Q1240712', 'http://www.wikidata.org/entity/Q1243394', 'http://www.wikidata.org/entity/Q1244655', 'http://www.wikidata.org/entity/Q1244964', 'http://www.wikidata.org/entity/Q1246271', 'http://www.wikidata.org/entity/Q1246966', 'http://www.wikidata.org/entity/Q1248813', 'http://www.wikidata.org/entity/Q1252553', 'http://www.wikidata.org/entity/Q1254449', 'http://www.wikidata.org/entity/Q1260533', 'http://www.wikidata.org/entity/Q1261121', 'http://www.wikidata.org/entity/Q1265330', 'http://www.wikidata.org/entity/Q1266254', 'http://www.wikidata.org/entity/Q1268047', 'http://www.wikidata.org/entity/Q1270147', 'http://www.wikidata.org/entity/Q1270487', 'http://www.wikidata.org/entity/Q1276975', 'http://www.wikidata.org/entity/Q1279481', 'http://www.wikidata.org/entity/Q1283431', 'http://www.wikidata.org/entity/Q1283452', 'http://www.wikidata.org/entity/Q1283648', 'http://www.wikidata.org/entity/Q1283979', 'http://www.wikidata.org/entity/Q1284944', 'http://www.wikidata.org/entity/Q1285756', 'http://www.wikidata.org/entity/Q1298946', 'http://www.wikidata.org/entity/Q1299184', 'http://www.wikidata.org/entity/Q1300570', 'http://www.wikidata.org/entity/Q1300941', 'http://www.wikidata.org/entity/Q1302230', 'http://www.wikidata.org/entity/Q1306447', 'http://www.wikidata.org/entity/Q1307152', 'http://www.wikidata.org/entity/Q1310400', 'http://www.wikidata.org/entity/Q1310465', 'http://www.wikidata.org/entity/Q72893', 'http://www.wikidata.org/entity/Q73047', 'http://www.wikidata.org/entity/Q73683', 'http://www.wikidata.org/entity/Q73772', 'http://www.wikidata.org/entity/Q74004', 'http://www.wikidata.org/entity/Q74865', 'http://www.wikidata.org/entity/Q74886', 'http://www.wikidata.org/entity/Q75151', 'http://www.wikidata.org/entity/Q75383', 'http://www.wikidata.org/entity/Q75435', 'http://www.wikidata.org/entity/Q76045', 'http://www.wikidata.org/entity/Q76384', 'http://www.wikidata.org/entity/Q76394', 'http://www.wikidata.org/entity/Q76665', 'http://www.wikidata.org/entity/Q76677', 'http://www.wikidata.org/entity/Q76963', 'http://www.wikidata.org/entity/Q76990', 'http://www.wikidata.org/entity/Q77437', 'http://www.wikidata.org/entity/Q77462', 'http://www.wikidata.org/entity/Q77758', 'http://www.wikidata.org/entity/Q77952', 'http://www.wikidata.org/entity/Q78188', 'http://www.wikidata.org/entity/Q78526', 'http://www.wikidata.org/entity/Q78661', 'http://www.wikidata.org/entity/Q82408', 'http://www.wikidata.org/entity/Q85673', 'http://www.wikidata.org/entity/Q86058', 'http://www.wikidata.org/entity/Q86210', 'http://www.wikidata.org/entity/Q86712', 'http://www.wikidata.org/entity/Q86778', 'http://www.wikidata.org/entity/Q87033', 'http://www.wikidata.org/entity/Q87336', 'http://www.wikidata.org/entity/Q87346', 'http://www.wikidata.org/entity/Q87976', 'http://www.wikidata.org/entity/Q88019', 'http://www.wikidata.org/entity/Q88289', 'http://www.wikidata.org/entity/Q88574', 'http://www.wikidata.org/entity/Q89052', 'http://www.wikidata.org/entity/Q89187', 'http://www.wikidata.org/entity/Q89565', 'http://www.wikidata.org/entity/Q89830', 'http://www.wikidata.org/entity/Q90022', 'http://www.wikidata.org/entity/Q90063', 'http://www.wikidata.org/entity/Q90251', 'http://www.wikidata.org/entity/Q90319', 'http://www.wikidata.org/entity/Q90736', 'http://www.wikidata.org/entity/Q90745', 'http://www.wikidata.org/entity/Q90795', 'http://www.wikidata.org/entity/Q90875', 'http://www.wikidata.org/entity/Q90882', 'http://www.wikidata.org/entity/Q91031', 'http://www.wikidata.org/entity/Q91232', 'http://www.wikidata.org/entity/Q91333', 'http://www.wikidata.org/entity/Q91504', 'http://www.wikidata.org/entity/Q91562', 'http://www.wikidata.org/entity/Q91872', 'http://www.wikidata.org/entity/Q91978', 'http://www.wikidata.org/entity/Q92067', 'http://www.wikidata.org/entity/Q92071', 'http://www.wikidata.org/entity/Q92078', 'http://www.wikidata.org/entity/Q92110', 'http://www.wikidata.org/entity/Q92246', 'http://www.wikidata.org/entity/Q95248', 'http://www.wikidata.org/entity/Q95358', 'http://www.wikidata.org/entity/Q95363', 'http://www.wikidata.org/entity/Q95614', 'http://www.wikidata.org/entity/Q95739', 'http://www.wikidata.org/entity/Q95757', 'http://www.wikidata.org/entity/Q95854', 'http://www.wikidata.org/entity/Q95901', 'http://www.wikidata.org/entity/Q95951', 'http://www.wikidata.org/entity/Q96189', 'http://www.wikidata.org/entity/Q96214', 'http://www.wikidata.org/entity/Q96298', 'http://www.wikidata.org/entity/Q96421', 'http://www.wikidata.org/entity/Q96548', 'http://www.wikidata.org/entity/Q96627', 'http://www.wikidata.org/entity/Q96724', 'http://www.wikidata.org/entity/Q96843', 'http://www.wikidata.org/entity/Q97265', 'http://www.wikidata.org/entity/Q97394', 'http://www.wikidata.org/entity/Q97609', 'http://www.wikidata.org/entity/Q97794', 'http://www.wikidata.org/entity/Q97861', 'http://www.wikidata.org/entity/Q97908', 'http://www.wikidata.org/entity/Q97930', 'http://www.wikidata.org/entity/Q97934', 'http://www.wikidata.org/entity/Q97939', 'http://www.wikidata.org/entity/Q97944', 'http://www.wikidata.org/entity/Q98097', 'http://www.wikidata.org/entity/Q98437', 'http://www.wikidata.org/entity/Q98476', 'http://www.wikidata.org/entity/Q98512', 'http://www.wikidata.org/entity/Q98620', 'http://www.wikidata.org/entity/Q98755', 'http://www.wikidata.org/entity/Q99294', 'http://www.wikidata.org/entity/Q99385', 'http://www.wikidata.org/entity/Q99407', 'http://www.wikidata.org/entity/Q99532', 'http://www.wikidata.org/entity/Q99533', 'http://www.wikidata.org/entity/Q99714', 'http://www.wikidata.org/entity/Q99893', 'http://www.wikidata.org/entity/Q99913', 'http://www.wikidata.org/entity/Q100175', 'http://www.wikidata.org/entity/Q100258', 'http://www.wikidata.org/entity/Q100422', 'http://www.wikidata.org/entity/Q100570', 'http://www.wikidata.org/entity/Q100658', 'http://www.wikidata.org/entity/Q100671', 'http://www.wikidata.org/entity/Q100708', 'http://www.wikidata.org/entity/Q100766', 'http://www.wikidata.org/entity/Q101058', 'http://www.wikidata.org/entity/Q101059', 'http://www.wikidata.org/entity/Q101110', 'http://www.wikidata.org/entity/Q101223', 'http://www.wikidata.org/entity/Q101231', 'http://www.wikidata.org/entity/Q109001', 'http://www.wikidata.org/entity/Q109028', 'http://www.wikidata.org/entity/Q109133', 'http://www.wikidata.org/entity/Q109358', 'http://www.wikidata.org/entity/Q109556', 'http://www.wikidata.org/entity/Q109608', 'http://www.wikidata.org/entity/Q109648', 'http://www.wikidata.org/entity/Q110163', 'http://www.wikidata.org/entity/Q110425', 'http://www.wikidata.org/entity/Q110571', 'http://www.wikidata.org/entity/Q110647', 'http://www.wikidata.org/entity/Q110695', 'http://www.wikidata.org/entity/Q110762', 'http://www.wikidata.org/entity/Q111070', 'http://www.wikidata.org/entity/Q111184', 'http://www.wikidata.org/entity/Q111263', 'http://www.wikidata.org/entity/Q111288', 'http://www.wikidata.org/entity/Q111578', 'http://www.wikidata.org/entity/Q112598', 'http://www.wikidata.org/entity/Q112684', 'http://www.wikidata.org/entity/Q113099', 'http://www.wikidata.org/entity/Q113696', 'http://www.wikidata.org/entity/Q113751', 'http://www.wikidata.org/entity/Q113787', 'http://www.wikidata.org/entity/Q114137', 'http://www.wikidata.org/entity/Q114265', 'http://www.wikidata.org/entity/Q114378', 'http://www.wikidata.org/entity/Q115363', 'http://www.wikidata.org/entity/Q118393', 'http://www.wikidata.org/entity/Q119766', 'http://www.wikidata.org/entity/Q120071', 'http://www.wikidata.org/entity/Q120287', 'http://www.wikidata.org/entity/Q120391', 'http://www.wikidata.org/entity/Q120418', 'http://www.wikidata.org/entity/Q120522', 'http://www.wikidata.org/entity/Q121814', 'http://www.wikidata.org/entity/Q122292', 'http://www.wikidata.org/entity/Q122399', 'http://www.wikidata.org/entity/Q122667', 'http://www.wikidata.org/entity/Q122806', 'http://www.wikidata.org/entity/Q122843', 'http://www.wikidata.org/entity/Q122846', 'http://www.wikidata.org/entity/Q122891', 'http://www.wikidata.org/entity/Q123015', 'http://www.wikidata.org/entity/Q123068', 'http://www.wikidata.org/entity/Q123181', 'http://www.wikidata.org/entity/Q123446', 'http://www.wikidata.org/entity/Q124451', 'http://www.wikidata.org/entity/Q124660', 'http://www.wikidata.org/entity/Q124800', 'http://www.wikidata.org/entity/Q124959', 'http://www.wikidata.org/entity/Q124985', 'http://www.wikidata.org/entity/Q125376', 'http://www.wikidata.org/entity/Q125744', 'http://www.wikidata.org/entity/Q126614', 'http://www.wikidata.org/entity/Q126629', 'http://www.wikidata.org/entity/Q126741', 'http://www.wikidata.org/entity/Q126854', 'http://www.wikidata.org/entity/Q126864', 'http://www.wikidata.org/entity/Q126990', 'http://www.wikidata.org/entity/Q129310', 'http://www.wikidata.org/entity/Q152165', 'http://www.wikidata.org/entity/Q154203', 'http://www.wikidata.org/entity/Q164721', 'http://www.wikidata.org/entity/Q175880', 'http://www.wikidata.org/entity/Q214659', 'http://www.wikidata.org/entity/Q214930', 'http://www.wikidata.org/entity/Q216382', 'http://www.wikidata.org/entity/Q216636', 'http://www.wikidata.org/entity/Q216676', 'http://www.wikidata.org/entity/Q218220', 'http://www.wikidata.org/entity/Q220461', 'http://www.wikidata.org/entity/Q241115', 'http://www.wikidata.org/entity/Q256028', 'http://www.wikidata.org/entity/Q267676', 'http://www.wikidata.org/entity/Q278319', 'http://www.wikidata.org/entity/Q301638', 'http://www.wikidata.org/entity/Q302094', 'http://www.wikidata.org/entity/Q314033', 'http://www.wikidata.org/entity/Q316957', 'http://www.wikidata.org/entity/Q339259', 'http://www.wikidata.org/entity/Q340403', 'http://www.wikidata.org/entity/Q340480', 'http://www.wikidata.org/entity/Q340508', 'http://www.wikidata.org/entity/Q343772', 'http://www.wikidata.org/entity/Q354506', 'http://www.wikidata.org/entity/Q355102', 'http://www.wikidata.org/entity/Q366700', 'http://www.wikidata.org/entity/Q373580', 'http://www.wikidata.org/entity/Q374515', 'http://www.wikidata.org/entity/Q400688', 'http://www.wikidata.org/entity/Q409563', 'http://www.wikidata.org/entity/Q446684', 'http://www.wikidata.org/entity/Q453934', 'http://www.wikidata.org/entity/Q482806', 'http://www.wikidata.org/entity/Q495064', 'http://www.wikidata.org/entity/Q497611', 'http://www.wikidata.org/entity/Q500073', 'http://www.wikidata.org/entity/Q513844', 'http://www.wikidata.org/entity/Q522613', 'http://www.wikidata.org/entity/Q598429', 'http://www.wikidata.org/entity/Q598751', 'http://www.wikidata.org/entity/Q605741', 'http://www.wikidata.org/entity/Q626026', 'http://www.wikidata.org/entity/Q692341', 'http://www.wikidata.org/entity/Q694648', 'http://www.wikidata.org/entity/Q711109', 'http://www.wikidata.org/entity/Q750732', 'http://www.wikidata.org/entity/Q758999', 'http://www.wikidata.org/entity/Q792072', 'http://www.wikidata.org/entity/Q797844', 'http://www.wikidata.org/entity/Q807369', 'http://www.wikidata.org/entity/Q807428', 'http://www.wikidata.org/entity/Q807561', 'http://www.wikidata.org/entity/Q807646', 'http://www.wikidata.org/entity/Q807712', 'http://www.wikidata.org/entity/Q810651', 'http://www.wikidata.org/entity/Q813164', 'http://www.wikidata.org/entity/Q813257', 'http://www.wikidata.org/entity/Q817655', 'http://www.wikidata.org/entity/Q817682', 'http://www.wikidata.org/entity/Q817723', 'http://www.wikidata.org/entity/Q824186', 'http://www.wikidata.org/entity/Q824272', 'http://www.wikidata.org/entity/Q850083', 'http://www.wikidata.org/entity/Q862152', 'http://www.wikidata.org/entity/Q877771', 'http://www.wikidata.org/entity/Q877778', 'http://www.wikidata.org/entity/Q879073', 'http://www.wikidata.org/entity/Q889969', 'http://www.wikidata.org/entity/Q895158', 'http://www.wikidata.org/entity/Q915980', 'http://www.wikidata.org/entity/Q916148', 'http://www.wikidata.org/entity/Q982982', 'http://www.wikidata.org/entity/Q992120', 'http://www.wikidata.org/entity/Q993214', 'http://www.wikidata.org/entity/Q993255', 'http://www.wikidata.org/entity/Q993684', 'http://www.wikidata.org/entity/Q997540', 'http://www.wikidata.org/entity/Q998422', 'http://www.wikidata.org/entity/Q1000015', 'http://www.wikidata.org/entity/Q1000204', 'http://www.wikidata.org/entity/Q1004594', 'http://www.wikidata.org/entity/Q1010197', 'http://www.wikidata.org/entity/Q1026523', 'http://www.wikidata.org/entity/Q1029169', 'http://www.wikidata.org/entity/Q1040935', 'http://www.wikidata.org/entity/Q1041374', 'http://www.wikidata.org/entity/Q1043539', 'http://www.wikidata.org/entity/Q1043663', 'http://www.wikidata.org/entity/Q1051177', 'http://www.wikidata.org/entity/Q1054912', 'http://www.wikidata.org/entity/Q1062401', 'http://www.wikidata.org/entity/Q1064727', 'http://www.wikidata.org/entity/Q1067309', 'http://www.wikidata.org/entity/Q1067322', 'http://www.wikidata.org/entity/Q1067523', 'http://www.wikidata.org/entity/Q1079009', 'http://www.wikidata.org/entity/Q1081783', 'http://www.wikidata.org/entity/Q1082288', 'http://www.wikidata.org/entity/Q1082673', 'http://www.wikidata.org/entity/Q1082818', 'http://www.wikidata.org/entity/Q1083125', 'http://www.wikidata.org/entity/Q1083780', 'http://www.wikidata.org/entity/Q1085544', 'http://www.wikidata.org/entity/Q1091975', 'http://www.wikidata.org/entity/Q1095238', 'http://www.wikidata.org/entity/Q1097633', 'http://www.wikidata.org/entity/Q1097845', 'http://www.wikidata.org/entity/Q1097857', 'http://www.wikidata.org/entity/Q1097963', 'http://www.wikidata.org/entity/Q1113095', 'http://www.wikidata.org/entity/Q1115481', 'http://www.wikidata.org/entity/Q1116424', 'http://www.wikidata.org/entity/Q1122948', 'http://www.wikidata.org/entity/Q1123974', 'http://www.wikidata.org/entity/Q1123977', 'http://www.wikidata.org/entity/Q1124829', 'http://www.wikidata.org/entity/Q1125085', 'http://www.wikidata.org/entity/Q1126770', 'http://www.wikidata.org/entity/Q1127986', 'http://www.wikidata.org/entity/Q1132817', 'http://www.wikidata.org/entity/Q1148096', 'http://www.wikidata.org/entity/Q1158532', 'http://www.wikidata.org/entity/Q1163512', 'http://www.wikidata.org/entity/Q1163623', 'http://www.wikidata.org/entity/Q1170240', 'http://www.wikidata.org/entity/Q524203', 'http://www.wikidata.org/entity/Q529519', 'http://www.wikidata.org/entity/Q534438', 'http://www.wikidata.org/entity/Q534451', 'http://www.wikidata.org/entity/Q534463', 'http://www.wikidata.org/entity/Q540848', 'http://www.wikidata.org/entity/Q547200', 'http://www.wikidata.org/entity/Q1310972', 'http://www.wikidata.org/entity/Q1313039', 'http://www.wikidata.org/entity/Q1318302', 'http://www.wikidata.org/entity/Q1323777', 'http://www.wikidata.org/entity/Q1327864', 'http://www.wikidata.org/entity/Q1328026', 'http://www.wikidata.org/entity/Q1328544', 'http://www.wikidata.org/entity/Q1329659', 'http://www.wikidata.org/entity/Q1329856', 'http://www.wikidata.org/entity/Q1331868', 'http://www.wikidata.org/entity/Q1331872', 'http://www.wikidata.org/entity/Q1331935', 'http://www.wikidata.org/entity/Q1331968', 'http://www.wikidata.org/entity/Q1333636', 'http://www.wikidata.org/entity/Q1333664', 'http://www.wikidata.org/entity/Q1335311', 'http://www.wikidata.org/entity/Q1336732', 'http://www.wikidata.org/entity/Q1336922', 'http://www.wikidata.org/entity/Q1337573', 'http://www.wikidata.org/entity/Q1340437', 'http://www.wikidata.org/entity/Q1350611', 'http://www.wikidata.org/entity/Q1352201', 'http://www.wikidata.org/entity/Q1352213', 'http://www.wikidata.org/entity/Q1352452', 'http://www.wikidata.org/entity/Q1353986', 'http://www.wikidata.org/entity/Q1354384', 'http://www.wikidata.org/entity/Q1354466', 'http://www.wikidata.org/entity/Q1355368', 'http://www.wikidata.org/entity/Q1356103', 'http://www.wikidata.org/entity/Q1358294', 'http://www.wikidata.org/entity/Q1362641', 'http://www.wikidata.org/entity/Q1363023', 'http://www.wikidata.org/entity/Q1363677', 'http://www.wikidata.org/entity/Q1367915', 'http://www.wikidata.org/entity/Q1373079', 'http://www.wikidata.org/entity/Q1378277', 'http://www.wikidata.org/entity/Q1379175', 'http://www.wikidata.org/entity/Q1379251', 'http://www.wikidata.org/entity/Q1379275', 'http://www.wikidata.org/entity/Q1379343', 'http://www.wikidata.org/entity/Q1380072', 'http://www.wikidata.org/entity/Q1381767', 'http://www.wikidata.org/entity/Q1381773', 'http://www.wikidata.org/entity/Q1381776', 'http://www.wikidata.org/entity/Q1381787', 'http://www.wikidata.org/entity/Q1381820', 'http://www.wikidata.org/entity/Q1382347', 'http://www.wikidata.org/entity/Q1382758', 'http://www.wikidata.org/entity/Q1382964', 'http://www.wikidata.org/entity/Q1383608', 'http://www.wikidata.org/entity/Q1385014', 'http://www.wikidata.org/entity/Q1389523', 'http://www.wikidata.org/entity/Q1400864', 'http://www.wikidata.org/entity/Q1401745', 'http://www.wikidata.org/entity/Q1406964', 'http://www.wikidata.org/entity/Q1411735', 'http://www.wikidata.org/entity/Q1419306', 'http://www.wikidata.org/entity/Q1419853', 'http://www.wikidata.org/entity/Q1420987', 'http://www.wikidata.org/entity/Q1422617', 'http://www.wikidata.org/entity/Q1427421', 'http://www.wikidata.org/entity/Q1429422', 'http://www.wikidata.org/entity/Q1429767', 'http://www.wikidata.org/entity/Q1429773', 'http://www.wikidata.org/entity/Q1429895', 'http://www.wikidata.org/entity/Q1429993', 'http://www.wikidata.org/entity/Q1432014', 'http://www.wikidata.org/entity/Q1432793', 'http://www.wikidata.org/entity/Q1433879', 'http://www.wikidata.org/entity/Q1435440', 'http://www.wikidata.org/entity/Q1440454', 'http://www.wikidata.org/entity/Q1441287', 'http://www.wikidata.org/entity/Q1442893', 'http://www.wikidata.org/entity/Q1443702', 'http://www.wikidata.org/entity/Q1444095', 'http://www.wikidata.org/entity/Q1444326', 'http://www.wikidata.org/entity/Q1444539', 'http://www.wikidata.org/entity/Q1446330', 'http://www.wikidata.org/entity/Q1449804', 'http://www.wikidata.org/entity/Q1452425', 'http://www.wikidata.org/entity/Q1896034', 'http://www.wikidata.org/entity/Q1896047', 'http://www.wikidata.org/entity/Q1896646', 'http://www.wikidata.org/entity/Q1896768', 'http://www.wikidata.org/entity/Q1896931', 'http://www.wikidata.org/entity/Q1897408', 'http://www.wikidata.org/entity/Q1898277', 'http://www.wikidata.org/entity/Q1899135', 'http://www.wikidata.org/entity/Q1899209', 'http://www.wikidata.org/entity/Q1902136', 'http://www.wikidata.org/entity/Q1905160', 'http://www.wikidata.org/entity/Q1911345', 'http://www.wikidata.org/entity/Q1912503', 'http://www.wikidata.org/entity/Q1912653', 'http://www.wikidata.org/entity/Q1913471', 'http://www.wikidata.org/entity/Q1913847', 'http://www.wikidata.org/entity/Q1914028', 'http://www.wikidata.org/entity/Q1914377', 'http://www.wikidata.org/entity/Q1927641', 'http://www.wikidata.org/entity/Q1927973', 'http://www.wikidata.org/entity/Q1928217', 'http://www.wikidata.org/entity/Q1929119', 'http://www.wikidata.org/entity/Q1929355', 'http://www.wikidata.org/entity/Q1929964', 'http://www.wikidata.org/entity/Q1930765', 'http://www.wikidata.org/entity/Q1936520', 'http://www.wikidata.org/entity/Q1944665', 'http://www.wikidata.org/entity/Q1953548', 'http://www.wikidata.org/entity/Q1966324', 'http://www.wikidata.org/entity/Q1966427', 'http://www.wikidata.org/entity/Q1986301', 'http://www.wikidata.org/entity/Q1986471', 'http://www.wikidata.org/entity/Q1986946', 'http://www.wikidata.org/entity/Q1997218', 'http://www.wikidata.org/entity/Q2017942', 'http://www.wikidata.org/entity/Q1456529', 'http://www.wikidata.org/entity/Q1457081', 'http://www.wikidata.org/entity/Q1458792', 'http://www.wikidata.org/entity/Q1459188', 'http://www.wikidata.org/entity/Q1459666', 'http://www.wikidata.org/entity/Q1462902', 'http://www.wikidata.org/entity/Q1465971', 'http://www.wikidata.org/entity/Q1467023', 'http://www.wikidata.org/entity/Q1468117', 'http://www.wikidata.org/entity/Q1468602', 'http://www.wikidata.org/entity/Q1469107', 'http://www.wikidata.org/entity/Q1469179', 'http://www.wikidata.org/entity/Q1475596', 'http://www.wikidata.org/entity/Q1477187', 'http://www.wikidata.org/entity/Q1478606', 'http://www.wikidata.org/entity/Q1482068', 'http://www.wikidata.org/entity/Q1483953', 'http://www.wikidata.org/entity/Q1488428', 'http://www.wikidata.org/entity/Q1489817', 'http://www.wikidata.org/entity/Q1490571', 'http://www.wikidata.org/entity/Q1491904', 'http://www.wikidata.org/entity/Q1493401', 'http://www.wikidata.org/entity/Q1495554', 'http://www.wikidata.org/entity/Q1498001', 'http://www.wikidata.org/entity/Q1505308', 'http://www.wikidata.org/entity/Q1508578', 'http://www.wikidata.org/entity/Q1509316', 'http://www.wikidata.org/entity/Q1509720', 'http://www.wikidata.org/entity/Q1510468', 'http://www.wikidata.org/entity/Q1510998', 'http://www.wikidata.org/entity/Q1511035', 'http://www.wikidata.org/entity/Q1511065', 'http://www.wikidata.org/entity/Q1512349', 'http://www.wikidata.org/entity/Q1512798', 'http://www.wikidata.org/entity/Q1513745', 'http://www.wikidata.org/entity/Q1514801', 'http://www.wikidata.org/entity/Q1515161', 'http://www.wikidata.org/entity/Q1515688', 'http://www.wikidata.org/entity/Q1519604', 'http://www.wikidata.org/entity/Q1521525', 'http://www.wikidata.org/entity/Q1524328', 'http://www.wikidata.org/entity/Q1524898', 'http://www.wikidata.org/entity/Q1527325', 'http://www.wikidata.org/entity/Q1527436', 'http://www.wikidata.org/entity/Q1527555', 'http://www.wikidata.org/entity/Q1528516', 'http://www.wikidata.org/entity/Q1528984', 'http://www.wikidata.org/entity/Q1531168', 'http://www.wikidata.org/entity/Q1531327', 'http://www.wikidata.org/entity/Q1539548', 'http://www.wikidata.org/entity/Q1541089', 'http://www.wikidata.org/entity/Q1546024', 'http://www.wikidata.org/entity/Q1554514', 'http://www.wikidata.org/entity/Q1554637', 'http://www.wikidata.org/entity/Q1554819', 'http://www.wikidata.org/entity/Q1554971', 'http://www.wikidata.org/entity/Q1556393', 'http://www.wikidata.org/entity/Q1559898', 'http://www.wikidata.org/entity/Q1560064', 'http://www.wikidata.org/entity/Q1560622', 'http://www.wikidata.org/entity/Q1561335', 'http://www.wikidata.org/entity/Q1561505', 'http://www.wikidata.org/entity/Q1561923', 'http://www.wikidata.org/entity/Q1562291', 'http://www.wikidata.org/entity/Q1562989', 'http://www.wikidata.org/entity/Q1564867', 'http://www.wikidata.org/entity/Q1567644', 'http://www.wikidata.org/entity/Q1568622', 'http://www.wikidata.org/entity/Q1569506', 'http://www.wikidata.org/entity/Q1570059', 'http://www.wikidata.org/entity/Q1571855', 'http://www.wikidata.org/entity/Q1576199', 'http://www.wikidata.org/entity/Q1576446', 'http://www.wikidata.org/entity/Q1576853', 'http://www.wikidata.org/entity/Q1577419', 'http://www.wikidata.org/entity/Q1577563', 'http://www.wikidata.org/entity/Q1577655', 'http://www.wikidata.org/entity/Q1580847', 'http://www.wikidata.org/entity/Q1581206', 'http://www.wikidata.org/entity/Q1581554', 'http://www.wikidata.org/entity/Q1582785', 'http://www.wikidata.org/entity/Q1583042', 'http://www.wikidata.org/entity/Q1583049', 'http://www.wikidata.org/entity/Q1583099', 'http://www.wikidata.org/entity/Q1586852', 'http://www.wikidata.org/entity/Q1589508', 'http://www.wikidata.org/entity/Q1594118', 'http://www.wikidata.org/entity/Q1594361', 'http://www.wikidata.org/entity/Q1594519', 'http://www.wikidata.org/entity/Q1594597', 'http://www.wikidata.org/entity/Q1596228', 'http://www.wikidata.org/entity/Q1598504', 'http://www.wikidata.org/entity/Q1598799', 'http://www.wikidata.org/entity/Q1600176', 'http://www.wikidata.org/entity/Q1600870', 'http://www.wikidata.org/entity/Q1602275', 'http://www.wikidata.org/entity/Q1602280', 'http://www.wikidata.org/entity/Q1603374', 'http://www.wikidata.org/entity/Q1605476', 'http://www.wikidata.org/entity/Q1605777', 'http://www.wikidata.org/entity/Q1606154', 'http://www.wikidata.org/entity/Q1606181', 'http://www.wikidata.org/entity/Q1606509', 'http://www.wikidata.org/entity/Q1606541', 'http://www.wikidata.org/entity/Q1608681', 'http://www.wikidata.org/entity/Q1608891', 'http://www.wikidata.org/entity/Q1612238', 'http://www.wikidata.org/entity/Q1614415', 'http://www.wikidata.org/entity/Q1617035', 'http://www.wikidata.org/entity/Q1617689', 'http://www.wikidata.org/entity/Q1619272', 'http://www.wikidata.org/entity/Q1621516', 'http://www.wikidata.org/entity/Q1623301', 'http://www.wikidata.org/entity/Q1625092', 'http://www.wikidata.org/entity/Q1627996', 'http://www.wikidata.org/entity/Q1629317', 'http://www.wikidata.org/entity/Q1629800', 'http://www.wikidata.org/entity/Q1629841', 'http://www.wikidata.org/entity/Q1630508', 'http://www.wikidata.org/entity/Q1634995', 'http://www.wikidata.org/entity/Q1635378', 'http://www.wikidata.org/entity/Q1643955', 'http://www.wikidata.org/entity/Q1645024', 'http://www.wikidata.org/entity/Q1647154', 'http://www.wikidata.org/entity/Q1650399', 'http://www.wikidata.org/entity/Q1653511', 'http://www.wikidata.org/entity/Q1655197', 'http://www.wikidata.org/entity/Q1656537', 'http://www.wikidata.org/entity/Q1659142', 'http://www.wikidata.org/entity/Q1659831', 'http://www.wikidata.org/entity/Q1661225', 'http://www.wikidata.org/entity/Q1662837', 'http://www.wikidata.org/entity/Q1662842', 'http://www.wikidata.org/entity/Q1663295', 'http://www.wikidata.org/entity/Q1663645', 'http://www.wikidata.org/entity/Q1663651', 'http://www.wikidata.org/entity/Q1663701', 'http://www.wikidata.org/entity/Q1664230', 'http://www.wikidata.org/entity/Q1664290', 'http://www.wikidata.org/entity/Q1665359', 'http://www.wikidata.org/entity/Q1666885', 'http://www.wikidata.org/entity/Q1669479', 'http://www.wikidata.org/entity/Q1670423', 'http://www.wikidata.org/entity/Q1671318', 'http://www.wikidata.org/entity/Q1671803', 'http://www.wikidata.org/entity/Q1672550', 'http://www.wikidata.org/entity/Q1672553', 'http://www.wikidata.org/entity/Q1672621', 'http://www.wikidata.org/entity/Q1672660', 'http://www.wikidata.org/entity/Q1673355', 'http://www.wikidata.org/entity/Q1673571', 'http://www.wikidata.org/entity/Q1673607', 'http://www.wikidata.org/entity/Q1674157', 'http://www.wikidata.org/entity/Q1674536', 'http://www.wikidata.org/entity/Q1676772', 'http://www.wikidata.org/entity/Q1679499', 'http://www.wikidata.org/entity/Q1681271', 'http://www.wikidata.org/entity/Q1682508', 'http://www.wikidata.org/entity/Q1682605', 'http://www.wikidata.org/entity/Q1683093', 'http://www.wikidata.org/entity/Q1683107', 'http://www.wikidata.org/entity/Q1683745', 'http://www.wikidata.org/entity/Q1684852', 'http://www.wikidata.org/entity/Q1685232', 'http://www.wikidata.org/entity/Q1686699', 'http://www.wikidata.org/entity/Q1686979', 'http://www.wikidata.org/entity/Q1687264', 'http://www.wikidata.org/entity/Q1688233', 'http://www.wikidata.org/entity/Q1689888', 'http://www.wikidata.org/entity/Q1689947', 'http://www.wikidata.org/entity/Q1690004', 'http://www.wikidata.org/entity/Q1690012', 'http://www.wikidata.org/entity/Q1690344', 'http://www.wikidata.org/entity/Q1690420', 'http://www.wikidata.org/entity/Q1690568', 'http://www.wikidata.org/entity/Q1690640', 'http://www.wikidata.org/entity/Q1690808', 'http://www.wikidata.org/entity/Q1691186', 'http://www.wikidata.org/entity/Q1697343', 'http://www.wikidata.org/entity/Q1697763', 'http://www.wikidata.org/entity/Q1699752', 'http://www.wikidata.org/entity/Q1700360', 'http://www.wikidata.org/entity/Q1701370', 'http://www.wikidata.org/entity/Q1701964', 'http://www.wikidata.org/entity/Q1702334', 'http://www.wikidata.org/entity/Q1703010', 'http://www.wikidata.org/entity/Q1704038', 'http://www.wikidata.org/entity/Q1708940', 'http://www.wikidata.org/entity/Q1709812', 'http://www.wikidata.org/entity/Q1710002', 'http://www.wikidata.org/entity/Q1710009', 'http://www.wikidata.org/entity/Q1710246', 'http://www.wikidata.org/entity/Q1711105', 'http://www.wikidata.org/entity/Q1711817', 'http://www.wikidata.org/entity/Q171</t>
+          <t>['http://www.wikidata.org/entity/Q67641', 'http://www.wikidata.org/entity/Q67899', 'http://www.wikidata.org/entity/Q67901', 'http://www.wikidata.org/entity/Q68448', 'http://www.wikidata.org/entity/Q69645', 'http://www.wikidata.org/entity/Q65550', 'http://www.wikidata.org/entity/Q64400', 'http://www.wikidata.org/entity/Q64421', 'http://www.wikidata.org/entity/Q62581', 'http://www.wikidata.org/entity/Q63033', 'http://www.wikidata.org/entity/Q63062', 'http://www.wikidata.org/entity/Q63152', 'http://www.wikidata.org/entity/Q63189', 'http://www.wikidata.org/entity/Q63220', 'http://www.wikidata.org/entity/Q63439', 'http://www.wikidata.org/entity/Q4673', 'http://www.wikidata.org/entity/Q45383', 'http://www.wikidata.org/entity/Q51537', 'http://www.wikidata.org/entity/Q51562', 'http://www.wikidata.org/entity/Q55415', 'http://www.wikidata.org/entity/Q58801', 'http://www.wikidata.org/entity/Q58822', 'http://www.wikidata.org/entity/Q60525', 'http://www.wikidata.org/entity/Q60539', 'http://www.wikidata.org/entity/Q60905', 'http://www.wikidata.org/entity/Q60996', 'http://www.wikidata.org/entity/Q70662', 'http://www.wikidata.org/entity/Q70948', 'http://www.wikidata.org/entity/Q71412', 'http://www.wikidata.org/entity/Q71463', 'http://www.wikidata.org/entity/Q71589', 'http://www.wikidata.org/entity/Q71650', 'http://www.wikidata.org/entity/Q71750', 'http://www.wikidata.org/entity/Q71839', 'http://www.wikidata.org/entity/Q72126', 'http://www.wikidata.org/entity/Q72500', 'http://www.wikidata.org/entity/Q72520', 'http://www.wikidata.org/entity/Q72768', 'http://www.wikidata.org/entity/Q103611', 'http://www.wikidata.org/entity/Q103845', 'http://www.wikidata.org/entity/Q103961', 'http://www.wikidata.org/entity/Q104094', 'http://www.wikidata.org/entity/Q104101', 'http://www.wikidata.org/entity/Q104196', 'http://www.wikidata.org/entity/Q104523', 'http://www.wikidata.org/entity/Q104702', 'http://www.wikidata.org/entity/Q105082', 'http://www.wikidata.org/entity/Q105114', 'http://www.wikidata.org/entity/Q105195', 'http://www.wikidata.org/entity/Q105283', 'http://www.wikidata.org/entity/Q101686', 'http://www.wikidata.org/entity/Q101803', 'http://www.wikidata.org/entity/Q101807', 'http://www.wikidata.org/entity/Q102030', 'http://www.wikidata.org/entity/Q102337', 'http://www.wikidata.org/entity/Q102633', 'http://www.wikidata.org/entity/Q102675', 'http://www.wikidata.org/entity/Q102709', 'http://www.wikidata.org/entity/Q102990', 'http://www.wikidata.org/entity/Q103132', 'http://www.wikidata.org/entity/Q103174', 'http://www.wikidata.org/entity/Q103315', 'http://www.wikidata.org/entity/Q103394', 'http://www.wikidata.org/entity/Q103433', 'http://www.wikidata.org/entity/Q105493', 'http://www.wikidata.org/entity/Q105613', 'http://www.wikidata.org/entity/Q105770', 'http://www.wikidata.org/entity/Q105920', 'http://www.wikidata.org/entity/Q106035', 'http://www.wikidata.org/entity/Q106222', 'http://www.wikidata.org/entity/Q106661', 'http://www.wikidata.org/entity/Q106797', 'http://www.wikidata.org/entity/Q107129', 'http://www.wikidata.org/entity/Q107315', 'http://www.wikidata.org/entity/Q107350', 'http://www.wikidata.org/entity/Q107461', 'http://www.wikidata.org/entity/Q107599', 'http://www.wikidata.org/entity/Q107753', 'http://www.wikidata.org/entity/Q108176', 'http://www.wikidata.org/entity/Q108202', 'http://www.wikidata.org/entity/Q108236', 'http://www.wikidata.org/entity/Q108531', 'http://www.wikidata.org/entity/Q108630', 'http://www.wikidata.org/entity/Q108773', 'http://www.wikidata.org/entity/Q108811', 'http://www.wikidata.org/entity/Q108936', 'http://www.wikidata.org/entity/Q108978', 'http://www.wikidata.org/entity/Q549865', 'http://www.wikidata.org/entity/Q551176', 'http://www.wikidata.org/entity/Q551235', 'http://www.wikidata.org/entity/Q553197', 'http://www.wikidata.org/entity/Q559891', 'http://www.wikidata.org/entity/Q560789', 'http://www.wikidata.org/entity/Q561653', 'http://www.wikidata.org/entity/Q563538', 'http://www.wikidata.org/entity/Q564182', 'http://www.wikidata.org/entity/Q564796', 'http://www.wikidata.org/entity/Q565095', 'http://www.wikidata.org/entity/Q565471', 'http://www.wikidata.org/entity/Q566484', 'http://www.wikidata.org/entity/Q566735', 'http://www.wikidata.org/entity/Q566929', 'http://www.wikidata.org/entity/Q568274', 'http://www.wikidata.org/entity/Q584884', 'http://www.wikidata.org/entity/Q598429', 'http://www.wikidata.org/entity/Q598751', 'http://www.wikidata.org/entity/Q605741', 'http://www.wikidata.org/entity/Q626026', 'http://www.wikidata.org/entity/Q692341', 'http://www.wikidata.org/entity/Q694648', 'http://www.wikidata.org/entity/Q711109', 'http://www.wikidata.org/entity/Q750732', 'http://www.wikidata.org/entity/Q758999', 'http://www.wikidata.org/entity/Q792072', 'http://www.wikidata.org/entity/Q797844', 'http://www.wikidata.org/entity/Q807369', 'http://www.wikidata.org/entity/Q807428', 'http://www.wikidata.org/entity/Q807561', 'http://www.wikidata.org/entity/Q807583', 'http://www.wikidata.org/entity/Q807646', 'http://www.wikidata.org/entity/Q807712', 'http://www.wikidata.org/entity/Q810651', 'http://www.wikidata.org/entity/Q813164', 'http://www.wikidata.org/entity/Q813257', 'http://www.wikidata.org/entity/Q817655', 'http://www.wikidata.org/entity/Q817682', 'http://www.wikidata.org/entity/Q817723', 'http://www.wikidata.org/entity/Q824186', 'http://www.wikidata.org/entity/Q824272', 'http://www.wikidata.org/entity/Q850049', 'http://www.wikidata.org/entity/Q850083', 'http://www.wikidata.org/entity/Q862152', 'http://www.wikidata.org/entity/Q877771', 'http://www.wikidata.org/entity/Q877778', 'http://www.wikidata.org/entity/Q879073', 'http://www.wikidata.org/entity/Q889969', 'http://www.wikidata.org/entity/Q895158', 'http://www.wikidata.org/entity/Q915980', 'http://www.wikidata.org/entity/Q916148', 'http://www.wikidata.org/entity/Q982982', 'http://www.wikidata.org/entity/Q992120', 'http://www.wikidata.org/entity/Q993214', 'http://www.wikidata.org/entity/Q993255', 'http://www.wikidata.org/entity/Q993684', 'http://www.wikidata.org/entity/Q997540', 'http://www.wikidata.org/entity/Q998422', 'http://www.wikidata.org/entity/Q1000015', 'http://www.wikidata.org/entity/Q1000204', 'http://www.wikidata.org/entity/Q1004594', 'http://www.wikidata.org/entity/Q1010197', 'http://www.wikidata.org/entity/Q1026523', 'http://www.wikidata.org/entity/Q1029169', 'http://www.wikidata.org/entity/Q1040935', 'http://www.wikidata.org/entity/Q1041374', 'http://www.wikidata.org/entity/Q1043539', 'http://www.wikidata.org/entity/Q1043663', 'http://www.wikidata.org/entity/Q1051177', 'http://www.wikidata.org/entity/Q1054912', 'http://www.wikidata.org/entity/Q1062401', 'http://www.wikidata.org/entity/Q1064727', 'http://www.wikidata.org/entity/Q1067309', 'http://www.wikidata.org/entity/Q1067322', 'http://www.wikidata.org/entity/Q1067523', 'http://www.wikidata.org/entity/Q1079009', 'http://www.wikidata.org/entity/Q1081783', 'http://www.wikidata.org/entity/Q1082288', 'http://www.wikidata.org/entity/Q1082673', 'http://www.wikidata.org/entity/Q1082818', 'http://www.wikidata.org/entity/Q1083125', 'http://www.wikidata.org/entity/Q1083780', 'http://www.wikidata.org/entity/Q1085544', 'http://www.wikidata.org/entity/Q1091975', 'http://www.wikidata.org/entity/Q1095238', 'http://www.wikidata.org/entity/Q1097633', 'http://www.wikidata.org/entity/Q1097845', 'http://www.wikidata.org/entity/Q1097857', 'http://www.wikidata.org/entity/Q1097963', 'http://www.wikidata.org/entity/Q1113095', 'http://www.wikidata.org/entity/Q1115481', 'http://www.wikidata.org/entity/Q1116424', 'http://www.wikidata.org/entity/Q1122948', 'http://www.wikidata.org/entity/Q1123974', 'http://www.wikidata.org/entity/Q1123977', 'http://www.wikidata.org/entity/Q1124829', 'http://www.wikidata.org/entity/Q1125085', 'http://www.wikidata.org/entity/Q1126770', 'http://www.wikidata.org/entity/Q1127986', 'http://www.wikidata.org/entity/Q1132817', 'http://www.wikidata.org/entity/Q1148096', 'http://www.wikidata.org/entity/Q1158532', 'http://www.wikidata.org/entity/Q1163512', 'http://www.wikidata.org/entity/Q1163623', 'http://www.wikidata.org/entity/Q73047', 'http://www.wikidata.org/entity/Q73683', 'http://www.wikidata.org/entity/Q73772', 'http://www.wikidata.org/entity/Q74004', 'http://www.wikidata.org/entity/Q74865', 'http://www.wikidata.org/entity/Q74886', 'http://www.wikidata.org/entity/Q75151', 'http://www.wikidata.org/entity/Q75383', 'http://www.wikidata.org/entity/Q75435', 'http://www.wikidata.org/entity/Q76045', 'http://www.wikidata.org/entity/Q76384', 'http://www.wikidata.org/entity/Q76394', 'http://www.wikidata.org/entity/Q76665', 'http://www.wikidata.org/entity/Q76677', 'http://www.wikidata.org/entity/Q76963', 'http://www.wikidata.org/entity/Q76990', 'http://www.wikidata.org/entity/Q77437', 'http://www.wikidata.org/entity/Q77462', 'http://www.wikidata.org/entity/Q77758', 'http://www.wikidata.org/entity/Q77952', 'http://www.wikidata.org/entity/Q78188', 'http://www.wikidata.org/entity/Q78526', 'http://www.wikidata.org/entity/Q78661', 'http://www.wikidata.org/entity/Q82408', 'http://www.wikidata.org/entity/Q85673', 'http://www.wikidata.org/entity/Q86058', 'http://www.wikidata.org/entity/Q86210', 'http://www.wikidata.org/entity/Q86712', 'http://www.wikidata.org/entity/Q86778', 'http://www.wikidata.org/entity/Q87033', 'http://www.wikidata.org/entity/Q87336', 'http://www.wikidata.org/entity/Q87346', 'http://www.wikidata.org/entity/Q87976', 'http://www.wikidata.org/entity/Q88019', 'http://www.wikidata.org/entity/Q88289', 'http://www.wikidata.org/entity/Q88574', 'http://www.wikidata.org/entity/Q89052', 'http://www.wikidata.org/entity/Q89187', 'http://www.wikidata.org/entity/Q89565', 'http://www.wikidata.org/entity/Q89830', 'http://www.wikidata.org/entity/Q90022', 'http://www.wikidata.org/entity/Q90063', 'http://www.wikidata.org/entity/Q90251', 'http://www.wikidata.org/entity/Q90319', 'http://www.wikidata.org/entity/Q90736', 'http://www.wikidata.org/entity/Q90745', 'http://www.wikidata.org/entity/Q90795', 'http://www.wikidata.org/entity/Q90875', 'http://www.wikidata.org/entity/Q90882', 'http://www.wikidata.org/entity/Q91031', 'http://www.wikidata.org/entity/Q91232', 'http://www.wikidata.org/entity/Q91333', 'http://www.wikidata.org/entity/Q91504', 'http://www.wikidata.org/entity/Q91562', 'http://www.wikidata.org/entity/Q91872', 'http://www.wikidata.org/entity/Q91978', 'http://www.wikidata.org/entity/Q92067', 'http://www.wikidata.org/entity/Q92071', 'http://www.wikidata.org/entity/Q92078', 'http://www.wikidata.org/entity/Q92110', 'http://www.wikidata.org/entity/Q92246', 'http://www.wikidata.org/entity/Q95248', 'http://www.wikidata.org/entity/Q95358', 'http://www.wikidata.org/entity/Q95363', 'http://www.wikidata.org/entity/Q95614', 'http://www.wikidata.org/entity/Q95739', 'http://www.wikidata.org/entity/Q95757', 'http://www.wikidata.org/entity/Q95854', 'http://www.wikidata.org/entity/Q95901', 'http://www.wikidata.org/entity/Q95951', 'http://www.wikidata.org/entity/Q96189', 'http://www.wikidata.org/entity/Q96214', 'http://www.wikidata.org/entity/Q96298', 'http://www.wikidata.org/entity/Q96421', 'http://www.wikidata.org/entity/Q96548', 'http://www.wikidata.org/entity/Q96627', 'http://www.wikidata.org/entity/Q96724', 'http://www.wikidata.org/entity/Q96843', 'http://www.wikidata.org/entity/Q97265', 'http://www.wikidata.org/entity/Q97394', 'http://www.wikidata.org/entity/Q97609', 'http://www.wikidata.org/entity/Q97794', 'http://www.wikidata.org/entity/Q97861', 'http://www.wikidata.org/entity/Q97908', 'http://www.wikidata.org/entity/Q97930', 'http://www.wikidata.org/entity/Q97934', 'http://www.wikidata.org/entity/Q97939', 'http://www.wikidata.org/entity/Q97944', 'http://www.wikidata.org/entity/Q98097', 'http://www.wikidata.org/entity/Q98437', 'http://www.wikidata.org/entity/Q98476', 'http://www.wikidata.org/entity/Q98512', 'http://www.wikidata.org/entity/Q98620', 'http://www.wikidata.org/entity/Q98755', 'http://www.wikidata.org/entity/Q99294', 'http://www.wikidata.org/entity/Q99385', 'http://www.wikidata.org/entity/Q99407', 'http://www.wikidata.org/entity/Q99532', 'http://www.wikidata.org/entity/Q99533', 'http://www.wikidata.org/entity/Q99714', 'http://www.wikidata.org/entity/Q109001', 'http://www.wikidata.org/entity/Q109028', 'http://www.wikidata.org/entity/Q109133', 'http://www.wikidata.org/entity/Q109358', 'http://www.wikidata.org/entity/Q109556', 'http://www.wikidata.org/entity/Q109608', 'http://www.wikidata.org/entity/Q109648', 'http://www.wikidata.org/entity/Q110163', 'http://www.wikidata.org/entity/Q110425', 'http://www.wikidata.org/entity/Q110571', 'http://www.wikidata.org/entity/Q110647', 'http://www.wikidata.org/entity/Q110695', 'http://www.wikidata.org/entity/Q110762', 'http://www.wikidata.org/entity/Q111070', 'http://www.wikidata.org/entity/Q111184', 'http://www.wikidata.org/entity/Q111263', 'http://www.wikidata.org/entity/Q111288', 'http://www.wikidata.org/entity/Q111578', 'http://www.wikidata.org/entity/Q112598', 'http://www.wikidata.org/entity/Q112684', 'http://www.wikidata.org/entity/Q113099', 'http://www.wikidata.org/entity/Q113696', 'http://www.wikidata.org/entity/Q113751', 'http://www.wikidata.org/entity/Q113787', 'http://www.wikidata.org/entity/Q114137', 'http://www.wikidata.org/entity/Q114265', 'http://www.wikidata.org/entity/Q114378', 'http://www.wikidata.org/entity/Q115363', 'http://www.wikidata.org/entity/Q118393', 'http://www.wikidata.org/entity/Q119766', 'http://www.wikidata.org/entity/Q120071', 'http://www.wikidata.org/entity/Q120287', 'http://www.wikidata.org/entity/Q120391', 'http://www.wikidata.org/entity/Q120418', 'http://www.wikidata.org/entity/Q120522', 'http://www.wikidata.org/entity/Q121814', 'http://www.wikidata.org/entity/Q122292', 'http://www.wikidata.org/entity/Q122399', 'http://www.wikidata.org/entity/Q122667', 'http://www.wikidata.org/entity/Q122806', 'http://www.wikidata.org/entity/Q122843', 'http://www.wikidata.org/entity/Q122846', 'http://www.wikidata.org/entity/Q122891', 'http://www.wikidata.org/entity/Q123015', 'http://www.wikidata.org/entity/Q123068', 'http://www.wikidata.org/entity/Q123181', 'http://www.wikidata.org/entity/Q123446', 'http://www.wikidata.org/entity/Q124451', 'http://www.wikidata.org/entity/Q124660', 'http://www.wikidata.org/entity/Q124800', 'http://www.wikidata.org/entity/Q124959', 'http://www.wikidata.org/entity/Q124985', 'http://www.wikidata.org/entity/Q125376', 'http://www.wikidata.org/entity/Q125744', 'http://www.wikidata.org/entity/Q126614', 'http://www.wikidata.org/entity/Q126629', 'http://www.wikidata.org/entity/Q126741', 'http://www.wikidata.org/entity/Q126854', 'http://www.wikidata.org/entity/Q126864', 'http://www.wikidata.org/entity/Q126990', 'http://www.wikidata.org/entity/Q129310', 'http://www.wikidata.org/entity/Q152165', 'http://www.wikidata.org/entity/Q154203', 'http://www.wikidata.org/entity/Q164721', 'http://www.wikidata.org/entity/Q175880', 'http://www.wikidata.org/entity/Q214659', 'http://www.wikidata.org/entity/Q214930', 'http://www.wikidata.org/entity/Q216382', 'http://www.wikidata.org/entity/Q216636', 'http://www.wikidata.org/entity/Q216676', 'http://www.wikidata.org/entity/Q218220', 'http://www.wikidata.org/entity/Q220461', 'http://www.wikidata.org/entity/Q241115', 'http://www.wikidata.org/entity/Q256028', 'http://www.wikidata.org/entity/Q267676', 'http://www.wikidata.org/entity/Q278319', 'http://www.wikidata.org/entity/Q301638', 'http://www.wikidata.org/entity/Q302094', 'http://www.wikidata.org/entity/Q314033', 'http://www.wikidata.org/entity/Q316957', 'http://www.wikidata.org/entity/Q339259', 'http://www.wikidata.org/entity/Q340403', 'http://www.wikidata.org/entity/Q340480', 'http://www.wikidata.org/entity/Q340508', 'http://www.wikidata.org/entity/Q343772', 'http://www.wikidata.org/entity/Q354506', 'http://www.wikidata.org/entity/Q355102', 'http://www.wikidata.org/entity/Q366700', 'http://www.wikidata.org/entity/Q373580', 'http://www.wikidata.org/entity/Q374515', 'http://www.wikidata.org/entity/Q400688', 'http://www.wikidata.org/entity/Q409563', 'http://www.wikidata.org/entity/Q446684', 'http://www.wikidata.org/entity/Q453934', 'http://www.wikidata.org/entity/Q482806', 'http://www.wikidata.org/entity/Q495064', 'http://www.wikidata.org/entity/Q497611', 'http://www.wikidata.org/entity/Q500073', 'http://www.wikidata.org/entity/Q513844', 'http://www.wikidata.org/entity/Q522613', 'http://www.wikidata.org/entity/Q99893', 'http://www.wikidata.org/entity/Q99913', 'http://www.wikidata.org/entity/Q100175', 'http://www.wikidata.org/entity/Q100258', 'http://www.wikidata.org/entity/Q100422', 'http://www.wikidata.org/entity/Q100570', 'http://www.wikidata.org/entity/Q100658', 'http://www.wikidata.org/entity/Q100671', 'http://www.wikidata.org/entity/Q100708', 'http://www.wikidata.org/entity/Q100766', 'http://www.wikidata.org/entity/Q101058', 'http://www.wikidata.org/entity/Q101059', 'http://www.wikidata.org/entity/Q101110', 'http://www.wikidata.org/entity/Q101223', 'http://www.wikidata.org/entity/Q101231', 'http://www.wikidata.org/entity/Q524203', 'http://www.wikidata.org/entity/Q529519', 'http://www.wikidata.org/entity/Q534438', 'http://www.wikidata.org/entity/Q534451', 'http://www.wikidata.org/entity/Q534463', 'http://www.wikidata.org/entity/Q540848', 'http://www.wikidata.org/entity/Q547200', 'http://www.wikidata.org/entity/Q1170240', 'http://www.wikidata.org/entity/Q1184190', 'http://www.wikidata.org/entity/Q1187757', 'http://www.wikidata.org/entity/Q1189246', 'http://www.wikidata.org/entity/Q1221728', 'http://www.wikidata.org/entity/Q1221838', 'http://www.wikidata.org/entity/Q1222351', 'http://www.wikidata.org/entity/Q1222580', 'http://www.wikidata.org/entity/Q1222631', 'http://www.wikidata.org/entity/Q1223593', 'http://www.wikidata.org/entity/Q1224059', 'http://www.wikidata.org/entity/Q1226203', 'http://www.wikidata.org/entity/Q1226304', 'http://www.wikidata.org/entity/Q1227782', 'http://www.wikidata.org/entity/Q1227816', 'http://www.wikidata.org/entity/Q1231570', 'http://www.wikidata.org/entity/Q1236161', 'http://www.wikidata.org/entity/Q1238379', 'http://www.wikidata.org/entity/Q1240712', 'http://www.wikidata.org/entity/Q1243394', 'http://www.wikidata.org/entity/Q1244655', 'http://www.wikidata.org/entity/Q1244964', 'http://www.wikidata.org/entity/Q1246271', 'http://www.wikidata.org/entity/Q1246966', 'http://www.wikidata.org/entity/Q1248813', 'http://www.wikidata.org/entity/Q1252553', 'http://www.wikidata.org/entity/Q1254449', 'http://www.wikidata.org/entity/Q1260533', 'http://www.wikidata.org/entity/Q1261121', 'http://www.wikidata.org/entity/Q1265330', 'http://www.wikidata.org/entity/Q1266254', 'http://www.wikidata.org/entity/Q1268047', 'http://www.wikidata.org/entity/Q1270147', 'http://www.wikidata.org/entity/Q1270487', 'http://www.wikidata.org/entity/Q1276975', 'http://www.wikidata.org/entity/Q1279481', 'http://www.wikidata.org/entity/Q1283431', 'http://www.wikidata.org/entity/Q1283452', 'http://www.wikidata.org/entity/Q1283648', 'http://www.wikidata.org/entity/Q1283979', 'http://www.wikidata.org/entity/Q1284944', 'http://www.wikidata.org/entity/Q1285756', 'http://www.wikidata.org/entity/Q1298946', 'http://www.wikidata.org/entity/Q1299184', 'http://www.wikidata.org/entity/Q1300570', 'http://www.wikidata.org/entity/Q1300941', 'http://www.wikidata.org/entity/Q1302230', 'http://www.wikidata.org/entity/Q1306447', 'http://www.wikidata.org/entity/Q1307152', 'http://www.wikidata.org/entity/Q1310400', 'http://www.wikidata.org/entity/Q1310465', 'http://www.wikidata.org/entity/Q1310972', 'http://www.wikidata.org/entity/Q1313039', 'http://www.wikidata.org/entity/Q1318302', 'http://www.wikidata.org/entity/Q1323777', 'http://www.wikidata.org/entity/Q1327864', 'http://www.wikidata.org/entity/Q1328026', 'http://www.wikidata.org/entity/Q1328544', 'http://www.wikidata.org/entity/Q1329659', 'http://www.wikidata.org/entity/Q1329856', 'http://www.wikidata.org/entity/Q1331868', 'http://www.wikidata.org/entity/Q1331872', 'http://www.wikidata.org/entity/Q1331935', 'http://www.wikidata.org/entity/Q1331968', 'http://www.wikidata.org/entity/Q1333636', 'http://www.wikidata.org/entity/Q1333664', 'http://www.wikidata.org/entity/Q1335311', 'http://www.wikidata.org/entity/Q1336732', 'http://www.wikidata.org/entity/Q1336922', 'http://www.wikidata.org/entity/Q1337573', 'http://www.wikidata.org/entity/Q1340437', 'http://www.wikidata.org/entity/Q1350611', 'http://www.wikidata.org/entity/Q1352201', 'http://www.wikidata.org/entity/Q1352213', 'http://www.wikidata.org/entity/Q1352452', 'http://www.wikidata.org/entity/Q1353986', 'http://www.wikidata.org/entity/Q1354384', 'http://www.wikidata.org/entity/Q1354466', 'http://www.wikidata.org/entity/Q1355368', 'http://www.wikidata.org/entity/Q1356103', 'http://www.wikidata.org/entity/Q1358294', 'http://www.wikidata.org/entity/Q1725437', 'http://www.wikidata.org/entity/Q1725998', 'http://www.wikidata.org/entity/Q1727164', 'http://www.wikidata.org/entity/Q1729262', 'http://www.wikidata.org/entity/Q1729410', 'http://www.wikidata.org/entity/Q1729431', 'http://www.wikidata.org/entity/Q1729429', 'http://www.wikidata.org/entity/Q1730255', 'http://www.wikidata.org/entity/Q1731041', 'http://www.wikidata.org/entity/Q1731344', 'http://www.wikidata.org/entity/Q1731581', 'http://www.wikidata.org/entity/Q1733300', 'http://www.wikidata.org/entity/Q1733507', 'http://www.wikidata.org/entity/Q1733869', 'http://www.wikidata.org/entity/Q1734737', 'http://www.wikidata.org/entity/Q1735996', 'http://www.wikidata.org/entity/Q1736019', 'http://www.wikidata.org/entity/Q1736533', 'http://www.wikidata.org/entity/Q1736626', 'http://www.wikidata.org/entity/Q1736666', 'http://www.wikidata.org/entity/Q1736711', 'http://www.wikidata.org/entity/Q1736717', 'http://www.wikidata.org/entity/Q1737645', 'http://www.wikidata.org/entity/Q1739193', 'http://www.wikidata.org/entity/Q1739655', 'http://www.wikidata.org/entity/Q1743761', 'http://www.wikidata.org/entity/Q1744079', 'http://www.wikidata.org/entity/Q1744476', 'http://www.wikidata.org/entity/Q1744759', 'http://www.wikidata.org/entity/Q1744805', 'http://www.wikidata.org/entity/Q1744926', 'http://www.wikidata.org/entity/Q1745044', 'http://www.wikidata.org/entity/Q1745079', 'http://www.wikidata.org/entity/Q1745296', 'http://www.wikidata.org/entity/Q1745463', 'http://www.wikidata.org/entity/Q1745734', 'http://www.wikidata.org/entity/Q1745737', 'http://www.wikidata.org/entity/Q1745826', 'http://www.wikidata.org/entity/Q1748542', 'http://www.wikidata.org/entity/Q1752615', 'http://www.wikidata.org/entity/Q1759048', 'http://www.wikidata.org/entity/Q1765908', 'http://www.wikidata.org/entity/Q1772656', 'http://www.wikidata.org/entity/Q1784508', 'http://www.wikidata.org/entity/Q1785865', 'http://www.wikidata.org/entity/Q1788809', 'http://www.wikidata.org/entity/Q1789326', 'http://www.wikidata.org/entity/Q1791652', 'http://www.wikidata.org/entity/Q1791964', 'http://www.wikidata.org/entity/Q1793704', 'http://www.wikidata.org/entity/Q1362641', 'http://www.wikidata.org/entity/Q1363023', 'http://www.wikidata.org/entity/Q1363677', 'http://www.wikidata.org/entity/Q1367915', 'http://www.wikidata.org/entity/Q1373079', 'http://www.wikidata.org/entity/Q1378277', 'http://www.wikidata.org/entity/Q1379175', 'http://www.wikidata.org/entity/Q1379251', 'http://www.wikidata.org/entity/Q1379275', 'http://www.wikidata.org/entity/Q1379343', 'http://www.wikidata.org/entity/Q1380072', 'http://www.wikidata.org/entity/Q1381750', 'http://www.wikidata.org/entity/Q1381767', 'http://www.wikidata.org/entity/Q1381773', 'http://www.wikidata.org/entity/Q1381776', 'http://www.wikidata.org/entity/Q1381787', 'http://www.wikidata.org/entity/Q1381820', 'http://www.wikidata.org/entity/Q1382347', 'http://www.wikidata.org/entity/Q1382758', 'http://www.wikidata.org/entity/Q1382964', 'http://www.wikidata.org/entity/Q1383608', 'http://www.wikidata.org/entity/Q1385014', 'http://www.wikidata.org/entity/Q1389523', 'http://www.wikidata.org/entity/Q1400864', 'http://www.wikidata.org/entity/Q1401745', 'http://www.wikidata.org/entity/Q1406964', 'http://www.wikidata.org/entity/Q1408164', 'http://www.wikidata.org/entity/Q1411735', 'http://www.wikidata.org/entity/Q1419306', 'http://www.wikidata.org/entity/Q1419853', 'http://www.wikidata.org/entity/Q1420987', 'http://www.wikidata.org/entity/Q1422617', 'http://www.wikidata.org/entity/Q1427421', 'http://www.wikidata.org/entity/Q1429422', 'http://www.wikidata.org/entity/Q1429767', 'http://www.wikidata.org/entity/Q1429773', 'http://www.wikidata.org/entity/Q1429895', 'http://www.wikidata.org/entity/Q1429993', 'http://www.wikidata.org/entity/Q1432014', 'http://www.wikidata.org/entity/Q1432793', 'http://www.wikidata.org/entity/Q1433879', 'http://www.wikidata.org/entity/Q1435440', 'http://www.wikidata.org/entity/Q1440454', 'http://www.wikidata.org/entity/Q1441287', 'http://www.wikidata.org/entity/Q1442893', 'http://www.wikidata.org/entity/Q1443702', 'http://www.wikidata.org/entity/Q1444095', 'http://www.wikidata.org/entity/Q1444539', 'http://www.wikidata.org/entity/Q1446330', 'http://www.wikidata.org/entity/Q1449804', 'http://www.wikidata.org/entity/Q1450106', 'http://www.wikidata.org/entity/Q1452425', 'http://www.wikidata.org/entity/Q1456529', 'http://www.wikidata.org/entity/Q1457081', 'http://www.wikidata.org/entity/Q1458792', 'http://www.wikidata.org/entity/Q1459188', 'http://www.wikidata.org/entity/Q1459666', 'http://www.wikidata.org/entity/Q1462902', 'http://www.wikidata.org/entity/Q1465971', 'http://www.wikidata.org/entity/Q1467023', 'http://www.wikidata.org/entity/Q1468117', 'http://www.wikidata.org/entity/Q1468602', 'http://www.wikidata.org/entity/Q1469107', 'http://www.wikidata.org/entity/Q1469179', 'http://www.wikidata.org/entity/Q1475596', 'http://www.wikidata.org/entity/Q1477187', 'http://www.wikidata.org/entity/Q1478606', 'http://www.wikidata.org/entity/Q1482068', 'http://www.wikidata.org/entity/Q1483953', 'http://www.wikidata.org/entity/Q1488428', 'http://www.wikidata.org/entity/Q1489817', 'http://www.wikidata.org/entity/Q1490571', 'http://www.wikidata.org/entity/Q1491904', 'http://www.wikidata.org/entity/Q1493401', 'http://www.wikidata.org/entity/Q1495554', 'http://www.wikidata.org/entity/Q1498001', 'http://www.wikidata.org/entity/Q1505308', 'http://www.wikidata.org/entity/Q1508578', 'http://www.wikidata.org/entity/Q1509316', 'http://www.wikidata.org/entity/Q1509720', 'http://www.wikidata.org/entity/Q1510468', 'http://www.wikidata.org/entity/Q1510998', 'http://www.wikidata.org/entity/Q1511035', 'http://www.wikidata.org/entity/Q1511065', 'http://www.wikidata.org/entity/Q1512349', 'http://www.wikidata.org/entity/Q1512798', 'http://www.wikidata.org/entity/Q1513745', 'http://www.wikidata.org/entity/Q1514801', 'http://www.wikidata.org/entity/Q1515161', 'http://www.wikidata.org/entity/Q1515688', 'http://www.wikidata.org/entity/Q1519604', 'http://www.wikidata.org/entity/Q1521525', 'http://www.wikidata.org/entity/Q1524328', 'http://www.wikidata.org/entity/Q1524898', 'http://www.wikidata.org/entity/Q1527325', 'http://www.wikidata.org/entity/Q1527436', 'http://www.wikidata.org/entity/Q1527555', 'http://www.wikidata.org/entity/Q1528516', 'http://www.wikidata.org/entity/Q1528984', 'http://www.wikidata.org/entity/Q1531168', 'http://www.wikidata.org/entity/Q1531327', 'http://www.wikidata.org/entity/Q1539548', 'http://www.wikidata.org/entity/Q1541089', 'http://www.wikidata.org/entity/Q1546024', 'http://www.wikidata.org/entity/Q1554514', 'http://www.wikidata.org/entity/Q1554637', 'http://www.wikidata.org/entity/Q1554819', 'http://www.wikidata.org/entity/Q1554971', 'http://www.wikidata.org/entity/Q1556393', 'http://www.wikidata.org/entity/Q1559898', 'http://www.wikidata.org/entity/Q1560064', 'http://www.wikidata.org/entity/Q1560622', 'http://www.wikidata.org/entity/Q1561335', 'http://www.wikidata.org/entity/Q1561505', 'http://www.wikidata.org/entity/Q1561923', 'http://www.wikidata.org/entity/Q1562291', 'http://www.wikidata.org/entity/Q1562989', 'http://www.wikidata.org/entity/Q1564867', 'http://www.wikidata.org/entity/Q1567644', 'http://www.wikidata.org/entity/Q1568622', 'http://www.wikidata.org/entity/Q1569506', 'http://www.wikidata.org/entity/Q1570059', 'http://www.wikidata.org/entity/Q1571855', 'http://www.wikidata.org/entity/Q1576199', 'http://www.wikidata.org/entity/Q1576446', 'http://www.wikidata.org/entity/Q1576853', 'http://www.wikidata.org/entity/Q1577419', 'http://www.wikidata.org/entity/Q1577563', 'http://www.wikidata.org/entity/Q1577655', 'http://www.wikidata.org/entity/Q1580847', 'http://www.wikidata.org/entity/Q1581206', 'http://www.wikidata.org/entity/Q1581554', 'http://www.wikidata.org/entity/Q1582785', 'http://www.wikidata.org/entity/Q1583042', 'http://www.wikidata.org/entity/Q1583049', 'http://www.wikidata.org/entity/Q1583099', 'http://www.wikidata.org/entity/Q1586852', 'http://www.wikidata.org/entity/Q1589508', 'http://www.wikidata.org/entity/Q1594118', 'http://www.wikidata.org/entity/Q1594361', 'http://www.wikidata.org/entity/Q1594519', 'http://www.wikidata.org/entity/Q1594597', 'http://www.wikidata.org/entity/Q1596228', 'http://www.wikidata.org/entity/Q1598504', 'http://www.wikidata.org/entity/Q1598799', 'http://www.wikidata.org/entity/Q1600176', 'http://www.wikidata.org/entity/Q1600870', 'http://www.wikidata.org/entity/Q1602275', 'http://www.wikidata.org/entity/Q1602280', 'http://www.wikidata.org/entity/Q1603374', 'http://www.wikidata.org/entity/Q1605476', 'http://www.wikidata.org/entity/Q1605777', 'http://www.wikidata.org/entity/Q1606154', 'http://www.wikidata.org/entity/Q1606181', 'http://www.wikidata.org/entity/Q1606509', 'http://www.wikidata.org/entity/Q1606541', 'http://www.wikidata.org/entity/Q1608681', 'http://www.wikidata.org/entity/Q1608891', 'http://www.wikidata.org/entity/Q1612238', 'http://www.wikidata.org/entity/Q1614415', 'http://www.wikidata.org/entity/Q1617035', 'http://www.wikidata.org/entity/Q1617689', 'http://www.wikidata.org/entity/Q1619272', 'http://www.wikidata.org/entity/Q1621516', 'http://www.wikidata.org/entity/Q1623301', 'http://www.wikidata.org/entity/Q1625092', 'http://www.wikidata.org/entity/Q1627996', 'http://www.wikidata.org/entity/Q1629317', 'http://www.wikidata.org/entity/Q1629800', 'http://www.wikidata.org/entity/Q1629841', 'http://www.wikidata.org/entity/Q1630508', 'http://www.wikidata.org/entity/Q1634995', 'http://www.wikidata.org/entity/Q1635378', 'http://www.wikidata.org/entity/Q1643955', 'http://www.wikidata.org/entity/Q1645024', 'http://www.wikidata.org/entity/Q1647154', 'http://www.wikidata.org/entity/Q1650399', 'http://www.wikidata.org/entity/Q1653511', 'http://www.wikidata.org/entity/Q1655197', 'http://www.wikidata.org/entity/Q1656537', 'http://www.wikidata.org/entity/Q1659142', 'http://www.wikidata.org/entity/Q1659831', 'http://www.wikidata.org/entity/Q1661225', 'http://www.wikidata.org/entity/Q1662837', 'http://www.wikidata.org/entity/Q1662842', 'http://www.wikidata.org/entity/Q1663295', 'http://www.wikidata.org/entity/Q1663645', 'http://www.wikidata.org/entity/Q1663651', 'http://www.wikidata.org/entity/Q1663701', 'http://www.wikidata.org/entity/Q1664230', 'http://www.wikidata.org/entity/Q1664290', 'http://www.wikidata.org/entity/Q1665359', 'http://www.wikidata.org/entity/Q1666885', 'http://www.wikidata.org/entity/Q1669479', 'http://www.wikidata.org/entity/Q1670423', 'http://www.wikidata.org/entity/Q1671318', 'http://www.wikidata.org/entity/Q1671803', 'http://www.wikidata.org/entity/Q1672550', 'http://www.wikidata.org/entity/Q1672553', 'http://www.wikidata.org/entity/Q1672621', 'http://www.wikidata.org/entity/Q1672660', 'http://www.wikidata.org/entity/Q1673355', 'http://www.wikidata.org/entity/Q1673571', 'http://www.wikidata.org/entity/Q1673607', 'http://www.wikidata.org/entity/Q1674157', 'http://www.wikidata.org/entity/Q1674536', 'http://www.wikidata.org/entity/Q1676772', 'http://www.wikidata.org/entity/Q1679499', 'http://www.wikidata.org/entity/Q1681271', 'http://www.wikidata.org/entity/Q1682508', 'http://www.wikidata.org/entity/Q1682605', 'http://www.wikidata.org/entity/Q1683093', 'http://www.wikidata.org/entity/Q1683107', 'http://www.wikidata.org/entity/Q1683745', 'http://www.wikidata.org/entity/Q1684852', 'http://www.wikidata.org/entity/Q1685232', 'http://www.wikidata.org/entity/Q1686699', 'http://www.wikidata.org/entity/Q1686979', 'http://www.wikidata.org/entity/Q1687264', 'http://www.wikidata.org/entity/Q1688233', 'http://www.wikidata.org/entity/Q1689888', 'http://www.wikidata.org/entity/Q1689947', 'http://www.wikidata.org/entity/Q1690004', 'http://www.wikidata.org/entity/Q1690012', 'http://www.wikidata.org/entity/Q1690344', 'http://www.wikidata.org/entity/Q1690420', 'http://www.wikidata.org/entity/Q1690568', 'http://www.wikidata.org/entity/Q1690640', 'http://www.wikidata.org/entity/Q169</t>
         </is>
       </c>
     </row>
@@ -2234,7 +2234,7 @@
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>['http://www.wikidata.org/entity/Q842253', 'http://www.wikidata.org/entity/Q6988215', 'http://www.wikidata.org/entity/Q1500187', 'http://www.wikidata.org/entity/Q1500187', 'http://www.wikidata.org/entity/Q1964370', 'http://www.wikidata.org/entity/Q3224576', 'http://www.wikidata.org/entity/Q4022709', 'http://www.wikidata.org/entity/Q6944937', 'http://www.wikidata.org/entity/Q7548538', 'http://www.wikidata.org/entity/Q7722777', 'http://www.wikidata.org/entity/Q8907426', 'http://www.wikidata.org/entity/Q16004491', 'http://www.wikidata.org/entity/Q147235', 'http://www.wikidata.org/entity/Q937913', 'http://www.wikidata.org/entity/Q3063140', 'http://www.wikidata.org/entity/Q25340369', 'http://www.wikidata.org/entity/Q104630896', 'http://www.wikidata.org/entity/Q112417328']</t>
+          <t>['http://www.wikidata.org/entity/Q842253', 'http://www.wikidata.org/entity/Q6988215', 'http://www.wikidata.org/entity/Q1500187', 'http://www.wikidata.org/entity/Q1500187', 'http://www.wikidata.org/entity/Q1964370', 'http://www.wikidata.org/entity/Q3224576', 'http://www.wikidata.org/entity/Q6944937', 'http://www.wikidata.org/entity/Q4022709', 'http://www.wikidata.org/entity/Q7548538', 'http://www.wikidata.org/entity/Q7722777', 'http://www.wikidata.org/entity/Q8907426', 'http://www.wikidata.org/entity/Q16004491', 'http://www.wikidata.org/entity/Q147235', 'http://www.wikidata.org/entity/Q3063140', 'http://www.wikidata.org/entity/Q937913', 'http://www.wikidata.org/entity/Q25340369', 'http://www.wikidata.org/entity/Q104630896', 'http://www.wikidata.org/entity/Q112417328']</t>
         </is>
       </c>
     </row>
@@ -2366,7 +2366,7 @@
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>['http://www.wikidata.org/entity/Q109867618', 'http://www.wikidata.org/entity/Q110409287', 'http://www.wikidata.org/entity/Q110463710', 'http://www.wikidata.org/entity/Q111208612', 'http://www.wikidata.org/entity/Q111317674', 'http://www.wikidata.org/entity/Q111550358', 'http://www.wikidata.org/entity/Q112242085', 'http://www.wikidata.org/entity/Q113053908', 'http://www.wikidata.org/entity/Q113366946', 'http://www.wikidata.org/entity/Q114467462', 'http://www.wikidata.org/entity/Q116163711', 'http://www.wikidata.org/entity/Q116247751', 'http://www.wikidata.org/entity/Q117359492', 'http://www.wikidata.org/entity/Q118315835', 'http://www.wikidata.org/entity/Q119659108', 'http://www.wikidata.org/entity/Q122293401', 'http://www.wikidata.org/entity/Q122678804', 'http://www.wikidata.org/entity/Q125547869', 'http://www.wikidata.org/entity/Q127387727', 'http://www.wikidata.org/entity/Q130487350', 'http://www.wikidata.org/entity/Q130637712', 'http://www.wikidata.org/entity/Q8030011', 'http://www.wikidata.org/entity/Q8037270', 'http://www.wikidata.org/entity/Q8062804', 'http://www.wikidata.org/entity/Q11975486', 'http://www.wikidata.org/entity/Q15526612', 'http://www.wikidata.org/entity/Q15991231', 'http://www.wikidata.org/entity/Q16486916', 'http://www.wikidata.org/entity/Q16827098', 'http://www.wikidata.org/entity/Q16960364', 'http://www.wikidata.org/entity/Q16968519', 'http://www.wikidata.org/entity/Q16984554', 'http://www.wikidata.org/entity/Q16995438', 'http://www.wikidata.org/entity/Q17022874', 'http://www.wikidata.org/entity/Q17051632', 'http://www.wikidata.org/entity/Q17083636', 'http://www.wikidata.org/entity/Q17084604', 'http://www.wikidata.org/entity/Q17156801', 'http://www.wikidata.org/entity/Q17509911', 'http://www.wikidata.org/entity/Q17513408', 'http://www.wikidata.org/entity/Q17762567', 'http://www.wikidata.org/entity/Q18149240', 'http://www.wikidata.org/entity/Q18378670', 'http://www.wikidata.org/entity/Q18689243', 'http://www.wikidata.org/entity/Q19384638', 'http://www.wikidata.org/entity/Q22080419', 'http://www.wikidata.org/entity/Q22977946', 'http://www.wikidata.org/entity/Q24931012', 'http://www.wikidata.org/entity/Q25303143', 'http://www.wikidata.org/entity/Q26389854', 'http://www.wikidata.org/entity/Q28127172', 'http://www.wikidata.org/entity/Q32860542', 'http://www.wikidata.org/entity/Q33400141', 'http://www.wikidata.org/entity/Q37715030', 'http://www.wikidata.org/entity/Q39055182', 'http://www.wikidata.org/entity/Q39468429', 'http://www.wikidata.org/entity/Q41487145', 'http://www.wikidata.org/entity/Q48818116', 'http://www.wikidata.org/entity/Q50413919', 'http://www.wikidata.org/entity/Q53995495', 'http://www.wikidata.org/entity/Q54001625', 'http://www.wikidata.org/entity/Q55985886', 'http://www.wikidata.org/entity/Q58096291', 'http://www.wikidata.org/entity/Q59186556', 'http://www.wikidata.org/entity/Q59386608', 'http://www.wikidata.org/entity/Q60984347', 'http://www.wikidata.org/entity/Q63043104', 'http://www.wikidata.org/entity/Q64437945', 'http://www.wikidata.org/entity/Q64627233', 'http://www.wikidata.org/entity/Q65043997', 'http://www.wikidata.org/entity/Q65057672', 'http://www.wikidata.org/entity/Q67871918', 'http://www.wikidata.org/entity/Q83988050', 'http://www.wikidata.org/entity/Q85800351', 'http://www.wikidata.org/entity/Q96400234', 'http://www.wikidata.org/entity/Q99333588', 'http://www.wikidata.org/entity/Q101461338', 'http://www.wikidata.org/entity/Q102262104', 'http://www.wikidata.org/entity/Q104092039', 'http://www.wikidata.org/entity/Q104754670', 'http://www.wikidata.org/entity/Q104871599', 'http://www.wikidata.org/entity/Q105946950', 'http://www.wikidata.org/entity/Q106239285', 'http://www.wikidata.org/entity/Q106641854', 'http://www.wikidata.org/entity/Q189589', 'http://www.wikidata.org/entity/Q215639', 'http://www.wikidata.org/entity/Q345760', 'http://www.wikidata.org/entity/Q380102', 'http://www.wikidata.org/entity/Q734779', 'http://www.wikidata.org/entity/Q1134747', 'http://www.wikidata.org/entity/Q1138662', 'http://www.wikidata.org/entity/Q1152240', 'http://www.wikidata.org/entity/Q1189945', 'http://www.wikidata.org/entity/Q1206230', 'http://www.wikidata.org/entity/Q1318049', 'http://www.wikidata.org/entity/Q1407504', 'http://www.wikidata.org/entity/Q1427937', 'http://www.wikidata.org/entity/Q1485545', 'http://www.wikidata.org/entity/Q1501630', 'http://www.wikidata.org/entity/Q1546160', 'http://www.wikidata.org/entity/Q1666928', 'http://www.wikidata.org/entity/Q1827515', 'http://www.wikidata.org/entity/Q1914308', 'http://www.wikidata.org/entity/Q2295361', 'http://www.wikidata.org/entity/Q2633520', 'http://www.wikidata.org/entity/Q2799043', 'http://www.wikidata.org/entity/Q3100842', 'http://www.wikidata.org/entity/Q3339159', 'http://www.wikidata.org/entity/Q3374416', 'http://www.wikidata.org/entity/Q3490485', 'http://www.wikidata.org/entity/Q4042981', 'http://www.wikidata.org/entity/Q4052145', 'http://www.wikidata.org/entity/Q4068094', 'http://www.wikidata.org/entity/Q4398717', 'http://www.wikidata.org/entity/Q4647740', 'http://www.wikidata.org/entity/Q4674596', 'http://www.wikidata.org/entity/Q4685837', 'http://www.wikidata.org/entity/Q4686869', 'http://www.wikidata.org/entity/Q4780797', 'http://www.wikidata.org/entity/Q5027876', 'http://www.wikidata.org/entity/Q5099325', 'http://www.wikidata.org/entity/Q5148560', 'http://www.wikidata.org/entity/Q5159054', 'http://www.wikidata.org/entity/Q5171655', 'http://www.wikidata.org/entity/Q5241692', 'http://www.wikidata.org/entity/Q5244137', 'http://www.wikidata.org/entity/Q5276228', 'http://www.wikidata.org/entity/Q5297711', 'http://www.wikidata.org/entity/Q5306018', 'http://www.wikidata.org/entity/Q5315592', 'http://www.wikidata.org/entity/Q5387144', 'http://www.wikidata.org/entity/Q5437006', 'http://www.wikidata.org/entity/Q5500039', 'http://www.wikidata.org/entity/Q5513790', 'http://www.wikidata.org/entity/Q5674337', 'http://www.wikidata.org/entity/Q5872693', 'http://www.wikidata.org/entity/Q5973348', 'http://www.wikidata.org/entity/Q6275230', 'http://www.wikidata.org/entity/Q6319098', 'http://www.wikidata.org/entity/Q6537721', 'http://www.wikidata.org/entity/Q6556550', 'http://www.wikidata.org/entity/Q6693139', 'http://www.wikidata.org/entity/Q6717514', 'http://www.wikidata.org/entity/Q6784006', 'http://www.wikidata.org/entity/Q6944890', 'http://www.wikidata.org/entity/Q7053610', 'http://www.wikidata.org/entity/Q7106584', 'http://www.wikidata.org/entity/Q7111460', 'http://www.wikidata.org/entity/Q7247909', 'http://www.wikidata.org/entity/Q7359254', 'http://www.wikidata.org/entity/Q7376897', 'http://www.wikidata.org/entity/Q7389749', 'http://www.wikidata.org/entity/Q7431857', 'http://www.wikidata.org/entity/Q7507830', 'http://www.wikidata.org/entity/Q7659050', 'http://www.wikidata.org/entity/Q7662029', 'http://www.wikidata.org/entity/Q7670791', 'http://www.wikidata.org/entity/Q7692144', 'http://www.wikidata.org/entity/Q7761583', 'http://www.wikidata.org/entity/Q7832454', 'http://www.wikidata.org/entity/Q7832475', 'http://www.wikidata.org/entity/Q7947769']</t>
+          <t>['http://www.wikidata.org/entity/Q109867618', 'http://www.wikidata.org/entity/Q110409287', 'http://www.wikidata.org/entity/Q110463710', 'http://www.wikidata.org/entity/Q111208612', 'http://www.wikidata.org/entity/Q111317674', 'http://www.wikidata.org/entity/Q111550358', 'http://www.wikidata.org/entity/Q112242085', 'http://www.wikidata.org/entity/Q113053908', 'http://www.wikidata.org/entity/Q113366946', 'http://www.wikidata.org/entity/Q114467462', 'http://www.wikidata.org/entity/Q116163711', 'http://www.wikidata.org/entity/Q116247751', 'http://www.wikidata.org/entity/Q117359492', 'http://www.wikidata.org/entity/Q118315835', 'http://www.wikidata.org/entity/Q119659108', 'http://www.wikidata.org/entity/Q122293401', 'http://www.wikidata.org/entity/Q122678804', 'http://www.wikidata.org/entity/Q127387727', 'http://www.wikidata.org/entity/Q130487350', 'http://www.wikidata.org/entity/Q130637712', 'http://www.wikidata.org/entity/Q130781792', 'http://www.wikidata.org/entity/Q132444928', 'http://www.wikidata.org/entity/Q189589', 'http://www.wikidata.org/entity/Q215639', 'http://www.wikidata.org/entity/Q345760', 'http://www.wikidata.org/entity/Q380102', 'http://www.wikidata.org/entity/Q734779', 'http://www.wikidata.org/entity/Q1134747', 'http://www.wikidata.org/entity/Q1138662', 'http://www.wikidata.org/entity/Q1152240', 'http://www.wikidata.org/entity/Q1189945', 'http://www.wikidata.org/entity/Q1206230', 'http://www.wikidata.org/entity/Q1318049', 'http://www.wikidata.org/entity/Q1407504', 'http://www.wikidata.org/entity/Q1427937', 'http://www.wikidata.org/entity/Q1485545', 'http://www.wikidata.org/entity/Q1501630', 'http://www.wikidata.org/entity/Q1546160', 'http://www.wikidata.org/entity/Q1666928', 'http://www.wikidata.org/entity/Q1827515', 'http://www.wikidata.org/entity/Q1914308', 'http://www.wikidata.org/entity/Q2295361', 'http://www.wikidata.org/entity/Q2633520', 'http://www.wikidata.org/entity/Q2799043', 'http://www.wikidata.org/entity/Q3100842', 'http://www.wikidata.org/entity/Q3339159', 'http://www.wikidata.org/entity/Q3374416', 'http://www.wikidata.org/entity/Q3490485', 'http://www.wikidata.org/entity/Q4042981', 'http://www.wikidata.org/entity/Q4052145', 'http://www.wikidata.org/entity/Q4068094', 'http://www.wikidata.org/entity/Q4398717', 'http://www.wikidata.org/entity/Q4647740', 'http://www.wikidata.org/entity/Q4674596', 'http://www.wikidata.org/entity/Q4685837', 'http://www.wikidata.org/entity/Q4686869', 'http://www.wikidata.org/entity/Q4780797', 'http://www.wikidata.org/entity/Q5027876', 'http://www.wikidata.org/entity/Q5099325', 'http://www.wikidata.org/entity/Q5148560', 'http://www.wikidata.org/entity/Q5159054', 'http://www.wikidata.org/entity/Q5171655', 'http://www.wikidata.org/entity/Q5241692', 'http://www.wikidata.org/entity/Q5244137', 'http://www.wikidata.org/entity/Q5276228', 'http://www.wikidata.org/entity/Q5297711', 'http://www.wikidata.org/entity/Q5306018', 'http://www.wikidata.org/entity/Q5315592', 'http://www.wikidata.org/entity/Q5387144', 'http://www.wikidata.org/entity/Q5437006', 'http://www.wikidata.org/entity/Q5500039', 'http://www.wikidata.org/entity/Q5513790', 'http://www.wikidata.org/entity/Q5674337', 'http://www.wikidata.org/entity/Q5872693', 'http://www.wikidata.org/entity/Q5973348', 'http://www.wikidata.org/entity/Q6275230', 'http://www.wikidata.org/entity/Q6319098', 'http://www.wikidata.org/entity/Q6537721', 'http://www.wikidata.org/entity/Q6556550', 'http://www.wikidata.org/entity/Q6693139', 'http://www.wikidata.org/entity/Q6717514', 'http://www.wikidata.org/entity/Q6784006', 'http://www.wikidata.org/entity/Q6944890', 'http://www.wikidata.org/entity/Q7053610', 'http://www.wikidata.org/entity/Q7106584', 'http://www.wikidata.org/entity/Q7111460', 'http://www.wikidata.org/entity/Q7247909', 'http://www.wikidata.org/entity/Q7359254', 'http://www.wikidata.org/entity/Q7376897', 'http://www.wikidata.org/entity/Q7389749', 'http://www.wikidata.org/entity/Q7431857', 'http://www.wikidata.org/entity/Q7507830', 'http://www.wikidata.org/entity/Q7659050', 'http://www.wikidata.org/entity/Q7662029', 'http://www.wikidata.org/entity/Q7670791', 'http://www.wikidata.org/entity/Q7692144', 'http://www.wikidata.org/entity/Q7761583', 'http://www.wikidata.org/entity/Q7832454', 'http://www.wikidata.org/entity/Q7832475', 'http://www.wikidata.org/entity/Q7947769', 'http://www.wikidata.org/entity/Q8030011', 'http://www.wikidata.org/entity/Q8037270', 'http://www.wikidata.org/entity/Q8062804', 'http://www.wikidata.org/entity/Q11975486', 'http://www.wikidata.org/entity/Q15526612', 'http://www.wikidata.org/entity/Q15991231', 'http://www.wikidata.org/entity/Q16486916', 'http://www.wikidata.org/entity/Q16827098', 'http://www.wikidata.org/entity/Q16960364', 'http://www.wikidata.org/entity/Q16968519', 'http://www.wikidata.org/entity/Q16984554', 'http://www.wikidata.org/entity/Q16995438', 'http://www.wikidata.org/entity/Q17022874', 'http://www.wikidata.org/entity/Q17051632', 'http://www.wikidata.org/entity/Q17083636', 'http://www.wikidata.org/entity/Q17084604', 'http://www.wikidata.org/entity/Q17156801', 'http://www.wikidata.org/entity/Q17509911', 'http://www.wikidata.org/entity/Q17513408', 'http://www.wikidata.org/entity/Q17762567', 'http://www.wikidata.org/entity/Q18149240', 'http://www.wikidata.org/entity/Q18378670', 'http://www.wikidata.org/entity/Q18689243', 'http://www.wikidata.org/entity/Q19384638', 'http://www.wikidata.org/entity/Q22080419', 'http://www.wikidata.org/entity/Q22977946', 'http://www.wikidata.org/entity/Q24931012', 'http://www.wikidata.org/entity/Q25303143', 'http://www.wikidata.org/entity/Q26389854', 'http://www.wikidata.org/entity/Q28127172', 'http://www.wikidata.org/entity/Q32860542', 'http://www.wikidata.org/entity/Q33400141', 'http://www.wikidata.org/entity/Q37715030', 'http://www.wikidata.org/entity/Q39055182', 'http://www.wikidata.org/entity/Q39468429', 'http://www.wikidata.org/entity/Q41487145', 'http://www.wikidata.org/entity/Q48818116', 'http://www.wikidata.org/entity/Q50413919', 'http://www.wikidata.org/entity/Q53995495', 'http://www.wikidata.org/entity/Q54001625', 'http://www.wikidata.org/entity/Q55985886', 'http://www.wikidata.org/entity/Q58096291', 'http://www.wikidata.org/entity/Q59186556', 'http://www.wikidata.org/entity/Q59386608', 'http://www.wikidata.org/entity/Q60984347', 'http://www.wikidata.org/entity/Q63043104', 'http://www.wikidata.org/entity/Q64437945', 'http://www.wikidata.org/entity/Q64627233', 'http://www.wikidata.org/entity/Q65043997', 'http://www.wikidata.org/entity/Q65057672', 'http://www.wikidata.org/entity/Q67871918', 'http://www.wikidata.org/entity/Q83988050', 'http://www.wikidata.org/entity/Q85800351', 'http://www.wikidata.org/entity/Q96400234', 'http://www.wikidata.org/entity/Q99333588', 'http://www.wikidata.org/entity/Q101461338', 'http://www.wikidata.org/entity/Q102262104', 'http://www.wikidata.org/entity/Q104092039', 'http://www.wikidata.org/entity/Q104754670', 'http://www.wikidata.org/entity/Q104871599', 'http://www.wikidata.org/entity/Q105946950', 'http://www.wikidata.org/entity/Q106239285', 'http://www.wikidata.org/entity/Q106641854']</t>
         </is>
       </c>
     </row>
@@ -2410,7 +2410,7 @@
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>['http://www.wikidata.org/entity/Q241248', 'http://www.wikidata.org/entity/Q247292', 'http://www.wikidata.org/entity/Q401956', 'http://www.wikidata.org/entity/Q584906', 'http://www.wikidata.org/entity/Q656389', 'http://www.wikidata.org/entity/Q735556', 'http://www.wikidata.org/entity/Q2532225', 'http://www.wikidata.org/entity/Q3376159', 'http://www.wikidata.org/entity/Q6053080', 'http://www.wikidata.org/entity/Q6087767', 'http://www.wikidata.org/entity/Q6579996', 'http://www.wikidata.org/entity/Q6664392', 'http://www.wikidata.org/entity/Q15839337', 'http://www.wikidata.org/entity/Q62083961', 'http://www.wikidata.org/entity/Q159933', 'http://www.wikidata.org/entity/Q438816', 'http://www.wikidata.org/entity/Q658724', 'http://www.wikidata.org/entity/Q3556231', 'http://www.wikidata.org/entity/Q7427666', 'http://www.wikidata.org/entity/Q12881664', 'http://www.wikidata.org/entity/Q12884390', 'http://www.wikidata.org/entity/Q12885516', 'http://www.wikidata.org/entity/Q15707441', 'http://www.wikidata.org/entity/Q16006306', 'http://www.wikidata.org/entity/Q24103091', 'http://www.wikidata.org/entity/Q319461', 'http://www.wikidata.org/entity/Q558304', 'http://www.wikidata.org/entity/Q20650447', 'http://www.wikidata.org/entity/Q23817654', 'http://www.wikidata.org/entity/Q58198', 'http://www.wikidata.org/entity/Q6065223', 'http://www.wikidata.org/entity/Q6085688', 'http://www.wikidata.org/entity/Q17431038', 'http://www.wikidata.org/entity/Q982729', 'http://www.wikidata.org/entity/Q5642092', 'http://www.wikidata.org/entity/Q6096707', 'http://www.wikidata.org/entity/Q16194742', 'http://www.wikidata.org/entity/Q20791043', 'http://www.wikidata.org/entity/Q110487850', 'http://www.wikidata.org/entity/Q198849', 'http://www.wikidata.org/entity/Q234289', 'http://www.wikidata.org/entity/Q344228', 'http://www.wikidata.org/entity/Q447935', 'http://www.wikidata.org/entity/Q462705', 'http://www.wikidata.org/entity/Q668833', 'http://www.wikidata.org/entity/Q1058070', 'http://www.wikidata.org/entity/Q2933169', 'http://www.wikidata.org/entity/Q4831222', 'http://www.wikidata.org/entity/Q6073861', 'http://www.wikidata.org/entity/Q6091891', 'http://www.wikidata.org/entity/Q6092342', 'http://www.wikidata.org/entity/Q6092615', 'http://www.wikidata.org/entity/Q16106168', 'http://www.wikidata.org/entity/Q19363449', 'http://www.wikidata.org/entity/Q20471243', 'http://www.wikidata.org/entity/Q31189969', 'http://www.wikidata.org/entity/Q31190208', 'http://www.wikidata.org/entity/Q98926195', 'http://www.wikidata.org/entity/Q106777112', 'http://www.wikidata.org/entity/Q107134143', 'http://www.wikidata.org/entity/Q57274', 'http://www.wikidata.org/entity/Q125961248', 'http://www.wikidata.org/entity/Q128258062', 'http://www.wikidata.org/entity/Q130443356', 'http://www.wikidata.org/entity/Q128894', 'http://www.wikidata.org/entity/Q178929', 'http://www.wikidata.org/entity/Q187272', 'http://www.wikidata.org/entity/Q197098', 'http://www.wikidata.org/entity/Q240263', 'http://www.wikidata.org/entity/Q272766', 'http://www.wikidata.org/entity/Q308154', 'http://www.wikidata.org/entity/Q316443', 'http://www.wikidata.org/entity/Q343026', 'http://www.wikidata.org/entity/Q343211', 'http://www.wikidata.org/entity/Q343658', 'http://www.wikidata.org/entity/Q352882', 'http://www.wikidata.org/entity/Q359364', 'http://www.wikidata.org/entity/Q401758', 'http://www.wikidata.org/entity/Q439558', 'http://www.wikidata.org/entity/Q462689', 'http://www.wikidata.org/entity/Q469840', 'http://www.wikidata.org/entity/Q545905', 'http://www.wikidata.org/entity/Q586303', 'http://www.wikidata.org/entity/Q598099', 'http://www.wikidata.org/entity/Q607246', 'http://www.wikidata.org/entity/Q758126', 'http://www.wikidata.org/entity/Q792886', 'http://www.wikidata.org/entity/Q832186', 'http://www.wikidata.org/entity/Q958755', 'http://www.wikidata.org/entity/Q1124178', 'http://www.wikidata.org/entity/Q1253952', 'http://www.wikidata.org/entity/Q1363783', 'http://www.wikidata.org/entity/Q1366590', 'http://www.wikidata.org/entity/Q1367902', 'http://www.wikidata.org/entity/Q1472442', 'http://www.wikidata.org/entity/Q1513762', 'http://www.wikidata.org/entity/Q1972668', 'http://www.wikidata.org/entity/Q2029391', 'http://www.wikidata.org/entity/Q2030361', 'http://www.wikidata.org/entity/Q2599873', 'http://www.wikidata.org/entity/Q3113776', 'http://www.wikidata.org/entity/Q3626505', 'http://www.wikidata.org/entity/Q4014759', 'http://www.wikidata.org/entity/Q4156471', 'http://www.wikidata.org/entity/Q4475622', 'http://www.wikidata.org/entity/Q4820547', 'http://www.wikidata.org/entity/Q4907709', 'http://www.wikidata.org/entity/Q4998761', 'http://www.wikidata.org/entity/Q5303861', 'http://www.wikidata.org/entity/Q5642483', 'http://www.wikidata.org/entity/Q5965131', 'http://www.wikidata.org/entity/Q6025477', 'http://www.wikidata.org/entity/Q6028416', 'http://www.wikidata.org/entity/Q6038183', 'http://www.wikidata.org/entity/Q6053996', 'http://www.wikidata.org/entity/Q6087171', 'http://www.wikidata.org/entity/Q6101050', 'http://www.wikidata.org/entity/Q6102115', 'http://www.wikidata.org/entity/Q6505598', 'http://www.wikidata.org/entity/Q16379926', 'http://www.wikidata.org/entity/Q20474034', 'http://www.wikidata.org/entity/Q20476300', 'http://www.wikidata.org/entity/Q58151964', 'http://www.wikidata.org/entity/Q66115521', 'http://www.wikidata.org/entity/Q28862', 'http://www.wikidata.org/entity/Q5626856', 'http://www.wikidata.org/entity/Q6043132', 'http://www.wikidata.org/entity/Q6060009', 'http://www.wikidata.org/entity/Q6060480', 'http://www.wikidata.org/entity/Q6068234', 'http://www.wikidata.org/entity/Q6075302', 'http://www.wikidata.org/entity/Q6088888', 'http://www.wikidata.org/entity/Q6089334', 'http://www.wikidata.org/entity/Q6092885', 'http://www.wikidata.org/entity/Q6095747', 'http://www.wikidata.org/entity/Q6096101', 'http://www.wikidata.org/entity/Q6098090', 'http://www.wikidata.org/entity/Q6100954', 'http://www.wikidata.org/entity/Q6102165', 'http://www.wikidata.org/entity/Q6568818', 'http://www.wikidata.org/entity/Q6943223', 'http://www.wikidata.org/entity/Q7310629', 'http://www.wikidata.org/entity/Q8013757', 'http://www.wikidata.org/entity/Q8077684', 'http://www.wikidata.org/entity/Q10967747', 'http://www.wikidata.org/entity/Q12808667', 'http://www.wikidata.org/entity/Q12811073', 'http://www.wikidata.org/entity/Q12857746', 'http://www.wikidata.org/entity/Q15637361', 'http://www.wikidata.org/entity/Q61512210', 'http://www.wikidata.org/entity/Q87747225', 'http://www.wikidata.org/entity/Q89485364', 'http://www.wikidata.org/entity/Q96278706', 'http://www.wikidata.org/entity/Q97320265', 'http://www.wikidata.org/entity/Q97599038', 'http://www.wikidata.org/entity/Q99669321', 'http://www.wikidata.org/entity/Q103832283', 'http://www.wikidata.org/entity/Q110501169', 'http://www.wikidata.org/entity/Q111359302', 'http://www.wikidata.org/entity/Q112661293', 'http://www.wikidata.org/entity/Q112939051', 'http://www.wikidata.org/entity/Q113077068', 'http://www.wikidata.org/entity/Q113572624', 'http://www.wikidata.org/entity/Q129730836', 'http://www.wikidata.org/entity/Q100600', 'http://www.wikidata.org/entity/Q184699', 'http://www.wikidata.org/entity/Q236916', 'http://www.wikidata.org/entity/Q379884', 'http://www.wikidata.org/entity/Q468092', 'http://www.wikidata.org/entity/Q468099', 'http://www.wikidata.org/entity/Q546052', 'http://www.wikidata.org/entity/Q603855', 'http://www.wikidata.org/entity/Q721709', 'http://www.wikidata.org/entity/Q732915', 'http://www.wikidata.org/entity/Q1052920', 'http://www.wikidata.org/entity/Q1897283', 'http://www.wikidata.org/entity/Q2408128', 'http://www.wikidata.org/entity/Q2620193', 'http://www.wikidata.org/entity/Q3124589', 'http://www.wikidata.org/entity/Q3480773', 'http://www.wikidata.org/entity/Q3574613', 'http://www.wikidata.org/entity/Q3653188', 'http://www.wikidata.org/entity/Q4792623', 'http://www.wikidata.org/entity/Q5340312', 'http://www.wikidata.org/entity/Q5395957', 'http://www.wikidata.org/entity/Q6019399', 'http://www.wikidata.org/entity/Q6034472', 'http://www.wikidata.org/entity/Q6038706', 'http://www.wikidata.org/entity/Q6047415', 'http://www.wikidata.org/entity/Q6067775', 'http://www.wikidata.org/entity/Q6083022', 'http://www.wikidata.org/entity/Q6085178', 'http://www.wikidata.org/entity/Q6087534', 'http://www.wikidata.org/entity/Q6094572', 'http://www.wikidata.org/entity/Q6100432', 'http://www.wikidata.org/entity/Q6101605', 'http://www.wikidata.org/entity/Q6102460', 'http://www.wikidata.org/entity/Q6102987', 'http://www.wikidata.org/entity/Q6383452', 'http://www.wikidata.org/entity/Q7161467', 'http://www.wikidata.org/entity/Q7448960', 'http://www.wikidata.org/entity/Q7701200', 'http://www.wikidata.org/entity/Q8051140', 'http://www.wikidata.org/entity/Q8063474', 'http://www.wikidata.org/entity/Q12811157', 'http://www.wikidata.org/entity/Q13054036', 'http://www.wikidata.org/entity/Q13054723', 'http://www.wikidata.org/entity/Q16197288', 'http://www.wikidata.org/entity/Q16213909', 'http://www.wikidata.org/entity/Q16393607', 'http://www.wikidata.org/entity/Q16675961', 'http://www.wikidata.org/entity/Q16821799', 'http://www.wikidata.org/entity/Q17361496', 'http://www.wikidata.org/entity/Q21201405', 'http://www.wikidata.org/entity/Q21523648', 'http://www.wikidata.org/entity/Q21527193', 'http://www.wikidata.org/entity/Q23759736', 'http://www.wikidata.org/entity/Q25477289', 'http://www.wikidata.org/entity/Q28024991', 'http://www.wikidata.org/entity/Q64691867', 'http://www.wikidata.org/entity/Q107978686', 'http://www.wikidata.org/entity/Q108354810', 'http://www.wikidata.org/entity/Q109140521', 'http://www.wikidata.org/entity/Q113501661', 'http://www.wikidata.org/entity/Q116441426', 'http://www.wikidata.org/entity/Q123403616', 'http://www.wikidata.org/entity/Q127866150', 'http://www.wikidata.org/entity/Q184906', 'http://www.wikidata.org/entity/Q401998', 'http://www.wikidata.org/entity/Q793309', 'http://www.wikidata.org/entity/Q4724595', 'http://www.wikidata.org/entity/Q6023077', 'http://www.wikidata.org/entity/Q6099143', 'http://www.wikidata.org/entity/Q6099374', 'http://www.wikidata.org/entity/Q7124707', 'http://www.wikidata.org/entity/Q12810989', 'http://www.wikidata.org/entity/Q17305595', 'http://www.wikidata.org/entity/Q20803875', 'http://www.wikidata.org/entity/Q28424418', 'http://www.wikidata.org/entity/Q63646372', 'http://www.wikidata.org/entity/Q65220517', 'http://www.wikidata.org/entity/Q97234709', 'http://www.wikidata.org/entity/Q108885071', 'http://www.wikidata.org/entity/Q109389750', 'http://www.wikidata.org/entity/Q110164416', 'http://www.wikidata.org/entity/Q113022859', 'http://www.wikidata.org/entity/Q113354059', 'http://www.wikidata.org/entity/Q129811684']</t>
+          <t>['http://www.wikidata.org/entity/Q4014759', 'http://www.wikidata.org/entity/Q4820547', 'http://www.wikidata.org/entity/Q4907709', 'http://www.wikidata.org/entity/Q4998761', 'http://www.wikidata.org/entity/Q5642483', 'http://www.wikidata.org/entity/Q5965131', 'http://www.wikidata.org/entity/Q178929', 'http://www.wikidata.org/entity/Q316443', 'http://www.wikidata.org/entity/Q352882', 'http://www.wikidata.org/entity/Q359364', 'http://www.wikidata.org/entity/Q401758', 'http://www.wikidata.org/entity/Q439558', 'http://www.wikidata.org/entity/Q607246', 'http://www.wikidata.org/entity/Q832186', 'http://www.wikidata.org/entity/Q1124178', 'http://www.wikidata.org/entity/Q2029391', 'http://www.wikidata.org/entity/Q4156471', 'http://www.wikidata.org/entity/Q4475622', 'http://www.wikidata.org/entity/Q6025477', 'http://www.wikidata.org/entity/Q6053996', 'http://www.wikidata.org/entity/Q6101050', 'http://www.wikidata.org/entity/Q6102115', 'http://www.wikidata.org/entity/Q6505598', 'http://www.wikidata.org/entity/Q28862', 'http://www.wikidata.org/entity/Q128894', 'http://www.wikidata.org/entity/Q197098', 'http://www.wikidata.org/entity/Q240263', 'http://www.wikidata.org/entity/Q272766', 'http://www.wikidata.org/entity/Q308154', 'http://www.wikidata.org/entity/Q343026', 'http://www.wikidata.org/entity/Q343211', 'http://www.wikidata.org/entity/Q343658', 'http://www.wikidata.org/entity/Q462689', 'http://www.wikidata.org/entity/Q469840', 'http://www.wikidata.org/entity/Q545905', 'http://www.wikidata.org/entity/Q586303', 'http://www.wikidata.org/entity/Q598099', 'http://www.wikidata.org/entity/Q668833', 'http://www.wikidata.org/entity/Q758126', 'http://www.wikidata.org/entity/Q792886', 'http://www.wikidata.org/entity/Q958755', 'http://www.wikidata.org/entity/Q1253952', 'http://www.wikidata.org/entity/Q1363783', 'http://www.wikidata.org/entity/Q1367902', 'http://www.wikidata.org/entity/Q1472442', 'http://www.wikidata.org/entity/Q1513762', 'http://www.wikidata.org/entity/Q1972668', 'http://www.wikidata.org/entity/Q2599873', 'http://www.wikidata.org/entity/Q3113776', 'http://www.wikidata.org/entity/Q3626505', 'http://www.wikidata.org/entity/Q159933', 'http://www.wikidata.org/entity/Q438816', 'http://www.wikidata.org/entity/Q658724', 'http://www.wikidata.org/entity/Q3556231', 'http://www.wikidata.org/entity/Q7427666', 'http://www.wikidata.org/entity/Q12881664', 'http://www.wikidata.org/entity/Q12884390', 'http://www.wikidata.org/entity/Q12885516', 'http://www.wikidata.org/entity/Q15707441', 'http://www.wikidata.org/entity/Q16006306', 'http://www.wikidata.org/entity/Q24103091', 'http://www.wikidata.org/entity/Q6038183', 'http://www.wikidata.org/entity/Q1897283', 'http://www.wikidata.org/entity/Q187272', 'http://www.wikidata.org/entity/Q241248', 'http://www.wikidata.org/entity/Q247292', 'http://www.wikidata.org/entity/Q319461', 'http://www.wikidata.org/entity/Q401956', 'http://www.wikidata.org/entity/Q558304', 'http://www.wikidata.org/entity/Q584906', 'http://www.wikidata.org/entity/Q656389', 'http://www.wikidata.org/entity/Q735556', 'http://www.wikidata.org/entity/Q2532225', 'http://www.wikidata.org/entity/Q3376159', 'http://www.wikidata.org/entity/Q6028416', 'http://www.wikidata.org/entity/Q6043132', 'http://www.wikidata.org/entity/Q6053080', 'http://www.wikidata.org/entity/Q6060009', 'http://www.wikidata.org/entity/Q6060480', 'http://www.wikidata.org/entity/Q6065223', 'http://www.wikidata.org/entity/Q6068234', 'http://www.wikidata.org/entity/Q6075302', 'http://www.wikidata.org/entity/Q6085688', 'http://www.wikidata.org/entity/Q6087171', 'http://www.wikidata.org/entity/Q6087767', 'http://www.wikidata.org/entity/Q6088888', 'http://www.wikidata.org/entity/Q6089334', 'http://www.wikidata.org/entity/Q6092885', 'http://www.wikidata.org/entity/Q6095747', 'http://www.wikidata.org/entity/Q6096101', 'http://www.wikidata.org/entity/Q6098090', 'http://www.wikidata.org/entity/Q6100954', 'http://www.wikidata.org/entity/Q6102165', 'http://www.wikidata.org/entity/Q6568818', 'http://www.wikidata.org/entity/Q6579996', 'http://www.wikidata.org/entity/Q6664392', 'http://www.wikidata.org/entity/Q7310629', 'http://www.wikidata.org/entity/Q8013757', 'http://www.wikidata.org/entity/Q8077684', 'http://www.wikidata.org/entity/Q10967747', 'http://www.wikidata.org/entity/Q12808667', 'http://www.wikidata.org/entity/Q12811073', 'http://www.wikidata.org/entity/Q12857746', 'http://www.wikidata.org/entity/Q15637361', 'http://www.wikidata.org/entity/Q15839337', 'http://www.wikidata.org/entity/Q20474034', 'http://www.wikidata.org/entity/Q20650447', 'http://www.wikidata.org/entity/Q23817654', 'http://www.wikidata.org/entity/Q61512210', 'http://www.wikidata.org/entity/Q62083961', 'http://www.wikidata.org/entity/Q87747225', 'http://www.wikidata.org/entity/Q89485364', 'http://www.wikidata.org/entity/Q58198', 'http://www.wikidata.org/entity/Q234289', 'http://www.wikidata.org/entity/Q236916', 'http://www.wikidata.org/entity/Q2933169', 'http://www.wikidata.org/entity/Q3480773', 'http://www.wikidata.org/entity/Q3574613', 'http://www.wikidata.org/entity/Q3653188', 'http://www.wikidata.org/entity/Q4792623', 'http://www.wikidata.org/entity/Q5626856', 'http://www.wikidata.org/entity/Q6100432', 'http://www.wikidata.org/entity/Q6383452', 'http://www.wikidata.org/entity/Q6943223', 'http://www.wikidata.org/entity/Q16821799', 'http://www.wikidata.org/entity/Q21201405', 'http://www.wikidata.org/entity/Q96278706', 'http://www.wikidata.org/entity/Q97320265', 'http://www.wikidata.org/entity/Q97599038', 'http://www.wikidata.org/entity/Q99669321', 'http://www.wikidata.org/entity/Q103832283', 'http://www.wikidata.org/entity/Q110487850', 'http://www.wikidata.org/entity/Q110501169', 'http://www.wikidata.org/entity/Q111359302', 'http://www.wikidata.org/entity/Q112661293', 'http://www.wikidata.org/entity/Q112939051', 'http://www.wikidata.org/entity/Q113077068', 'http://www.wikidata.org/entity/Q113501661', 'http://www.wikidata.org/entity/Q113572624', 'http://www.wikidata.org/entity/Q116441426', 'http://www.wikidata.org/entity/Q127866150', 'http://www.wikidata.org/entity/Q129730836', 'http://www.wikidata.org/entity/Q131691331', 'http://www.wikidata.org/entity/Q57274', 'http://www.wikidata.org/entity/Q100600', 'http://www.wikidata.org/entity/Q184699', 'http://www.wikidata.org/entity/Q184906', 'http://www.wikidata.org/entity/Q198849', 'http://www.wikidata.org/entity/Q344228', 'http://www.wikidata.org/entity/Q379884', 'http://www.wikidata.org/entity/Q447935', 'http://www.wikidata.org/entity/Q462705', 'http://www.wikidata.org/entity/Q468092', 'http://www.wikidata.org/entity/Q468099', 'http://www.wikidata.org/entity/Q546052', 'http://www.wikidata.org/entity/Q603855', 'http://www.wikidata.org/entity/Q732915', 'http://www.wikidata.org/entity/Q982729', 'http://www.wikidata.org/entity/Q1052920', 'http://www.wikidata.org/entity/Q1058070', 'http://www.wikidata.org/entity/Q2408128', 'http://www.wikidata.org/entity/Q3124589', 'http://www.wikidata.org/entity/Q4831222', 'http://www.wikidata.org/entity/Q5340312', 'http://www.wikidata.org/entity/Q5642092', 'http://www.wikidata.org/entity/Q6019399', 'http://www.wikidata.org/entity/Q6023077', 'http://www.wikidata.org/entity/Q6034472', 'http://www.wikidata.org/entity/Q6038706', 'http://www.wikidata.org/entity/Q6047415', 'http://www.wikidata.org/entity/Q6067775', 'http://www.wikidata.org/entity/Q6073861', 'http://www.wikidata.org/entity/Q6083022', 'http://www.wikidata.org/entity/Q6085178', 'http://www.wikidata.org/entity/Q6087534', 'http://www.wikidata.org/entity/Q6091891', 'http://www.wikidata.org/entity/Q6092342', 'http://www.wikidata.org/entity/Q6092615', 'http://www.wikidata.org/entity/Q6094572', 'http://www.wikidata.org/entity/Q6096707', 'http://www.wikidata.org/entity/Q6101605', 'http://www.wikidata.org/entity/Q6102460', 'http://www.wikidata.org/entity/Q6102987', 'http://www.wikidata.org/entity/Q7161467', 'http://www.wikidata.org/entity/Q7448960', 'http://www.wikidata.org/entity/Q12811157', 'http://www.wikidata.org/entity/Q16106168', 'http://www.wikidata.org/entity/Q16194742', 'http://www.wikidata.org/entity/Q16197288', 'http://www.wikidata.org/entity/Q16213909', 'http://www.wikidata.org/entity/Q16675961', 'http://www.wikidata.org/entity/Q17361496', 'http://www.wikidata.org/entity/Q20791043', 'http://www.wikidata.org/entity/Q21523648', 'http://www.wikidata.org/entity/Q21527193', 'http://www.wikidata.org/entity/Q23759736', 'http://www.wikidata.org/entity/Q25477289', 'http://www.wikidata.org/entity/Q28024991', 'http://www.wikidata.org/entity/Q64691867', 'http://www.wikidata.org/entity/Q65220517', 'http://www.wikidata.org/entity/Q106777112', 'http://www.wikidata.org/entity/Q107134143', 'http://www.wikidata.org/entity/Q108354810', 'http://www.wikidata.org/entity/Q123403616', 'http://www.wikidata.org/entity/Q1366590', 'http://www.wikidata.org/entity/Q66115521', 'http://www.wikidata.org/entity/Q97234709', 'http://www.wikidata.org/entity/Q108885071', 'http://www.wikidata.org/entity/Q109389750', 'http://www.wikidata.org/entity/Q110164416', 'http://www.wikidata.org/entity/Q113354059', 'http://www.wikidata.org/entity/Q125961248', 'http://www.wikidata.org/entity/Q128258062', 'http://www.wikidata.org/entity/Q130443356', 'http://www.wikidata.org/entity/Q2030361', 'http://www.wikidata.org/entity/Q5303861', 'http://www.wikidata.org/entity/Q16379926', 'http://www.wikidata.org/entity/Q17431038', 'http://www.wikidata.org/entity/Q19363449', 'http://www.wikidata.org/entity/Q20471243', 'http://www.wikidata.org/entity/Q20476300', 'http://www.wikidata.org/entity/Q31189969', 'http://www.wikidata.org/entity/Q31190208', 'http://www.wikidata.org/entity/Q58151964', 'http://www.wikidata.org/entity/Q98926195', 'http://www.wikidata.org/entity/Q109140521', 'http://www.wikidata.org/entity/Q401998', 'http://www.wikidata.org/entity/Q721709', 'http://www.wikidata.org/entity/Q793309', 'http://www.wikidata.org/entity/Q2620193', 'http://www.wikidata.org/entity/Q4724595', 'http://www.wikidata.org/entity/Q5395957', 'http://www.wikidata.org/entity/Q6099143', 'http://www.wikidata.org/entity/Q6099374', 'http://www.wikidata.org/entity/Q7124707', 'http://www.wikidata.org/entity/Q7701200', 'http://www.wikidata.org/entity/Q8051140', 'http://www.wikidata.org/entity/Q8063474', 'http://www.wikidata.org/entity/Q12810989', 'http://www.wikidata.org/entity/Q13054036', 'http://www.wikidata.org/entity/Q13054723', 'http://www.wikidata.org/entity/Q16393607', 'http://www.wikidata.org/entity/Q17305595', 'http://www.wikidata.org/entity/Q20803875', 'http://www.wikidata.org/entity/Q28424418', 'http://www.wikidata.org/entity/Q63646372', 'http://www.wikidata.org/entity/Q107978686', 'http://www.wikidata.org/entity/Q113022859', 'http://www.wikidata.org/entity/Q129811684', 'http://www.wikidata.org/entity/Q132858518']</t>
         </is>
       </c>
     </row>
@@ -2432,7 +2432,7 @@
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>['http://www.wikidata.org/entity/Q1764491', 'http://www.wikidata.org/entity/Q5319378', 'http://www.wikidata.org/entity/Q15238671', 'http://www.wikidata.org/entity/Q18353614', 'http://www.wikidata.org/entity/Q19244922', 'http://www.wikidata.org/entity/Q19871547', 'http://www.wikidata.org/entity/Q25387895', 'http://www.wikidata.org/entity/Q26882710', 'http://www.wikidata.org/entity/Q31836861', 'http://www.wikidata.org/entity/Q50306488', 'http://www.wikidata.org/entity/Q51029232']</t>
+          <t>['http://www.wikidata.org/entity/Q1764491', 'http://www.wikidata.org/entity/Q5319378', 'http://www.wikidata.org/entity/Q15238671', 'http://www.wikidata.org/entity/Q18353614', 'http://www.wikidata.org/entity/Q19244922', 'http://www.wikidata.org/entity/Q19871547', 'http://www.wikidata.org/entity/Q25387895', 'http://www.wikidata.org/entity/Q26882710', 'http://www.wikidata.org/entity/Q31836861', 'http://www.wikidata.org/entity/Q50306488', 'http://www.wikidata.org/entity/Q51029232', 'http://www.wikidata.org/entity/Q88331456']</t>
         </is>
       </c>
     </row>
@@ -2476,7 +2476,7 @@
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>['http://www.wikidata.org/entity/Q131749', 'http://www.wikidata.org/entity/Q209522', 'http://www.wikidata.org/entity/Q254327', 'http://www.wikidata.org/entity/Q357522', 'http://www.wikidata.org/entity/Q492054', 'http://www.wikidata.org/entity/Q559538', 'http://www.wikidata.org/entity/Q567713', 'http://www.wikidata.org/entity/Q635195', 'http://www.wikidata.org/entity/Q653267', 'http://www.wikidata.org/entity/Q929963', 'http://www.wikidata.org/entity/Q1134891', 'http://www.wikidata.org/entity/Q1143151', 'http://www.wikidata.org/entity/Q1334368', 'http://www.wikidata.org/entity/Q2742106', 'http://www.wikidata.org/entity/Q3485506', 'http://www.wikidata.org/entity/Q4358147', 'http://www.wikidata.org/entity/Q5441238', 'http://www.wikidata.org/entity/Q5588436', 'http://www.wikidata.org/entity/Q5735426', 'http://www.wikidata.org/entity/Q7447762', 'http://www.wikidata.org/entity/Q17104923', 'http://www.wikidata.org/entity/Q18554097', 'http://www.wikidata.org/entity/Q55790157', 'http://www.wikidata.org/entity/Q64513386', 'http://www.wikidata.org/entity/Q108760799', 'http://www.wikidata.org/entity/Q118958702']</t>
+          <t>['http://www.wikidata.org/entity/Q131749', 'http://www.wikidata.org/entity/Q209522', 'http://www.wikidata.org/entity/Q254327', 'http://www.wikidata.org/entity/Q357522', 'http://www.wikidata.org/entity/Q492054', 'http://www.wikidata.org/entity/Q559538', 'http://www.wikidata.org/entity/Q567713', 'http://www.wikidata.org/entity/Q635195', 'http://www.wikidata.org/entity/Q653267', 'http://www.wikidata.org/entity/Q929963', 'http://www.wikidata.org/entity/Q1134891', 'http://www.wikidata.org/entity/Q1143151', 'http://www.wikidata.org/entity/Q1334368', 'http://www.wikidata.org/entity/Q2742106', 'http://www.wikidata.org/entity/Q3485506', 'http://www.wikidata.org/entity/Q4358147', 'http://www.wikidata.org/entity/Q5441238', 'http://www.wikidata.org/entity/Q5588436', 'http://www.wikidata.org/entity/Q5735426', 'http://www.wikidata.org/entity/Q7447762', 'http://www.wikidata.org/entity/Q17104923', 'http://www.wikidata.org/entity/Q18554097', 'http://www.wikidata.org/entity/Q55790157', 'http://www.wikidata.org/entity/Q64513386', 'http://www.wikidata.org/entity/Q108760799', 'http://www.wikidata.org/entity/Q118958702', 'http://www.wikidata.org/entity/Q125565493']</t>
         </is>
       </c>
     </row>
@@ -2542,7 +2542,7 @@
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>['38']</t>
+          <t>['37']</t>
         </is>
       </c>
     </row>
@@ -2674,7 +2674,7 @@
       </c>
       <c r="D102" t="inlineStr">
         <is>
-          <t>['http://www.wikidata.org/entity/Q114436', 'http://www.wikidata.org/entity/Q618436', 'http://www.wikidata.org/entity/Q667615', 'http://www.wikidata.org/entity/Q24101', 'http://www.wikidata.org/entity/Q33018', 'http://www.wikidata.org/entity/Q931577', 'http://www.wikidata.org/entity/Q2326916', 'http://www.wikidata.org/entity/Q3639683', 'http://www.wikidata.org/entity/Q3672299', 'http://www.wikidata.org/entity/Q19871811', 'http://www.wikidata.org/entity/Q5727966', 'http://www.wikidata.org/entity/Q11680213', 'http://www.wikidata.org/entity/Q80943782', 'http://www.wikidata.org/entity/Q130602362', 'http://www.wikidata.org/entity/Q125072234', 'http://www.wikidata.org/entity/Q120869241', 'http://www.wikidata.org/entity/Q111162711']</t>
+          <t>['http://www.wikidata.org/entity/Q931577', 'http://www.wikidata.org/entity/Q114436', 'http://www.wikidata.org/entity/Q618436', 'http://www.wikidata.org/entity/Q667615', 'http://www.wikidata.org/entity/Q24101', 'http://www.wikidata.org/entity/Q33018', 'http://www.wikidata.org/entity/Q2326916', 'http://www.wikidata.org/entity/Q3639683', 'http://www.wikidata.org/entity/Q3672299', 'http://www.wikidata.org/entity/Q19871811', 'http://www.wikidata.org/entity/Q5727966', 'http://www.wikidata.org/entity/Q11680213', 'http://www.wikidata.org/entity/Q80943782', 'http://www.wikidata.org/entity/Q111162711', 'http://www.wikidata.org/entity/Q125072234', 'http://www.wikidata.org/entity/Q120869241', 'http://www.wikidata.org/entity/Q130602362']</t>
         </is>
       </c>
     </row>
@@ -2696,7 +2696,7 @@
       </c>
       <c r="D103" t="inlineStr">
         <is>
-          <t>['http://www.wikidata.org/entity/Q580448', 'http://www.wikidata.org/entity/Q812964', 'http://www.wikidata.org/entity/Q2052676', 'http://www.wikidata.org/entity/Q4046690', 'http://www.wikidata.org/entity/Q25345888', 'http://www.wikidata.org/entity/Q91440026', 'http://www.wikidata.org/entity/Q2005']</t>
+          <t>['http://www.wikidata.org/entity/Q580448', 'http://www.wikidata.org/entity/Q812964', 'http://www.wikidata.org/entity/Q2052676', 'http://www.wikidata.org/entity/Q4046690', 'http://www.wikidata.org/entity/Q25345888', 'http://www.wikidata.org/entity/Q91440026', 'http://www.wikidata.org/entity/Q132262426', 'http://www.wikidata.org/entity/Q2005']</t>
         </is>
       </c>
     </row>
@@ -2762,7 +2762,7 @@
       </c>
       <c r="D106" t="inlineStr">
         <is>
-          <t>['http://www.wikidata.org/entity/Q363079', 'http://www.wikidata.org/entity/Q363817', 'http://www.wikidata.org/entity/Q363972', 'http://www.wikidata.org/entity/Q365572', 'http://www.wikidata.org/entity/Q365827', 'http://www.wikidata.org/entity/Q366478', 'http://www.wikidata.org/entity/Q366480', 'http://www.wikidata.org/entity/Q366486', 'http://www.wikidata.org/entity/Q367589', 'http://www.wikidata.org/entity/Q371025', 'http://www.wikidata.org/entity/Q374693', 'http://www.wikidata.org/entity/Q381821', 'http://www.wikidata.org/entity/Q388215', 'http://www.wikidata.org/entity/Q399561', 'http://www.wikidata.org/entity/Q424369', 'http://www.wikidata.org/entity/Q433015', 'http://www.wikidata.org/entity/Q434706', 'http://www.wikidata.org/entity/Q436825', 'http://www.wikidata.org/entity/Q437852', 'http://www.wikidata.org/entity/Q439729', 'http://www.wikidata.org/entity/Q440333', 'http://www.wikidata.org/entity/Q442086', 'http://www.wikidata.org/entity/Q442354', 'http://www.wikidata.org/entity/Q442471', 'http://www.wikidata.org/entity/Q445392', 'http://www.wikidata.org/entity/Q448803', 'http://www.wikidata.org/entity/Q449206', 'http://www.wikidata.org/entity/Q456921', 'http://www.wikidata.org/entity/Q459712', 'http://www.wikidata.org/entity/Q460151', 'http://www.wikidata.org/entity/Q461610', 'http://www.wikidata.org/entity/Q465843', 'http://www.wikidata.org/entity/Q468807', 'http://www.wikidata.org/entity/Q469415', 'http://www.wikidata.org/entity/Q503529', 'http://www.wikidata.org/entity/Q529753', 'http://www.wikidata.org/entity/Q533169', 'http://www.wikidata.org/entity/Q538375', 'http://www.wikidata.org/entity/Q539470', 'http://www.wikidata.org/entity/Q539587', 'http://www.wikidata.org/entity/Q542045', 'http://www.wikidata.org/entity/Q542590', 'http://www.wikidata.org/entity/Q544795', 'http://www.wikidata.org/entity/Q547218', 'http://www.wikidata.org/entity/Q553626', 'http://www.wikidata.org/entity/Q562174', 'http://www.wikidata.org/entity/Q570173', 'http://www.wikidata.org/entity/Q574991', 'http://www.wikidata.org/entity/Q671976', 'http://www.wikidata.org/entity/Q702111', 'http://www.wikidata.org/entity/Q705472', 'http://www.wikidata.org/entity/Q705498', 'http://www.wikidata.org/entity/Q709371', 'http://www.wikidata.org/entity/Q713486', 'http://www.wikidata.org/entity/Q716051', 'http://www.wikidata.org/entity/Q718256', 'http://www.wikidata.org/entity/Q718542', 'http://www.wikidata.org/entity/Q726198', 'http://www.wikidata.org/entity/Q730622', 'http://www.wikidata.org/entity/Q735400', 'http://www.wikidata.org/entity/Q737493', 'http://www.wikidata.org/entity/Q795522', 'http://www.wikidata.org/entity/Q813365', 'http://www.wikidata.org/entity/Q817877', 'http://www.wikidata.org/entity/Q862373', 'http://www.wikidata.org/entity/Q862661', 'http://www.wikidata.org/entity/Q4858808', 'http://www.wikidata.org/entity/Q4889807', 'http://www.wikidata.org/entity/Q4933458', 'http://www.wikidata.org/entity/Q5006279', 'http://www.wikidata.org/entity/Q5057103', 'http://www.wikidata.org/entity/Q5078438', 'http://www.wikidata.org/entity/Q5080565', 'http://www.wikidata.org/entity/Q5144845', 'http://www.wikidata.org/entity/Q5145551', 'http://www.wikidata.org/entity/Q5182923', 'http://www.wikidata.org/entity/Q5222920', 'http://www.wikidata.org/entity/Q128686', 'http://www.wikidata.org/entity/Q130024', 'http://www.wikidata.org/entity/Q133601', 'http://www.wikidata.org/entity/Q171684', 'http://www.wikidata.org/entity/Q173839', 'http://www.wikidata.org/entity/Q181665', 'http://www.wikidata.org/entity/Q181727', 'http://www.wikidata.org/entity/Q187516', 'http://www.wikidata.org/entity/Q192111', 'http://www.wikidata.org/entity/Q204124', 'http://www.wikidata.org/entity/Q204358', 'http://www.wikidata.org/entity/Q208203', 'http://www.wikidata.org/entity/Q208497', 'http://www.wikidata.org/entity/Q212550', 'http://www.wikidata.org/entity/Q215351', 'http://www.wikidata.org/entity/Q229032', 'http://www.wikidata.org/entity/Q233634', 'http://www.wikidata.org/entity/Q233641', 'http://www.wikidata.org/entity/Q234275', 'http://www.wikidata.org/entity/Q237782', 'http://www.wikidata.org/entity/Q239062', 'http://www.wikidata.org/entity/Q239105', 'http://www.wikidata.org/entity/Q239571', 'http://www.wikidata.org/entity/Q239657', 'http://www.wikidata.org/entity/Q271023', 'http://www.wikidata.org/entity/Q273549', 'http://www.wikidata.org/entity/Q284704', 'http://www.wikidata.org/entity/Q294358', 'http://www.wikidata.org/entity/Q301707', 'http://www.wikidata.org/entity/Q311197', 'http://www.wikidata.org/entity/Q311293', 'http://www.wikidata.org/entity/Q312845', 'http://www.wikidata.org/entity/Q313598', 'http://www.wikidata.org/entity/Q313711', 'http://www.wikidata.org/entity/Q313776', 'http://www.wikidata.org/entity/Q318479', 'http://www.wikidata.org/entity/Q319079', 'http://www.wikidata.org/entity/Q328286', 'http://www.wikidata.org/entity/Q331278', 'http://www.wikidata.org/entity/Q331742', 'http://www.wikidata.org/entity/Q333080', 'http://www.wikidata.org/entity/Q333244', 'http://www.wikidata.org/entity/Q335084', 'http://www.wikidata.org/entity/Q337483', 'http://www.wikidata.org/entity/Q356230', 'http://www.wikidata.org/entity/Q356728', 'http://www.wikidata.org/entity/Q358443', 'http://www.wikidata.org/entity/Q1124', 'http://www.wikidata.org/entity/Q6294', 'http://www.wikidata.org/entity/Q7416', 'http://www.wikidata.org/entity/Q8023', 'http://www.wikidata.org/entity/Q11668', 'http://www.wikidata.org/entity/Q11891', 'http://www.wikidata.org/entity/Q13133', 'http://www.wikidata.org/entity/Q16574', 'http://www.wikidata.org/entity/Q16807', 'http://www.wikidata.org/entity/Q17135', 'http://www.wikidata.org/entity/Q20148', 'http://www.wikidata.org/entity/Q35041', 'http://www.wikidata.org/entity/Q43179', 'http://www.wikidata.org/entity/Q48259', 'http://www.wikidata.org/entity/Q51008', 'http://www.wikidata.org/entity/Q57830', 'http://www.wikidata.org/entity/Q878651', 'http://www.wikidata.org/entity/Q878708', 'http://www.wikidata.org/entity/Q881181', 'http://www.wikidata.org/entity/Q882541', 'http://www.wikidata.org/entity/Q883505', 'http://www.wikidata.org/entity/Q888007', 'http://www.wikidata.org/entity/Q888281', 'http://www.wikidata.org/entity/Q889512', 'http://www.wikidata.org/entity/Q889516', 'http://www.wikidata.org/entity/Q902439', 'http://www.wikidata.org/entity/Q911420', 'http://www.wikidata.org/entity/Q926069', 'http://www.wikidata.org/entity/Q938664', 'http://www.wikidata.org/entity/Q953749', 'http://www.wikidata.org/entity/Q966261', 'http://www.wikidata.org/entity/Q970478', 'http://www.wikidata.org/entity/Q970515', 'http://www.wikidata.org/entity/Q972020', 'http://www.wikidata.org/entity/Q972686', 'http://www.wikidata.org/entity/Q981559', 'http://www.wikidata.org/entity/Q1040943', 'http://www.wikidata.org/entity/Q1052375', 'http://www.wikidata.org/entity/Q1100228', 'http://www.wikidata.org/entity/Q1268342', 'http://www.wikidata.org/entity/Q1293786', 'http://www.wikidata.org/entity/Q1323255', 'http://www.wikidata.org/entity/Q1324820', 'http://www.wikidata.org/entity/Q1334654', 'http://www.wikidata.org/entity/Q1365787', 'http://www.wikidata.org/entity/Q1390488', 'http://www.wikidata.org/entity/Q1395356', 'http://www.wikidata.org/entity/Q1538373', 'http://www.wikidata.org/entity/Q1607403', 'http://www.wikidata.org/entity/Q1621096', 'http://www.wikidata.org/entity/Q1699417', 'http://www.wikidata.org/entity/Q1700472', 'http://www.wikidata.org/entity/Q1700681', 'http://www.wikidata.org/entity/Q1736288', 'http://www.wikidata.org/entity/Q1749174', 'http://www.wikidata.org/entity/Q1820785', 'http://www.wikidata.org/entity/Q1900477', 'http://www.wikidata.org/entity/Q1956266', 'http://www.wikidata.org/entity/Q1970615', 'http://www.wikidata.org/entity/Q2073303', 'http://www.wikidata.org/entity/Q2118116', 'http://www.wikidata.org/entity/Q2149666', 'http://www.wikidata.org/entity/Q2151547', 'http://www.wikidata.org/entity/Q2170824', 'http://www.wikidata.org/entity/Q2176939', 'http://www.wikidata.org/entity/Q2424330', 'http://www.wikidata.org/entity/Q2577463', 'http://www.wikidata.org/entity/Q2638264', 'http://www.wikidata.org/entity/Q2656508', 'http://www.wikidata.org/entity/Q2658030', 'http://www.wikidata.org/entity/Q2983067', 'http://www.wikidata.org/entity/Q3017937', 'http://www.wikidata.org/entity/Q3018947', 'http://www.wikidata.org/entity/Q3054376', 'http://www.wikidata.org/entity/Q3090307', 'http://www.wikidata.org/entity/Q3101366', 'http://www.wikidata.org/entity/Q3701670', 'http://www.wikidata.org/entity/Q4020033', 'http://www.wikidata.org/entity/Q4404612', 'http://www.wikidata.org/entity/Q4469989', 'http://www.wikidata.org/entity/Q4709825', 'http://www.wikidata.org/entity/Q4710109', 'http://www.wikidata.org/entity/Q4710436', 'http://www.wikidata.org/entity/Q4757368', 'http://www.wikidata.org/entity/Q4759057', 'http://www.wikidata.org/entity/Q5232316', 'http://www.wikidata.org/entity/Q5249742', 'http://www.wikidata.org/entity/Q5257570', 'http://www.wikidata.org/entity/Q5262064', 'http://www.wikidata.org/entity/Q5295178', 'http://www.wikidata.org/entity/Q5300765', 'http://www.wikidata.org/entity/Q5344225', 'http://www.wikidata.org/entity/Q5345433', 'http://www.wikidata.org/entity/Q5347788', 'http://www.wikidata.org/entity/Q5368384', 'http://www.wikidata.org/entity/Q5379316', 'http://www.wikidata.org/entity/Q5379334', 'http://www.wikidata.org/entity/Q5385015', 'http://www.wikidata.org/entity/Q5485149', 'http://www.wikidata.org/entity/Q5498050', 'http://www.wikidata.org/entity/Q5537884', 'http://www.wikidata.org/entity/Q5543903', 'http://www.wikidata.org/entity/Q5677616', 'http://www.wikidata.org/entity/Q5769290', 'http://www.wikidata.org/entity/Q5915564', 'http://www.wikidata.org/entity/Q6117393', 'http://www.wikidata.org/entity/Q6130702', 'http://www.wikidata.org/entity/Q6145684', 'http://www.wikidata.org/entity/Q6148673', 'http://www.wikidata.org/entity/Q6230465', 'http://www.wikidata.org/entity/Q6241622', 'http://www.wikidata.org/entity/Q6247048', 'http://www.wikidata.org/entity/Q6250211', 'http://www.wikidata.org/entity/Q6255309', 'http://www.wikidata.org/entity/Q6257110', 'http://www.wikidata.org/entity/Q6261964', 'http://www.wikidata.org/entity/Q6270662', 'http://www.wikidata.org/entity/Q6281736', 'http://www.wikidata.org/entity/Q6374539', 'http://www.wikidata.org/entity/Q6525412', 'http://www.wikidata.org/entity/Q6529495', 'http://www.wikidata.org/entity/Q6530657', 'http://www.wikidata.org/entity/Q6693282', 'http://www.wikidata.org/entity/Q6792967', 'http://www.wikidata.org/entity/Q6847118', 'http://www.wikidata.org/entity/Q6989157', 'http://www.wikidata.org/entity/Q6990642', 'http://www.wikidata.org/entity/Q7021810', 'http://www.wikidata.org/entity/Q7106177', 'http://www.wikidata.org/entity/Q7144034', 'http://www.wikidata.org/entity/Q7150338', 'http://www.wikidata.org/entity/Q7172808', 'http://www.wikidata.org/entity/Q7175404', 'http://www.wikidata.org/entity/Q7203979', 'http://www.wikidata.org/entity/Q7319275', 'http://www.wikidata.org/entity/Q7323278', 'http://www.wikidata.org/entity/Q7325742', 'http://www.wikidata.org/entity/Q7326253', 'http://www.wikidata.org/entity/Q7342295', 'http://www.wikidata.org/entity/Q7348240', 'http://www.wikidata.org/entity/Q7349094', 'http://www.wikidata.org/entity/Q7349266', 'http://www.wikidata.org/entity/Q7372943', 'http://www.wikidata.org/entity/Q7411446', 'http://www.wikidata.org/entity/Q7528953', 'http://www.wikidata.org/entity/Q7595813', 'http://www.wikidata.org/entity/Q7596600', 'http://www.wikidata.org/entity/Q7648475', 'http://www.wikidata.org/entity/Q7682027', 'http://www.wikidata.org/entity/Q7793827', 'http://www.wikidata.org/entity/Q7818348', 'http://www.wikidata.org/entity/Q8003434', 'http://www.wikidata.org/entity/Q8013095', 'http://www.wikidata.org/entity/Q8013121', 'http://www.wikidata.org/entity/Q8026578', 'http://www.wikidata.org/entity/Q11267083', 'http://www.wikidata.org/entity/Q12301564', 'http://www.wikidata.org/entity/Q13562381', 'http://www.wikidata.org/entity/Q14920500', 'http://www.wikidata.org/entity/Q15504466', 'http://www.wikidata.org/entity/Q15527411', 'http://www.wikidata.org/entity/Q15993128', 'http://www.wikidata.org/entity/Q15997889', 'http://www.wikidata.org/entity/Q15998317', 'http://www.wikidata.org/entity/Q15998798', 'http://www.wikidata.org/entity/Q16022960', 'http://www.wikidata.org/entity/Q16029328', 'http://www.wikidata.org/entity/Q16030509', 'http://www.wikidata.org/entity/Q16030581', 'http://www.wikidata.org/entity/Q16031614', 'http://www.wikidata.org/entity/Q16037617', 'http://www.wikidata.org/entity/Q16043678', 'http://www.wikidata.org/entity/Q16059771', 'http://www.wikidata.org/entity/Q16062710', 'http://www.wikidata.org/entity/Q16063116', 'http://www.wikidata.org/entity/Q16065888', 'http://www.wikidata.org/entity/Q16065980', 'http://www.wikidata.org/entity/Q16091992', 'http://www.wikidata.org/entity/Q16151885', 'http://www.wikidata.org/entity/Q16198619', 'http://www.wikidata.org/entity/Q16200562', 'http://www.wikidata.org/entity/Q16200583', 'http://www.wikidata.org/entity/Q16453321', 'http://www.wikidata.org/entity/Q16859599', 'http://www.wikidata.org/entity/Q16901188', 'http://www.wikidata.org/entity/Q17198285', 'http://www.wikidata.org/entity/Q17402717', 'http://www.wikidata.org/entity/Q18153807', 'http://www.wikidata.org/entity/Q18278752', 'http://www.wikidata.org/entity/Q18683976', 'http://www.wikidata.org/entity/Q18685503', 'http://www.wikidata.org/entity/Q20657039', 'http://www.wikidata.org/entity/Q20710187', 'http://www.wikidata.org/entity/Q20746822', 'http://www.wikidata.org/entity/Q20810448', 'http://www.wikidata.org/entity/Q20810701', 'http://www.wikidata.org/entity/Q20810956', 'http://www.wikidata.org/entity/Q20983390', 'http://www.wikidata.org/entity/Q21005486', 'http://www.wikidata.org/entity/Q21069658', 'http://www.wikidata.org/entity/Q21069687', 'http://www.wikidata.org/entity/Q21069918', 'http://www.wikidata.org/entity/Q21079146', 'http://www.wikidata.org/entity/Q21664585', 'http://www.wikidata.org/entity/Q23580470', 'http://www.wikidata.org/entity/Q24579124', 'http://www.wikidata.org/entity/Q24642120', 'http://www.wikidata.org/entity/Q24707704', 'http://www.wikidata.org/entity/Q26724453', 'http://www.wikidata.org/entity/Q28151833', 'http://www.wikidata.org/entity/Q28677271', 'http://www.wikidata.org/entity/Q28842884', 'http://www.wikidata.org/entity/Q29414999', 'http://www.wikidata.org/entity/Q30607647', 'http://www.wikidata.org/entity/Q41806851', 'http://www.wikidata.org/entity/Q47522684', 'http://www.wikidata.org/entity/Q50059293', 'http://www.wikidata.org/entity/Q51880676', 'http://www.wikidata.org/entity/Q61021732', 'http://www.wikidata.org/entity/Q61680053', 'http://www.wikidata.org/entity/Q76090969', 'http://www.wikidata.org/entity/Q83965615', 'http://www.wikidata.org/entity/Q84042853', 'http://www.wikidata.org/entity/Q84044293', 'http://www.wikidata.org/entity/Q84044419', 'http://www.wikidata.org/entity/Q84561719', 'http://www.wikidata.org/entity/Q90382391', 'http://www.wikidata.org/entity/Q96879587', 'http://www.wikidata.org/entity/Q96884017', 'http://www.wikidata.org/entity/Q96943363', 'http://www.wikidata.org/entity/Q96943440', 'http://www.wikidata.org/entity/Q96989295', 'http://www.wikidata.org/entity/Q104708409', 'http://www.wikidata.org/entity/Q105812893', 'http://www.wikidata.org/entity/Q105816448', 'http://www.wikidata.org/entity/Q105819311', 'http://www.wikidata.org/entity/Q105819976', 'http://www.wikidata.org/entity/Q105820266', 'http://www.wikidata.org/entity/Q107356321', 'http://www.wikidata.org/entity/Q108729903', 'http://www.wikidata.org/entity/Q108870399', 'http://www.wikidata.org/entity/Q111131941', 'http://www.wikidata.org/entity/Q111156646', 'http://www.wikidata.org/entity/Q111176164', 'http://www.wikidata.org/entity/Q111177580', 'http://www.wikidata.org/entity/Q111285444', 'http://www.wikidata.org/entity/Q113534302', 'http://www.wikidata.org/entity/Q124313438', 'http://www.wikidata.org/entity/Q125542335', 'http://www.wikidata.org/entity/Q126957338']</t>
+          <t>['http://www.wikidata.org/entity/Q4858808', 'http://www.wikidata.org/entity/Q4889807', 'http://www.wikidata.org/entity/Q4933458', 'http://www.wikidata.org/entity/Q5006279', 'http://www.wikidata.org/entity/Q5057103', 'http://www.wikidata.org/entity/Q5078438', 'http://www.wikidata.org/entity/Q5080565', 'http://www.wikidata.org/entity/Q5144845', 'http://www.wikidata.org/entity/Q5145551', 'http://www.wikidata.org/entity/Q5182923', 'http://www.wikidata.org/entity/Q5222920', 'http://www.wikidata.org/entity/Q128686', 'http://www.wikidata.org/entity/Q130024', 'http://www.wikidata.org/entity/Q133601', 'http://www.wikidata.org/entity/Q171684', 'http://www.wikidata.org/entity/Q173839', 'http://www.wikidata.org/entity/Q181665', 'http://www.wikidata.org/entity/Q181727', 'http://www.wikidata.org/entity/Q187516', 'http://www.wikidata.org/entity/Q192111', 'http://www.wikidata.org/entity/Q204124', 'http://www.wikidata.org/entity/Q204358', 'http://www.wikidata.org/entity/Q208203', 'http://www.wikidata.org/entity/Q208497', 'http://www.wikidata.org/entity/Q212550', 'http://www.wikidata.org/entity/Q215351', 'http://www.wikidata.org/entity/Q229032', 'http://www.wikidata.org/entity/Q233634', 'http://www.wikidata.org/entity/Q233641', 'http://www.wikidata.org/entity/Q234275', 'http://www.wikidata.org/entity/Q237782', 'http://www.wikidata.org/entity/Q239062', 'http://www.wikidata.org/entity/Q239105', 'http://www.wikidata.org/entity/Q239571', 'http://www.wikidata.org/entity/Q239657', 'http://www.wikidata.org/entity/Q271023', 'http://www.wikidata.org/entity/Q273549', 'http://www.wikidata.org/entity/Q284704', 'http://www.wikidata.org/entity/Q294358', 'http://www.wikidata.org/entity/Q301707', 'http://www.wikidata.org/entity/Q311197', 'http://www.wikidata.org/entity/Q311293', 'http://www.wikidata.org/entity/Q312845', 'http://www.wikidata.org/entity/Q313598', 'http://www.wikidata.org/entity/Q313711', 'http://www.wikidata.org/entity/Q313776', 'http://www.wikidata.org/entity/Q318479', 'http://www.wikidata.org/entity/Q319079', 'http://www.wikidata.org/entity/Q328286', 'http://www.wikidata.org/entity/Q331278', 'http://www.wikidata.org/entity/Q331742', 'http://www.wikidata.org/entity/Q333080', 'http://www.wikidata.org/entity/Q333244', 'http://www.wikidata.org/entity/Q335084', 'http://www.wikidata.org/entity/Q337483', 'http://www.wikidata.org/entity/Q356230', 'http://www.wikidata.org/entity/Q356728', 'http://www.wikidata.org/entity/Q358443', 'http://www.wikidata.org/entity/Q1124', 'http://www.wikidata.org/entity/Q6294', 'http://www.wikidata.org/entity/Q7416', 'http://www.wikidata.org/entity/Q8023', 'http://www.wikidata.org/entity/Q11668', 'http://www.wikidata.org/entity/Q11891', 'http://www.wikidata.org/entity/Q13133', 'http://www.wikidata.org/entity/Q16574', 'http://www.wikidata.org/entity/Q16807', 'http://www.wikidata.org/entity/Q17135', 'http://www.wikidata.org/entity/Q20148', 'http://www.wikidata.org/entity/Q35041', 'http://www.wikidata.org/entity/Q43179', 'http://www.wikidata.org/entity/Q48259', 'http://www.wikidata.org/entity/Q51008', 'http://www.wikidata.org/entity/Q57830', 'http://www.wikidata.org/entity/Q363079', 'http://www.wikidata.org/entity/Q363817', 'http://www.wikidata.org/entity/Q363972', 'http://www.wikidata.org/entity/Q365572', 'http://www.wikidata.org/entity/Q365827', 'http://www.wikidata.org/entity/Q366478', 'http://www.wikidata.org/entity/Q366480', 'http://www.wikidata.org/entity/Q366486', 'http://www.wikidata.org/entity/Q367589', 'http://www.wikidata.org/entity/Q371025', 'http://www.wikidata.org/entity/Q374693', 'http://www.wikidata.org/entity/Q381821', 'http://www.wikidata.org/entity/Q388215', 'http://www.wikidata.org/entity/Q399561', 'http://www.wikidata.org/entity/Q424369', 'http://www.wikidata.org/entity/Q433015', 'http://www.wikidata.org/entity/Q434706', 'http://www.wikidata.org/entity/Q436825', 'http://www.wikidata.org/entity/Q437852', 'http://www.wikidata.org/entity/Q439729', 'http://www.wikidata.org/entity/Q440333', 'http://www.wikidata.org/entity/Q442086', 'http://www.wikidata.org/entity/Q442354', 'http://www.wikidata.org/entity/Q442471', 'http://www.wikidata.org/entity/Q445392', 'http://www.wikidata.org/entity/Q448803', 'http://www.wikidata.org/entity/Q449206', 'http://www.wikidata.org/entity/Q456921', 'http://www.wikidata.org/entity/Q459712', 'http://www.wikidata.org/entity/Q460151', 'http://www.wikidata.org/entity/Q461610', 'http://www.wikidata.org/entity/Q465843', 'http://www.wikidata.org/entity/Q468807', 'http://www.wikidata.org/entity/Q469415', 'http://www.wikidata.org/entity/Q503529', 'http://www.wikidata.org/entity/Q529753', 'http://www.wikidata.org/entity/Q533169', 'http://www.wikidata.org/entity/Q538375', 'http://www.wikidata.org/entity/Q539470', 'http://www.wikidata.org/entity/Q539587', 'http://www.wikidata.org/entity/Q542045', 'http://www.wikidata.org/entity/Q542590', 'http://www.wikidata.org/entity/Q544795', 'http://www.wikidata.org/entity/Q547218', 'http://www.wikidata.org/entity/Q553626', 'http://www.wikidata.org/entity/Q562174', 'http://www.wikidata.org/entity/Q570173', 'http://www.wikidata.org/entity/Q574991', 'http://www.wikidata.org/entity/Q671976', 'http://www.wikidata.org/entity/Q702111', 'http://www.wikidata.org/entity/Q705472', 'http://www.wikidata.org/entity/Q705498', 'http://www.wikidata.org/entity/Q709371', 'http://www.wikidata.org/entity/Q713486', 'http://www.wikidata.org/entity/Q716051', 'http://www.wikidata.org/entity/Q718256', 'http://www.wikidata.org/entity/Q718542', 'http://www.wikidata.org/entity/Q726198', 'http://www.wikidata.org/entity/Q730622', 'http://www.wikidata.org/entity/Q735400', 'http://www.wikidata.org/entity/Q737493', 'http://www.wikidata.org/entity/Q795522', 'http://www.wikidata.org/entity/Q813365', 'http://www.wikidata.org/entity/Q817877', 'http://www.wikidata.org/entity/Q862373', 'http://www.wikidata.org/entity/Q862661', 'http://www.wikidata.org/entity/Q2073303', 'http://www.wikidata.org/entity/Q2118116', 'http://www.wikidata.org/entity/Q2149666', 'http://www.wikidata.org/entity/Q2151547', 'http://www.wikidata.org/entity/Q2170824', 'http://www.wikidata.org/entity/Q2176939', 'http://www.wikidata.org/entity/Q2424330', 'http://www.wikidata.org/entity/Q2577463', 'http://www.wikidata.org/entity/Q2638264', 'http://www.wikidata.org/entity/Q2656508', 'http://www.wikidata.org/entity/Q2658030', 'http://www.wikidata.org/entity/Q2983067', 'http://www.wikidata.org/entity/Q3017937', 'http://www.wikidata.org/entity/Q3018947', 'http://www.wikidata.org/entity/Q3054376', 'http://www.wikidata.org/entity/Q3090307', 'http://www.wikidata.org/entity/Q3101366', 'http://www.wikidata.org/entity/Q3701670', 'http://www.wikidata.org/entity/Q4020033', 'http://www.wikidata.org/entity/Q4404612', 'http://www.wikidata.org/entity/Q4469989', 'http://www.wikidata.org/entity/Q4709825', 'http://www.wikidata.org/entity/Q4710109', 'http://www.wikidata.org/entity/Q4710436', 'http://www.wikidata.org/entity/Q4757368', 'http://www.wikidata.org/entity/Q4759057', 'http://www.wikidata.org/entity/Q878651', 'http://www.wikidata.org/entity/Q878708', 'http://www.wikidata.org/entity/Q881181', 'http://www.wikidata.org/entity/Q882541', 'http://www.wikidata.org/entity/Q883505', 'http://www.wikidata.org/entity/Q888007', 'http://www.wikidata.org/entity/Q888281', 'http://www.wikidata.org/entity/Q889512', 'http://www.wikidata.org/entity/Q889516', 'http://www.wikidata.org/entity/Q902439', 'http://www.wikidata.org/entity/Q911420', 'http://www.wikidata.org/entity/Q926069', 'http://www.wikidata.org/entity/Q938664', 'http://www.wikidata.org/entity/Q953749', 'http://www.wikidata.org/entity/Q966261', 'http://www.wikidata.org/entity/Q970478', 'http://www.wikidata.org/entity/Q970515', 'http://www.wikidata.org/entity/Q972020', 'http://www.wikidata.org/entity/Q972686', 'http://www.wikidata.org/entity/Q981559', 'http://www.wikidata.org/entity/Q1040943', 'http://www.wikidata.org/entity/Q1052375', 'http://www.wikidata.org/entity/Q1100228', 'http://www.wikidata.org/entity/Q1268342', 'http://www.wikidata.org/entity/Q1293786', 'http://www.wikidata.org/entity/Q1323255', 'http://www.wikidata.org/entity/Q1324820', 'http://www.wikidata.org/entity/Q1334654', 'http://www.wikidata.org/entity/Q1365787', 'http://www.wikidata.org/entity/Q1390488', 'http://www.wikidata.org/entity/Q1395356', 'http://www.wikidata.org/entity/Q1538373', 'http://www.wikidata.org/entity/Q1607403', 'http://www.wikidata.org/entity/Q1621096', 'http://www.wikidata.org/entity/Q1699417', 'http://www.wikidata.org/entity/Q1700472', 'http://www.wikidata.org/entity/Q1700681', 'http://www.wikidata.org/entity/Q1736288', 'http://www.wikidata.org/entity/Q1749174', 'http://www.wikidata.org/entity/Q1820785', 'http://www.wikidata.org/entity/Q1900477', 'http://www.wikidata.org/entity/Q1956266', 'http://www.wikidata.org/entity/Q1970615', 'http://www.wikidata.org/entity/Q20746822', 'http://www.wikidata.org/entity/Q20810448', 'http://www.wikidata.org/entity/Q20810701', 'http://www.wikidata.org/entity/Q20810956', 'http://www.wikidata.org/entity/Q20983390', 'http://www.wikidata.org/entity/Q21005486', 'http://www.wikidata.org/entity/Q21069658', 'http://www.wikidata.org/entity/Q21069687', 'http://www.wikidata.org/entity/Q21069918', 'http://www.wikidata.org/entity/Q21079146', 'http://www.wikidata.org/entity/Q21664585', 'http://www.wikidata.org/entity/Q23580470', 'http://www.wikidata.org/entity/Q5232316', 'http://www.wikidata.org/entity/Q5249742', 'http://www.wikidata.org/entity/Q5257570', 'http://www.wikidata.org/entity/Q5262064', 'http://www.wikidata.org/entity/Q5295178', 'http://www.wikidata.org/entity/Q5300765', 'http://www.wikidata.org/entity/Q5344225', 'http://www.wikidata.org/entity/Q5345433', 'http://www.wikidata.org/entity/Q5347788', 'http://www.wikidata.org/entity/Q5368384', 'http://www.wikidata.org/entity/Q5379316', 'http://www.wikidata.org/entity/Q5379334', 'http://www.wikidata.org/entity/Q5385015', 'http://www.wikidata.org/entity/Q5485149', 'http://www.wikidata.org/entity/Q5498050', 'http://www.wikidata.org/entity/Q5537884', 'http://www.wikidata.org/entity/Q5543903', 'http://www.wikidata.org/entity/Q5677616', 'http://www.wikidata.org/entity/Q5769290', 'http://www.wikidata.org/entity/Q5915564', 'http://www.wikidata.org/entity/Q6117393', 'http://www.wikidata.org/entity/Q6130702', 'http://www.wikidata.org/entity/Q6145684', 'http://www.wikidata.org/entity/Q6148673', 'http://www.wikidata.org/entity/Q6230465', 'http://www.wikidata.org/entity/Q6241622', 'http://www.wikidata.org/entity/Q6247048', 'http://www.wikidata.org/entity/Q6250211', 'http://www.wikidata.org/entity/Q6255309', 'http://www.wikidata.org/entity/Q6257110', 'http://www.wikidata.org/entity/Q6261964', 'http://www.wikidata.org/entity/Q6270662', 'http://www.wikidata.org/entity/Q6281736', 'http://www.wikidata.org/entity/Q6374539', 'http://www.wikidata.org/entity/Q6525412', 'http://www.wikidata.org/entity/Q6529495', 'http://www.wikidata.org/entity/Q6530657', 'http://www.wikidata.org/entity/Q6693282', 'http://www.wikidata.org/entity/Q6792967', 'http://www.wikidata.org/entity/Q6847118', 'http://www.wikidata.org/entity/Q6989157', 'http://www.wikidata.org/entity/Q6990642', 'http://www.wikidata.org/entity/Q7021810', 'http://www.wikidata.org/entity/Q7106177', 'http://www.wikidata.org/entity/Q7144034', 'http://www.wikidata.org/entity/Q7150338', 'http://www.wikidata.org/entity/Q7172808', 'http://www.wikidata.org/entity/Q7175404', 'http://www.wikidata.org/entity/Q7203979', 'http://www.wikidata.org/entity/Q7319275', 'http://www.wikidata.org/entity/Q7323278', 'http://www.wikidata.org/entity/Q7325742', 'http://www.wikidata.org/entity/Q7326253', 'http://www.wikidata.org/entity/Q7342295', 'http://www.wikidata.org/entity/Q7348240', 'http://www.wikidata.org/entity/Q7349094', 'http://www.wikidata.org/entity/Q7349266', 'http://www.wikidata.org/entity/Q7372943', 'http://www.wikidata.org/entity/Q7411446', 'http://www.wikidata.org/entity/Q7528953', 'http://www.wikidata.org/entity/Q7595813', 'http://www.wikidata.org/entity/Q7596600', 'http://www.wikidata.org/entity/Q7648475', 'http://www.wikidata.org/entity/Q7682027', 'http://www.wikidata.org/entity/Q7793827', 'http://www.wikidata.org/entity/Q7818348', 'http://www.wikidata.org/entity/Q8003434', 'http://www.wikidata.org/entity/Q8013095', 'http://www.wikidata.org/entity/Q8013121', 'http://www.wikidata.org/entity/Q8026578', 'http://www.wikidata.org/entity/Q11267083', 'http://www.wikidata.org/entity/Q12301564', 'http://www.wikidata.org/entity/Q13562381', 'http://www.wikidata.org/entity/Q14920500', 'http://www.wikidata.org/entity/Q15504466', 'http://www.wikidata.org/entity/Q15527411', 'http://www.wikidata.org/entity/Q15993128', 'http://www.wikidata.org/entity/Q15997889', 'http://www.wikidata.org/entity/Q15998317', 'http://www.wikidata.org/entity/Q15998798', 'http://www.wikidata.org/entity/Q16022960', 'http://www.wikidata.org/entity/Q16029328', 'http://www.wikidata.org/entity/Q16030509', 'http://www.wikidata.org/entity/Q16030581', 'http://www.wikidata.org/entity/Q16031614', 'http://www.wikidata.org/entity/Q16037617', 'http://www.wikidata.org/entity/Q16043678', 'http://www.wikidata.org/entity/Q16059771', 'http://www.wikidata.org/entity/Q16062710', 'http://www.wikidata.org/entity/Q16063116', 'http://www.wikidata.org/entity/Q16065888', 'http://www.wikidata.org/entity/Q16065980', 'http://www.wikidata.org/entity/Q16091992', 'http://www.wikidata.org/entity/Q16151885', 'http://www.wikidata.org/entity/Q16198619', 'http://www.wikidata.org/entity/Q16200562', 'http://www.wikidata.org/entity/Q16200583', 'http://www.wikidata.org/entity/Q16453321', 'http://www.wikidata.org/entity/Q16859599', 'http://www.wikidata.org/entity/Q16901188', 'http://www.wikidata.org/entity/Q17198285', 'http://www.wikidata.org/entity/Q17402717', 'http://www.wikidata.org/entity/Q18153807', 'http://www.wikidata.org/entity/Q18278752', 'http://www.wikidata.org/entity/Q18683976', 'http://www.wikidata.org/entity/Q18685503', 'http://www.wikidata.org/entity/Q20657039', 'http://www.wikidata.org/entity/Q20710187', 'http://www.wikidata.org/entity/Q24579124', 'http://www.wikidata.org/entity/Q24642120', 'http://www.wikidata.org/entity/Q24707704', 'http://www.wikidata.org/entity/Q26724453', 'http://www.wikidata.org/entity/Q28151833', 'http://www.wikidata.org/entity/Q28677271', 'http://www.wikidata.org/entity/Q28842884', 'http://www.wikidata.org/entity/Q29414999', 'http://www.wikidata.org/entity/Q30607647', 'http://www.wikidata.org/entity/Q41806851', 'http://www.wikidata.org/entity/Q47522684', 'http://www.wikidata.org/entity/Q50059293', 'http://www.wikidata.org/entity/Q51880676', 'http://www.wikidata.org/entity/Q61021732', 'http://www.wikidata.org/entity/Q61680053', 'http://www.wikidata.org/entity/Q76090969', 'http://www.wikidata.org/entity/Q83965615', 'http://www.wikidata.org/entity/Q84042853', 'http://www.wikidata.org/entity/Q84044293', 'http://www.wikidata.org/entity/Q84044419', 'http://www.wikidata.org/entity/Q84561719', 'http://www.wikidata.org/entity/Q90382391', 'http://www.wikidata.org/entity/Q96879587', 'http://www.wikidata.org/entity/Q96884017', 'http://www.wikidata.org/entity/Q96943363', 'http://www.wikidata.org/entity/Q96943440', 'http://www.wikidata.org/entity/Q96989295', 'http://www.wikidata.org/entity/Q104708409', 'http://www.wikidata.org/entity/Q105812893', 'http://www.wikidata.org/entity/Q105816448', 'http://www.wikidata.org/entity/Q105819311', 'http://www.wikidata.org/entity/Q105819976', 'http://www.wikidata.org/entity/Q105820266', 'http://www.wikidata.org/entity/Q107356321', 'http://www.wikidata.org/entity/Q108729903', 'http://www.wikidata.org/entity/Q108870399', 'http://www.wikidata.org/entity/Q111131941', 'http://www.wikidata.org/entity/Q111156646', 'http://www.wikidata.org/entity/Q111176164', 'http://www.wikidata.org/entity/Q111177580', 'http://www.wikidata.org/entity/Q111285444', 'http://www.wikidata.org/entity/Q113534302', 'http://www.wikidata.org/entity/Q124313438', 'http://www.wikidata.org/entity/Q125542335', 'http://www.wikidata.org/entity/Q126957338', 'http://www.wikidata.org/entity/Q132116919']</t>
         </is>
       </c>
     </row>
@@ -3136,7 +3136,7 @@
       </c>
       <c r="D123" t="inlineStr">
         <is>
-          <t>['http://www.wikidata.org/entity/Q7207956', 'http://www.wikidata.org/entity/Q7853317', 'http://www.wikidata.org/entity/Q613428', 'http://www.wikidata.org/entity/Q2011701', 'http://www.wikidata.org/entity/Q3508168']</t>
+          <t>['http://www.wikidata.org/entity/Q613428', 'http://www.wikidata.org/entity/Q2011701', 'http://www.wikidata.org/entity/Q3508168', 'http://www.wikidata.org/entity/Q7207956', 'http://www.wikidata.org/entity/Q7853317']</t>
         </is>
       </c>
     </row>
@@ -3202,7 +3202,7 @@
       </c>
       <c r="D126" t="inlineStr">
         <is>
-          <t>['http://www.wikidata.org/entity/Q372749', 'http://www.wikidata.org/entity/Q1065590', 'http://www.wikidata.org/entity/Q1685756', 'http://www.wikidata.org/entity/Q1686437', 'http://www.wikidata.org/entity/Q1907692', 'http://www.wikidata.org/entity/Q1927207', 'http://www.wikidata.org/entity/Q1927514', 'http://www.wikidata.org/entity/Q3640619', 'http://www.wikidata.org/entity/Q3808641', 'http://www.wikidata.org/entity/Q3903429', 'http://www.wikidata.org/entity/Q4320324', 'http://www.wikidata.org/entity/Q4576036', 'http://www.wikidata.org/entity/Q4831692', 'http://www.wikidata.org/entity/Q4965405', 'http://www.wikidata.org/entity/Q5080928', 'http://www.wikidata.org/entity/Q5082378', 'http://www.wikidata.org/entity/Q5171387', 'http://www.wikidata.org/entity/Q5218912', 'http://www.wikidata.org/entity/Q5258750', 'http://www.wikidata.org/entity/Q5342530', 'http://www.wikidata.org/entity/Q5369048', 'http://www.wikidata.org/entity/Q5387450', 'http://www.wikidata.org/entity/Q5981460', 'http://www.wikidata.org/entity/Q6185765', 'http://www.wikidata.org/entity/Q6185783', 'http://www.wikidata.org/entity/Q6199667', 'http://www.wikidata.org/entity/Q6209096', 'http://www.wikidata.org/entity/Q6228011', 'http://www.wikidata.org/entity/Q6273795', 'http://www.wikidata.org/entity/Q6284402', 'http://www.wikidata.org/entity/Q6437934', 'http://www.wikidata.org/entity/Q6554673', 'http://www.wikidata.org/entity/Q6668992', 'http://www.wikidata.org/entity/Q6764669', 'http://www.wikidata.org/entity/Q6775566', 'http://www.wikidata.org/entity/Q6776550', 'http://www.wikidata.org/entity/Q7197493', 'http://www.wikidata.org/entity/Q7279212', 'http://www.wikidata.org/entity/Q7308644', 'http://www.wikidata.org/entity/Q7406948', 'http://www.wikidata.org/entity/Q8742822', 'http://www.wikidata.org/entity/Q16146513', 'http://www.wikidata.org/entity/Q16163013', 'http://www.wikidata.org/entity/Q16214810', 'http://www.wikidata.org/entity/Q16977455', 'http://www.wikidata.org/entity/Q16977456', 'http://www.wikidata.org/entity/Q17284905', 'http://www.wikidata.org/entity/Q19560231', 'http://www.wikidata.org/entity/Q19956337', 'http://www.wikidata.org/entity/Q19956650', 'http://www.wikidata.org/entity/Q20641558', 'http://www.wikidata.org/entity/Q20641651', 'http://www.wikidata.org/entity/Q47501255', 'http://www.wikidata.org/entity/Q54667230', 'http://www.wikidata.org/entity/Q56600130', 'http://www.wikidata.org/entity/Q302914', 'http://www.wikidata.org/entity/Q446027', 'http://www.wikidata.org/entity/Q680512', 'http://www.wikidata.org/entity/Q1096922', 'http://www.wikidata.org/entity/Q1356211', 'http://www.wikidata.org/entity/Q2146518', 'http://www.wikidata.org/entity/Q5075274', 'http://www.wikidata.org/entity/Q5257150', 'http://www.wikidata.org/entity/Q7297466', 'http://www.wikidata.org/entity/Q8854881', 'http://www.wikidata.org/entity/Q18620693', 'http://www.wikidata.org/entity/Q18811153', 'http://www.wikidata.org/entity/Q3438358', 'http://www.wikidata.org/entity/Q5318734', 'http://www.wikidata.org/entity/Q5982979', 'http://www.wikidata.org/entity/Q7441461', 'http://www.wikidata.org/entity/Q7931678', 'http://www.wikidata.org/entity/Q10558160', 'http://www.wikidata.org/entity/Q15966855', 'http://www.wikidata.org/entity/Q16977559', 'http://www.wikidata.org/entity/Q19872307', 'http://www.wikidata.org/entity/Q24266711', 'http://www.wikidata.org/entity/Q393288', 'http://www.wikidata.org/entity/Q736771', 'http://www.wikidata.org/entity/Q745555', 'http://www.wikidata.org/entity/Q913048', 'http://www.wikidata.org/entity/Q2336395', 'http://www.wikidata.org/entity/Q2600084', 'http://www.wikidata.org/entity/Q57262270', 'http://www.wikidata.org/entity/Q62512800', 'http://www.wikidata.org/entity/Q66827884', 'http://www.wikidata.org/entity/Q66841118', 'http://www.wikidata.org/entity/Q66939442', 'http://www.wikidata.org/entity/Q71035154', 'http://www.wikidata.org/entity/Q75135779', 'http://www.wikidata.org/entity/Q93318466', 'http://www.wikidata.org/entity/Q93318464', 'http://www.wikidata.org/entity/Q98785910', 'http://www.wikidata.org/entity/Q98852975', 'http://www.wikidata.org/entity/Q98930910', 'http://www.wikidata.org/entity/Q98930945', 'http://www.wikidata.org/entity/Q100151816', 'http://www.wikidata.org/entity/Q101490959', 'http://www.wikidata.org/entity/Q101492327', 'http://www.wikidata.org/entity/Q106228741', 'http://www.wikidata.org/entity/Q617595', 'http://www.wikidata.org/entity/Q762057', 'http://www.wikidata.org/entity/Q951577', 'http://www.wikidata.org/entity/Q983145', 'http://www.wikidata.org/entity/Q1453597', 'http://www.wikidata.org/entity/Q3788418', 'http://www.wikidata.org/entity/Q4168933', 'http://www.wikidata.org/entity/Q4775558', 'http://www.wikidata.org/entity/Q5341660', 'http://www.wikidata.org/entity/Q7087842', 'http://www.wikidata.org/entity/Q7608617', 'http://www.wikidata.org/entity/Q19643722', 'http://www.wikidata.org/entity/Q55956335', 'http://www.wikidata.org/entity/Q79981875', 'http://www.wikidata.org/entity/Q124285622', 'http://www.wikidata.org/entity/Q125397277', 'http://www.wikidata.org/entity/Q718040', 'http://www.wikidata.org/entity/Q968613', 'http://www.wikidata.org/entity/Q1173914', 'http://www.wikidata.org/entity/Q1655475', 'http://www.wikidata.org/entity/Q1699362', 'http://www.wikidata.org/entity/Q1740253', 'http://www.wikidata.org/entity/Q2161068', 'http://www.wikidata.org/entity/Q2178054', 'http://www.wikidata.org/entity/Q2277399', 'http://www.wikidata.org/entity/Q2350107', 'http://www.wikidata.org/entity/Q7463323', 'http://www.wikidata.org/entity/Q16598377', 'http://www.wikidata.org/entity/Q17057003', 'http://www.wikidata.org/entity/Q17284928', 'http://www.wikidata.org/entity/Q17306893', 'http://www.wikidata.org/entity/Q20986521', 'http://www.wikidata.org/entity/Q51090087', 'http://www.wikidata.org/entity/Q93318463', 'http://www.wikidata.org/entity/Q129674231', 'http://www.wikidata.org/entity/Q504142', 'http://www.wikidata.org/entity/Q949755', 'http://www.wikidata.org/entity/Q952394', 'http://www.wikidata.org/entity/Q983148', 'http://www.wikidata.org/entity/Q16944482', 'http://www.wikidata.org/entity/Q16977477', 'http://www.wikidata.org/entity/Q17279925', 'http://www.wikidata.org/entity/Q17280065', 'http://www.wikidata.org/entity/Q17280963', 'http://www.wikidata.org/entity/Q17327586', 'http://www.wikidata.org/entity/Q17352188', 'http://www.wikidata.org/entity/Q18412697', 'http://www.wikidata.org/entity/Q29077561', 'http://www.wikidata.org/entity/Q304222', 'http://www.wikidata.org/entity/Q446040', 'http://www.wikidata.org/entity/Q522722', 'http://www.wikidata.org/entity/Q768060', 'http://www.wikidata.org/entity/Q887449', 'http://www.wikidata.org/entity/Q1042258', 'http://www.wikidata.org/entity/Q1371542', 'http://www.wikidata.org/entity/Q1648234', 'http://www.wikidata.org/entity/Q1703195', 'http://www.wikidata.org/entity/Q2018463', 'http://www.wikidata.org/entity/Q2178030', 'http://www.wikidata.org/entity/Q2641446', 'http://www.wikidata.org/entity/Q3805894', 'http://www.wikidata.org/entity/Q3984246', 'http://www.wikidata.org/entity/Q4281245', 'http://www.wikidata.org/entity/Q5522971', 'http://www.wikidata.org/entity/Q5718354', 'http://www.wikidata.org/entity/Q7428345', 'http://www.wikidata.org/entity/Q7611949', 'http://www.wikidata.org/entity/Q17144475', 'http://www.wikidata.org/entity/Q19956753', 'http://www.wikidata.org/entity/Q28145349', 'http://www.wikidata.org/entity/Q28145357', 'http://www.wikidata.org/entity/Q29161403', 'http://www.wikidata.org/entity/Q43252374', 'http://www.wikidata.org/entity/Q55183403', 'http://www.wikidata.org/entity/Q92303735', 'http://www.wikidata.org/entity/Q2134271', 'http://www.wikidata.org/entity/Q8739830', 'http://www.wikidata.org/entity/Q17352178', 'http://www.wikidata.org/entity/Q66938881', 'http://www.wikidata.org/entity/Q125118333', 'http://www.wikidata.org/entity/Q179952', 'http://www.wikidata.org/entity/Q373986', 'http://www.wikidata.org/entity/Q444083', 'http://www.wikidata.org/entity/Q446060', 'http://www.wikidata.org/entity/Q587134', 'http://www.wikidata.org/entity/Q633332', 'http://www.wikidata.org/entity/Q785842', 'http://www.wikidata.org/entity/Q1507832', 'http://www.wikidata.org/entity/Q2601973', 'http://www.wikidata.org/entity/Q6280016', 'http://www.wikidata.org/entity/Q6932071', 'http://www.wikidata.org/entity/Q7463162', 'http://www.wikidata.org/entity/Q7463312', 'http://www.wikidata.org/entity/Q7519908', 'http://www.wikidata.org/entity/Q10474461', 'http://www.wikidata.org/entity/Q10509157', 'http://www.wikidata.org/entity/Q17284926', 'http://www.wikidata.org/entity/Q17298627', 'http://www.wikidata.org/entity/Q17303639', 'http://www.wikidata.org/entity/Q17327760', 'http://www.wikidata.org/entity/Q18515962', 'http://www.wikidata.org/entity/Q18589449', 'http://www.wikidata.org/entity/Q19643731', 'http://www.wikidata.org/entity/Q19643733', 'http://www.wikidata.org/entity/Q24450398', 'http://www.wikidata.org/entity/Q28145338', 'http://www.wikidata.org/entity/Q30532844', 'http://www.wikidata.org/entity/Q51090088', 'http://www.wikidata.org/entity/Q61787980', 'http://www.wikidata.org/entity/Q75635489', 'http://www.wikidata.org/entity/Q94606737', 'http://www.wikidata.org/entity/Q105118495', 'http://www.wikidata.org/entity/Q107128661']</t>
+          <t>['http://www.wikidata.org/entity/Q372749', 'http://www.wikidata.org/entity/Q1065590', 'http://www.wikidata.org/entity/Q1685756', 'http://www.wikidata.org/entity/Q1686437', 'http://www.wikidata.org/entity/Q1907692', 'http://www.wikidata.org/entity/Q1927207', 'http://www.wikidata.org/entity/Q1927514', 'http://www.wikidata.org/entity/Q3640619', 'http://www.wikidata.org/entity/Q3808641', 'http://www.wikidata.org/entity/Q3903429', 'http://www.wikidata.org/entity/Q4320324', 'http://www.wikidata.org/entity/Q4576036', 'http://www.wikidata.org/entity/Q4831692', 'http://www.wikidata.org/entity/Q4965405', 'http://www.wikidata.org/entity/Q5080928', 'http://www.wikidata.org/entity/Q5082378', 'http://www.wikidata.org/entity/Q5171387', 'http://www.wikidata.org/entity/Q5218912', 'http://www.wikidata.org/entity/Q5258750', 'http://www.wikidata.org/entity/Q5342530', 'http://www.wikidata.org/entity/Q5369048', 'http://www.wikidata.org/entity/Q5387450', 'http://www.wikidata.org/entity/Q5981460', 'http://www.wikidata.org/entity/Q6185765', 'http://www.wikidata.org/entity/Q6185783', 'http://www.wikidata.org/entity/Q6199667', 'http://www.wikidata.org/entity/Q6209096', 'http://www.wikidata.org/entity/Q6228011', 'http://www.wikidata.org/entity/Q6273795', 'http://www.wikidata.org/entity/Q6284402', 'http://www.wikidata.org/entity/Q2146518', 'http://www.wikidata.org/entity/Q18620693', 'http://www.wikidata.org/entity/Q18811153', 'http://www.wikidata.org/entity/Q124285622', 'http://www.wikidata.org/entity/Q2600084', 'http://www.wikidata.org/entity/Q3438358', 'http://www.wikidata.org/entity/Q5318734', 'http://www.wikidata.org/entity/Q5982979', 'http://www.wikidata.org/entity/Q7441461', 'http://www.wikidata.org/entity/Q7931678', 'http://www.wikidata.org/entity/Q10558160', 'http://www.wikidata.org/entity/Q15966855', 'http://www.wikidata.org/entity/Q16977559', 'http://www.wikidata.org/entity/Q19872307', 'http://www.wikidata.org/entity/Q24266711', 'http://www.wikidata.org/entity/Q393288', 'http://www.wikidata.org/entity/Q736771', 'http://www.wikidata.org/entity/Q745555', 'http://www.wikidata.org/entity/Q913048', 'http://www.wikidata.org/entity/Q2336395', 'http://www.wikidata.org/entity/Q62512800', 'http://www.wikidata.org/entity/Q66827884', 'http://www.wikidata.org/entity/Q66841118', 'http://www.wikidata.org/entity/Q66939442', 'http://www.wikidata.org/entity/Q71035154', 'http://www.wikidata.org/entity/Q75135779', 'http://www.wikidata.org/entity/Q93318466', 'http://www.wikidata.org/entity/Q93318464', 'http://www.wikidata.org/entity/Q98785910', 'http://www.wikidata.org/entity/Q98852975', 'http://www.wikidata.org/entity/Q98930910', 'http://www.wikidata.org/entity/Q98930945', 'http://www.wikidata.org/entity/Q100151816', 'http://www.wikidata.org/entity/Q101490959', 'http://www.wikidata.org/entity/Q101492327', 'http://www.wikidata.org/entity/Q106228741', 'http://www.wikidata.org/entity/Q6437934', 'http://www.wikidata.org/entity/Q6554673', 'http://www.wikidata.org/entity/Q6668992', 'http://www.wikidata.org/entity/Q6764669', 'http://www.wikidata.org/entity/Q6775566', 'http://www.wikidata.org/entity/Q6776550', 'http://www.wikidata.org/entity/Q7197493', 'http://www.wikidata.org/entity/Q7279212', 'http://www.wikidata.org/entity/Q7308644', 'http://www.wikidata.org/entity/Q7406948', 'http://www.wikidata.org/entity/Q8742822', 'http://www.wikidata.org/entity/Q16146513', 'http://www.wikidata.org/entity/Q16163013', 'http://www.wikidata.org/entity/Q16214810', 'http://www.wikidata.org/entity/Q16977455', 'http://www.wikidata.org/entity/Q16977456', 'http://www.wikidata.org/entity/Q17284905', 'http://www.wikidata.org/entity/Q19560231', 'http://www.wikidata.org/entity/Q19956337', 'http://www.wikidata.org/entity/Q19956650', 'http://www.wikidata.org/entity/Q20641558', 'http://www.wikidata.org/entity/Q20641651', 'http://www.wikidata.org/entity/Q47501255', 'http://www.wikidata.org/entity/Q54667230', 'http://www.wikidata.org/entity/Q56600130', 'http://www.wikidata.org/entity/Q57262270', 'http://www.wikidata.org/entity/Q304222', 'http://www.wikidata.org/entity/Q446040', 'http://www.wikidata.org/entity/Q522722', 'http://www.wikidata.org/entity/Q768060', 'http://www.wikidata.org/entity/Q887449', 'http://www.wikidata.org/entity/Q1042258', 'http://www.wikidata.org/entity/Q1371542', 'http://www.wikidata.org/entity/Q1648234', 'http://www.wikidata.org/entity/Q1703195', 'http://www.wikidata.org/entity/Q2018463', 'http://www.wikidata.org/entity/Q2178030', 'http://www.wikidata.org/entity/Q2641446', 'http://www.wikidata.org/entity/Q3805894', 'http://www.wikidata.org/entity/Q3984246', 'http://www.wikidata.org/entity/Q4281245', 'http://www.wikidata.org/entity/Q5522971', 'http://www.wikidata.org/entity/Q5718354', 'http://www.wikidata.org/entity/Q7428345', 'http://www.wikidata.org/entity/Q7611949', 'http://www.wikidata.org/entity/Q17144475', 'http://www.wikidata.org/entity/Q19956753', 'http://www.wikidata.org/entity/Q28145349', 'http://www.wikidata.org/entity/Q28145357', 'http://www.wikidata.org/entity/Q29161403', 'http://www.wikidata.org/entity/Q43252374', 'http://www.wikidata.org/entity/Q55183403', 'http://www.wikidata.org/entity/Q92303735', 'http://www.wikidata.org/entity/Q718040', 'http://www.wikidata.org/entity/Q968613', 'http://www.wikidata.org/entity/Q1173914', 'http://www.wikidata.org/entity/Q1655475', 'http://www.wikidata.org/entity/Q1699362', 'http://www.wikidata.org/entity/Q1740253', 'http://www.wikidata.org/entity/Q2161068', 'http://www.wikidata.org/entity/Q2178054', 'http://www.wikidata.org/entity/Q2277399', 'http://www.wikidata.org/entity/Q2350107', 'http://www.wikidata.org/entity/Q7463323', 'http://www.wikidata.org/entity/Q16598377', 'http://www.wikidata.org/entity/Q17057003', 'http://www.wikidata.org/entity/Q17284928', 'http://www.wikidata.org/entity/Q17306893', 'http://www.wikidata.org/entity/Q20986521', 'http://www.wikidata.org/entity/Q51090087', 'http://www.wikidata.org/entity/Q93318463', 'http://www.wikidata.org/entity/Q129674231', 'http://www.wikidata.org/entity/Q617595', 'http://www.wikidata.org/entity/Q2134271', 'http://www.wikidata.org/entity/Q8739830', 'http://www.wikidata.org/entity/Q17352178', 'http://www.wikidata.org/entity/Q66938881', 'http://www.wikidata.org/entity/Q125118333', 'http://www.wikidata.org/entity/Q179952', 'http://www.wikidata.org/entity/Q302914', 'http://www.wikidata.org/entity/Q373986', 'http://www.wikidata.org/entity/Q444083', 'http://www.wikidata.org/entity/Q446027', 'http://www.wikidata.org/entity/Q446060', 'http://www.wikidata.org/entity/Q504142', 'http://www.wikidata.org/entity/Q587134', 'http://www.wikidata.org/entity/Q633332', 'http://www.wikidata.org/entity/Q680512', 'http://www.wikidata.org/entity/Q762057', 'http://www.wikidata.org/entity/Q785842', 'http://www.wikidata.org/entity/Q949755', 'http://www.wikidata.org/entity/Q951577', 'http://www.wikidata.org/entity/Q952394', 'http://www.wikidata.org/entity/Q983145', 'http://www.wikidata.org/entity/Q983148', 'http://www.wikidata.org/entity/Q1096922', 'http://www.wikidata.org/entity/Q1356211', 'http://www.wikidata.org/entity/Q1453597', 'http://www.wikidata.org/entity/Q1507832', 'http://www.wikidata.org/entity/Q2601973', 'http://www.wikidata.org/entity/Q3788418', 'http://www.wikidata.org/entity/Q4168933', 'http://www.wikidata.org/entity/Q4775558', 'http://www.wikidata.org/entity/Q5075274', 'http://www.wikidata.org/entity/Q5257150', 'http://www.wikidata.org/entity/Q5341660', 'http://www.wikidata.org/entity/Q6280016', 'http://www.wikidata.org/entity/Q6932071', 'http://www.wikidata.org/entity/Q7087842', 'http://www.wikidata.org/entity/Q7297466', 'http://www.wikidata.org/entity/Q7463162', 'http://www.wikidata.org/entity/Q7463312', 'http://www.wikidata.org/entity/Q7519908', 'http://www.wikidata.org/entity/Q7608617', 'http://www.wikidata.org/entity/Q8854881', 'http://www.wikidata.org/entity/Q10474461', 'http://www.wikidata.org/entity/Q10509157', 'http://www.wikidata.org/entity/Q16944482', 'http://www.wikidata.org/entity/Q16977477', 'http://www.wikidata.org/entity/Q17279925', 'http://www.wikidata.org/entity/Q17280065', 'http://www.wikidata.org/entity/Q17280963', 'http://www.wikidata.org/entity/Q17284926', 'http://www.wikidata.org/entity/Q17298627', 'http://www.wikidata.org/entity/Q17303639', 'http://www.wikidata.org/entity/Q17327586', 'http://www.wikidata.org/entity/Q17327760', 'http://www.wikidata.org/entity/Q17329012', 'http://www.wikidata.org/entity/Q17352188', 'http://www.wikidata.org/entity/Q18412697', 'http://www.wikidata.org/entity/Q18515962', 'http://www.wikidata.org/entity/Q18589449', 'http://www.wikidata.org/entity/Q19643722', 'http://www.wikidata.org/entity/Q19643731', 'http://www.wikidata.org/entity/Q19643733', 'http://www.wikidata.org/entity/Q24450398', 'http://www.wikidata.org/entity/Q28145338', 'http://www.wikidata.org/entity/Q29077561', 'http://www.wikidata.org/entity/Q30532844', 'http://www.wikidata.org/entity/Q51090088', 'http://www.wikidata.org/entity/Q55956335', 'http://www.wikidata.org/entity/Q61787980', 'http://www.wikidata.org/entity/Q75635489', 'http://www.wikidata.org/entity/Q79981875', 'http://www.wikidata.org/entity/Q94606737', 'http://www.wikidata.org/entity/Q105118495', 'http://www.wikidata.org/entity/Q107128661', 'http://www.wikidata.org/entity/Q125397277']</t>
         </is>
       </c>
     </row>
@@ -3224,7 +3224,7 @@
       </c>
       <c r="D127" t="inlineStr">
         <is>
-          <t>['778']</t>
+          <t>['783']</t>
         </is>
       </c>
     </row>
@@ -3290,7 +3290,7 @@
       </c>
       <c r="D130" t="inlineStr">
         <is>
-          <t>['http://www.wikidata.org/entity/Q255227', 'http://www.wikidata.org/entity/Q980101', 'http://www.wikidata.org/entity/Q1020215', 'http://www.wikidata.org/entity/Q1368515', 'http://www.wikidata.org/entity/Q1567441', 'http://www.wikidata.org/entity/Q699572', 'http://www.wikidata.org/entity/Q2181714', 'http://www.wikidata.org/entity/Q5348551', 'http://www.wikidata.org/entity/Q5645779', 'http://www.wikidata.org/entity/Q3049999', 'http://www.wikidata.org/entity/Q3360834', 'http://www.wikidata.org/entity/Q3435105', 'http://www.wikidata.org/entity/Q3435140', 'http://www.wikidata.org/entity/Q3502047', 'http://www.wikidata.org/entity/Q11951950', 'http://www.wikidata.org/entity/Q11971796', 'http://www.wikidata.org/entity/Q12000746', 'http://www.wikidata.org/entity/Q12301111', 'http://www.wikidata.org/entity/Q12301146', 'http://www.wikidata.org/entity/Q12302929', 'http://www.wikidata.org/entity/Q12302949', 'http://www.wikidata.org/entity/Q12302976', 'http://www.wikidata.org/entity/Q12303012', 'http://www.wikidata.org/entity/Q12303550', 'http://www.wikidata.org/entity/Q12304116', 'http://www.wikidata.org/entity/Q12304190', 'http://www.wikidata.org/entity/Q12304649', 'http://www.wikidata.org/entity/Q12307086', 'http://www.wikidata.org/entity/Q6728785', 'http://www.wikidata.org/entity/Q7563773', 'http://www.wikidata.org/entity/Q9019885', 'http://www.wikidata.org/entity/Q10418435', 'http://www.wikidata.org/entity/Q12308843', 'http://www.wikidata.org/entity/Q12309929', 'http://www.wikidata.org/entity/Q12311241', 'http://www.wikidata.org/entity/Q12311698', 'http://www.wikidata.org/entity/Q12315138', 'http://www.wikidata.org/entity/Q12315813', 'http://www.wikidata.org/entity/Q12315973', 'http://www.wikidata.org/entity/Q12316810', 'http://www.wikidata.org/entity/Q12313155', 'http://www.wikidata.org/entity/Q12313213', 'http://www.wikidata.org/entity/Q12314024', 'http://www.wikidata.org/entity/Q12314232', 'http://www.wikidata.org/entity/Q12314426', 'http://www.wikidata.org/entity/Q12314437', 'http://www.wikidata.org/entity/Q12314529', 'http://www.wikidata.org/entity/Q12314791', 'http://www.wikidata.org/entity/Q12314793', 'http://www.wikidata.org/entity/Q12315027', 'http://www.wikidata.org/entity/Q12315034', 'http://www.wikidata.org/entity/Q12315045', 'http://www.wikidata.org/entity/Q12316979', 'http://www.wikidata.org/entity/Q12317206', 'http://www.wikidata.org/entity/Q12317366', 'http://www.wikidata.org/entity/Q12317460', 'http://www.wikidata.org/entity/Q12317710', 'http://www.wikidata.org/entity/Q12320531', 'http://www.wikidata.org/entity/Q12320659', 'http://www.wikidata.org/entity/Q12321775', 'http://www.wikidata.org/entity/Q12329131', 'http://www.wikidata.org/entity/Q12329562', 'http://www.wikidata.org/entity/Q12329735', 'http://www.wikidata.org/entity/Q12330007', 'http://www.wikidata.org/entity/Q12322134', 'http://www.wikidata.org/entity/Q12322212', 'http://www.wikidata.org/entity/Q12322383', 'http://www.wikidata.org/entity/Q12324141', 'http://www.wikidata.org/entity/Q12324477', 'http://www.wikidata.org/entity/Q12324980', 'http://www.wikidata.org/entity/Q12325248', 'http://www.wikidata.org/entity/Q12333515', 'http://www.wikidata.org/entity/Q12333745', 'http://www.wikidata.org/entity/Q12334205', 'http://www.wikidata.org/entity/Q12334406', 'http://www.wikidata.org/entity/Q12335471', 'http://www.wikidata.org/entity/Q12335518', 'http://www.wikidata.org/entity/Q12336165', 'http://www.wikidata.org/entity/Q12336238', 'http://www.wikidata.org/entity/Q12336332', 'http://www.wikidata.org/entity/Q12336362', 'http://www.wikidata.org/entity/Q12337255', 'http://www.wikidata.org/entity/Q12337351', 'http://www.wikidata.org/entity/Q12337367', 'http://www.wikidata.org/entity/Q12337529', 'http://www.wikidata.org/entity/Q12338271', 'http://www.wikidata.org/entity/Q12338383', 'http://www.wikidata.org/entity/Q12338459', 'http://www.wikidata.org/entity/Q12339299', 'http://www.wikidata.org/entity/Q12339916', 'http://www.wikidata.org/entity/Q12339954', 'http://www.wikidata.org/entity/Q12340152', 'http://www.wikidata.org/entity/Q12340521', 'http://www.wikidata.org/entity/Q12340745', 'http://www.wikidata.org/entity/Q12340750', 'http://www.wikidata.org/entity/Q12340899', 'http://www.wikidata.org/entity/Q12341090', 'http://www.wikidata.org/entity/Q12341145', 'http://www.wikidata.org/entity/Q12342060', 'http://www.wikidata.org/entity/Q12342074', 'http://www.wikidata.org/entity/Q12342129', 'http://www.wikidata.org/entity/Q12342964', 'http://www.wikidata.org/entity/Q12343304', 'http://www.wikidata.org/entity/Q12343319', 'http://www.wikidata.org/entity/Q12343703', 'http://www.wikidata.org/entity/Q12344328', 'http://www.wikidata.org/entity/Q16323607', 'http://www.wikidata.org/entity/Q16323734', 'http://www.wikidata.org/entity/Q16324094', 'http://www.wikidata.org/entity/Q16324310', 'http://www.wikidata.org/entity/Q16324358', 'http://www.wikidata.org/entity/Q16324476', 'http://www.wikidata.org/entity/Q16324485', 'http://www.wikidata.org/entity/Q16324679', 'http://www.wikidata.org/entity/Q16324742', 'http://www.wikidata.org/entity/Q16324757', 'http://www.wikidata.org/entity/Q16324800', 'http://www.wikidata.org/entity/Q19562150', 'http://www.wikidata.org/entity/Q19842408', 'http://www.wikidata.org/entity/Q20496295', 'http://www.wikidata.org/entity/Q16324943', 'http://www.wikidata.org/entity/Q16324950', 'http://www.wikidata.org/entity/Q16325080', 'http://www.wikidata.org/entity/Q16514238', 'http://www.wikidata.org/entity/Q17165539', 'http://www.wikidata.org/entity/Q17165592', 'http://www.wikidata.org/entity/Q17165628', 'http://www.wikidata.org/entity/Q17482603', 'http://www.wikidata.org/entity/Q18088088', 'http://www.wikidata.org/entity/Q21286622', 'http://www.wikidata.org/entity/Q23739876', 'http://www.wikidata.org/entity/Q23739938', 'http://www.wikidata.org/entity/Q23739955', 'http://www.wikidata.org/entity/Q23739977', 'http://www.wikidata.org/entity/Q23739983', 'http://www.wikidata.org/entity/Q23739991', 'http://www.wikidata.org/entity/Q23740021', 'http://www.wikidata.org/entity/Q23741570', 'http://www.wikidata.org/entity/Q23741575', 'http://www.wikidata.org/entity/Q23741644', 'http://www.wikidata.org/entity/Q23741654', 'http://www.wikidata.org/entity/Q23741719', 'http://www.wikidata.org/entity/Q23741721', 'http://www.wikidata.org/entity/Q23743211', 'http://www.wikidata.org/entity/Q23743229', 'http://www.wikidata.org/entity/Q23743239', 'http://www.wikidata.org/entity/Q23743259', 'http://www.wikidata.org/entity/Q23743298', 'http://www.wikidata.org/entity/Q23743299', 'http://www.wikidata.org/entity/Q23743297', 'http://www.wikidata.org/entity/Q23743302', 'http://www.wikidata.org/entity/Q23743303', 'http://www.wikidata.org/entity/Q23743301', 'http://www.wikidata.org/entity/Q23743345', 'http://www.wikidata.org/entity/Q23743405', 'http://www.wikidata.org/entity/Q23743432', 'http://www.wikidata.org/entity/Q23744953', 'http://www.wikidata.org/entity/Q23744962', 'http://www.wikidata.org/entity/Q23744993', 'http://www.wikidata.org/entity/Q23745022', 'http://www.wikidata.org/entity/Q23745042', 'http://www.wikidata.org/entity/Q23745100', 'http://www.wikidata.org/entity/Q23745126', 'http://www.wikidata.org/entity/Q23746262', 'http://www.wikidata.org/entity/Q23746308', 'http://www.wikidata.org/entity/Q23746314', 'http://www.wikidata.org/entity/Q23746362', 'http://www.wikidata.org/entity/Q23746394', 'http://www.wikidata.org/entity/Q23746876', 'http://www.wikidata.org/entity/Q23746895', 'http://www.wikidata.org/entity/Q23746958', 'http://www.wikidata.org/entity/Q23746968', 'http://www.wikidata.org/entity/Q23746990', 'http://www.wikidata.org/entity/Q23747135', 'http://www.wikidata.org/entity/Q23747185', 'http://www.wikidata.org/entity/Q23747189', 'http://www.wikidata.org/entity/Q23747283', 'http://www.wikidata.org/entity/Q23747292', 'http://www.wikidata.org/entity/Q23747637', 'http://www.wikidata.org/entity/Q23748279', 'http://www.wikidata.org/entity/Q23748300', 'http://www.wikidata.org/entity/Q23748901', 'http://www.wikidata.org/entity/Q23748918', 'http://www.wikidata.org/entity/Q23749517', 'http://www.wikidata.org/entity/Q23749559', 'http://www.wikidata.org/entity/Q23749582', 'http://www.wikidata.org/entity/Q23749600', 'http://www.wikidata.org/entity/Q23750342', 'http://www.wikidata.org/entity/Q23750399', 'http://www.wikidata.org/entity/Q23750439', 'http://www.wikidata.org/entity/Q23750475', 'http://www.wikidata.org/entity/Q23752068', 'http://www.wikidata.org/entity/Q22956447', 'http://www.wikidata.org/entity/Q23732833', 'http://www.wikidata.org/entity/Q23732838', 'http://www.wikidata.org/entity/Q23732866', 'http://www.wikidata.org/entity/Q23734732', 'http://www.wikidata.org/entity/Q23734767', 'http://www.wikidata.org/entity/Q23734771', 'http://www.wikidata.org/entity/Q23734778', 'http://www.wikidata.org/entity/Q23734791', 'http://www.wikidata.org/entity/Q23734856', 'http://www.wikidata.org/entity/Q23734893', 'http://www.wikidata.org/entity/Q23734926', 'http://www.wikidata.org/entity/Q23734931', 'http://www.wikidata.org/entity/Q23734936', 'http://www.wikidata.org/entity/Q23734946', 'http://www.wikidata.org/entity/Q23736514', 'http://www.wikidata.org/entity/Q23736520', 'http://www.wikidata.org/entity/Q23736539', 'http://www.wikidata.org/entity/Q23736551', 'http://www.wikidata.org/entity/Q23736564', 'http://www.wikidata.org/entity/Q23736565', 'http://www.wikidata.org/entity/Q23736619', 'http://www.wikidata.org/entity/Q23736643', 'http://www.wikidata.org/entity/Q23736703', 'http://www.wikidata.org/entity/Q23736704', 'http://www.wikidata.org/entity/Q23736717', 'http://www.wikidata.org/entity/Q23738207', 'http://www.wikidata.org/entity/Q23738262', 'http://www.wikidata.org/entity/Q23738260', 'http://www.wikidata.org/entity/Q23738302', 'http://www.wikidata.org/entity/Q23738301', 'http://www.wikidata.org/entity/Q23738304', 'http://www.wikidata.org/entity/Q23738318', 'http://www.wikidata.org/entity/Q27956543', 'http://www.wikidata.org/entity/Q28835934', 'http://www.wikidata.org/entity/Q28835957', 'http://www.wikidata.org/entity/Q29526114', 'http://www.wikidata.org/entity/Q29526235', 'http://www.wikidata.org/entity/Q29810658', 'http://www.wikidata.org/entity/Q23754128', 'http://www.wikidata.org/entity/Q25344054', 'http://www.wikidata.org/entity/Q26989421', 'http://www.wikidata.org/entity/Q27554878', 'http://www.wikidata.org/entity/Q30597120', 'http://www.wikidata.org/entity/Q31193475', 'http://www.wikidata.org/entity/Q31928189', 'http://www.wikidata.org/entity/Q31928238', 'http://www.wikidata.org/entity/Q55138938', 'http://www.wikidata.org/entity/Q55139093', 'http://www.wikidata.org/entity/Q55139932', 'http://www.wikidata.org/entity/Q56239991', 'http://www.wikidata.org/entity/Q56240094', 'http://www.wikidata.org/entity/Q56240145', 'http://www.wikidata.org/entity/Q56240180', 'http://www.wikidata.org/entity/Q56240213', 'http://www.wikidata.org/entity/Q56240266', 'http://www.wikidata.org/entity/Q35634541', 'http://www.wikidata.org/entity/Q37931050', 'http://www.wikidata.org/entity/Q39060232', 'http://www.wikidata.org/entity/Q41476467', 'http://www.wikidata.org/entity/Q41476554', 'http://www.wikidata.org/entity/Q41476757', 'http://www.wikidata.org/entity/Q41477177', 'http://www.wikidata.org/entity/Q41630736', 'http://www.wikidata.org/entity/Q41631187', 'http://www.wikidata.org/entity/Q41633052', 'http://www.wikidata.org/entity/Q41633146', 'http://www.wikidata.org/entity/Q41633312', 'http://www.wikidata.org/entity/Q41633893', 'http://www.wikidata.org/entity/Q41757736', 'http://www.wikidata.org/entity/Q41766919', 'http://www.wikidata.org/entity/Q42662557', 'http://www.wikidata.org/entity/Q57409661', 'http://www.wikidata.org/entity/Q58000861', 'http://www.wikidata.org/entity/Q58001031', 'http://www.wikidata.org/entity/Q60772947', 'http://www.wikidata.org/entity/Q60786993', 'http://www.wikidata.org/entity/Q61059587', 'http://www.wikidata.org/entity/Q61062450', 'http://www.wikidata.org/entity/Q61959523', 'http://www.wikidata.org/entity/Q62964069', 'http://www.wikidata.org/entity/Q63124011', 'http://www.wikidata.org/entity/Q63363643', 'http://www.wikidata.org/entity/Q64513681', 'http://www.wikidata.org/entity/Q64706701', 'http://www.wikidata.org/entity/Q96480326', 'http://www.wikidata.org/entity/Q96970983', 'http://www.wikidata.org/entity/Q99312008', 'http://www.wikidata.org/entity/Q102046344', 'http://www.wikidata.org/entity/Q68179906', 'http://www.wikidata.org/entity/Q69077613', 'http://www.wikidata.org/entity/Q104717383', 'http://www.wikidata.org/entity/Q105063246', 'http://www.wikidata.org/entity/Q106625751', 'http://www.wikidata.org/entity/Q106671693', 'http://www.wikidata.org/entity/Q79142265', 'http://www.wikidata.org/entity/Q79215863', 'http://www.wikidata.org/entity/Q79474846', 'http://www.wikidata.org/entity/Q88386287', 'http://www.wikidata.org/entity/Q107102166', 'http://www.wikidata.org/entity/Q110867041', 'http://www.wikidata.org/entity/Q110888454', 'http://www.wikidata.org/entity/Q111646128', 'http://www.wikidata.org/entity/Q111665413', 'http://www.wikidata.org/entity/Q110814074', 'http://www.wikidata.org/entity/Q113955812', 'http://www.wikidata.org/entity/Q114678349', 'http://www.wikidata.org/entity/Q116059020', 'http://www.wikidata.org/entity/Q116193033', 'http://www.wikidata.org/entity/Q116195107', 'http://www.wikidata.org/entity/Q116195801', 'http://www.wikidata.org/entity/Q116234603', 'http://www.wikidata.org/entity/Q116861495', 'http://www.wikidata.org/entity/Q118541097', 'http://www.wikidata.org/entity/Q120129023', 'http://www.wikidata.org/entity/Q121937927', 'http://www.wikidata.org/entity/Q122760990', 'http://www.wikidata.org/entity/Q113484818', 'http://www.wikidata.org/entity/Q124820205', 'http://www.wikidata.org/entity/Q125516409', 'http://www.wikidata.org/entity/Q125768024', 'http://www.wikidata.org/entity/Q130310115', 'http://www.wikidata.org/entity/Q130349461', 'http://www.wikidata.org/entity/Q130524204', 'http://www.wikidata.org/entity/Q130547831', 'http://www.wikidata.org/entity/Q130557585', 'http://www.wikidata.org/entity/Q130558114', 'http://www.wikidata.org/entity/Q131338880', 'http://www.wikidata.org/entity/Q127510939', 'http://www.wikidata.org/entity/Q127602665', 'http://www.wikidata.org/entity/Q129046110', 'http://www.wikidata.org/entity/Q129046263', 'http://www.wikidata.org/entity/Q129262328']</t>
+          <t>['http://www.wikidata.org/entity/Q255227', 'http://www.wikidata.org/entity/Q699572', 'http://www.wikidata.org/entity/Q1368515', 'http://www.wikidata.org/entity/Q1567441', 'http://www.wikidata.org/entity/Q980101', 'http://www.wikidata.org/entity/Q1020215', 'http://www.wikidata.org/entity/Q2181714', 'http://www.wikidata.org/entity/Q3435105', 'http://www.wikidata.org/entity/Q3435140', 'http://www.wikidata.org/entity/Q3502047', 'http://www.wikidata.org/entity/Q5348551', 'http://www.wikidata.org/entity/Q12301111', 'http://www.wikidata.org/entity/Q12301146', 'http://www.wikidata.org/entity/Q12302929', 'http://www.wikidata.org/entity/Q12302949', 'http://www.wikidata.org/entity/Q12302976', 'http://www.wikidata.org/entity/Q12303012', 'http://www.wikidata.org/entity/Q12303550', 'http://www.wikidata.org/entity/Q5645779', 'http://www.wikidata.org/entity/Q6728785', 'http://www.wikidata.org/entity/Q7563773', 'http://www.wikidata.org/entity/Q9019885', 'http://www.wikidata.org/entity/Q12304116', 'http://www.wikidata.org/entity/Q12304190', 'http://www.wikidata.org/entity/Q12304649', 'http://www.wikidata.org/entity/Q12307086', 'http://www.wikidata.org/entity/Q3049999', 'http://www.wikidata.org/entity/Q3360834', 'http://www.wikidata.org/entity/Q12308843', 'http://www.wikidata.org/entity/Q12309929', 'http://www.wikidata.org/entity/Q12311241', 'http://www.wikidata.org/entity/Q12317460', 'http://www.wikidata.org/entity/Q12317710', 'http://www.wikidata.org/entity/Q12320531', 'http://www.wikidata.org/entity/Q12320659', 'http://www.wikidata.org/entity/Q10418435', 'http://www.wikidata.org/entity/Q11951950', 'http://www.wikidata.org/entity/Q11971796', 'http://www.wikidata.org/entity/Q12000746', 'http://www.wikidata.org/entity/Q12311698', 'http://www.wikidata.org/entity/Q12313155', 'http://www.wikidata.org/entity/Q12313213', 'http://www.wikidata.org/entity/Q12314024', 'http://www.wikidata.org/entity/Q12314232', 'http://www.wikidata.org/entity/Q12314426', 'http://www.wikidata.org/entity/Q12314437', 'http://www.wikidata.org/entity/Q12314529', 'http://www.wikidata.org/entity/Q12314791', 'http://www.wikidata.org/entity/Q12314793', 'http://www.wikidata.org/entity/Q12315027', 'http://www.wikidata.org/entity/Q12315034', 'http://www.wikidata.org/entity/Q12315045', 'http://www.wikidata.org/entity/Q12315138', 'http://www.wikidata.org/entity/Q12315813', 'http://www.wikidata.org/entity/Q12315973', 'http://www.wikidata.org/entity/Q12316810', 'http://www.wikidata.org/entity/Q12316979', 'http://www.wikidata.org/entity/Q12317206', 'http://www.wikidata.org/entity/Q12317366', 'http://www.wikidata.org/entity/Q12321775', 'http://www.wikidata.org/entity/Q12322134', 'http://www.wikidata.org/entity/Q12322212', 'http://www.wikidata.org/entity/Q12322383', 'http://www.wikidata.org/entity/Q12324141', 'http://www.wikidata.org/entity/Q12324477', 'http://www.wikidata.org/entity/Q12324980', 'http://www.wikidata.org/entity/Q12325248', 'http://www.wikidata.org/entity/Q12329131', 'http://www.wikidata.org/entity/Q12329562', 'http://www.wikidata.org/entity/Q12329735', 'http://www.wikidata.org/entity/Q12335471', 'http://www.wikidata.org/entity/Q12335518', 'http://www.wikidata.org/entity/Q12336165', 'http://www.wikidata.org/entity/Q12336238', 'http://www.wikidata.org/entity/Q12336332', 'http://www.wikidata.org/entity/Q12336362', 'http://www.wikidata.org/entity/Q12337255', 'http://www.wikidata.org/entity/Q12337351', 'http://www.wikidata.org/entity/Q12337367', 'http://www.wikidata.org/entity/Q12337529', 'http://www.wikidata.org/entity/Q12338271', 'http://www.wikidata.org/entity/Q12338383', 'http://www.wikidata.org/entity/Q12338459', 'http://www.wikidata.org/entity/Q12339299', 'http://www.wikidata.org/entity/Q12339916', 'http://www.wikidata.org/entity/Q12339954', 'http://www.wikidata.org/entity/Q12340152', 'http://www.wikidata.org/entity/Q12340521', 'http://www.wikidata.org/entity/Q12340745', 'http://www.wikidata.org/entity/Q12340750', 'http://www.wikidata.org/entity/Q12330007', 'http://www.wikidata.org/entity/Q12333515', 'http://www.wikidata.org/entity/Q12333745', 'http://www.wikidata.org/entity/Q12334205', 'http://www.wikidata.org/entity/Q12334406', 'http://www.wikidata.org/entity/Q12340899', 'http://www.wikidata.org/entity/Q12341090', 'http://www.wikidata.org/entity/Q12341145', 'http://www.wikidata.org/entity/Q12342060', 'http://www.wikidata.org/entity/Q12342074', 'http://www.wikidata.org/entity/Q12342129', 'http://www.wikidata.org/entity/Q12342964', 'http://www.wikidata.org/entity/Q12343304', 'http://www.wikidata.org/entity/Q12343319', 'http://www.wikidata.org/entity/Q12343703', 'http://www.wikidata.org/entity/Q12344328', 'http://www.wikidata.org/entity/Q16323607', 'http://www.wikidata.org/entity/Q16323734', 'http://www.wikidata.org/entity/Q16324094', 'http://www.wikidata.org/entity/Q16324310', 'http://www.wikidata.org/entity/Q16324358', 'http://www.wikidata.org/entity/Q16324476', 'http://www.wikidata.org/entity/Q16324485', 'http://www.wikidata.org/entity/Q16324679', 'http://www.wikidata.org/entity/Q16324742', 'http://www.wikidata.org/entity/Q16324757', 'http://www.wikidata.org/entity/Q16324800', 'http://www.wikidata.org/entity/Q16324943', 'http://www.wikidata.org/entity/Q16324950', 'http://www.wikidata.org/entity/Q16325080', 'http://www.wikidata.org/entity/Q16514238', 'http://www.wikidata.org/entity/Q17165539', 'http://www.wikidata.org/entity/Q17165592', 'http://www.wikidata.org/entity/Q17165628', 'http://www.wikidata.org/entity/Q17482603', 'http://www.wikidata.org/entity/Q18088088', 'http://www.wikidata.org/entity/Q23746990', 'http://www.wikidata.org/entity/Q23747135', 'http://www.wikidata.org/entity/Q21286622', 'http://www.wikidata.org/entity/Q23738262', 'http://www.wikidata.org/entity/Q23738260', 'http://www.wikidata.org/entity/Q23738302', 'http://www.wikidata.org/entity/Q23738301', 'http://www.wikidata.org/entity/Q23738304', 'http://www.wikidata.org/entity/Q23738318', 'http://www.wikidata.org/entity/Q23739876', 'http://www.wikidata.org/entity/Q23739938', 'http://www.wikidata.org/entity/Q23739955', 'http://www.wikidata.org/entity/Q23739977', 'http://www.wikidata.org/entity/Q23739983', 'http://www.wikidata.org/entity/Q23739991', 'http://www.wikidata.org/entity/Q23740021', 'http://www.wikidata.org/entity/Q23741570', 'http://www.wikidata.org/entity/Q23741575', 'http://www.wikidata.org/entity/Q23741644', 'http://www.wikidata.org/entity/Q23741654', 'http://www.wikidata.org/entity/Q23741719', 'http://www.wikidata.org/entity/Q23741721', 'http://www.wikidata.org/entity/Q23743211', 'http://www.wikidata.org/entity/Q23743229', 'http://www.wikidata.org/entity/Q23743239', 'http://www.wikidata.org/entity/Q23743259', 'http://www.wikidata.org/entity/Q23743298', 'http://www.wikidata.org/entity/Q23743299', 'http://www.wikidata.org/entity/Q23743297', 'http://www.wikidata.org/entity/Q23743302', 'http://www.wikidata.org/entity/Q23743303', 'http://www.wikidata.org/entity/Q23743301', 'http://www.wikidata.org/entity/Q23743345', 'http://www.wikidata.org/entity/Q23743405', 'http://www.wikidata.org/entity/Q23743432', 'http://www.wikidata.org/entity/Q23744953', 'http://www.wikidata.org/entity/Q23744962', 'http://www.wikidata.org/entity/Q23744993', 'http://www.wikidata.org/entity/Q23745022', 'http://www.wikidata.org/entity/Q23745042', 'http://www.wikidata.org/entity/Q23745100', 'http://www.wikidata.org/entity/Q23745126', 'http://www.wikidata.org/entity/Q23746262', 'http://www.wikidata.org/entity/Q23746308', 'http://www.wikidata.org/entity/Q23746314', 'http://www.wikidata.org/entity/Q23746362', 'http://www.wikidata.org/entity/Q23746394', 'http://www.wikidata.org/entity/Q23746876', 'http://www.wikidata.org/entity/Q23746895', 'http://www.wikidata.org/entity/Q23746958', 'http://www.wikidata.org/entity/Q23746968', 'http://www.wikidata.org/entity/Q23747185', 'http://www.wikidata.org/entity/Q23747189', 'http://www.wikidata.org/entity/Q23747283', 'http://www.wikidata.org/entity/Q23747292', 'http://www.wikidata.org/entity/Q23747637', 'http://www.wikidata.org/entity/Q23748279', 'http://www.wikidata.org/entity/Q23748300', 'http://www.wikidata.org/entity/Q23748901', 'http://www.wikidata.org/entity/Q23748918', 'http://www.wikidata.org/entity/Q23749517', 'http://www.wikidata.org/entity/Q23749559', 'http://www.wikidata.org/entity/Q23749582', 'http://www.wikidata.org/entity/Q23749600', 'http://www.wikidata.org/entity/Q23750342', 'http://www.wikidata.org/entity/Q23750399', 'http://www.wikidata.org/entity/Q23750439', 'http://www.wikidata.org/entity/Q23750475', 'http://www.wikidata.org/entity/Q23752068', 'http://www.wikidata.org/entity/Q22956447', 'http://www.wikidata.org/entity/Q23732833', 'http://www.wikidata.org/entity/Q23732838', 'http://www.wikidata.org/entity/Q23732866', 'http://www.wikidata.org/entity/Q23734732', 'http://www.wikidata.org/entity/Q23734767', 'http://www.wikidata.org/entity/Q23734771', 'http://www.wikidata.org/entity/Q23734778', 'http://www.wikidata.org/entity/Q23734791', 'http://www.wikidata.org/entity/Q23734856', 'http://www.wikidata.org/entity/Q23734893', 'http://www.wikidata.org/entity/Q23734926', 'http://www.wikidata.org/entity/Q23734931', 'http://www.wikidata.org/entity/Q23734936', 'http://www.wikidata.org/entity/Q23734946', 'http://www.wikidata.org/entity/Q23736514', 'http://www.wikidata.org/entity/Q23736520', 'http://www.wikidata.org/entity/Q23736539', 'http://www.wikidata.org/entity/Q23736551', 'http://www.wikidata.org/entity/Q23736564', 'http://www.wikidata.org/entity/Q23736565', 'http://www.wikidata.org/entity/Q23736619', 'http://www.wikidata.org/entity/Q23736643', 'http://www.wikidata.org/entity/Q23736703', 'http://www.wikidata.org/entity/Q23736704', 'http://www.wikidata.org/entity/Q23736717', 'http://www.wikidata.org/entity/Q23738207', 'http://www.wikidata.org/entity/Q19562150', 'http://www.wikidata.org/entity/Q19842408', 'http://www.wikidata.org/entity/Q20496295', 'http://www.wikidata.org/entity/Q29526114', 'http://www.wikidata.org/entity/Q29526235', 'http://www.wikidata.org/entity/Q29810658', 'http://www.wikidata.org/entity/Q27956543', 'http://www.wikidata.org/entity/Q28835934', 'http://www.wikidata.org/entity/Q28835957', 'http://www.wikidata.org/entity/Q23754128', 'http://www.wikidata.org/entity/Q25344054', 'http://www.wikidata.org/entity/Q26989421', 'http://www.wikidata.org/entity/Q27554878', 'http://www.wikidata.org/entity/Q30597120', 'http://www.wikidata.org/entity/Q31193475', 'http://www.wikidata.org/entity/Q31928189', 'http://www.wikidata.org/entity/Q31928238', 'http://www.wikidata.org/entity/Q55138938', 'http://www.wikidata.org/entity/Q55139093', 'http://www.wikidata.org/entity/Q55139932', 'http://www.wikidata.org/entity/Q56239991', 'http://www.wikidata.org/entity/Q56240094', 'http://www.wikidata.org/entity/Q56240145', 'http://www.wikidata.org/entity/Q56240180', 'http://www.wikidata.org/entity/Q56240213', 'http://www.wikidata.org/entity/Q56240266', 'http://www.wikidata.org/entity/Q57409661', 'http://www.wikidata.org/entity/Q58000861', 'http://www.wikidata.org/entity/Q58001031', 'http://www.wikidata.org/entity/Q60772947', 'http://www.wikidata.org/entity/Q60786993', 'http://www.wikidata.org/entity/Q61059587', 'http://www.wikidata.org/entity/Q61062450', 'http://www.wikidata.org/entity/Q61959523', 'http://www.wikidata.org/entity/Q62964069', 'http://www.wikidata.org/entity/Q63124011', 'http://www.wikidata.org/entity/Q35634541', 'http://www.wikidata.org/entity/Q37931050', 'http://www.wikidata.org/entity/Q39060232', 'http://www.wikidata.org/entity/Q41476467', 'http://www.wikidata.org/entity/Q41476554', 'http://www.wikidata.org/entity/Q41476757', 'http://www.wikidata.org/entity/Q41477177', 'http://www.wikidata.org/entity/Q41630736', 'http://www.wikidata.org/entity/Q41631187', 'http://www.wikidata.org/entity/Q41633052', 'http://www.wikidata.org/entity/Q41633146', 'http://www.wikidata.org/entity/Q41633312', 'http://www.wikidata.org/entity/Q41633893', 'http://www.wikidata.org/entity/Q41757736', 'http://www.wikidata.org/entity/Q41766919', 'http://www.wikidata.org/entity/Q42662557', 'http://www.wikidata.org/entity/Q64513681', 'http://www.wikidata.org/entity/Q63363643', 'http://www.wikidata.org/entity/Q64706701', 'http://www.wikidata.org/entity/Q68179906', 'http://www.wikidata.org/entity/Q69077613', 'http://www.wikidata.org/entity/Q79142265', 'http://www.wikidata.org/entity/Q79215863', 'http://www.wikidata.org/entity/Q79474846', 'http://www.wikidata.org/entity/Q106625751', 'http://www.wikidata.org/entity/Q106671693', 'http://www.wikidata.org/entity/Q107102166', 'http://www.wikidata.org/entity/Q102046344', 'http://www.wikidata.org/entity/Q104717383', 'http://www.wikidata.org/entity/Q105063246', 'http://www.wikidata.org/entity/Q88386287', 'http://www.wikidata.org/entity/Q96480326', 'http://www.wikidata.org/entity/Q96970983', 'http://www.wikidata.org/entity/Q99312008', 'http://www.wikidata.org/entity/Q110814074', 'http://www.wikidata.org/entity/Q110867041', 'http://www.wikidata.org/entity/Q110888454', 'http://www.wikidata.org/entity/Q111646128', 'http://www.wikidata.org/entity/Q111665413', 'http://www.wikidata.org/entity/Q113955812', 'http://www.wikidata.org/entity/Q114678349', 'http://www.wikidata.org/entity/Q113484818', 'http://www.wikidata.org/entity/Q116059020', 'http://www.wikidata.org/entity/Q116193033', 'http://www.wikidata.org/entity/Q116195107', 'http://www.wikidata.org/entity/Q116195801', 'http://www.wikidata.org/entity/Q116234603', 'http://www.wikidata.org/entity/Q116861495', 'http://www.wikidata.org/entity/Q118541097', 'http://www.wikidata.org/entity/Q120129023', 'http://www.wikidata.org/entity/Q121937927', 'http://www.wikidata.org/entity/Q122760990', 'http://www.wikidata.org/entity/Q124820205', 'http://www.wikidata.org/entity/Q125516409', 'http://www.wikidata.org/entity/Q125768024', 'http://www.wikidata.org/entity/Q131717130', 'http://www.wikidata.org/entity/Q131826370', 'http://www.wikidata.org/entity/Q131842991', 'http://www.wikidata.org/entity/Q131921808', 'http://www.wikidata.org/entity/Q132593054', 'http://www.wikidata.org/entity/Q127510939', 'http://www.wikidata.org/entity/Q127602665', 'http://www.wikidata.org/entity/Q129046110', 'http://www.wikidata.org/entity/Q129046263', 'http://www.wikidata.org/entity/Q129262328', 'http://www.wikidata.org/entity/Q130310115', 'http://www.wikidata.org/entity/Q130349461', 'http://www.wikidata.org/entity/Q130524204', 'http://www.wikidata.org/entity/Q130547831', 'http://www.wikidata.org/entity/Q130557585', 'http://www.wikidata.org/entity/Q130558114', 'http://www.wikidata.org/entity/Q131338880', 'http://www.wikidata.org/entity/Q131410939', 'http://www.wikidata.org/entity/Q131465027', 'http://www.wikidata.org/entity/Q131466207']</t>
         </is>
       </c>
     </row>
@@ -3334,7 +3334,7 @@
       </c>
       <c r="D132" t="inlineStr">
         <is>
-          <t>['http://www.wikidata.org/entity/Q334303', 'http://www.wikidata.org/entity/Q2323935', 'http://www.wikidata.org/entity/Q4729533', 'http://www.wikidata.org/entity/Q16255286', 'http://www.wikidata.org/entity/Q17530195', 'http://www.wikidata.org/entity/Q29265', 'http://www.wikidata.org/entity/Q7590167', 'http://www.wikidata.org/entity/Q7592825', 'http://www.wikidata.org/entity/Q7594320', 'http://www.wikidata.org/entity/Q7595282', 'http://www.wikidata.org/entity/Q7595294', 'http://www.wikidata.org/entity/Q17986065', 'http://www.wikidata.org/entity/Q64019243']</t>
+          <t>['http://www.wikidata.org/entity/Q334303', 'http://www.wikidata.org/entity/Q2323935', 'http://www.wikidata.org/entity/Q16255286', 'http://www.wikidata.org/entity/Q17530195', 'http://www.wikidata.org/entity/Q4729533', 'http://www.wikidata.org/entity/Q29265', 'http://www.wikidata.org/entity/Q7590167', 'http://www.wikidata.org/entity/Q7592825', 'http://www.wikidata.org/entity/Q7594320', 'http://www.wikidata.org/entity/Q7595282', 'http://www.wikidata.org/entity/Q7595294', 'http://www.wikidata.org/entity/Q17986065', 'http://www.wikidata.org/entity/Q64019243']</t>
         </is>
       </c>
     </row>
@@ -3356,7 +3356,7 @@
       </c>
       <c r="D133" t="inlineStr">
         <is>
-          <t>['http://www.wikidata.org/entity/Q620942', 'http://www.wikidata.org/entity/Q862701', 'http://www.wikidata.org/entity/Q1929699', 'http://www.wikidata.org/entity/Q2386787', 'http://www.wikidata.org/entity/Q5148343', 'http://www.wikidata.org/entity/Q5148520', 'http://www.wikidata.org/entity/Q18408563', 'http://www.wikidata.org/entity/Q912', 'http://www.wikidata.org/entity/Q945', 'http://www.wikidata.org/entity/Q962', 'http://www.wikidata.org/entity/Q965', 'http://www.wikidata.org/entity/Q1007', 'http://www.wikidata.org/entity/Q1008', 'http://www.wikidata.org/entity/Q1032', 'http://www.wikidata.org/entity/Q1041']</t>
+          <t>['http://www.wikidata.org/entity/Q620942', 'http://www.wikidata.org/entity/Q862701', 'http://www.wikidata.org/entity/Q1929699', 'http://www.wikidata.org/entity/Q2386787', 'http://www.wikidata.org/entity/Q5148343', 'http://www.wikidata.org/entity/Q5148520', 'http://www.wikidata.org/entity/Q18408563', 'http://www.wikidata.org/entity/Q131607717', 'http://www.wikidata.org/entity/Q912', 'http://www.wikidata.org/entity/Q945', 'http://www.wikidata.org/entity/Q962', 'http://www.wikidata.org/entity/Q965', 'http://www.wikidata.org/entity/Q1007', 'http://www.wikidata.org/entity/Q1008', 'http://www.wikidata.org/entity/Q1032', 'http://www.wikidata.org/entity/Q1041']</t>
         </is>
       </c>
     </row>
@@ -3378,7 +3378,7 @@
       </c>
       <c r="D134" t="inlineStr">
         <is>
-          <t>['http://www.wikidata.org/entity/Q829919', 'http://www.wikidata.org/entity/Q1145630', 'http://www.wikidata.org/entity/Q1236370', 'http://www.wikidata.org/entity/Q2058236', 'http://www.wikidata.org/entity/Q2176621', 'http://www.wikidata.org/entity/Q3055633', 'http://www.wikidata.org/entity/Q3092911', 'http://www.wikidata.org/entity/Q3092909', 'http://www.wikidata.org/entity/Q3092917', 'http://www.wikidata.org/entity/Q3092925', 'http://www.wikidata.org/entity/Q3187040', 'http://www.wikidata.org/entity/Q3743920', 'http://www.wikidata.org/entity/Q3743972', 'http://www.wikidata.org/entity/Q3743990', 'http://www.wikidata.org/entity/Q5447345', 'http://www.wikidata.org/entity/Q5550345', 'http://www.wikidata.org/entity/Q5660198', 'http://www.wikidata.org/entity/Q5860860', 'http://www.wikidata.org/entity/Q5861663', 'http://www.wikidata.org/entity/Q5861795', 'http://www.wikidata.org/entity/Q5861825', 'http://www.wikidata.org/entity/Q8961595', 'http://www.wikidata.org/entity/Q11921892', 'http://www.wikidata.org/entity/Q11921893', 'http://www.wikidata.org/entity/Q11921915', 'http://www.wikidata.org/entity/Q11921926', 'http://www.wikidata.org/entity/Q11921927', 'http://www.wikidata.org/entity/Q12388488', 'http://www.wikidata.org/entity/Q12864986', 'http://www.wikidata.org/entity/Q13581075', 'http://www.wikidata.org/entity/Q16303295', 'http://www.wikidata.org/entity/Q16303298', 'http://www.wikidata.org/entity/Q17301586', 'http://www.wikidata.org/entity/Q17630412', 'http://www.wikidata.org/entity/Q18696203', 'http://www.wikidata.org/entity/Q19917524', 'http://www.wikidata.org/entity/Q20015055', 'http://www.wikidata.org/entity/Q20100567', 'http://www.wikidata.org/entity/Q20102845', 'http://www.wikidata.org/entity/Q20102966', 'http://www.wikidata.org/entity/Q20103063', 'http://www.wikidata.org/entity/Q20103076', 'http://www.wikidata.org/entity/Q20103348', 'http://www.wikidata.org/entity/Q20103509', 'http://www.wikidata.org/entity/Q20103662', 'http://www.wikidata.org/entity/Q20103856', 'http://www.wikidata.org/entity/Q20103945', 'http://www.wikidata.org/entity/Q20104229', 'http://www.wikidata.org/entity/Q20104233', 'http://www.wikidata.org/entity/Q20104238', 'http://www.wikidata.org/entity/Q20104248', 'http://www.wikidata.org/entity/Q20104252', 'http://www.wikidata.org/entity/Q20104262', 'http://www.wikidata.org/entity/Q20104265', 'http://www.wikidata.org/entity/Q20104268', 'http://www.wikidata.org/entity/Q20104407', 'http://www.wikidata.org/entity/Q20104434', 'http://www.wikidata.org/entity/Q20104445', 'http://www.wikidata.org/entity/Q20104469', 'http://www.wikidata.org/entity/Q20104474', 'http://www.wikidata.org/entity/Q20104482', 'http://www.wikidata.org/entity/Q20104506', 'http://www.wikidata.org/entity/Q20104613', 'http://www.wikidata.org/entity/Q20104655', 'http://www.wikidata.org/entity/Q20104667', 'http://www.wikidata.org/entity/Q20104876', 'http://www.wikidata.org/entity/Q20104915', 'http://www.wikidata.org/entity/Q20104956', 'http://www.wikidata.org/entity/Q20104964', 'http://www.wikidata.org/entity/Q20105027', 'http://www.wikidata.org/entity/Q20105033', 'http://www.wikidata.org/entity/Q20105353', 'http://www.wikidata.org/entity/Q20105877', 'http://www.wikidata.org/entity/Q20105975', 'http://www.wikidata.org/entity/Q20106073', 'http://www.wikidata.org/entity/Q20106203', 'http://www.wikidata.org/entity/Q20106415', 'http://www.wikidata.org/entity/Q20106420', 'http://www.wikidata.org/entity/Q20106424', 'http://www.wikidata.org/entity/Q20106425', 'http://www.wikidata.org/entity/Q20106430', 'http://www.wikidata.org/entity/Q20106433', 'http://www.wikidata.org/entity/Q20106438', 'http://www.wikidata.org/entity/Q20106436', 'http://www.wikidata.org/entity/Q20106450', 'http://www.wikidata.org/entity/Q20106481', 'http://www.wikidata.org/entity/Q20106518', 'http://www.wikidata.org/entity/Q20106650', 'http://www.wikidata.org/entity/Q20106652', 'http://www.wikidata.org/entity/Q23657184', 'http://www.wikidata.org/entity/Q45922130', 'http://www.wikidata.org/entity/Q57350935', 'http://www.wikidata.org/entity/Q57397044', 'http://www.wikidata.org/entity/Q92765434', 'http://www.wikidata.org/entity/Q103987830', 'http://www.wikidata.org/entity/Q104013369', 'http://www.wikidata.org/entity/Q115181793', 'http://www.wikidata.org/entity/Q116978631', 'http://www.wikidata.org/entity/Q126949840', 'http://www.wikidata.org/entity/Q12874', 'http://www.wikidata.org/entity/Q72900', 'http://www.wikidata.org/entity/Q131080', 'http://www.wikidata.org/entity/Q152395', 'http://www.wikidata.org/entity/Q152662', 'http://www.wikidata.org/entity/Q153043', 'http://www.wikidata.org/entity/Q154326', 'http://www.wikidata.org/entity/Q162691', 'http://www.wikidata.org/entity/Q183283', 'http://www.wikidata.org/entity/Q1866927', 'http://www.wikidata.org/entity/Q10405661', 'http://www.wikidata.org/entity/Q20106670', 'http://www.wikidata.org/entity/Q20106755', 'http://www.wikidata.org/entity/Q20106794', 'http://www.wikidata.org/entity/Q20107331', 'http://www.wikidata.org/entity/Q20107766', 'http://www.wikidata.org/entity/Q20107785', 'http://www.wikidata.org/entity/Q20108098', 'http://www.wikidata.org/entity/Q20108096', 'http://www.wikidata.org/entity/Q20108097', 'http://www.wikidata.org/entity/Q20108299', 'http://www.wikidata.org/entity/Q20108433', 'http://www.wikidata.org/entity/Q20108749', 'http://www.wikidata.org/entity/Q20108834', 'http://www.wikidata.org/entity/Q20109092', 'http://www.wikidata.org/entity/Q20109116', 'http://www.wikidata.org/entity/Q20724614', 'http://www.wikidata.org/entity/Q23199370', 'http://www.wikidata.org/entity/Q23309296', 'http://www.wikidata.org/entity/Q23309493', 'http://www.wikidata.org/entity/Q23309754', 'http://www.wikidata.org/entity/Q23310065', 'http://www.wikidata.org/entity/Q23449316', 'http://www.wikidata.org/entity/Q23449563', 'http://www.wikidata.org/entity/Q23452764', 'http://www.wikidata.org/entity/Q23455600', 'http://www.wikidata.org/entity/Q23459290', 'http://www.wikidata.org/entity/Q23459345', 'http://www.wikidata.org/entity/Q23500667', 'http://www.wikidata.org/entity/Q23540271', 'http://www.wikidata.org/entity/Q23540407', 'http://www.wikidata.org/entity/Q23540583', 'http://www.wikidata.org/entity/Q23540764', 'http://www.wikidata.org/entity/Q23541026', 'http://www.wikidata.org/entity/Q23541279', 'http://www.wikidata.org/entity/Q23541312', 'http://www.wikidata.org/entity/Q23640572', 'http://www.wikidata.org/entity/Q23641859', 'http://www.wikidata.org/entity/Q23641879', 'http://www.wikidata.org/entity/Q23641876', 'http://www.wikidata.org/entity/Q23641877', 'http://www.wikidata.org/entity/Q23647866', 'http://www.wikidata.org/entity/Q23650275', 'http://www.wikidata.org/entity/Q23650279', 'http://www.wikidata.org/entity/Q23657080', 'http://www.wikidata.org/entity/Q24940835', 'http://www.wikidata.org/entity/Q45919493', 'http://www.wikidata.org/entity/Q47196900', 'http://www.wikidata.org/entity/Q55223763', 'http://www.wikidata.org/entity/Q57316168', 'http://www.wikidata.org/entity/Q57396575', 'http://www.wikidata.org/entity/Q60849262', 'http://www.wikidata.org/entity/Q62059890', 'http://www.wikidata.org/entity/Q69305891', 'http://www.wikidata.org/entity/Q69307402', 'http://www.wikidata.org/entity/Q97190829', 'http://www.wikidata.org/entity/Q108183111', 'http://www.wikidata.org/entity/Q108404671', 'http://www.wikidata.org/entity/Q108923501', 'http://www.wikidata.org/entity/Q111649876', 'http://www.wikidata.org/entity/Q113325889', 'http://www.wikidata.org/entity/Q113458549', 'http://www.wikidata.org/entity/Q113458586', 'http://www.wikidata.org/entity/Q115220170', 'http://www.wikidata.org/entity/Q115680468', 'http://www.wikidata.org/entity/Q115918939', 'http://www.wikidata.org/entity/Q116553084', 'http://www.wikidata.org/entity/Q116620871', 'http://www.wikidata.org/entity/Q117211723', 'http://www.wikidata.org/entity/Q117211724', 'http://www.wikidata.org/entity/Q117211725', 'http://www.wikidata.org/entity/Q120403066', 'http://www.wikidata.org/entity/Q122339754', 'http://www.wikidata.org/entity/Q122340707', 'http://www.wikidata.org/entity/Q122340709', 'http://www.wikidata.org/entity/Q122340715', 'http://www.wikidata.org/entity/Q122340962', 'http://www.wikidata.org/entity/Q122340961', 'http://www.wikidata.org/entity/Q122340997', 'http://www.wikidata.org/entity/Q122341038', 'http://www.wikidata.org/entity/Q122378278', 'http://www.wikidata.org/entity/Q124259057', 'http://www.wikidata.org/entity/Q126510686', 'http://www.wikidata.org/entity/Q126695857', 'http://www.wikidata.org/entity/Q129262518', 'http://www.wikidata.org/entity/Q129263928', 'http://www.wikidata.org/entity/Q130465425', 'http://www.wikidata.org/entity/Q130611902', 'http://www.wikidata.org/entity/Q25032', 'http://www.wikidata.org/entity/Q26314', 'http://www.wikidata.org/entity/Q29278', 'http://www.wikidata.org/entity/Q188468', 'http://www.wikidata.org/entity/Q193027', 'http://www.wikidata.org/entity/Q207213', 'http://www.wikidata.org/entity/Q212829', 'http://www.wikidata.org/entity/Q216452', 'http://www.wikidata.org/entity/Q260881', 'http://www.wikidata.org/entity/Q309256', 'http://www.wikidata.org/entity/Q339689', 'http://www.wikidata.org/entity/Q381240', 'http://www.wikidata.org/entity/Q445955', 'http://www.wikidata.org/entity/Q460113', 'http://www.wikidata.org/entity/Q464458', 'http://www.wikidata.org/entity/Q474831', 'http://www.wikidata.org/entity/Q474853', 'http://www.wikidata.org/entity/Q475914', 'http://www.wikidata.org/entity/Q477741', 'http://www.wikidata.org/entity/Q514706', 'http://www.wikidata.org/entity/Q527006', 'http://www.wikidata.org/entity/Q574807', 'http://www.wikidata.org/entity/Q605458', 'http://www.wikidata.org/entity/Q614734', 'http://www.wikidata.org/entity/Q649128', 'http://www.wikidata.org/entity/Q671192', 'http://www.wikidata.org/entity/Q675181', 'http://www.wikidata.org/entity/Q685394', 'http://www.wikidata.org/entity/Q685602', 'http://www.wikidata.org/entity/Q691810', 'http://www.wikidata.org/entity/Q760225', 'http://www.wikidata.org/entity/Q788392', 'http://www.wikidata.org/entity/Q883628', 'http://www.wikidata.org/entity/Q928653', 'http://www.wikidata.org/entity/Q947100', 'http://www.wikidata.org/entity/Q959916', 'http://www.wikidata.org/entity/Q972803', 'http://www.wikidata.org/entity/Q1038328', 'http://www.wikidata.org/entity/Q1107928', 'http://www.wikidata.org/entity/Q1128065', 'http://www.wikidata.org/entity/Q1145922', 'http://www.wikidata.org/entity/Q1173073', 'http://www.wikidata.org/entity/Q1221069', 'http://www.wikidata.org/entity/Q1238731', 'http://www.wikidata.org/entity/Q1239437', 'http://www.wikidata.org/entity/Q1323616', 'http://www.wikidata.org/entity/Q1367629', 'http://www.wikidata.org/entity/Q1369701', 'http://www.wikidata.org/entity/Q1380471', 'http://www.wikidata.org/entity/Q1408533', 'http://www.wikidata.org/entity/Q1418137', 'http://www.wikidata.org/entity/Q1501703', 'http://www.wikidata.org/entity/Q1537037', 'http://www.wikidata.org/entity/Q1544847', 'http://www.wikidata.org/entity/Q1547788', 'http://www.wikidata.org/entity/Q1600879', 'http://www.wikidata.org/entity/Q1618905', 'http://www.wikidata.org/entity/Q1641521', 'http://www.wikidata.org/entity/Q1642232', 'http://www.wikidata.org/entity/Q1730891', 'http://www.wikidata.org/entity/Q1751963', 'http://www.wikidata.org/entity/Q1776288', 'http://www.wikidata.org/entity/Q1797519', 'http://www.wikidata.org/entity/Q1811302', 'http://www.wikidata.org/entity/Q1920049', 'http://www.wikidata.org/entity/Q1929272', 'http://www.wikidata.org/entity/Q1969313', 'http://www.wikidata.org/entity/Q2114954', 'http://www.wikidata.org/entity/Q2176622', 'http://www.wikidata.org/entity/Q2208208', 'http://www.wikidata.org/entity/Q2208328', 'http://www.wikidata.org/entity/Q2223165', 'http://www.wikidata.org/entity/Q2338650', 'http://www.wikidata.org/entity/Q2391718', 'http://www.wikidata.org/entity/Q2394624', 'http://www.wikidata.org/entity/Q2454744', 'http://www.wikidata.org/entity/Q2461213', 'http://www.wikidata.org/entity/Q2506218', 'http://www.wikidata.org/entity/Q2565716', 'http://www.wikidata.org/entity/Q2576064', 'http://www.wikidata.org/entity/Q2629762', 'http://www.wikidata.org/entity/Q2638602', 'http://www.wikidata.org/entity/Q2661455', 'http://www.wikidata.org/entity/Q2671446', 'http://www.wikidata.org/entity/Q2671645', 'http://www.wikidata.org/entity/Q2734385', 'http://www.wikidata.org/entity/Q2742233', 'http://www.wikidata.org/entity/Q2826519', 'http://www.wikidata.org/entity/Q2902548', 'http://www.wikidata.org/entity/Q2940731', 'http://www.wikidata.org/entity/Q3100758', 'http://www.wikidata.org/entity/Q3106381', 'http://www.wikidata.org/entity/Q3145002', 'http://www.wikidata.org/entity/Q3210273', 'http://www.wikidata.org/entity/Q3276499', 'http://www.wikidata.org/entity/Q3317559', 'http://www.wikidata.org/entity/Q3351929', 'http://www.wikidata.org/entity/Q3355023', 'http://www.wikidata.org/entity/Q3360406', 'http://www.wikidata.org/entity/Q3360565', 'http://www.wikidata.org/entity/Q3441599', 'http://www.wikidata.org/entity/Q3479082', 'http://www.wikidata.org/entity/Q3558603', 'http://www.wikidata.org/entity/Q3587649', 'http://www.wikidata.org/entity/Q3717878', 'http://www.wikidata.org/entity/Q3743886', 'http://www.wikidata.org/entity/Q3743957', 'http://www.wikidata.org/entity/Q3743962', 'http://www.wikidata.org/entity/Q3743963', 'http://www.wikidata.org/entity/Q3743970', 'http://www.wikidata.org/entity/Q3743969', 'http://www.wikidata.org/entity/Q3870479', 'http://www.wikidata.org/entity/Q4008673', 'http://www.wikidata.org/entity/Q4069073', 'http://www.wikidata.org/entity/Q4115762', 'http://www.wikidata.org/entity/Q4388007', 'http://www.wikidata.org/entity/Q4426058', 'http://www.wikidata.org/entity/Q4926335', 'http://www.wikidata.org/entity/Q4990671', 'http://www.wikidata.org/entity/Q5070885', 'http://www.wikidata.org/entity/Q5193138', 'http://www.wikidata.org/entity/Q5240972', 'http://www.wikidata.org/entity/Q5249824', 'http://www.wikidata.org/entity/Q5266410', 'http://www.wikidata.org/entity/Q5320307', 'http://www.wikidata.org/entity/Q5439541', 'http://www.wikidata.org/entity/Q5439549', 'http://www.wikidata.org/entity/Q5476020', 'http://www.wikidata.org/entity/Q5588583', 'http://www.wikidata.org/entity/Q5610840', 'http://www.wikidata.org/entity/Q5620353', 'http://www.wikidata.org/entity/Q5746722', 'http://www.wikidata.org/entity/Q5753239', 'http://www.wikidata.org/entity/Q5758552', 'http://www.wikidata.org/entity/Q5829324', 'http://www.wikidata.org/entity/Q5861378', 'http://www.wikidata.org/entity/Q5861764', 'http://www.wikidata.org/entity/Q5861873', 'http://www.wikidata.org/entity/Q5877770', 'http://www.wikidata.org/entity/Q5886922', 'http://www.wikidata.org/entity/Q5894800', 'http://www.wikidata.org/entity/Q5907204', 'http://www.wikidata.org/entity/Q5946371', 'http://www.wikidata.org/entity/Q6005322', 'http://www.wikidata.org/entity/Q6057512', 'http://www.wikidata.org/entity/Q6408072', 'http://www.wikidata.org/entity/Q6484291', 'http://www.wikidata.org/entity/Q6505620', 'http://www.wikidata.org/entity/Q7088502', 'http://www.wikidata.org/entity/Q7142743', 'http://www.wikidata.org/entity/Q7289735', 'http://www.wikidata.org/entity/Q7413171', 'http://www.wikidata.org/entity/Q7418539', 'http://www.wikidata.org/entity/Q7592831', 'http://www.wikidata.org/entity/Q7937378', 'http://www.wikidata.org/entity/Q9076605', 'http://www.wikidata.org/entity/Q10281749', 'http://www.wikidata.org/entity/Q10281783', 'http://www.wikidata.org/entity/Q10281780', 'http://www.wikidata.org/entity/Q10281787', 'http://www.wikidata.org/entity/Q10281793', 'http://www.wikidata.org/entity/Q10379695', 'http://www.wikidata.org/entity/Q10405623', 'http://www.wikidata.org/entity/Q10411424', 'http://www.wikidata.org/entity/Q10412386', 'http://www.wikidata.org/entity/Q11905207', 'http://www.wikidata.org/entity/Q11916249', 'http://www.wikidata.org/entity/Q11919652', 'http://www.wikidata.org/entity/Q11938257', 'http://www.wikidata.org/entity/Q11958442', 'http://www.wikidata.org/entity/Q11977920', 'http://www.wikidata.org/entity/Q12061483', 'http://www.wikidata.org/entity/Q12455865', 'http://www.wikidata.org/entity/Q12458939', 'http://www.wikidata.org/entity/Q12525597', 'http://www.wikidata.org/entity/Q12713841', 'http://www.wikidata.org/entity/Q12716026', 'http://www.wikidata.org/entity/Q12716746', 'http://www.wikidata.org/entity/Q12877855', 'http://www.wikidata.org/entity/Q12884515', 'http://www.wikidata.org/entity/Q13117015', 'http://www.wikidata.org/entity/Q13180810', 'http://www.wikidata.org/entity/Q13409860', 'http://www.wikidata.org/entity/Q15109140', 'http://www.wikidata.org/entity/Q15113728', 'http://www.wikidata.org/entity/Q15334955', 'http://www.wikidata.org/entity/Q15645154', 'http://www.wikidata.org/entity/Q15724459', 'http://www.wikidata.org/entity/Q15725511', 'http://www.wikidata.org/entity/Q15919013', 'http://www.wikidata.org/entity/Q15954764', 'http://www.wikidata.org/entity/Q16052134', 'http://www.wikidata.org/entity/Q16113327', 'http://www.wikidata.org/entity/Q16312282', 'http://www.wikidata.org/entity/Q16330747', 'http://www.wikidata.org/entity/Q16331414', 'http://www.wikidata.org/entity/Q16331743', 'http://www.wikidata.org/entity/Q16345168', 'http://www.wikidata.org/entity/Q16570179', 'http://www.wikidata.org/entity/Q16699028', 'http://www.wikidata.org/entity/Q16873812', 'http://www.wikidata.org/entity/Q16963574', 'http://www.wikidata.org/entity/Q17019244', 'http://www.wikidata.org/entity/Q17052906', 'http://www.wikidata.org/entity/Q17064941', 'http://www.wikidata.org/entity/Q17155801', 'http://www.wikidata.org/entity/Q17177239', 'http://www.wikidata.org/entity/Q17386635', 'http://www.wikidata.org/entity/Q17995343', 'http://www.wikidata.org/entity/Q18191653', 'http://www.wikidata.org/entity/Q18215312', 'http://www.wikidata.org/entity/Q18987298', 'http://www.wikidata.org/entity/Q19559318', 'http://www.wikidata.org/entity/Q19808956', 'http://www.wikidata.org/entity/Q19885976', 'http://www.wikidata.org/entity/Q20055687', 'http://www.wikidata.org/entity/Q20108063', 'http://www.wikidata.org/entity/Q20109142', 'http://www.wikidata.org/entity/Q20476964', 'http://www.wikidata.org/entity/Q20512338', 'http://www.wikidata.org/entity/Q20704257', 'http://www.wikidata.org/entity/Q20872650', 'http://www.wikidata.org/entity/Q21199140', 'http://www.wikidata.org/entity/Q21684190', 'http://www.wikidata.org/entity/Q24961004', 'http://www.wikidata.org/entity/Q25253494', 'http://www.wikidata.org/entity/Q25509550', 'http://www.wikidata.org/entity/Q25535657', 'http://www.wikidata.org/entity/Q25587296', 'http://www.wikidata.org/entity/Q25644141', 'http://www.wikidata.org/entity/Q27881732', 'http://www.wikidata.org/entity/Q28136810', 'http://www.wikidata.org/entity/Q28807713', 'http://www.wikidata.org/entity/Q30675075', 'http://www.wikidata.org/entity/Q31896070', 'http://www.wikidata.org/entity/Q31896093', 'http://www.wikidata.org/entity/Q35585621', 'http://www.wikidata.org/entity/Q39086559', 'http://www.wikidata.org/entity/Q43252544', 'http://www.wikidata.org/entity/Q46441681', 'http://www.wikidata.org/entity/Q50360872', 'http://www.wikidata.org/entity/Q51028723', 'http://www.wikidata.org/entity/Q55037361', 'http://www.wikidata.org/entity/Q57159832', 'http://www.wikidata.org/entity/Q60643381', 'http://www.wikidata.org/entity/Q61354730', 'http://www.wikidata.org/entity/Q65170894', 'http://www.wikidata.org/entity/Q65347908', 'http://www.wikidata.org/entity/Q65679763', 'http://www.wikidata.org/entity/Q66315418', 'http://www.wikidata.org/entity/Q66315644', 'http://www.wikidata.org/entity/Q80791307', 'http://www.wikidata.org/entity/Q84430787', 'http://www.wikidata.org/entity/Q85769095', 'http://www.wikidata.org/entity/Q86726012', 'http://www.wikidata.org/entity/Q87936485', 'http://www.wikidata.org/entity/Q88000458', 'http://www.wikidata.org/entity/Q97357901', 'http://www.wikidata.org/entity/Q98396967', 'http://www.wikidata.org/entity/Q99600910', 'http://www.wikidata.org/entity/Q105888686', 'http://www.wikidata.org/entity/Q106113886', 'http://www.wikidata.org/entity/Q106658464', 'http://www.wikidata.org/entity/Q106658575', 'http://www.wikidata.org/entity/Q106658749', 'http://www.wikidata.org/entity/Q106658879', 'http://www.wikidata.org/entity/Q106659060', 'http://www.wikidata.org/entity/Q106663543', 'http://www.wikidata.org/entity/Q106663566', 'http://www.wikidata.org/entity/Q106663587', 'http://www.wikidata.org/entity/Q106663613', 'http://www.wikidata.org/entity/Q106663745', 'http://www.wikidata.org/entity/Q106663779', 'http://www.wikidata.org/entity/Q106663799', 'http://www.wikidata.org/entity/Q106664025', 'http://www.wikidata.org/entity/Q106664072', 'http://www.wikidata.org/entity/Q106664114', 'http://www.wikidata.org/entity/Q106698317', 'http://www.wikidata.org/entity/Q106810895', 'http://www.wikidata.org/entity/Q107296290', 'http://www.wikidata.org/entity/Q107718805', 'http://www.wikidata.org/entity/Q108131396', 'http://www.wikidata.org/entity/Q108177441', 'http://www.wikidata.org/entity/Q108338128', 'http://www.wikidata.org/entity/Q108367189', 'http://www.wikidata.org/entity/Q108447771', 'http://www.wikidata.org/entity/Q108581891', 'http://www.wikidata.org/entity/Q108803791', 'http://www.wikidata.org/entity/Q109310919', 'http://www.wikidata.org/entity/Q109311258', 'http://www.wikidata.org/entity/Q109311824', 'http://www.wikidata.org/entity/Q109381834', 'http://www.wikidata.org/entity/Q109500716', 'http://www.wikidata.org/entity/Q110413817', 'http://www.wikidata.org/entity/Q111242836', 'http://www.wikidata.org/entity/Q111242852', 'http://www.wikidata.org/entity/Q111333928', 'http://www.wikidata.org/entity/Q111633412', 'http://www.wikidata.org/entity/Q111738315', 'http://www.wikidata.org/entity/Q111738564', 'http://www.wikidata.org/entity/Q112045555', 'http://www.wikidata.org/entity/Q112059989', 'http://www.wikidata.org/entity/Q112127159', 'http://www.wikidata.org/entity/Q113470512', 'http://www.wikidata.org/entity/Q113680656', 'http://www.wikidata.org/entity/Q113841626', 'http://www.wikidata.org/entity/Q115641515', 'http://www.wikidata.org/entity/Q115708271', 'http://www.wikidata.org/entity/Q115912757', 'http://www.wikidata.org/entity/Q116943093', 'http://www.wikidata.org/entity/Q118193088', 'http://www.wikidata.org/entity/Q118842681', 'http://www.wikidata.org/entity/Q118849459', 'http://www.wikidata.org/entity/Q118906846', 'http://www.wikidata.org/entity/Q119820703', 'http://www.wikidata.org/entity/Q120475049', 'http://www.wikidata.org/entity/Q121301290', 'http://www.wikidata.org/entity/Q121969419', 'http://www.wikidata.org/entity/Q122416451', 'http://www.wikidata.org/entity/Q123009913', 'http://www.wikidata.org/entity/Q123269099', 'http://www.wikidata.org/entity/Q123298117', 'http://www.wikidata.org/entity/Q123516644', 'http://www.wikidata.org/entity/Q124100025', 'http://www.wikidata.org/entity/Q124248554', 'http://www.wikidata.org/entity/Q124328397', 'http://www.wikidata.org/entity/Q125636448', 'http://www.wikidata.org/entity/Q125859572', 'http://www.wikidata.org/entity/Q126811008', 'http://www.wikidata.org/entity/Q127297656', 'http://www.wikidata.org/entity/Q128861458', 'http://www.wikidata.org/entity/Q129261891', 'http://www.wikidata.org/entity/Q129876847', 'http://www.wikidata.org/entity/Q129876851', 'http://www.wikidata.org/entity/Q129876849', 'http://www.wikidata.org/entity/Q129876855', 'http://www.wikidata.org/entity/Q129876853', 'http://www.wikidata.org/entity/Q129876857', 'http://www.wikidata.org/entity/Q130237270', 'http://www.wikidata.org/entity/Q130237271', 'http://www.wikidata.org/entity/Q130237269', 'http://www.wikidata.org/entity/Q130237274', 'http://www.wikidata.org/entity/Q130237272', 'http://www.wikidata.org/entity/Q130237273', 'http://www.wikidata.org/entity/Q130237278', 'http://www.wikidata.org/entity/Q130237279', 'http://www.wikidata.org/entity/Q130237276', 'http://www.wikidata.org/entity/Q130237277', 'http://www.wikidata.org/entity/Q130237282', 'http://www.wikidata.org/entity/Q130237283', 'http://www.wikidata.org/entity/Q130237280', 'http://www.wikidata.org/entity/Q130237281', 'http://www.wikidata.org/entity/Q130237286', 'http://www.wikidata.org/entity/Q130237287', 'http://www.wikidata.org/entity/Q130237284', 'http://www.wikidata.org/entity/Q130237285', 'http://www.wikidata.org/entity/Q130237290', 'http://www.wikidata.org/entity/Q130237291', 'http://www.wikidata.org/entity/Q130237288', 'http://www.wikidata.org/entity/Q130237289', 'http://www.wikidata.org/entity/Q130237294', 'http://www.wikidata.org/entity/Q130237295', 'http://www.wikidata.org/entity/Q130237292', 'http://www.wikidata.org/entity/Q130237293', 'http://www.wikidata.org/entity/Q130237298', 'http://www.wikidata.org/entity/Q130237299', 'http://www.wikidata.org/entity/Q130237296', 'http://www.wikidata.org/entity/Q130237297', 'http://www.wikidata.org/entity/Q130237302', 'http://www.wikidata.org/entity/Q130237303', 'http://www.wikidata.org/entity/Q130237300', 'http://www.wikidata.org/entity/Q130237301', 'http://www.wikidata.org/entity/Q130237306', 'http://www.wikidata.org/entity/Q130237307', 'http://www.wikidata.org/entity/Q130237304', 'http://www.wikidata.org/entity/Q130237305', 'http://www.wikidata.org/entity/Q130237310', 'http://www.wikidata.org/entity/Q130237311', 'http://www.wikidata.org/entity/Q130237308', 'http://www.wikidata.org/entity/Q130237309', 'http://www.wikidata.org/entity/Q130237314', 'http://www.wikidata.org/entity/Q130237315', 'http://www.wikidata.org/entity/Q130237312', 'http://www.wikidata.org/entity/Q130237318', 'http://www.wikidata.org/entity/Q130237319', 'http://www.wikidata.org/entity/Q130237316', 'http://www.wikidata.org/entity/Q130237317', 'http://www.wikidata.org/entity/Q130237322', 'http://www.wikidata.org/entity/Q130237323', 'http://www.wikidata.org/entity/Q130237320', 'http://www.wikidata.org/entity/Q130237321', 'http://www.wikidata.org/entity/Q130237326', 'http://www.wikidata.org/entity/Q130237327', 'http://www.wikidata.org/entity/Q130237324', 'http://www.wikidata.org/entity/Q130237325', 'http://www.wikidata.org/entity/Q130237330', 'http://www.wikidata.org/entity/Q130237331', 'http://www.wikidata.org/entity/Q130237328', 'http://www.wikidata.org/entity/Q130237329', 'http://www.wikidata.org/entity/Q130237334', 'http://www.wikidata.org/entity/Q130237335', 'http://www.wikidata.org/entity/Q130237332', 'http://www.wikidata.org/entity/Q130237333', 'http://www.wikidata.org/entity/Q130237338', 'http://www.wikidata.org/entity/Q130237339', 'http://www.wikidata.org/entity/Q130237336', 'http://www.wikidata.org/entity/Q130237337', 'http://www.wikidata.org/entity/Q130237342', 'http://www.wikidata.org/entity/Q130237343', 'http://www.wikidata.org/entity/Q130237340', 'http://www.wikidata.org/entity/Q130237341', 'http://www.wikidata.org/entity/Q130237346', 'http://www.wikidata.org/entity/Q130237347', 'http://www.wikidata.org/entity/Q130237344', 'http://www.wikidata.org/entity/Q130237345', 'http://www.wikidata.org/entity/Q130237350', 'http://www.wikidata.org/entity/Q130237351', 'http://www.wikidata.org/entity/Q130237348', 'http://www.wikidata.org/entity/Q130237349', 'http://www.wikidata.org/entity/Q130237354', 'http://www.wikidata.org/entity/Q130237355', 'http://www.wikidata.org/entity/Q130237353', 'http://www.wikidata.org/entity/Q130237358', 'http://www.wikidata.org/entity/Q130237359', 'http://www.wikidata.org/entity/Q130237356', 'http://www.wikidata.org/entity/Q130237357', 'http://www.wikidata.org/entity/Q130237362', 'http://www.wikidata.org/entity/Q130237363', 'http://www.wikidata.org/entity/Q130237360', 'http://www.wikidata.org/entity/Q130237361', 'http://www.wikidata.org/entity/Q130237366', 'http://www.wikidata.org/entity/Q130237367', 'http://www.wikidata.org/entity/Q130237364', 'http://www.wikidata.org/entity/Q130237365', 'http://www.wikidata.org/entity/Q130237370', 'http://www.wikidata.org/entity/Q130237371', 'http://www.wikidata.org/entity/Q130237368', 'http://www.wikidata.org/entity/Q130237369', 'http://www.wikidata.org/entity/Q130237374', 'http://www.wikidata.org/entity/Q130237375', 'http://www.wikidata.org/entity/Q130237372', 'http://www.wikidata.org/entity/Q130237373', 'http://www.wikidata.org/entity/Q130237378', 'http://www.wikidata.org/entity/Q130237379', 'http://www.wikidata.org/entity/Q130237376', 'http://www.wikidata.org/entity/Q130237377', 'http://www.wikidata.org/entity/Q130237382', 'http://www.wikidata.org/entity/Q130237383', 'http://www.wikidata.org/entity/Q130237380', 'http://www.wikidata.org/entity/Q130237381', 'http://www.wikidata.org/entity/Q130237386', 'http://www.wikidata.org/entity/Q130237387', 'http://www.wikidata.org/entity/Q130237384', 'http://www.wikidata.org/entity/Q130237385', 'http://www.wikidata.org/entity/Q130237390', 'http://www.wikidata.org/entity/Q130237391', 'http://www.wikidata.org/entity/Q130237388', 'http://www.wikidata.org/entity/Q130237389', 'http://www.wikidata.org/entity/Q130237394', 'http://www.wikidata.org/entity/Q130237395', 'http://www.wikidata.org/entity/Q130237392', 'http://www.wikidata.org/entity/Q130237393', 'http://www.wikidata.org/entity/Q130237398', 'http://www.wikidata.org/entity/Q130237399', 'http://www.wikidata.org/entity/Q130237396', 'http://www.wikidata.org/entity/Q130237397', 'http://www.wikidata.org/entity/Q130237402', 'http://www.wikidata.org/entity/Q130237403', 'http://www.wikidata.org/entity/Q130237400', 'http://www.wikidata.org/entity/Q130237406', 'http://www.wikidata.org/entity/Q130237407', 'http://www.wikidata.org/entity/Q130237404', 'http://www.wikidata.org/entity/Q130237405', 'http://www.wikidata.org/entity/Q130237410', 'http://www.wikidata.org/entity/Q130237411', 'http://www.wikidata.org/entity/Q130237408', 'http://www.wikidata.org/entity/Q130237409', 'http://www.wikidata.org/entity/Q130237414', 'http://www.wikidata.org/entity/Q130237415', 'http://www.wikidata.org/entity/Q130237412', 'http://www.wikidata.org/entity/Q130237413', 'http://www.wikidata.org/entity/Q130237419', 'http://www.wikidata.org/entity/Q130237416', 'http://www.wikidata.org/entity/Q130237417', 'http://www.wikidata.org/entity/Q130237422', 'http://www.wikidata.org/entity/Q130237423', 'http://www.wikidata.org/entity/Q130237420', 'http://www.wikidata.org/entity/Q130237421', 'http://www.wikidata.org/entity/Q130237426', 'http://www.wikidata.org/entity/Q130237427', 'http://www.wikidata.org/entity/Q130237424', 'http://www.wikidata.org/entity/Q130237425', 'http://www.wikidata.org/entity/Q130237430', 'http://www.wikidata.org/entity/Q130237431', 'http://www.wikidata.org/entity/Q130237428', 'http://www.wikidata.org/entity/Q130237429', 'http://www.wikidata.org/entity/Q130237434', 'http://www.wikidata.org/entity/Q130237435', 'http://www.wikidata.org/entity/Q130237432', 'http://www.wikidata.org/entity/Q130237433', 'http://www.wikidata.org/entity/Q130237438', 'http://www.wikidata.org/entity/Q130237436', 'http://www.wikidata.org/entity/Q130237437', 'http://www.wikidata.org/entity/Q130237439', 'http://www.wikidata.org/entity/Q130237442', 'http://www.wikidata.org/entity/Q130237443', 'http://www.wikidata.org/entity/Q130237440', 'http://www.wikidata.org/entity/Q130237441', 'http://www.wikidata.org/entity/Q130237446', 'http://www.wikidata.org/entity/Q130237447', 'http://www.wikidata.org/entity/Q130237444', 'http://www.wikidata.org/entity/Q130237445', 'http://www.wikidata.org/entity/Q130237450', 'http://www.wikidata.org/entity/Q130237451', 'http://www.wikidata.org/entity/Q130237448', 'http://www.wikidata.org/entity/Q130237449', 'http://www.wikidata.org/entity/Q130237454', 'http://www.wikidata.org/entity/Q130237455', 'http://www.wikidata.org/entity/Q130237452', 'http://www.wikidata.org/entity/Q130237453', 'http://www.wikidata.org/entity/Q130237458', 'http://www.wikidata.org/entity/Q130237459', 'http://www.wikidata.org/entity/Q130237456', 'http://www.wikidata.org/entity/Q130237457', 'http://www.wikidata.org/entity/Q130237462', 'http://www.wikidata.org/entity/Q130237463', 'http://www.wikidata.org/entity/Q130237460', 'http://www.wikidata.org/entity/Q130237461', 'http://www.wikidata.org/entity/Q130237466', 'http://www.wikidata.org/entity/Q130237467', 'http://www.wikidata.org/entity/Q130237464', 'http://www.wikidata.org/entity/Q130237465', 'http://www.wikidata.org/entity/Q130237471', 'http://www.wikidata.org/entity/Q130237468', 'http://www.wikidata.org/entity/Q130237469', 'http://www.wikidata.org/entity/Q130237474', 'http://www.wikidata.org/entity/Q130237475', 'http://www.wikidata.org/entity/Q130237472', 'http://www.wikidata.org/entity/Q130237473', 'http://www.wikidata.org/entity/Q130237478', 'http://www.wikidata.org/entity/Q130237479', 'http://www.wikidata.org/entity/Q130237476', 'http://www.wikidata.org/entity/Q130237477', 'http://www.wikidata.org/entity/Q130237482', 'http://www.wikidata.org/entity/Q130237480', 'http://www.wikidata.org/entity/Q130</t>
+          <t>['http://www.wikidata.org/entity/Q829919', 'http://www.wikidata.org/entity/Q1145630', 'http://www.wikidata.org/entity/Q1236370', 'http://www.wikidata.org/entity/Q2058236', 'http://www.wikidata.org/entity/Q2176621', 'http://www.wikidata.org/entity/Q3055633', 'http://www.wikidata.org/entity/Q3092911', 'http://www.wikidata.org/entity/Q3092909', 'http://www.wikidata.org/entity/Q3092917', 'http://www.wikidata.org/entity/Q3092925', 'http://www.wikidata.org/entity/Q3187040', 'http://www.wikidata.org/entity/Q3743920', 'http://www.wikidata.org/entity/Q3743972', 'http://www.wikidata.org/entity/Q3743990', 'http://www.wikidata.org/entity/Q5447345', 'http://www.wikidata.org/entity/Q5550345', 'http://www.wikidata.org/entity/Q5660198', 'http://www.wikidata.org/entity/Q5860860', 'http://www.wikidata.org/entity/Q5861663', 'http://www.wikidata.org/entity/Q5861795', 'http://www.wikidata.org/entity/Q5861825', 'http://www.wikidata.org/entity/Q8961595', 'http://www.wikidata.org/entity/Q11921892', 'http://www.wikidata.org/entity/Q11921893', 'http://www.wikidata.org/entity/Q11921915', 'http://www.wikidata.org/entity/Q11921926', 'http://www.wikidata.org/entity/Q11921927', 'http://www.wikidata.org/entity/Q12388488', 'http://www.wikidata.org/entity/Q12864986', 'http://www.wikidata.org/entity/Q13581075', 'http://www.wikidata.org/entity/Q16303295', 'http://www.wikidata.org/entity/Q16303298', 'http://www.wikidata.org/entity/Q17301586', 'http://www.wikidata.org/entity/Q17630412', 'http://www.wikidata.org/entity/Q18696203', 'http://www.wikidata.org/entity/Q19917524', 'http://www.wikidata.org/entity/Q20015055', 'http://www.wikidata.org/entity/Q20100567', 'http://www.wikidata.org/entity/Q20102845', 'http://www.wikidata.org/entity/Q20102966', 'http://www.wikidata.org/entity/Q20103063', 'http://www.wikidata.org/entity/Q20103076', 'http://www.wikidata.org/entity/Q20103348', 'http://www.wikidata.org/entity/Q20103509', 'http://www.wikidata.org/entity/Q20103662', 'http://www.wikidata.org/entity/Q20103856', 'http://www.wikidata.org/entity/Q20103945', 'http://www.wikidata.org/entity/Q20104229', 'http://www.wikidata.org/entity/Q20104233', 'http://www.wikidata.org/entity/Q20104238', 'http://www.wikidata.org/entity/Q20104248', 'http://www.wikidata.org/entity/Q20104252', 'http://www.wikidata.org/entity/Q20104262', 'http://www.wikidata.org/entity/Q20104265', 'http://www.wikidata.org/entity/Q20104268', 'http://www.wikidata.org/entity/Q20104407', 'http://www.wikidata.org/entity/Q20104434', 'http://www.wikidata.org/entity/Q20104445', 'http://www.wikidata.org/entity/Q20104469', 'http://www.wikidata.org/entity/Q20104474', 'http://www.wikidata.org/entity/Q20104482', 'http://www.wikidata.org/entity/Q20104506', 'http://www.wikidata.org/entity/Q20104613', 'http://www.wikidata.org/entity/Q20104655', 'http://www.wikidata.org/entity/Q20104667', 'http://www.wikidata.org/entity/Q20104876', 'http://www.wikidata.org/entity/Q20104915', 'http://www.wikidata.org/entity/Q20104956', 'http://www.wikidata.org/entity/Q20104964', 'http://www.wikidata.org/entity/Q20105027', 'http://www.wikidata.org/entity/Q20105033', 'http://www.wikidata.org/entity/Q20105353', 'http://www.wikidata.org/entity/Q20105877', 'http://www.wikidata.org/entity/Q20105975', 'http://www.wikidata.org/entity/Q20106073', 'http://www.wikidata.org/entity/Q20106203', 'http://www.wikidata.org/entity/Q20106415', 'http://www.wikidata.org/entity/Q20106420', 'http://www.wikidata.org/entity/Q20106424', 'http://www.wikidata.org/entity/Q20106425', 'http://www.wikidata.org/entity/Q20106430', 'http://www.wikidata.org/entity/Q20106433', 'http://www.wikidata.org/entity/Q20106438', 'http://www.wikidata.org/entity/Q20106436', 'http://www.wikidata.org/entity/Q20106450', 'http://www.wikidata.org/entity/Q20106481', 'http://www.wikidata.org/entity/Q20106518', 'http://www.wikidata.org/entity/Q20106650', 'http://www.wikidata.org/entity/Q20106652', 'http://www.wikidata.org/entity/Q23657184', 'http://www.wikidata.org/entity/Q45922130', 'http://www.wikidata.org/entity/Q57350935', 'http://www.wikidata.org/entity/Q57397044', 'http://www.wikidata.org/entity/Q92765434', 'http://www.wikidata.org/entity/Q103987830', 'http://www.wikidata.org/entity/Q104013369', 'http://www.wikidata.org/entity/Q115181793', 'http://www.wikidata.org/entity/Q116978631', 'http://www.wikidata.org/entity/Q126949840', 'http://www.wikidata.org/entity/Q12874', 'http://www.wikidata.org/entity/Q72900', 'http://www.wikidata.org/entity/Q131080', 'http://www.wikidata.org/entity/Q152395', 'http://www.wikidata.org/entity/Q152662', 'http://www.wikidata.org/entity/Q152771', 'http://www.wikidata.org/entity/Q153043', 'http://www.wikidata.org/entity/Q154326', 'http://www.wikidata.org/entity/Q1866927', 'http://www.wikidata.org/entity/Q10405661', 'http://www.wikidata.org/entity/Q20106670', 'http://www.wikidata.org/entity/Q20106755', 'http://www.wikidata.org/entity/Q20106794', 'http://www.wikidata.org/entity/Q20107331', 'http://www.wikidata.org/entity/Q20107766', 'http://www.wikidata.org/entity/Q20107785', 'http://www.wikidata.org/entity/Q20108098', 'http://www.wikidata.org/entity/Q20108096', 'http://www.wikidata.org/entity/Q20108097', 'http://www.wikidata.org/entity/Q20108299', 'http://www.wikidata.org/entity/Q20108433', 'http://www.wikidata.org/entity/Q20108749', 'http://www.wikidata.org/entity/Q20108834', 'http://www.wikidata.org/entity/Q20109092', 'http://www.wikidata.org/entity/Q20109116', 'http://www.wikidata.org/entity/Q20724614', 'http://www.wikidata.org/entity/Q23199370', 'http://www.wikidata.org/entity/Q23309296', 'http://www.wikidata.org/entity/Q23309493', 'http://www.wikidata.org/entity/Q23309754', 'http://www.wikidata.org/entity/Q23310065', 'http://www.wikidata.org/entity/Q23449316', 'http://www.wikidata.org/entity/Q23449563', 'http://www.wikidata.org/entity/Q23452764', 'http://www.wikidata.org/entity/Q23455600', 'http://www.wikidata.org/entity/Q23459290', 'http://www.wikidata.org/entity/Q23459345', 'http://www.wikidata.org/entity/Q23500667', 'http://www.wikidata.org/entity/Q23540271', 'http://www.wikidata.org/entity/Q23540407', 'http://www.wikidata.org/entity/Q23540583', 'http://www.wikidata.org/entity/Q23540764', 'http://www.wikidata.org/entity/Q23541026', 'http://www.wikidata.org/entity/Q23541279', 'http://www.wikidata.org/entity/Q23541312', 'http://www.wikidata.org/entity/Q23640572', 'http://www.wikidata.org/entity/Q23641859', 'http://www.wikidata.org/entity/Q23641879', 'http://www.wikidata.org/entity/Q23641876', 'http://www.wikidata.org/entity/Q23641877', 'http://www.wikidata.org/entity/Q23647866', 'http://www.wikidata.org/entity/Q23650275', 'http://www.wikidata.org/entity/Q23650279', 'http://www.wikidata.org/entity/Q23657080', 'http://www.wikidata.org/entity/Q24940835', 'http://www.wikidata.org/entity/Q45919493', 'http://www.wikidata.org/entity/Q47196900', 'http://www.wikidata.org/entity/Q55223763', 'http://www.wikidata.org/entity/Q57316168', 'http://www.wikidata.org/entity/Q57396575', 'http://www.wikidata.org/entity/Q60849262', 'http://www.wikidata.org/entity/Q62059890', 'http://www.wikidata.org/entity/Q69305891', 'http://www.wikidata.org/entity/Q69307402', 'http://www.wikidata.org/entity/Q97190829', 'http://www.wikidata.org/entity/Q108183111', 'http://www.wikidata.org/entity/Q108404671', 'http://www.wikidata.org/entity/Q108923501', 'http://www.wikidata.org/entity/Q111649876', 'http://www.wikidata.org/entity/Q113325889', 'http://www.wikidata.org/entity/Q113458549', 'http://www.wikidata.org/entity/Q113458586', 'http://www.wikidata.org/entity/Q115220170', 'http://www.wikidata.org/entity/Q115680468', 'http://www.wikidata.org/entity/Q115918939', 'http://www.wikidata.org/entity/Q116553084', 'http://www.wikidata.org/entity/Q116620871', 'http://www.wikidata.org/entity/Q117211723', 'http://www.wikidata.org/entity/Q117211724', 'http://www.wikidata.org/entity/Q117211725', 'http://www.wikidata.org/entity/Q120403066', 'http://www.wikidata.org/entity/Q122339754', 'http://www.wikidata.org/entity/Q122340707', 'http://www.wikidata.org/entity/Q122340709', 'http://www.wikidata.org/entity/Q122340715', 'http://www.wikidata.org/entity/Q122340962', 'http://www.wikidata.org/entity/Q122340961', 'http://www.wikidata.org/entity/Q122340997', 'http://www.wikidata.org/entity/Q122341038', 'http://www.wikidata.org/entity/Q122378278', 'http://www.wikidata.org/entity/Q124259057', 'http://www.wikidata.org/entity/Q126510686', 'http://www.wikidata.org/entity/Q126695857', 'http://www.wikidata.org/entity/Q129262518', 'http://www.wikidata.org/entity/Q129263928', 'http://www.wikidata.org/entity/Q130465425', 'http://www.wikidata.org/entity/Q130611902', 'http://www.wikidata.org/entity/Q131825649', 'http://www.wikidata.org/entity/Q25032', 'http://www.wikidata.org/entity/Q26314', 'http://www.wikidata.org/entity/Q29278', 'http://www.wikidata.org/entity/Q162691', 'http://www.wikidata.org/entity/Q183283', 'http://www.wikidata.org/entity/Q188468', 'http://www.wikidata.org/entity/Q193027', 'http://www.wikidata.org/entity/Q207213', 'http://www.wikidata.org/entity/Q212829', 'http://www.wikidata.org/entity/Q216452', 'http://www.wikidata.org/entity/Q260881', 'http://www.wikidata.org/entity/Q309256', 'http://www.wikidata.org/entity/Q339689', 'http://www.wikidata.org/entity/Q381240', 'http://www.wikidata.org/entity/Q445955', 'http://www.wikidata.org/entity/Q460113', 'http://www.wikidata.org/entity/Q464458', 'http://www.wikidata.org/entity/Q474831', 'http://www.wikidata.org/entity/Q474853', 'http://www.wikidata.org/entity/Q475914', 'http://www.wikidata.org/entity/Q477741', 'http://www.wikidata.org/entity/Q514706', 'http://www.wikidata.org/entity/Q527006', 'http://www.wikidata.org/entity/Q574807', 'http://www.wikidata.org/entity/Q605458', 'http://www.wikidata.org/entity/Q614734', 'http://www.wikidata.org/entity/Q649128', 'http://www.wikidata.org/entity/Q671192', 'http://www.wikidata.org/entity/Q675181', 'http://www.wikidata.org/entity/Q685394', 'http://www.wikidata.org/entity/Q685602', 'http://www.wikidata.org/entity/Q691810', 'http://www.wikidata.org/entity/Q760225', 'http://www.wikidata.org/entity/Q788392', 'http://www.wikidata.org/entity/Q883628', 'http://www.wikidata.org/entity/Q928653', 'http://www.wikidata.org/entity/Q947100', 'http://www.wikidata.org/entity/Q959916', 'http://www.wikidata.org/entity/Q972803', 'http://www.wikidata.org/entity/Q1038328', 'http://www.wikidata.org/entity/Q1107928', 'http://www.wikidata.org/entity/Q1128065', 'http://www.wikidata.org/entity/Q1145922', 'http://www.wikidata.org/entity/Q1173073', 'http://www.wikidata.org/entity/Q1221069', 'http://www.wikidata.org/entity/Q1238731', 'http://www.wikidata.org/entity/Q1239437', 'http://www.wikidata.org/entity/Q1323616', 'http://www.wikidata.org/entity/Q1367629', 'http://www.wikidata.org/entity/Q1369701', 'http://www.wikidata.org/entity/Q1380471', 'http://www.wikidata.org/entity/Q1408533', 'http://www.wikidata.org/entity/Q1418137', 'http://www.wikidata.org/entity/Q1501703', 'http://www.wikidata.org/entity/Q1537037', 'http://www.wikidata.org/entity/Q1544847', 'http://www.wikidata.org/entity/Q1547788', 'http://www.wikidata.org/entity/Q1595338', 'http://www.wikidata.org/entity/Q1600879', 'http://www.wikidata.org/entity/Q1618905', 'http://www.wikidata.org/entity/Q1641521', 'http://www.wikidata.org/entity/Q1642232', 'http://www.wikidata.org/entity/Q1730891', 'http://www.wikidata.org/entity/Q1751963', 'http://www.wikidata.org/entity/Q1776288', 'http://www.wikidata.org/entity/Q1797519', 'http://www.wikidata.org/entity/Q1811302', 'http://www.wikidata.org/entity/Q1920049', 'http://www.wikidata.org/entity/Q1929272', 'http://www.wikidata.org/entity/Q1969313', 'http://www.wikidata.org/entity/Q2114954', 'http://www.wikidata.org/entity/Q2176622', 'http://www.wikidata.org/entity/Q2208208', 'http://www.wikidata.org/entity/Q2208328', 'http://www.wikidata.org/entity/Q2223165', 'http://www.wikidata.org/entity/Q2338650', 'http://www.wikidata.org/entity/Q2391718', 'http://www.wikidata.org/entity/Q2394624', 'http://www.wikidata.org/entity/Q2454744', 'http://www.wikidata.org/entity/Q2461213', 'http://www.wikidata.org/entity/Q2506218', 'http://www.wikidata.org/entity/Q2565716', 'http://www.wikidata.org/entity/Q2576064', 'http://www.wikidata.org/entity/Q2629762', 'http://www.wikidata.org/entity/Q2638602', 'http://www.wikidata.org/entity/Q2661455', 'http://www.wikidata.org/entity/Q2671446', 'http://www.wikidata.org/entity/Q2671645', 'http://www.wikidata.org/entity/Q2734385', 'http://www.wikidata.org/entity/Q2742233', 'http://www.wikidata.org/entity/Q2826519', 'http://www.wikidata.org/entity/Q2902548', 'http://www.wikidata.org/entity/Q2940731', 'http://www.wikidata.org/entity/Q3100758', 'http://www.wikidata.org/entity/Q3106381', 'http://www.wikidata.org/entity/Q3145002', 'http://www.wikidata.org/entity/Q3210273', 'http://www.wikidata.org/entity/Q3276499', 'http://www.wikidata.org/entity/Q3317559', 'http://www.wikidata.org/entity/Q3351929', 'http://www.wikidata.org/entity/Q3355023', 'http://www.wikidata.org/entity/Q3360406', 'http://www.wikidata.org/entity/Q3360565', 'http://www.wikidata.org/entity/Q3441599', 'http://www.wikidata.org/entity/Q3479082', 'http://www.wikidata.org/entity/Q3558603', 'http://www.wikidata.org/entity/Q3587649', 'http://www.wikidata.org/entity/Q3717878', 'http://www.wikidata.org/entity/Q3743886', 'http://www.wikidata.org/entity/Q3743957', 'http://www.wikidata.org/entity/Q3743962', 'http://www.wikidata.org/entity/Q3743963', 'http://www.wikidata.org/entity/Q3743970', 'http://www.wikidata.org/entity/Q3743969', 'http://www.wikidata.org/entity/Q3870479', 'http://www.wikidata.org/entity/Q4008673', 'http://www.wikidata.org/entity/Q4069073', 'http://www.wikidata.org/entity/Q4115762', 'http://www.wikidata.org/entity/Q4388007', 'http://www.wikidata.org/entity/Q4426058', 'http://www.wikidata.org/entity/Q4926335', 'http://www.wikidata.org/entity/Q4990671', 'http://www.wikidata.org/entity/Q5070885', 'http://www.wikidata.org/entity/Q5193138', 'http://www.wikidata.org/entity/Q5240972', 'http://www.wikidata.org/entity/Q5249824', 'http://www.wikidata.org/entity/Q5266410', 'http://www.wikidata.org/entity/Q5288819', 'http://www.wikidata.org/entity/Q5320307', 'http://www.wikidata.org/entity/Q5439541', 'http://www.wikidata.org/entity/Q5439549', 'http://www.wikidata.org/entity/Q5476020', 'http://www.wikidata.org/entity/Q5588583', 'http://www.wikidata.org/entity/Q5610840', 'http://www.wikidata.org/entity/Q5620353', 'http://www.wikidata.org/entity/Q5746722', 'http://www.wikidata.org/entity/Q5753239', 'http://www.wikidata.org/entity/Q5758552', 'http://www.wikidata.org/entity/Q5829324', 'http://www.wikidata.org/entity/Q5861378', 'http://www.wikidata.org/entity/Q5861764', 'http://www.wikidata.org/entity/Q5861873', 'http://www.wikidata.org/entity/Q5877770', 'http://www.wikidata.org/entity/Q5886922', 'http://www.wikidata.org/entity/Q5894800', 'http://www.wikidata.org/entity/Q5907204', 'http://www.wikidata.org/entity/Q5946371', 'http://www.wikidata.org/entity/Q6005322', 'http://www.wikidata.org/entity/Q6057512', 'http://www.wikidata.org/entity/Q6408072', 'http://www.wikidata.org/entity/Q6484291', 'http://www.wikidata.org/entity/Q6505620', 'http://www.wikidata.org/entity/Q7088502', 'http://www.wikidata.org/entity/Q7142743', 'http://www.wikidata.org/entity/Q7289735', 'http://www.wikidata.org/entity/Q7413171', 'http://www.wikidata.org/entity/Q7418539', 'http://www.wikidata.org/entity/Q7592831', 'http://www.wikidata.org/entity/Q7937378', 'http://www.wikidata.org/entity/Q9076605', 'http://www.wikidata.org/entity/Q10281749', 'http://www.wikidata.org/entity/Q10281783', 'http://www.wikidata.org/entity/Q10281780', 'http://www.wikidata.org/entity/Q10281787', 'http://www.wikidata.org/entity/Q10281793', 'http://www.wikidata.org/entity/Q10379695', 'http://www.wikidata.org/entity/Q10405623', 'http://www.wikidata.org/entity/Q10411424', 'http://www.wikidata.org/entity/Q10412386', 'http://www.wikidata.org/entity/Q11905207', 'http://www.wikidata.org/entity/Q11916249', 'http://www.wikidata.org/entity/Q11919652', 'http://www.wikidata.org/entity/Q11938257', 'http://www.wikidata.org/entity/Q11958442', 'http://www.wikidata.org/entity/Q11977920', 'http://www.wikidata.org/entity/Q12061483', 'http://www.wikidata.org/entity/Q12455865', 'http://www.wikidata.org/entity/Q12458939', 'http://www.wikidata.org/entity/Q12525597', 'http://www.wikidata.org/entity/Q12713841', 'http://www.wikidata.org/entity/Q12716026', 'http://www.wikidata.org/entity/Q12877855', 'http://www.wikidata.org/entity/Q12884515', 'http://www.wikidata.org/entity/Q13117015', 'http://www.wikidata.org/entity/Q13180810', 'http://www.wikidata.org/entity/Q13409860', 'http://www.wikidata.org/entity/Q15109140', 'http://www.wikidata.org/entity/Q15113728', 'http://www.wikidata.org/entity/Q15334955', 'http://www.wikidata.org/entity/Q15645154', 'http://www.wikidata.org/entity/Q15724459', 'http://www.wikidata.org/entity/Q15725511', 'http://www.wikidata.org/entity/Q15919013', 'http://www.wikidata.org/entity/Q15954764', 'http://www.wikidata.org/entity/Q16052134', 'http://www.wikidata.org/entity/Q16113327', 'http://www.wikidata.org/entity/Q16312282', 'http://www.wikidata.org/entity/Q16330747', 'http://www.wikidata.org/entity/Q16331414', 'http://www.wikidata.org/entity/Q16331743', 'http://www.wikidata.org/entity/Q16345168', 'http://www.wikidata.org/entity/Q16570179', 'http://www.wikidata.org/entity/Q16699028', 'http://www.wikidata.org/entity/Q16873812', 'http://www.wikidata.org/entity/Q16963574', 'http://www.wikidata.org/entity/Q17019244', 'http://www.wikidata.org/entity/Q17052906', 'http://www.wikidata.org/entity/Q17064941', 'http://www.wikidata.org/entity/Q17155801', 'http://www.wikidata.org/entity/Q17177239', 'http://www.wikidata.org/entity/Q17386635', 'http://www.wikidata.org/entity/Q17995343', 'http://www.wikidata.org/entity/Q18191653', 'http://www.wikidata.org/entity/Q18215312', 'http://www.wikidata.org/entity/Q18987298', 'http://www.wikidata.org/entity/Q19559318', 'http://www.wikidata.org/entity/Q19808956', 'http://www.wikidata.org/entity/Q19885976', 'http://www.wikidata.org/entity/Q20055687', 'http://www.wikidata.org/entity/Q20108063', 'http://www.wikidata.org/entity/Q20109142', 'http://www.wikidata.org/entity/Q20476964', 'http://www.wikidata.org/entity/Q20512338', 'http://www.wikidata.org/entity/Q20704257', 'http://www.wikidata.org/entity/Q20872650', 'http://www.wikidata.org/entity/Q21199140', 'http://www.wikidata.org/entity/Q21684190', 'http://www.wikidata.org/entity/Q24961004', 'http://www.wikidata.org/entity/Q25253494', 'http://www.wikidata.org/entity/Q25509550', 'http://www.wikidata.org/entity/Q25535657', 'http://www.wikidata.org/entity/Q25587296', 'http://www.wikidata.org/entity/Q25644141', 'http://www.wikidata.org/entity/Q27881732', 'http://www.wikidata.org/entity/Q28136810', 'http://www.wikidata.org/entity/Q28807713', 'http://www.wikidata.org/entity/Q30675075', 'http://www.wikidata.org/entity/Q31896070', 'http://www.wikidata.org/entity/Q31896093', 'http://www.wikidata.org/entity/Q35585621', 'http://www.wikidata.org/entity/Q39086559', 'http://www.wikidata.org/entity/Q43252544', 'http://www.wikidata.org/entity/Q46441681', 'http://www.wikidata.org/entity/Q50360872', 'http://www.wikidata.org/entity/Q51028723', 'http://www.wikidata.org/entity/Q55037361', 'http://www.wikidata.org/entity/Q57159832', 'http://www.wikidata.org/entity/Q60643381', 'http://www.wikidata.org/entity/Q61354730', 'http://www.wikidata.org/entity/Q65170894', 'http://www.wikidata.org/entity/Q65275195', 'http://www.wikidata.org/entity/Q65347908', 'http://www.wikidata.org/entity/Q65679763', 'http://www.wikidata.org/entity/Q66315418', 'http://www.wikidata.org/entity/Q66315644', 'http://www.wikidata.org/entity/Q80791307', 'http://www.wikidata.org/entity/Q84430787', 'http://www.wikidata.org/entity/Q85769095', 'http://www.wikidata.org/entity/Q86726012', 'http://www.wikidata.org/entity/Q87936485', 'http://www.wikidata.org/entity/Q88000458', 'http://www.wikidata.org/entity/Q97357901', 'http://www.wikidata.org/entity/Q98396967', 'http://www.wikidata.org/entity/Q99600910', 'http://www.wikidata.org/entity/Q105888686', 'http://www.wikidata.org/entity/Q106113886', 'http://www.wikidata.org/entity/Q106658464', 'http://www.wikidata.org/entity/Q106658575', 'http://www.wikidata.org/entity/Q106658749', 'http://www.wikidata.org/entity/Q106658879', 'http://www.wikidata.org/entity/Q106659060', 'http://www.wikidata.org/entity/Q106663543', 'http://www.wikidata.org/entity/Q106663566', 'http://www.wikidata.org/entity/Q106663587', 'http://www.wikidata.org/entity/Q106663613', 'http://www.wikidata.org/entity/Q106663745', 'http://www.wikidata.org/entity/Q106663779', 'http://www.wikidata.org/entity/Q106663799', 'http://www.wikidata.org/entity/Q106664025', 'http://www.wikidata.org/entity/Q106664072', 'http://www.wikidata.org/entity/Q106664114', 'http://www.wikidata.org/entity/Q106698317', 'http://www.wikidata.org/entity/Q106810895', 'http://www.wikidata.org/entity/Q107296290', 'http://www.wikidata.org/entity/Q107718805', 'http://www.wikidata.org/entity/Q108131396', 'http://www.wikidata.org/entity/Q108177441', 'http://www.wikidata.org/entity/Q108338128', 'http://www.wikidata.org/entity/Q108367189', 'http://www.wikidata.org/entity/Q108447771', 'http://www.wikidata.org/entity/Q108581891', 'http://www.wikidata.org/entity/Q108803791', 'http://www.wikidata.org/entity/Q109310919', 'http://www.wikidata.org/entity/Q109311258', 'http://www.wikidata.org/entity/Q109311824', 'http://www.wikidata.org/entity/Q109381834', 'http://www.wikidata.org/entity/Q109500716', 'http://www.wikidata.org/entity/Q110413817', 'http://www.wikidata.org/entity/Q111242836', 'http://www.wikidata.org/entity/Q111242852', 'http://www.wikidata.org/entity/Q111333928', 'http://www.wikidata.org/entity/Q111633412', 'http://www.wikidata.org/entity/Q111738315', 'http://www.wikidata.org/entity/Q111738564', 'http://www.wikidata.org/entity/Q112045555', 'http://www.wikidata.org/entity/Q112059989', 'http://www.wikidata.org/entity/Q112127159', 'http://www.wikidata.org/entity/Q113470512', 'http://www.wikidata.org/entity/Q113680656', 'http://www.wikidata.org/entity/Q113841626', 'http://www.wikidata.org/entity/Q115641515', 'http://www.wikidata.org/entity/Q115708271', 'http://www.wikidata.org/entity/Q115912757', 'http://www.wikidata.org/entity/Q116943093', 'http://www.wikidata.org/entity/Q118193088', 'http://www.wikidata.org/entity/Q118842681', 'http://www.wikidata.org/entity/Q118849459', 'http://www.wikidata.org/entity/Q118906846', 'http://www.wikidata.org/entity/Q119820703', 'http://www.wikidata.org/entity/Q120475049', 'http://www.wikidata.org/entity/Q121301290', 'http://www.wikidata.org/entity/Q121969419', 'http://www.wikidata.org/entity/Q122416451', 'http://www.wikidata.org/entity/Q123009913', 'http://www.wikidata.org/entity/Q123269099', 'http://www.wikidata.org/entity/Q123298117', 'http://www.wikidata.org/entity/Q123516644', 'http://www.wikidata.org/entity/Q124100025', 'http://www.wikidata.org/entity/Q124248554', 'http://www.wikidata.org/entity/Q124328397', 'http://www.wikidata.org/entity/Q125636448', 'http://www.wikidata.org/entity/Q125859572', 'http://www.wikidata.org/entity/Q126811008', 'http://www.wikidata.org/entity/Q127297656', 'http://www.wikidata.org/entity/Q128861458', 'http://www.wikidata.org/entity/Q129261891', 'http://www.wikidata.org/entity/Q129876847', 'http://www.wikidata.org/entity/Q129876851', 'http://www.wikidata.org/entity/Q129876849', 'http://www.wikidata.org/entity/Q129876855', 'http://www.wikidata.org/entity/Q129876853', 'http://www.wikidata.org/entity/Q129876857', 'http://www.wikidata.org/entity/Q130237270', 'http://www.wikidata.org/entity/Q130237271', 'http://www.wikidata.org/entity/Q130237269', 'http://www.wikidata.org/entity/Q130237274', 'http://www.wikidata.org/entity/Q130237272', 'http://www.wikidata.org/entity/Q130237273', 'http://www.wikidata.org/entity/Q130237278', 'http://www.wikidata.org/entity/Q130237279', 'http://www.wikidata.org/entity/Q130237276', 'http://www.wikidata.org/entity/Q130237277', 'http://www.wikidata.org/entity/Q130237282', 'http://www.wikidata.org/entity/Q130237283', 'http://www.wikidata.org/entity/Q130237280', 'http://www.wikidata.org/entity/Q130237281', 'http://www.wikidata.org/entity/Q130237286', 'http://www.wikidata.org/entity/Q130237287', 'http://www.wikidata.org/entity/Q130237284', 'http://www.wikidata.org/entity/Q130237285', 'http://www.wikidata.org/entity/Q130237290', 'http://www.wikidata.org/entity/Q130237291', 'http://www.wikidata.org/entity/Q130237288', 'http://www.wikidata.org/entity/Q130237289', 'http://www.wikidata.org/entity/Q130237294', 'http://www.wikidata.org/entity/Q130237295', 'http://www.wikidata.org/entity/Q130237292', 'http://www.wikidata.org/entity/Q130237293', 'http://www.wikidata.org/entity/Q130237298', 'http://www.wikidata.org/entity/Q130237299', 'http://www.wikidata.org/entity/Q130237296', 'http://www.wikidata.org/entity/Q130237297', 'http://www.wikidata.org/entity/Q130237302', 'http://www.wikidata.org/entity/Q130237303', 'http://www.wikidata.org/entity/Q130237300', 'http://www.wikidata.org/entity/Q130237301', 'http://www.wikidata.org/entity/Q130237306', 'http://www.wikidata.org/entity/Q130237307', 'http://www.wikidata.org/entity/Q130237304', 'http://www.wikidata.org/entity/Q130237305', 'http://www.wikidata.org/entity/Q130237310', 'http://www.wikidata.org/entity/Q130237311', 'http://www.wikidata.org/entity/Q130237308', 'http://www.wikidata.org/entity/Q130237309', 'http://www.wikidata.org/entity/Q130237314', 'http://www.wikidata.org/entity/Q130237315', 'http://www.wikidata.org/entity/Q130237312', 'http://www.wikidata.org/entity/Q130237318', 'http://www.wikidata.org/entity/Q130237319', 'http://www.wikidata.org/entity/Q130237316', 'http://www.wikidata.org/entity/Q130237317', 'http://www.wikidata.org/entity/Q130237322', 'http://www.wikidata.org/entity/Q130237323', 'http://www.wikidata.org/entity/Q130237320', 'http://www.wikidata.org/entity/Q130237321', 'http://www.wikidata.org/entity/Q130237326', 'http://www.wikidata.org/entity/Q130237327', 'http://www.wikidata.org/entity/Q130237324', 'http://www.wikidata.org/entity/Q130237325', 'http://www.wikidata.org/entity/Q130237330', 'http://www.wikidata.org/entity/Q130237331', 'http://www.wikidata.org/entity/Q130237328', 'http://www.wikidata.org/entity/Q130237329', 'http://www.wikidata.org/entity/Q130237334', 'http://www.wikidata.org/entity/Q130237335', 'http://www.wikidata.org/entity/Q130237332', 'http://www.wikidata.org/entity/Q130237333', 'http://www.wikidata.org/entity/Q130237338', 'http://www.wikidata.org/entity/Q130237339', 'http://www.wikidata.org/entity/Q130237336', 'http://www.wikidata.org/entity/Q130237337', 'http://www.wikidata.org/entity/Q130237342', 'http://www.wikidata.org/entity/Q130237343', 'http://www.wikidata.org/entity/Q130237340', 'http://www.wikidata.org/entity/Q130237341', 'http://www.wikidata.org/entity/Q130237346', 'http://www.wikidata.org/entity/Q130237347', 'http://www.wikidata.org/entity/Q130237344', 'http://www.wikidata.org/entity/Q130237345', 'http://www.wikidata.org/entity/Q130237350', 'http://www.wikidata.org/entity/Q130237351', 'http://www.wikidata.org/entity/Q130237348', 'http://www.wikidata.org/entity/Q130237349', 'http://www.wikidata.org/entity/Q130237354', 'http://www.wikidata.org/entity/Q130237355', 'http://www.wikidata.org/entity/Q130237353', 'http://www.wikidata.org/entity/Q130237358', 'http://www.wikidata.org/entity/Q130237359', 'http://www.wikidata.org/entity/Q130237356', 'http://www.wikidata.org/entity/Q130237357', 'http://www.wikidata.org/entity/Q130237362', 'http://www.wikidata.org/entity/Q130237363', 'http://www.wikidata.org/entity/Q130237360', 'http://www.wikidata.org/entity/Q130237361', 'http://www.wikidata.org/entity/Q130237366', 'http://www.wikidata.org/entity/Q130237367', 'http://www.wikidata.org/entity/Q130237364', 'http://www.wikidata.org/entity/Q130237365', 'http://www.wikidata.org/entity/Q130237370', 'http://www.wikidata.org/entity/Q130237371', 'http://www.wikidata.org/entity/Q130237368', 'http://www.wikidata.org/entity/Q130237369', 'http://www.wikidata.org/entity/Q130237374', 'http://www.wikidata.org/entity/Q130237375', 'http://www.wikidata.org/entity/Q130237372', 'http://www.wikidata.org/entity/Q130237373', 'http://www.wikidata.org/entity/Q130237378', 'http://www.wikidata.org/entity/Q130237379', 'http://www.wikidata.org/entity/Q130237376', 'http://www.wikidata.org/entity/Q130237377', 'http://www.wikidata.org/entity/Q130237382', 'http://www.wikidata.org/entity/Q130237383', 'http://www.wikidata.org/entity/Q130237380', 'http://www.wikidata.org/entity/Q130237381', 'http://www.wikidata.org/entity/Q130237386', 'http://www.wikidata.org/entity/Q130237387', 'http://www.wikidata.org/entity/Q130237384', 'http://www.wikidata.org/entity/Q130237385', 'http://www.wikidata.org/entity/Q130237390', 'http://www.wikidata.org/entity/Q130237391', 'http://www.wikidata.org/entity/Q130237388', 'http://www.wikidata.org/entity/Q130237389', 'http://www.wikidata.org/entity/Q130237394', 'http://www.wikidata.org/entity/Q130237395', 'http://www.wikidata.org/entity/Q130237392', 'http://www.wikidata.org/entity/Q130237393', 'http://www.wikidata.org/entity/Q130237398', 'http://www.wikidata.org/entity/Q130237399', 'http://www.wikidata.org/entity/Q130237396', 'http://www.wikidata.org/entity/Q130237397', 'http://www.wikidata.org/entity/Q130237402', 'http://www.wikidata.org/entity/Q130237403', 'http://www.wikidata.org/entity/Q130237400', 'http://www.wikidata.org/entity/Q130237406', 'http://www.wikidata.org/entity/Q130237407', 'http://www.wikidata.org/entity/Q130237404', 'http://www.wikidata.org/entity/Q130237405', 'http://www.wikidata.org/entity/Q130237410', 'http://www.wikidata.org/entity/Q130237411', 'http://www.wikidata.org/entity/Q130237408', 'http://www.wikidata.org/entity/Q130237409', 'http://www.wikidata.org/entity/Q130237414', 'http://www.wikidata.org/entity/Q130237415', 'http://www.wikidata.org/entity/Q130237412', 'http://www.wikidata.org/entity/Q130237413', 'http://www.wikidata.org/entity/Q130237419', 'http://www.wikidata.org/entity/Q130237416', 'http://www.wikidata.org/entity/Q130237417', 'http://www.wikidata.org/entity/Q130237422', 'http://www.wikidata.org/entity/Q130237423', 'http://www.wikidata.org/entity/Q130237420', 'http://www.wikidata.org/entity/Q130237421', 'http://www.wikidata.org/entity/Q130237426', 'http://www.wikidata.org/entity/Q130237427', 'http://www.wikidata.org/entity/Q130237424', 'http://www.wikidata.org/entity/Q130237425', 'http://www.wikidata.org/entity/Q130237430', 'http://www.wikidata.org/entity/Q130237431', 'http://www.wikidata.org/entity/Q130237428', 'http://www.wikidata.org/entity/Q130237429', 'http://www.wikidata.org/entity/Q130237434', 'http://www.wikidata.org/entity/Q130237432', 'http://www.wikidata.org/entity/Q130237433', 'http://www.wikidata.org/entity/Q130237435', 'http://www.wikidata.org/entity/Q130237438', 'http://www.wikidata.org/entity/Q130237439', 'http://www.wikidata.org/entity/Q130237436', 'http://www.wikidata.org/entity/Q130237437', 'http://www.wikidata.org/entity/Q130237442', 'http://www.wikidata.org/entity/Q130237443', 'http://www.wikidata.org/entity/Q130237440', 'http://www.wikidata.org/entity/Q130237441', 'http://www.wikidata.org/entity/Q130237446', 'http://www.wikidata.org/entity/Q130237447', 'http://www.wikidata.org/entity/Q130237444', 'http://www.wikidata.org/entity/Q130237445', 'http://www.wikidata.org/entity/Q130237450', 'http://www.wikidata.org/entity/Q130237451', 'http://www.wikidata.org/entity/Q130237448', 'http://www.wikidata.org/entity/Q130237449', 'http://www.wikidata.org/entity/Q130237454', 'http://www.wikidata.org/entity/Q130237455', 'http://www.wikidata.org/entity/Q130237452', 'http://www.wikidata.org/entity/Q130237453', 'http://www.wikidata.org/entity/Q130237458', 'http://www.wikidata.org/entity/Q130237459', 'http://www.wikidata.org/entity/Q130237456', 'http://www.wikidata.org/entity/Q130237457', 'http://www.wikidata.org/entity/Q130237462', 'http://www.wikidata.org/entity/Q130237463', 'http://www.wikidata.org/entity/Q130237460', 'http://www.wikidata.org/entity/Q130237461', 'http://www.wikidata.org/entity/Q130237466', 'http://www.wikidata.org/entity/Q130237467', 'http://www.wikidata.org/entity/Q130237464', 'http://www.wikidata.org/entity/Q130237465', 'http://www.wikidata.org/entity/Q130237471', 'http://www.wikidata.org/entity/Q130237468', 'http://www.wikidata.org/entity/Q130237469', 'http://www.wikidata.org/entity/Q130237474', 'http://www.wikidata.org/entity/Q130237475', 'http://www.wikidata.org/entity/Q130237472', 'http://www.wikidata.org/entity/Q130237473', 'http://www.wikidata.org/entity/Q130237478', 'http://www.wikidata.org/entity/Q130237479', 'http://www.wikidata.org/entity/Q130237476'</t>
         </is>
       </c>
     </row>
@@ -3422,7 +3422,7 @@
       </c>
       <c r="D136" t="inlineStr">
         <is>
-          <t>['http://www.wikidata.org/entity/Q38780', 'http://www.wikidata.org/entity/Q40987', 'http://www.wikidata.org/entity/Q779276', 'http://www.wikidata.org/entity/Q743558', 'http://www.wikidata.org/entity/Q390551', 'http://www.wikidata.org/entity/Q868064', 'http://www.wikidata.org/entity/Q1497199', 'http://www.wikidata.org/entity/Q1518675', 'http://www.wikidata.org/entity/Q1753371', 'http://www.wikidata.org/entity/Q1550978', 'http://www.wikidata.org/entity/Q1798984', 'http://www.wikidata.org/entity/Q1835136', 'http://www.wikidata.org/entity/Q1667850', 'http://www.wikidata.org/entity/Q2297057', 'http://www.wikidata.org/entity/Q2856219', 'http://www.wikidata.org/entity/Q2480264', 'http://www.wikidata.org/entity/Q2868033', 'http://www.wikidata.org/entity/Q2563491', 'http://www.wikidata.org/entity/Q2373849', 'http://www.wikidata.org/entity/Q2397021', 'http://www.wikidata.org/entity/Q3229238', 'http://www.wikidata.org/entity/Q3235357', 'http://www.wikidata.org/entity/Q3240566', 'http://www.wikidata.org/entity/Q2687768', 'http://www.wikidata.org/entity/Q2695127', 'http://www.wikidata.org/entity/Q2980258', 'http://www.wikidata.org/entity/Q2980763', 'http://www.wikidata.org/entity/Q3117838', 'http://www.wikidata.org/entity/Q3137971', 'http://www.wikidata.org/entity/Q3152053', 'http://www.wikidata.org/entity/Q3526017', 'http://www.wikidata.org/entity/Q3216134', 'http://www.wikidata.org/entity/Q3826613', 'http://www.wikidata.org/entity/Q3912910', 'http://www.wikidata.org/entity/Q4097524', 'http://www.wikidata.org/entity/Q4097540', 'http://www.wikidata.org/entity/Q4101915', 'http://www.wikidata.org/entity/Q4123106', 'http://www.wikidata.org/entity/Q4127430', 'http://www.wikidata.org/entity/Q4196594', 'http://www.wikidata.org/entity/Q4810259', 'http://www.wikidata.org/entity/Q4835849', 'http://www.wikidata.org/entity/Q4331401', 'http://www.wikidata.org/entity/Q4378138', 'http://www.wikidata.org/entity/Q5160299', 'http://www.wikidata.org/entity/Q4969549', 'http://www.wikidata.org/entity/Q4969840', 'http://www.wikidata.org/entity/Q5324452', 'http://www.wikidata.org/entity/Q5053279', 'http://www.wikidata.org/entity/Q5378329', 'http://www.wikidata.org/entity/Q6020255', 'http://www.wikidata.org/entity/Q5086837', 'http://www.wikidata.org/entity/Q5086860', 'http://www.wikidata.org/entity/Q6049414', 'http://www.wikidata.org/entity/Q6050420', 'http://www.wikidata.org/entity/Q5469109', 'http://www.wikidata.org/entity/Q6970679', 'http://www.wikidata.org/entity/Q6970717', 'http://www.wikidata.org/entity/Q6509102', 'http://www.wikidata.org/entity/Q6088773', 'http://www.wikidata.org/entity/Q6648366', 'http://www.wikidata.org/entity/Q6290556', 'http://www.wikidata.org/entity/Q7226008', 'http://www.wikidata.org/entity/Q6765863', 'http://www.wikidata.org/entity/Q7280729', 'http://www.wikidata.org/entity/Q7720229', 'http://www.wikidata.org/entity/Q7728286', 'http://www.wikidata.org/entity/Q7295789', 'http://www.wikidata.org/entity/Q7374816', 'http://www.wikidata.org/entity/Q7984297', 'http://www.wikidata.org/entity/Q9634983', 'http://www.wikidata.org/entity/Q8059214', 'http://www.wikidata.org/entity/Q7923567', 'http://www.wikidata.org/entity/Q11992316', 'http://www.wikidata.org/entity/Q9384274', 'http://www.wikidata.org/entity/Q12322701', 'http://www.wikidata.org/entity/Q12323632', 'http://www.wikidata.org/entity/Q12161663', 'http://www.wikidata.org/entity/Q12836444', 'http://www.wikidata.org/entity/Q15008049', 'http://www.wikidata.org/entity/Q16923319', 'http://www.wikidata.org/entity/Q12546202', 'http://www.wikidata.org/entity/Q17002262', 'http://www.wikidata.org/entity/Q17014230', 'http://www.wikidata.org/entity/Q17019166', 'http://www.wikidata.org/entity/Q17155641', 'http://www.wikidata.org/entity/Q17075668', 'http://www.wikidata.org/entity/Q18690809', 'http://www.wikidata.org/entity/Q19321899', 'http://www.wikidata.org/entity/Q18165176', 'http://www.wikidata.org/entity/Q16237738', 'http://www.wikidata.org/entity/Q19383979', 'http://www.wikidata.org/entity/Q21714941', 'http://www.wikidata.org/entity/Q19872018', 'http://www.wikidata.org/entity/Q26836304', 'http://www.wikidata.org/entity/Q30261747', 'http://www.wikidata.org/entity/Q30261954', 'http://www.wikidata.org/entity/Q30272133', 'http://www.wikidata.org/entity/Q30272232', 'http://www.wikidata.org/entity/Q30272892', 'http://www.wikidata.org/entity/Q30283139', 'http://www.wikidata.org/entity/Q28790962', 'http://www.wikidata.org/entity/Q30257292', 'http://www.wikidata.org/entity/Q47403407', 'http://www.wikidata.org/entity/Q45021709', 'http://www.wikidata.org/entity/Q50412069', 'http://www.wikidata.org/entity/Q49426851', 'http://www.wikidata.org/entity/Q55026590', 'http://www.wikidata.org/entity/Q55753840', 'http://www.wikidata.org/entity/Q60058029', 'http://www.wikidata.org/entity/Q62061915', 'http://www.wikidata.org/entity/Q63966836', 'http://www.wikidata.org/entity/Q65269843', 'http://www.wikidata.org/entity/Q65557599', 'http://www.wikidata.org/entity/Q59200802', 'http://www.wikidata.org/entity/Q92099949', 'http://www.wikidata.org/entity/Q99980618', 'http://www.wikidata.org/entity/Q104668093', 'http://www.wikidata.org/entity/Q105011008', 'http://www.wikidata.org/entity/Q105017043', 'http://www.wikidata.org/entity/Q105024637', 'http://www.wikidata.org/entity/Q108097989', 'http://www.wikidata.org/entity/Q108097994', 'http://www.wikidata.org/entity/Q108097997', 'http://www.wikidata.org/entity/Q108557830', 'http://www.wikidata.org/entity/Q109331637', 'http://www.wikidata.org/entity/Q109355570', 'http://www.wikidata.org/entity/Q107937604', 'http://www.wikidata.org/entity/Q110755097', 'http://www.wikidata.org/entity/Q111669218', 'http://www.wikidata.org/entity/Q110157845', 'http://www.wikidata.org/entity/Q111692189', 'http://www.wikidata.org/entity/Q111944791', 'http://www.wikidata.org/entity/Q112197502', 'http://www.wikidata.org/entity/Q112203387', 'http://www.wikidata.org/entity/Q112203417', 'http://www.wikidata.org/entity/Q113645496', 'http://www.wikidata.org/entity/Q116003738', 'http://www.wikidata.org/entity/Q118227880', 'http://www.wikidata.org/entity/Q121288135', 'http://www.wikidata.org/entity/Q123490282', 'http://www.wikidata.org/entity/Q123490290', 'http://www.wikidata.org/entity/Q123490395', 'http://www.wikidata.org/entity/Q123489691', 'http://www.wikidata.org/entity/Q123489855', 'http://www.wikidata.org/entity/Q123489939', 'http://www.wikidata.org/entity/Q123491835', 'http://www.wikidata.org/entity/Q123492104', 'http://www.wikidata.org/entity/Q124257727', 'http://www.wikidata.org/entity/Q125122859', 'http://www.wikidata.org/entity/Q125577325', 'http://www.wikidata.org/entity/Q125754060', 'http://www.wikidata.org/entity/Q126688833', 'http://www.wikidata.org/entity/Q128735557', 'http://www.wikidata.org/entity/Q131320255', 'http://www.wikidata.org/entity/Q131320342']</t>
+          <t>['http://www.wikidata.org/entity/Q38780', 'http://www.wikidata.org/entity/Q40987', 'http://www.wikidata.org/entity/Q743558', 'http://www.wikidata.org/entity/Q390551', 'http://www.wikidata.org/entity/Q1497199', 'http://www.wikidata.org/entity/Q779276', 'http://www.wikidata.org/entity/Q1798984', 'http://www.wikidata.org/entity/Q1518675', 'http://www.wikidata.org/entity/Q1835136', 'http://www.wikidata.org/entity/Q577902', 'http://www.wikidata.org/entity/Q868064', 'http://www.wikidata.org/entity/Q873007', 'http://www.wikidata.org/entity/Q1550978', 'http://www.wikidata.org/entity/Q2563491', 'http://www.wikidata.org/entity/Q2868033', 'http://www.wikidata.org/entity/Q1667850', 'http://www.wikidata.org/entity/Q2120171', 'http://www.wikidata.org/entity/Q2687768', 'http://www.wikidata.org/entity/Q2695127', 'http://www.wikidata.org/entity/Q2297057', 'http://www.wikidata.org/entity/Q2304878', 'http://www.wikidata.org/entity/Q1753371', 'http://www.wikidata.org/entity/Q2373849', 'http://www.wikidata.org/entity/Q3117838', 'http://www.wikidata.org/entity/Q2397021', 'http://www.wikidata.org/entity/Q2856219', 'http://www.wikidata.org/entity/Q2980258', 'http://www.wikidata.org/entity/Q2980763', 'http://www.wikidata.org/entity/Q3137971', 'http://www.wikidata.org/entity/Q3152053', 'http://www.wikidata.org/entity/Q3605980', 'http://www.wikidata.org/entity/Q3626575', 'http://www.wikidata.org/entity/Q3526017', 'http://www.wikidata.org/entity/Q3216134', 'http://www.wikidata.org/entity/Q4331401', 'http://www.wikidata.org/entity/Q3229238', 'http://www.wikidata.org/entity/Q3235357', 'http://www.wikidata.org/entity/Q3240566', 'http://www.wikidata.org/entity/Q4378138', 'http://www.wikidata.org/entity/Q3826613', 'http://www.wikidata.org/entity/Q3912910', 'http://www.wikidata.org/entity/Q4969549', 'http://www.wikidata.org/entity/Q4097524', 'http://www.wikidata.org/entity/Q4097540', 'http://www.wikidata.org/entity/Q4101915', 'http://www.wikidata.org/entity/Q4123106', 'http://www.wikidata.org/entity/Q4127430', 'http://www.wikidata.org/entity/Q4969840', 'http://www.wikidata.org/entity/Q4196594', 'http://www.wikidata.org/entity/Q4810259', 'http://www.wikidata.org/entity/Q4835849', 'http://www.wikidata.org/entity/Q5086837', 'http://www.wikidata.org/entity/Q5086860', 'http://www.wikidata.org/entity/Q5053279', 'http://www.wikidata.org/entity/Q5469109', 'http://www.wikidata.org/entity/Q5324452', 'http://www.wikidata.org/entity/Q5160299', 'http://www.wikidata.org/entity/Q6088773', 'http://www.wikidata.org/entity/Q5378329', 'http://www.wikidata.org/entity/Q6290556', 'http://www.wikidata.org/entity/Q6020255', 'http://www.wikidata.org/entity/Q6765863', 'http://www.wikidata.org/entity/Q6049414', 'http://www.wikidata.org/entity/Q6050420', 'http://www.wikidata.org/entity/Q6509102', 'http://www.wikidata.org/entity/Q7280729', 'http://www.wikidata.org/entity/Q7295789', 'http://www.wikidata.org/entity/Q6970679', 'http://www.wikidata.org/entity/Q6970717', 'http://www.wikidata.org/entity/Q6648366', 'http://www.wikidata.org/entity/Q7374816', 'http://www.wikidata.org/entity/Q7226008', 'http://www.wikidata.org/entity/Q9141597', 'http://www.wikidata.org/entity/Q7720229', 'http://www.wikidata.org/entity/Q7728286', 'http://www.wikidata.org/entity/Q7923567', 'http://www.wikidata.org/entity/Q7984297', 'http://www.wikidata.org/entity/Q9384274', 'http://www.wikidata.org/entity/Q9634983', 'http://www.wikidata.org/entity/Q8059214', 'http://www.wikidata.org/entity/Q12322701', 'http://www.wikidata.org/entity/Q12323632', 'http://www.wikidata.org/entity/Q11992316', 'http://www.wikidata.org/entity/Q15008049', 'http://www.wikidata.org/entity/Q12836444', 'http://www.wikidata.org/entity/Q12546202', 'http://www.wikidata.org/entity/Q12161663', 'http://www.wikidata.org/entity/Q17014230', 'http://www.wikidata.org/entity/Q17019166', 'http://www.wikidata.org/entity/Q17075668', 'http://www.wikidata.org/entity/Q14538218', 'http://www.wikidata.org/entity/Q16237738', 'http://www.wikidata.org/entity/Q16923319', 'http://www.wikidata.org/entity/Q17155641', 'http://www.wikidata.org/entity/Q19321899', 'http://www.wikidata.org/entity/Q17002262', 'http://www.wikidata.org/entity/Q18690809', 'http://www.wikidata.org/entity/Q19383979', 'http://www.wikidata.org/entity/Q18165176', 'http://www.wikidata.org/entity/Q19872018', 'http://www.wikidata.org/entity/Q21714941', 'http://www.wikidata.org/entity/Q26836304', 'http://www.wikidata.org/entity/Q28790962', 'http://www.wikidata.org/entity/Q30261747', 'http://www.wikidata.org/entity/Q30261954', 'http://www.wikidata.org/entity/Q30272133', 'http://www.wikidata.org/entity/Q30272232', 'http://www.wikidata.org/entity/Q30272892', 'http://www.wikidata.org/entity/Q30283139', 'http://www.wikidata.org/entity/Q30257292', 'http://www.wikidata.org/entity/Q45021709', 'http://www.wikidata.org/entity/Q49426851', 'http://www.wikidata.org/entity/Q47403407', 'http://www.wikidata.org/entity/Q50412069', 'http://www.wikidata.org/entity/Q55026590', 'http://www.wikidata.org/entity/Q55753840', 'http://www.wikidata.org/entity/Q60058029', 'http://www.wikidata.org/entity/Q62061915', 'http://www.wikidata.org/entity/Q65269843', 'http://www.wikidata.org/entity/Q65557599', 'http://www.wikidata.org/entity/Q59200802', 'http://www.wikidata.org/entity/Q92099949', 'http://www.wikidata.org/entity/Q92878782', 'http://www.wikidata.org/entity/Q92905883', 'http://www.wikidata.org/entity/Q92916071', 'http://www.wikidata.org/entity/Q92906441', 'http://www.wikidata.org/entity/Q92907134', 'http://www.wikidata.org/entity/Q92907677', 'http://www.wikidata.org/entity/Q92913857', 'http://www.wikidata.org/entity/Q92902468', 'http://www.wikidata.org/entity/Q92916955', 'http://www.wikidata.org/entity/Q92914482', 'http://www.wikidata.org/entity/Q92914671', 'http://www.wikidata.org/entity/Q92915428', 'http://www.wikidata.org/entity/Q92905005', 'http://www.wikidata.org/entity/Q92929217', 'http://www.wikidata.org/entity/Q92930526', 'http://www.wikidata.org/entity/Q92930734', 'http://www.wikidata.org/entity/Q92930740', 'http://www.wikidata.org/entity/Q92930743', 'http://www.wikidata.org/entity/Q93972478', 'http://www.wikidata.org/entity/Q94356597', 'http://www.wikidata.org/entity/Q92947617', 'http://www.wikidata.org/entity/Q94578038', 'http://www.wikidata.org/entity/Q94280657', 'http://www.wikidata.org/entity/Q94610868', 'http://www.wikidata.org/entity/Q94610892', 'http://www.wikidata.org/entity/Q94580719', 'http://www.wikidata.org/entity/Q94580723', 'http://www.wikidata.org/entity/Q94580738', 'http://www.wikidata.org/entity/Q94611152', 'http://www.wikidata.org/entity/Q94611154', 'http://www.wikidata.org/entity/Q94611163', 'http://www.wikidata.org/entity/Q94612135', 'http://www.wikidata.org/entity/Q94612154', 'http://www.wikidata.org/entity/Q94581541', 'http://www.wikidata.org/entity/Q94359337', 'http://www.wikidata.org/entity/Q94576202', 'http://www.wikidata.org/entity/Q94576228', 'http://www.wikidata.org/entity/Q94576246', 'http://www.wikidata.org/entity/Q94576267', 'http://www.wikidata.org/entity/Q94576428', 'http://www.wikidata.org/entity/Q94284129', 'http://www.wikidata.org/entity/Q94576769', 'http://www.wikidata.org/entity/Q94637729', 'http://www.wikidata.org/entity/Q94637899', 'http://www.wikidata.org/entity/Q94637928', 'http://www.wikidata.org/entity/Q94637993', 'http://www.wikidata.org/entity/Q94638147', 'http://www.wikidata.org/entity/Q94623047', 'http://www.wikidata.org/entity/Q94623054', 'http://www.wikidata.org/entity/Q94623060', 'http://www.wikidata.org/entity/Q94620496', 'http://www.wikidata.org/entity/Q94610226', 'http://www.wikidata.org/entity/Q94692884', 'http://www.wikidata.org/entity/Q94692919', 'http://www.wikidata.org/entity/Q95172857', 'http://www.wikidata.org/entity/Q95172874', 'http://www.wikidata.org/entity/Q95172879', 'http://www.wikidata.org/entity/Q95172881', 'http://www.wikidata.org/entity/Q95172918', 'http://www.wikidata.org/entity/Q95172936', 'http://www.wikidata.org/entity/Q95172954', 'http://www.wikidata.org/entity/Q95173066', 'http://www.wikidata.org/entity/Q95173083', 'http://www.wikidata.org/entity/Q95173220', 'http://www.wikidata.org/entity/Q95173319', 'http://www.wikidata.org/entity/Q95173346', 'http://www.wikidata.org/entity/Q95173367', 'http://www.wikidata.org/entity/Q95173372', 'http://www.wikidata.org/entity/Q95173411', 'http://www.wikidata.org/entity/Q95173414', 'http://www.wikidata.org/entity/Q95173564', 'http://www.wikidata.org/entity/Q95173567', 'http://www.wikidata.org/entity/Q95173570', 'http://www.wikidata.org/entity/Q94693376', 'http://www.wikidata.org/entity/Q94610606', 'http://www.wikidata.org/entity/Q94610610', 'http://www.wikidata.org/entity/Q94610624', 'http://www.wikidata.org/entity/Q95183605', 'http://www.wikidata.org/entity/Q95183606', 'http://www.wikidata.org/entity/Q95183607', 'http://www.wikidata.org/entity/Q95183609', 'http://www.wikidata.org/entity/Q95183663', 'http://www.wikidata.org/entity/Q95183689', 'http://www.wikidata.org/entity/Q94688098', 'http://www.wikidata.org/entity/Q95183843', 'http://www.wikidata.org/entity/Q95184190', 'http://www.wikidata.org/entity/Q95184227', 'http://www.wikidata.org/entity/Q95184247', 'http://www.wikidata.org/entity/Q95170148', 'http://www.wikidata.org/entity/Q95170174', 'http://www.wikidata.org/entity/Q95170178', 'http://www.wikidata.org/entity/Q94688705', 'http://www.wikidata.org/entity/Q94688778', 'http://www.wikidata.org/entity/Q94637325', 'http://www.wikidata.org/entity/Q94637339', 'http://www.wikidata.org/entity/Q94637357', 'http://www.wikidata.org/entity/Q94688841', 'http://www.wikidata.org/entity/Q94688844', 'http://www.wikidata.org/entity/Q94689042', 'http://www.wikidata.org/entity/Q95170465', 'http://www.wikidata.org/entity/Q95170499', 'http://www.wikidata.org/entity/Q95170506', 'http://www.wikidata.org/entity/Q95170511', 'http://www.wikidata.org/entity/Q95172567', 'http://www.wikidata.org/entity/Q95172835', 'http://www.wikidata.org/entity/Q99980618', 'http://www.wikidata.org/entity/Q104668093', 'http://www.wikidata.org/entity/Q105011008', 'http://www.wikidata.org/entity/Q105017043', 'http://www.wikidata.org/entity/Q105024637', 'http://www.wikidata.org/entity/Q108557830', 'http://www.wikidata.org/entity/Q107937604', 'http://www.wikidata.org/entity/Q109331637', 'http://www.wikidata.org/entity/Q109355570', 'http://www.wikidata.org/entity/Q108097989', 'http://www.wikidata.org/entity/Q108097994', 'http://www.wikidata.org/entity/Q108097997', 'http://www.wikidata.org/entity/Q110575727', 'http://www.wikidata.org/entity/Q110157845', 'http://www.wikidata.org/entity/Q111669218', 'http://www.wikidata.org/entity/Q111692189', 'http://www.wikidata.org/entity/Q110755097', 'http://www.wikidata.org/entity/Q112197502', 'http://www.wikidata.org/entity/Q111944791', 'http://www.wikidata.org/entity/Q112203387', 'http://www.wikidata.org/entity/Q112203417', 'http://www.wikidata.org/entity/Q113645496', 'http://www.wikidata.org/entity/Q116003738', 'http://www.wikidata.org/entity/Q118227880', 'http://www.wikidata.org/entity/Q123489855', 'http://www.wikidata.org/entity/Q123489939', 'http://www.wikidata.org/entity/Q123490282', 'http://www.wikidata.org/entity/Q123490290', 'http://www.wikidata.org/entity/Q123490395', 'http://www.wikidata.org/entity/Q123489691', 'http://www.wikidata.org/entity/Q123492104', 'http://www.wikidata.org/entity/Q121288135', 'http://www.wikidata.org/entity/Q123491835', 'http://www.wikidata.org/entity/Q124257727', 'http://www.wikidata.org/entity/Q125122859', 'http://www.wikidata.org/entity/Q125577325', 'http://www.wikidata.org/entity/Q125754060', 'http://www.wikidata.org/entity/Q126688833', 'http://www.wikidata.org/entity/Q128735557', 'http://www.wikidata.org/entity/Q131320255', 'http://www.wikidata.org/entity/Q131320342', 'http://www.wikidata.org/entity/Q132035561', 'http://www.wikidata.org/entity/Q132050751']</t>
         </is>
       </c>
     </row>
@@ -3510,7 +3510,7 @@
       </c>
       <c r="D140" t="inlineStr">
         <is>
-          <t>['http://www.wikidata.org/entity/Q522492']</t>
+          <t>['http://www.wikidata.org/entity/Q59096']</t>
         </is>
       </c>
     </row>
@@ -3642,7 +3642,7 @@
       </c>
       <c r="D146" t="inlineStr">
         <is>
-          <t>['http://www.wikidata.org/entity/Q3604627', 'http://www.wikidata.org/entity/Q3615374', 'http://www.wikidata.org/entity/Q3621928', 'http://www.wikidata.org/entity/Q3689340', 'http://www.wikidata.org/entity/Q3744727', 'http://www.wikidata.org/entity/Q3748898', 'http://www.wikidata.org/entity/Q3754683', 'http://www.wikidata.org/entity/Q3772025', 'http://www.wikidata.org/entity/Q3773105', 'http://www.wikidata.org/entity/Q3783322', 'http://www.wikidata.org/entity/Q3785830', 'http://www.wikidata.org/entity/Q3793364', 'http://www.wikidata.org/entity/Q3795543', 'http://www.wikidata.org/entity/Q3811525', 'http://www.wikidata.org/entity/Q3821671', 'http://www.wikidata.org/entity/Q3839226', 'http://www.wikidata.org/entity/Q3874685', 'http://www.wikidata.org/entity/Q3887452', 'http://www.wikidata.org/entity/Q3901975', 'http://www.wikidata.org/entity/Q3941070', 'http://www.wikidata.org/entity/Q3963028', 'http://www.wikidata.org/entity/Q3963996', 'http://www.wikidata.org/entity/Q3968245', 'http://www.wikidata.org/entity/Q3968250', 'http://www.wikidata.org/entity/Q3986452', 'http://www.wikidata.org/entity/Q4010594', 'http://www.wikidata.org/entity/Q4657616', 'http://www.wikidata.org/entity/Q4659115', 'http://www.wikidata.org/entity/Q4660244', 'http://www.wikidata.org/entity/Q4727789', 'http://www.wikidata.org/entity/Q4769561', 'http://www.wikidata.org/entity/Q4770392', 'http://www.wikidata.org/entity/Q4784754', 'http://www.wikidata.org/entity/Q4807069', 'http://www.wikidata.org/entity/Q4860527', 'http://www.wikidata.org/entity/Q4876570', 'http://www.wikidata.org/entity/Q4879448', 'http://www.wikidata.org/entity/Q4880489', 'http://www.wikidata.org/entity/Q2434554', 'http://www.wikidata.org/entity/Q2528654', 'http://www.wikidata.org/entity/Q2878510', 'http://www.wikidata.org/entity/Q2928182', 'http://www.wikidata.org/entity/Q2960796', 'http://www.wikidata.org/entity/Q3004672', 'http://www.wikidata.org/entity/Q3012980', 'http://www.wikidata.org/entity/Q3013019', 'http://www.wikidata.org/entity/Q3014039', 'http://www.wikidata.org/entity/Q3015813', 'http://www.wikidata.org/entity/Q3015890', 'http://www.wikidata.org/entity/Q3016847', 'http://www.wikidata.org/entity/Q3017252', 'http://www.wikidata.org/entity/Q3018707', 'http://www.wikidata.org/entity/Q3020203', 'http://www.wikidata.org/entity/Q3020224', 'http://www.wikidata.org/entity/Q3061340', 'http://www.wikidata.org/entity/Q3067968', 'http://www.wikidata.org/entity/Q3072234', 'http://www.wikidata.org/entity/Q3127332', 'http://www.wikidata.org/entity/Q3129894', 'http://www.wikidata.org/entity/Q3154704', 'http://www.wikidata.org/entity/Q3176742', 'http://www.wikidata.org/entity/Q3208872', 'http://www.wikidata.org/entity/Q3213556', 'http://www.wikidata.org/entity/Q3223190', 'http://www.wikidata.org/entity/Q3259248', 'http://www.wikidata.org/entity/Q3259722', 'http://www.wikidata.org/entity/Q3283141', 'http://www.wikidata.org/entity/Q3333724', 'http://www.wikidata.org/entity/Q3342401', 'http://www.wikidata.org/entity/Q3342589', 'http://www.wikidata.org/entity/Q3358601', 'http://www.wikidata.org/entity/Q3390944', 'http://www.wikidata.org/entity/Q3395232', 'http://www.wikidata.org/entity/Q3410456', 'http://www.wikidata.org/entity/Q3477669', 'http://www.wikidata.org/entity/Q3482554', 'http://www.wikidata.org/entity/Q3485516', 'http://www.wikidata.org/entity/Q3506509', 'http://www.wikidata.org/entity/Q3520833', 'http://www.wikidata.org/entity/Q3522277', 'http://www.wikidata.org/entity/Q3522558', 'http://www.wikidata.org/entity/Q3531954', 'http://www.wikidata.org/entity/Q3538437', 'http://www.wikidata.org/entity/Q3567879', 'http://www.wikidata.org/entity/Q3567880', 'http://www.wikidata.org/entity/Q3602789', 'http://www.wikidata.org/entity/Q3604152', 'http://www.wikidata.org/entity/Q189687', 'http://www.wikidata.org/entity/Q232227', 'http://www.wikidata.org/entity/Q339796', 'http://www.wikidata.org/entity/Q375321', 'http://www.wikidata.org/entity/Q497252', 'http://www.wikidata.org/entity/Q512617', 'http://www.wikidata.org/entity/Q524323', 'http://www.wikidata.org/entity/Q601039', 'http://www.wikidata.org/entity/Q690783', 'http://www.wikidata.org/entity/Q759472', 'http://www.wikidata.org/entity/Q950833', 'http://www.wikidata.org/entity/Q951786', 'http://www.wikidata.org/entity/Q1142045', 'http://www.wikidata.org/entity/Q1169905', 'http://www.wikidata.org/entity/Q1211978', 'http://www.wikidata.org/entity/Q1213960', 'http://www.wikidata.org/entity/Q1216722', 'http://www.wikidata.org/entity/Q1217678', 'http://www.wikidata.org/entity/Q1285408', 'http://www.wikidata.org/entity/Q1332634', 'http://www.wikidata.org/entity/Q1388313', 'http://www.wikidata.org/entity/Q1415798', 'http://www.wikidata.org/entity/Q1557403', 'http://www.wikidata.org/entity/Q1607784', 'http://www.wikidata.org/entity/Q1610899', 'http://www.wikidata.org/entity/Q1619597', 'http://www.wikidata.org/entity/Q1777093', 'http://www.wikidata.org/entity/Q1848876', 'http://www.wikidata.org/entity/Q1978299', 'http://www.wikidata.org/entity/Q1984542', 'http://www.wikidata.org/entity/Q1994289', 'http://www.wikidata.org/entity/Q2064189', 'http://www.wikidata.org/entity/Q2279168', 'http://www.wikidata.org/entity/Q4905609', 'http://www.wikidata.org/entity/Q4949829', 'http://www.wikidata.org/entity/Q4951739', 'http://www.wikidata.org/entity/Q4972468', 'http://www.wikidata.org/entity/Q5032622', 'http://www.wikidata.org/entity/Q5152358', 'http://www.wikidata.org/entity/Q5180473', 'http://www.wikidata.org/entity/Q5194843', 'http://www.wikidata.org/entity/Q5288168', 'http://www.wikidata.org/entity/Q5288452', 'http://www.wikidata.org/entity/Q5436900', 'http://www.wikidata.org/entity/Q5451359', 'http://www.wikidata.org/entity/Q5454528', 'http://www.wikidata.org/entity/Q5463189', 'http://www.wikidata.org/entity/Q5469726', 'http://www.wikidata.org/entity/Q5500151', 'http://www.wikidata.org/entity/Q5532208', 'http://www.wikidata.org/entity/Q5710232', 'http://www.wikidata.org/entity/Q5897924', 'http://www.wikidata.org/entity/Q6301938', 'http://www.wikidata.org/entity/Q6506113', 'http://www.wikidata.org/entity/Q6651283', 'http://www.wikidata.org/entity/Q6651927', 'http://www.wikidata.org/entity/Q6690414', 'http://www.wikidata.org/entity/Q6745251', 'http://www.wikidata.org/entity/Q6846921', 'http://www.wikidata.org/entity/Q6886388', 'http://www.wikidata.org/entity/Q7023630', 'http://www.wikidata.org/entity/Q7033188', 'http://www.wikidata.org/entity/Q7047767', 'http://www.wikidata.org/entity/Q7093273', 'http://www.wikidata.org/entity/Q7110645', 'http://www.wikidata.org/entity/Q7156601', 'http://www.wikidata.org/entity/Q7282918', 'http://www.wikidata.org/entity/Q7284105', 'http://www.wikidata.org/entity/Q7300448', 'http://www.wikidata.org/entity/Q7317593', 'http://www.wikidata.org/entity/Q7339413', 'http://www.wikidata.org/entity/Q7339731', 'http://www.wikidata.org/entity/Q7426639', 'http://www.wikidata.org/entity/Q7432122', 'http://www.wikidata.org/entity/Q7445742', 'http://www.wikidata.org/entity/Q7499388', 'http://www.wikidata.org/entity/Q7504025', 'http://www.wikidata.org/entity/Q7542922', 'http://www.wikidata.org/entity/Q7573506', 'http://www.wikidata.org/entity/Q7579087', 'http://www.wikidata.org/entity/Q7581445', 'http://www.wikidata.org/entity/Q7683567', 'http://www.wikidata.org/entity/Q7691181', 'http://www.wikidata.org/entity/Q7697623', 'http://www.wikidata.org/entity/Q7715090', 'http://www.wikidata.org/entity/Q7720462', 'http://www.wikidata.org/entity/Q7734186', 'http://www.wikidata.org/entity/Q7739006', 'http://www.wikidata.org/entity/Q7740054', 'http://www.wikidata.org/entity/Q7744241', 'http://www.wikidata.org/entity/Q7748880', 'http://www.wikidata.org/entity/Q7749149', 'http://www.wikidata.org/entity/Q7752853', 'http://www.wikidata.org/entity/Q7757100', 'http://www.wikidata.org/entity/Q7757729', 'http://www.wikidata.org/entity/Q7782704', 'http://www.wikidata.org/entity/Q7859033', 'http://www.wikidata.org/entity/Q7859302', 'http://www.wikidata.org/entity/Q7971478', 'http://www.wikidata.org/entity/Q7993057', 'http://www.wikidata.org/entity/Q7993965', 'http://www.wikidata.org/entity/Q7997289', 'http://www.wikidata.org/entity/Q7999614', 'http://www.wikidata.org/entity/Q8058418', 'http://www.wikidata.org/entity/Q12124555', 'http://www.wikidata.org/entity/Q12124767', 'http://www.wikidata.org/entity/Q12125753', 'http://www.wikidata.org/entity/Q13423950', 'http://www.wikidata.org/entity/Q15809895', 'http://www.wikidata.org/entity/Q16608539', 'http://www.wikidata.org/entity/Q18204812', 'http://www.wikidata.org/entity/Q18326228', 'http://www.wikidata.org/entity/Q18636496', 'http://www.wikidata.org/entity/Q18636501', 'http://www.wikidata.org/entity/Q27590394', 'http://www.wikidata.org/entity/Q55635336', 'http://www.wikidata.org/entity/Q96775093', 'http://www.wikidata.org/entity/Q105720784', 'http://www.wikidata.org/entity/Q123372356', 'http://www.wikidata.org/entity/Q123373556']</t>
+          <t>['http://www.wikidata.org/entity/Q3874685', 'http://www.wikidata.org/entity/Q3887452', 'http://www.wikidata.org/entity/Q3901975', 'http://www.wikidata.org/entity/Q3941070', 'http://www.wikidata.org/entity/Q3963028', 'http://www.wikidata.org/entity/Q3963996', 'http://www.wikidata.org/entity/Q3968245', 'http://www.wikidata.org/entity/Q3968250', 'http://www.wikidata.org/entity/Q3986452', 'http://www.wikidata.org/entity/Q4010594', 'http://www.wikidata.org/entity/Q4657616', 'http://www.wikidata.org/entity/Q4659115', 'http://www.wikidata.org/entity/Q4660244', 'http://www.wikidata.org/entity/Q4727789', 'http://www.wikidata.org/entity/Q4769561', 'http://www.wikidata.org/entity/Q4770392', 'http://www.wikidata.org/entity/Q4784754', 'http://www.wikidata.org/entity/Q4807069', 'http://www.wikidata.org/entity/Q4860527', 'http://www.wikidata.org/entity/Q4876570', 'http://www.wikidata.org/entity/Q4879448', 'http://www.wikidata.org/entity/Q4880489', 'http://www.wikidata.org/entity/Q3604627', 'http://www.wikidata.org/entity/Q3615374', 'http://www.wikidata.org/entity/Q3621928', 'http://www.wikidata.org/entity/Q3689340', 'http://www.wikidata.org/entity/Q3744727', 'http://www.wikidata.org/entity/Q3748898', 'http://www.wikidata.org/entity/Q3754683', 'http://www.wikidata.org/entity/Q3772025', 'http://www.wikidata.org/entity/Q3773105', 'http://www.wikidata.org/entity/Q3783322', 'http://www.wikidata.org/entity/Q3785830', 'http://www.wikidata.org/entity/Q3793364', 'http://www.wikidata.org/entity/Q3795543', 'http://www.wikidata.org/entity/Q3811525', 'http://www.wikidata.org/entity/Q3821671', 'http://www.wikidata.org/entity/Q3839226', 'http://www.wikidata.org/entity/Q2434554', 'http://www.wikidata.org/entity/Q2528654', 'http://www.wikidata.org/entity/Q2878510', 'http://www.wikidata.org/entity/Q2928182', 'http://www.wikidata.org/entity/Q2960796', 'http://www.wikidata.org/entity/Q3004672', 'http://www.wikidata.org/entity/Q3012980', 'http://www.wikidata.org/entity/Q3013019', 'http://www.wikidata.org/entity/Q3014039', 'http://www.wikidata.org/entity/Q3015813', 'http://www.wikidata.org/entity/Q3015890', 'http://www.wikidata.org/entity/Q3016847', 'http://www.wikidata.org/entity/Q3017252', 'http://www.wikidata.org/entity/Q3018707', 'http://www.wikidata.org/entity/Q3020203', 'http://www.wikidata.org/entity/Q3020224', 'http://www.wikidata.org/entity/Q3061340', 'http://www.wikidata.org/entity/Q3067968', 'http://www.wikidata.org/entity/Q3072234', 'http://www.wikidata.org/entity/Q3127332', 'http://www.wikidata.org/entity/Q3129894', 'http://www.wikidata.org/entity/Q3154704', 'http://www.wikidata.org/entity/Q3176742', 'http://www.wikidata.org/entity/Q3208872', 'http://www.wikidata.org/entity/Q3213556', 'http://www.wikidata.org/entity/Q3223190', 'http://www.wikidata.org/entity/Q3259248', 'http://www.wikidata.org/entity/Q3259722', 'http://www.wikidata.org/entity/Q3283141', 'http://www.wikidata.org/entity/Q3333724', 'http://www.wikidata.org/entity/Q3342401', 'http://www.wikidata.org/entity/Q3342589', 'http://www.wikidata.org/entity/Q3358601', 'http://www.wikidata.org/entity/Q3390944', 'http://www.wikidata.org/entity/Q3395232', 'http://www.wikidata.org/entity/Q3410456', 'http://www.wikidata.org/entity/Q3477669', 'http://www.wikidata.org/entity/Q3482554', 'http://www.wikidata.org/entity/Q3485516', 'http://www.wikidata.org/entity/Q3506509', 'http://www.wikidata.org/entity/Q3520833', 'http://www.wikidata.org/entity/Q3522277', 'http://www.wikidata.org/entity/Q3522558', 'http://www.wikidata.org/entity/Q3531954', 'http://www.wikidata.org/entity/Q3538437', 'http://www.wikidata.org/entity/Q3567879', 'http://www.wikidata.org/entity/Q3567880', 'http://www.wikidata.org/entity/Q3602789', 'http://www.wikidata.org/entity/Q3604152', 'http://www.wikidata.org/entity/Q189687', 'http://www.wikidata.org/entity/Q232227', 'http://www.wikidata.org/entity/Q339796', 'http://www.wikidata.org/entity/Q375321', 'http://www.wikidata.org/entity/Q497252', 'http://www.wikidata.org/entity/Q512617', 'http://www.wikidata.org/entity/Q524323', 'http://www.wikidata.org/entity/Q601039', 'http://www.wikidata.org/entity/Q690783', 'http://www.wikidata.org/entity/Q759472', 'http://www.wikidata.org/entity/Q950833', 'http://www.wikidata.org/entity/Q951786', 'http://www.wikidata.org/entity/Q1142045', 'http://www.wikidata.org/entity/Q1169905', 'http://www.wikidata.org/entity/Q1211978', 'http://www.wikidata.org/entity/Q1213960', 'http://www.wikidata.org/entity/Q1216722', 'http://www.wikidata.org/entity/Q1217678', 'http://www.wikidata.org/entity/Q1285408', 'http://www.wikidata.org/entity/Q1332634', 'http://www.wikidata.org/entity/Q1388313', 'http://www.wikidata.org/entity/Q1415798', 'http://www.wikidata.org/entity/Q1557403', 'http://www.wikidata.org/entity/Q1607784', 'http://www.wikidata.org/entity/Q1610899', 'http://www.wikidata.org/entity/Q1619597', 'http://www.wikidata.org/entity/Q1777093', 'http://www.wikidata.org/entity/Q1848876', 'http://www.wikidata.org/entity/Q1978299', 'http://www.wikidata.org/entity/Q1984542', 'http://www.wikidata.org/entity/Q1994289', 'http://www.wikidata.org/entity/Q2064189', 'http://www.wikidata.org/entity/Q2279168', 'http://www.wikidata.org/entity/Q4905609', 'http://www.wikidata.org/entity/Q4949829', 'http://www.wikidata.org/entity/Q4951739', 'http://www.wikidata.org/entity/Q4972468', 'http://www.wikidata.org/entity/Q5032622', 'http://www.wikidata.org/entity/Q5152358', 'http://www.wikidata.org/entity/Q5180473', 'http://www.wikidata.org/entity/Q5194843', 'http://www.wikidata.org/entity/Q5288168', 'http://www.wikidata.org/entity/Q5288452', 'http://www.wikidata.org/entity/Q5436900', 'http://www.wikidata.org/entity/Q5451359', 'http://www.wikidata.org/entity/Q5454528', 'http://www.wikidata.org/entity/Q5463189', 'http://www.wikidata.org/entity/Q5469726', 'http://www.wikidata.org/entity/Q5500151', 'http://www.wikidata.org/entity/Q5532208', 'http://www.wikidata.org/entity/Q5710232', 'http://www.wikidata.org/entity/Q5897924', 'http://www.wikidata.org/entity/Q6301938', 'http://www.wikidata.org/entity/Q6506113', 'http://www.wikidata.org/entity/Q6651283', 'http://www.wikidata.org/entity/Q6651927', 'http://www.wikidata.org/entity/Q6690414', 'http://www.wikidata.org/entity/Q6745251', 'http://www.wikidata.org/entity/Q6846921', 'http://www.wikidata.org/entity/Q6886388', 'http://www.wikidata.org/entity/Q7023630', 'http://www.wikidata.org/entity/Q7033188', 'http://www.wikidata.org/entity/Q7047767', 'http://www.wikidata.org/entity/Q7093273', 'http://www.wikidata.org/entity/Q7110645', 'http://www.wikidata.org/entity/Q7156601', 'http://www.wikidata.org/entity/Q7282918', 'http://www.wikidata.org/entity/Q7284105', 'http://www.wikidata.org/entity/Q7300448', 'http://www.wikidata.org/entity/Q7317593', 'http://www.wikidata.org/entity/Q7339413', 'http://www.wikidata.org/entity/Q7339731', 'http://www.wikidata.org/entity/Q7426639', 'http://www.wikidata.org/entity/Q7432122', 'http://www.wikidata.org/entity/Q7445742', 'http://www.wikidata.org/entity/Q7499388', 'http://www.wikidata.org/entity/Q7504025', 'http://www.wikidata.org/entity/Q7542922', 'http://www.wikidata.org/entity/Q7573506', 'http://www.wikidata.org/entity/Q7579087', 'http://www.wikidata.org/entity/Q7581445', 'http://www.wikidata.org/entity/Q7683567', 'http://www.wikidata.org/entity/Q7691181', 'http://www.wikidata.org/entity/Q7697623', 'http://www.wikidata.org/entity/Q7715090', 'http://www.wikidata.org/entity/Q7720462', 'http://www.wikidata.org/entity/Q7734186', 'http://www.wikidata.org/entity/Q7739006', 'http://www.wikidata.org/entity/Q7740054', 'http://www.wikidata.org/entity/Q7744241', 'http://www.wikidata.org/entity/Q7748880', 'http://www.wikidata.org/entity/Q7749149', 'http://www.wikidata.org/entity/Q7752853', 'http://www.wikidata.org/entity/Q7757100', 'http://www.wikidata.org/entity/Q7757729', 'http://www.wikidata.org/entity/Q7782704', 'http://www.wikidata.org/entity/Q7859033', 'http://www.wikidata.org/entity/Q7859302', 'http://www.wikidata.org/entity/Q7971478', 'http://www.wikidata.org/entity/Q7993057', 'http://www.wikidata.org/entity/Q7993965', 'http://www.wikidata.org/entity/Q7997289', 'http://www.wikidata.org/entity/Q7999614', 'http://www.wikidata.org/entity/Q8058418', 'http://www.wikidata.org/entity/Q12124555', 'http://www.wikidata.org/entity/Q12124767', 'http://www.wikidata.org/entity/Q12125753', 'http://www.wikidata.org/entity/Q13423950', 'http://www.wikidata.org/entity/Q15809895', 'http://www.wikidata.org/entity/Q16608539', 'http://www.wikidata.org/entity/Q18204812', 'http://www.wikidata.org/entity/Q18326228', 'http://www.wikidata.org/entity/Q18636496', 'http://www.wikidata.org/entity/Q18636501', 'http://www.wikidata.org/entity/Q27590394', 'http://www.wikidata.org/entity/Q55635336', 'http://www.wikidata.org/entity/Q96775093', 'http://www.wikidata.org/entity/Q105720784', 'http://www.wikidata.org/entity/Q123372356', 'http://www.wikidata.org/entity/Q123373556', 'http://www.wikidata.org/entity/Q131144639', 'http://www.wikidata.org/entity/Q131560887', 'http://www.wikidata.org/entity/Q131644854']</t>
         </is>
       </c>
     </row>
@@ -3686,7 +3686,7 @@
       </c>
       <c r="D148" t="inlineStr">
         <is>
-          <t>['http://www.wikidata.org/entity/Q222897', 'http://www.wikidata.org/entity/Q3567209', 'http://www.wikidata.org/entity/Q7303029', 'http://www.wikidata.org/entity/Q15920068', 'http://www.wikidata.org/entity/Q61046702']</t>
+          <t>['http://www.wikidata.org/entity/Q203934', 'http://www.wikidata.org/entity/Q222897', 'http://www.wikidata.org/entity/Q223153', 'http://www.wikidata.org/entity/Q117196228', 'http://www.wikidata.org/entity/Q125968296', 'http://www.wikidata.org/entity/Q126035440', 'http://www.wikidata.org/entity/Q131310511', 'http://www.wikidata.org/entity/Q3567209', 'http://www.wikidata.org/entity/Q7303029', 'http://www.wikidata.org/entity/Q15920068', 'http://www.wikidata.org/entity/Q61046702']</t>
         </is>
       </c>
     </row>
@@ -3708,7 +3708,7 @@
       </c>
       <c r="D149" t="inlineStr">
         <is>
-          <t>['http://www.wikidata.org/entity/Q1779', 'http://www.wikidata.org/entity/Q49575', 'http://www.wikidata.org/entity/Q93341', 'http://www.wikidata.org/entity/Q109094', 'http://www.wikidata.org/entity/Q144622', 'http://www.wikidata.org/entity/Q161753', 'http://www.wikidata.org/entity/Q163861', 'http://www.wikidata.org/entity/Q177824', 'http://www.wikidata.org/entity/Q188046', 'http://www.wikidata.org/entity/Q193645', 'http://www.wikidata.org/entity/Q199406', 'http://www.wikidata.org/entity/Q201500', 'http://www.wikidata.org/entity/Q204943', 'http://www.wikidata.org/entity/Q210173', 'http://www.wikidata.org/entity/Q210289', 'http://www.wikidata.org/entity/Q222798', 'http://www.wikidata.org/entity/Q273076', 'http://www.wikidata.org/entity/Q276068', 'http://www.wikidata.org/entity/Q465105', 'http://www.wikidata.org/entity/Q491100', 'http://www.wikidata.org/entity/Q492677', 'http://www.wikidata.org/entity/Q495464', 'http://www.wikidata.org/entity/Q510651', 'http://www.wikidata.org/entity/Q523899', 'http://www.wikidata.org/entity/Q528340', 'http://www.wikidata.org/entity/Q539159', 'http://www.wikidata.org/entity/Q539883', 'http://www.wikidata.org/entity/Q545464', 'http://www.wikidata.org/entity/Q558118', 'http://www.wikidata.org/entity/Q562871', 'http://www.wikidata.org/entity/Q590792', 'http://www.wikidata.org/entity/Q600700', 'http://www.wikidata.org/entity/Q313368', 'http://www.wikidata.org/entity/Q313529', 'http://www.wikidata.org/entity/Q313868', 'http://www.wikidata.org/entity/Q322210', 'http://www.wikidata.org/entity/Q329362', 'http://www.wikidata.org/entity/Q344822', 'http://www.wikidata.org/entity/Q355481', 'http://www.wikidata.org/entity/Q356715', 'http://www.wikidata.org/entity/Q376146', 'http://www.wikidata.org/entity/Q432924', 'http://www.wikidata.org/entity/Q436176', 'http://www.wikidata.org/entity/Q888472', 'http://www.wikidata.org/entity/Q888620', 'http://www.wikidata.org/entity/Q888671', 'http://www.wikidata.org/entity/Q895829', 'http://www.wikidata.org/entity/Q923409', 'http://www.wikidata.org/entity/Q936536', 'http://www.wikidata.org/entity/Q973166', 'http://www.wikidata.org/entity/Q975609', 'http://www.wikidata.org/entity/Q1026959', 'http://www.wikidata.org/entity/Q1027629', 'http://www.wikidata.org/entity/Q1036753', 'http://www.wikidata.org/entity/Q1039172', 'http://www.wikidata.org/entity/Q1050088', 'http://www.wikidata.org/entity/Q1103685', 'http://www.wikidata.org/entity/Q1138796', 'http://www.wikidata.org/entity/Q612855', 'http://www.wikidata.org/entity/Q658636', 'http://www.wikidata.org/entity/Q668856', 'http://www.wikidata.org/entity/Q675810', 'http://www.wikidata.org/entity/Q708990', 'http://www.wikidata.org/entity/Q711921', 'http://www.wikidata.org/entity/Q713273', 'http://www.wikidata.org/entity/Q727418', 'http://www.wikidata.org/entity/Q737521', 'http://www.wikidata.org/entity/Q743585', 'http://www.wikidata.org/entity/Q772645', 'http://www.wikidata.org/entity/Q776453', 'http://www.wikidata.org/entity/Q807401', 'http://www.wikidata.org/entity/Q808916', 'http://www.wikidata.org/entity/Q861545', 'http://www.wikidata.org/entity/Q861938', 'http://www.wikidata.org/entity/Q870113', 'http://www.wikidata.org/entity/Q887760', 'http://www.wikidata.org/entity/Q26196818', 'http://www.wikidata.org/entity/Q27916182', 'http://www.wikidata.org/entity/Q54957569', 'http://www.wikidata.org/entity/Q64683137', 'http://www.wikidata.org/entity/Q64985242', 'http://www.wikidata.org/entity/Q65028314', 'http://www.wikidata.org/entity/Q65028506', 'http://www.wikidata.org/entity/Q65032384', 'http://www.wikidata.org/entity/Q65034989', 'http://www.wikidata.org/entity/Q65034994', 'http://www.wikidata.org/entity/Q70552207', 'http://www.wikidata.org/entity/Q98308750', 'http://www.wikidata.org/entity/Q99438820', 'http://www.wikidata.org/entity/Q100249671', 'http://www.wikidata.org/entity/Q106959617', 'http://www.wikidata.org/entity/Q110182609', 'http://www.wikidata.org/entity/Q116745984', 'http://www.wikidata.org/entity/Q124042030', 'http://www.wikidata.org/entity/Q130324694', 'http://www.wikidata.org/entity/Q1173729', 'http://www.wikidata.org/entity/Q1238872', 'http://www.wikidata.org/entity/Q1248972', 'http://www.wikidata.org/entity/Q1266275', 'http://www.wikidata.org/entity/Q1282429', 'http://www.wikidata.org/entity/Q1282945', 'http://www.wikidata.org/entity/Q1282967', 'http://www.wikidata.org/entity/Q1308870', 'http://www.wikidata.org/entity/Q1311188', 'http://www.wikidata.org/entity/Q1318323', 'http://www.wikidata.org/entity/Q1347472', 'http://www.wikidata.org/entity/Q1364120', 'http://www.wikidata.org/entity/Q1412239', 'http://www.wikidata.org/entity/Q1452661', 'http://www.wikidata.org/entity/Q1453118', 'http://www.wikidata.org/entity/Q1454645', 'http://www.wikidata.org/entity/Q1535887', 'http://www.wikidata.org/entity/Q1557440', 'http://www.wikidata.org/entity/Q1583816', 'http://www.wikidata.org/entity/Q1607887', 'http://www.wikidata.org/entity/Q1622068', 'http://www.wikidata.org/entity/Q1631802', 'http://www.wikidata.org/entity/Q1675549', 'http://www.wikidata.org/entity/Q1678838', 'http://www.wikidata.org/entity/Q1687893', 'http://www.wikidata.org/entity/Q1689131', 'http://www.wikidata.org/entity/Q1689347', 'http://www.wikidata.org/entity/Q1691548', 'http://www.wikidata.org/entity/Q1701204', 'http://www.wikidata.org/entity/Q1701748', 'http://www.wikidata.org/entity/Q1702274', 'http://www.wikidata.org/entity/Q1703633', 'http://www.wikidata.org/entity/Q1738588', 'http://www.wikidata.org/entity/Q1738949', 'http://www.wikidata.org/entity/Q1740093', 'http://www.wikidata.org/entity/Q1745395', 'http://www.wikidata.org/entity/Q1791341', 'http://www.wikidata.org/entity/Q1806037', 'http://www.wikidata.org/entity/Q1820504', 'http://www.wikidata.org/entity/Q1872759', 'http://www.wikidata.org/entity/Q1902146', 'http://www.wikidata.org/entity/Q1903353', 'http://www.wikidata.org/entity/Q1912807', 'http://www.wikidata.org/entity/Q1917393', 'http://www.wikidata.org/entity/Q1935815', 'http://www.wikidata.org/entity/Q1971146', 'http://www.wikidata.org/entity/Q2041252', 'http://www.wikidata.org/entity/Q2061143', 'http://www.wikidata.org/entity/Q2075755', 'http://www.wikidata.org/entity/Q2216444', 'http://www.wikidata.org/entity/Q2302261', 'http://www.wikidata.org/entity/Q2347504', 'http://www.wikidata.org/entity/Q2396601', 'http://www.wikidata.org/entity/Q2401961', 'http://www.wikidata.org/entity/Q2405288', 'http://www.wikidata.org/entity/Q2478090', 'http://www.wikidata.org/entity/Q2544934', 'http://www.wikidata.org/entity/Q2645829', 'http://www.wikidata.org/entity/Q2686238', 'http://www.wikidata.org/entity/Q3196381', 'http://www.wikidata.org/entity/Q4760598', 'http://www.wikidata.org/entity/Q4767267', 'http://www.wikidata.org/entity/Q4797599', 'http://www.wikidata.org/entity/Q4833896', 'http://www.wikidata.org/entity/Q4911881', 'http://www.wikidata.org/entity/Q4998586', 'http://www.wikidata.org/entity/Q5214487', 'http://www.wikidata.org/entity/Q5220273', 'http://www.wikidata.org/entity/Q5263018', 'http://www.wikidata.org/entity/Q5290919', 'http://www.wikidata.org/entity/Q5392650', 'http://www.wikidata.org/entity/Q5394010', 'http://www.wikidata.org/entity/Q5508594', 'http://www.wikidata.org/entity/Q5525190', 'http://www.wikidata.org/entity/Q5531061', 'http://www.wikidata.org/entity/Q5736141', 'http://www.wikidata.org/entity/Q6074256', 'http://www.wikidata.org/entity/Q6175185', 'http://www.wikidata.org/entity/Q6208919', 'http://www.wikidata.org/entity/Q6221178', 'http://www.wikidata.org/entity/Q6224104', 'http://www.wikidata.org/entity/Q6240203', 'http://www.wikidata.org/entity/Q6309190', 'http://www.wikidata.org/entity/Q6687998', 'http://www.wikidata.org/entity/Q6793340', 'http://www.wikidata.org/entity/Q6846424', 'http://www.wikidata.org/entity/Q6849142', 'http://www.wikidata.org/entity/Q7052586', 'http://www.wikidata.org/entity/Q7087874', 'http://www.wikidata.org/entity/Q7298839', 'http://www.wikidata.org/entity/Q7441108', 'http://www.wikidata.org/entity/Q7524109', 'http://www.wikidata.org/entity/Q7614243', 'http://www.wikidata.org/entity/Q7694080', 'http://www.wikidata.org/entity/Q7781439', 'http://www.wikidata.org/entity/Q7781727', 'http://www.wikidata.org/entity/Q7924906', 'http://www.wikidata.org/entity/Q7982390', 'http://www.wikidata.org/entity/Q8009347', 'http://www.wikidata.org/entity/Q11290964', 'http://www.wikidata.org/entity/Q11409656', 'http://www.wikidata.org/entity/Q11473196', 'http://www.wikidata.org/entity/Q12469951', 'http://www.wikidata.org/entity/Q13571046', 'http://www.wikidata.org/entity/Q13571677', 'http://www.wikidata.org/entity/Q14545268', 'http://www.wikidata.org/entity/Q15453836', 'http://www.wikidata.org/entity/Q15485363', 'http://www.wikidata.org/entity/Q15815145', 'http://www.wikidata.org/entity/Q15840407', 'http://www.wikidata.org/entity/Q15851160', 'http://www.wikidata.org/entity/Q16017359', 'http://www.wikidata.org/entity/Q16090563', 'http://www.wikidata.org/entity/Q17306038', 'http://www.wikidata.org/entity/Q17352853', 'http://www.wikidata.org/entity/Q18410973', 'http://www.wikidata.org/entity/Q19275122', 'http://www.wikidata.org/entity/Q19561422', 'http://www.wikidata.org/entity/Q19629147', 'http://www.wikidata.org/entity/Q19832476', 'http://www.wikidata.org/entity/Q19960682', 'http://www.wikidata.org/entity/Q19962541', 'http://www.wikidata.org/entity/Q19968522', 'http://www.wikidata.org/entity/Q22670541', 'http://www.wikidata.org/entity/Q22958430', 'http://www.wikidata.org/entity/Q23874600']</t>
+          <t>['http://www.wikidata.org/entity/Q313368', 'http://www.wikidata.org/entity/Q313529', 'http://www.wikidata.org/entity/Q313868', 'http://www.wikidata.org/entity/Q322210', 'http://www.wikidata.org/entity/Q329362', 'http://www.wikidata.org/entity/Q344822', 'http://www.wikidata.org/entity/Q355481', 'http://www.wikidata.org/entity/Q356715', 'http://www.wikidata.org/entity/Q376146', 'http://www.wikidata.org/entity/Q432924', 'http://www.wikidata.org/entity/Q436176', 'http://www.wikidata.org/entity/Q465105', 'http://www.wikidata.org/entity/Q491100', 'http://www.wikidata.org/entity/Q492677', 'http://www.wikidata.org/entity/Q495464', 'http://www.wikidata.org/entity/Q510651', 'http://www.wikidata.org/entity/Q523899', 'http://www.wikidata.org/entity/Q528340', 'http://www.wikidata.org/entity/Q539159', 'http://www.wikidata.org/entity/Q539883', 'http://www.wikidata.org/entity/Q545464', 'http://www.wikidata.org/entity/Q558118', 'http://www.wikidata.org/entity/Q562871', 'http://www.wikidata.org/entity/Q590792', 'http://www.wikidata.org/entity/Q600700', 'http://www.wikidata.org/entity/Q612855', 'http://www.wikidata.org/entity/Q658636', 'http://www.wikidata.org/entity/Q668856', 'http://www.wikidata.org/entity/Q675810', 'http://www.wikidata.org/entity/Q708990', 'http://www.wikidata.org/entity/Q711921', 'http://www.wikidata.org/entity/Q713273', 'http://www.wikidata.org/entity/Q727418', 'http://www.wikidata.org/entity/Q737521', 'http://www.wikidata.org/entity/Q743585', 'http://www.wikidata.org/entity/Q772645', 'http://www.wikidata.org/entity/Q776453', 'http://www.wikidata.org/entity/Q807401', 'http://www.wikidata.org/entity/Q808916', 'http://www.wikidata.org/entity/Q861545', 'http://www.wikidata.org/entity/Q861938', 'http://www.wikidata.org/entity/Q870113', 'http://www.wikidata.org/entity/Q887760', 'http://www.wikidata.org/entity/Q888472', 'http://www.wikidata.org/entity/Q888620', 'http://www.wikidata.org/entity/Q888671', 'http://www.wikidata.org/entity/Q895829', 'http://www.wikidata.org/entity/Q923409', 'http://www.wikidata.org/entity/Q936536', 'http://www.wikidata.org/entity/Q973166', 'http://www.wikidata.org/entity/Q975609', 'http://www.wikidata.org/entity/Q1026959', 'http://www.wikidata.org/entity/Q1027629', 'http://www.wikidata.org/entity/Q1036753', 'http://www.wikidata.org/entity/Q1039172', 'http://www.wikidata.org/entity/Q1050088', 'http://www.wikidata.org/entity/Q1103685', 'http://www.wikidata.org/entity/Q1138796', 'http://www.wikidata.org/entity/Q1779', 'http://www.wikidata.org/entity/Q49575', 'http://www.wikidata.org/entity/Q93341', 'http://www.wikidata.org/entity/Q109094', 'http://www.wikidata.org/entity/Q144622', 'http://www.wikidata.org/entity/Q161753', 'http://www.wikidata.org/entity/Q163861', 'http://www.wikidata.org/entity/Q177824', 'http://www.wikidata.org/entity/Q188046', 'http://www.wikidata.org/entity/Q193645', 'http://www.wikidata.org/entity/Q199406', 'http://www.wikidata.org/entity/Q201500', 'http://www.wikidata.org/entity/Q204943', 'http://www.wikidata.org/entity/Q210173', 'http://www.wikidata.org/entity/Q210289', 'http://www.wikidata.org/entity/Q222798', 'http://www.wikidata.org/entity/Q273076', 'http://www.wikidata.org/entity/Q276068', 'http://www.wikidata.org/entity/Q98308750', 'http://www.wikidata.org/entity/Q99438820', 'http://www.wikidata.org/entity/Q100249671', 'http://www.wikidata.org/entity/Q106959617', 'http://www.wikidata.org/entity/Q110182609', 'http://www.wikidata.org/entity/Q116745984', 'http://www.wikidata.org/entity/Q124042030', 'http://www.wikidata.org/entity/Q130324694', 'http://www.wikidata.org/entity/Q1173729', 'http://www.wikidata.org/entity/Q1238872', 'http://www.wikidata.org/entity/Q1248972', 'http://www.wikidata.org/entity/Q1266275', 'http://www.wikidata.org/entity/Q1282429', 'http://www.wikidata.org/entity/Q1282945', 'http://www.wikidata.org/entity/Q1282967', 'http://www.wikidata.org/entity/Q1308870', 'http://www.wikidata.org/entity/Q1311188', 'http://www.wikidata.org/entity/Q1318323', 'http://www.wikidata.org/entity/Q1347472', 'http://www.wikidata.org/entity/Q1364120', 'http://www.wikidata.org/entity/Q1412239', 'http://www.wikidata.org/entity/Q1452661', 'http://www.wikidata.org/entity/Q1453118', 'http://www.wikidata.org/entity/Q1454645', 'http://www.wikidata.org/entity/Q1535887', 'http://www.wikidata.org/entity/Q1557440', 'http://www.wikidata.org/entity/Q1583816', 'http://www.wikidata.org/entity/Q1607887', 'http://www.wikidata.org/entity/Q1622068', 'http://www.wikidata.org/entity/Q1631802', 'http://www.wikidata.org/entity/Q1675549', 'http://www.wikidata.org/entity/Q1678838', 'http://www.wikidata.org/entity/Q1687893', 'http://www.wikidata.org/entity/Q1689131', 'http://www.wikidata.org/entity/Q1689347', 'http://www.wikidata.org/entity/Q1691548', 'http://www.wikidata.org/entity/Q1701204', 'http://www.wikidata.org/entity/Q1701748', 'http://www.wikidata.org/entity/Q1702274', 'http://www.wikidata.org/entity/Q1703633', 'http://www.wikidata.org/entity/Q1738588', 'http://www.wikidata.org/entity/Q1738949', 'http://www.wikidata.org/entity/Q1740093', 'http://www.wikidata.org/entity/Q1745395', 'http://www.wikidata.org/entity/Q1791341', 'http://www.wikidata.org/entity/Q1806037', 'http://www.wikidata.org/entity/Q1820504', 'http://www.wikidata.org/entity/Q1872759', 'http://www.wikidata.org/entity/Q1902146', 'http://www.wikidata.org/entity/Q1903353', 'http://www.wikidata.org/entity/Q1912807', 'http://www.wikidata.org/entity/Q1917393', 'http://www.wikidata.org/entity/Q1935815', 'http://www.wikidata.org/entity/Q1971146', 'http://www.wikidata.org/entity/Q2041252', 'http://www.wikidata.org/entity/Q2061143', 'http://www.wikidata.org/entity/Q2075755', 'http://www.wikidata.org/entity/Q2216444', 'http://www.wikidata.org/entity/Q2302261', 'http://www.wikidata.org/entity/Q2347504', 'http://www.wikidata.org/entity/Q2396601', 'http://www.wikidata.org/entity/Q2401961', 'http://www.wikidata.org/entity/Q2405288', 'http://www.wikidata.org/entity/Q2478090', 'http://www.wikidata.org/entity/Q2544934', 'http://www.wikidata.org/entity/Q2645829', 'http://www.wikidata.org/entity/Q2686238', 'http://www.wikidata.org/entity/Q3196381', 'http://www.wikidata.org/entity/Q4760598', 'http://www.wikidata.org/entity/Q4767267', 'http://www.wikidata.org/entity/Q4797599', 'http://www.wikidata.org/entity/Q4833896', 'http://www.wikidata.org/entity/Q4911881', 'http://www.wikidata.org/entity/Q4998586', 'http://www.wikidata.org/entity/Q5214487', 'http://www.wikidata.org/entity/Q5220273', 'http://www.wikidata.org/entity/Q5263018', 'http://www.wikidata.org/entity/Q5290919', 'http://www.wikidata.org/entity/Q5392650', 'http://www.wikidata.org/entity/Q5394010', 'http://www.wikidata.org/entity/Q5508594', 'http://www.wikidata.org/entity/Q5525190', 'http://www.wikidata.org/entity/Q5531061', 'http://www.wikidata.org/entity/Q5736141', 'http://www.wikidata.org/entity/Q6074256', 'http://www.wikidata.org/entity/Q6175185', 'http://www.wikidata.org/entity/Q6208919', 'http://www.wikidata.org/entity/Q6221178', 'http://www.wikidata.org/entity/Q6224104', 'http://www.wikidata.org/entity/Q6240203', 'http://www.wikidata.org/entity/Q6309190', 'http://www.wikidata.org/entity/Q6687998', 'http://www.wikidata.org/entity/Q6793340', 'http://www.wikidata.org/entity/Q6846424', 'http://www.wikidata.org/entity/Q6849142', 'http://www.wikidata.org/entity/Q7052586', 'http://www.wikidata.org/entity/Q7087874', 'http://www.wikidata.org/entity/Q7298839', 'http://www.wikidata.org/entity/Q7441108', 'http://www.wikidata.org/entity/Q7524109', 'http://www.wikidata.org/entity/Q7614243', 'http://www.wikidata.org/entity/Q7694080', 'http://www.wikidata.org/entity/Q7781439', 'http://www.wikidata.org/entity/Q7781727', 'http://www.wikidata.org/entity/Q7924906', 'http://www.wikidata.org/entity/Q7982390', 'http://www.wikidata.org/entity/Q8009347', 'http://www.wikidata.org/entity/Q11290964', 'http://www.wikidata.org/entity/Q23874600', 'http://www.wikidata.org/entity/Q26196818', 'http://www.wikidata.org/entity/Q27916182', 'http://www.wikidata.org/entity/Q54957569', 'http://www.wikidata.org/entity/Q64683137', 'http://www.wikidata.org/entity/Q64985242', 'http://www.wikidata.org/entity/Q65028314', 'http://www.wikidata.org/entity/Q65028506', 'http://www.wikidata.org/entity/Q65032384', 'http://www.wikidata.org/entity/Q65034989', 'http://www.wikidata.org/entity/Q65034994', 'http://www.wikidata.org/entity/Q70552207', 'http://www.wikidata.org/entity/Q11409656', 'http://www.wikidata.org/entity/Q11473196', 'http://www.wikidata.org/entity/Q12469951', 'http://www.wikidata.org/entity/Q13571046', 'http://www.wikidata.org/entity/Q13571677', 'http://www.wikidata.org/entity/Q14545268', 'http://www.wikidata.org/entity/Q15453836', 'http://www.wikidata.org/entity/Q15485363', 'http://www.wikidata.org/entity/Q15815145', 'http://www.wikidata.org/entity/Q15840407', 'http://www.wikidata.org/entity/Q15851160', 'http://www.wikidata.org/entity/Q16017359', 'http://www.wikidata.org/entity/Q16090563', 'http://www.wikidata.org/entity/Q17306038', 'http://www.wikidata.org/entity/Q17352853', 'http://www.wikidata.org/entity/Q18410973', 'http://www.wikidata.org/entity/Q19275122', 'http://www.wikidata.org/entity/Q19561422', 'http://www.wikidata.org/entity/Q19629147', 'http://www.wikidata.org/entity/Q19832476', 'http://www.wikidata.org/entity/Q19960682', 'http://www.wikidata.org/entity/Q19962541', 'http://www.wikidata.org/entity/Q19968522', 'http://www.wikidata.org/entity/Q22670541', 'http://www.wikidata.org/entity/Q22958430']</t>
         </is>
       </c>
     </row>
@@ -3730,7 +3730,7 @@
       </c>
       <c r="D150" t="inlineStr">
         <is>
-          <t>['http://www.wikidata.org/entity/Q5159490']</t>
+          <t>['http://www.wikidata.org/entity/Q7857997']</t>
         </is>
       </c>
     </row>
@@ -3796,7 +3796,7 @@
       </c>
       <c r="D153" t="inlineStr">
         <is>
-          <t>['1816']</t>
+          <t>['1827']</t>
         </is>
       </c>
     </row>
@@ -3818,7 +3818,7 @@
       </c>
       <c r="D154" t="inlineStr">
         <is>
-          <t>['http://www.wikidata.org/entity/Q75323', 'http://www.wikidata.org/entity/Q75347', 'http://www.wikidata.org/entity/Q78646', 'http://www.wikidata.org/entity/Q85188', 'http://www.wikidata.org/entity/Q85316', 'http://www.wikidata.org/entity/Q86090', 'http://www.wikidata.org/entity/Q88929', 'http://www.wikidata.org/entity/Q91150', 'http://www.wikidata.org/entity/Q93742', 'http://www.wikidata.org/entity/Q158050', 'http://www.wikidata.org/entity/Q168048', 'http://www.wikidata.org/entity/Q173714', 'http://www.wikidata.org/entity/Q203644', 'http://www.wikidata.org/entity/Q214246', 'http://www.wikidata.org/entity/Q238940', 'http://www.wikidata.org/entity/Q96514', 'http://www.wikidata.org/entity/Q96513', 'http://www.wikidata.org/entity/Q98881', 'http://www.wikidata.org/entity/Q104148', 'http://www.wikidata.org/entity/Q105589', 'http://www.wikidata.org/entity/Q109727', 'http://www.wikidata.org/entity/Q110008', 'http://www.wikidata.org/entity/Q112004', 'http://www.wikidata.org/entity/Q112148', 'http://www.wikidata.org/entity/Q121385', 'http://www.wikidata.org/entity/Q65956', 'http://www.wikidata.org/entity/Q71567', 'http://www.wikidata.org/entity/Q75290', 'http://www.wikidata.org/entity/Q57155', 'http://www.wikidata.org/entity/Q60377', 'http://www.wikidata.org/entity/Q60779', 'http://www.wikidata.org/entity/Q62040', 'http://www.wikidata.org/entity/Q62465', 'http://www.wikidata.org/entity/Q63303', 'http://www.wikidata.org/entity/Q64888', 'http://www.wikidata.org/entity/Q65523', 'http://www.wikidata.org/entity/Q250179', 'http://www.wikidata.org/entity/Q254159', 'http://www.wikidata.org/entity/Q278614', 'http://www.wikidata.org/entity/Q291119', 'http://www.wikidata.org/entity/Q312814', 'http://www.wikidata.org/entity/Q1142625', 'http://www.wikidata.org/entity/Q1156319', 'http://www.wikidata.org/entity/Q1246860', 'http://www.wikidata.org/entity/Q1290381', 'http://www.wikidata.org/entity/Q1295475', 'http://www.wikidata.org/entity/Q1298537', 'http://www.wikidata.org/entity/Q1307181', 'http://www.wikidata.org/entity/Q1314617', 'http://www.wikidata.org/entity/Q1643573', 'http://www.wikidata.org/entity/Q1679939', 'http://www.wikidata.org/entity/Q1688638', 'http://www.wikidata.org/entity/Q1688640', 'http://www.wikidata.org/entity/Q326392', 'http://www.wikidata.org/entity/Q330207', 'http://www.wikidata.org/entity/Q330624', 'http://www.wikidata.org/entity/Q346027', 'http://www.wikidata.org/entity/Q352316', 'http://www.wikidata.org/entity/Q352418', 'http://www.wikidata.org/entity/Q357798', 'http://www.wikidata.org/entity/Q361283', 'http://www.wikidata.org/entity/Q362146', 'http://www.wikidata.org/entity/Q363772', 'http://www.wikidata.org/entity/Q366256', 'http://www.wikidata.org/entity/Q376005', 'http://www.wikidata.org/entity/Q376206', 'http://www.wikidata.org/entity/Q377105', 'http://www.wikidata.org/entity/Q377745', 'http://www.wikidata.org/entity/Q385119', 'http://www.wikidata.org/entity/Q387483', 'http://www.wikidata.org/entity/Q432587', 'http://www.wikidata.org/entity/Q433916', 'http://www.wikidata.org/entity/Q434318', 'http://www.wikidata.org/entity/Q435122', 'http://www.wikidata.org/entity/Q437434', 'http://www.wikidata.org/entity/Q440680', 'http://www.wikidata.org/entity/Q1333231', 'http://www.wikidata.org/entity/Q1334792', 'http://www.wikidata.org/entity/Q1339147', 'http://www.wikidata.org/entity/Q1340915', 'http://www.wikidata.org/entity/Q1349194', 'http://www.wikidata.org/entity/Q1351701', 'http://www.wikidata.org/entity/Q1359829', 'http://www.wikidata.org/entity/Q1364776', 'http://www.wikidata.org/entity/Q1372339', 'http://www.wikidata.org/entity/Q1373091', 'http://www.wikidata.org/entity/Q1373329', 'http://www.wikidata.org/entity/Q1376810', 'http://www.wikidata.org/entity/Q1378138', 'http://www.wikidata.org/entity/Q1380675', 'http://www.wikidata.org/entity/Q1384738', 'http://www.wikidata.org/entity/Q1388022', 'http://www.wikidata.org/entity/Q1418123', 'http://www.wikidata.org/entity/Q1423757', 'http://www.wikidata.org/entity/Q1431389', 'http://www.wikidata.org/entity/Q1461428', 'http://www.wikidata.org/entity/Q1466379', 'http://www.wikidata.org/entity/Q1475414', 'http://www.wikidata.org/entity/Q1508508', 'http://www.wikidata.org/entity/Q1529565', 'http://www.wikidata.org/entity/Q1536188', 'http://www.wikidata.org/entity/Q1544700', 'http://www.wikidata.org/entity/Q1545347', 'http://www.wikidata.org/entity/Q1581636', 'http://www.wikidata.org/entity/Q1582870', 'http://www.wikidata.org/entity/Q1608694', 'http://www.wikidata.org/entity/Q446768', 'http://www.wikidata.org/entity/Q450900', 'http://www.wikidata.org/entity/Q456761', 'http://www.wikidata.org/entity/Q471374', 'http://www.wikidata.org/entity/Q487109', 'http://www.wikidata.org/entity/Q487308', 'http://www.wikidata.org/entity/Q492077', 'http://www.wikidata.org/entity/Q492717', 'http://www.wikidata.org/entity/Q496191', 'http://www.wikidata.org/entity/Q499915', 'http://www.wikidata.org/entity/Q502143', 'http://www.wikidata.org/entity/Q518862', 'http://www.wikidata.org/entity/Q538221', 'http://www.wikidata.org/entity/Q540443', 'http://www.wikidata.org/entity/Q544520', 'http://www.wikidata.org/entity/Q551331', 'http://www.wikidata.org/entity/Q552743', 'http://www.wikidata.org/entity/Q559094', 'http://www.wikidata.org/entity/Q561909', 'http://www.wikidata.org/entity/Q571435', 'http://www.wikidata.org/entity/Q591630', 'http://www.wikidata.org/entity/Q2272619', 'http://www.wikidata.org/entity/Q2328344', 'http://www.wikidata.org/entity/Q2337384', 'http://www.wikidata.org/entity/Q2392240', 'http://www.wikidata.org/entity/Q2407942', 'http://www.wikidata.org/entity/Q2527331', 'http://www.wikidata.org/entity/Q2553573', 'http://www.wikidata.org/entity/Q2559046', 'http://www.wikidata.org/entity/Q2581064', 'http://www.wikidata.org/entity/Q2587273', 'http://www.wikidata.org/entity/Q2621341', 'http://www.wikidata.org/entity/Q2638701', 'http://www.wikidata.org/entity/Q2643184', 'http://www.wikidata.org/entity/Q2643990', 'http://www.wikidata.org/entity/Q2650747', 'http://www.wikidata.org/entity/Q2656175', 'http://www.wikidata.org/entity/Q2667032', 'http://www.wikidata.org/entity/Q2667070', 'http://www.wikidata.org/entity/Q2671431', 'http://www.wikidata.org/entity/Q2708388', 'http://www.wikidata.org/entity/Q2832909', 'http://www.wikidata.org/entity/Q4225985', 'http://www.wikidata.org/entity/Q4236489', 'http://www.wikidata.org/entity/Q4236580', 'http://www.wikidata.org/entity/Q4240087', 'http://www.wikidata.org/entity/Q4241629', 'http://www.wikidata.org/entity/Q4251345', 'http://www.wikidata.org/entity/Q4252971', 'http://www.wikidata.org/entity/Q4262666', 'http://www.wikidata.org/entity/Q4267442', 'http://www.wikidata.org/entity/Q4271699', 'http://www.wikidata.org/entity/Q4275702', 'http://www.wikidata.org/entity/Q4288072', 'http://www.wikidata.org/entity/Q4296212', 'http://www.wikidata.org/entity/Q4298775', 'http://www.wikidata.org/entity/Q4308929', 'http://www.wikidata.org/entity/Q4324868', 'http://www.wikidata.org/entity/Q4367248', 'http://www.wikidata.org/entity/Q4371320', 'http://www.wikidata.org/entity/Q4396753', 'http://www.wikidata.org/entity/Q4399052', 'http://www.wikidata.org/entity/Q4404082', 'http://www.wikidata.org/entity/Q4408896', 'http://www.wikidata.org/entity/Q4412887', 'http://www.wikidata.org/entity/Q4419009', 'http://www.wikidata.org/entity/Q4454885', 'http://www.wikidata.org/entity/Q4461611', 'http://www.wikidata.org/entity/Q4477389', 'http://www.wikidata.org/entity/Q4481313', 'http://www.wikidata.org/entity/Q4491287', 'http://www.wikidata.org/entity/Q4496452', 'http://www.wikidata.org/entity/Q4497237', 'http://www.wikidata.org/entity/Q1717944', 'http://www.wikidata.org/entity/Q1729954', 'http://www.wikidata.org/entity/Q1749802', 'http://www.wikidata.org/entity/Q1771232', 'http://www.wikidata.org/entity/Q1798709', 'http://www.wikidata.org/entity/Q1817728', 'http://www.wikidata.org/entity/Q1879064', 'http://www.wikidata.org/entity/Q1890131', 'http://www.wikidata.org/entity/Q1900170', 'http://www.wikidata.org/entity/Q1918007', 'http://www.wikidata.org/entity/Q1930342', 'http://www.wikidata.org/entity/Q1961018', 'http://www.wikidata.org/entity/Q1961028', 'http://www.wikidata.org/entity/Q2031041', 'http://www.wikidata.org/entity/Q2033972', 'http://www.wikidata.org/entity/Q2039991', 'http://www.wikidata.org/entity/Q2041280', 'http://www.wikidata.org/entity/Q2041625', 'http://www.wikidata.org/entity/Q2093210', 'http://www.wikidata.org/entity/Q2110471', 'http://www.wikidata.org/entity/Q2120678', 'http://www.wikidata.org/entity/Q2149765', 'http://www.wikidata.org/entity/Q2163796', 'http://www.wikidata.org/entity/Q2179213', 'http://www.wikidata.org/entity/Q2202557', 'http://www.wikidata.org/entity/Q2844667', 'http://www.wikidata.org/entity/Q2885150', 'http://www.wikidata.org/entity/Q2885486', 'http://www.wikidata.org/entity/Q2890619', 'http://www.wikidata.org/entity/Q2898101', 'http://www.wikidata.org/entity/Q2898668', 'http://www.wikidata.org/entity/Q2899557', 'http://www.wikidata.org/entity/Q2899837', 'http://www.wikidata.org/entity/Q2899885', 'http://www.wikidata.org/entity/Q2900224', 'http://www.wikidata.org/entity/Q2900779', 'http://www.wikidata.org/entity/Q2902232', 'http://www.wikidata.org/entity/Q2902577', 'http://www.wikidata.org/entity/Q2902598', 'http://www.wikidata.org/entity/Q2915858', 'http://www.wikidata.org/entity/Q2919577', 'http://www.wikidata.org/entity/Q2947002', 'http://www.wikidata.org/entity/Q3266547', 'http://www.wikidata.org/entity/Q3310750', 'http://www.wikidata.org/entity/Q3388191', 'http://www.wikidata.org/entity/Q3487299', 'http://www.wikidata.org/entity/Q3504482', 'http://www.wikidata.org/entity/Q3604343', 'http://www.wikidata.org/entity/Q3608137', 'http://www.wikidata.org/entity/Q3622816', 'http://www.wikidata.org/entity/Q610622', 'http://www.wikidata.org/entity/Q614941', 'http://www.wikidata.org/entity/Q623271', 'http://www.wikidata.org/entity/Q653531', 'http://www.wikidata.org/entity/Q653809', 'http://www.wikidata.org/entity/Q657421', 'http://www.wikidata.org/entity/Q681066', 'http://www.wikidata.org/entity/Q690854', 'http://www.wikidata.org/entity/Q695893', 'http://www.wikidata.org/entity/Q696847', 'http://www.wikidata.org/entity/Q707111', 'http://www.wikidata.org/entity/Q715023', 'http://www.wikidata.org/entity/Q722150', 'http://www.wikidata.org/entity/Q728124', 'http://www.wikidata.org/entity/Q728238', 'http://www.wikidata.org/entity/Q732901', 'http://www.wikidata.org/entity/Q739511', 'http://www.wikidata.org/entity/Q741364', 'http://www.wikidata.org/entity/Q813100', 'http://www.wikidata.org/entity/Q823439', 'http://www.wikidata.org/entity/Q887419', 'http://www.wikidata.org/entity/Q890451', 'http://www.wikidata.org/entity/Q920553', 'http://www.wikidata.org/entity/Q924872', 'http://www.wikidata.org/entity/Q927307', 'http://www.wikidata.org/entity/Q959747', 'http://www.wikidata.org/entity/Q960542', 'http://www.wikidata.org/entity/Q961715', 'http://www.wikidata.org/entity/Q977171', 'http://www.wikidata.org/entity/Q983374', 'http://www.wikidata.org/entity/Q1018634', 'http://www.wikidata.org/entity/Q1038604', 'http://www.wikidata.org/entity/Q1042830', 'http://www.wikidata.org/entity/Q1092429', 'http://www.wikidata.org/entity/Q1122942', 'http://www.wikidata.org/entity/Q3657487', 'http://www.wikidata.org/entity/Q3724479', 'http://www.wikidata.org/entity/Q3749498', 'http://www.wikidata.org/entity/Q3760783', 'http://www.wikidata.org/entity/Q3762597', 'http://www.wikidata.org/entity/Q3766775', 'http://www.wikidata.org/entity/Q3769935', 'http://www.wikidata.org/entity/Q3770220', 'http://www.wikidata.org/entity/Q3776671', 'http://www.wikidata.org/entity/Q3784930', 'http://www.wikidata.org/entity/Q3806888', 'http://www.wikidata.org/entity/Q3821648', 'http://www.wikidata.org/entity/Q3822614', 'http://www.wikidata.org/entity/Q3826585', 'http://www.wikidata.org/entity/Q3839479', 'http://www.wikidata.org/entity/Q3839477', 'http://www.wikidata.org/entity/Q3846866', 'http://www.wikidata.org/entity/Q3876304', 'http://www.wikidata.org/entity/Q3884293', 'http://www.wikidata.org/entity/Q4023809', 'http://www.wikidata.org/entity/Q4055042', 'http://www.wikidata.org/entity/Q4068594', 'http://www.wikidata.org/entity/Q4079486', 'http://www.wikidata.org/entity/Q4087263', 'http://www.wikidata.org/entity/Q4088042', 'http://www.wikidata.org/entity/Q4088063', 'http://www.wikidata.org/entity/Q4096167', 'http://www.wikidata.org/entity/Q4105332', 'http://www.wikidata.org/entity/Q4122783', 'http://www.wikidata.org/entity/Q4125588', 'http://www.wikidata.org/entity/Q4127204', 'http://www.wikidata.org/entity/Q4513619', 'http://www.wikidata.org/entity/Q4518135', 'http://www.wikidata.org/entity/Q4519809', 'http://www.wikidata.org/entity/Q4522356', 'http://www.wikidata.org/entity/Q4524850', 'http://www.wikidata.org/entity/Q4526674', 'http://www.wikidata.org/entity/Q4534977', 'http://www.wikidata.org/entity/Q4535150', 'http://www.wikidata.org/entity/Q4538002', 'http://www.wikidata.org/entity/Q4648268', 'http://www.wikidata.org/entity/Q4711016', 'http://www.wikidata.org/entity/Q4849829', 'http://www.wikidata.org/entity/Q4945298', 'http://www.wikidata.org/entity/Q5347989', 'http://www.wikidata.org/entity/Q5371420', 'http://www.wikidata.org/entity/Q5481557', 'http://www.wikidata.org/entity/Q5708067', 'http://www.wikidata.org/entity/Q5724090', 'http://www.wikidata.org/entity/Q5865821', 'http://www.wikidata.org/entity/Q5976654', 'http://www.wikidata.org/entity/Q6097068', 'http://www.wikidata.org/entity/Q4128285', 'http://www.wikidata.org/entity/Q4131051', 'http://www.wikidata.org/entity/Q4139059', 'http://www.wikidata.org/entity/Q4147032', 'http://www.wikidata.org/entity/Q4150160', 'http://www.wikidata.org/entity/Q4154530', 'http://www.wikidata.org/entity/Q4160629', 'http://www.wikidata.org/entity/Q4192322', 'http://www.wikidata.org/entity/Q4205962', 'http://www.wikidata.org/entity/Q4214273', 'http://www.wikidata.org/entity/Q4218987', 'http://www.wikidata.org/entity/Q4222885', 'http://www.wikidata.org/entity/Q7383249', 'http://www.wikidata.org/entity/Q7495510', 'http://www.wikidata.org/entity/Q7509254', 'http://www.wikidata.org/entity/Q7576028', 'http://www.wikidata.org/entity/Q7602908', 'http://www.wikidata.org/entity/Q8961382', 'http://www.wikidata.org/entity/Q9058212', 'http://www.wikidata.org/entity/Q9311756', 'http://www.wikidata.org/entity/Q9370163', 'http://www.wikidata.org/entity/Q9390080', 'http://www.wikidata.org/entity/Q10341556', 'http://www.wikidata.org/entity/Q11692482', 'http://www.wikidata.org/entity/Q11699820', 'http://www.wikidata.org/entity/Q11711290', 'http://www.wikidata.org/entity/Q11736246', 'http://www.wikidata.org/entity/Q11749870', 'http://www.wikidata.org/entity/Q11875576', 'http://www.wikidata.org/entity/Q11887540', 'http://www.wikidata.org/entity/Q11900728', 'http://www.wikidata.org/entity/Q12037419', 'http://www.wikidata.org/entity/Q12271492', 'http://www.wikidata.org/entity/Q6120534', 'http://www.wikidata.org/entity/Q6156089', 'http://www.wikidata.org/entity/Q6639302', 'http://www.wikidata.org/entity/Q7038285', 'http://www.wikidata.org/entity/Q7177751', 'http://www.wikidata.org/entity/Q7278420', 'http://www.wikidata.org/entity/Q15819542', 'http://www.wikidata.org/entity/Q16407493', 'http://www.wikidata.org/entity/Q16434820', 'http://www.wikidata.org/entity/Q16488728', 'http://www.wikidata.org/entity/Q16529922', 'http://www.wikidata.org/entity/Q16590935', 'http://www.wikidata.org/entity/Q16648225', 'http://www.wikidata.org/entity/Q16930109', 'http://www.wikidata.org/entity/Q17427694', 'http://www.wikidata.org/entity/Q17484503', 'http://www.wikidata.org/entity/Q18155907', 'http://www.wikidata.org/entity/Q18223499', 'http://www.wikidata.org/entity/Q18407901', 'http://www.wikidata.org/entity/Q18408850', 'http://www.wikidata.org/entity/Q18613644', 'http://www.wikidata.org/entity/Q18615987', 'http://www.wikidata.org/entity/Q19283987', 'http://www.wikidata.org/entity/Q19723547', 'http://www.wikidata.org/entity/Q19946858', 'http://www.wikidata.org/entity/Q19981857', 'http://www.wikidata.org/entity/Q19984934', 'http://www.wikidata.org/entity/Q20511556', 'http://www.wikidata.org/entity/Q20528751', 'http://www.wikidata.org/entity/Q20984238', 'http://www.wikidata.org/entity/Q21083847', 'http://www.wikidata.org/entity/Q21093501', 'http://www.wikidata.org/entity/Q12290560', 'http://www.wikidata.org/entity/Q12297537', 'http://www.wikidata.org/entity/Q12364665', 'http://www.wikidata.org/entity/Q12365848', 'http://www.wikidata.org/entity/Q12365869', 'http://www.wikidata.org/entity/Q12373743', 'http://www.wikidata.org/entity/Q12402687', 'http://www.wikidata.org/entity/Q12552168', 'http://www.wikidata.org/entity/Q12633152', 'http://www.wikidata.org/entity/Q12649489', 'http://www.wikidata.org/entity/Q12768029', 'http://www.wikidata.org/entity/Q14648014', 'http://www.wikidata.org/entity/Q15043825', 'http://www.wikidata.org/entity/Q15078730', 'http://www.wikidata.org/entity/Q15623861', 'http://www.wikidata.org/entity/Q15658709', 'http://www.wikidata.org/entity/Q15676256', 'http://www.wikidata.org/entity/Q15686162', 'http://www.wikidata.org/entity/Q21663653', 'http://www.wikidata.org/entity/Q23656498', 'http://www.wikidata.org/entity/Q24289581', 'http://www.wikidata.org/entity/Q25423245', 'http://www.wikidata.org/entity/Q26235206', 'http://www.wikidata.org/entity/Q26883422', 'http://www.wikidata.org/entity/Q27047906', 'http://www.wikidata.org/entity/Q27523665', 'http://www.wikidata.org/entity/Q27532969', 'http://www.wikidata.org/entity/Q27579562', 'http://www.wikidata.org/entity/Q27579735', 'http://www.wikidata.org/entity/Q27579763', 'http://www.wikidata.org/entity/Q27949328', 'http://www.wikidata.org/entity/Q27949358', 'http://www.wikidata.org/entity/Q27949650', 'http://www.wikidata.org/entity/Q28359423', 'http://www.wikidata.org/entity/Q28503666', 'http://www.wikidata.org/entity/Q28521762', 'http://www.wikidata.org/entity/Q28651101', 'http://www.wikidata.org/entity/Q29358747', 'http://www.wikidata.org/entity/Q29826852', 'http://www.wikidata.org/entity/Q29900031', 'http://www.wikidata.org/entity/Q30345024', 'http://www.wikidata.org/entity/Q33210823', 'http://www.wikidata.org/entity/Q39082503', 'http://www.wikidata.org/entity/Q42296200', 'http://www.wikidata.org/entity/Q42307614', 'http://www.wikidata.org/entity/Q44155886', 'http://www.wikidata.org/entity/Q47452847', 'http://www.wikidata.org/entity/Q47453493', 'http://www.wikidata.org/entity/Q50211070', 'http://www.wikidata.org/entity/Q55106299', 'http://www.wikidata.org/entity/Q55428478', 'http://www.wikidata.org/entity/Q55474131', 'http://www.wikidata.org/entity/Q56062451', 'http://www.wikidata.org/entity/Q56310864', 'http://www.wikidata.org/entity/Q56310897', 'http://www.wikidata.org/entity/Q57538082', 'http://www.wikidata.org/entity/Q59208870', 'http://www.wikidata.org/entity/Q59947861', 'http://www.wikidata.org/entity/Q60826327', 'http://www.wikidata.org/entity/Q60837748', 'http://www.wikidata.org/entity/Q63093014', 'http://www.wikidata.org/entity/Q64031547', 'http://www.wikidata.org/entity/Q65031980', 'http://www.wikidata.org/entity/Q82028423', 'http://www.wikidata.org/entity/Q85516774', 'http://www.wikidata.org/entity/Q85995947', 'http://www.wikidata.org/entity/Q88458722', 'http://www.wikidata.org/entity/Q90073243', 'http://www.wikidata.org/entity/Q94870597', 'http://www.wikidata.org/entity/Q95070898', 'http://www.wikidata.org/entity/Q95088681', 'http://www.wikidata.org/entity/Q95168915', 'http://www.wikidata.org/entity/Q96383215', 'http://www.wikidata.org/entity/Q101244532', 'http://www.wikidata.org/entity/Q101244879', 'http://www.wikidata.org/entity/Q101778701', 'http://www.wikidata.org/entity/Q104174361', 'http://www.wikidata.org/entity/Q104419300', 'http://www.wikidata.org/entity/Q104419731', 'http://www.wikidata.org/entity/Q104760271', 'http://www.wikidata.org/entity/Q106765395', 'http://www.wikidata.org/entity/Q110100654', 'http://www.wikidata.org/entity/Q112470095', 'http://www.wikidata.org/entity/Q65708054', 'http://www.wikidata.org/entity/Q65697601', 'http://www.wikidata.org/entity/Q130522162', 'http://www.wikidata.org/entity/Q117832757', 'http://www.wikidata.org/entity/Q124057284', 'http://www.wikidata.org/entity/Q124313831']</t>
+          <t>['http://www.wikidata.org/entity/Q158050', 'http://www.wikidata.org/entity/Q168048', 'http://www.wikidata.org/entity/Q173714', 'http://www.wikidata.org/entity/Q203644', 'http://www.wikidata.org/entity/Q214246', 'http://www.wikidata.org/entity/Q238940', 'http://www.wikidata.org/entity/Q250179', 'http://www.wikidata.org/entity/Q254159', 'http://www.wikidata.org/entity/Q278614', 'http://www.wikidata.org/entity/Q291119', 'http://www.wikidata.org/entity/Q312814', 'http://www.wikidata.org/entity/Q75323', 'http://www.wikidata.org/entity/Q75347', 'http://www.wikidata.org/entity/Q77389', 'http://www.wikidata.org/entity/Q78646', 'http://www.wikidata.org/entity/Q85188', 'http://www.wikidata.org/entity/Q85316', 'http://www.wikidata.org/entity/Q86090', 'http://www.wikidata.org/entity/Q88929', 'http://www.wikidata.org/entity/Q91150', 'http://www.wikidata.org/entity/Q93742', 'http://www.wikidata.org/entity/Q65956', 'http://www.wikidata.org/entity/Q71567', 'http://www.wikidata.org/entity/Q75290', 'http://www.wikidata.org/entity/Q57155', 'http://www.wikidata.org/entity/Q60377', 'http://www.wikidata.org/entity/Q60779', 'http://www.wikidata.org/entity/Q62040', 'http://www.wikidata.org/entity/Q62465', 'http://www.wikidata.org/entity/Q63303', 'http://www.wikidata.org/entity/Q64888', 'http://www.wikidata.org/entity/Q65523', 'http://www.wikidata.org/entity/Q96514', 'http://www.wikidata.org/entity/Q96513', 'http://www.wikidata.org/entity/Q98881', 'http://www.wikidata.org/entity/Q104148', 'http://www.wikidata.org/entity/Q105589', 'http://www.wikidata.org/entity/Q109727', 'http://www.wikidata.org/entity/Q110008', 'http://www.wikidata.org/entity/Q112004', 'http://www.wikidata.org/entity/Q112148', 'http://www.wikidata.org/entity/Q121385', 'http://www.wikidata.org/entity/Q1142625', 'http://www.wikidata.org/entity/Q1156319', 'http://www.wikidata.org/entity/Q1246860', 'http://www.wikidata.org/entity/Q1290381', 'http://www.wikidata.org/entity/Q1295475', 'http://www.wikidata.org/entity/Q1298537', 'http://www.wikidata.org/entity/Q1307181', 'http://www.wikidata.org/entity/Q1314617', 'http://www.wikidata.org/entity/Q1508508', 'http://www.wikidata.org/entity/Q1529565', 'http://www.wikidata.org/entity/Q1536188', 'http://www.wikidata.org/entity/Q1544700', 'http://www.wikidata.org/entity/Q1545347', 'http://www.wikidata.org/entity/Q1581636', 'http://www.wikidata.org/entity/Q1582870', 'http://www.wikidata.org/entity/Q1608694', 'http://www.wikidata.org/entity/Q326392', 'http://www.wikidata.org/entity/Q330207', 'http://www.wikidata.org/entity/Q330624', 'http://www.wikidata.org/entity/Q346027', 'http://www.wikidata.org/entity/Q352316', 'http://www.wikidata.org/entity/Q352418', 'http://www.wikidata.org/entity/Q357798', 'http://www.wikidata.org/entity/Q361283', 'http://www.wikidata.org/entity/Q362146', 'http://www.wikidata.org/entity/Q363772', 'http://www.wikidata.org/entity/Q366256', 'http://www.wikidata.org/entity/Q376005', 'http://www.wikidata.org/entity/Q376206', 'http://www.wikidata.org/entity/Q377105', 'http://www.wikidata.org/entity/Q377745', 'http://www.wikidata.org/entity/Q385119', 'http://www.wikidata.org/entity/Q387483', 'http://www.wikidata.org/entity/Q432587', 'http://www.wikidata.org/entity/Q433916', 'http://www.wikidata.org/entity/Q434318', 'http://www.wikidata.org/entity/Q435122', 'http://www.wikidata.org/entity/Q437434', 'http://www.wikidata.org/entity/Q1333231', 'http://www.wikidata.org/entity/Q1334792', 'http://www.wikidata.org/entity/Q1339147', 'http://www.wikidata.org/entity/Q1340915', 'http://www.wikidata.org/entity/Q1349194', 'http://www.wikidata.org/entity/Q1351701', 'http://www.wikidata.org/entity/Q1359829', 'http://www.wikidata.org/entity/Q1364776', 'http://www.wikidata.org/entity/Q1372339', 'http://www.wikidata.org/entity/Q1373091', 'http://www.wikidata.org/entity/Q1373329', 'http://www.wikidata.org/entity/Q1376810', 'http://www.wikidata.org/entity/Q1378138', 'http://www.wikidata.org/entity/Q1380675', 'http://www.wikidata.org/entity/Q1384738', 'http://www.wikidata.org/entity/Q1388022', 'http://www.wikidata.org/entity/Q1393295', 'http://www.wikidata.org/entity/Q1418123', 'http://www.wikidata.org/entity/Q1423757', 'http://www.wikidata.org/entity/Q1431389', 'http://www.wikidata.org/entity/Q1461428', 'http://www.wikidata.org/entity/Q1466379', 'http://www.wikidata.org/entity/Q1475414', 'http://www.wikidata.org/entity/Q4096167', 'http://www.wikidata.org/entity/Q4105332', 'http://www.wikidata.org/entity/Q4122783', 'http://www.wikidata.org/entity/Q4125588', 'http://www.wikidata.org/entity/Q4127204', 'http://www.wikidata.org/entity/Q4128285', 'http://www.wikidata.org/entity/Q4131051', 'http://www.wikidata.org/entity/Q4139059', 'http://www.wikidata.org/entity/Q4147032', 'http://www.wikidata.org/entity/Q4150160', 'http://www.wikidata.org/entity/Q4154530', 'http://www.wikidata.org/entity/Q4160629', 'http://www.wikidata.org/entity/Q4192322', 'http://www.wikidata.org/entity/Q4205962', 'http://www.wikidata.org/entity/Q4214273', 'http://www.wikidata.org/entity/Q4218987', 'http://www.wikidata.org/entity/Q4222885', 'http://www.wikidata.org/entity/Q1643573', 'http://www.wikidata.org/entity/Q1679939', 'http://www.wikidata.org/entity/Q1688638', 'http://www.wikidata.org/entity/Q1688640', 'http://www.wikidata.org/entity/Q1717944', 'http://www.wikidata.org/entity/Q1729954', 'http://www.wikidata.org/entity/Q1749802', 'http://www.wikidata.org/entity/Q1771232', 'http://www.wikidata.org/entity/Q1798709', 'http://www.wikidata.org/entity/Q1817728', 'http://www.wikidata.org/entity/Q1879064', 'http://www.wikidata.org/entity/Q1890131', 'http://www.wikidata.org/entity/Q1900170', 'http://www.wikidata.org/entity/Q1918007', 'http://www.wikidata.org/entity/Q1930342', 'http://www.wikidata.org/entity/Q1961018', 'http://www.wikidata.org/entity/Q1961028', 'http://www.wikidata.org/entity/Q2031041', 'http://www.wikidata.org/entity/Q2033972', 'http://www.wikidata.org/entity/Q2039991', 'http://www.wikidata.org/entity/Q2041280', 'http://www.wikidata.org/entity/Q2041625', 'http://www.wikidata.org/entity/Q2093210', 'http://www.wikidata.org/entity/Q2110471', 'http://www.wikidata.org/entity/Q2120678', 'http://www.wikidata.org/entity/Q2149765', 'http://www.wikidata.org/entity/Q2163796', 'http://www.wikidata.org/entity/Q2179213', 'http://www.wikidata.org/entity/Q2202557', 'http://www.wikidata.org/entity/Q2272619', 'http://www.wikidata.org/entity/Q2328344', 'http://www.wikidata.org/entity/Q2337384', 'http://www.wikidata.org/entity/Q2392240', 'http://www.wikidata.org/entity/Q2407942', 'http://www.wikidata.org/entity/Q2527331', 'http://www.wikidata.org/entity/Q2553573', 'http://www.wikidata.org/entity/Q2559046', 'http://www.wikidata.org/entity/Q2581064', 'http://www.wikidata.org/entity/Q2587273', 'http://www.wikidata.org/entity/Q440680', 'http://www.wikidata.org/entity/Q441174', 'http://www.wikidata.org/entity/Q446768', 'http://www.wikidata.org/entity/Q450900', 'http://www.wikidata.org/entity/Q456761', 'http://www.wikidata.org/entity/Q471374', 'http://www.wikidata.org/entity/Q487109', 'http://www.wikidata.org/entity/Q487308', 'http://www.wikidata.org/entity/Q492077', 'http://www.wikidata.org/entity/Q492717', 'http://www.wikidata.org/entity/Q496191', 'http://www.wikidata.org/entity/Q499915', 'http://www.wikidata.org/entity/Q502143', 'http://www.wikidata.org/entity/Q518862', 'http://www.wikidata.org/entity/Q538221', 'http://www.wikidata.org/entity/Q540443', 'http://www.wikidata.org/entity/Q544520', 'http://www.wikidata.org/entity/Q551331', 'http://www.wikidata.org/entity/Q552743', 'http://www.wikidata.org/entity/Q559094', 'http://www.wikidata.org/entity/Q561909', 'http://www.wikidata.org/entity/Q571435', 'http://www.wikidata.org/entity/Q591630', 'http://www.wikidata.org/entity/Q4225985', 'http://www.wikidata.org/entity/Q4236489', 'http://www.wikidata.org/entity/Q4236580', 'http://www.wikidata.org/entity/Q4240087', 'http://www.wikidata.org/entity/Q4241629', 'http://www.wikidata.org/entity/Q4251345', 'http://www.wikidata.org/entity/Q4252971', 'http://www.wikidata.org/entity/Q4262666', 'http://www.wikidata.org/entity/Q4267442', 'http://www.wikidata.org/entity/Q4271699', 'http://www.wikidata.org/entity/Q4275702', 'http://www.wikidata.org/entity/Q4288072', 'http://www.wikidata.org/entity/Q4296212', 'http://www.wikidata.org/entity/Q4298775', 'http://www.wikidata.org/entity/Q4308929', 'http://www.wikidata.org/entity/Q4324868', 'http://www.wikidata.org/entity/Q4367248', 'http://www.wikidata.org/entity/Q4371320', 'http://www.wikidata.org/entity/Q4396753', 'http://www.wikidata.org/entity/Q4399052', 'http://www.wikidata.org/entity/Q4404082', 'http://www.wikidata.org/entity/Q4408896', 'http://www.wikidata.org/entity/Q4412887', 'http://www.wikidata.org/entity/Q4419009', 'http://www.wikidata.org/entity/Q4451662', 'http://www.wikidata.org/entity/Q4454885', 'http://www.wikidata.org/entity/Q4461611', 'http://www.wikidata.org/entity/Q4477389', 'http://www.wikidata.org/entity/Q4481313', 'http://www.wikidata.org/entity/Q4491287', 'http://www.wikidata.org/entity/Q4496452', 'http://www.wikidata.org/entity/Q4497237', 'http://www.wikidata.org/entity/Q2621341', 'http://www.wikidata.org/entity/Q2638701', 'http://www.wikidata.org/entity/Q2643184', 'http://www.wikidata.org/entity/Q2643990', 'http://www.wikidata.org/entity/Q2650747', 'http://www.wikidata.org/entity/Q2656175', 'http://www.wikidata.org/entity/Q2667032', 'http://www.wikidata.org/entity/Q2667070', 'http://www.wikidata.org/entity/Q2671431', 'http://www.wikidata.org/entity/Q2708388', 'http://www.wikidata.org/entity/Q2832909', 'http://www.wikidata.org/entity/Q2844667', 'http://www.wikidata.org/entity/Q2885150', 'http://www.wikidata.org/entity/Q2885486', 'http://www.wikidata.org/entity/Q2890619', 'http://www.wikidata.org/entity/Q2898101', 'http://www.wikidata.org/entity/Q2898668', 'http://www.wikidata.org/entity/Q2899557', 'http://www.wikidata.org/entity/Q2899837', 'http://www.wikidata.org/entity/Q2899885', 'http://www.wikidata.org/entity/Q2900224', 'http://www.wikidata.org/entity/Q2900779', 'http://www.wikidata.org/entity/Q2902232', 'http://www.wikidata.org/entity/Q2902577', 'http://www.wikidata.org/entity/Q2902598', 'http://www.wikidata.org/entity/Q2915858', 'http://www.wikidata.org/entity/Q2919577', 'http://www.wikidata.org/entity/Q610622', 'http://www.wikidata.org/entity/Q614941', 'http://www.wikidata.org/entity/Q623271', 'http://www.wikidata.org/entity/Q653531', 'http://www.wikidata.org/entity/Q653809', 'http://www.wikidata.org/entity/Q657421', 'http://www.wikidata.org/entity/Q681066', 'http://www.wikidata.org/entity/Q690854', 'http://www.wikidata.org/entity/Q695893', 'http://www.wikidata.org/entity/Q696847', 'http://www.wikidata.org/entity/Q707111', 'http://www.wikidata.org/entity/Q715023', 'http://www.wikidata.org/entity/Q722150', 'http://www.wikidata.org/entity/Q728124', 'http://www.wikidata.org/entity/Q728238', 'http://www.wikidata.org/entity/Q732901', 'http://www.wikidata.org/entity/Q739511', 'http://www.wikidata.org/entity/Q741364', 'http://www.wikidata.org/entity/Q813100', 'http://www.wikidata.org/entity/Q823439', 'http://www.wikidata.org/entity/Q887419', 'http://www.wikidata.org/entity/Q890451', 'http://www.wikidata.org/entity/Q920553', 'http://www.wikidata.org/entity/Q924872', 'http://www.wikidata.org/entity/Q927307', 'http://www.wikidata.org/entity/Q959747', 'http://www.wikidata.org/entity/Q960542', 'http://www.wikidata.org/entity/Q961715', 'http://www.wikidata.org/entity/Q977171', 'http://www.wikidata.org/entity/Q983374', 'http://www.wikidata.org/entity/Q1018634', 'http://www.wikidata.org/entity/Q1038604', 'http://www.wikidata.org/entity/Q1042830', 'http://www.wikidata.org/entity/Q1092429', 'http://www.wikidata.org/entity/Q1122942', 'http://www.wikidata.org/entity/Q2947002', 'http://www.wikidata.org/entity/Q3266547', 'http://www.wikidata.org/entity/Q3310750', 'http://www.wikidata.org/entity/Q3388191', 'http://www.wikidata.org/entity/Q3487299', 'http://www.wikidata.org/entity/Q3504482', 'http://www.wikidata.org/entity/Q3604343', 'http://www.wikidata.org/entity/Q3608137', 'http://www.wikidata.org/entity/Q3622816', 'http://www.wikidata.org/entity/Q3657487', 'http://www.wikidata.org/entity/Q3724479', 'http://www.wikidata.org/entity/Q3749498', 'http://www.wikidata.org/entity/Q3760783', 'http://www.wikidata.org/entity/Q3762597', 'http://www.wikidata.org/entity/Q3766775', 'http://www.wikidata.org/entity/Q3769935', 'http://www.wikidata.org/entity/Q3770220', 'http://www.wikidata.org/entity/Q3776671', 'http://www.wikidata.org/entity/Q3784930', 'http://www.wikidata.org/entity/Q3806888', 'http://www.wikidata.org/entity/Q3821648', 'http://www.wikidata.org/entity/Q3822614', 'http://www.wikidata.org/entity/Q3826585', 'http://www.wikidata.org/entity/Q3839479', 'http://www.wikidata.org/entity/Q3839477', 'http://www.wikidata.org/entity/Q3846866', 'http://www.wikidata.org/entity/Q3876304', 'http://www.wikidata.org/entity/Q3884293', 'http://www.wikidata.org/entity/Q4513619', 'http://www.wikidata.org/entity/Q4518135', 'http://www.wikidata.org/entity/Q4519809', 'http://www.wikidata.org/entity/Q4522356', 'http://www.wikidata.org/entity/Q4524850', 'http://www.wikidata.org/entity/Q4526674', 'http://www.wikidata.org/entity/Q4534977', 'http://www.wikidata.org/entity/Q4535150', 'http://www.wikidata.org/entity/Q4538002', 'http://www.wikidata.org/entity/Q4648268', 'http://www.wikidata.org/entity/Q4711016', 'http://www.wikidata.org/entity/Q4849829', 'http://www.wikidata.org/entity/Q4945298', 'http://www.wikidata.org/entity/Q5347989', 'http://www.wikidata.org/entity/Q5371420', 'http://www.wikidata.org/entity/Q5481557', 'http://www.wikidata.org/entity/Q5708067', 'http://www.wikidata.org/entity/Q5724090', 'http://www.wikidata.org/entity/Q5865821', 'http://www.wikidata.org/entity/Q5976654', 'http://www.wikidata.org/entity/Q7383249', 'http://www.wikidata.org/entity/Q7495510', 'http://www.wikidata.org/entity/Q7509254', 'http://www.wikidata.org/entity/Q7576028', 'http://www.wikidata.org/entity/Q7602908', 'http://www.wikidata.org/entity/Q8961382', 'http://www.wikidata.org/entity/Q9058212', 'http://www.wikidata.org/entity/Q9311756', 'http://www.wikidata.org/entity/Q9370163', 'http://www.wikidata.org/entity/Q9390080', 'http://www.wikidata.org/entity/Q10341556', 'http://www.wikidata.org/entity/Q11692482', 'http://www.wikidata.org/entity/Q11699820', 'http://www.wikidata.org/entity/Q11711290', 'http://www.wikidata.org/entity/Q11736246', 'http://www.wikidata.org/entity/Q11749870', 'http://www.wikidata.org/entity/Q11875576', 'http://www.wikidata.org/entity/Q11887540', 'http://www.wikidata.org/entity/Q11900728', 'http://www.wikidata.org/entity/Q12037419', 'http://www.wikidata.org/entity/Q12271492', 'http://www.wikidata.org/entity/Q15819542', 'http://www.wikidata.org/entity/Q16407493', 'http://www.wikidata.org/entity/Q16434820', 'http://www.wikidata.org/entity/Q16529922', 'http://www.wikidata.org/entity/Q16590935', 'http://www.wikidata.org/entity/Q16648225', 'http://www.wikidata.org/entity/Q16930109', 'http://www.wikidata.org/entity/Q17427694', 'http://www.wikidata.org/entity/Q17484503', 'http://www.wikidata.org/entity/Q18155907', 'http://www.wikidata.org/entity/Q18223499', 'http://www.wikidata.org/entity/Q18407901', 'http://www.wikidata.org/entity/Q18408850', 'http://www.wikidata.org/entity/Q18613644', 'http://www.wikidata.org/entity/Q18615987', 'http://www.wikidata.org/entity/Q19283987', 'http://www.wikidata.org/entity/Q19723547', 'http://www.wikidata.org/entity/Q19946858', 'http://www.wikidata.org/entity/Q19981857', 'http://www.wikidata.org/entity/Q19984934', 'http://www.wikidata.org/entity/Q20511556', 'http://www.wikidata.org/entity/Q20528751', 'http://www.wikidata.org/entity/Q4023809', 'http://www.wikidata.org/entity/Q4055042', 'http://www.wikidata.org/entity/Q4068594', 'http://www.wikidata.org/entity/Q4079486', 'http://www.wikidata.org/entity/Q4087263', 'http://www.wikidata.org/entity/Q4088042', 'http://www.wikidata.org/entity/Q4088063', 'http://www.wikidata.org/entity/Q6097068', 'http://www.wikidata.org/entity/Q6120534', 'http://www.wikidata.org/entity/Q6156089', 'http://www.wikidata.org/entity/Q6639302', 'http://www.wikidata.org/entity/Q7038285', 'http://www.wikidata.org/entity/Q7177751', 'http://www.wikidata.org/entity/Q7278420', 'http://www.wikidata.org/entity/Q12290560', 'http://www.wikidata.org/entity/Q12297537', 'http://www.wikidata.org/entity/Q12364665', 'http://www.wikidata.org/entity/Q12365848', 'http://www.wikidata.org/entity/Q12365869', 'http://www.wikidata.org/entity/Q12373743', 'http://www.wikidata.org/entity/Q12402687', 'http://www.wikidata.org/entity/Q12552168', 'http://www.wikidata.org/entity/Q12633152', 'http://www.wikidata.org/entity/Q12649489', 'http://www.wikidata.org/entity/Q12768029', 'http://www.wikidata.org/entity/Q12796434', 'http://www.wikidata.org/entity/Q14648014', 'http://www.wikidata.org/entity/Q15043825', 'http://www.wikidata.org/entity/Q15078730', 'http://www.wikidata.org/entity/Q15623861', 'http://www.wikidata.org/entity/Q15658709', 'http://www.wikidata.org/entity/Q15676256', 'http://www.wikidata.org/entity/Q15686162', 'http://www.wikidata.org/entity/Q20984238', 'http://www.wikidata.org/entity/Q21083847', 'http://www.wikidata.org/entity/Q21093501', 'http://www.wikidata.org/entity/Q21663653', 'http://www.wikidata.org/entity/Q23656498', 'http://www.wikidata.org/entity/Q24289581', 'http://www.wikidata.org/entity/Q25423245', 'http://www.wikidata.org/entity/Q26235206', 'http://www.wikidata.org/entity/Q26883422', 'http://www.wikidata.org/entity/Q27047906', 'http://www.wikidata.org/entity/Q27523665', 'http://www.wikidata.org/entity/Q27532969', 'http://www.wikidata.org/entity/Q27579562', 'http://www.wikidata.org/entity/Q27579735', 'http://www.wikidata.org/entity/Q27579763', 'http://www.wikidata.org/entity/Q28503666', 'http://www.wikidata.org/entity/Q28521762', 'http://www.wikidata.org/entity/Q28651101', 'http://www.wikidata.org/entity/Q29358747', 'http://www.wikidata.org/entity/Q29826852', 'http://www.wikidata.org/entity/Q29900031', 'http://www.wikidata.org/entity/Q30345024', 'http://www.wikidata.org/entity/Q33210823', 'http://www.wikidata.org/entity/Q39082503', 'http://www.wikidata.org/entity/Q42296200', 'http://www.wikidata.org/entity/Q42307614', 'http://www.wikidata.org/entity/Q27949328', 'http://www.wikidata.org/entity/Q27949358', 'http://www.wikidata.org/entity/Q27949650', 'http://www.wikidata.org/entity/Q28359423', 'http://www.wikidata.org/entity/Q44155886', 'http://www.wikidata.org/entity/Q47452847', 'http://www.wikidata.org/entity/Q47453493', 'http://www.wikidata.org/entity/Q50211070', 'http://www.wikidata.org/entity/Q55106299', 'http://www.wikidata.org/entity/Q55428478', 'http://www.wikidata.org/entity/Q55474131', 'http://www.wikidata.org/entity/Q56062451', 'http://www.wikidata.org/entity/Q56310864', 'http://www.wikidata.org/entity/Q56310897', 'http://www.wikidata.org/entity/Q57538082', 'http://www.wikidata.org/entity/Q59208870', 'http://www.wikidata.org/entity/Q59947861', 'http://www.wikidata.org/entity/Q60826327', 'http://www.wikidata.org/entity/Q60837748', 'http://www.wikidata.org/entity/Q63093014', 'http://www.wikidata.org/entity/Q64031547', 'http://www.wikidata.org/entity/Q65031980', 'http://www.wikidata.org/entity/Q82028423', 'http://www.wikidata.org/entity/Q85516774', 'http://www.wikidata.org/entity/Q85995947', 'http://www.wikidata.org/entity/Q88458722', 'http://www.wikidata.org/entity/Q90073243', 'http://www.wikidata.org/entity/Q94870597', 'http://www.wikidata.org/entity/Q95070898', 'http://www.wikidata.org/entity/Q95088681', 'http://www.wikidata.org/entity/Q95168915', 'http://www.wikidata.org/entity/Q96383215', 'http://www.wikidata.org/entity/Q101244532', 'http://www.wikidata.org/entity/Q101244879', 'http://www.wikidata.org/entity/Q101778701', 'http://www.wikidata.org/entity/Q104174361', 'http://www.wikidata.org/entity/Q104417790', 'http://www.wikidata.org/entity/Q104419300', 'http://www.wikidata.org/entity/Q104419731', 'http://www.wikidata.org/entity/Q104760271', 'http://www.wikidata.org/entity/Q106765395', 'http://www.wikidata.org/entity/Q110100654', 'http://www.wikidata.org/entity/Q112470095', 'http://www.wikidata.org/entity/Q130522162', 'http://www.wikidata.org/entity/Q117832757', 'http://www.wikidata.org/entity/Q124057284', 'http://www.wikidata.org/entity/Q124313831', 'http://www.wikidata.org/entity/Q65697601', 'http://www.wikidata.org/entity/Q65708054']</t>
         </is>
       </c>
     </row>
@@ -3928,7 +3928,7 @@
       </c>
       <c r="D159" t="inlineStr">
         <is>
-          <t>['http://www.wikidata.org/entity/Q513', 'http://www.wikidata.org/entity/Q43512', 'http://www.wikidata.org/entity/Q82019', 'http://www.wikidata.org/entity/Q165440', 'http://www.wikidata.org/entity/Q168702', 'http://www.wikidata.org/entity/Q169986', 'http://www.wikidata.org/entity/Q170070', 'http://www.wikidata.org/entity/Q170089', 'http://www.wikidata.org/entity/Q11237699']</t>
+          <t>['http://www.wikidata.org/entity/Q513', 'http://www.wikidata.org/entity/Q82019', 'http://www.wikidata.org/entity/Q43512', 'http://www.wikidata.org/entity/Q165440', 'http://www.wikidata.org/entity/Q168702', 'http://www.wikidata.org/entity/Q169986', 'http://www.wikidata.org/entity/Q170070', 'http://www.wikidata.org/entity/Q170089', 'http://www.wikidata.org/entity/Q11237699']</t>
         </is>
       </c>
     </row>
@@ -4016,7 +4016,7 @@
       </c>
       <c r="D163" t="inlineStr">
         <is>
-          <t>['http://www.wikidata.org/entity/Q71198', 'http://www.wikidata.org/entity/Q76143', 'http://www.wikidata.org/entity/Q77736', 'http://www.wikidata.org/entity/Q78614', 'http://www.wikidata.org/entity/Q85448', 'http://www.wikidata.org/entity/Q85692', 'http://www.wikidata.org/entity/Q550639', 'http://www.wikidata.org/entity/Q114557', 'http://www.wikidata.org/entity/Q194563', 'http://www.wikidata.org/entity/Q326252', 'http://www.wikidata.org/entity/Q347559', 'http://www.wikidata.org/entity/Q354466', 'http://www.wikidata.org/entity/Q362952', 'http://www.wikidata.org/entity/Q475749', 'http://www.wikidata.org/entity/Q493058', 'http://www.wikidata.org/entity/Q1234160', 'http://www.wikidata.org/entity/Q1246642', 'http://www.wikidata.org/entity/Q551155', 'http://www.wikidata.org/entity/Q650151', 'http://www.wikidata.org/entity/Q710106', 'http://www.wikidata.org/entity/Q872165', 'http://www.wikidata.org/entity/Q911548', 'http://www.wikidata.org/entity/Q1036737', 'http://www.wikidata.org/entity/Q86293', 'http://www.wikidata.org/entity/Q86323', 'http://www.wikidata.org/entity/Q86516', 'http://www.wikidata.org/entity/Q86718', 'http://www.wikidata.org/entity/Q87498', 'http://www.wikidata.org/entity/Q87595', 'http://www.wikidata.org/entity/Q87593', 'http://www.wikidata.org/entity/Q87698', 'http://www.wikidata.org/entity/Q88140', 'http://www.wikidata.org/entity/Q88627', 'http://www.wikidata.org/entity/Q88835', 'http://www.wikidata.org/entity/Q89164', 'http://www.wikidata.org/entity/Q90014', 'http://www.wikidata.org/entity/Q90462', 'http://www.wikidata.org/entity/Q94040', 'http://www.wikidata.org/entity/Q94577', 'http://www.wikidata.org/entity/Q96452', 'http://www.wikidata.org/entity/Q105953', 'http://www.wikidata.org/entity/Q109745', 'http://www.wikidata.org/entity/Q111241', 'http://www.wikidata.org/entity/Q112057', 'http://www.wikidata.org/entity/Q112376', 'http://www.wikidata.org/entity/Q1289012', 'http://www.wikidata.org/entity/Q1336307', 'http://www.wikidata.org/entity/Q1336841', 'http://www.wikidata.org/entity/Q1338621', 'http://www.wikidata.org/entity/Q1360278', 'http://www.wikidata.org/entity/Q1368561', 'http://www.wikidata.org/entity/Q1379309', 'http://www.wikidata.org/entity/Q1379473', 'http://www.wikidata.org/entity/Q1414628', 'http://www.wikidata.org/entity/Q1441046', 'http://www.wikidata.org/entity/Q1446365', 'http://www.wikidata.org/entity/Q1449083', 'http://www.wikidata.org/entity/Q1449370', 'http://www.wikidata.org/entity/Q1465742', 'http://www.wikidata.org/entity/Q1484506', 'http://www.wikidata.org/entity/Q1500209', 'http://www.wikidata.org/entity/Q1501097', 'http://www.wikidata.org/entity/Q1505019', 'http://www.wikidata.org/entity/Q1510986', 'http://www.wikidata.org/entity/Q1511264', 'http://www.wikidata.org/entity/Q1527091', 'http://www.wikidata.org/entity/Q1546037', 'http://www.wikidata.org/entity/Q1555666', 'http://www.wikidata.org/entity/Q1558906', 'http://www.wikidata.org/entity/Q1570857', 'http://www.wikidata.org/entity/Q1579455', 'http://www.wikidata.org/entity/Q1581174', 'http://www.wikidata.org/entity/Q1604844', 'http://www.wikidata.org/entity/Q1614614', 'http://www.wikidata.org/entity/Q1691423', 'http://www.wikidata.org/entity/Q1701554', 'http://www.wikidata.org/entity/Q1705540', 'http://www.wikidata.org/entity/Q1707099', 'http://www.wikidata.org/entity/Q1707482', 'http://www.wikidata.org/entity/Q1708747', 'http://www.wikidata.org/entity/Q1732733', 'http://www.wikidata.org/entity/Q1735870', 'http://www.wikidata.org/entity/Q1781063', 'http://www.wikidata.org/entity/Q1819735', 'http://www.wikidata.org/entity/Q1903438', 'http://www.wikidata.org/entity/Q1908687', 'http://www.wikidata.org/entity/Q2020596', 'http://www.wikidata.org/entity/Q2040666', 'http://www.wikidata.org/entity/Q2077276', 'http://www.wikidata.org/entity/Q2338888', 'http://www.wikidata.org/entity/Q2517436', 'http://www.wikidata.org/entity/Q2581891', 'http://www.wikidata.org/entity/Q2588636', 'http://www.wikidata.org/entity/Q2645934', 'http://www.wikidata.org/entity/Q4058928', 'http://www.wikidata.org/entity/Q4191716', 'http://www.wikidata.org/entity/Q6373188', 'http://www.wikidata.org/entity/Q7782918', 'http://www.wikidata.org/entity/Q7983614', 'http://www.wikidata.org/entity/Q11764172', 'http://www.wikidata.org/entity/Q11923016', 'http://www.wikidata.org/entity/Q12271681', 'http://www.wikidata.org/entity/Q13578778', 'http://www.wikidata.org/entity/Q14842646', 'http://www.wikidata.org/entity/Q15430458', 'http://www.wikidata.org/entity/Q15439910', 'http://www.wikidata.org/entity/Q15452195', 'http://www.wikidata.org/entity/Q15734397', 'http://www.wikidata.org/entity/Q15810299', 'http://www.wikidata.org/entity/Q15979728', 'http://www.wikidata.org/entity/Q16029991', 'http://www.wikidata.org/entity/Q16663352', 'http://www.wikidata.org/entity/Q18027381', 'http://www.wikidata.org/entity/Q18029152', 'http://www.wikidata.org/entity/Q18223339', 'http://www.wikidata.org/entity/Q18508198', 'http://www.wikidata.org/entity/Q18508531', 'http://www.wikidata.org/entity/Q19273686', 'http://www.wikidata.org/entity/Q19288504', 'http://www.wikidata.org/entity/Q19966956', 'http://www.wikidata.org/entity/Q20056905', 'http://www.wikidata.org/entity/Q20801784', 'http://www.wikidata.org/entity/Q21168969', 'http://www.wikidata.org/entity/Q22249925', 'http://www.wikidata.org/entity/Q22482410', 'http://www.wikidata.org/entity/Q23928916', 'http://www.wikidata.org/entity/Q27670830', 'http://www.wikidata.org/entity/Q27672503', 'http://www.wikidata.org/entity/Q55681103', 'http://www.wikidata.org/entity/Q55885976', 'http://www.wikidata.org/entity/Q56487519', 'http://www.wikidata.org/entity/Q57385917', 'http://www.wikidata.org/entity/Q33011834', 'http://www.wikidata.org/entity/Q36668532', 'http://www.wikidata.org/entity/Q43378651', 'http://www.wikidata.org/entity/Q45927183', 'http://www.wikidata.org/entity/Q51844316', 'http://www.wikidata.org/entity/Q51844339', 'http://www.wikidata.org/entity/Q51886108', 'http://www.wikidata.org/entity/Q54862358', 'http://www.wikidata.org/entity/Q55451835', 'http://www.wikidata.org/entity/Q55674501', 'http://www.wikidata.org/entity/Q55675291', 'http://www.wikidata.org/entity/Q55676433', 'http://www.wikidata.org/entity/Q60820294', 'http://www.wikidata.org/entity/Q60822973', 'http://www.wikidata.org/entity/Q61930459', 'http://www.wikidata.org/entity/Q61971231', 'http://www.wikidata.org/entity/Q62076483', 'http://www.wikidata.org/entity/Q63485351', 'http://www.wikidata.org/entity/Q95199838', 'http://www.wikidata.org/entity/Q95227952', 'http://www.wikidata.org/entity/Q95249180', 'http://www.wikidata.org/entity/Q95389052', 'http://www.wikidata.org/entity/Q95805826', 'http://www.wikidata.org/entity/Q100706635', 'http://www.wikidata.org/entity/Q94731605', 'http://www.wikidata.org/entity/Q94753105', 'http://www.wikidata.org/entity/Q94761001', 'http://www.wikidata.org/entity/Q94777816', 'http://www.wikidata.org/entity/Q94872174', 'http://www.wikidata.org/entity/Q94887584', 'http://www.wikidata.org/entity/Q94906393', 'http://www.wikidata.org/entity/Q94922778', 'http://www.wikidata.org/entity/Q94938005', 'http://www.wikidata.org/entity/Q105047314', 'http://www.wikidata.org/entity/Q113027456', 'http://www.wikidata.org/entity/Q114245296', 'http://www.wikidata.org/entity/Q105953781', 'http://www.wikidata.org/entity/Q106689415', 'http://www.wikidata.org/entity/Q110162770', 'http://www.wikidata.org/entity/Q123474414', 'http://www.wikidata.org/entity/Q124365519', 'http://www.wikidata.org/entity/Q124369289', 'http://www.wikidata.org/entity/Q124747852', 'http://www.wikidata.org/entity/Q124798509', 'http://www.wikidata.org/entity/Q124821935', 'http://www.wikidata.org/entity/Q124821984', 'http://www.wikidata.org/entity/Q124823586', 'http://www.wikidata.org/entity/Q124823640', 'http://www.wikidata.org/entity/Q124825392', 'http://www.wikidata.org/entity/Q124826025', 'http://www.wikidata.org/entity/Q124826477', 'http://www.wikidata.org/entity/Q124827127', 'http://www.wikidata.org/entity/Q124834393', 'http://www.wikidata.org/entity/Q124835415', 'http://www.wikidata.org/entity/Q124848868', 'http://www.wikidata.org/entity/Q124959174', 'http://www.wikidata.org/entity/Q125134505', 'http://www.wikidata.org/entity/Q125141527', 'http://www.wikidata.org/entity/Q125168660', 'http://www.wikidata.org/entity/Q125207247', 'http://www.wikidata.org/entity/Q125207322', 'http://www.wikidata.org/entity/Q125224535', 'http://www.wikidata.org/entity/Q125381657', 'http://www.wikidata.org/entity/Q126418132', 'http://www.wikidata.org/entity/Q128209458', 'http://www.wikidata.org/entity/Q128222132', 'http://www.wikidata.org/entity/Q128255861', 'http://www.wikidata.org/entity/Q129847804', 'http://www.wikidata.org/entity/Q24078', 'http://www.wikidata.org/entity/Q28999', 'http://www.wikidata.org/entity/Q60528', 'http://www.wikidata.org/entity/Q71198', 'http://www.wikidata.org/entity/Q105953', 'http://www.wikidata.org/entity/Q475749', 'http://www.wikidata.org/entity/Q493058', 'http://www.wikidata.org/entity/Q550639', 'http://www.wikidata.org/entity/Q551155', 'http://www.wikidata.org/entity/Q650151', 'http://www.wikidata.org/entity/Q697055', 'http://www.wikidata.org/entity/Q710106', 'http://www.wikidata.org/entity/Q76143', 'http://www.wikidata.org/entity/Q77736', 'http://www.wikidata.org/entity/Q78614', 'http://www.wikidata.org/entity/Q78793', 'http://www.wikidata.org/entity/Q78934', 'http://www.wikidata.org/entity/Q85051', 'http://www.wikidata.org/entity/Q85448', 'http://www.wikidata.org/entity/Q85692', 'http://www.wikidata.org/entity/Q86293', 'http://www.wikidata.org/entity/Q86323', 'http://www.wikidata.org/entity/Q86516', 'http://www.wikidata.org/entity/Q86718', 'http://www.wikidata.org/entity/Q87498', 'http://www.wikidata.org/entity/Q87595', 'http://www.wikidata.org/entity/Q87593', 'http://www.wikidata.org/entity/Q87698', 'http://www.wikidata.org/entity/Q87735', 'http://www.wikidata.org/entity/Q88140', 'http://www.wikidata.org/entity/Q88627', 'http://www.wikidata.org/entity/Q88835', 'http://www.wikidata.org/entity/Q89164', 'http://www.wikidata.org/entity/Q90014', 'http://www.wikidata.org/entity/Q90462', 'http://www.wikidata.org/entity/Q94040', 'http://www.wikidata.org/entity/Q94577', 'http://www.wikidata.org/entity/Q96452', 'http://www.wikidata.org/entity/Q109745', 'http://www.wikidata.org/entity/Q111241', 'http://www.wikidata.org/entity/Q112057', 'http://www.wikidata.org/entity/Q112376', 'http://www.wikidata.org/entity/Q114557', 'http://www.wikidata.org/entity/Q194563', 'http://www.wikidata.org/entity/Q326252', 'http://www.wikidata.org/entity/Q347559', 'http://www.wikidata.org/entity/Q354466', 'http://www.wikidata.org/entity/Q362952', 'http://www.wikidata.org/entity/Q872165', 'http://www.wikidata.org/entity/Q911548', 'http://www.wikidata.org/entity/Q1036737', 'http://www.wikidata.org/entity/Q1234160', 'http://www.wikidata.org/entity/Q1246642', 'http://www.wikidata.org/entity/Q1289012', 'http://www.wikidata.org/entity/Q1336307', 'http://www.wikidata.org/entity/Q1336841', 'http://www.wikidata.org/entity/Q1338621', 'http://www.wikidata.org/entity/Q1360278', 'http://www.wikidata.org/entity/Q1368561', 'http://www.wikidata.org/entity/Q1379309', 'http://www.wikidata.org/entity/Q1379473', 'http://www.wikidata.org/entity/Q1414628', 'http://www.wikidata.org/entity/Q1446365', 'http://www.wikidata.org/entity/Q1449083', 'http://www.wikidata.org/entity/Q1449370', 'http://www.wikidata.org/entity/Q1465742', 'http://www.wikidata.org/entity/Q1468949', 'http://www.wikidata.org/entity/Q1484506', 'http://www.wikidata.org/entity/Q1500209', 'http://www.wikidata.org/entity/Q1501097', 'http://www.wikidata.org/entity/Q1505019', 'http://www.wikidata.org/entity/Q1510986', 'http://www.wikidata.org/entity/Q1511264', 'http://www.wikidata.org/entity/Q1527091', 'http://www.wikidata.org/entity/Q1546037', 'http://www.wikidata.org/entity/Q1555666', 'http://www.wikidata.org/entity/Q1558906', 'http://www.wikidata.org/entity/Q1570857', 'http://www.wikidata.org/entity/Q1579455', 'http://www.wikidata.org/entity/Q1581174', 'http://www.wikidata.org/entity/Q1604844', 'http://www.wikidata.org/entity/Q1604844', 'http://www.wikidata.org/entity/Q1614614', 'http://www.wikidata.org/entity/Q1908687', 'http://www.wikidata.org/entity/Q2020596', 'http://www.wikidata.org/entity/Q2040666', 'http://www.wikidata.org/entity/Q2077276', 'http://www.wikidata.org/entity/Q2338888', 'http://www.wikidata.org/entity/Q2517436', 'http://www.wikidata.org/entity/Q1691423', 'http://www.wikidata.org/entity/Q1701554', 'http://www.wikidata.org/entity/Q1705540', 'http://www.wikidata.org/entity/Q1707099', 'http://www.wikidata.org/entity/Q1707482', 'http://www.wikidata.org/entity/Q1708747', 'http://www.wikidata.org/entity/Q1732733', 'http://www.wikidata.org/entity/Q1735870', 'http://www.wikidata.org/entity/Q1781063', 'http://www.wikidata.org/entity/Q1819735', 'http://www.wikidata.org/entity/Q1903438', 'http://www.wikidata.org/entity/Q2581891', 'http://www.wikidata.org/entity/Q2588636', 'http://www.wikidata.org/entity/Q2645934', 'http://www.wikidata.org/entity/Q4058928', 'http://www.wikidata.org/entity/Q4191716', 'http://www.wikidata.org/entity/Q5946570', 'http://www.wikidata.org/entity/Q6373188', 'http://www.wikidata.org/entity/Q7782918', 'http://www.wikidata.org/entity/Q7983614', 'http://www.wikidata.org/entity/Q11764172', 'http://www.wikidata.org/entity/Q11923016', 'http://www.wikidata.org/entity/Q12028148', 'http://www.wikidata.org/entity/Q12271681', 'http://www.wikidata.org/entity/Q13578778', 'http://www.wikidata.org/entity/Q14842646', 'http://www.wikidata.org/entity/Q15430458', 'http://www.wikidata.org/entity/Q15436531', 'http://www.wikidata.org/entity/Q15439910', 'http://www.wikidata.org/entity/Q15452195', 'http://www.wikidata.org/entity/Q15734397', 'http://www.wikidata.org/entity/Q15810299', 'http://www.wikidata.org/entity/Q15979728', 'http://www.wikidata.org/entity/Q16029991', 'http://www.wikidata.org/entity/Q16563052', 'http://www.wikidata.org/entity/Q16663352', 'http://www.wikidata.org/entity/Q18027381', 'http://www.wikidata.org/entity/Q18029152', 'http://www.wikidata.org/entity/Q18223339', 'http://www.wikidata.org/entity/Q18508198', 'http://www.wikidata.org/entity/Q18508531', 'http://www.wikidata.org/entity/Q19273686', 'http://www.wikidata.org/entity/Q19288504', 'http://www.wikidata.org/entity/Q19309506', 'http://www.wikidata.org/entity/Q20056905', 'http://www.wikidata.org/entity/Q20801784', 'http://www.wikidata.org/entity/Q21168969', 'http://www.wikidata.org/entity/Q22249925', 'http://www.wikidata.org/entity/Q22482410', 'http://www.wikidata.org/entity/Q51844316', 'http://www.wikidata.org/entity/Q51844339', 'http://www.wikidata.org/entity/Q51886108', 'http://www.wikidata.org/entity/Q54862358', 'http://www.wikidata.org/entity/Q55674501', 'http://www.wikidata.org/entity/Q55675291', 'http://www.wikidata.org/entity/Q55676433', 'http://www.wikidata.org/entity/Q55681103', 'http://www.wikidata.org/entity/Q55682962', 'http://www.wikidata.org/entity/Q55885976', 'http://www.wikidata.org/entity/Q56487519', 'http://www.wikidata.org/entity/Q57385917', 'http://www.wikidata.org/entity/Q60820294', 'http://www.wikidata.org/entity/Q60822973', 'http://www.wikidata.org/entity/Q61930459', 'http://www.wikidata.org/entity/Q61971231', 'http://www.wikidata.org/entity/Q62076483', 'http://www.wikidata.org/entity/Q23928916', 'http://www.wikidata.org/entity/Q27670830', 'http://www.wikidata.org/entity/Q27672503', 'http://www.wikidata.org/entity/Q33011834', 'http://www.wikidata.org/entity/Q33011834', 'http://www.wikidata.org/entity/Q36668532', 'http://www.wikidata.org/entity/Q43378651', 'http://www.wikidata.org/entity/Q43382717', 'http://www.wikidata.org/entity/Q45927183', 'http://www.wikidata.org/entity/Q63485351', 'http://www.wikidata.org/entity/Q94731605', 'http://www.wikidata.org/entity/Q94753105', 'http://www.wikidata.org/entity/Q94761001', 'http://www.wikidata.org/entity/Q94777816', 'http://www.wikidata.org/entity/Q94872174', 'http://www.wikidata.org/entity/Q94887584', 'http://www.wikidata.org/entity/Q94906393', 'http://www.wikidata.org/entity/Q94922778', 'http://www.wikidata.org/entity/Q94938005', 'http://www.wikidata.org/entity/Q95227952', 'http://www.wikidata.org/entity/Q95249180', 'http://www.wikidata.org/entity/Q95389052', 'http://www.wikidata.org/entity/Q95805826', 'http://www.wikidata.org/entity/Q100706635', 'http://www.wikidata.org/entity/Q105047314', 'http://www.wikidata.org/entity/Q105953781', 'http://www.wikidata.org/entity/Q106689415', 'http://www.wikidata.org/entity/Q110162770', 'http://www.wikidata.org/entity/Q111031308', 'http://www.wikidata.org/entity/Q112469746', 'http://www.wikidata.org/entity/Q113027456', 'http://www.wikidata.org/entity/Q114245296', 'http://www.wikidata.org/entity/Q123474414', 'http://www.wikidata.org/entity/Q124365519', 'http://www.wikidata.org/entity/Q124369289', 'http://www.wikidata.org/entity/Q124747852', 'http://www.wikidata.org/entity/Q124798509', 'http://www.wikidata.org/entity/Q124821935', 'http://www.wikidata.org/entity/Q124821984', 'http://www.wikidata.org/entity/Q124823586', 'http://www.wikidata.org/entity/Q124823640', 'http://www.wikidata.org/entity/Q124825392', 'http://www.wikidata.org/entity/Q124826025', 'http://www.wikidata.org/entity/Q124826477', 'http://www.wikidata.org/entity/Q124827127', 'http://www.wikidata.org/entity/Q124834393', 'http://www.wikidata.org/entity/Q124835415', 'http://www.wikidata.org/entity/Q124848868', 'http://www.wikidata.org/entity/Q124959174', 'http://www.wikidata.org/entity/Q125134505', 'http://www.wikidata.org/entity/Q125141527', 'http://www.wikidata.org/entity/Q125168660', 'http://www.wikidata.org/entity/Q125207247', 'http://www.wikidata.org/entity/Q129847804', 'http://www.wikidata.org/entity/Q28999', 'http://www.wikidata.org/entity/Q60528', 'http://www.wikidata.org/entity/Q125207322', 'http://www.wikidata.org/entity/Q125224535', 'http://www.wikidata.org/entity/Q125347249', 'http://www.wikidata.org/entity/Q125381657', 'http://www.wikidata.org/entity/Q126418132', 'http://www.wikidata.org/entity/Q128209458', 'http://www.wikidata.org/entity/Q128222132', 'http://www.wikidata.org/entity/Q128255861', 'http://www.wikidata.org/entity/Q94743563', 'http://www.wikidata.org/entity/Q94743563', 'http://www.wikidata.org/entity/Q51844338', 'http://www.wikidata.org/entity/Q61199008', 'http://www.wikidata.org/entity/Q2173626', 'http://www.wikidata.org/entity/Q51844338', 'http://www.wikidata.org/entity/Q61199008', 'http://www.wikidata.org/entity/Q2173626']</t>
+          <t>['http://www.wikidata.org/entity/Q71198', 'http://www.wikidata.org/entity/Q76143', 'http://www.wikidata.org/entity/Q77736', 'http://www.wikidata.org/entity/Q78614', 'http://www.wikidata.org/entity/Q114557', 'http://www.wikidata.org/entity/Q85448', 'http://www.wikidata.org/entity/Q85692', 'http://www.wikidata.org/entity/Q710106', 'http://www.wikidata.org/entity/Q550639', 'http://www.wikidata.org/entity/Q551155', 'http://www.wikidata.org/entity/Q650151', 'http://www.wikidata.org/entity/Q194563', 'http://www.wikidata.org/entity/Q326252', 'http://www.wikidata.org/entity/Q347559', 'http://www.wikidata.org/entity/Q354466', 'http://www.wikidata.org/entity/Q362952', 'http://www.wikidata.org/entity/Q475749', 'http://www.wikidata.org/entity/Q493058', 'http://www.wikidata.org/entity/Q86293', 'http://www.wikidata.org/entity/Q86323', 'http://www.wikidata.org/entity/Q86516', 'http://www.wikidata.org/entity/Q86718', 'http://www.wikidata.org/entity/Q87498', 'http://www.wikidata.org/entity/Q87595', 'http://www.wikidata.org/entity/Q87593', 'http://www.wikidata.org/entity/Q87698', 'http://www.wikidata.org/entity/Q88140', 'http://www.wikidata.org/entity/Q88627', 'http://www.wikidata.org/entity/Q88835', 'http://www.wikidata.org/entity/Q89164', 'http://www.wikidata.org/entity/Q90014', 'http://www.wikidata.org/entity/Q90462', 'http://www.wikidata.org/entity/Q94040', 'http://www.wikidata.org/entity/Q94577', 'http://www.wikidata.org/entity/Q96452', 'http://www.wikidata.org/entity/Q105953', 'http://www.wikidata.org/entity/Q109745', 'http://www.wikidata.org/entity/Q111241', 'http://www.wikidata.org/entity/Q112057', 'http://www.wikidata.org/entity/Q112376', 'http://www.wikidata.org/entity/Q872165', 'http://www.wikidata.org/entity/Q911548', 'http://www.wikidata.org/entity/Q1036737', 'http://www.wikidata.org/entity/Q1234160', 'http://www.wikidata.org/entity/Q1246642', 'http://www.wikidata.org/entity/Q1289012', 'http://www.wikidata.org/entity/Q1336307', 'http://www.wikidata.org/entity/Q1336841', 'http://www.wikidata.org/entity/Q1338621', 'http://www.wikidata.org/entity/Q1360278', 'http://www.wikidata.org/entity/Q1368561', 'http://www.wikidata.org/entity/Q1379309', 'http://www.wikidata.org/entity/Q1379473', 'http://www.wikidata.org/entity/Q1414628', 'http://www.wikidata.org/entity/Q1441046', 'http://www.wikidata.org/entity/Q1446365', 'http://www.wikidata.org/entity/Q1449083', 'http://www.wikidata.org/entity/Q1449370', 'http://www.wikidata.org/entity/Q1465742', 'http://www.wikidata.org/entity/Q1484506', 'http://www.wikidata.org/entity/Q1500209', 'http://www.wikidata.org/entity/Q1501097', 'http://www.wikidata.org/entity/Q1505019', 'http://www.wikidata.org/entity/Q1510986', 'http://www.wikidata.org/entity/Q1511264', 'http://www.wikidata.org/entity/Q1527091', 'http://www.wikidata.org/entity/Q1546037', 'http://www.wikidata.org/entity/Q1555666', 'http://www.wikidata.org/entity/Q1558906', 'http://www.wikidata.org/entity/Q1570857', 'http://www.wikidata.org/entity/Q1579455', 'http://www.wikidata.org/entity/Q1581174', 'http://www.wikidata.org/entity/Q1604844', 'http://www.wikidata.org/entity/Q1614614', 'http://www.wikidata.org/entity/Q1691423', 'http://www.wikidata.org/entity/Q1701554', 'http://www.wikidata.org/entity/Q1705540', 'http://www.wikidata.org/entity/Q1707099', 'http://www.wikidata.org/entity/Q1707482', 'http://www.wikidata.org/entity/Q1708747', 'http://www.wikidata.org/entity/Q1732733', 'http://www.wikidata.org/entity/Q1735870', 'http://www.wikidata.org/entity/Q1781063', 'http://www.wikidata.org/entity/Q1819735', 'http://www.wikidata.org/entity/Q1903438', 'http://www.wikidata.org/entity/Q1908687', 'http://www.wikidata.org/entity/Q2020596', 'http://www.wikidata.org/entity/Q2040666', 'http://www.wikidata.org/entity/Q2077276', 'http://www.wikidata.org/entity/Q2338888', 'http://www.wikidata.org/entity/Q2517436', 'http://www.wikidata.org/entity/Q2581891', 'http://www.wikidata.org/entity/Q2588636', 'http://www.wikidata.org/entity/Q2645934', 'http://www.wikidata.org/entity/Q4058928', 'http://www.wikidata.org/entity/Q4191716', 'http://www.wikidata.org/entity/Q6373188', 'http://www.wikidata.org/entity/Q15734397', 'http://www.wikidata.org/entity/Q15810299', 'http://www.wikidata.org/entity/Q15979728', 'http://www.wikidata.org/entity/Q16029991', 'http://www.wikidata.org/entity/Q16663352', 'http://www.wikidata.org/entity/Q18027381', 'http://www.wikidata.org/entity/Q18029152', 'http://www.wikidata.org/entity/Q18223339', 'http://www.wikidata.org/entity/Q18508198', 'http://www.wikidata.org/entity/Q18508531', 'http://www.wikidata.org/entity/Q19273686', 'http://www.wikidata.org/entity/Q19288504', 'http://www.wikidata.org/entity/Q19966956', 'http://www.wikidata.org/entity/Q20056905', 'http://www.wikidata.org/entity/Q20801784', 'http://www.wikidata.org/entity/Q21168969', 'http://www.wikidata.org/entity/Q22249925', 'http://www.wikidata.org/entity/Q7782918', 'http://www.wikidata.org/entity/Q7983614', 'http://www.wikidata.org/entity/Q11764172', 'http://www.wikidata.org/entity/Q11923016', 'http://www.wikidata.org/entity/Q12271681', 'http://www.wikidata.org/entity/Q13578778', 'http://www.wikidata.org/entity/Q14842646', 'http://www.wikidata.org/entity/Q15430458', 'http://www.wikidata.org/entity/Q15439910', 'http://www.wikidata.org/entity/Q15452195', 'http://www.wikidata.org/entity/Q22482410', 'http://www.wikidata.org/entity/Q23928916', 'http://www.wikidata.org/entity/Q27670830', 'http://www.wikidata.org/entity/Q27672503', 'http://www.wikidata.org/entity/Q33011834', 'http://www.wikidata.org/entity/Q36668532', 'http://www.wikidata.org/entity/Q43378651', 'http://www.wikidata.org/entity/Q45927183', 'http://www.wikidata.org/entity/Q55681103', 'http://www.wikidata.org/entity/Q55885976', 'http://www.wikidata.org/entity/Q56487519', 'http://www.wikidata.org/entity/Q57385917', 'http://www.wikidata.org/entity/Q51844316', 'http://www.wikidata.org/entity/Q51844339', 'http://www.wikidata.org/entity/Q51886108', 'http://www.wikidata.org/entity/Q54862358', 'http://www.wikidata.org/entity/Q55451835', 'http://www.wikidata.org/entity/Q55674501', 'http://www.wikidata.org/entity/Q55675291', 'http://www.wikidata.org/entity/Q55676433', 'http://www.wikidata.org/entity/Q60820294', 'http://www.wikidata.org/entity/Q60822973', 'http://www.wikidata.org/entity/Q61930459', 'http://www.wikidata.org/entity/Q61971231', 'http://www.wikidata.org/entity/Q62076483', 'http://www.wikidata.org/entity/Q63485351', 'http://www.wikidata.org/entity/Q95199838', 'http://www.wikidata.org/entity/Q95227952', 'http://www.wikidata.org/entity/Q95249180', 'http://www.wikidata.org/entity/Q95389052', 'http://www.wikidata.org/entity/Q95805826', 'http://www.wikidata.org/entity/Q100706635', 'http://www.wikidata.org/entity/Q94731605', 'http://www.wikidata.org/entity/Q94753105', 'http://www.wikidata.org/entity/Q94761001', 'http://www.wikidata.org/entity/Q94777816', 'http://www.wikidata.org/entity/Q94872174', 'http://www.wikidata.org/entity/Q94887584', 'http://www.wikidata.org/entity/Q94906393', 'http://www.wikidata.org/entity/Q94922778', 'http://www.wikidata.org/entity/Q94938005', 'http://www.wikidata.org/entity/Q105047314', 'http://www.wikidata.org/entity/Q106689415', 'http://www.wikidata.org/entity/Q110162770', 'http://www.wikidata.org/entity/Q113027456', 'http://www.wikidata.org/entity/Q114245296', 'http://www.wikidata.org/entity/Q24078', 'http://www.wikidata.org/entity/Q28999', 'http://www.wikidata.org/entity/Q60528', 'http://www.wikidata.org/entity/Q105953781', 'http://www.wikidata.org/entity/Q123474414', 'http://www.wikidata.org/entity/Q124365519', 'http://www.wikidata.org/entity/Q124369289', 'http://www.wikidata.org/entity/Q124747852', 'http://www.wikidata.org/entity/Q124798509', 'http://www.wikidata.org/entity/Q124821935', 'http://www.wikidata.org/entity/Q124821984', 'http://www.wikidata.org/entity/Q124823586', 'http://www.wikidata.org/entity/Q124823640', 'http://www.wikidata.org/entity/Q124825392', 'http://www.wikidata.org/entity/Q124826025', 'http://www.wikidata.org/entity/Q124826477', 'http://www.wikidata.org/entity/Q124827127', 'http://www.wikidata.org/entity/Q124834393', 'http://www.wikidata.org/entity/Q124835415', 'http://www.wikidata.org/entity/Q124848868', 'http://www.wikidata.org/entity/Q124959174', 'http://www.wikidata.org/entity/Q125134505', 'http://www.wikidata.org/entity/Q125141527', 'http://www.wikidata.org/entity/Q125168660', 'http://www.wikidata.org/entity/Q125207247', 'http://www.wikidata.org/entity/Q125207322', 'http://www.wikidata.org/entity/Q125224535', 'http://www.wikidata.org/entity/Q125381657', 'http://www.wikidata.org/entity/Q126418132', 'http://www.wikidata.org/entity/Q128209458', 'http://www.wikidata.org/entity/Q128222132', 'http://www.wikidata.org/entity/Q128255861', 'http://www.wikidata.org/entity/Q129847804', 'http://www.wikidata.org/entity/Q71198', 'http://www.wikidata.org/entity/Q911548', 'http://www.wikidata.org/entity/Q105953', 'http://www.wikidata.org/entity/Q109745', 'http://www.wikidata.org/entity/Q111241', 'http://www.wikidata.org/entity/Q112057', 'http://www.wikidata.org/entity/Q112376', 'http://www.wikidata.org/entity/Q114557', 'http://www.wikidata.org/entity/Q76143', 'http://www.wikidata.org/entity/Q77736', 'http://www.wikidata.org/entity/Q78614', 'http://www.wikidata.org/entity/Q78793', 'http://www.wikidata.org/entity/Q78934', 'http://www.wikidata.org/entity/Q85051', 'http://www.wikidata.org/entity/Q85448', 'http://www.wikidata.org/entity/Q85692', 'http://www.wikidata.org/entity/Q86293', 'http://www.wikidata.org/entity/Q86323', 'http://www.wikidata.org/entity/Q86516', 'http://www.wikidata.org/entity/Q86718', 'http://www.wikidata.org/entity/Q87498', 'http://www.wikidata.org/entity/Q87595', 'http://www.wikidata.org/entity/Q87593', 'http://www.wikidata.org/entity/Q87698', 'http://www.wikidata.org/entity/Q87735', 'http://www.wikidata.org/entity/Q88140', 'http://www.wikidata.org/entity/Q88627', 'http://www.wikidata.org/entity/Q88835', 'http://www.wikidata.org/entity/Q89164', 'http://www.wikidata.org/entity/Q90014', 'http://www.wikidata.org/entity/Q90462', 'http://www.wikidata.org/entity/Q94040', 'http://www.wikidata.org/entity/Q94577', 'http://www.wikidata.org/entity/Q96452', 'http://www.wikidata.org/entity/Q194563', 'http://www.wikidata.org/entity/Q326252', 'http://www.wikidata.org/entity/Q347559', 'http://www.wikidata.org/entity/Q354466', 'http://www.wikidata.org/entity/Q362952', 'http://www.wikidata.org/entity/Q475749', 'http://www.wikidata.org/entity/Q493058', 'http://www.wikidata.org/entity/Q550639', 'http://www.wikidata.org/entity/Q551155', 'http://www.wikidata.org/entity/Q650151', 'http://www.wikidata.org/entity/Q697055', 'http://www.wikidata.org/entity/Q710106', 'http://www.wikidata.org/entity/Q872165', 'http://www.wikidata.org/entity/Q1036737', 'http://www.wikidata.org/entity/Q1234160', 'http://www.wikidata.org/entity/Q1246642', 'http://www.wikidata.org/entity/Q1289012', 'http://www.wikidata.org/entity/Q1701554', 'http://www.wikidata.org/entity/Q1705540', 'http://www.wikidata.org/entity/Q1707099', 'http://www.wikidata.org/entity/Q1707482', 'http://www.wikidata.org/entity/Q1708747', 'http://www.wikidata.org/entity/Q1336307', 'http://www.wikidata.org/entity/Q1336841', 'http://www.wikidata.org/entity/Q1338621', 'http://www.wikidata.org/entity/Q1360278', 'http://www.wikidata.org/entity/Q1368561', 'http://www.wikidata.org/entity/Q1379309', 'http://www.wikidata.org/entity/Q1379473', 'http://www.wikidata.org/entity/Q1414628', 'http://www.wikidata.org/entity/Q1446365', 'http://www.wikidata.org/entity/Q1449083', 'http://www.wikidata.org/entity/Q1449370', 'http://www.wikidata.org/entity/Q2077276', 'http://www.wikidata.org/entity/Q2338888', 'http://www.wikidata.org/entity/Q1732733', 'http://www.wikidata.org/entity/Q1735870', 'http://www.wikidata.org/entity/Q1781063', 'http://www.wikidata.org/entity/Q1819735', 'http://www.wikidata.org/entity/Q1903438', 'http://www.wikidata.org/entity/Q1908687', 'http://www.wikidata.org/entity/Q2020596', 'http://www.wikidata.org/entity/Q2040666', 'http://www.wikidata.org/entity/Q1604844', 'http://www.wikidata.org/entity/Q1604844', 'http://www.wikidata.org/entity/Q1614614', 'http://www.wikidata.org/entity/Q1691423', 'http://www.wikidata.org/entity/Q1465742', 'http://www.wikidata.org/entity/Q1468949', 'http://www.wikidata.org/entity/Q1484506', 'http://www.wikidata.org/entity/Q1500209', 'http://www.wikidata.org/entity/Q1501097', 'http://www.wikidata.org/entity/Q1505019', 'http://www.wikidata.org/entity/Q1510986', 'http://www.wikidata.org/entity/Q1511264', 'http://www.wikidata.org/entity/Q1527091', 'http://www.wikidata.org/entity/Q1546037', 'http://www.wikidata.org/entity/Q1555666', 'http://www.wikidata.org/entity/Q1558906', 'http://www.wikidata.org/entity/Q1570857', 'http://www.wikidata.org/entity/Q1579455', 'http://www.wikidata.org/entity/Q1581174', 'http://www.wikidata.org/entity/Q2517436', 'http://www.wikidata.org/entity/Q2581891', 'http://www.wikidata.org/entity/Q2588636', 'http://www.wikidata.org/entity/Q2645934', 'http://www.wikidata.org/entity/Q4058928', 'http://www.wikidata.org/entity/Q4191716', 'http://www.wikidata.org/entity/Q5946570', 'http://www.wikidata.org/entity/Q6373188', 'http://www.wikidata.org/entity/Q7782918', 'http://www.wikidata.org/entity/Q7983614', 'http://www.wikidata.org/entity/Q11764172', 'http://www.wikidata.org/entity/Q11923016', 'http://www.wikidata.org/entity/Q12028148', 'http://www.wikidata.org/entity/Q12271681', 'http://www.wikidata.org/entity/Q13578778', 'http://www.wikidata.org/entity/Q14842646', 'http://www.wikidata.org/entity/Q15430458', 'http://www.wikidata.org/entity/Q15436531', 'http://www.wikidata.org/entity/Q15439910', 'http://www.wikidata.org/entity/Q15452195', 'http://www.wikidata.org/entity/Q15734397', 'http://www.wikidata.org/entity/Q15810299', 'http://www.wikidata.org/entity/Q15979728', 'http://www.wikidata.org/entity/Q16029991', 'http://www.wikidata.org/entity/Q16563052', 'http://www.wikidata.org/entity/Q16663352', 'http://www.wikidata.org/entity/Q18027381', 'http://www.wikidata.org/entity/Q18029152', 'http://www.wikidata.org/entity/Q18223339', 'http://www.wikidata.org/entity/Q18508198', 'http://www.wikidata.org/entity/Q18508531', 'http://www.wikidata.org/entity/Q19273686', 'http://www.wikidata.org/entity/Q19288504', 'http://www.wikidata.org/entity/Q19309506', 'http://www.wikidata.org/entity/Q20056905', 'http://www.wikidata.org/entity/Q20801784', 'http://www.wikidata.org/entity/Q21168969', 'http://www.wikidata.org/entity/Q22249925', 'http://www.wikidata.org/entity/Q22482410', 'http://www.wikidata.org/entity/Q23928916', 'http://www.wikidata.org/entity/Q27670830', 'http://www.wikidata.org/entity/Q27672503', 'http://www.wikidata.org/entity/Q33011834', 'http://www.wikidata.org/entity/Q33011834', 'http://www.wikidata.org/entity/Q36668532', 'http://www.wikidata.org/entity/Q43378651', 'http://www.wikidata.org/entity/Q43382717', 'http://www.wikidata.org/entity/Q45927183', 'http://www.wikidata.org/entity/Q51844316', 'http://www.wikidata.org/entity/Q51844339', 'http://www.wikidata.org/entity/Q51886108', 'http://www.wikidata.org/entity/Q54862358', 'http://www.wikidata.org/entity/Q55674501', 'http://www.wikidata.org/entity/Q55675291', 'http://www.wikidata.org/entity/Q55676433', 'http://www.wikidata.org/entity/Q55681103', 'http://www.wikidata.org/entity/Q55682962', 'http://www.wikidata.org/entity/Q55885976', 'http://www.wikidata.org/entity/Q56487519', 'http://www.wikidata.org/entity/Q57385917', 'http://www.wikidata.org/entity/Q60820294', 'http://www.wikidata.org/entity/Q60822973', 'http://www.wikidata.org/entity/Q61930459', 'http://www.wikidata.org/entity/Q61971231', 'http://www.wikidata.org/entity/Q62076483', 'http://www.wikidata.org/entity/Q63485351', 'http://www.wikidata.org/entity/Q94731605', 'http://www.wikidata.org/entity/Q94753105', 'http://www.wikidata.org/entity/Q94761001', 'http://www.wikidata.org/entity/Q94777816', 'http://www.wikidata.org/entity/Q94872174', 'http://www.wikidata.org/entity/Q94887584', 'http://www.wikidata.org/entity/Q94906393', 'http://www.wikidata.org/entity/Q94922778', 'http://www.wikidata.org/entity/Q94938005', 'http://www.wikidata.org/entity/Q95227952', 'http://www.wikidata.org/entity/Q95249180', 'http://www.wikidata.org/entity/Q95389052', 'http://www.wikidata.org/entity/Q95805826', 'http://www.wikidata.org/entity/Q100706635', 'http://www.wikidata.org/entity/Q105047314', 'http://www.wikidata.org/entity/Q105953781', 'http://www.wikidata.org/entity/Q106689415', 'http://www.wikidata.org/entity/Q110162770', 'http://www.wikidata.org/entity/Q111031308', 'http://www.wikidata.org/entity/Q112469746', 'http://www.wikidata.org/entity/Q113027456', 'http://www.wikidata.org/entity/Q114245296', 'http://www.wikidata.org/entity/Q28999', 'http://www.wikidata.org/entity/Q60528', 'http://www.wikidata.org/entity/Q123474414', 'http://www.wikidata.org/entity/Q124365519', 'http://www.wikidata.org/entity/Q124369289', 'http://www.wikidata.org/entity/Q124747852', 'http://www.wikidata.org/entity/Q124798509', 'http://www.wikidata.org/entity/Q124821935', 'http://www.wikidata.org/entity/Q124821984', 'http://www.wikidata.org/entity/Q124823586', 'http://www.wikidata.org/entity/Q124823640', 'http://www.wikidata.org/entity/Q124825392', 'http://www.wikidata.org/entity/Q124826025', 'http://www.wikidata.org/entity/Q124826477', 'http://www.wikidata.org/entity/Q124827127', 'http://www.wikidata.org/entity/Q124834393', 'http://www.wikidata.org/entity/Q124835415', 'http://www.wikidata.org/entity/Q124848868', 'http://www.wikidata.org/entity/Q124959174', 'http://www.wikidata.org/entity/Q125134505', 'http://www.wikidata.org/entity/Q125141527', 'http://www.wikidata.org/entity/Q125168660', 'http://www.wikidata.org/entity/Q125207247', 'http://www.wikidata.org/entity/Q125207322', 'http://www.wikidata.org/entity/Q125224535', 'http://www.wikidata.org/entity/Q125347249', 'http://www.wikidata.org/entity/Q125381657', 'http://www.wikidata.org/entity/Q126418132', 'http://www.wikidata.org/entity/Q128209458', 'http://www.wikidata.org/entity/Q128222132', 'http://www.wikidata.org/entity/Q128255861', 'http://www.wikidata.org/entity/Q129847804', 'http://www.wikidata.org/entity/Q94743563', 'http://www.wikidata.org/entity/Q94743563', 'http://www.wikidata.org/entity/Q51844338', 'http://www.wikidata.org/entity/Q61199008', 'http://www.wikidata.org/entity/Q2173626', 'http://www.wikidata.org/entity/Q51844338', 'http://www.wikidata.org/entity/Q61199008', 'http://www.wikidata.org/entity/Q2173626']</t>
         </is>
       </c>
     </row>
@@ -4060,7 +4060,7 @@
       </c>
       <c r="D165" t="inlineStr">
         <is>
-          <t>['http://www.wikidata.org/entity/Q1313123', 'http://www.wikidata.org/entity/Q41759163', 'http://www.wikidata.org/entity/Q48808361', 'http://www.wikidata.org/entity/Q48816560', 'http://www.wikidata.org/entity/Q55605458', 'http://www.wikidata.org/entity/Q55615830', 'http://www.wikidata.org/entity/Q55623793', 'http://www.wikidata.org/entity/Q55627422', 'http://www.wikidata.org/entity/Q55637339', 'http://www.wikidata.org/entity/Q56747448', 'http://www.wikidata.org/entity/Q56752734', 'http://www.wikidata.org/entity/Q60791658', 'http://www.wikidata.org/entity/Q16899043', 'http://www.wikidata.org/entity/Q16932183', 'http://www.wikidata.org/entity/Q19877213', 'http://www.wikidata.org/entity/Q24190026', 'http://www.wikidata.org/entity/Q108325710', 'http://www.wikidata.org/entity/Q116318525', 'http://www.wikidata.org/entity/Q116318998', 'http://www.wikidata.org/entity/Q122980487', 'http://www.wikidata.org/entity/Q124570849', 'http://www.wikidata.org/entity/Q2426375', 'http://www.wikidata.org/entity/Q4997484', 'http://www.wikidata.org/entity/Q4999111', 'http://www.wikidata.org/entity/Q5374850', 'http://www.wikidata.org/entity/Q6555401', 'http://www.wikidata.org/entity/Q6663682']</t>
+          <t>['http://www.wikidata.org/entity/Q1313123', 'http://www.wikidata.org/entity/Q16899043', 'http://www.wikidata.org/entity/Q16932183', 'http://www.wikidata.org/entity/Q116318525', 'http://www.wikidata.org/entity/Q116318998', 'http://www.wikidata.org/entity/Q122980487', 'http://www.wikidata.org/entity/Q124570849', 'http://www.wikidata.org/entity/Q2426375', 'http://www.wikidata.org/entity/Q4997484', 'http://www.wikidata.org/entity/Q4999111', 'http://www.wikidata.org/entity/Q5374850', 'http://www.wikidata.org/entity/Q6555401', 'http://www.wikidata.org/entity/Q6663682', 'http://www.wikidata.org/entity/Q19877213', 'http://www.wikidata.org/entity/Q24190026', 'http://www.wikidata.org/entity/Q41759163', 'http://www.wikidata.org/entity/Q48808361', 'http://www.wikidata.org/entity/Q48816560', 'http://www.wikidata.org/entity/Q55605458', 'http://www.wikidata.org/entity/Q55615830', 'http://www.wikidata.org/entity/Q55623793', 'http://www.wikidata.org/entity/Q55627422', 'http://www.wikidata.org/entity/Q55637339', 'http://www.wikidata.org/entity/Q56747448', 'http://www.wikidata.org/entity/Q56752734', 'http://www.wikidata.org/entity/Q60791658', 'http://www.wikidata.org/entity/Q108325710']</t>
         </is>
       </c>
     </row>
@@ -4104,7 +4104,7 @@
       </c>
       <c r="D167" t="inlineStr">
         <is>
-          <t>['http://www.wikidata.org/entity/Q32444', 'http://www.wikidata.org/entity/Q32538', 'http://www.wikidata.org/entity/Q32537', 'http://www.wikidata.org/entity/Q8682', 'http://www.wikidata.org/entity/Q8687', 'http://www.wikidata.org/entity/Q8701', 'http://www.wikidata.org/entity/Q8723', 'http://www.wikidata.org/entity/Q8749', 'http://www.wikidata.org/entity/Q8760', 'http://www.wikidata.org/entity/Q8780', 'http://www.wikidata.org/entity/Q8806', 'http://www.wikidata.org/entity/Q8812', 'http://www.wikidata.org/entity/Q8823', 'http://www.wikidata.org/entity/Q8835', 'http://www.wikidata.org/entity/Q8857', 'http://www.wikidata.org/entity/Q10286', 'http://www.wikidata.org/entity/Q10300', 'http://www.wikidata.org/entity/Q10308', 'http://www.wikidata.org/entity/Q10315', 'http://www.wikidata.org/entity/Q10319', 'http://www.wikidata.org/entity/Q10329', 'http://www.wikidata.org/entity/Q10333', 'http://www.wikidata.org/entity/Q10383', 'http://www.wikidata.org/entity/Q10407', 'http://www.wikidata.org/entity/Q10467', 'http://www.wikidata.org/entity/Q10499', 'http://www.wikidata.org/entity/Q10512', 'http://www.wikidata.org/entity/Q11945', 'http://www.wikidata.org/entity/Q11955', 'http://www.wikidata.org/entity/Q11963', 'http://www.wikidata.org/entity/Q11971', 'http://www.wikidata.org/entity/Q11979', 'http://www.wikidata.org/entity/Q11984', 'http://www.wikidata.org/entity/Q11997', 'http://www.wikidata.org/entity/Q12158', 'http://www.wikidata.org/entity/Q12168', 'http://www.wikidata.org/entity/Q12230', 'http://www.wikidata.org/entity/Q12236', 'http://www.wikidata.org/entity/Q12249', 'http://www.wikidata.org/entity/Q12260', 'http://www.wikidata.org/entity/Q12278', 'http://www.wikidata.org/entity/Q12297', 'http://www.wikidata.org/entity/Q12308', 'http://www.wikidata.org/entity/Q108708', 'http://www.wikidata.org/entity/Q124518', 'http://www.wikidata.org/entity/Q765016', 'http://www.wikidata.org/entity/Q765400', 'http://www.wikidata.org/entity/Q767682', 'http://www.wikidata.org/entity/Q769189', 'http://www.wikidata.org/entity/Q770740', 'http://www.wikidata.org/entity/Q771725', 'http://www.wikidata.org/entity/Q687297', 'http://www.wikidata.org/entity/Q697353', 'http://www.wikidata.org/entity/Q697509', 'http://www.wikidata.org/entity/Q698403', 'http://www.wikidata.org/entity/Q720872', 'http://www.wikidata.org/entity/Q726810', 'http://www.wikidata.org/entity/Q727093', 'http://www.wikidata.org/entity/Q731425', 'http://www.wikidata.org/entity/Q732742', 'http://www.wikidata.org/entity/Q735632', 'http://www.wikidata.org/entity/Q741695', 'http://www.wikidata.org/entity/Q741898', 'http://www.wikidata.org/entity/Q742953', 'http://www.wikidata.org/entity/Q743240', 'http://www.wikidata.org/entity/Q743557', 'http://www.wikidata.org/entity/Q753394', 'http://www.wikidata.org/entity/Q753670', 'http://www.wikidata.org/entity/Q754372', 'http://www.wikidata.org/entity/Q754699', 'http://www.wikidata.org/entity/Q756934', 'http://www.wikidata.org/entity/Q595690', 'http://www.wikidata.org/entity/Q598899', 'http://www.wikidata.org/entity/Q600232', 'http://www.wikidata.org/entity/Q604383', 'http://www.wikidata.org/entity/Q604462', 'http://www.wikidata.org/entity/Q605577', 'http://www.wikidata.org/entity/Q611653', 'http://www.wikidata.org/entity/Q613222', 'http://www.wikidata.org/entity/Q617359', 'http://www.wikidata.org/entity/Q617817', 'http://www.wikidata.org/entity/Q632310', 'http://www.wikidata.org/entity/Q633564', 'http://www.wikidata.org/entity/Q636457', 'http://www.wikidata.org/entity/Q637427', 'http://www.wikidata.org/entity/Q641649', 'http://www.wikidata.org/entity/Q643014', 'http://www.wikidata.org/entity/Q646281', 'http://www.wikidata.org/entity/Q650797', 'http://www.wikidata.org/entity/Q650869', 'http://www.wikidata.org/entity/Q652008', 'http://www.wikidata.org/entity/Q652255', 'http://www.wikidata.org/entity/Q655749', 'http://www.wikidata.org/entity/Q657160', 'http://www.wikidata.org/entity/Q657865', 'http://www.wikidata.org/entity/Q661383', 'http://www.wikidata.org/entity/Q665835', 'http://www.wikidata.org/entity/Q666012', 'http://www.wikidata.org/entity/Q668243', 'http://www.wikidata.org/entity/Q669553', 'http://www.wikidata.org/entity/Q680336', 'http://www.wikidata.org/entity/Q368016', 'http://www.wikidata.org/entity/Q375107', 'http://www.wikidata.org/entity/Q383559', 'http://www.wikidata.org/entity/Q383617', 'http://www.wikidata.org/entity/Q389712', 'http://www.wikidata.org/entity/Q389900', 'http://www.wikidata.org/entity/Q430052', 'http://www.wikidata.org/entity/Q431421', 'http://www.wikidata.org/entity/Q431430', 'http://www.wikidata.org/entity/Q431453', 'http://www.wikidata.org/entity/Q460448', 'http://www.wikidata.org/entity/Q507489', 'http://www.wikidata.org/entity/Q513225', 'http://www.wikidata.org/entity/Q513500', 'http://www.wikidata.org/entity/Q514679', 'http://www.wikidata.org/entity/Q515516', 'http://www.wikidata.org/entity/Q516731', 'http://www.wikidata.org/entity/Q518166', 'http://www.wikidata.org/entity/Q519501', 'http://www.wikidata.org/entity/Q521580', 'http://www.wikidata.org/entity/Q527487', 'http://www.wikidata.org/entity/Q537097', 'http://www.wikidata.org/entity/Q538421', 'http://www.wikidata.org/entity/Q540047', 'http://www.wikidata.org/entity/Q543446', 'http://www.wikidata.org/entity/Q544120', 'http://www.wikidata.org/entity/Q572393', 'http://www.wikidata.org/entity/Q576285', 'http://www.wikidata.org/entity/Q576521', 'http://www.wikidata.org/entity/Q579901', 'http://www.wikidata.org/entity/Q580953', 'http://www.wikidata.org/entity/Q581803', 'http://www.wikidata.org/entity/Q582342', 'http://www.wikidata.org/entity/Q582370', 'http://www.wikidata.org/entity/Q583632', 'http://www.wikidata.org/entity/Q583697', 'http://www.wikidata.org/entity/Q584365', 'http://www.wikidata.org/entity/Q586629', 'http://www.wikidata.org/entity/Q213359', 'http://www.wikidata.org/entity/Q213364', 'http://www.wikidata.org/entity/Q216661', 'http://www.wikidata.org/entity/Q222589', 'http://www.wikidata.org/entity/Q223620', 'http://www.wikidata.org/entity/Q239049', 'http://www.wikidata.org/entity/Q257984', 'http://www.wikidata.org/entity/Q260925', 'http://www.wikidata.org/entity/Q264878', 'http://www.wikidata.org/entity/Q267892', 'http://www.wikidata.org/entity/Q269156', 'http://www.wikidata.org/entity/Q271574', 'http://www.wikidata.org/entity/Q273417', 'http://www.wikidata.org/entity/Q278646', 'http://www.wikidata.org/entity/Q290781', 'http://www.wikidata.org/entity/Q290791', 'http://www.wikidata.org/entity/Q290841', 'http://www.wikidata.org/entity/Q290881', 'http://www.wikidata.org/entity/Q779236', 'http://www.wikidata.org/entity/Q780509', 'http://www.wikidata.org/entity/Q780539', 'http://www.wikidata.org/entity/Q786430', 'http://www.wikidata.org/entity/Q790195', 'http://www.wikidata.org/entity/Q794970', 'http://www.wikidata.org/entity/Q837183', 'http://www.wikidata.org/entity/Q837218', 'http://www.wikidata.org/entity/Q837238', 'http://www.wikidata.org/entity/Q840620', 'http://www.wikidata.org/entity/Q843396', 'http://www.wikidata.org/entity/Q845831', 'http://www.wikidata.org/entity/Q846959', 'http://www.wikidata.org/entity/Q846966', 'http://www.wikidata.org/entity/Q847030', 'http://www.wikidata.org/entity/Q847077', 'http://www.wikidata.org/entity/Q847105', 'http://www.wikidata.org/entity/Q847206', 'http://www.wikidata.org/entity/Q849271', 'http://www.wikidata.org/entity/Q852079', 'http://www.wikidata.org/entity/Q852121', 'http://www.wikidata.org/entity/Q853043', 'http://www.wikidata.org/entity/Q855199', 'http://www.wikidata.org/entity/Q856024', 'http://www.wikidata.org/entity/Q856074', 'http://www.wikidata.org/entity/Q856073', 'http://www.wikidata.org/entity/Q856083', 'http://www.wikidata.org/entity/Q856086', 'http://www.wikidata.org/entity/Q856098', 'http://www.wikidata.org/entity/Q856107', 'http://www.wikidata.org/entity/Q856119', 'http://www.wikidata.org/entity/Q856137', 'http://www.wikidata.org/entity/Q856140', 'http://www.wikidata.org/entity/Q856148', 'http://www.wikidata.org/entity/Q856153', 'http://www.wikidata.org/entity/Q856179', 'http://www.wikidata.org/entity/Q856211', 'http://www.wikidata.org/entity/Q856280', 'http://www.wikidata.org/entity/Q856287', 'http://www.wikidata.org/entity/Q856415', 'http://www.wikidata.org/entity/Q856416', 'http://www.wikidata.org/entity/Q858716', 'http://www.wikidata.org/entity/Q864963', 'http://www.wikidata.org/entity/Q868039', 'http://www.wikidata.org/entity/Q908820', 'http://www.wikidata.org/entity/Q910711', 'http://www.wikidata.org/entity/Q912844', 'http://www.wikidata.org/entity/Q913083', 'http://www.wikidata.org/entity/Q913112', 'http://www.wikidata.org/entity/Q914378', 'http://www.wikidata.org/entity/Q917025', 'http://www.wikidata.org/entity/Q918044', 'http://www.wikidata.org/entity/Q918051', 'http://www.wikidata.org/entity/Q922618', 'http://www.wikidata.org/entity/Q922624', 'http://www.wikidata.org/entity/Q929753', 'http://www.wikidata.org/entity/Q931211', 'http://www.wikidata.org/entity/Q933676', 'http://www.wikidata.org/entity/Q936485', 'http://www.wikidata.org/entity/Q943938', 'http://www.wikidata.org/entity/Q946740', 'http://www.wikidata.org/entity/Q947226', 'http://www.wikidata.org/entity/Q950835', 'http://www.wikidata.org/entity/Q955888', 'http://www.wikidata.org/entity/Q956520', 'http://www.wikidata.org/entity/Q956779', 'http://www.wikidata.org/entity/Q964211', 'http://www.wikidata.org/entity/Q970474', 'http://www.wikidata.org/entity/Q973525', 'http://www.wikidata.org/entity/Q977542', 'http://www.wikidata.org/entity/Q985272', 'http://www.wikidata.org/entity/Q994224', 'http://www.wikidata.org/entity/Q1023177', 'http://www.wikidata.org/entity/Q1023220', 'http://www.wikidata.org/entity/Q1032444', 'http://www.wikidata.org/entity/Q1038858', 'http://www.wikidata.org/entity/Q1039641', 'http://www.wikidata.org/entity/Q1040719', 'http://www.wikidata.org/entity/Q1065084', 'http://www.wikidata.org/entity/Q1067737', 'http://www.wikidata.org/entity/Q1067750', 'http://www.wikidata.org/entity/Q1091462', 'http://www.wikidata.org/entity/Q1094113', 'http://www.wikidata.org/entity/Q1095594', 'http://www.wikidata.org/entity/Q1100891', 'http://www.wikidata.org/entity/Q1124892', 'http://www.wikidata.org/entity/Q1137091', 'http://www.wikidata.org/entity/Q1190065', 'http://www.wikidata.org/entity/Q1195376', 'http://www.wikidata.org/entity/Q1228331', 'http://www.wikidata.org/entity/Q1244017', 'http://www.wikidata.org/entity/Q1246437', 'http://www.wikidata.org/entity/Q1329562', 'http://www.wikidata.org/entity/Q1387287', 'http://www.wikidata.org/entity/Q1387573', 'http://www.wikidata.org/entity/Q1465923', 'http://www.wikidata.org/entity/Q1509669', 'http://www.wikidata.org/entity/Q1643535', 'http://www.wikidata.org/entity/Q1648756', 'http://www.wikidata.org/entity/Q1648770', 'http://www.wikidata.org/entity/Q1648934', 'http://www.wikidata.org/entity/Q1650411', 'http://www.wikidata.org/entity/Q1699738', 'http://www.wikidata.org/entity/Q1705764', 'http://www.wikidata.org/entity/Q1705771', 'http://www.wikidata.org/entity/Q1769458', 'http://www.wikidata.org/entity/Q1784474', 'http://www.wikidata.org/entity/Q1834397', 'http://www.wikidata.org/entity/Q1839745', 'http://www.wikidata.org/entity/Q1885427', 'http://www.wikidata.org/entity/Q1899559', 'http://www.wikidata.org/entity/Q1908962', 'http://www.wikidata.org/entity/Q1940861', 'http://www.wikidata.org/entity/Q1946131', 'http://www.wikidata.org/entity/Q1956993', 'http://www.wikidata.org/entity/Q1957273', 'http://www.wikidata.org/entity/Q1965174', 'http://www.wikidata.org/entity/Q1966527', 'http://www.wikidata.org/entity/Q1967477', 'http://www.wikidata.org/entity/Q1967817', 'http://www.wikidata.org/entity/Q1968955', 'http://www.wikidata.org/entity/Q1993640', 'http://www.wikidata.org/entity/Q1995077', 'http://www.wikidata.org/entity/Q1995433', 'http://www.wikidata.org/entity/Q2006217', 'http://www.wikidata.org/entity/Q2027179', 'http://www.wikidata.org/entity/Q2031317', 'http://www.wikidata.org/entity/Q2033195', 'http://www.wikidata.org/entity/Q2044610', 'http://www.wikidata.org/entity/Q2050822', 'http://www.wikidata.org/entity/Q2054565', 'http://www.wikidata.org/entity/Q2072381', 'http://www.wikidata.org/entity/Q2073115', 'http://www.wikidata.org/entity/Q2082633', 'http://www.wikidata.org/entity/Q2088196', 'http://www.wikidata.org/entity/Q2088219', 'http://www.wikidata.org/entity/Q2120298', 'http://www.wikidata.org/entity/Q2122194', 'http://www.wikidata.org/entity/Q2128712', 'http://www.wikidata.org/entity/Q2134598', 'http://www.wikidata.org/entity/Q2155702', 'http://www.wikidata.org/entity/Q2166279', 'http://www.wikidata.org/entity/Q2180347', 'http://www.wikidata.org/entity/Q2188139', 'http://www.wikidata.org/entity/Q2190593', 'http://www.wikidata.org/entity/Q2191759', 'http://www.wikidata.org/entity/Q2193267', 'http://www.wikidata.org/entity/Q2206737', 'http://www.wikidata.org/entity/Q2213874', 'http://www.wikidata.org/entity/Q2217134', 'http://www.wikidata.org/entity/Q2220788', 'http://www.wikidata.org/entity/Q2253360', 'http://www.wikidata.org/entity/Q2265172', 'http://www.wikidata.org/entity/Q2265856', 'http://www.wikidata.org/entity/Q2290788', 'http://www.wikidata.org/entity/Q2292703', 'http://www.wikidata.org/entity/Q2297920', 'http://www.wikidata.org/entity/Q2298585', 'http://www.wikidata.org/entity/Q2300929', 'http://www.wikidata.org/entity/Q2307886', 'http://www.wikidata.org/entity/Q2310972', 'http://www.wikidata.org/entity/Q2311865', 'http://www.wikidata.org/entity/Q2322190', 'http://www.wikidata.org/entity/Q2332097', 'http://www.wikidata.org/entity/Q2337317', 'http://www.wikidata.org/entity/Q2341495', 'http://www.wikidata.org/entity/Q2344843', 'http://www.wikidata.org/entity/Q2345557', 'http://www.wikidata.org/entity/Q2346842', 'http://www.wikidata.org/entity/Q2349507', 'http://www.wikidata.org/entity/Q2350736', 'http://www.wikidata.org/entity/Q2362460', 'http://www.wikidata.org/entity/Q2363214', 'http://www.wikidata.org/entity/Q2367921', 'http://www.wikidata.org/entity/Q2375532', 'http://www.wikidata.org/entity/Q2381267', 'http://www.wikidata.org/entity/Q2400254', 'http://www.wikidata.org/entity/Q2416689', 'http://www.wikidata.org/entity/Q2420558', 'http://www.wikidata.org/entity/Q2421038', 'http://www.wikidata.org/entity/Q2421781', 'http://www.wikidata.org/entity/Q2423014', 'http://www.wikidata.org/entity/Q2423029', 'http://www.wikidata.org/entity/Q2425628', 'http://www.wikidata.org/entity/Q2428837', 'http://www.wikidata.org/entity/Q2437460', 'http://www.wikidata.org/entity/Q2448121', 'http://www.wikidata.org/entity/Q2460401', 'http://www.wikidata.org/entity/Q2482501', 'http://www.wikidata.org/entity/Q2504228', 'http://www.wikidata.org/entity/Q2506877', 'http://www.wikidata.org/entity/Q2511257', 'http://www.wikidata.org/entity/Q2512049', 'http://www.wikidata.org/entity/Q2516447', 'http://www.wikidata.org/entity/Q2518580', 'http://www.wikidata.org/entity/Q2537650', 'http://www.wikidata.org/entity/Q2569964', 'http://www.wikidata.org/entity/Q2571785', 'http://www.wikidata.org/entity/Q2575936', 'http://www.wikidata.org/entity/Q2578091', 'http://www.wikidata.org/entity/Q2580710', 'http://www.wikidata.org/entity/Q2585755', 'http://www.wikidata.org/entity/Q2591680', 'http://www.wikidata.org/entity/Q2596600', 'http://www.wikidata.org/entity/Q2601806', 'http://www.wikidata.org/entity/Q2602316', 'http://www.wikidata.org/entity/Q2606337', 'http://www.wikidata.org/entity/Q2607628', 'http://www.wikidata.org/entity/Q2609909', 'http://www.wikidata.org/entity/Q2611377', 'http://www.wikidata.org/entity/Q2616352', 'http://www.wikidata.org/entity/Q2622372', 'http://www.wikidata.org/entity/Q2626289', 'http://www.wikidata.org/entity/Q2629403', 'http://www.wikidata.org/entity/Q2629592', 'http://www.wikidata.org/entity/Q2633360', 'http://www.wikidata.org/entity/Q2635901', 'http://www.wikidata.org/entity/Q2638063', 'http://www.wikidata.org/entity/Q2638095', 'http://www.wikidata.org/entity/Q2638194', 'http://www.wikidata.org/entity/Q2638313', 'http://www.wikidata.org/entity/Q2654963', 'http://www.wikidata.org/entity/Q2657829', 'http://www.wikidata.org/entity/Q2659364', 'http://www.wikidata.org/entity/Q2677884', 'http://www.wikidata.org/entity/Q2683624', 'http://www.wikidata.org/entity/Q2684609', 'http://www.wikidata.org/entity/Q2690482', 'http://www.wikidata.org/entity/Q2696022', 'http://www.wikidata.org/entity/Q2698432', 'http://www.wikidata.org/entity/Q2701803', 'http://www.wikidata.org/entity/Q2722081', 'http://www.wikidata.org/entity/Q2729178', 'http://www.wikidata.org/entity/Q2743097', 'http://www.wikidata.org/entity/Q2743116', 'http://www.wikidata.org/entity/Q2746796', 'http://www.wikidata.org/entity/Q2752555', 'http://www.wikidata.org/entity/Q2752949', 'http://www.wikidata.org/entity/Q2782837', 'http://www.wikidata.org/entity/Q2789945', 'http://www.wikidata.org/entity/Q2793615', 'http://www.wikidata.org/entity/Q2802531', 'http://www.wikidata.org/entity/Q2835621', 'http://www.wikidata.org/entity/Q2836708', 'http://www.wikidata.org/entity/Q2836781', 'http://www.wikidata.org/entity/Q2840052', 'http://www.wikidata.org/entity/Q2852713', 'http://www.wikidata.org/entity/Q2857929', 'http://www.wikidata.org/entity/Q2877539', 'http://www.wikidata.org/entity/Q2877695', 'http://www.wikidata.org/entity/Q2878009', 'http://www.wikidata.org/entity/Q2878363', 'http://www.wikidata.org/entity/Q2880353', 'http://www.wikidata.org/entity/Q2882795', 'http://www.wikidata.org/entity/Q2884509', 'http://www.wikidata.org/entity/Q2885668', 'http://www.wikidata.org/entity/Q2888336', 'http://www.wikidata.org/entity/Q2888821', 'http://www.wikidata.org/entity/Q2889773', 'http://www.wikidata.org/entity/Q2892689', 'http://www.wikidata.org/entity/Q2893106', 'http://www.wikidata.org/entity/Q2917880', 'http://www.wikidata.org/entity/Q2918836', 'http://www.wikidata.org/entity/Q2919766', 'http://www.wikidata.org/entity/Q2921286', 'http://www.wikidata.org/entity/Q2931214', 'http://www.wikidata.org/entity/Q2931212', 'http://www.wikidata.org/entity/Q2931213', 'http://www.wikidata.org/entity/Q2931404', 'http://www.wikidata.org/entity/Q2967577', 'http://www.wikidata.org/entity/Q2975407', 'http://www.wikidata.org/entity/Q2979851', 'http://www.wikidata.org/entity/Q2979852', 'http://www.wikidata.org/entity/Q2979863', 'http://www.wikidata.org/entity/Q2979871', 'http://www.wikidata.org/entity/Q2979954', 'http://www.wikidata.org/entity/Q2980136', 'http://www.wikidata.org/entity/Q2980149', 'http://www.wikidata.org/entity/Q2982210', 'http://www.wikidata.org/entity/Q3019930', 'http://www.wikidata.org/entity/Q3050286', 'http://www.wikidata.org/entity/Q3063099', 'http://www.wikidata.org/entity/Q3065703', 'http://www.wikidata.org/entity/Q3090884', 'http://www.wikidata.org/entity/Q3091261', 'http://www.wikidata.org/entity/Q3098282', 'http://www.wikidata.org/entity/Q3127566', 'http://www.wikidata.org/entity/Q3160759', 'http://www.wikidata.org/entity/Q3212821', 'http://www.wikidata.org/entity/Q3217822', 'http://www.wikidata.org/entity/Q3290906', 'http://www.wikidata.org/entity/Q3320657', 'http://www.wikidata.org/entity/Q3321015', 'http://www.wikidata.org/entity/Q3321644', 'http://www.wikidata.org/entity/Q3321954', 'http://www.wikidata.org/entity/Q3323820', 'http://www.wikidata.org/entity/Q3323987', 'http://www.wikidata.org/entity/Q3325122', 'http://www.wikidata.org/entity/Q3325321', 'http://www.wikidata.org/entity/Q3325336', 'http://www.wikidata.org/entity/Q3325962', 'http://www.wikidata.org/entity/Q3326358', 'http://www.wikidata.org/entity/Q3327052', 'http://www.wikidata.org/entity/Q3328452', 'http://www.wikidata.org/entity/Q3328717', 'http://www.wikidata.org/entity/Q3330941', 'http://www.wikidata.org/entity/Q3331395', 'http://www.wikidata.org/entity/Q3333081', 'http://www.wikidata.org/entity/Q4998669', 'http://www.wikidata.org/entity/Q5008932', 'http://www.wikidata.org/entity/Q5008938', 'http://www.wikidata.org/entity/Q5008939', 'http://www.wikidata.org/entity/Q5008936', 'http://www.wikidata.org/entity/Q5008940', 'http://www.wikidata.org/entity/Q5008947', 'http://www.wikidata.org/entity/Q5008945', 'http://www.wikidata.org/entity/Q5008950', 'http://www.wikidata.org/entity/Q5009481', 'http://www.wikidata.org/entity/Q5010027', 'http://www.wikidata.org/entity/Q5010029', 'http://www.wikidata.org/entity/Q5010034', 'http://www.wikidata.org/entity/Q5010035', 'http://www.wikidata.org/entity/Q5010032', 'http://www.wikidata.org/entity/Q5010033', 'http://www.wikidata.org/entity/Q5010039', 'http://www.wikidata.org/entity/Q5010036', 'http://www.wikidata.org/entity/Q5010037', 'http://www.wikidata.org/entity/Q5010042', 'http://www.wikidata.org/entity/Q5010043', 'http://www.wikidata.org/entity/Q5010040', 'http://www.wikidata.org/entity/Q5010041', 'http://www.wikidata.org/entity/Q5010046', 'http://www.wikidata.org/entity/Q5010047', 'http://www.wikidata.org/entity/Q5010044', 'http://www.wikidata.org/entity/Q5010045', 'http://www.wikidata.org/entity/Q5010051', 'http://www.wikidata.org/entity/Q5010048', 'http://www.wikidata.org/entity/Q5010049', 'http://www.wikidata.org/entity/Q5010055', 'http://www.wikidata.org/entity/Q5010052', 'http://www.wikidata.org/entity/Q5010053', 'http://www.wikidata.org/entity/Q5010059', 'http://www.wikidata.org/entity/Q5010057', 'http://www.wikidata.org/entity/Q5010062', 'http://www.wikidata.org/entity/Q5010063', 'http://www.wikidata.org/entity/Q5010060', 'http://www.wikidata.org/entity/Q5010061', 'http://www.wikidata.org/entity/Q5010066', 'http://www.wikidata.org/entity/Q5010067', 'http://www.wikidata.org/entity/Q5010070', 'http://www.wikidata.org/entity/Q5010071', 'http://www.wikidata.org/entity/Q5010074', 'http://www.wikidata.org/entity/Q5010075', 'http://www.wikidata.org/entity/Q5010072', 'http://www.wikidata.org/entity/Q5010073', 'http://www.wikidata.org/entity/Q5010078', 'http://www.wikidata.org/entity/Q5010076', 'http://www.wikidata.org/entity/Q5010077', 'http://www.wikidata.org/entity/Q5010083', 'http://www.wikidata.org/entity/Q5010081', 'http://www.wikidata.org/entity/Q5010086', 'http://www.wikidata.org/entity/Q5010087', 'http://www.wikidata.org/entity/Q5010084', 'http://www.wikidata.org/entity/Q5010090', 'http://www.wikidata.org/entity/Q5010091', 'http://www.wikidata.org/entity/Q5010088', 'http://www.wikidata.org/entity/Q5010089', 'http://www.wikidata.org/entity/Q5010094', 'http://www.wikidata.org/entity/Q5010095', 'http://www.wikidata.org/entity/Q5010092', 'http://www.wikidata.org/entity/Q5010093', 'http://www.wikidata.org/entity/Q5010098', 'http://www.wikidata.org/entity/Q5010099', 'http://www.wikidata.org/entity/Q5010096', 'http://www.wikidata.org/entity/Q5010102', 'http://www.wikidata.org/entity/Q5010103', 'http://www.wikidata.org/entity/Q5010100', 'http://www.wikidata.org/entity/Q5010101', 'http://www.wikidata.org/entity/Q5010106', 'http://www.wikidata.org/entity/Q5010104', 'http://www.wikidata.org/entity/Q5010105', 'http://www.wikidata.org/entity/Q5010110', 'http://www.wikidata.org/entity/Q5010111', 'http://www.wikidata.org/entity/Q5010108', 'http://www.wikidata.org/entity/Q5010114', 'http://www.wikidata.org/entity/Q5010113', 'http://www.wikidata.org/entity/Q5010119', 'http://www.wikidata.org/entity/Q5010116', 'http://www.wikidata.org/entity/Q5010123', 'http://www.wikidata.org/entity/Q5010120', 'http://www.wikidata.org/entity/Q5010121', 'http://www.wikidata.org/entity/Q5010126', 'http://www.wikidata.org/entity/Q5010127', 'http://www.wikidata.org/entity/Q5010124', 'http://www.wikidata.org/entity/Q5010125', 'http://www.wikidata.org/entity/Q5010130', 'http://www.wikidata.org/entity/Q5010131', 'http://www.wikidata.org/entity/Q5010129', 'http://www.wikidata.org/entity/Q5010134', 'http://www.wikidata.org/entity/Q5010132', 'http://www.wikidata.org/entity/Q5010133', 'http://www.wikidata.org/entity/Q5010138', 'http://www.wikidata.org/entity/Q5010139', 'http://www.wikidata.org/entity/Q5010136', 'http://www.wikidata.org/entity/Q5010137', 'http://www.wikidata.org/entity/Q5010142', 'http://www.wikidata.org/entity/Q5010140', 'http://www.wikidata.org/entity/Q5010141', 'http://www.wikidata.org/entity/Q3391651', 'http://www.wikidata.org/entity/Q3391718', 'http://www.wikidata.org/entity/Q3392168', 'http://www.wikidata.org/entity/Q3392383', 'http://www.wikidata.org/entity/Q3392414', 'http://www.wikidata.org/entity/Q3392484', 'http://www.wikidata.org/entity/Q3393134', 'http://www.wikidata.org/entity/Q3393146', 'http://www.wikidata.org/entity/Q3393984', 'http://www.wikidata.org/entity/Q3396421', 'http://www.wikidata.org/entity/Q3421615', 'http://www.wikidata.org/entity/Q3459444', 'http://www.wikidata.org/entity/Q3487562', 'http://www.wikidata.org/entity/Q3488677', 'http://www.wikidata.org/entity/Q3551898', 'http://www.wikidata.org/entity/Q3571464', 'http://www.wikidata.org/entity/Q3571594', 'http://www.wikidata.org/entity/Q3572364', 'http://www.wikidata.org/entity/Q3572424', 'http://www.wikidata.org/entity/Q3572544', 'http://www.wikidata.org/entity/Q3573012', 'http://www.wikidata.org/entity/Q3573032', 'http://www.wikidata.org/entity/Q3573077', 'http://www.wikidata.org/entity/Q3681510', 'http://www.wikidata.org/entity/Q3681525', 'http://www.wikidata.org/entity/Q3720742', 'http://www.wikidata.org/entity/Q4650591', 'http://www.wikidata.org/entity/Q4650596', 'http://www.wikidata.org/entity/Q4651213', 'http://www.wikidata.org/entity/Q4651218', 'http://www.wikidata.org/entity/Q4651216', 'http://www.wikidata.org/entity/Q4651223', 'http://www.wikidata.org/entity/Q4651220', 'http://www.wikidata.org/entity/Q4651221', 'http://www.wikidata.org/entity/Q4651227', 'http://www.wikidata.org/entity/Q4651225', 'http://www.wikidata.org/entity/Q4651230', 'http://www.wikidata.org/entity/Q4651234', 'http://www.wikidata.org/entity/Q4651235', 'http://www.wikidata.org/entity/Q4651236', 'http://www.wikidata.org/entity/Q4651243', 'http://www.wikidata.org/entity/Q4651246', 'http://www.wikidata.org/entity/Q4651244', 'http://www.wikidata.org/entity/Q4679645', 'http://www.wikidata.org/entity/Q4696166', 'http://www.wikidata.org/entity/Q4708966', 'http://www.wikidata.org/entity/Q4724473', 'http://www.wikidata.org/entity/Q4782327', 'http://www.wikidata.org/entity/Q4784483', 'http://www.wikidata.org/entity/Q4816947', 'http://www.wikidata.org/entity/Q4816970', 'http://www.wikidata.org/entity/Q4816973', 'http://www.wikidata.org/entity/Q4816985', 'http://www.wikidata.org/entity/Q4817005', 'http://www.wikidata.org/entity/Q4817011', 'http://www.wikidata.org/entity/Q4817008', 'http://www.wikidata.org/entity/Q4817009', 'http://www.wikidata.org/entity/Q4817015', 'http://www.wikidata.org/entity/Q4830909', 'http://www.wikidata.org/entity/Q4859507', 'http://www.wikidata.org/entity/Q4888003', 'http://www.wikidata.org/entity/Q4888027', 'http://www.wikidata.org/entity/Q4888731', 'http://www.wikidata.org/entity/Q4889720', 'http://www.wikidata.org/entity/Q4889929', 'http://www.wikidata.org/entity/Q4890097', 'http://www.wikidata.org/entity/Q4890638', 'http://www.wikidata.org/entity/Q4891402', 'http://www.wikidata.org/entity/Q4894068', 'http://www.wikidata.org/entity/Q4894322', 'http://www.wikidata.org/entity/Q5260721', 'http://www.wikidata.org/entity/Q5299159', 'http://www.wikidata.org/entity/Q5323016', 'http://www.wikidata.org/entity/Q5391946', 'http://www.wikidata.org/entity/Q5398561', 'http://www.wikidata.org/entity/Q5409057', 'http://www.wikidata.org/entity/Q5424848', 'http://www.wikidata.org/entity/Q5424990', 'http://www.wikidata.org/entity/Q5425025', 'http://www.wikidata.org/entity/Q3752096', 'http://www.wikidata.org/entity/Q3756304', 'http://www.wikidata.org/entity/Q3781538', 'http://www.wikidata.org/entity/Q3814949', 'http://www.wikidata.org/entity/Q3818766', 'http://www.wikidata.org/entity/Q3821296', 'http://www.wikidata.org/entity/Q3823679', 'http://www.wikidata.org/entity/Q3824835', 'http://www.wikidata.org/entity/Q3826073', 'http://www.wikidata.org/entity/Q3913144', 'http://www.wikidata.org/entity/Q3933827', 'http://www.wikidata.org/entity/Q3963253', 'http://www.wikidata.org/entity/Q4076084', 'http://www.wikidata.org/entity/Q4255334', 'http://www.wikidata.org/entity/Q4294651', 'http://www.wikidata.org/entity/Q6462757', 'http://www.wikidata.org/entity/Q6463150', 'http://www.wikidata.org/entity/Q5010143', 'http://www.wikidata.org/entity/Q5010144', 'http://www.wikidata.org/entity/Q5010150', 'http://www.wikidata.org/entity/Q5010149', 'http://www.wikidata.org/entity/Q5010154', 'http://www.wikidata.org/entity/Q5010152', 'http://www.wikidata.org/entity/Q5010153', 'http://www.wikidata.org/entity/Q5010156', 'http://www.wikidata.org/entity/Q5010157', 'http://www.wikidata.org/entity/Q5010162', 'http://www.wikidata.org/entity/Q5010160', 'http://www.wikidata.org/entity/Q5010391', 'http://www.wikidata.org/entity/Q5010394', 'http://www.wikidata.org/entity/Q5010395', 'http://www.wikidata.org/entity/Q5010619', 'http://www.wikidata.org/entity/Q5010926', 'http://www.wikidata.org/entity/Q5010934', 'http://www.wikidata.org/entity/Q5010933', 'http://www.wikidata.org/entity/Q5010939', 'http://www.wikidata.org/entity/Q5010936', 'http://www.wikidata.org/entity/Q5010942', 'http://www.wikidata.org/entity/Q5010943', 'http://www.wikidata.org/entity/Q5010946', 'http://www.wikidata.org/entity/Q5010944', 'http://www.wikidata.org/entity/Q5010950', 'http://www.wikidata.org/entity/Q5010948', 'http://www.wikidata.org/entity/Q5010949', 'http://www.wikidata.org/entity/Q5010954', 'http://www.wikidata.org/entity/Q5013770', 'http://www.wikidata.org/entity/Q5013771', 'http://www.wikidata.org/entity/Q5013772', 'http://www.wikidata.org/entity/Q5013776', 'http://www.wikidata.org/entity/Q5013777', 'http://www.wikidata.org/entity/Q5013783', 'http://www.wikidata.org/entity/Q5013786', 'http://www.wikidata.org/entity/Q5013787', 'http://www.wikidata.org/entity/Q5013992', 'http://www.wikidata.org/entity/Q5022904', 'http://www.wikidata.org/entity/Q5096383', 'http://www.wikidata.org/entity/Q5124174', 'http://www.wikidata.org/entity/Q5136174', 'http://www.wikidata.org/entity/Q5136283', 'http://www.wikidata.org/entity/Q5136339', 'http://www.wikidata.org/entity/Q5161075', 'http://www.wikidata.org/entity/Q5193427', 'http://www.wikidata.org/entity/Q5195050', 'http://www.wikidata.org/entity/Q5202316', 'http://www.wikidata.org/entity/Q5202721', 'http://www.wikidata.org/entity/Q5204359', 'http://www.wikidata.org/entity/Q5474983', 'http://www.wikidata.org/entity/Q5476468', 'http://www.wikidata.org/entity/Q5477613', 'http://www.wikidata.org/entity/Q5477677', 'http://www.wikidata.org/entity/Q5483292', 'http://www.wikidata.org/entity/Q5495251', 'http://www.wikidata.org/entity/Q5519517', 'http://www.wikidata.org/entity/Q5549362', 'http://www.wikidata.org/entity/Q5573035', 'http://www.wikidata.org/entity/Q5575382', 'http://www.wikidata.org/entity/Q5594090', 'http://www.wikidata.org/entity/Q5623355', 'http://www.wikidata.org/entity/Q5623365', 'http://www.wikidata.org/entity/Q5623381', 'http://www.wikidata.org/entity/Q5623388', 'http://www.wikidata.org/entity/Q5637452', 'http://www.wikidata.org/entity/Q5639968', 'http://www.wikidata.org/entity/Q5641224', 'http://www.wikidata.org/entity/Q5653565', 'http://www.wikidata.org/entity/Q5657813', 'http://www.wikidata.org/entity/Q5659441', 'http://www.wikidata.org/entity/Q5660105', 'http://www.wikidata.org/entity/Q5661450', 'http://www.wikidata.org/entity/Q5664043', 'http://www.wikidata.org/entity/Q5664061', 'http://www.wikidata.org/entity/Q5665188', 'http://www.wikidata.org/entity/Q5667807', 'http://www.wikidata.org/entity/Q5674924', 'http://www.wikidata.org/entity/Q5703233', 'http://www.wikidata.org/entity/Q5709204', 'http://www.wikidata.org/entity/Q5709552', 'http://www.wikidata.org/entity/Q5710964', 'http://www.wikidata.org/entity/Q5710985', 'http://www.wikidata.org/entity/Q5711002', 'http://www.wikidata.org/entity/Q5711017', 'http://www.wikidata.org/entity/Q5716306', 'http://www.wikidata.org/entity/Q5716816', 'http://www.wikidata.org/entity/Q5726133', 'http://www.wikidata.org/entity/Q5727120', 'http://www.wikidata.org/entity/Q5728541', 'http://www.wikidata.org/entity/Q5735311', 'http://www.wikidata.org/entity/Q5736707', 'http://www.wikidata.org/entity/Q5736961', 'http://www.wikidata.org/entity/Q5773094', 'http://www.wikidata.org/entity/Q5773113', 'http://www.wikidata.org/entity/Q5773325', 'http://www.wikidata.org/entity/Q5773347', 'http://www.wikidata.org/entity/Q5773365', 'http://www.wikidata.org/entity/Q5773537', 'http://www.wikidata.org/entity/Q5773606', 'http://www.wikidata.org/entity/Q5773608', 'http://www.wikidata.org/entity/Q5773633', 'http://www.wikidata.org/entity/Q5773643', 'http://www.wikidata.org/entity/Q5773659', 'http://www.wikidata.org/entity/Q5773665', 'http://www.wikidata.org/entity/Q5773669', 'http://www.wikidata.org/entity/Q5773701', 'http://www.wikidata.org/entity/Q5773705', 'http://www.wikidata.org/e</t>
+          <t>['http://www.wikidata.org/entity/Q8682', 'http://www.wikidata.org/entity/Q8687', 'http://www.wikidata.org/entity/Q8701', 'http://www.wikidata.org/entity/Q8723', 'http://www.wikidata.org/entity/Q8749', 'http://www.wikidata.org/entity/Q8760', 'http://www.wikidata.org/entity/Q8780', 'http://www.wikidata.org/entity/Q8806', 'http://www.wikidata.org/entity/Q8812', 'http://www.wikidata.org/entity/Q8823', 'http://www.wikidata.org/entity/Q8835', 'http://www.wikidata.org/entity/Q8857', 'http://www.wikidata.org/entity/Q10286', 'http://www.wikidata.org/entity/Q10300', 'http://www.wikidata.org/entity/Q10308', 'http://www.wikidata.org/entity/Q10315', 'http://www.wikidata.org/entity/Q10319', 'http://www.wikidata.org/entity/Q10329', 'http://www.wikidata.org/entity/Q10333', 'http://www.wikidata.org/entity/Q10383', 'http://www.wikidata.org/entity/Q10407', 'http://www.wikidata.org/entity/Q10467', 'http://www.wikidata.org/entity/Q10499', 'http://www.wikidata.org/entity/Q10512', 'http://www.wikidata.org/entity/Q11945', 'http://www.wikidata.org/entity/Q11955', 'http://www.wikidata.org/entity/Q11963', 'http://www.wikidata.org/entity/Q11971', 'http://www.wikidata.org/entity/Q11979', 'http://www.wikidata.org/entity/Q11984', 'http://www.wikidata.org/entity/Q11997', 'http://www.wikidata.org/entity/Q12158', 'http://www.wikidata.org/entity/Q12168', 'http://www.wikidata.org/entity/Q12230', 'http://www.wikidata.org/entity/Q12236', 'http://www.wikidata.org/entity/Q12249', 'http://www.wikidata.org/entity/Q12260', 'http://www.wikidata.org/entity/Q12278', 'http://www.wikidata.org/entity/Q12297', 'http://www.wikidata.org/entity/Q12308', 'http://www.wikidata.org/entity/Q32444', 'http://www.wikidata.org/entity/Q32538', 'http://www.wikidata.org/entity/Q32537', 'http://www.wikidata.org/entity/Q108708', 'http://www.wikidata.org/entity/Q124518', 'http://www.wikidata.org/entity/Q650797', 'http://www.wikidata.org/entity/Q650869', 'http://www.wikidata.org/entity/Q652008', 'http://www.wikidata.org/entity/Q652255', 'http://www.wikidata.org/entity/Q655749', 'http://www.wikidata.org/entity/Q657160', 'http://www.wikidata.org/entity/Q657865', 'http://www.wikidata.org/entity/Q661383', 'http://www.wikidata.org/entity/Q665835', 'http://www.wikidata.org/entity/Q666012', 'http://www.wikidata.org/entity/Q1065084', 'http://www.wikidata.org/entity/Q1067737', 'http://www.wikidata.org/entity/Q1067750', 'http://www.wikidata.org/entity/Q1091462', 'http://www.wikidata.org/entity/Q1094113', 'http://www.wikidata.org/entity/Q1095594', 'http://www.wikidata.org/entity/Q1100891', 'http://www.wikidata.org/entity/Q1124892', 'http://www.wikidata.org/entity/Q1137091', 'http://www.wikidata.org/entity/Q908820', 'http://www.wikidata.org/entity/Q910711', 'http://www.wikidata.org/entity/Q912844', 'http://www.wikidata.org/entity/Q913083', 'http://www.wikidata.org/entity/Q913112', 'http://www.wikidata.org/entity/Q914378', 'http://www.wikidata.org/entity/Q917025', 'http://www.wikidata.org/entity/Q918044', 'http://www.wikidata.org/entity/Q918051', 'http://www.wikidata.org/entity/Q922618', 'http://www.wikidata.org/entity/Q922624', 'http://www.wikidata.org/entity/Q929753', 'http://www.wikidata.org/entity/Q931211', 'http://www.wikidata.org/entity/Q933676', 'http://www.wikidata.org/entity/Q936485', 'http://www.wikidata.org/entity/Q943938', 'http://www.wikidata.org/entity/Q946740', 'http://www.wikidata.org/entity/Q947226', 'http://www.wikidata.org/entity/Q950835', 'http://www.wikidata.org/entity/Q955888', 'http://www.wikidata.org/entity/Q956520', 'http://www.wikidata.org/entity/Q956779', 'http://www.wikidata.org/entity/Q964211', 'http://www.wikidata.org/entity/Q970474', 'http://www.wikidata.org/entity/Q973525', 'http://www.wikidata.org/entity/Q977542', 'http://www.wikidata.org/entity/Q985272', 'http://www.wikidata.org/entity/Q994224', 'http://www.wikidata.org/entity/Q1023177', 'http://www.wikidata.org/entity/Q1023220', 'http://www.wikidata.org/entity/Q1032444', 'http://www.wikidata.org/entity/Q1038858', 'http://www.wikidata.org/entity/Q1039641', 'http://www.wikidata.org/entity/Q1040719', 'http://www.wikidata.org/entity/Q668243', 'http://www.wikidata.org/entity/Q669553', 'http://www.wikidata.org/entity/Q680336', 'http://www.wikidata.org/entity/Q687297', 'http://www.wikidata.org/entity/Q697353', 'http://www.wikidata.org/entity/Q697509', 'http://www.wikidata.org/entity/Q698403', 'http://www.wikidata.org/entity/Q720872', 'http://www.wikidata.org/entity/Q726810', 'http://www.wikidata.org/entity/Q727093', 'http://www.wikidata.org/entity/Q731425', 'http://www.wikidata.org/entity/Q732742', 'http://www.wikidata.org/entity/Q735632', 'http://www.wikidata.org/entity/Q741695', 'http://www.wikidata.org/entity/Q741898', 'http://www.wikidata.org/entity/Q742953', 'http://www.wikidata.org/entity/Q743240', 'http://www.wikidata.org/entity/Q743557', 'http://www.wikidata.org/entity/Q753394', 'http://www.wikidata.org/entity/Q753670', 'http://www.wikidata.org/entity/Q754372', 'http://www.wikidata.org/entity/Q754699', 'http://www.wikidata.org/entity/Q756934', 'http://www.wikidata.org/entity/Q765016', 'http://www.wikidata.org/entity/Q765400', 'http://www.wikidata.org/entity/Q767682', 'http://www.wikidata.org/entity/Q769189', 'http://www.wikidata.org/entity/Q770740', 'http://www.wikidata.org/entity/Q771725', 'http://www.wikidata.org/entity/Q779236', 'http://www.wikidata.org/entity/Q780509', 'http://www.wikidata.org/entity/Q780539', 'http://www.wikidata.org/entity/Q786430', 'http://www.wikidata.org/entity/Q790195', 'http://www.wikidata.org/entity/Q794970', 'http://www.wikidata.org/entity/Q837183', 'http://www.wikidata.org/entity/Q837218', 'http://www.wikidata.org/entity/Q837238', 'http://www.wikidata.org/entity/Q840620', 'http://www.wikidata.org/entity/Q843396', 'http://www.wikidata.org/entity/Q845831', 'http://www.wikidata.org/entity/Q846959', 'http://www.wikidata.org/entity/Q846966', 'http://www.wikidata.org/entity/Q847030', 'http://www.wikidata.org/entity/Q847077', 'http://www.wikidata.org/entity/Q847105', 'http://www.wikidata.org/entity/Q847206', 'http://www.wikidata.org/entity/Q849271', 'http://www.wikidata.org/entity/Q852079', 'http://www.wikidata.org/entity/Q852121', 'http://www.wikidata.org/entity/Q853043', 'http://www.wikidata.org/entity/Q855199', 'http://www.wikidata.org/entity/Q856024', 'http://www.wikidata.org/entity/Q856074', 'http://www.wikidata.org/entity/Q856073', 'http://www.wikidata.org/entity/Q856083', 'http://www.wikidata.org/entity/Q856086', 'http://www.wikidata.org/entity/Q856098', 'http://www.wikidata.org/entity/Q856107', 'http://www.wikidata.org/entity/Q856119', 'http://www.wikidata.org/entity/Q856137', 'http://www.wikidata.org/entity/Q856140', 'http://www.wikidata.org/entity/Q856148', 'http://www.wikidata.org/entity/Q856153', 'http://www.wikidata.org/entity/Q856179', 'http://www.wikidata.org/entity/Q856211', 'http://www.wikidata.org/entity/Q856280', 'http://www.wikidata.org/entity/Q856287', 'http://www.wikidata.org/entity/Q856415', 'http://www.wikidata.org/entity/Q856416', 'http://www.wikidata.org/entity/Q858716', 'http://www.wikidata.org/entity/Q864963', 'http://www.wikidata.org/entity/Q868039', 'http://www.wikidata.org/entity/Q213359', 'http://www.wikidata.org/entity/Q213364', 'http://www.wikidata.org/entity/Q216661', 'http://www.wikidata.org/entity/Q222589', 'http://www.wikidata.org/entity/Q223620', 'http://www.wikidata.org/entity/Q239049', 'http://www.wikidata.org/entity/Q257984', 'http://www.wikidata.org/entity/Q260925', 'http://www.wikidata.org/entity/Q264878', 'http://www.wikidata.org/entity/Q267892', 'http://www.wikidata.org/entity/Q269156', 'http://www.wikidata.org/entity/Q271574', 'http://www.wikidata.org/entity/Q273417', 'http://www.wikidata.org/entity/Q278646', 'http://www.wikidata.org/entity/Q290781', 'http://www.wikidata.org/entity/Q290791', 'http://www.wikidata.org/entity/Q290841', 'http://www.wikidata.org/entity/Q290881', 'http://www.wikidata.org/entity/Q368016', 'http://www.wikidata.org/entity/Q375107', 'http://www.wikidata.org/entity/Q383559', 'http://www.wikidata.org/entity/Q383617', 'http://www.wikidata.org/entity/Q389712', 'http://www.wikidata.org/entity/Q389900', 'http://www.wikidata.org/entity/Q430052', 'http://www.wikidata.org/entity/Q431421', 'http://www.wikidata.org/entity/Q431430', 'http://www.wikidata.org/entity/Q431453', 'http://www.wikidata.org/entity/Q460448', 'http://www.wikidata.org/entity/Q507489', 'http://www.wikidata.org/entity/Q513225', 'http://www.wikidata.org/entity/Q513500', 'http://www.wikidata.org/entity/Q514679', 'http://www.wikidata.org/entity/Q515516', 'http://www.wikidata.org/entity/Q516731', 'http://www.wikidata.org/entity/Q518166', 'http://www.wikidata.org/entity/Q519501', 'http://www.wikidata.org/entity/Q521580', 'http://www.wikidata.org/entity/Q527487', 'http://www.wikidata.org/entity/Q537097', 'http://www.wikidata.org/entity/Q538421', 'http://www.wikidata.org/entity/Q540047', 'http://www.wikidata.org/entity/Q543446', 'http://www.wikidata.org/entity/Q544120', 'http://www.wikidata.org/entity/Q572393', 'http://www.wikidata.org/entity/Q576285', 'http://www.wikidata.org/entity/Q576521', 'http://www.wikidata.org/entity/Q579901', 'http://www.wikidata.org/entity/Q580953', 'http://www.wikidata.org/entity/Q581803', 'http://www.wikidata.org/entity/Q582342', 'http://www.wikidata.org/entity/Q582370', 'http://www.wikidata.org/entity/Q583632', 'http://www.wikidata.org/entity/Q583697', 'http://www.wikidata.org/entity/Q584365', 'http://www.wikidata.org/entity/Q586629', 'http://www.wikidata.org/entity/Q595690', 'http://www.wikidata.org/entity/Q598899', 'http://www.wikidata.org/entity/Q600232', 'http://www.wikidata.org/entity/Q604383', 'http://www.wikidata.org/entity/Q604462', 'http://www.wikidata.org/entity/Q605577', 'http://www.wikidata.org/entity/Q611653', 'http://www.wikidata.org/entity/Q613222', 'http://www.wikidata.org/entity/Q617359', 'http://www.wikidata.org/entity/Q617817', 'http://www.wikidata.org/entity/Q632310', 'http://www.wikidata.org/entity/Q633564', 'http://www.wikidata.org/entity/Q636457', 'http://www.wikidata.org/entity/Q637427', 'http://www.wikidata.org/entity/Q641649', 'http://www.wikidata.org/entity/Q643014', 'http://www.wikidata.org/entity/Q646281', 'http://www.wikidata.org/entity/Q2569964', 'http://www.wikidata.org/entity/Q2571785', 'http://www.wikidata.org/entity/Q2575936', 'http://www.wikidata.org/entity/Q2578091', 'http://www.wikidata.org/entity/Q2580710', 'http://www.wikidata.org/entity/Q2585755', 'http://www.wikidata.org/entity/Q2591680', 'http://www.wikidata.org/entity/Q1190065', 'http://www.wikidata.org/entity/Q1195376', 'http://www.wikidata.org/entity/Q1228331', 'http://www.wikidata.org/entity/Q1244017', 'http://www.wikidata.org/entity/Q1246437', 'http://www.wikidata.org/entity/Q1329562', 'http://www.wikidata.org/entity/Q1387287', 'http://www.wikidata.org/entity/Q1387573', 'http://www.wikidata.org/entity/Q1465923', 'http://www.wikidata.org/entity/Q1509669', 'http://www.wikidata.org/entity/Q2322190', 'http://www.wikidata.org/entity/Q2332097', 'http://www.wikidata.org/entity/Q2337317', 'http://www.wikidata.org/entity/Q2341495', 'http://www.wikidata.org/entity/Q2344843', 'http://www.wikidata.org/entity/Q2345557', 'http://www.wikidata.org/entity/Q2346842', 'http://www.wikidata.org/entity/Q2349507', 'http://www.wikidata.org/entity/Q2350736', 'http://www.wikidata.org/entity/Q2362460', 'http://www.wikidata.org/entity/Q2363214', 'http://www.wikidata.org/entity/Q2367921', 'http://www.wikidata.org/entity/Q2375532', 'http://www.wikidata.org/entity/Q2381267', 'http://www.wikidata.org/entity/Q2400254', 'http://www.wikidata.org/entity/Q2416689', 'http://www.wikidata.org/entity/Q2420558', 'http://www.wikidata.org/entity/Q2421038', 'http://www.wikidata.org/entity/Q2421781', 'http://www.wikidata.org/entity/Q2423014', 'http://www.wikidata.org/entity/Q2423029', 'http://www.wikidata.org/entity/Q2425628', 'http://www.wikidata.org/entity/Q2428837', 'http://www.wikidata.org/entity/Q2437460', 'http://www.wikidata.org/entity/Q2448121', 'http://www.wikidata.org/entity/Q2460401', 'http://www.wikidata.org/entity/Q2482501', 'http://www.wikidata.org/entity/Q2504228', 'http://www.wikidata.org/entity/Q2506877', 'http://www.wikidata.org/entity/Q2511257', 'http://www.wikidata.org/entity/Q2512049', 'http://www.wikidata.org/entity/Q2516447', 'http://www.wikidata.org/entity/Q2518580', 'http://www.wikidata.org/entity/Q2537650', 'http://www.wikidata.org/entity/Q1643535', 'http://www.wikidata.org/entity/Q1648756', 'http://www.wikidata.org/entity/Q1648770', 'http://www.wikidata.org/entity/Q1648934', 'http://www.wikidata.org/entity/Q1650411', 'http://www.wikidata.org/entity/Q1699738', 'http://www.wikidata.org/entity/Q1705764', 'http://www.wikidata.org/entity/Q1705771', 'http://www.wikidata.org/entity/Q1769458', 'http://www.wikidata.org/entity/Q1784474', 'http://www.wikidata.org/entity/Q1834397', 'http://www.wikidata.org/entity/Q1839745', 'http://www.wikidata.org/entity/Q1885427', 'http://www.wikidata.org/entity/Q1899559', 'http://www.wikidata.org/entity/Q1908962', 'http://www.wikidata.org/entity/Q1940861', 'http://www.wikidata.org/entity/Q1946131', 'http://www.wikidata.org/entity/Q1956993', 'http://www.wikidata.org/entity/Q1957273', 'http://www.wikidata.org/entity/Q1965174', 'http://www.wikidata.org/entity/Q1966527', 'http://www.wikidata.org/entity/Q1967477', 'http://www.wikidata.org/entity/Q1967817', 'http://www.wikidata.org/entity/Q1968955', 'http://www.wikidata.org/entity/Q1993640', 'http://www.wikidata.org/entity/Q1995077', 'http://www.wikidata.org/entity/Q1995433', 'http://www.wikidata.org/entity/Q2006217', 'http://www.wikidata.org/entity/Q2596600', 'http://www.wikidata.org/entity/Q2601806', 'http://www.wikidata.org/entity/Q2602316', 'http://www.wikidata.org/entity/Q2606337', 'http://www.wikidata.org/entity/Q2607628', 'http://www.wikidata.org/entity/Q2609909', 'http://www.wikidata.org/entity/Q2611377', 'http://www.wikidata.org/entity/Q2616352', 'http://www.wikidata.org/entity/Q2622372', 'http://www.wikidata.org/entity/Q2626289', 'http://www.wikidata.org/entity/Q2629403', 'http://www.wikidata.org/entity/Q2629592', 'http://www.wikidata.org/entity/Q2633360', 'http://www.wikidata.org/entity/Q2635901', 'http://www.wikidata.org/entity/Q2638063', 'http://www.wikidata.org/entity/Q2638095', 'http://www.wikidata.org/entity/Q2638194', 'http://www.wikidata.org/entity/Q2638313', 'http://www.wikidata.org/entity/Q2654963', 'http://www.wikidata.org/entity/Q2657829', 'http://www.wikidata.org/entity/Q2659364', 'http://www.wikidata.org/entity/Q2677884', 'http://www.wikidata.org/entity/Q2683624', 'http://www.wikidata.org/entity/Q2684609', 'http://www.wikidata.org/entity/Q2690482', 'http://www.wikidata.org/entity/Q2696022', 'http://www.wikidata.org/entity/Q2698432', 'http://www.wikidata.org/entity/Q2701803', 'http://www.wikidata.org/entity/Q2722081', 'http://www.wikidata.org/entity/Q2729178', 'http://www.wikidata.org/entity/Q2743097', 'http://www.wikidata.org/entity/Q2743116', 'http://www.wikidata.org/entity/Q2746796', 'http://www.wikidata.org/entity/Q2752555', 'http://www.wikidata.org/entity/Q2752949', 'http://www.wikidata.org/entity/Q2782837', 'http://www.wikidata.org/entity/Q2789945', 'http://www.wikidata.org/entity/Q2793615', 'http://www.wikidata.org/entity/Q2802531', 'http://www.wikidata.org/entity/Q2835621', 'http://www.wikidata.org/entity/Q2836708', 'http://www.wikidata.org/entity/Q2836781', 'http://www.wikidata.org/entity/Q2840052', 'http://www.wikidata.org/entity/Q2852713', 'http://www.wikidata.org/entity/Q2857929', 'http://www.wikidata.org/entity/Q2877539', 'http://www.wikidata.org/entity/Q2877695', 'http://www.wikidata.org/entity/Q2878009', 'http://www.wikidata.org/entity/Q2878363', 'http://www.wikidata.org/entity/Q2880353', 'http://www.wikidata.org/entity/Q2882795', 'http://www.wikidata.org/entity/Q2884509', 'http://www.wikidata.org/entity/Q2885668', 'http://www.wikidata.org/entity/Q2888336', 'http://www.wikidata.org/entity/Q2888821', 'http://www.wikidata.org/entity/Q2889773', 'http://www.wikidata.org/entity/Q2892689', 'http://www.wikidata.org/entity/Q2893106', 'http://www.wikidata.org/entity/Q2917880', 'http://www.wikidata.org/entity/Q2918836', 'http://www.wikidata.org/entity/Q2919766', 'http://www.wikidata.org/entity/Q2921286', 'http://www.wikidata.org/entity/Q2931214', 'http://www.wikidata.org/entity/Q2931212', 'http://www.wikidata.org/entity/Q2931213', 'http://www.wikidata.org/entity/Q2931404', 'http://www.wikidata.org/entity/Q2967577', 'http://www.wikidata.org/entity/Q2975407', 'http://www.wikidata.org/entity/Q2979851', 'http://www.wikidata.org/entity/Q2979852', 'http://www.wikidata.org/entity/Q2979863', 'http://www.wikidata.org/entity/Q2979871', 'http://www.wikidata.org/entity/Q2979954', 'http://www.wikidata.org/entity/Q2980136', 'http://www.wikidata.org/entity/Q2980149', 'http://www.wikidata.org/entity/Q2982210', 'http://www.wikidata.org/entity/Q3019930', 'http://www.wikidata.org/entity/Q3050286', 'http://www.wikidata.org/entity/Q3063099', 'http://www.wikidata.org/entity/Q3065703', 'http://www.wikidata.org/entity/Q3090884', 'http://www.wikidata.org/entity/Q3098282', 'http://www.wikidata.org/entity/Q3127566', 'http://www.wikidata.org/entity/Q3160759', 'http://www.wikidata.org/entity/Q3212821', 'http://www.wikidata.org/entity/Q3217822', 'http://www.wikidata.org/entity/Q3290906', 'http://www.wikidata.org/entity/Q3320657', 'http://www.wikidata.org/entity/Q3321015', 'http://www.wikidata.org/entity/Q3321644', 'http://www.wikidata.org/entity/Q3321954', 'http://www.wikidata.org/entity/Q3323820', 'http://www.wikidata.org/entity/Q3323987', 'http://www.wikidata.org/entity/Q3325122', 'http://www.wikidata.org/entity/Q3325321', 'http://www.wikidata.org/entity/Q3325336', 'http://www.wikidata.org/entity/Q3325962', 'http://www.wikidata.org/entity/Q3326358', 'http://www.wikidata.org/entity/Q3327052', 'http://www.wikidata.org/entity/Q3328452', 'http://www.wikidata.org/entity/Q3328717', 'http://www.wikidata.org/entity/Q3330941', 'http://www.wikidata.org/entity/Q3331395', 'http://www.wikidata.org/entity/Q3333081', 'http://www.wikidata.org/entity/Q3391651', 'http://www.wikidata.org/entity/Q3391718', 'http://www.wikidata.org/entity/Q3392168', 'http://www.wikidata.org/entity/Q3392383', 'http://www.wikidata.org/entity/Q3392414', 'http://www.wikidata.org/entity/Q3392484', 'http://www.wikidata.org/entity/Q3393134', 'http://www.wikidata.org/entity/Q3393146', 'http://www.wikidata.org/entity/Q3396421', 'http://www.wikidata.org/entity/Q3421615', 'http://www.wikidata.org/entity/Q5008932', 'http://www.wikidata.org/entity/Q5008938', 'http://www.wikidata.org/entity/Q5008939', 'http://www.wikidata.org/entity/Q5008936', 'http://www.wikidata.org/entity/Q5008940', 'http://www.wikidata.org/entity/Q5008947', 'http://www.wikidata.org/entity/Q5008945', 'http://www.wikidata.org/entity/Q5008950', 'http://www.wikidata.org/entity/Q5009481', 'http://www.wikidata.org/entity/Q5010027', 'http://www.wikidata.org/entity/Q5010029', 'http://www.wikidata.org/entity/Q5010034', 'http://www.wikidata.org/entity/Q5010035', 'http://www.wikidata.org/entity/Q5010032', 'http://www.wikidata.org/entity/Q5010033', 'http://www.wikidata.org/entity/Q5010039', 'http://www.wikidata.org/entity/Q5010036', 'http://www.wikidata.org/entity/Q5010037', 'http://www.wikidata.org/entity/Q5010042', 'http://www.wikidata.org/entity/Q5010043', 'http://www.wikidata.org/entity/Q5010040', 'http://www.wikidata.org/entity/Q5010041', 'http://www.wikidata.org/entity/Q5010046', 'http://www.wikidata.org/entity/Q5010047', 'http://www.wikidata.org/entity/Q5010044', 'http://www.wikidata.org/entity/Q5010045', 'http://www.wikidata.org/entity/Q5010051', 'http://www.wikidata.org/entity/Q5010048', 'http://www.wikidata.org/entity/Q5010049', 'http://www.wikidata.org/entity/Q5010055', 'http://www.wikidata.org/entity/Q5010052', 'http://www.wikidata.org/entity/Q5010053', 'http://www.wikidata.org/entity/Q5010059', 'http://www.wikidata.org/entity/Q5010057', 'http://www.wikidata.org/entity/Q5010062', 'http://www.wikidata.org/entity/Q5010063', 'http://www.wikidata.org/entity/Q5010060', 'http://www.wikidata.org/entity/Q5010061', 'http://www.wikidata.org/entity/Q5010066', 'http://www.wikidata.org/entity/Q5010067', 'http://www.wikidata.org/entity/Q5010070', 'http://www.wikidata.org/entity/Q5010071', 'http://www.wikidata.org/entity/Q5010074', 'http://www.wikidata.org/entity/Q5010075', 'http://www.wikidata.org/entity/Q5010072', 'http://www.wikidata.org/entity/Q5010073', 'http://www.wikidata.org/entity/Q5010078', 'http://www.wikidata.org/entity/Q5010076', 'http://www.wikidata.org/entity/Q5010077', 'http://www.wikidata.org/entity/Q5010083', 'http://www.wikidata.org/entity/Q5010081', 'http://www.wikidata.org/entity/Q5010086', 'http://www.wikidata.org/entity/Q5010087', 'http://www.wikidata.org/entity/Q5010084', 'http://www.wikidata.org/entity/Q5010090', 'http://www.wikidata.org/entity/Q5010091', 'http://www.wikidata.org/entity/Q5010088', 'http://www.wikidata.org/entity/Q5010089', 'http://www.wikidata.org/entity/Q5010094', 'http://www.wikidata.org/entity/Q5010095', 'http://www.wikidata.org/entity/Q5010092', 'http://www.wikidata.org/entity/Q5010093', 'http://www.wikidata.org/entity/Q5010098', 'http://www.wikidata.org/entity/Q5010099', 'http://www.wikidata.org/entity/Q5010096', 'http://www.wikidata.org/entity/Q5010102', 'http://www.wikidata.org/entity/Q5010103', 'http://www.wikidata.org/entity/Q5010100', 'http://www.wikidata.org/entity/Q5010101', 'http://www.wikidata.org/entity/Q5010106', 'http://www.wikidata.org/entity/Q5010104', 'http://www.wikidata.org/entity/Q5010105', 'http://www.wikidata.org/entity/Q5010110', 'http://www.wikidata.org/entity/Q5010111', 'http://www.wikidata.org/entity/Q5010108', 'http://www.wikidata.org/entity/Q5010114', 'http://www.wikidata.org/entity/Q5010113', 'http://www.wikidata.org/entity/Q5010119', 'http://www.wikidata.org/entity/Q5010116', 'http://www.wikidata.org/entity/Q5010123', 'http://www.wikidata.org/entity/Q5010120', 'http://www.wikidata.org/entity/Q5010121', 'http://www.wikidata.org/entity/Q5010126', 'http://www.wikidata.org/entity/Q5010127', 'http://www.wikidata.org/entity/Q5010124', 'http://www.wikidata.org/entity/Q5010125', 'http://www.wikidata.org/entity/Q5010130', 'http://www.wikidata.org/entity/Q5010131', 'http://www.wikidata.org/entity/Q5010129', 'http://www.wikidata.org/entity/Q5010134', 'http://www.wikidata.org/entity/Q5010132', 'http://www.wikidata.org/entity/Q5010133', 'http://www.wikidata.org/entity/Q5010138', 'http://www.wikidata.org/entity/Q5010139', 'http://www.wikidata.org/entity/Q5010136', 'http://www.wikidata.org/entity/Q5010137', 'http://www.wikidata.org/entity/Q5010142', 'http://www.wikidata.org/entity/Q5010143', 'http://www.wikidata.org/entity/Q5010140', 'http://www.wikidata.org/entity/Q5010141', 'http://www.wikidata.org/entity/Q2027179', 'http://www.wikidata.org/entity/Q2031317', 'http://www.wikidata.org/entity/Q2033195', 'http://www.wikidata.org/entity/Q2044610', 'http://www.wikidata.org/entity/Q2050822', 'http://www.wikidata.org/entity/Q2054565', 'http://www.wikidata.org/entity/Q2072381', 'http://www.wikidata.org/entity/Q2073115', 'http://www.wikidata.org/entity/Q2082633', 'http://www.wikidata.org/entity/Q2088196', 'http://www.wikidata.org/entity/Q2088219', 'http://www.wikidata.org/entity/Q2120298', 'http://www.wikidata.org/entity/Q2122194', 'http://www.wikidata.org/entity/Q2128712', 'http://www.wikidata.org/entity/Q2134598', 'http://www.wikidata.org/entity/Q2155702', 'http://www.wikidata.org/entity/Q2166279', 'http://www.wikidata.org/entity/Q2180347', 'http://www.wikidata.org/entity/Q2188139', 'http://www.wikidata.org/entity/Q2190593', 'http://www.wikidata.org/entity/Q2191759', 'http://www.wikidata.org/entity/Q2193267', 'http://www.wikidata.org/entity/Q2206737', 'http://www.wikidata.org/entity/Q2213874', 'http://www.wikidata.org/entity/Q2217134', 'http://www.wikidata.org/entity/Q2220788', 'http://www.wikidata.org/entity/Q2253360', 'http://www.wikidata.org/entity/Q2265172', 'http://www.wikidata.org/entity/Q2265856', 'http://www.wikidata.org/entity/Q2290788', 'http://www.wikidata.org/entity/Q2292703', 'http://www.wikidata.org/entity/Q2297920', 'http://www.wikidata.org/entity/Q2298585', 'http://www.wikidata.org/entity/Q2300929', 'http://www.wikidata.org/entity/Q2307886', 'http://www.wikidata.org/entity/Q2310972', 'http://www.wikidata.org/entity/Q2311865', 'http://www.wikidata.org/entity/Q3459444', 'http://www.wikidata.org/entity/Q3487562', 'http://www.wikidata.org/entity/Q3488677', 'http://www.wikidata.org/entity/Q3551898', 'http://www.wikidata.org/entity/Q3571464', 'http://www.wikidata.org/entity/Q3571594', 'http://www.wikidata.org/entity/Q3572364', 'http://www.wikidata.org/entity/Q3572424', 'http://www.wikidata.org/entity/Q3572544', 'http://www.wikidata.org/entity/Q3573012', 'http://www.wikidata.org/entity/Q3573032', 'http://www.wikidata.org/entity/Q3573077', 'http://www.wikidata.org/entity/Q3681510', 'http://www.wikidata.org/entity/Q3681525', 'http://www.wikidata.org/entity/Q3720742', 'http://www.wikidata.org/entity/Q3752096', 'http://www.wikidata.org/entity/Q3756304', 'http://www.wikidata.org/entity/Q3781538', 'http://www.wikidata.org/entity/Q3814949', 'http://www.wikidata.org/entity/Q3818766', 'http://www.wikidata.org/entity/Q3821296', 'http://www.wikidata.org/entity/Q3823679', 'http://www.wikidata.org/entity/Q3824835', 'http://www.wikidata.org/entity/Q3826073', 'http://www.wikidata.org/entity/Q3913144', 'http://www.wikidata.org/entity/Q5299159', 'http://www.wikidata.org/entity/Q5323016', 'http://www.wikidata.org/entity/Q5391946', 'http://www.wikidata.org/entity/Q5398561', 'http://www.wikidata.org/entity/Q5409057', 'http://www.wikidata.org/entity/Q5424848', 'http://www.wikidata.org/entity/Q5424990', 'http://www.wikidata.org/entity/Q5425025', 'http://www.wikidata.org/entity/Q3933827', 'http://www.wikidata.org/entity/Q3963253', 'http://www.wikidata.org/entity/Q4076084', 'http://www.wikidata.org/entity/Q4255334', 'http://www.wikidata.org/entity/Q4294651', 'http://www.wikidata.org/entity/Q4650591', 'http://www.wikidata.org/entity/Q4650596', 'http://www.wikidata.org/entity/Q4651213', 'http://www.wikidata.org/entity/Q4651218', 'http://www.wikidata.org/entity/Q4651216', 'http://www.wikidata.org/entity/Q4651223', 'http://www.wikidata.org/entity/Q4651220', 'http://www.wikidata.org/entity/Q4651221', 'http://www.wikidata.org/entity/Q4651227', 'http://www.wikidata.org/entity/Q4651225', 'http://www.wikidata.org/entity/Q4651230', 'http://www.wikidata.org/entity/Q4651234', 'http://www.wikidata.org/entity/Q4651235', 'http://www.wikidata.org/entity/Q4651236', 'http://www.wikidata.org/entity/Q4651243', 'http://www.wikidata.org/entity/Q4651246', 'http://www.wikidata.org/entity/Q4651244', 'http://www.wikidata.org/entity/Q5010144', 'http://www.wikidata.org/entity/Q5010150', 'http://www.wikidata.org/entity/Q5010149', 'http://www.wikidata.org/entity/Q5010154', 'http://www.wikidata.org/entity/Q5010152', 'http://www.wikidata.org/entity/Q5010153', 'http://www.wikidata.org/entity/Q5010156', 'http://www.wikidata.org/entity/Q5010157', 'http://www.wikidata.org/entity/Q5010162', 'http://www.wikidata.org/entity/Q5010160', 'http://www.wikidata.org/entity/Q5010391', 'http://www.wikidata.org/entity/Q5010394', 'http://www.wikidata.org/entity/Q5010395', 'http://www.wikidata.org/entity/Q5010619', 'http://www.wikidata.org/entity/Q5010926', 'http://www.wikidata.org/entity/Q5010934', 'http://www.wikidata.org/entity/Q5010933', 'http://www.wikidata.org/entity/Q5010939', 'http://www.wikidata.org/entity/Q5010936', 'http://www.wikidata.org/entity/Q5010942', 'http://www.wikidata.org/entity/Q5010943', 'http://www.wikidata.org/entity/Q5010946', 'http://www.wikidata.org/entity/Q5010944', 'http://www.wikidata.org/entity/Q5010950', 'http://www.wikidata.org/entity/Q5010948', 'http://www.wikidata.org/entity/Q5010949', 'http://www.wikidata.org/entity/Q5010954', 'http://www.wikidata.org/entity/Q5013770', 'http://www.wikidata.org/entity/Q5013771', 'http://www.wikidata.org/entity/Q5013772', 'http://www.wikidata.org/entity/Q5013776', 'http://www.wikidata.org/entity/Q5013777', 'http://www.wikidata.org/entity/Q5013783', 'http://www.wikidata.org/entity/Q5013786', 'http://www.wikidata.org/entity/Q5013787', 'http://www.wikidata.org/entity/Q5022904', 'http://www.wikidata.org/entity/Q5096383', 'http://www.wikidata.org/entity/Q5124174', 'http://www.wikidata.org/entity/Q5136174', 'http://www.wikidata.org/entity/Q5136283', 'http://www.wikidata.org/entity/Q5136339', 'http://www.wikidata.org/entity/Q5161075', 'http://www.wikidata.org/entity/Q5193427', 'http://www.wikidata.org/entity/Q5195050', 'http://www.wikidata.org/entity/Q5202316', 'http://www.wikidata.org/entity/Q5202721', 'http://www.wikidata.org/entity/Q5204359', 'http://www.wikidata.org/entity/Q5260721', 'http://www.wikidata.org/entity/Q4679645', 'http://www.wikidata.org/entity/Q4696166', 'http://www.wikidata.org/entity/Q4708966', 'http://www.wikidata.org/entity/Q4724473', 'http://www.wikidata.org/entity/Q4782327', 'http://www.wikidata.org/entity/Q4784483', 'http://www.wikidata.org/entity/Q4816947', 'http://www.wikidata.org/entity/Q4816970', 'http://www.wikidata.org/entity/Q4816973', 'http://www.wikidata.org/entity/Q4816985', 'http://www.wikidata.org/entity/Q4817005', 'http://www.wikidata.org/entity/Q4817011', 'http://www.wikidata.org/entity/Q4817008', 'http://www.wikidata.org/entity/Q4817009', 'http://www.wikidata.org/entity/Q4817015', 'http://www.wikidata.org/entity/Q4830909', 'http://www.wikidata.org/entity/Q4859507', 'http://www.wikidata.org/entity/Q4888003', 'http://www.wikidata.org/entity/Q4888027', 'http://www.wikidata.org/entity/Q4888731', 'http://www.wikidata.org/entity/Q4889720', 'http://www.wikidata.org/entity/Q4889929', 'http://www.wikidata.org/entity/Q4890097', 'http://www.wikidata.org/entity/Q4890638', 'http://www.wikidata.org/entity/Q4891402', 'http://www.wikidata.org/entity/Q4894068', 'http://www.wikidata.org/entity/Q4894322', 'http://www.wikidata.org/entity/Q4998669', 'http://www.wikidata.org/entity/Q7389527', 'http://www.wikidata.org/entity/Q7389914', 'http://www.wikidata.org/entity/Q7392702', 'http://www.wikidata.org/entity/Q7392911', 'http://www.wikidata.org/entity/Q5474983', 'http://www.wikidata.org/entity/Q5476468', 'http://www.wikidata.org/entity/Q5477613', 'http://www.wikidata.org/entity/Q5477677', 'http://www.wikidata.org/entity/Q5483292', 'http://www.wikidata.org/entity/Q5495251', 'http://www.wikidata.org/entity/Q5519517', 'http://www.wikidata.org/entity/Q5549362', 'http://www.wikidata.org/entity/Q5573035', 'http://www.wikidata.org/entity/Q5575382', 'http://www.wikidata.org/entity/Q5594090', 'http://www.wikidata.org/entity/Q5623355', 'http://www.wikidata.org/entity/Q5623365', 'http://www.wikidata.org/entity/Q5623381', 'http://www.wikidata.org/entity/Q5623388', 'http://www.wikidata.org/entity/Q5637452', 'http://www.wikidata.org/entity/Q5639968', 'http://www.wikidata.org/entity/Q5641224', 'http://www.wikidata.org/entity/Q5653565', 'http://www.wikidata.org/entity/Q5657813', 'http://www.wikidata.org/entity/Q5659441', 'http://www.wikidata.org/entity/Q5660105', 'http://www.wikidata.org/entity/Q5661450', 'http://www.wikidata.org/entity/Q5664043', 'http://www.wikidata.org/entity/Q5664061', 'http://www.wikidata.org/entity/Q5665188', 'http://www.wikidata.org/entity/Q5667807', 'http://www.wikidata.org/entity/Q5674924', 'http://www.wikidata.org/entity/Q5703233', 'http://www.wikidata.org/entity/Q5709204', 'http://www.wikidata.org/entity/Q5709552', 'http://www.wikidata.org/entity/Q5710964', 'http://www.wikidata.org/entity/Q5710985', 'http://www.wikidata.org/entity/Q5711002', 'http://www.wikidata.org/entity/Q5711017', 'http://www.wikidata.org/entity/Q5716306', 'http://www.wikidata.org/entity/Q5716816', 'http://www.wikidata.org/entity/Q5726133', 'http://www.wikidata.org/entity/Q5727120', 'http://www.wikidata.org/entity/Q5728541', 'http://www.wikidata.org/entity/Q5735311', 'http://www.wikidata.org/entity/Q5736707', 'http://www.wikidata.org/entity/Q5736961', 'http://www.wikidata.org/entity/Q5773094', 'http://www.wikidata.org/entity/Q5773113', 'http://www.wikidata.org/entity/Q5773325', 'http://www.wikidata.org/entity/Q5773347', 'http://www.wikidata.org/entity/Q5773365', 'http://www.wikidata.org/entity/Q5773537', 'http://www.wikidata.org/entity/Q5773606', 'http://www.wikidata.org/entity/Q5773608', 'http://www.wikidata.org/entity/Q5773633', 'http://www.wikidata.org/entity/Q5773643', 'http://www.wikidata.org/entity/Q5773659', 'http://www.wikidata.org/entity/Q5773665', 'http://www.wikidata.org/entity/Q5773669', 'http://www.wikidata.org/entity/Q5773701', 'http://www.wikidata.org/entity/Q5773705', 'http://www.wikidata.org/entity/Q5773731', 'http://www.wikidata.org/e</t>
         </is>
       </c>
     </row>
@@ -5446,7 +5446,7 @@
       </c>
       <c r="D228" t="inlineStr">
         <is>
-          <t>['http://www.wikidata.org/entity/Q403810', 'http://www.wikidata.org/entity/Q1195106', 'http://www.wikidata.org/entity/Q2771', 'http://www.wikidata.org/entity/Q3830942', 'http://www.wikidata.org/entity/Q7091479', 'http://www.wikidata.org/entity/Q113485118', 'http://www.wikidata.org/entity/Q113859093']</t>
+          <t>['http://www.wikidata.org/entity/Q1195106', 'http://www.wikidata.org/entity/Q403810', 'http://www.wikidata.org/entity/Q3830942', 'http://www.wikidata.org/entity/Q2771', 'http://www.wikidata.org/entity/Q7091479', 'http://www.wikidata.org/entity/Q113485118', 'http://www.wikidata.org/entity/Q113859093']</t>
         </is>
       </c>
     </row>
@@ -5512,7 +5512,7 @@
       </c>
       <c r="D231" t="inlineStr">
         <is>
-          <t>['http://www.wikidata.org/entity/Q218715', 'http://www.wikidata.org/entity/Q695014', 'http://www.wikidata.org/entity/Q819150', 'http://www.wikidata.org/entity/Q3459460', 'http://www.wikidata.org/entity/Q4970083']</t>
+          <t>['http://www.wikidata.org/entity/Q218715', 'http://www.wikidata.org/entity/Q695014', 'http://www.wikidata.org/entity/Q819150', 'http://www.wikidata.org/entity/Q3459460', 'http://www.wikidata.org/entity/Q4970083', 'http://www.wikidata.org/entity/Q131624097']</t>
         </is>
       </c>
     </row>
@@ -5996,7 +5996,7 @@
       </c>
       <c r="D253" t="inlineStr">
         <is>
-          <t>['http://www.wikidata.org/entity/Q11725']</t>
+          <t>['http://www.wikidata.org/entity/Q30002']</t>
         </is>
       </c>
     </row>
@@ -6150,7 +6150,7 @@
       </c>
       <c r="D260" t="inlineStr">
         <is>
-          <t>['http://www.wikidata.org/entity/Q110154', 'http://www.wikidata.org/entity/Q152773', 'http://www.wikidata.org/entity/Q190523', 'http://www.wikidata.org/entity/Q230038', 'http://www.wikidata.org/entity/Q231576', 'http://www.wikidata.org/entity/Q254038', 'http://www.wikidata.org/entity/Q266391', 'http://www.wikidata.org/entity/Q272214', 'http://www.wikidata.org/entity/Q311699', 'http://www.wikidata.org/entity/Q313789', 'http://www.wikidata.org/entity/Q318412', 'http://www.wikidata.org/entity/Q346595', 'http://www.wikidata.org/entity/Q348445', 'http://www.wikidata.org/entity/Q356846', 'http://www.wikidata.org/entity/Q363271', 'http://www.wikidata.org/entity/Q366012', 'http://www.wikidata.org/entity/Q376176', 'http://www.wikidata.org/entity/Q444217', 'http://www.wikidata.org/entity/Q461794', 'http://www.wikidata.org/entity/Q550778', 'http://www.wikidata.org/entity/Q552103', 'http://www.wikidata.org/entity/Q1209826', 'http://www.wikidata.org/entity/Q1396278', 'http://www.wikidata.org/entity/Q2263306', 'http://www.wikidata.org/entity/Q2451563', 'http://www.wikidata.org/entity/Q2667506', 'http://www.wikidata.org/entity/Q2805350', 'http://www.wikidata.org/entity/Q5115837', 'http://www.wikidata.org/entity/Q5213941', 'http://www.wikidata.org/entity/Q6066272', 'http://www.wikidata.org/entity/Q16296', 'http://www.wikidata.org/entity/Q16297', 'http://www.wikidata.org/entity/Q16345', 'http://www.wikidata.org/entity/Q16349', 'http://www.wikidata.org/entity/Q23466']</t>
+          <t>['http://www.wikidata.org/entity/Q110154', 'http://www.wikidata.org/entity/Q152773', 'http://www.wikidata.org/entity/Q190523', 'http://www.wikidata.org/entity/Q230038', 'http://www.wikidata.org/entity/Q231576', 'http://www.wikidata.org/entity/Q254038', 'http://www.wikidata.org/entity/Q266391', 'http://www.wikidata.org/entity/Q272214', 'http://www.wikidata.org/entity/Q311699', 'http://www.wikidata.org/entity/Q313789', 'http://www.wikidata.org/entity/Q318412', 'http://www.wikidata.org/entity/Q346595', 'http://www.wikidata.org/entity/Q348445', 'http://www.wikidata.org/entity/Q356846', 'http://www.wikidata.org/entity/Q363271', 'http://www.wikidata.org/entity/Q366012', 'http://www.wikidata.org/entity/Q376176', 'http://www.wikidata.org/entity/Q444217', 'http://www.wikidata.org/entity/Q461794', 'http://www.wikidata.org/entity/Q550778', 'http://www.wikidata.org/entity/Q552103', 'http://www.wikidata.org/entity/Q1209826', 'http://www.wikidata.org/entity/Q1396278', 'http://www.wikidata.org/entity/Q2263306', 'http://www.wikidata.org/entity/Q2451563', 'http://www.wikidata.org/entity/Q2667506', 'http://www.wikidata.org/entity/Q2805350', 'http://www.wikidata.org/entity/Q5213941', 'http://www.wikidata.org/entity/Q6066272', 'http://www.wikidata.org/entity/Q16296', 'http://www.wikidata.org/entity/Q16297', 'http://www.wikidata.org/entity/Q16345', 'http://www.wikidata.org/entity/Q16349', 'http://www.wikidata.org/entity/Q23466']</t>
         </is>
       </c>
     </row>
@@ -6524,7 +6524,7 @@
       </c>
       <c r="D277" t="inlineStr">
         <is>
-          <t>['http://www.wikidata.org/entity/Q12864986', 'http://www.wikidata.org/entity/Q45922130', 'http://www.wikidata.org/entity/Q57350935', 'http://www.wikidata.org/entity/Q57397044', 'http://www.wikidata.org/entity/Q1145630', 'http://www.wikidata.org/entity/Q3055633', 'http://www.wikidata.org/entity/Q3187040', 'http://www.wikidata.org/entity/Q13581075', 'http://www.wikidata.org/entity/Q23657184', 'http://www.wikidata.org/entity/Q126949840', 'http://www.wikidata.org/entity/Q92765434', 'http://www.wikidata.org/entity/Q115181793', 'http://www.wikidata.org/entity/Q103987830', 'http://www.wikidata.org/entity/Q104013369', 'http://www.wikidata.org/entity/Q116978631', 'http://www.wikidata.org/entity/Q12874', 'http://www.wikidata.org/entity/Q829919', 'http://www.wikidata.org/entity/Q1236370', 'http://www.wikidata.org/entity/Q2058236', 'http://www.wikidata.org/entity/Q2176621', 'http://www.wikidata.org/entity/Q3092909', 'http://www.wikidata.org/entity/Q3092911', 'http://www.wikidata.org/entity/Q3092917', 'http://www.wikidata.org/entity/Q3092925', 'http://www.wikidata.org/entity/Q3743920', 'http://www.wikidata.org/entity/Q3743972', 'http://www.wikidata.org/entity/Q3743990', 'http://www.wikidata.org/entity/Q5447345', 'http://www.wikidata.org/entity/Q5550345', 'http://www.wikidata.org/entity/Q5660198', 'http://www.wikidata.org/entity/Q5860860', 'http://www.wikidata.org/entity/Q5861663', 'http://www.wikidata.org/entity/Q5861795', 'http://www.wikidata.org/entity/Q5861825', 'http://www.wikidata.org/entity/Q8961595', 'http://www.wikidata.org/entity/Q11921892', 'http://www.wikidata.org/entity/Q11921893', 'http://www.wikidata.org/entity/Q11921915', 'http://www.wikidata.org/entity/Q11921926', 'http://www.wikidata.org/entity/Q11921927', 'http://www.wikidata.org/entity/Q12388488', 'http://www.wikidata.org/entity/Q16303295', 'http://www.wikidata.org/entity/Q16303298', 'http://www.wikidata.org/entity/Q17301586', 'http://www.wikidata.org/entity/Q17630412', 'http://www.wikidata.org/entity/Q18696203', 'http://www.wikidata.org/entity/Q19917524', 'http://www.wikidata.org/entity/Q20015055', 'http://www.wikidata.org/entity/Q20100567', 'http://www.wikidata.org/entity/Q20102845', 'http://www.wikidata.org/entity/Q20102966', 'http://www.wikidata.org/entity/Q20103063', 'http://www.wikidata.org/entity/Q20103076', 'http://www.wikidata.org/entity/Q20103348', 'http://www.wikidata.org/entity/Q20103509', 'http://www.wikidata.org/entity/Q20103662', 'http://www.wikidata.org/entity/Q20103856', 'http://www.wikidata.org/entity/Q20103945', 'http://www.wikidata.org/entity/Q20104229', 'http://www.wikidata.org/entity/Q20104233', 'http://www.wikidata.org/entity/Q20104238', 'http://www.wikidata.org/entity/Q20104248', 'http://www.wikidata.org/entity/Q20104252', 'http://www.wikidata.org/entity/Q20104262', 'http://www.wikidata.org/entity/Q20104265', 'http://www.wikidata.org/entity/Q20104268', 'http://www.wikidata.org/entity/Q20104407', 'http://www.wikidata.org/entity/Q20104434', 'http://www.wikidata.org/entity/Q20104445', 'http://www.wikidata.org/entity/Q20104469', 'http://www.wikidata.org/entity/Q20104474', 'http://www.wikidata.org/entity/Q20104482', 'http://www.wikidata.org/entity/Q20104506', 'http://www.wikidata.org/entity/Q20104613', 'http://www.wikidata.org/entity/Q20104655', 'http://www.wikidata.org/entity/Q20104667', 'http://www.wikidata.org/entity/Q20104876', 'http://www.wikidata.org/entity/Q20104915', 'http://www.wikidata.org/entity/Q20104956', 'http://www.wikidata.org/entity/Q20104964', 'http://www.wikidata.org/entity/Q20105027', 'http://www.wikidata.org/entity/Q20105033', 'http://www.wikidata.org/entity/Q20105353', 'http://www.wikidata.org/entity/Q20105877', 'http://www.wikidata.org/entity/Q20105975', 'http://www.wikidata.org/entity/Q20106073', 'http://www.wikidata.org/entity/Q20106203', 'http://www.wikidata.org/entity/Q20106415', 'http://www.wikidata.org/entity/Q20106420', 'http://www.wikidata.org/entity/Q20106424', 'http://www.wikidata.org/entity/Q20106425', 'http://www.wikidata.org/entity/Q20106430', 'http://www.wikidata.org/entity/Q20106433', 'http://www.wikidata.org/entity/Q20106436', 'http://www.wikidata.org/entity/Q20106438', 'http://www.wikidata.org/entity/Q20106450', 'http://www.wikidata.org/entity/Q20106481', 'http://www.wikidata.org/entity/Q20106518', 'http://www.wikidata.org/entity/Q20106650', 'http://www.wikidata.org/entity/Q20106652', 'http://www.wikidata.org/entity/Q20106670', 'http://www.wikidata.org/entity/Q20106755', 'http://www.wikidata.org/entity/Q20106794', 'http://www.wikidata.org/entity/Q20107331', 'http://www.wikidata.org/entity/Q20107766', 'http://www.wikidata.org/entity/Q20107785', 'http://www.wikidata.org/entity/Q20108096', 'http://www.wikidata.org/entity/Q20108097', 'http://www.wikidata.org/entity/Q20108098', 'http://www.wikidata.org/entity/Q20108299', 'http://www.wikidata.org/entity/Q20108433', 'http://www.wikidata.org/entity/Q20108749', 'http://www.wikidata.org/entity/Q20108834', 'http://www.wikidata.org/entity/Q20109092', 'http://www.wikidata.org/entity/Q20109116', 'http://www.wikidata.org/entity/Q20724614', 'http://www.wikidata.org/entity/Q23199370', 'http://www.wikidata.org/entity/Q23309296', 'http://www.wikidata.org/entity/Q23309493', 'http://www.wikidata.org/entity/Q23309754', 'http://www.wikidata.org/entity/Q23310065', 'http://www.wikidata.org/entity/Q23449316', 'http://www.wikidata.org/entity/Q23449563', 'http://www.wikidata.org/entity/Q23452764', 'http://www.wikidata.org/entity/Q23455600', 'http://www.wikidata.org/entity/Q23459290', 'http://www.wikidata.org/entity/Q23459345', 'http://www.wikidata.org/entity/Q23500667', 'http://www.wikidata.org/entity/Q23540271', 'http://www.wikidata.org/entity/Q23540407', 'http://www.wikidata.org/entity/Q23540583', 'http://www.wikidata.org/entity/Q23540764', 'http://www.wikidata.org/entity/Q23541026', 'http://www.wikidata.org/entity/Q23541279', 'http://www.wikidata.org/entity/Q23541312', 'http://www.wikidata.org/entity/Q23640572', 'http://www.wikidata.org/entity/Q23641859', 'http://www.wikidata.org/entity/Q23641876', 'http://www.wikidata.org/entity/Q23641877', 'http://www.wikidata.org/entity/Q23641879', 'http://www.wikidata.org/entity/Q23647866', 'http://www.wikidata.org/entity/Q23650275', 'http://www.wikidata.org/entity/Q23650279', 'http://www.wikidata.org/entity/Q23657080', 'http://www.wikidata.org/entity/Q24940835', 'http://www.wikidata.org/entity/Q47196900', 'http://www.wikidata.org/entity/Q55223763', 'http://www.wikidata.org/entity/Q60849262', 'http://www.wikidata.org/entity/Q62059890', 'http://www.wikidata.org/entity/Q97190829', 'http://www.wikidata.org/entity/Q108183111', 'http://www.wikidata.org/entity/Q108404671', 'http://www.wikidata.org/entity/Q108923501', 'http://www.wikidata.org/entity/Q111649876', 'http://www.wikidata.org/entity/Q113325889', 'http://www.wikidata.org/entity/Q113458549', 'http://www.wikidata.org/entity/Q113458586', 'http://www.wikidata.org/entity/Q115220170', 'http://www.wikidata.org/entity/Q115680468', 'http://www.wikidata.org/entity/Q115918939', 'http://www.wikidata.org/entity/Q116553084', 'http://www.wikidata.org/entity/Q116620871', 'http://www.wikidata.org/entity/Q117211723', 'http://www.wikidata.org/entity/Q117211724', 'http://www.wikidata.org/entity/Q117211725', 'http://www.wikidata.org/entity/Q120403066', 'http://www.wikidata.org/entity/Q122339754', 'http://www.wikidata.org/entity/Q122340707', 'http://www.wikidata.org/entity/Q122340709', 'http://www.wikidata.org/entity/Q122340715', 'http://www.wikidata.org/entity/Q122340961', 'http://www.wikidata.org/entity/Q122340962', 'http://www.wikidata.org/entity/Q122340997', 'http://www.wikidata.org/entity/Q122341038', 'http://www.wikidata.org/entity/Q122378278', 'http://www.wikidata.org/entity/Q124259057', 'http://www.wikidata.org/entity/Q126510686', 'http://www.wikidata.org/entity/Q126695857', 'http://www.wikidata.org/entity/Q129262518', 'http://www.wikidata.org/entity/Q129263928', 'http://www.wikidata.org/entity/Q130465425', 'http://www.wikidata.org/entity/Q130611902', 'http://www.wikidata.org/entity/Q45919493', 'http://www.wikidata.org/entity/Q57316168', 'http://www.wikidata.org/entity/Q57396575', 'http://www.wikidata.org/entity/Q69305891', 'http://www.wikidata.org/entity/Q69307402', 'http://www.wikidata.org/entity/Q1866927', 'http://www.wikidata.org/entity/Q10405661', 'http://www.wikidata.org/entity/Q25032', 'http://www.wikidata.org/entity/Q26314', 'http://www.wikidata.org/entity/Q29278', 'http://www.wikidata.org/entity/Q72900', 'http://www.wikidata.org/entity/Q131080', 'http://www.wikidata.org/entity/Q152395', 'http://www.wikidata.org/entity/Q152662', 'http://www.wikidata.org/entity/Q153043', 'http://www.wikidata.org/entity/Q154326', 'http://www.wikidata.org/entity/Q162691', 'http://www.wikidata.org/entity/Q183283', 'http://www.wikidata.org/entity/Q188468', 'http://www.wikidata.org/entity/Q193027', 'http://www.wikidata.org/entity/Q207213', 'http://www.wikidata.org/entity/Q212829', 'http://www.wikidata.org/entity/Q216452', 'http://www.wikidata.org/entity/Q260881', 'http://www.wikidata.org/entity/Q309256', 'http://www.wikidata.org/entity/Q339689', 'http://www.wikidata.org/entity/Q381240', 'http://www.wikidata.org/entity/Q445955', 'http://www.wikidata.org/entity/Q460113', 'http://www.wikidata.org/entity/Q464458', 'http://www.wikidata.org/entity/Q474831', 'http://www.wikidata.org/entity/Q474853', 'http://www.wikidata.org/entity/Q475914', 'http://www.wikidata.org/entity/Q477741', 'http://www.wikidata.org/entity/Q514706', 'http://www.wikidata.org/entity/Q527006', 'http://www.wikidata.org/entity/Q574807', 'http://www.wikidata.org/entity/Q605458', 'http://www.wikidata.org/entity/Q614734', 'http://www.wikidata.org/entity/Q649128', 'http://www.wikidata.org/entity/Q671192', 'http://www.wikidata.org/entity/Q675181', 'http://www.wikidata.org/entity/Q685394', 'http://www.wikidata.org/entity/Q685602', 'http://www.wikidata.org/entity/Q691810', 'http://www.wikidata.org/entity/Q760225', 'http://www.wikidata.org/entity/Q788392', 'http://www.wikidata.org/entity/Q883628', 'http://www.wikidata.org/entity/Q928653', 'http://www.wikidata.org/entity/Q947100', 'http://www.wikidata.org/entity/Q959916', 'http://www.wikidata.org/entity/Q972803', 'http://www.wikidata.org/entity/Q1038328', 'http://www.wikidata.org/entity/Q1107928', 'http://www.wikidata.org/entity/Q1128065', 'http://www.wikidata.org/entity/Q1145922', 'http://www.wikidata.org/entity/Q1173073', 'http://www.wikidata.org/entity/Q1221069', 'http://www.wikidata.org/entity/Q1238731', 'http://www.wikidata.org/entity/Q1239437', 'http://www.wikidata.org/entity/Q1323616', 'http://www.wikidata.org/entity/Q1367629', 'http://www.wikidata.org/entity/Q1369701', 'http://www.wikidata.org/entity/Q1380471', 'http://www.wikidata.org/entity/Q1408533', 'http://www.wikidata.org/entity/Q1418137', 'http://www.wikidata.org/entity/Q1501703', 'http://www.wikidata.org/entity/Q1537037', 'http://www.wikidata.org/entity/Q1544847', 'http://www.wikidata.org/entity/Q1547788', 'http://www.wikidata.org/entity/Q1600879', 'http://www.wikidata.org/entity/Q1618905', 'http://www.wikidata.org/entity/Q1641521', 'http://www.wikidata.org/entity/Q1642232', 'http://www.wikidata.org/entity/Q1730891', 'http://www.wikidata.org/entity/Q1751963', 'http://www.wikidata.org/entity/Q1776288', 'http://www.wikidata.org/entity/Q1797519', 'http://www.wikidata.org/entity/Q1811302', 'http://www.wikidata.org/entity/Q1920049', 'http://www.wikidata.org/entity/Q1929272', 'http://www.wikidata.org/entity/Q1969313', 'http://www.wikidata.org/entity/Q2114954', 'http://www.wikidata.org/entity/Q2176622', 'http://www.wikidata.org/entity/Q2208208', 'http://www.wikidata.org/entity/Q2208328', 'http://www.wikidata.org/entity/Q2223165', 'http://www.wikidata.org/entity/Q2338650', 'http://www.wikidata.org/entity/Q2391718', 'http://www.wikidata.org/entity/Q2394624', 'http://www.wikidata.org/entity/Q2454744', 'http://www.wikidata.org/entity/Q2461213', 'http://www.wikidata.org/entity/Q2506218', 'http://www.wikidata.org/entity/Q2565716', 'http://www.wikidata.org/entity/Q2576064', 'http://www.wikidata.org/entity/Q2629762', 'http://www.wikidata.org/entity/Q2638602', 'http://www.wikidata.org/entity/Q2661455', 'http://www.wikidata.org/entity/Q2671446', 'http://www.wikidata.org/entity/Q2671645', 'http://www.wikidata.org/entity/Q2734385', 'http://www.wikidata.org/entity/Q2742233', 'http://www.wikidata.org/entity/Q2826519', 'http://www.wikidata.org/entity/Q2902548', 'http://www.wikidata.org/entity/Q2940731', 'http://www.wikidata.org/entity/Q3100758', 'http://www.wikidata.org/entity/Q3106381', 'http://www.wikidata.org/entity/Q3145002', 'http://www.wikidata.org/entity/Q3210273', 'http://www.wikidata.org/entity/Q3276499', 'http://www.wikidata.org/entity/Q3317559', 'http://www.wikidata.org/entity/Q3351929', 'http://www.wikidata.org/entity/Q3355023', 'http://www.wikidata.org/entity/Q3360406', 'http://www.wikidata.org/entity/Q3360565', 'http://www.wikidata.org/entity/Q3441599', 'http://www.wikidata.org/entity/Q3479082', 'http://www.wikidata.org/entity/Q3558603', 'http://www.wikidata.org/entity/Q3587649', 'http://www.wikidata.org/entity/Q3717878', 'http://www.wikidata.org/entity/Q3743886', 'http://www.wikidata.org/entity/Q3743957', 'http://www.wikidata.org/entity/Q3743962', 'http://www.wikidata.org/entity/Q3743963', 'http://www.wikidata.org/entity/Q3743969', 'http://www.wikidata.org/entity/Q3743970', 'http://www.wikidata.org/entity/Q3870479', 'http://www.wikidata.org/entity/Q4008673', 'http://www.wikidata.org/entity/Q4069073', 'http://www.wikidata.org/entity/Q4115762', 'http://www.wikidata.org/entity/Q4388007', 'http://www.wikidata.org/entity/Q4426058', 'http://www.wikidata.org/entity/Q4926335', 'http://www.wikidata.org/entity/Q4990671', 'http://www.wikidata.org/entity/Q5070885', 'http://www.wikidata.org/entity/Q5193138', 'http://www.wikidata.org/entity/Q5240972', 'http://www.wikidata.org/entity/Q5249824', 'http://www.wikidata.org/entity/Q5266410', 'http://www.wikidata.org/entity/Q5320307', 'http://www.wikidata.org/entity/Q5439541', 'http://www.wikidata.org/entity/Q5439549', 'http://www.wikidata.org/entity/Q5476020', 'http://www.wikidata.org/entity/Q5588583', 'http://www.wikidata.org/entity/Q5610840', 'http://www.wikidata.org/entity/Q5620353', 'http://www.wikidata.org/entity/Q5746722', 'http://www.wikidata.org/entity/Q5753239', 'http://www.wikidata.org/entity/Q5758552', 'http://www.wikidata.org/entity/Q5829324', 'http://www.wikidata.org/entity/Q5861378', 'http://www.wikidata.org/entity/Q5861764', 'http://www.wikidata.org/entity/Q5861873', 'http://www.wikidata.org/entity/Q5877770', 'http://www.wikidata.org/entity/Q5886922', 'http://www.wikidata.org/entity/Q5894800', 'http://www.wikidata.org/entity/Q5907204', 'http://www.wikidata.org/entity/Q5946371', 'http://www.wikidata.org/entity/Q6005322', 'http://www.wikidata.org/entity/Q6057512', 'http://www.wikidata.org/entity/Q6408072', 'http://www.wikidata.org/entity/Q6484291', 'http://www.wikidata.org/entity/Q6505620', 'http://www.wikidata.org/entity/Q7088502', 'http://www.wikidata.org/entity/Q7142743', 'http://www.wikidata.org/entity/Q7289735', 'http://www.wikidata.org/entity/Q7413171', 'http://www.wikidata.org/entity/Q7418539', 'http://www.wikidata.org/entity/Q7592831', 'http://www.wikidata.org/entity/Q7937378', 'http://www.wikidata.org/entity/Q9076605', 'http://www.wikidata.org/entity/Q10281749', 'http://www.wikidata.org/entity/Q10281780', 'http://www.wikidata.org/entity/Q10281783', 'http://www.wikidata.org/entity/Q10281787', 'http://www.wikidata.org/entity/Q10281793', 'http://www.wikidata.org/entity/Q10379695', 'http://www.wikidata.org/entity/Q10405623', 'http://www.wikidata.org/entity/Q10411424', 'http://www.wikidata.org/entity/Q10412386', 'http://www.wikidata.org/entity/Q11905207', 'http://www.wikidata.org/entity/Q11916249', 'http://www.wikidata.org/entity/Q11919652', 'http://www.wikidata.org/entity/Q11938257', 'http://www.wikidata.org/entity/Q11958442', 'http://www.wikidata.org/entity/Q11977920', 'http://www.wikidata.org/entity/Q12061483', 'http://www.wikidata.org/entity/Q12455865', 'http://www.wikidata.org/entity/Q12458939', 'http://www.wikidata.org/entity/Q12525597', 'http://www.wikidata.org/entity/Q12713841', 'http://www.wikidata.org/entity/Q12716026', 'http://www.wikidata.org/entity/Q12716746', 'http://www.wikidata.org/entity/Q12877855', 'http://www.wikidata.org/entity/Q12884515', 'http://www.wikidata.org/entity/Q13117015', 'http://www.wikidata.org/entity/Q13180810', 'http://www.wikidata.org/entity/Q13409860', 'http://www.wikidata.org/entity/Q15109140', 'http://www.wikidata.org/entity/Q15113728', 'http://www.wikidata.org/entity/Q15334955', 'http://www.wikidata.org/entity/Q15645154', 'http://www.wikidata.org/entity/Q15724459', 'http://www.wikidata.org/entity/Q15725511', 'http://www.wikidata.org/entity/Q15919013', 'http://www.wikidata.org/entity/Q15954764', 'http://www.wikidata.org/entity/Q16052134', 'http://www.wikidata.org/entity/Q16113327', 'http://www.wikidata.org/entity/Q16312282', 'http://www.wikidata.org/entity/Q16330747', 'http://www.wikidata.org/entity/Q16331414', 'http://www.wikidata.org/entity/Q16331743', 'http://www.wikidata.org/entity/Q16345168', 'http://www.wikidata.org/entity/Q16570179', 'http://www.wikidata.org/entity/Q16699028', 'http://www.wikidata.org/entity/Q16873812', 'http://www.wikidata.org/entity/Q16963574', 'http://www.wikidata.org/entity/Q17019244', 'http://www.wikidata.org/entity/Q17052906', 'http://www.wikidata.org/entity/Q17064941', 'http://www.wikidata.org/entity/Q17155801', 'http://www.wikidata.org/entity/Q17177239', 'http://www.wikidata.org/entity/Q17386635', 'http://www.wikidata.org/entity/Q17995343', 'http://www.wikidata.org/entity/Q18191653', 'http://www.wikidata.org/entity/Q18215312', 'http://www.wikidata.org/entity/Q18987298', 'http://www.wikidata.org/entity/Q19559318', 'http://www.wikidata.org/entity/Q19808956', 'http://www.wikidata.org/entity/Q19885976', 'http://www.wikidata.org/entity/Q20055687', 'http://www.wikidata.org/entity/Q20108063', 'http://www.wikidata.org/entity/Q20109142', 'http://www.wikidata.org/entity/Q20476964', 'http://www.wikidata.org/entity/Q20512338', 'http://www.wikidata.org/entity/Q20704257', 'http://www.wikidata.org/entity/Q20872650', 'http://www.wikidata.org/entity/Q21199140', 'http://www.wikidata.org/entity/Q21684190', 'http://www.wikidata.org/entity/Q24961004', 'http://www.wikidata.org/entity/Q25253494', 'http://www.wikidata.org/entity/Q25509550', 'http://www.wikidata.org/entity/Q25535657', 'http://www.wikidata.org/entity/Q25587296', 'http://www.wikidata.org/entity/Q25644141', 'http://www.wikidata.org/entity/Q27881732', 'http://www.wikidata.org/entity/Q28136810', 'http://www.wikidata.org/entity/Q28807713', 'http://www.wikidata.org/entity/Q30675075', 'http://www.wikidata.org/entity/Q31896070', 'http://www.wikidata.org/entity/Q31896093', 'http://www.wikidata.org/entity/Q35585621', 'http://www.wikidata.org/entity/Q39086559', 'http://www.wikidata.org/entity/Q43252544', 'http://www.wikidata.org/entity/Q46441681', 'http://www.wikidata.org/entity/Q50360872', 'http://www.wikidata.org/entity/Q51028723', 'http://www.wikidata.org/entity/Q55037361', 'http://www.wikidata.org/entity/Q57159832', 'http://www.wikidata.org/entity/Q60643381', 'http://www.wikidata.org/entity/Q61354730', 'http://www.wikidata.org/entity/Q65170894', 'http://www.wikidata.org/entity/Q65347908', 'http://www.wikidata.org/entity/Q65679763', 'http://www.wikidata.org/entity/Q66315418', 'http://www.wikidata.org/entity/Q66315644', 'http://www.wikidata.org/entity/Q80791307', 'http://www.wikidata.org/entity/Q84430787', 'http://www.wikidata.org/entity/Q85769095', 'http://www.wikidata.org/entity/Q86726012', 'http://www.wikidata.org/entity/Q87936485', 'http://www.wikidata.org/entity/Q88000458', 'http://www.wikidata.org/entity/Q97357901', 'http://www.wikidata.org/entity/Q98396967', 'http://www.wikidata.org/entity/Q99600910', 'http://www.wikidata.org/entity/Q105888686', 'http://www.wikidata.org/entity/Q106113886', 'http://www.wikidata.org/entity/Q106658464', 'http://www.wikidata.org/entity/Q106658575', 'http://www.wikidata.org/entity/Q106658749', 'http://www.wikidata.org/entity/Q106658879', 'http://www.wikidata.org/entity/Q106659060', 'http://www.wikidata.org/entity/Q106663543', 'http://www.wikidata.org/entity/Q106663566', 'http://www.wikidata.org/entity/Q106663587', 'http://www.wikidata.org/entity/Q106663613', 'http://www.wikidata.org/entity/Q106663745', 'http://www.wikidata.org/entity/Q106663779', 'http://www.wikidata.org/entity/Q106663799', 'http://www.wikidata.org/entity/Q106664025', 'http://www.wikidata.org/entity/Q106664072', 'http://www.wikidata.org/entity/Q106664114', 'http://www.wikidata.org/entity/Q106698317', 'http://www.wikidata.org/entity/Q106810895', 'http://www.wikidata.org/entity/Q107296290', 'http://www.wikidata.org/entity/Q107718805', 'http://www.wikidata.org/entity/Q108131396', 'http://www.wikidata.org/entity/Q108177441', 'http://www.wikidata.org/entity/Q108338128', 'http://www.wikidata.org/entity/Q108367189', 'http://www.wikidata.org/entity/Q108447771', 'http://www.wikidata.org/entity/Q108581891', 'http://www.wikidata.org/entity/Q108803791', 'http://www.wikidata.org/entity/Q109310919', 'http://www.wikidata.org/entity/Q109311258', 'http://www.wikidata.org/entity/Q109311824', 'http://www.wikidata.org/entity/Q109381834', 'http://www.wikidata.org/entity/Q109500716', 'http://www.wikidata.org/entity/Q110413817', 'http://www.wikidata.org/entity/Q111242836', 'http://www.wikidata.org/entity/Q111242852', 'http://www.wikidata.org/entity/Q111333928', 'http://www.wikidata.org/entity/Q111633412', 'http://www.wikidata.org/entity/Q111738315', 'http://www.wikidata.org/entity/Q111738564', 'http://www.wikidata.org/entity/Q112045555', 'http://www.wikidata.org/entity/Q112059989', 'http://www.wikidata.org/entity/Q112127159', 'http://www.wikidata.org/entity/Q113470512', 'http://www.wikidata.org/entity/Q113680656', 'http://www.wikidata.org/entity/Q113841626', 'http://www.wikidata.org/entity/Q115641515', 'http://www.wikidata.org/entity/Q115708271', 'http://www.wikidata.org/entity/Q115912757', 'http://www.wikidata.org/entity/Q116943093', 'http://www.wikidata.org/entity/Q118193088', 'http://www.wikidata.org/entity/Q118842681', 'http://www.wikidata.org/entity/Q118849459', 'http://www.wikidata.org/entity/Q118906846', 'http://www.wikidata.org/entity/Q119820703', 'http://www.wikidata.org/entity/Q120475049', 'http://www.wikidata.org/entity/Q121301290', 'http://www.wikidata.org/entity/Q121969419', 'http://www.wikidata.org/entity/Q122416451', 'http://www.wikidata.org/entity/Q123009913', 'http://www.wikidata.org/entity/Q123269099', 'http://www.wikidata.org/entity/Q123298117', 'http://www.wikidata.org/entity/Q123516644', 'http://www.wikidata.org/entity/Q124100025', 'http://www.wikidata.org/entity/Q124248554', 'http://www.wikidata.org/entity/Q124328397', 'http://www.wikidata.org/entity/Q125636448', 'http://www.wikidata.org/entity/Q125859572', 'http://www.wikidata.org/entity/Q126811008', 'http://www.wikidata.org/entity/Q127297656', 'http://www.wikidata.org/entity/Q128861458', 'http://www.wikidata.org/entity/Q129261891', 'http://www.wikidata.org/entity/Q129876847', 'http://www.wikidata.org/entity/Q129876849', 'http://www.wikidata.org/entity/Q129876851', 'http://www.wikidata.org/entity/Q129876853', 'http://www.wikidata.org/entity/Q129876855', 'http://www.wikidata.org/entity/Q129876857', 'http://www.wikidata.org/entity/Q130237269', 'http://www.wikidata.org/entity/Q130237270', 'http://www.wikidata.org/entity/Q130237271', 'http://www.wikidata.org/entity/Q130237272', 'http://www.wikidata.org/entity/Q130237273', 'http://www.wikidata.org/entity/Q130237274', 'http://www.wikidata.org/entity/Q130237276', 'http://www.wikidata.org/entity/Q130237277', 'http://www.wikidata.org/entity/Q130237278', 'http://www.wikidata.org/entity/Q130237279', 'http://www.wikidata.org/entity/Q130237280', 'http://www.wikidata.org/entity/Q130237281', 'http://www.wikidata.org/entity/Q130237282', 'http://www.wikidata.org/entity/Q130237283', 'http://www.wikidata.org/entity/Q130237284', 'http://www.wikidata.org/entity/Q130237285', 'http://www.wikidata.org/entity/Q130237286', 'http://www.wikidata.org/entity/Q130237287', 'http://www.wikidata.org/entity/Q130237288', 'http://www.wikidata.org/entity/Q130237289', 'http://www.wikidata.org/entity/Q130237290', 'http://www.wikidata.org/entity/Q130237291', 'http://www.wikidata.org/entity/Q130237292', 'http://www.wikidata.org/entity/Q130237293', 'http://www.wikidata.org/entity/Q130237294', 'http://www.wikidata.org/entity/Q130237295', 'http://www.wikidata.org/entity/Q130237296', 'http://www.wikidata.org/entity/Q130237297', 'http://www.wikidata.org/entity/Q130237298', 'http://www.wikidata.org/entity/Q130237299', 'http://www.wikidata.org/entity/Q130237300', 'http://www.wikidata.org/entity/Q130237301', 'http://www.wikidata.org/entity/Q130237302', 'http://www.wikidata.org/entity/Q130237303', 'http://www.wikidata.org/entity/Q130237304', 'http://www.wikidata.org/entity/Q130237305', 'http://www.wikidata.org/entity/Q130237306', 'http://www.wikidata.org/entity/Q130237307', 'http://www.wikidata.org/entity/Q130237308', 'http://www.wikidata.org/entity/Q130237309', 'http://www.wikidata.org/entity/Q130237310', 'http://www.wikidata.org/entity/Q130237311', 'http://www.wikidata.org/entity/Q130237312', 'http://www.wikidata.org/entity/Q130237314', 'http://www.wikidata.org/entity/Q130237315', 'http://www.wikidata.org/entity/Q130237316', 'http://www.wikidata.org/entity/Q130237317', 'http://www.wikidata.org/entity/Q130237318', 'http://www.wikidata.org/entity/Q130237319', 'http://www.wikidata.org/entity/Q130237320', 'http://www.wikidata.org/entity/Q130237321', 'http://www.wikidata.org/entity/Q130237322', 'http://www.wikidata.org/entity/Q130237323', 'http://www.wikidata.org/entity/Q130237324', 'http://www.wikidata.org/entity/Q130237325', 'http://www.wikidata.org/entity/Q130237326', 'http://www.wikidata.org/entity/Q130237327', 'http://www.wikidata.org/entity/Q130237328', 'http://www.wikidata.org/entity/Q130237329', 'http://www.wikidata.org/entity/Q130237330', 'http://www.wikidata.org/entity/Q130237331', 'http://www.wikidata.org/entity/Q130237332', 'http://www.wikidata.org/entity/Q130237333', 'http://www.wikidata.org/entity/Q130237334', 'http://www.wikidata.org/entity/Q130237335', 'http://www.wikidata.org/entity/Q130237336', 'http://www.wikidata.org/entity/Q130237337', 'http://www.wikidata.org/entity/Q130237338', 'http://www.wikidata.org/entity/Q130237339', 'http://www.wikidata.org/entity/Q130237340', 'http://www.wikidata.org/entity/Q130237341', 'http://www.wikidata.org/entity/Q130237342', 'http://www.wikidata.org/entity/Q130237343', 'http://www.wikidata.org/entity/Q130237344', 'http://www.wikidata.org/entity/Q130237345', 'http://www.wikidata.org/entity/Q130237346', 'http://www.wikidata.org/entity/Q130237347', 'http://www.wikidata.org/entity/Q130237348', 'http://www.wikidata.org/entity/Q130237349', 'http://www.wikidata.org/entity/Q130237350', 'http://www.wikidata.org/entity/Q130237351', 'http://www.wikidata.org/entity/Q130237353', 'http://www.wikidata.org/entity/Q130237354', 'http://www.wikidata.org/entity/Q130237355', 'http://www.wikidata.org/entity/Q130237356', 'http://www.wikidata.org/entity/Q130237357', 'http://www.wikidata.org/entity/Q130237358', 'http://www.wikidata.org/entity/Q130237359', 'http://www.wikidata.org/entity/Q130237360', 'http://www.wikidata.org/entity/Q130237361', 'http://www.wikidata.org/entity/Q130237362', 'http://www.wikidata.org/entity/Q130237363', 'http://www.wikidata.org/entity/Q130237364', 'http://www.wikidata.org/entity/Q130237365', 'http://www.wikidata.org/entity/Q130237366', 'http://www.wikidata.org/entity/Q130237367', 'http://www.wikidata.org/entity/Q130237368', 'http://www.wikidata.org/entity/Q130237369', 'http://www.wikidata.org/entity/Q130237370', 'http://www.wikidata.org/entity/Q130237371', 'http://www.wikidata.org/entity/Q130237372', 'http://www.wikidata.org/entity/Q130237373', 'http://www.wikidata.org/entity/Q130237374', 'http://www.wikidata.org/entity/Q130237375', 'http://www.wikidata.org/entity/Q130237376', 'http://www.wikidata.org/entity/Q130237377', 'http://www.wikidata.org/entity/Q130237378', 'http://www.wikidata.org/entity/Q130237379', 'http://www.wikidata.org/entity/Q130237380', 'http://www.wikidata.org/entity/Q130237381', 'http://www.wikidata.org/entity/Q130237382', 'http://www.wikidata.org/entity/Q130237383', 'http://www.wikidata.org/entity/Q130237384', 'http://www.wikidata.org/entity/Q130237385', 'http://www.wikidata.org/entity/Q130237386', 'http://www.wikidata.org/entity/Q130237387', 'http://www.wikidata.org/entity/Q130237388', 'http://www.wikidata.org/entity/Q130237389', 'http://www.wikidata.org/entity/Q130237390', 'http://www.wikidata.org/entity/Q130237391', 'http://www.wikidata.org/entity/Q130237392', 'http://www.wikidata.org/entity/Q130237393', 'http://www.wikidata.org/entity/Q130237394', 'http://www.wikidata.org/entity/Q130237395', 'http://www.wikidata.org/entity/Q130237396', 'http://www.wikidata.org/entity/Q130237397', 'http://www.wikidata.org/entity/Q130237398', 'http://www.wikidata.org/entity/Q130237399', 'http://www.wikidata.org/entity/Q130237400', 'http://www.wikidata.org/entity/Q130237402', 'http://www.wikidata.org/entity/Q130237403', 'http://www.wikidata.org/entity/Q130237404', 'http://www.wikidata.org/entity/Q130237405', 'http://www.wikidata.org/entity/Q130237406', 'http://www.wikidata.org/entity/Q130237407', 'http://www.wikidata.org/entity/Q130237408', 'http://www.wikidata.org/entity/Q130237409', 'http://www.wikidata.org/entity/Q130237410', 'http://www.wikidata.org/entity/Q130237411', 'http://www.wikidata.org/entity/Q130237412', 'http://www.wikidata.org/entity/Q130237413', 'http://www.wikidata.org/entity/Q130237414', 'http://www.wikidata.org/entity/Q130237415', 'http://www.wikidata.org/entity/Q130237416', 'http://www.wikidata.org/entity/Q130237417', 'http://www.wikidata.org/entity/Q130237419', 'http://www.wikidata.org/entity/Q130237420', 'http://www.wikidata.org/entity/Q130237421', 'http://www.wikidata.org/entity/Q130237422', 'http://www.wikidata.org/entity/Q130237423', 'http://www.wikidata.org/entity/Q130237424', 'http://www.wikidata.org/entity/Q130237425', 'http://www.wikidata.org/entity/Q130237426', 'http://www.wikidata.org/entity/Q130237427', 'http://www.wikidata.org/entity/Q130237428', 'http://www.wikidata.org/entity/Q130237429', 'http://www.wikidata.org/entity/Q130237430', 'http://www.wikidata.org/entity/Q130237431', 'http://www.wikidata.org/entity/Q130237432', 'http://www.wikidata.org/entity/Q130237433', 'http://www.wikidata.org/entity/Q130237434', 'http://www.wikidata.org/entity/Q130237435', 'http://www.wikidata.org/entity/Q130237436', 'http://www.wikidata.org/entity/Q130237437', 'http://www.wikidata.org/entity/Q130237438', 'http://www.wikidata.org/entity/Q130237439', 'http://www.wikidata.org/entity/Q130237440', 'http://www.wikidata.org/entity/Q130237441', 'http://www.wikidata.org/entity/Q130237442', 'http://www.wikidata.org/entity/Q130237443', 'http://www.wikidata.org/entity/Q130237444', 'http://www.wikidata.org/entity/Q130237445', 'http://www.wikidata.org/entity/Q130237446', 'http://www.wikidata.org/entity/Q130237447', 'http://www.wikidata.org/entity/Q130237448', 'http://www.wikidata.org/entity/Q130237449', 'http://www.wikidata.org/entity/Q130237450', 'http://www.wikidata.org/entity/Q130237451', 'http://www.wikidata.org/entity/Q130237452', 'http://www.wikidata.org/entity/Q130237453', 'http://www.wikidata.org/entity/Q130237454', 'http://www.wikidata.org/entity/Q130237455', 'http://www.wikidata.org/entity/Q130237456', 'http://www.wikidata.org/entity/Q130237457', 'http://www.wikidata.org/entity/Q130237458', 'http://www.wikidata.org/entity/Q130237459', 'http://www.wikidata.org/entity/Q130237460', 'http://www.wikidata.org/entity/Q130237461', 'http://www.wikidata.org/entity/Q130237462', 'http://www.wikidata.org/entity/Q130237463', 'http://www.wikidata.org/entity/Q130237464', 'http://www.wikidata.org/entity/Q130237465', 'http://www.wikidata.org/entity/Q130237466', 'http://www.wikidata.org/entity/Q130237467', 'http://www.wikidata.org/entity/Q130237468', 'http://www.wikidata.org/entity/Q130237469', 'http://www.wikidata.org/entity/Q130237471', 'http://www.wikidata.org/entity/Q130237472', 'http://www.wikidata.org/entity/Q130237473', 'http://www.wikidata.org/entity/Q130237474', 'http://www.wikidata.org/entity/Q130237475', 'http://www.wikidata.org/entity/Q130237476', 'http://www.wikidata.org/entity/Q130237477', 'http://www.wikidata.org/entity/Q130237478', 'http://www.wikidata.org/entity/Q130237479', 'http://www.wikidata.org/entity/Q130237480', 'http://www.wikidata.org/entity/Q130237481', 'http://www.wikidata.org/entity/Q130</t>
+          <t>['http://www.wikidata.org/entity/Q20106670', 'http://www.wikidata.org/entity/Q20106755', 'http://www.wikidata.org/entity/Q20106794', 'http://www.wikidata.org/entity/Q20107331', 'http://www.wikidata.org/entity/Q20107766', 'http://www.wikidata.org/entity/Q20107785', 'http://www.wikidata.org/entity/Q20108096', 'http://www.wikidata.org/entity/Q20108097', 'http://www.wikidata.org/entity/Q20108098', 'http://www.wikidata.org/entity/Q20108299', 'http://www.wikidata.org/entity/Q20108433', 'http://www.wikidata.org/entity/Q20108749', 'http://www.wikidata.org/entity/Q20108834', 'http://www.wikidata.org/entity/Q20109092', 'http://www.wikidata.org/entity/Q20109116', 'http://www.wikidata.org/entity/Q20724614', 'http://www.wikidata.org/entity/Q23199370', 'http://www.wikidata.org/entity/Q23309296', 'http://www.wikidata.org/entity/Q23309493', 'http://www.wikidata.org/entity/Q23309754', 'http://www.wikidata.org/entity/Q23310065', 'http://www.wikidata.org/entity/Q23449316', 'http://www.wikidata.org/entity/Q23449563', 'http://www.wikidata.org/entity/Q23452764', 'http://www.wikidata.org/entity/Q23455600', 'http://www.wikidata.org/entity/Q23459290', 'http://www.wikidata.org/entity/Q23459345', 'http://www.wikidata.org/entity/Q23500667', 'http://www.wikidata.org/entity/Q23540271', 'http://www.wikidata.org/entity/Q23540407', 'http://www.wikidata.org/entity/Q23540583', 'http://www.wikidata.org/entity/Q23540764', 'http://www.wikidata.org/entity/Q23541026', 'http://www.wikidata.org/entity/Q23541279', 'http://www.wikidata.org/entity/Q23541312', 'http://www.wikidata.org/entity/Q23640572', 'http://www.wikidata.org/entity/Q23641859', 'http://www.wikidata.org/entity/Q23641876', 'http://www.wikidata.org/entity/Q23641877', 'http://www.wikidata.org/entity/Q23641879', 'http://www.wikidata.org/entity/Q23647866', 'http://www.wikidata.org/entity/Q23650275', 'http://www.wikidata.org/entity/Q23650279', 'http://www.wikidata.org/entity/Q23657080', 'http://www.wikidata.org/entity/Q24940835', 'http://www.wikidata.org/entity/Q47196900', 'http://www.wikidata.org/entity/Q55223763', 'http://www.wikidata.org/entity/Q60849262', 'http://www.wikidata.org/entity/Q62059890', 'http://www.wikidata.org/entity/Q97190829', 'http://www.wikidata.org/entity/Q108183111', 'http://www.wikidata.org/entity/Q108404671', 'http://www.wikidata.org/entity/Q108923501', 'http://www.wikidata.org/entity/Q111649876', 'http://www.wikidata.org/entity/Q113325889', 'http://www.wikidata.org/entity/Q113458549', 'http://www.wikidata.org/entity/Q113458586', 'http://www.wikidata.org/entity/Q115220170', 'http://www.wikidata.org/entity/Q115680468', 'http://www.wikidata.org/entity/Q115918939', 'http://www.wikidata.org/entity/Q116553084', 'http://www.wikidata.org/entity/Q116620871', 'http://www.wikidata.org/entity/Q117211723', 'http://www.wikidata.org/entity/Q117211724', 'http://www.wikidata.org/entity/Q117211725', 'http://www.wikidata.org/entity/Q120403066', 'http://www.wikidata.org/entity/Q122339754', 'http://www.wikidata.org/entity/Q122340707', 'http://www.wikidata.org/entity/Q122340709', 'http://www.wikidata.org/entity/Q122340715', 'http://www.wikidata.org/entity/Q122340961', 'http://www.wikidata.org/entity/Q122340962', 'http://www.wikidata.org/entity/Q122340997', 'http://www.wikidata.org/entity/Q122341038', 'http://www.wikidata.org/entity/Q122378278', 'http://www.wikidata.org/entity/Q124259057', 'http://www.wikidata.org/entity/Q126510686', 'http://www.wikidata.org/entity/Q126695857', 'http://www.wikidata.org/entity/Q129262518', 'http://www.wikidata.org/entity/Q129263928', 'http://www.wikidata.org/entity/Q130465425', 'http://www.wikidata.org/entity/Q130611902', 'http://www.wikidata.org/entity/Q131825649', 'http://www.wikidata.org/entity/Q45919493', 'http://www.wikidata.org/entity/Q57316168', 'http://www.wikidata.org/entity/Q57396575', 'http://www.wikidata.org/entity/Q69305891', 'http://www.wikidata.org/entity/Q69307402', 'http://www.wikidata.org/entity/Q1866927', 'http://www.wikidata.org/entity/Q10405661', 'http://www.wikidata.org/entity/Q25032', 'http://www.wikidata.org/entity/Q26314', 'http://www.wikidata.org/entity/Q29278', 'http://www.wikidata.org/entity/Q72900', 'http://www.wikidata.org/entity/Q131080', 'http://www.wikidata.org/entity/Q152395', 'http://www.wikidata.org/entity/Q152662', 'http://www.wikidata.org/entity/Q152771', 'http://www.wikidata.org/entity/Q153043', 'http://www.wikidata.org/entity/Q154326', 'http://www.wikidata.org/entity/Q162691', 'http://www.wikidata.org/entity/Q183283', 'http://www.wikidata.org/entity/Q188468', 'http://www.wikidata.org/entity/Q193027', 'http://www.wikidata.org/entity/Q207213', 'http://www.wikidata.org/entity/Q212829', 'http://www.wikidata.org/entity/Q216452', 'http://www.wikidata.org/entity/Q260881', 'http://www.wikidata.org/entity/Q309256', 'http://www.wikidata.org/entity/Q339689', 'http://www.wikidata.org/entity/Q381240', 'http://www.wikidata.org/entity/Q445955', 'http://www.wikidata.org/entity/Q460113', 'http://www.wikidata.org/entity/Q464458', 'http://www.wikidata.org/entity/Q474831', 'http://www.wikidata.org/entity/Q474853', 'http://www.wikidata.org/entity/Q475914', 'http://www.wikidata.org/entity/Q477741', 'http://www.wikidata.org/entity/Q514706', 'http://www.wikidata.org/entity/Q527006', 'http://www.wikidata.org/entity/Q574807', 'http://www.wikidata.org/entity/Q605458', 'http://www.wikidata.org/entity/Q614734', 'http://www.wikidata.org/entity/Q649128', 'http://www.wikidata.org/entity/Q671192', 'http://www.wikidata.org/entity/Q675181', 'http://www.wikidata.org/entity/Q685394', 'http://www.wikidata.org/entity/Q685602', 'http://www.wikidata.org/entity/Q691810', 'http://www.wikidata.org/entity/Q760225', 'http://www.wikidata.org/entity/Q788392', 'http://www.wikidata.org/entity/Q883628', 'http://www.wikidata.org/entity/Q928653', 'http://www.wikidata.org/entity/Q947100', 'http://www.wikidata.org/entity/Q959916', 'http://www.wikidata.org/entity/Q972803', 'http://www.wikidata.org/entity/Q1038328', 'http://www.wikidata.org/entity/Q1107928', 'http://www.wikidata.org/entity/Q1128065', 'http://www.wikidata.org/entity/Q1145922', 'http://www.wikidata.org/entity/Q1173073', 'http://www.wikidata.org/entity/Q1221069', 'http://www.wikidata.org/entity/Q1238731', 'http://www.wikidata.org/entity/Q1239437', 'http://www.wikidata.org/entity/Q1323616', 'http://www.wikidata.org/entity/Q1367629', 'http://www.wikidata.org/entity/Q1369701', 'http://www.wikidata.org/entity/Q1380471', 'http://www.wikidata.org/entity/Q1408533', 'http://www.wikidata.org/entity/Q1418137', 'http://www.wikidata.org/entity/Q1501703', 'http://www.wikidata.org/entity/Q1537037', 'http://www.wikidata.org/entity/Q1544847', 'http://www.wikidata.org/entity/Q1547788', 'http://www.wikidata.org/entity/Q1595338', 'http://www.wikidata.org/entity/Q1600879', 'http://www.wikidata.org/entity/Q1618905', 'http://www.wikidata.org/entity/Q1641521', 'http://www.wikidata.org/entity/Q1642232', 'http://www.wikidata.org/entity/Q1730891', 'http://www.wikidata.org/entity/Q1751963', 'http://www.wikidata.org/entity/Q1776288', 'http://www.wikidata.org/entity/Q1797519', 'http://www.wikidata.org/entity/Q1811302', 'http://www.wikidata.org/entity/Q1920049', 'http://www.wikidata.org/entity/Q1929272', 'http://www.wikidata.org/entity/Q1969313', 'http://www.wikidata.org/entity/Q2114954', 'http://www.wikidata.org/entity/Q2176622', 'http://www.wikidata.org/entity/Q2208208', 'http://www.wikidata.org/entity/Q2208328', 'http://www.wikidata.org/entity/Q2223165', 'http://www.wikidata.org/entity/Q2338650', 'http://www.wikidata.org/entity/Q2391718', 'http://www.wikidata.org/entity/Q2394624', 'http://www.wikidata.org/entity/Q2454744', 'http://www.wikidata.org/entity/Q2461213', 'http://www.wikidata.org/entity/Q2506218', 'http://www.wikidata.org/entity/Q2565716', 'http://www.wikidata.org/entity/Q2576064', 'http://www.wikidata.org/entity/Q2629762', 'http://www.wikidata.org/entity/Q2638602', 'http://www.wikidata.org/entity/Q2661455', 'http://www.wikidata.org/entity/Q2671446', 'http://www.wikidata.org/entity/Q2671645', 'http://www.wikidata.org/entity/Q2734385', 'http://www.wikidata.org/entity/Q2742233', 'http://www.wikidata.org/entity/Q2826519', 'http://www.wikidata.org/entity/Q2902548', 'http://www.wikidata.org/entity/Q2940731', 'http://www.wikidata.org/entity/Q3100758', 'http://www.wikidata.org/entity/Q3106381', 'http://www.wikidata.org/entity/Q3145002', 'http://www.wikidata.org/entity/Q3210273', 'http://www.wikidata.org/entity/Q3276499', 'http://www.wikidata.org/entity/Q3317559', 'http://www.wikidata.org/entity/Q3351929', 'http://www.wikidata.org/entity/Q3355023', 'http://www.wikidata.org/entity/Q3360406', 'http://www.wikidata.org/entity/Q3360565', 'http://www.wikidata.org/entity/Q3441599', 'http://www.wikidata.org/entity/Q3479082', 'http://www.wikidata.org/entity/Q3558603', 'http://www.wikidata.org/entity/Q3587649', 'http://www.wikidata.org/entity/Q3717878', 'http://www.wikidata.org/entity/Q3743886', 'http://www.wikidata.org/entity/Q3743957', 'http://www.wikidata.org/entity/Q3743962', 'http://www.wikidata.org/entity/Q3743963', 'http://www.wikidata.org/entity/Q3743969', 'http://www.wikidata.org/entity/Q3743970', 'http://www.wikidata.org/entity/Q3870479', 'http://www.wikidata.org/entity/Q4008673', 'http://www.wikidata.org/entity/Q4069073', 'http://www.wikidata.org/entity/Q4115762', 'http://www.wikidata.org/entity/Q4388007', 'http://www.wikidata.org/entity/Q4426058', 'http://www.wikidata.org/entity/Q4926335', 'http://www.wikidata.org/entity/Q4990671', 'http://www.wikidata.org/entity/Q5070885', 'http://www.wikidata.org/entity/Q5193138', 'http://www.wikidata.org/entity/Q5240972', 'http://www.wikidata.org/entity/Q5249824', 'http://www.wikidata.org/entity/Q5266410', 'http://www.wikidata.org/entity/Q5288819', 'http://www.wikidata.org/entity/Q5320307', 'http://www.wikidata.org/entity/Q5439541', 'http://www.wikidata.org/entity/Q5439549', 'http://www.wikidata.org/entity/Q5476020', 'http://www.wikidata.org/entity/Q5588583', 'http://www.wikidata.org/entity/Q5610840', 'http://www.wikidata.org/entity/Q5620353', 'http://www.wikidata.org/entity/Q5746722', 'http://www.wikidata.org/entity/Q5753239', 'http://www.wikidata.org/entity/Q5758552', 'http://www.wikidata.org/entity/Q5829324', 'http://www.wikidata.org/entity/Q5861378', 'http://www.wikidata.org/entity/Q5861764', 'http://www.wikidata.org/entity/Q5861873', 'http://www.wikidata.org/entity/Q5877770', 'http://www.wikidata.org/entity/Q5886922', 'http://www.wikidata.org/entity/Q5894800', 'http://www.wikidata.org/entity/Q5907204', 'http://www.wikidata.org/entity/Q5946371', 'http://www.wikidata.org/entity/Q6005322', 'http://www.wikidata.org/entity/Q6057512', 'http://www.wikidata.org/entity/Q6408072', 'http://www.wikidata.org/entity/Q6484291', 'http://www.wikidata.org/entity/Q6505620', 'http://www.wikidata.org/entity/Q7088502', 'http://www.wikidata.org/entity/Q7142743', 'http://www.wikidata.org/entity/Q7289735', 'http://www.wikidata.org/entity/Q7413171', 'http://www.wikidata.org/entity/Q7418539', 'http://www.wikidata.org/entity/Q7592831', 'http://www.wikidata.org/entity/Q7937378', 'http://www.wikidata.org/entity/Q9076605', 'http://www.wikidata.org/entity/Q10281749', 'http://www.wikidata.org/entity/Q10281780', 'http://www.wikidata.org/entity/Q10281783', 'http://www.wikidata.org/entity/Q10281787', 'http://www.wikidata.org/entity/Q10281793', 'http://www.wikidata.org/entity/Q10379695', 'http://www.wikidata.org/entity/Q10405623', 'http://www.wikidata.org/entity/Q10411424', 'http://www.wikidata.org/entity/Q10412386', 'http://www.wikidata.org/entity/Q11905207', 'http://www.wikidata.org/entity/Q11916249', 'http://www.wikidata.org/entity/Q11919652', 'http://www.wikidata.org/entity/Q11938257', 'http://www.wikidata.org/entity/Q11958442', 'http://www.wikidata.org/entity/Q11977920', 'http://www.wikidata.org/entity/Q12061483', 'http://www.wikidata.org/entity/Q12455865', 'http://www.wikidata.org/entity/Q12458939', 'http://www.wikidata.org/entity/Q12525597', 'http://www.wikidata.org/entity/Q12713841', 'http://www.wikidata.org/entity/Q12716026', 'http://www.wikidata.org/entity/Q12877855', 'http://www.wikidata.org/entity/Q12884515', 'http://www.wikidata.org/entity/Q13117015', 'http://www.wikidata.org/entity/Q13180810', 'http://www.wikidata.org/entity/Q13409860', 'http://www.wikidata.org/entity/Q15109140', 'http://www.wikidata.org/entity/Q15113728', 'http://www.wikidata.org/entity/Q15334955', 'http://www.wikidata.org/entity/Q15645154', 'http://www.wikidata.org/entity/Q15724459', 'http://www.wikidata.org/entity/Q15725511', 'http://www.wikidata.org/entity/Q15919013', 'http://www.wikidata.org/entity/Q15954764', 'http://www.wikidata.org/entity/Q16052134', 'http://www.wikidata.org/entity/Q16113327', 'http://www.wikidata.org/entity/Q16312282', 'http://www.wikidata.org/entity/Q16330747', 'http://www.wikidata.org/entity/Q16331414', 'http://www.wikidata.org/entity/Q16331743', 'http://www.wikidata.org/entity/Q16345168', 'http://www.wikidata.org/entity/Q16570179', 'http://www.wikidata.org/entity/Q16699028', 'http://www.wikidata.org/entity/Q111738564', 'http://www.wikidata.org/entity/Q112045555', 'http://www.wikidata.org/entity/Q112059989', 'http://www.wikidata.org/entity/Q112127159', 'http://www.wikidata.org/entity/Q113470512', 'http://www.wikidata.org/entity/Q113680656', 'http://www.wikidata.org/entity/Q113841626', 'http://www.wikidata.org/entity/Q115641515', 'http://www.wikidata.org/entity/Q115708271', 'http://www.wikidata.org/entity/Q115912757', 'http://www.wikidata.org/entity/Q116943093', 'http://www.wikidata.org/entity/Q118193088', 'http://www.wikidata.org/entity/Q118842681', 'http://www.wikidata.org/entity/Q118849459', 'http://www.wikidata.org/entity/Q118906846', 'http://www.wikidata.org/entity/Q119820703', 'http://www.wikidata.org/entity/Q120475049', 'http://www.wikidata.org/entity/Q121301290', 'http://www.wikidata.org/entity/Q121969419', 'http://www.wikidata.org/entity/Q122416451', 'http://www.wikidata.org/entity/Q123009913', 'http://www.wikidata.org/entity/Q123269099', 'http://www.wikidata.org/entity/Q123298117', 'http://www.wikidata.org/entity/Q123516644', 'http://www.wikidata.org/entity/Q124100025', 'http://www.wikidata.org/entity/Q124248554', 'http://www.wikidata.org/entity/Q124328397', 'http://www.wikidata.org/entity/Q125636448', 'http://www.wikidata.org/entity/Q125859572', 'http://www.wikidata.org/entity/Q126811008', 'http://www.wikidata.org/entity/Q127297656', 'http://www.wikidata.org/entity/Q128861458', 'http://www.wikidata.org/entity/Q129261891', 'http://www.wikidata.org/entity/Q129876847', 'http://www.wikidata.org/entity/Q129876849', 'http://www.wikidata.org/entity/Q129876851', 'http://www.wikidata.org/entity/Q129876853', 'http://www.wikidata.org/entity/Q129876855', 'http://www.wikidata.org/entity/Q129876857', 'http://www.wikidata.org/entity/Q130237269', 'http://www.wikidata.org/entity/Q130237270', 'http://www.wikidata.org/entity/Q130237271', 'http://www.wikidata.org/entity/Q130237272', 'http://www.wikidata.org/entity/Q130237273', 'http://www.wikidata.org/entity/Q130237274', 'http://www.wikidata.org/entity/Q130237276', 'http://www.wikidata.org/entity/Q130237277', 'http://www.wikidata.org/entity/Q130237278', 'http://www.wikidata.org/entity/Q130237279', 'http://www.wikidata.org/entity/Q130237280', 'http://www.wikidata.org/entity/Q130237281', 'http://www.wikidata.org/entity/Q130237282', 'http://www.wikidata.org/entity/Q130237283', 'http://www.wikidata.org/entity/Q130237284', 'http://www.wikidata.org/entity/Q130237285', 'http://www.wikidata.org/entity/Q130237286', 'http://www.wikidata.org/entity/Q130237287', 'http://www.wikidata.org/entity/Q130237288', 'http://www.wikidata.org/entity/Q130237289', 'http://www.wikidata.org/entity/Q130237290', 'http://www.wikidata.org/entity/Q130237291', 'http://www.wikidata.org/entity/Q130237292', 'http://www.wikidata.org/entity/Q130237293', 'http://www.wikidata.org/entity/Q130237294', 'http://www.wikidata.org/entity/Q130237295', 'http://www.wikidata.org/entity/Q130237296', 'http://www.wikidata.org/entity/Q130237297', 'http://www.wikidata.org/entity/Q130237298', 'http://www.wikidata.org/entity/Q130237299', 'http://www.wikidata.org/entity/Q130237300', 'http://www.wikidata.org/entity/Q130237301', 'http://www.wikidata.org/entity/Q130237302', 'http://www.wikidata.org/entity/Q130237303', 'http://www.wikidata.org/entity/Q130237304', 'http://www.wikidata.org/entity/Q130237305', 'http://www.wikidata.org/entity/Q130237306', 'http://www.wikidata.org/entity/Q130237307', 'http://www.wikidata.org/entity/Q130237308', 'http://www.wikidata.org/entity/Q130237309', 'http://www.wikidata.org/entity/Q130237310', 'http://www.wikidata.org/entity/Q130237311', 'http://www.wikidata.org/entity/Q130237312', 'http://www.wikidata.org/entity/Q130237314', 'http://www.wikidata.org/entity/Q130237315', 'http://www.wikidata.org/entity/Q130237316', 'http://www.wikidata.org/entity/Q130237317', 'http://www.wikidata.org/entity/Q130237318', 'http://www.wikidata.org/entity/Q130237319', 'http://www.wikidata.org/entity/Q130237320', 'http://www.wikidata.org/entity/Q130237321', 'http://www.wikidata.org/entity/Q130237322', 'http://www.wikidata.org/entity/Q130237323', 'http://www.wikidata.org/entity/Q130237324', 'http://www.wikidata.org/entity/Q130237325', 'http://www.wikidata.org/entity/Q130237326', 'http://www.wikidata.org/entity/Q130237327', 'http://www.wikidata.org/entity/Q130237328', 'http://www.wikidata.org/entity/Q130237329', 'http://www.wikidata.org/entity/Q130237330', 'http://www.wikidata.org/entity/Q130237331', 'http://www.wikidata.org/entity/Q16873812', 'http://www.wikidata.org/entity/Q16963574', 'http://www.wikidata.org/entity/Q17019244', 'http://www.wikidata.org/entity/Q17052906', 'http://www.wikidata.org/entity/Q17064941', 'http://www.wikidata.org/entity/Q17155801', 'http://www.wikidata.org/entity/Q17177239', 'http://www.wikidata.org/entity/Q17386635', 'http://www.wikidata.org/entity/Q17995343', 'http://www.wikidata.org/entity/Q18191653', 'http://www.wikidata.org/entity/Q18215312', 'http://www.wikidata.org/entity/Q18987298', 'http://www.wikidata.org/entity/Q19559318', 'http://www.wikidata.org/entity/Q19808956', 'http://www.wikidata.org/entity/Q19885976', 'http://www.wikidata.org/entity/Q20055687', 'http://www.wikidata.org/entity/Q20108063', 'http://www.wikidata.org/entity/Q20109142', 'http://www.wikidata.org/entity/Q20476964', 'http://www.wikidata.org/entity/Q20512338', 'http://www.wikidata.org/entity/Q20704257', 'http://www.wikidata.org/entity/Q20872650', 'http://www.wikidata.org/entity/Q21199140', 'http://www.wikidata.org/entity/Q21684190', 'http://www.wikidata.org/entity/Q24961004', 'http://www.wikidata.org/entity/Q25253494', 'http://www.wikidata.org/entity/Q25509550', 'http://www.wikidata.org/entity/Q25535657', 'http://www.wikidata.org/entity/Q25587296', 'http://www.wikidata.org/entity/Q25644141', 'http://www.wikidata.org/entity/Q27881732', 'http://www.wikidata.org/entity/Q28136810', 'http://www.wikidata.org/entity/Q28807713', 'http://www.wikidata.org/entity/Q30675075', 'http://www.wikidata.org/entity/Q31896070', 'http://www.wikidata.org/entity/Q31896093', 'http://www.wikidata.org/entity/Q35585621', 'http://www.wikidata.org/entity/Q39086559', 'http://www.wikidata.org/entity/Q43252544', 'http://www.wikidata.org/entity/Q46441681', 'http://www.wikidata.org/entity/Q50360872', 'http://www.wikidata.org/entity/Q51028723', 'http://www.wikidata.org/entity/Q55037361', 'http://www.wikidata.org/entity/Q57159832', 'http://www.wikidata.org/entity/Q60643381', 'http://www.wikidata.org/entity/Q61354730', 'http://www.wikidata.org/entity/Q65170894', 'http://www.wikidata.org/entity/Q65275195', 'http://www.wikidata.org/entity/Q65347908', 'http://www.wikidata.org/entity/Q65679763', 'http://www.wikidata.org/entity/Q66315418', 'http://www.wikidata.org/entity/Q66315644', 'http://www.wikidata.org/entity/Q80791307', 'http://www.wikidata.org/entity/Q84430787', 'http://www.wikidata.org/entity/Q85769095', 'http://www.wikidata.org/entity/Q86726012', 'http://www.wikidata.org/entity/Q87936485', 'http://www.wikidata.org/entity/Q88000458', 'http://www.wikidata.org/entity/Q97357901', 'http://www.wikidata.org/entity/Q98396967', 'http://www.wikidata.org/entity/Q99600910', 'http://www.wikidata.org/entity/Q105888686', 'http://www.wikidata.org/entity/Q106113886', 'http://www.wikidata.org/entity/Q106658464', 'http://www.wikidata.org/entity/Q106658575', 'http://www.wikidata.org/entity/Q106658749', 'http://www.wikidata.org/entity/Q106658879', 'http://www.wikidata.org/entity/Q106659060', 'http://www.wikidata.org/entity/Q106663543', 'http://www.wikidata.org/entity/Q106663566', 'http://www.wikidata.org/entity/Q106663587', 'http://www.wikidata.org/entity/Q106663613', 'http://www.wikidata.org/entity/Q106663745', 'http://www.wikidata.org/entity/Q106663779', 'http://www.wikidata.org/entity/Q106663799', 'http://www.wikidata.org/entity/Q106664025', 'http://www.wikidata.org/entity/Q106664072', 'http://www.wikidata.org/entity/Q106664114', 'http://www.wikidata.org/entity/Q106698317', 'http://www.wikidata.org/entity/Q106810895', 'http://www.wikidata.org/entity/Q107296290', 'http://www.wikidata.org/entity/Q107718805', 'http://www.wikidata.org/entity/Q108131396', 'http://www.wikidata.org/entity/Q108177441', 'http://www.wikidata.org/entity/Q108338128', 'http://www.wikidata.org/entity/Q108367189', 'http://www.wikidata.org/entity/Q108447771', 'http://www.wikidata.org/entity/Q108581891', 'http://www.wikidata.org/entity/Q108803791', 'http://www.wikidata.org/entity/Q109310919', 'http://www.wikidata.org/entity/Q109311258', 'http://www.wikidata.org/entity/Q109311824', 'http://www.wikidata.org/entity/Q109381834', 'http://www.wikidata.org/entity/Q109500716', 'http://www.wikidata.org/entity/Q110413817', 'http://www.wikidata.org/entity/Q111242836', 'http://www.wikidata.org/entity/Q111242852', 'http://www.wikidata.org/entity/Q111333928', 'http://www.wikidata.org/entity/Q111633412', 'http://www.wikidata.org/entity/Q111738315', 'http://www.wikidata.org/entity/Q12864986', 'http://www.wikidata.org/entity/Q45922130', 'http://www.wikidata.org/entity/Q57350935', 'http://www.wikidata.org/entity/Q57397044', 'http://www.wikidata.org/entity/Q1145630', 'http://www.wikidata.org/entity/Q3055633', 'http://www.wikidata.org/entity/Q3187040', 'http://www.wikidata.org/entity/Q13581075', 'http://www.wikidata.org/entity/Q23657184', 'http://www.wikidata.org/entity/Q126949840', 'http://www.wikidata.org/entity/Q92765434', 'http://www.wikidata.org/entity/Q115181793', 'http://www.wikidata.org/entity/Q103987830', 'http://www.wikidata.org/entity/Q104013369', 'http://www.wikidata.org/entity/Q116978631', 'http://www.wikidata.org/entity/Q12874', 'http://www.wikidata.org/entity/Q829919', 'http://www.wikidata.org/entity/Q1236370', 'http://www.wikidata.org/entity/Q2058236', 'http://www.wikidata.org/entity/Q2176621', 'http://www.wikidata.org/entity/Q3092909', 'http://www.wikidata.org/entity/Q3092911', 'http://www.wikidata.org/entity/Q3092917', 'http://www.wikidata.org/entity/Q3092925', 'http://www.wikidata.org/entity/Q3743920', 'http://www.wikidata.org/entity/Q3743972', 'http://www.wikidata.org/entity/Q3743990', 'http://www.wikidata.org/entity/Q5447345', 'http://www.wikidata.org/entity/Q5550345', 'http://www.wikidata.org/entity/Q5660198', 'http://www.wikidata.org/entity/Q5860860', 'http://www.wikidata.org/entity/Q5861663', 'http://www.wikidata.org/entity/Q5861795', 'http://www.wikidata.org/entity/Q5861825', 'http://www.wikidata.org/entity/Q8961595', 'http://www.wikidata.org/entity/Q11921892', 'http://www.wikidata.org/entity/Q11921893', 'http://www.wikidata.org/entity/Q11921915', 'http://www.wikidata.org/entity/Q11921926', 'http://www.wikidata.org/entity/Q11921927', 'http://www.wikidata.org/entity/Q12388488', 'http://www.wikidata.org/entity/Q16303295', 'http://www.wikidata.org/entity/Q16303298', 'http://www.wikidata.org/entity/Q17301586', 'http://www.wikidata.org/entity/Q17630412', 'http://www.wikidata.org/entity/Q18696203', 'http://www.wikidata.org/entity/Q19917524', 'http://www.wikidata.org/entity/Q20015055', 'http://www.wikidata.org/entity/Q20100567', 'http://www.wikidata.org/entity/Q20102845', 'http://www.wikidata.org/entity/Q20102966', 'http://www.wikidata.org/entity/Q20103063', 'http://www.wikidata.org/entity/Q20103076', 'http://www.wikidata.org/entity/Q20103348', 'http://www.wikidata.org/entity/Q20103509', 'http://www.wikidata.org/entity/Q20103662', 'http://www.wikidata.org/entity/Q20103856', 'http://www.wikidata.org/entity/Q20103945', 'http://www.wikidata.org/entity/Q20104229', 'http://www.wikidata.org/entity/Q20104233', 'http://www.wikidata.org/entity/Q20104238', 'http://www.wikidata.org/entity/Q20104248', 'http://www.wikidata.org/entity/Q20104252', 'http://www.wikidata.org/entity/Q20104262', 'http://www.wikidata.org/entity/Q20104265', 'http://www.wikidata.org/entity/Q20104268', 'http://www.wikidata.org/entity/Q20104407', 'http://www.wikidata.org/entity/Q20104434', 'http://www.wikidata.org/entity/Q20104445', 'http://www.wikidata.org/entity/Q20104469', 'http://www.wikidata.org/entity/Q20104474', 'http://www.wikidata.org/entity/Q20104482', 'http://www.wikidata.org/entity/Q20104506', 'http://www.wikidata.org/entity/Q20104613', 'http://www.wikidata.org/entity/Q20104655', 'http://www.wikidata.org/entity/Q20104667', 'http://www.wikidata.org/entity/Q20104876', 'http://www.wikidata.org/entity/Q20104915', 'http://www.wikidata.org/entity/Q20104956', 'http://www.wikidata.org/entity/Q20104964', 'http://www.wikidata.org/entity/Q20105027', 'http://www.wikidata.org/entity/Q20105033', 'http://www.wikidata.org/entity/Q20105353', 'http://www.wikidata.org/entity/Q20105877', 'http://www.wikidata.org/entity/Q20105975', 'http://www.wikidata.org/entity/Q20106073', 'http://www.wikidata.org/entity/Q20106203', 'http://www.wikidata.org/entity/Q20106415', 'http://www.wikidata.org/entity/Q20106420', 'http://www.wikidata.org/entity/Q20106424', 'http://www.wikidata.org/entity/Q20106425', 'http://www.wikidata.org/entity/Q20106430', 'http://www.wikidata.org/entity/Q20106433', 'http://www.wikidata.org/entity/Q20106436', 'http://www.wikidata.org/entity/Q20106438', 'http://www.wikidata.org/entity/Q20106450', 'http://www.wikidata.org/entity/Q20106481', 'http://www.wikidata.org/entity/Q20106518', 'http://www.wikidata.org/entity/Q20106650', 'http://www.wikidata.org/entity/Q20106652', 'http://www.wikidata.org/entity/Q130237435', 'http://www.wikidata.org/entity/Q130237436', 'http://www.wikidata.org/entity/Q130237437', 'http://www.wikidata.org/entity/Q130237438', 'http://www.wikidata.org/entity/Q130237439', 'http://www.wikidata.org/entity/Q130237440', 'http://www.wikidata.org/entity/Q130237441', 'http://www.wikidata.org/entity/Q130237442', 'http://www.wikidata.org/entity/Q130237443', 'http://www.wikidata.org/entity/Q130237444', 'http://www.wikidata.org/entity/Q130237445', 'http://www.wikidata.org/entity/Q130237446', 'http://www.wikidata.org/entity/Q130237447', 'http://www.wikidata.org/entity/Q130237448', 'http://www.wikidata.org/entity/Q130237449', 'http://www.wikidata.org/entity/Q130237450', 'http://www.wikidata.org/entity/Q130237451', 'http://www.wikidata.org/entity/Q130237452', 'http://www.wikidata.org/entity/Q130237453', 'http://www.wikidata.org/entity/Q130237454', 'http://www.wikidata.org/entity/Q130237455', 'http://www.wikidata.org/entity/Q130237456', 'http://www.wikidata.org/entity/Q130237457', 'http://www.wikidata.org/entity/Q130237458', 'http://www.wikidata.org/entity/Q130237459', 'http://www.wikidata.org/entity/Q130237460', 'http://www.wikidata.org/entity/Q130237461', 'http://www.wikidata.org/entity/Q130237462', 'http://www.wikidata.org/entity/Q130237463', 'http://www.wikidata.org/entity/Q130237464', 'http://www.wikidata.org/entity/Q130237465', 'http://www.wikidata.org/entity/Q130237466', 'http://www.wikidata.org/entity/Q130237467', 'http://www.wikidata.org/entity/Q130237468', 'http://www.wikidata.org/entity/Q130237469', 'http://www.wikidata.org/entity/Q130237471', 'http://www.wikidata.org/entity/Q130237472', 'http://www.wikidata.org/entity/Q130237473', 'http://www.wikidata.org/entity/Q130237474', 'http://www.wikidata.org/entity/Q130237475', 'http://www.wikidata.org/entity/Q130237476', 'http://www.wikidata.org/entity/Q130237477', 'http://www.wikidata.org/entity/Q130237478', 'http://www.wikidata.org/entity/Q130237479', 'http://www.wikidata.org/entity/Q130237480', 'http://www.wikidata.org/entity/Q130237481', 'http://www.wikidata.org/entity/Q130237482', 'http://www.wikidata.org/entity/Q130237484', 'http://www.wikidata.org/entity/Q130237485', 'http://www.wikidata.org/entity/Q130237487', 'http://www.wikidata.org/entity/Q130237488', 'http://www.wikidata.org/entity/Q130237489', 'http://www.wikidata.org/entity/Q130237490', 'http://www.wikidata.org/entity/Q130237491', 'http://www.wikidata.org/entity/Q130237492', 'http://www.wikidata.org/entity/Q130237493', 'http://www.wikidata.org/entity/Q130237494', 'http://www.wikidata.org/entity/Q130237495', 'http://www.wikidata.org/entity/Q130237496', 'http://www.wikidata.org/entity/Q130237497', 'http://www.wikidata.org/entity/Q130237498', 'http://www.wikidata.org/entity/Q130237499', 'http://www.wikidata.org/entity/Q130237500', 'http://www.wikidata.org/entity/Q130237501', 'http://www.wikidata.org/entity/Q130237502', 'http://www.wikidata.org/entity/Q130237503', 'http://www.wikidata.org/entity/Q130237504', 'http://www.wikidata.org/entity/Q130237505', 'http://www.wikidata.org/entity/Q130237506', 'http://www.wikidata.org/entity/Q130237507', 'http://www.wikidata.org/entity/Q130237508', 'http://www.wikidata.org/entity/Q130237509', 'http://www.wikidata.org/entity/Q130237510', 'http://www.wikidata.org/entity/Q130237511', 'http://www.wikidata.org/entity/Q130237513', 'http://www.wikidata.org/entity/Q130237514', 'http://www.wikidata.org/entity/Q130237515', 'http://www.wikidata.org/entity/Q130237516', 'http://www.wikidata.org/entity/Q130237517', 'http://www.wikidata.org/entity/Q130237518', 'http://www.wikidata.org/entity/Q130237520', 'http://www.wikidata.org/entity/Q130237521', 'http://www.wikidata.org/entity/Q130237522', 'http://www.wikidata.org/entity/Q130237524', 'http://www.wikidata.org/entity/Q130237525', 'http://www.wikidata.org/entity/Q130237526', 'http://www.wikidata.org/entity/Q130237527', 'http://www.wikidata.org/entity/Q130237529', 'http://www.wikidata.org/entity/Q130237530', 'http://www.wikidata.org/entity/Q130237531', 'http://www.wikidata.org/entity/Q130237532', 'http://www.wikidata.org/entity/Q130237534', 'http://www.wikidata.org/entity/Q130237535', 'http://www.wikidata.org/entity/Q130237536', 'http://www.wikidata.org/entity/Q130237537', 'http://www.wikidata.org/entity/Q130237538', 'http://www.wikidata.org/entity/Q130237539', 'http://www.wikidata.org/entity/Q130237540', 'http://www.wikidata.org/entity/Q130237541', 'http://www.wikidata.org/entity/Q130237542', 'http://www.wikidata.org/entity/Q130237332', 'http://www.wikidata.org/entity/Q130237333', 'http://www.wikidata.org/entity/Q130237334', 'http://www.wikidata.org/entity/Q130237335', 'http://www.wikidata.org/entity/Q130237336', 'http://www.wikidata.org/entity/Q130237337', 'http://www.wikidata.org/entity/Q130237338', 'http://www.wikidata.org/entity/Q130237339', 'http://www.wikidata.org/entity/Q130237340', 'http://www.wikidata.org/entity/Q130237341', 'http://www.wikidata.org/entity/Q130237342', 'http://www.wikidata.org/entity/Q130237343', 'http://www.wikidata.org/entity/Q130237344', 'http://www.wikidata.org/entity/Q130237345', 'http://www.wikidata.org/entity/Q130237346', 'http://www.wikidata.org/entity/Q130237347', 'http://www.wikidata.org/entity/Q130237348', 'http://www.wikidata.org/entity/Q130237349', 'http://www.wikidata.org/entity/Q130237350', 'http://www.wikidata.org/entity/Q130237351', 'http://www.wikidata.org/entity/Q130237353', 'http://www.wikidata.org/entity/Q130237354', 'http://www.wikidata.org/entity/Q130237355', 'http://www.wikidata.org/entity/Q130237356', 'http://www.wikidata.org/entity/Q130237357', 'http://www.wikidata.org/entity/Q130237358', 'http://www.wikidata.org/entity/Q130237359', 'http://www.wikidata.org/entity/Q130237360', 'http://www.wikidata.org/entity/Q130237361', 'http://www.wikidata.org/entity/Q130237362', 'http://www.wikidata.org/entity/Q130237363', 'http://www.wikidata.org/entity/Q130237364', 'http://www.wikidata.org/entity/Q130237365', 'http://www.wikidata.org/entity/Q130237366', 'http://www.wikidata.org/entity/Q130237367', 'http://www.wikidata.org/entity/Q130237368', 'http://www.wikidata.org/entity/Q130237369', 'http://www.wikidata.org/entity/Q130237370', 'http://www.wikidata.org/entity/Q130237371', 'http://www.wikidata.org/entity/Q130237372', 'http://www.wikidata.org/entity/Q130237373', 'http://www.wikidata.org/entity/Q130237374', 'http://www.wikidata.org/entity/Q130237375'</t>
         </is>
       </c>
     </row>
@@ -6920,7 +6920,7 @@
       </c>
       <c r="D295" t="inlineStr">
         <is>
-          <t>['32']</t>
+          <t>['34']</t>
         </is>
       </c>
     </row>
@@ -6937,12 +6937,12 @@
       </c>
       <c r="C296" t="inlineStr">
         <is>
-          <t>Success</t>
+          <t>Failure</t>
         </is>
       </c>
       <c r="D296" t="inlineStr">
         <is>
-          <t>['http://www.wikidata.org/entity/Q219982']</t>
+          <t>['No answer']</t>
         </is>
       </c>
     </row>
@@ -8064,7 +8064,7 @@
       </c>
       <c r="D347" t="inlineStr">
         <is>
-          <t>['102']</t>
+          <t>['103']</t>
         </is>
       </c>
     </row>
@@ -8416,7 +8416,7 @@
       </c>
       <c r="D363" t="inlineStr">
         <is>
-          <t>['http://www.wikidata.org/entity/Q60293', 'http://www.wikidata.org/entity/Q377822', 'http://www.wikidata.org/entity/Q2039914', 'http://www.wikidata.org/entity/Q3121039', 'http://www.wikidata.org/entity/Q4940077', 'http://www.wikidata.org/entity/Q5630564', 'http://www.wikidata.org/entity/Q24708160', 'http://www.wikidata.org/entity/Q26927185']</t>
+          <t>['http://www.wikidata.org/entity/Q60293', 'http://www.wikidata.org/entity/Q377822', 'http://www.wikidata.org/entity/Q2039914', 'http://www.wikidata.org/entity/Q3121039', 'http://www.wikidata.org/entity/Q24708160', 'http://www.wikidata.org/entity/Q26927185', 'http://www.wikidata.org/entity/Q4940077', 'http://www.wikidata.org/entity/Q5630564']</t>
         </is>
       </c>
     </row>
